--- a/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
@@ -1936,11 +1936,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -4137,10 +4137,10 @@
   <sheetPr/>
   <dimension ref="A1:O589"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A247" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G261" sqref="G261"/>
+      <selection pane="bottomLeft" activeCell="O254" sqref="O254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15007,7 +15007,7 @@
         <v>13661599457</v>
       </c>
       <c r="O254" s="8" t="s">
-        <v>170</v>
+        <v>451</v>
       </c>
     </row>
     <row r="255" spans="1:15">

--- a/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -1899,6 +1899,18 @@
   </si>
   <si>
     <t>张瑞超</t>
+  </si>
+  <si>
+    <t>上海珍赏餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>乡姑缘</t>
+  </si>
+  <si>
+    <t>杨丹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                              </t>
   </si>
   <si>
     <t>姓名</t>
@@ -1936,11 +1948,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -4137,10 +4149,10 @@
   <sheetPr/>
   <dimension ref="A1:O589"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A247" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O254" sqref="O254"/>
+      <selection pane="bottomLeft" activeCell="L256" sqref="L256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15057,8 +15069,48 @@
     </row>
     <row r="256" spans="1:15">
       <c r="A256" s="56"/>
-      <c r="N256" s="27"/>
-      <c r="O256" s="8"/>
+      <c r="B256" s="17">
+        <v>43088</v>
+      </c>
+      <c r="C256" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D256" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="E256" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="F256" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G256" s="8">
+        <v>76117306</v>
+      </c>
+      <c r="H256" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="I256" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J256" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K256" s="13">
+        <v>17721436606</v>
+      </c>
+      <c r="L256" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="M256" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="N256" s="27">
+        <v>13761461169</v>
+      </c>
+      <c r="O256" s="8" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="257" spans="1:15">
       <c r="A257" s="61"/>
@@ -15132,6 +15184,9 @@
     </row>
     <row r="271" spans="1:15">
       <c r="A271" s="19"/>
+      <c r="G271" s="8" t="s">
+        <v>615</v>
+      </c>
       <c r="N271" s="27"/>
       <c r="O271" s="8"/>
     </row>
@@ -16188,10 +16243,10 @@
     <mergeCell ref="A254:A257"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B60 B71 B84 B85 B86 B106 B163 B179 B198 B199 B200 B227 B228 B229 B230 B231 B232 B233 B234 B235 B236 B237 B238 B239 B240 B241 B242 B243 B244 B245 B246 B247 B248 B249 B250 B251 B252 B253 B254 B255 B4:B17 B18:B23 B24:B34 B49:B59 B61:B70 B72:B81 B82:B83 B87:B105 B107:B117 B118:B137 B138:B146 B147:B162 B164:B178 B180:B197 B201:B216 B217:B226 B256:B1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B60 B71 B84 B85 B86 B106 B163 B179 B198 B199 B200 B227 B228 B229 B230 B231 B232 B233 B234 B235 B236 B237 B238 B239 B240 B241 B242 B243 B244 B245 B246 B247 B248 B249 B250 B251 B252 B253 B254 B255 B256 B4:B17 B18:B23 B24:B34 B49:B59 B61:B70 B72:B81 B82:B83 B87:B105 B107:B117 B118:B137 B138:B146 B147:B162 B164:B178 B180:B197 B201:B216 B217:B226 B257:B1048576">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C18 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C146 C163 C179 C198 C199 C200 C227 C228 C229 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C4:C17 C19:C22 C23:C35 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C145 C147:C162 C164:C178 C180:C197 C201:C216 C217:C226 C230:C234 C256:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C18 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C146 C163 C179 C198 C199 C200 C227 C228 C229 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C4:C17 C19:C22 C23:C35 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C145 C147:C162 C164:C178 C180:C197 C201:C216 C217:C226 C230:C234 C257:C1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16220,13 +16275,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -16237,7 +16292,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -16248,7 +16303,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -16259,7 +16314,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -16275,7 +16330,7 @@
         <v>43050</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -16286,7 +16341,7 @@
         <v>43064</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -16302,7 +16357,7 @@
         <v>43079</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -16313,7 +16368,7 @@
         <v>43085</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -16324,7 +16379,7 @@
         <v>43092</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="12" spans="1:3">

--- a/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
@@ -12,7 +12,7 @@
     <sheet name="加班明细表" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">上线明细!$B$1:$P$589</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">上线明细!$B$1:$P$592</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -1911,6 +1911,12 @@
   </si>
   <si>
     <t>章小姐</t>
+  </si>
+  <si>
+    <t>捞王锅物料理(五角场万达店)</t>
+  </si>
+  <si>
+    <t>陈华</t>
   </si>
   <si>
     <t xml:space="preserve">                                                                                                                                                                                                                                                                              </t>
@@ -1951,11 +1957,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2042,93 +2048,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2136,28 +2056,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2179,7 +2077,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2191,15 +2143,69 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2260,13 +2266,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2284,24 +2380,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2314,13 +2392,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2332,97 +2428,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2793,36 +2799,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2847,13 +2823,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2863,6 +2843,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2884,6 +2879,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -2896,10 +2902,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2908,16 +2914,16 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2926,126 +2932,126 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4199,12 +4205,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P754"/>
+  <dimension ref="A1:P757"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M256" sqref="M256"/>
+      <selection pane="bottomLeft" activeCell="C258" sqref="C258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15950,29 +15956,99 @@
         <v>171</v>
       </c>
     </row>
-    <row r="257" spans="1:16">
+    <row r="257" s="5" customFormat="1" spans="1:16">
       <c r="A257" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B257" s="65"/>
-      <c r="O257" s="12"/>
-      <c r="P257" s="8"/>
-    </row>
-    <row r="258" spans="1:16">
-      <c r="A258" s="22"/>
-      <c r="B258" s="21"/>
+      <c r="B257" s="59"/>
+      <c r="C257" s="18">
+        <v>43089</v>
+      </c>
+      <c r="D257" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E257" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F257" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G257" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H257" s="8">
+        <v>76116396</v>
+      </c>
+      <c r="I257" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="J257" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K257" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L257" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M257" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="N257" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O257" s="12">
+        <v>15921046369</v>
+      </c>
+      <c r="P257" s="8" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="258" s="5" customFormat="1" spans="1:16">
+      <c r="A258" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B258" s="65"/>
+      <c r="C258" s="8"/>
+      <c r="D258" s="8"/>
+      <c r="E258" s="8"/>
+      <c r="F258" s="8"/>
+      <c r="G258" s="8"/>
+      <c r="H258" s="8"/>
+      <c r="I258" s="8"/>
+      <c r="J258" s="8"/>
+      <c r="K258" s="8"/>
+      <c r="L258" s="8"/>
+      <c r="M258" s="8"/>
+      <c r="N258" s="8"/>
       <c r="O258" s="12"/>
       <c r="P258" s="8"/>
     </row>
-    <row r="259" spans="1:16">
-      <c r="A259" s="22"/>
-      <c r="B259" s="21"/>
+    <row r="259" s="5" customFormat="1" spans="1:16">
+      <c r="A259" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B259" s="65"/>
+      <c r="C259" s="8"/>
+      <c r="D259" s="8"/>
+      <c r="E259" s="8"/>
+      <c r="F259" s="8"/>
+      <c r="G259" s="8"/>
+      <c r="H259" s="8"/>
+      <c r="I259" s="8"/>
+      <c r="J259" s="8"/>
+      <c r="K259" s="8"/>
+      <c r="L259" s="8"/>
+      <c r="M259" s="8"/>
+      <c r="N259" s="8"/>
       <c r="O259" s="12"/>
       <c r="P259" s="8"/>
     </row>
     <row r="260" spans="1:16">
-      <c r="A260" s="22"/>
-      <c r="B260" s="21"/>
+      <c r="A260" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B260" s="65"/>
       <c r="O260" s="12"/>
       <c r="P260" s="8"/>
     </row>
@@ -16039,9 +16115,6 @@
     <row r="271" spans="1:16">
       <c r="A271" s="22"/>
       <c r="B271" s="21"/>
-      <c r="H271" s="8" t="s">
-        <v>616</v>
-      </c>
       <c r="O271" s="12"/>
       <c r="P271" s="8"/>
     </row>
@@ -16060,6 +16133,9 @@
     <row r="274" spans="1:16">
       <c r="A274" s="22"/>
       <c r="B274" s="21"/>
+      <c r="H274" s="8" t="s">
+        <v>618</v>
+      </c>
       <c r="O274" s="12"/>
       <c r="P274" s="8"/>
     </row>
@@ -16315,17 +16391,23 @@
       <c r="O316" s="12"/>
       <c r="P316" s="8"/>
     </row>
-    <row r="317" spans="1:2">
+    <row r="317" spans="1:16">
       <c r="A317" s="22"/>
       <c r="B317" s="21"/>
-    </row>
-    <row r="318" spans="1:2">
+      <c r="O317" s="12"/>
+      <c r="P317" s="8"/>
+    </row>
+    <row r="318" spans="1:16">
       <c r="A318" s="22"/>
       <c r="B318" s="21"/>
-    </row>
-    <row r="319" spans="1:2">
+      <c r="O318" s="12"/>
+      <c r="P318" s="8"/>
+    </row>
+    <row r="319" spans="1:16">
       <c r="A319" s="22"/>
       <c r="B319" s="21"/>
+      <c r="O319" s="12"/>
+      <c r="P319" s="8"/>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="22"/>
@@ -16692,7 +16774,7 @@
       <c r="B410" s="21"/>
     </row>
     <row r="411" spans="1:2">
-      <c r="A411" s="66"/>
+      <c r="A411" s="22"/>
       <c r="B411" s="21"/>
     </row>
     <row r="412" spans="1:2">
@@ -16704,7 +16786,7 @@
       <c r="B413" s="21"/>
     </row>
     <row r="414" spans="1:2">
-      <c r="A414" s="22"/>
+      <c r="A414" s="66"/>
       <c r="B414" s="21"/>
     </row>
     <row r="415" spans="1:2">
@@ -16764,7 +16846,7 @@
       <c r="B428" s="21"/>
     </row>
     <row r="429" spans="1:2">
-      <c r="A429" s="66"/>
+      <c r="A429" s="22"/>
       <c r="B429" s="21"/>
     </row>
     <row r="430" spans="1:2">
@@ -16772,1160 +16854,1172 @@
       <c r="B430" s="21"/>
     </row>
     <row r="431" spans="1:2">
-      <c r="A431" s="66"/>
+      <c r="A431" s="22"/>
       <c r="B431" s="21"/>
     </row>
     <row r="432" spans="1:2">
-      <c r="A432" s="22"/>
+      <c r="A432" s="66"/>
       <c r="B432" s="21"/>
     </row>
     <row r="433" spans="1:2">
-      <c r="A433" s="66"/>
+      <c r="A433" s="22"/>
       <c r="B433" s="21"/>
     </row>
     <row r="434" spans="1:2">
-      <c r="A434" s="22"/>
+      <c r="A434" s="66"/>
       <c r="B434" s="21"/>
     </row>
     <row r="435" spans="1:2">
-      <c r="A435" s="66"/>
+      <c r="A435" s="22"/>
       <c r="B435" s="21"/>
     </row>
     <row r="436" spans="1:2">
-      <c r="A436" s="22"/>
+      <c r="A436" s="66"/>
       <c r="B436" s="21"/>
     </row>
     <row r="437" spans="1:2">
-      <c r="A437" s="66"/>
+      <c r="A437" s="22"/>
       <c r="B437" s="21"/>
     </row>
     <row r="438" spans="1:2">
-      <c r="A438" s="22"/>
+      <c r="A438" s="66"/>
       <c r="B438" s="21"/>
     </row>
     <row r="439" spans="1:2">
-      <c r="A439" s="66"/>
+      <c r="A439" s="22"/>
       <c r="B439" s="21"/>
     </row>
     <row r="440" spans="1:2">
-      <c r="A440" s="22"/>
+      <c r="A440" s="66"/>
       <c r="B440" s="21"/>
     </row>
     <row r="441" spans="1:2">
-      <c r="A441" s="66"/>
+      <c r="A441" s="22"/>
       <c r="B441" s="21"/>
     </row>
     <row r="442" spans="1:2">
-      <c r="A442" s="22"/>
+      <c r="A442" s="66"/>
       <c r="B442" s="21"/>
     </row>
     <row r="443" spans="1:2">
-      <c r="A443" s="66"/>
+      <c r="A443" s="22"/>
       <c r="B443" s="21"/>
     </row>
     <row r="444" spans="1:2">
-      <c r="A444" s="22"/>
+      <c r="A444" s="66"/>
       <c r="B444" s="21"/>
     </row>
     <row r="445" spans="1:2">
-      <c r="A445" s="66"/>
+      <c r="A445" s="22"/>
       <c r="B445" s="21"/>
     </row>
     <row r="446" spans="1:2">
-      <c r="A446" s="22"/>
+      <c r="A446" s="66"/>
       <c r="B446" s="21"/>
     </row>
     <row r="447" spans="1:2">
-      <c r="A447" s="66"/>
+      <c r="A447" s="22"/>
       <c r="B447" s="21"/>
     </row>
     <row r="448" spans="1:2">
-      <c r="A448" s="22"/>
+      <c r="A448" s="66"/>
       <c r="B448" s="21"/>
     </row>
     <row r="449" spans="1:2">
-      <c r="A449" s="66"/>
+      <c r="A449" s="22"/>
       <c r="B449" s="21"/>
     </row>
     <row r="450" spans="1:2">
-      <c r="A450" s="22"/>
+      <c r="A450" s="66"/>
       <c r="B450" s="21"/>
     </row>
     <row r="451" spans="1:2">
-      <c r="A451" s="66"/>
+      <c r="A451" s="22"/>
       <c r="B451" s="21"/>
     </row>
     <row r="452" spans="1:2">
-      <c r="A452" s="22"/>
+      <c r="A452" s="66"/>
       <c r="B452" s="21"/>
     </row>
     <row r="453" spans="1:2">
-      <c r="A453" s="66"/>
+      <c r="A453" s="22"/>
       <c r="B453" s="21"/>
     </row>
     <row r="454" spans="1:2">
-      <c r="A454" s="22"/>
+      <c r="A454" s="66"/>
       <c r="B454" s="21"/>
     </row>
     <row r="455" spans="1:2">
-      <c r="A455" s="66"/>
+      <c r="A455" s="22"/>
       <c r="B455" s="21"/>
     </row>
     <row r="456" spans="1:2">
-      <c r="A456" s="22"/>
+      <c r="A456" s="66"/>
       <c r="B456" s="21"/>
     </row>
     <row r="457" spans="1:2">
-      <c r="A457" s="66"/>
+      <c r="A457" s="22"/>
       <c r="B457" s="21"/>
     </row>
     <row r="458" spans="1:2">
-      <c r="A458" s="22"/>
+      <c r="A458" s="66"/>
       <c r="B458" s="21"/>
     </row>
     <row r="459" spans="1:2">
-      <c r="A459" s="66"/>
+      <c r="A459" s="22"/>
       <c r="B459" s="21"/>
     </row>
     <row r="460" spans="1:2">
-      <c r="A460" s="22"/>
+      <c r="A460" s="66"/>
       <c r="B460" s="21"/>
     </row>
     <row r="461" spans="1:2">
-      <c r="A461" s="66"/>
+      <c r="A461" s="22"/>
       <c r="B461" s="21"/>
     </row>
     <row r="462" spans="1:2">
-      <c r="A462" s="22"/>
+      <c r="A462" s="66"/>
       <c r="B462" s="21"/>
     </row>
     <row r="463" spans="1:2">
-      <c r="A463" s="66"/>
+      <c r="A463" s="22"/>
       <c r="B463" s="21"/>
     </row>
     <row r="464" spans="1:2">
-      <c r="A464" s="22"/>
+      <c r="A464" s="66"/>
       <c r="B464" s="21"/>
     </row>
     <row r="465" spans="1:2">
-      <c r="A465" s="66"/>
+      <c r="A465" s="22"/>
       <c r="B465" s="21"/>
     </row>
     <row r="466" spans="1:2">
-      <c r="A466" s="22"/>
+      <c r="A466" s="66"/>
       <c r="B466" s="21"/>
     </row>
     <row r="467" spans="1:2">
-      <c r="A467" s="66"/>
+      <c r="A467" s="22"/>
       <c r="B467" s="21"/>
     </row>
     <row r="468" spans="1:2">
-      <c r="A468" s="22"/>
+      <c r="A468" s="66"/>
       <c r="B468" s="21"/>
     </row>
     <row r="469" spans="1:2">
-      <c r="A469" s="66"/>
+      <c r="A469" s="22"/>
       <c r="B469" s="21"/>
     </row>
     <row r="470" spans="1:2">
-      <c r="A470" s="22"/>
+      <c r="A470" s="66"/>
       <c r="B470" s="21"/>
     </row>
     <row r="471" spans="1:2">
-      <c r="A471" s="66"/>
+      <c r="A471" s="22"/>
       <c r="B471" s="21"/>
     </row>
     <row r="472" spans="1:2">
-      <c r="A472" s="22"/>
+      <c r="A472" s="66"/>
       <c r="B472" s="21"/>
     </row>
     <row r="473" spans="1:2">
-      <c r="A473" s="66"/>
+      <c r="A473" s="22"/>
       <c r="B473" s="21"/>
     </row>
     <row r="474" spans="1:2">
-      <c r="A474" s="22"/>
+      <c r="A474" s="66"/>
       <c r="B474" s="21"/>
     </row>
     <row r="475" spans="1:2">
-      <c r="A475" s="66"/>
+      <c r="A475" s="22"/>
       <c r="B475" s="21"/>
     </row>
     <row r="476" spans="1:2">
-      <c r="A476" s="22"/>
+      <c r="A476" s="66"/>
       <c r="B476" s="21"/>
     </row>
     <row r="477" spans="1:2">
-      <c r="A477" s="66"/>
+      <c r="A477" s="22"/>
       <c r="B477" s="21"/>
     </row>
     <row r="478" spans="1:2">
-      <c r="A478" s="22"/>
+      <c r="A478" s="66"/>
       <c r="B478" s="21"/>
     </row>
     <row r="479" spans="1:2">
-      <c r="A479" s="66"/>
+      <c r="A479" s="22"/>
       <c r="B479" s="21"/>
     </row>
     <row r="480" spans="1:2">
-      <c r="A480" s="22"/>
+      <c r="A480" s="66"/>
       <c r="B480" s="21"/>
     </row>
     <row r="481" spans="1:2">
-      <c r="A481" s="66"/>
+      <c r="A481" s="22"/>
       <c r="B481" s="21"/>
     </row>
     <row r="482" spans="1:2">
-      <c r="A482" s="22"/>
+      <c r="A482" s="66"/>
       <c r="B482" s="21"/>
     </row>
     <row r="483" spans="1:2">
-      <c r="A483" s="66"/>
+      <c r="A483" s="22"/>
       <c r="B483" s="21"/>
     </row>
     <row r="484" spans="1:2">
-      <c r="A484" s="22"/>
+      <c r="A484" s="66"/>
       <c r="B484" s="21"/>
     </row>
     <row r="485" spans="1:2">
-      <c r="A485" s="66"/>
+      <c r="A485" s="22"/>
       <c r="B485" s="21"/>
     </row>
     <row r="486" spans="1:2">
-      <c r="A486" s="22"/>
+      <c r="A486" s="66"/>
       <c r="B486" s="21"/>
     </row>
     <row r="487" spans="1:2">
-      <c r="A487" s="66"/>
+      <c r="A487" s="22"/>
       <c r="B487" s="21"/>
     </row>
     <row r="488" spans="1:2">
-      <c r="A488" s="22"/>
+      <c r="A488" s="66"/>
       <c r="B488" s="21"/>
     </row>
     <row r="489" spans="1:2">
-      <c r="A489" s="66"/>
+      <c r="A489" s="22"/>
       <c r="B489" s="21"/>
     </row>
     <row r="490" spans="1:2">
-      <c r="A490" s="22"/>
+      <c r="A490" s="66"/>
       <c r="B490" s="21"/>
     </row>
     <row r="491" spans="1:2">
-      <c r="A491" s="66"/>
+      <c r="A491" s="22"/>
       <c r="B491" s="21"/>
     </row>
     <row r="492" spans="1:2">
-      <c r="A492" s="22"/>
+      <c r="A492" s="66"/>
       <c r="B492" s="21"/>
     </row>
     <row r="493" spans="1:2">
-      <c r="A493" s="66"/>
+      <c r="A493" s="22"/>
       <c r="B493" s="21"/>
     </row>
     <row r="494" spans="1:2">
-      <c r="A494" s="22"/>
+      <c r="A494" s="66"/>
       <c r="B494" s="21"/>
     </row>
     <row r="495" spans="1:2">
-      <c r="A495" s="66"/>
+      <c r="A495" s="22"/>
       <c r="B495" s="21"/>
     </row>
     <row r="496" spans="1:2">
-      <c r="A496" s="22"/>
+      <c r="A496" s="66"/>
       <c r="B496" s="21"/>
     </row>
     <row r="497" spans="1:2">
-      <c r="A497" s="66"/>
+      <c r="A497" s="22"/>
       <c r="B497" s="21"/>
     </row>
     <row r="498" spans="1:2">
-      <c r="A498" s="22"/>
+      <c r="A498" s="66"/>
       <c r="B498" s="21"/>
     </row>
     <row r="499" spans="1:2">
-      <c r="A499" s="66"/>
+      <c r="A499" s="22"/>
       <c r="B499" s="21"/>
     </row>
     <row r="500" spans="1:2">
-      <c r="A500" s="22"/>
+      <c r="A500" s="66"/>
       <c r="B500" s="21"/>
     </row>
     <row r="501" spans="1:2">
-      <c r="A501" s="66"/>
+      <c r="A501" s="22"/>
       <c r="B501" s="21"/>
     </row>
     <row r="502" spans="1:2">
-      <c r="A502" s="22"/>
+      <c r="A502" s="66"/>
       <c r="B502" s="21"/>
     </row>
     <row r="503" spans="1:2">
-      <c r="A503" s="66"/>
+      <c r="A503" s="22"/>
       <c r="B503" s="21"/>
     </row>
     <row r="504" spans="1:2">
-      <c r="A504" s="22"/>
+      <c r="A504" s="66"/>
       <c r="B504" s="21"/>
     </row>
     <row r="505" spans="1:2">
-      <c r="A505" s="66"/>
+      <c r="A505" s="22"/>
       <c r="B505" s="21"/>
     </row>
     <row r="506" spans="1:2">
-      <c r="A506" s="22"/>
+      <c r="A506" s="66"/>
       <c r="B506" s="21"/>
     </row>
     <row r="507" spans="1:2">
-      <c r="A507" s="66"/>
+      <c r="A507" s="22"/>
       <c r="B507" s="21"/>
     </row>
     <row r="508" spans="1:2">
-      <c r="A508" s="22"/>
+      <c r="A508" s="66"/>
       <c r="B508" s="21"/>
     </row>
     <row r="509" spans="1:2">
-      <c r="A509" s="66"/>
+      <c r="A509" s="22"/>
       <c r="B509" s="21"/>
     </row>
     <row r="510" spans="1:2">
-      <c r="A510" s="22"/>
+      <c r="A510" s="66"/>
       <c r="B510" s="21"/>
     </row>
     <row r="511" spans="1:2">
-      <c r="A511" s="66"/>
+      <c r="A511" s="22"/>
       <c r="B511" s="21"/>
     </row>
     <row r="512" spans="1:2">
-      <c r="A512" s="22"/>
+      <c r="A512" s="66"/>
       <c r="B512" s="21"/>
     </row>
     <row r="513" spans="1:2">
-      <c r="A513" s="66"/>
+      <c r="A513" s="22"/>
       <c r="B513" s="21"/>
     </row>
     <row r="514" spans="1:2">
-      <c r="A514" s="22"/>
+      <c r="A514" s="66"/>
       <c r="B514" s="21"/>
     </row>
     <row r="515" spans="1:2">
-      <c r="A515" s="66"/>
+      <c r="A515" s="22"/>
       <c r="B515" s="21"/>
     </row>
     <row r="516" spans="1:2">
-      <c r="A516" s="22"/>
+      <c r="A516" s="66"/>
       <c r="B516" s="21"/>
     </row>
     <row r="517" spans="1:2">
-      <c r="A517" s="66"/>
+      <c r="A517" s="22"/>
       <c r="B517" s="21"/>
     </row>
     <row r="518" spans="1:2">
-      <c r="A518" s="22"/>
+      <c r="A518" s="66"/>
       <c r="B518" s="21"/>
     </row>
     <row r="519" spans="1:2">
-      <c r="A519" s="66"/>
+      <c r="A519" s="22"/>
       <c r="B519" s="21"/>
     </row>
     <row r="520" spans="1:2">
-      <c r="A520" s="22"/>
+      <c r="A520" s="66"/>
       <c r="B520" s="21"/>
     </row>
     <row r="521" spans="1:2">
-      <c r="A521" s="66"/>
+      <c r="A521" s="22"/>
       <c r="B521" s="21"/>
     </row>
     <row r="522" spans="1:2">
-      <c r="A522" s="22"/>
+      <c r="A522" s="66"/>
       <c r="B522" s="21"/>
     </row>
     <row r="523" spans="1:2">
-      <c r="A523" s="66"/>
+      <c r="A523" s="22"/>
       <c r="B523" s="21"/>
     </row>
     <row r="524" spans="1:2">
-      <c r="A524" s="22"/>
+      <c r="A524" s="66"/>
       <c r="B524" s="21"/>
     </row>
     <row r="525" spans="1:2">
-      <c r="A525" s="66"/>
+      <c r="A525" s="22"/>
       <c r="B525" s="21"/>
     </row>
     <row r="526" spans="1:2">
-      <c r="A526" s="22"/>
+      <c r="A526" s="66"/>
       <c r="B526" s="21"/>
     </row>
     <row r="527" spans="1:2">
-      <c r="A527" s="66"/>
+      <c r="A527" s="22"/>
       <c r="B527" s="21"/>
     </row>
     <row r="528" spans="1:2">
-      <c r="A528" s="22"/>
+      <c r="A528" s="66"/>
       <c r="B528" s="21"/>
     </row>
     <row r="529" spans="1:2">
-      <c r="A529" s="66"/>
+      <c r="A529" s="22"/>
       <c r="B529" s="21"/>
     </row>
     <row r="530" spans="1:2">
-      <c r="A530" s="22"/>
+      <c r="A530" s="66"/>
       <c r="B530" s="21"/>
     </row>
     <row r="531" spans="1:2">
-      <c r="A531" s="66"/>
+      <c r="A531" s="22"/>
       <c r="B531" s="21"/>
     </row>
     <row r="532" spans="1:2">
-      <c r="A532" s="22"/>
+      <c r="A532" s="66"/>
       <c r="B532" s="21"/>
     </row>
     <row r="533" spans="1:2">
-      <c r="A533" s="66"/>
+      <c r="A533" s="22"/>
       <c r="B533" s="21"/>
     </row>
     <row r="534" spans="1:2">
-      <c r="A534" s="22"/>
+      <c r="A534" s="66"/>
       <c r="B534" s="21"/>
     </row>
     <row r="535" spans="1:2">
-      <c r="A535" s="66"/>
+      <c r="A535" s="22"/>
       <c r="B535" s="21"/>
     </row>
     <row r="536" spans="1:2">
-      <c r="A536" s="22"/>
+      <c r="A536" s="66"/>
       <c r="B536" s="21"/>
     </row>
     <row r="537" spans="1:2">
-      <c r="A537" s="66"/>
+      <c r="A537" s="22"/>
       <c r="B537" s="21"/>
     </row>
     <row r="538" spans="1:2">
-      <c r="A538" s="22"/>
+      <c r="A538" s="66"/>
       <c r="B538" s="21"/>
     </row>
     <row r="539" spans="1:2">
-      <c r="A539" s="66"/>
+      <c r="A539" s="22"/>
       <c r="B539" s="21"/>
     </row>
     <row r="540" spans="1:2">
-      <c r="A540" s="22"/>
+      <c r="A540" s="66"/>
       <c r="B540" s="21"/>
     </row>
     <row r="541" spans="1:2">
-      <c r="A541" s="66"/>
+      <c r="A541" s="22"/>
       <c r="B541" s="21"/>
     </row>
     <row r="542" spans="1:2">
-      <c r="A542" s="22"/>
+      <c r="A542" s="66"/>
       <c r="B542" s="21"/>
     </row>
     <row r="543" spans="1:2">
-      <c r="A543" s="66"/>
+      <c r="A543" s="22"/>
       <c r="B543" s="21"/>
     </row>
     <row r="544" spans="1:2">
-      <c r="A544" s="22"/>
+      <c r="A544" s="66"/>
       <c r="B544" s="21"/>
     </row>
     <row r="545" spans="1:2">
-      <c r="A545" s="66"/>
+      <c r="A545" s="22"/>
       <c r="B545" s="21"/>
     </row>
     <row r="546" spans="1:2">
-      <c r="A546" s="22"/>
+      <c r="A546" s="66"/>
       <c r="B546" s="21"/>
     </row>
     <row r="547" spans="1:2">
-      <c r="A547" s="66"/>
+      <c r="A547" s="22"/>
       <c r="B547" s="21"/>
     </row>
     <row r="548" spans="1:2">
-      <c r="A548" s="22"/>
+      <c r="A548" s="66"/>
       <c r="B548" s="21"/>
     </row>
     <row r="549" spans="1:2">
-      <c r="A549" s="66"/>
+      <c r="A549" s="22"/>
       <c r="B549" s="21"/>
     </row>
     <row r="550" spans="1:2">
-      <c r="A550" s="22"/>
+      <c r="A550" s="66"/>
       <c r="B550" s="21"/>
     </row>
     <row r="551" spans="1:2">
-      <c r="A551" s="66"/>
+      <c r="A551" s="22"/>
       <c r="B551" s="21"/>
     </row>
     <row r="552" spans="1:2">
-      <c r="A552" s="22"/>
+      <c r="A552" s="66"/>
       <c r="B552" s="21"/>
     </row>
     <row r="553" spans="1:2">
-      <c r="A553" s="66"/>
+      <c r="A553" s="22"/>
       <c r="B553" s="21"/>
     </row>
     <row r="554" spans="1:2">
-      <c r="A554" s="22"/>
+      <c r="A554" s="66"/>
       <c r="B554" s="21"/>
     </row>
     <row r="555" spans="1:2">
-      <c r="A555" s="66"/>
+      <c r="A555" s="22"/>
       <c r="B555" s="21"/>
     </row>
     <row r="556" spans="1:2">
-      <c r="A556" s="22"/>
+      <c r="A556" s="66"/>
       <c r="B556" s="21"/>
     </row>
     <row r="557" spans="1:2">
-      <c r="A557" s="66"/>
+      <c r="A557" s="22"/>
       <c r="B557" s="21"/>
     </row>
     <row r="558" spans="1:2">
-      <c r="A558" s="22"/>
+      <c r="A558" s="66"/>
       <c r="B558" s="21"/>
     </row>
     <row r="559" spans="1:2">
-      <c r="A559" s="66"/>
+      <c r="A559" s="22"/>
       <c r="B559" s="21"/>
     </row>
     <row r="560" spans="1:2">
-      <c r="A560" s="22"/>
+      <c r="A560" s="66"/>
       <c r="B560" s="21"/>
     </row>
     <row r="561" spans="1:2">
-      <c r="A561" s="66"/>
+      <c r="A561" s="22"/>
       <c r="B561" s="21"/>
     </row>
     <row r="562" spans="1:2">
-      <c r="A562" s="22"/>
+      <c r="A562" s="66"/>
       <c r="B562" s="21"/>
     </row>
     <row r="563" spans="1:2">
-      <c r="A563" s="66"/>
+      <c r="A563" s="22"/>
       <c r="B563" s="21"/>
     </row>
     <row r="564" spans="1:2">
-      <c r="A564" s="22"/>
+      <c r="A564" s="66"/>
       <c r="B564" s="21"/>
     </row>
     <row r="565" spans="1:2">
-      <c r="A565" s="66"/>
+      <c r="A565" s="22"/>
       <c r="B565" s="21"/>
     </row>
     <row r="566" spans="1:2">
-      <c r="A566" s="22"/>
+      <c r="A566" s="66"/>
       <c r="B566" s="21"/>
     </row>
     <row r="567" spans="1:2">
-      <c r="A567" s="66"/>
+      <c r="A567" s="22"/>
       <c r="B567" s="21"/>
     </row>
     <row r="568" spans="1:2">
-      <c r="A568" s="22"/>
+      <c r="A568" s="66"/>
       <c r="B568" s="21"/>
     </row>
     <row r="569" spans="1:2">
-      <c r="A569" s="66"/>
+      <c r="A569" s="22"/>
       <c r="B569" s="21"/>
     </row>
     <row r="570" spans="1:2">
-      <c r="A570" s="22"/>
+      <c r="A570" s="66"/>
       <c r="B570" s="21"/>
     </row>
     <row r="571" spans="1:2">
-      <c r="A571" s="66"/>
+      <c r="A571" s="22"/>
       <c r="B571" s="21"/>
     </row>
     <row r="572" spans="1:2">
-      <c r="A572" s="22"/>
+      <c r="A572" s="66"/>
       <c r="B572" s="21"/>
     </row>
     <row r="573" spans="1:2">
-      <c r="A573" s="66"/>
+      <c r="A573" s="22"/>
       <c r="B573" s="21"/>
     </row>
     <row r="574" spans="1:2">
-      <c r="A574" s="22"/>
+      <c r="A574" s="66"/>
       <c r="B574" s="21"/>
     </row>
     <row r="575" spans="1:2">
-      <c r="A575" s="66"/>
+      <c r="A575" s="22"/>
       <c r="B575" s="21"/>
     </row>
     <row r="576" spans="1:2">
-      <c r="A576" s="22"/>
+      <c r="A576" s="66"/>
       <c r="B576" s="21"/>
     </row>
     <row r="577" spans="1:2">
-      <c r="A577" s="66"/>
+      <c r="A577" s="22"/>
       <c r="B577" s="21"/>
     </row>
     <row r="578" spans="1:2">
-      <c r="A578" s="22"/>
+      <c r="A578" s="66"/>
       <c r="B578" s="21"/>
     </row>
     <row r="579" spans="1:2">
-      <c r="A579" s="66"/>
+      <c r="A579" s="22"/>
       <c r="B579" s="21"/>
     </row>
     <row r="580" spans="1:2">
-      <c r="A580" s="22"/>
+      <c r="A580" s="66"/>
       <c r="B580" s="21"/>
     </row>
     <row r="581" spans="1:2">
-      <c r="A581" s="66"/>
+      <c r="A581" s="22"/>
       <c r="B581" s="21"/>
     </row>
     <row r="582" spans="1:2">
-      <c r="A582" s="22"/>
+      <c r="A582" s="66"/>
       <c r="B582" s="21"/>
     </row>
     <row r="583" spans="1:2">
-      <c r="A583" s="66"/>
+      <c r="A583" s="22"/>
       <c r="B583" s="21"/>
     </row>
     <row r="584" spans="1:2">
-      <c r="A584" s="22"/>
+      <c r="A584" s="66"/>
       <c r="B584" s="21"/>
     </row>
     <row r="585" spans="1:2">
-      <c r="A585" s="66"/>
+      <c r="A585" s="22"/>
       <c r="B585" s="21"/>
     </row>
     <row r="586" spans="1:2">
-      <c r="A586" s="22"/>
+      <c r="A586" s="66"/>
       <c r="B586" s="21"/>
     </row>
     <row r="587" spans="1:2">
-      <c r="A587" s="66"/>
+      <c r="A587" s="22"/>
       <c r="B587" s="21"/>
     </row>
     <row r="588" spans="1:2">
-      <c r="A588" s="22"/>
+      <c r="A588" s="66"/>
       <c r="B588" s="21"/>
     </row>
     <row r="589" spans="1:2">
-      <c r="A589" s="66"/>
+      <c r="A589" s="22"/>
       <c r="B589" s="21"/>
     </row>
     <row r="590" spans="1:2">
-      <c r="A590" s="22"/>
-      <c r="B590" s="15"/>
+      <c r="A590" s="66"/>
+      <c r="B590" s="21"/>
     </row>
     <row r="591" spans="1:2">
-      <c r="A591" s="66"/>
-      <c r="B591" s="15"/>
+      <c r="A591" s="22"/>
+      <c r="B591" s="21"/>
     </row>
     <row r="592" spans="1:2">
-      <c r="A592" s="22"/>
-      <c r="B592" s="15"/>
+      <c r="A592" s="66"/>
+      <c r="B592" s="21"/>
     </row>
     <row r="593" spans="1:2">
-      <c r="A593" s="66"/>
+      <c r="A593" s="22"/>
       <c r="B593" s="15"/>
     </row>
     <row r="594" spans="1:2">
-      <c r="A594" s="22"/>
+      <c r="A594" s="66"/>
       <c r="B594" s="15"/>
     </row>
     <row r="595" spans="1:2">
-      <c r="A595" s="66"/>
+      <c r="A595" s="22"/>
       <c r="B595" s="15"/>
     </row>
     <row r="596" spans="1:2">
-      <c r="A596" s="22"/>
+      <c r="A596" s="66"/>
       <c r="B596" s="15"/>
     </row>
     <row r="597" spans="1:2">
-      <c r="A597" s="66"/>
+      <c r="A597" s="22"/>
       <c r="B597" s="15"/>
     </row>
     <row r="598" spans="1:2">
-      <c r="A598" s="22"/>
+      <c r="A598" s="66"/>
       <c r="B598" s="15"/>
     </row>
     <row r="599" spans="1:2">
-      <c r="A599" s="66"/>
+      <c r="A599" s="22"/>
       <c r="B599" s="15"/>
     </row>
     <row r="600" spans="1:2">
-      <c r="A600" s="22"/>
+      <c r="A600" s="66"/>
       <c r="B600" s="15"/>
     </row>
     <row r="601" spans="1:2">
-      <c r="A601" s="66"/>
+      <c r="A601" s="22"/>
       <c r="B601" s="15"/>
     </row>
     <row r="602" spans="1:2">
-      <c r="A602" s="22"/>
+      <c r="A602" s="66"/>
       <c r="B602" s="15"/>
     </row>
     <row r="603" spans="1:2">
-      <c r="A603" s="66"/>
+      <c r="A603" s="22"/>
       <c r="B603" s="15"/>
     </row>
     <row r="604" spans="1:2">
-      <c r="A604" s="22"/>
+      <c r="A604" s="66"/>
       <c r="B604" s="15"/>
     </row>
     <row r="605" spans="1:2">
-      <c r="A605" s="66"/>
+      <c r="A605" s="22"/>
       <c r="B605" s="15"/>
     </row>
     <row r="606" spans="1:2">
-      <c r="A606" s="22"/>
+      <c r="A606" s="66"/>
       <c r="B606" s="15"/>
     </row>
     <row r="607" spans="1:2">
-      <c r="A607" s="66"/>
+      <c r="A607" s="22"/>
       <c r="B607" s="15"/>
     </row>
     <row r="608" spans="1:2">
-      <c r="A608" s="22"/>
+      <c r="A608" s="66"/>
       <c r="B608" s="15"/>
     </row>
     <row r="609" spans="1:2">
-      <c r="A609" s="66"/>
+      <c r="A609" s="22"/>
       <c r="B609" s="15"/>
     </row>
     <row r="610" spans="1:2">
-      <c r="A610" s="22"/>
+      <c r="A610" s="66"/>
       <c r="B610" s="15"/>
     </row>
     <row r="611" spans="1:2">
-      <c r="A611" s="66"/>
+      <c r="A611" s="22"/>
       <c r="B611" s="15"/>
     </row>
     <row r="612" spans="1:2">
-      <c r="A612" s="22"/>
+      <c r="A612" s="66"/>
       <c r="B612" s="15"/>
     </row>
     <row r="613" spans="1:2">
-      <c r="A613" s="66"/>
+      <c r="A613" s="22"/>
       <c r="B613" s="15"/>
     </row>
     <row r="614" spans="1:2">
-      <c r="A614" s="22"/>
+      <c r="A614" s="66"/>
       <c r="B614" s="15"/>
     </row>
-    <row r="615" spans="1:1">
-      <c r="A615" s="67"/>
-    </row>
-    <row r="616" spans="1:1">
-      <c r="A616" s="12"/>
-    </row>
-    <row r="617" spans="1:1">
-      <c r="A617" s="67"/>
+    <row r="615" spans="1:2">
+      <c r="A615" s="22"/>
+      <c r="B615" s="15"/>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" s="66"/>
+      <c r="B616" s="15"/>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" s="22"/>
+      <c r="B617" s="15"/>
     </row>
     <row r="618" spans="1:1">
-      <c r="A618" s="12"/>
+      <c r="A618" s="67"/>
     </row>
     <row r="619" spans="1:1">
-      <c r="A619" s="67"/>
+      <c r="A619" s="12"/>
     </row>
     <row r="620" spans="1:1">
-      <c r="A620" s="12"/>
+      <c r="A620" s="67"/>
     </row>
     <row r="621" spans="1:1">
-      <c r="A621" s="67"/>
+      <c r="A621" s="12"/>
     </row>
     <row r="622" spans="1:1">
-      <c r="A622" s="12"/>
+      <c r="A622" s="67"/>
     </row>
     <row r="623" spans="1:1">
-      <c r="A623" s="67"/>
+      <c r="A623" s="12"/>
     </row>
     <row r="624" spans="1:1">
-      <c r="A624" s="12"/>
+      <c r="A624" s="67"/>
     </row>
     <row r="625" spans="1:1">
-      <c r="A625" s="67"/>
+      <c r="A625" s="12"/>
     </row>
     <row r="626" spans="1:1">
-      <c r="A626" s="12"/>
+      <c r="A626" s="67"/>
     </row>
     <row r="627" spans="1:1">
-      <c r="A627" s="67"/>
+      <c r="A627" s="12"/>
     </row>
     <row r="628" spans="1:1">
-      <c r="A628" s="12"/>
+      <c r="A628" s="67"/>
     </row>
     <row r="629" spans="1:1">
-      <c r="A629" s="67"/>
+      <c r="A629" s="12"/>
     </row>
     <row r="630" spans="1:1">
-      <c r="A630" s="12"/>
+      <c r="A630" s="67"/>
     </row>
     <row r="631" spans="1:1">
-      <c r="A631" s="67"/>
+      <c r="A631" s="12"/>
     </row>
     <row r="632" spans="1:1">
-      <c r="A632" s="12"/>
+      <c r="A632" s="67"/>
     </row>
     <row r="633" spans="1:1">
-      <c r="A633" s="67"/>
+      <c r="A633" s="12"/>
     </row>
     <row r="634" spans="1:1">
-      <c r="A634" s="12"/>
+      <c r="A634" s="67"/>
     </row>
     <row r="635" spans="1:1">
-      <c r="A635" s="67"/>
+      <c r="A635" s="12"/>
     </row>
     <row r="636" spans="1:1">
-      <c r="A636" s="12"/>
+      <c r="A636" s="67"/>
     </row>
     <row r="637" spans="1:1">
-      <c r="A637" s="67"/>
+      <c r="A637" s="12"/>
     </row>
     <row r="638" spans="1:1">
-      <c r="A638" s="12"/>
+      <c r="A638" s="67"/>
     </row>
     <row r="639" spans="1:1">
-      <c r="A639" s="67"/>
+      <c r="A639" s="12"/>
     </row>
     <row r="640" spans="1:1">
-      <c r="A640" s="12"/>
+      <c r="A640" s="67"/>
     </row>
     <row r="641" spans="1:1">
-      <c r="A641" s="67"/>
+      <c r="A641" s="12"/>
     </row>
     <row r="642" spans="1:1">
-      <c r="A642" s="12"/>
+      <c r="A642" s="67"/>
     </row>
     <row r="643" spans="1:1">
-      <c r="A643" s="67"/>
+      <c r="A643" s="12"/>
     </row>
     <row r="644" spans="1:1">
-      <c r="A644" s="12"/>
+      <c r="A644" s="67"/>
     </row>
     <row r="645" spans="1:1">
-      <c r="A645" s="67"/>
+      <c r="A645" s="12"/>
     </row>
     <row r="646" spans="1:1">
-      <c r="A646" s="12"/>
+      <c r="A646" s="67"/>
     </row>
     <row r="647" spans="1:1">
-      <c r="A647" s="67"/>
+      <c r="A647" s="12"/>
     </row>
     <row r="648" spans="1:1">
-      <c r="A648" s="12"/>
+      <c r="A648" s="67"/>
     </row>
     <row r="649" spans="1:1">
-      <c r="A649" s="67"/>
+      <c r="A649" s="12"/>
     </row>
     <row r="650" spans="1:1">
-      <c r="A650" s="12"/>
+      <c r="A650" s="67"/>
     </row>
     <row r="651" spans="1:1">
-      <c r="A651" s="67"/>
+      <c r="A651" s="12"/>
     </row>
     <row r="652" spans="1:1">
-      <c r="A652" s="12"/>
+      <c r="A652" s="67"/>
     </row>
     <row r="653" spans="1:1">
-      <c r="A653" s="67"/>
+      <c r="A653" s="12"/>
     </row>
     <row r="654" spans="1:1">
-      <c r="A654" s="12"/>
+      <c r="A654" s="67"/>
     </row>
     <row r="655" spans="1:1">
-      <c r="A655" s="67"/>
+      <c r="A655" s="12"/>
     </row>
     <row r="656" spans="1:1">
-      <c r="A656" s="12"/>
+      <c r="A656" s="67"/>
     </row>
     <row r="657" spans="1:1">
-      <c r="A657" s="67"/>
+      <c r="A657" s="12"/>
     </row>
     <row r="658" spans="1:1">
-      <c r="A658" s="12"/>
+      <c r="A658" s="67"/>
     </row>
     <row r="659" spans="1:1">
-      <c r="A659" s="67"/>
+      <c r="A659" s="12"/>
     </row>
     <row r="660" spans="1:1">
-      <c r="A660" s="12"/>
+      <c r="A660" s="67"/>
     </row>
     <row r="661" spans="1:1">
-      <c r="A661" s="67"/>
+      <c r="A661" s="12"/>
     </row>
     <row r="662" spans="1:1">
-      <c r="A662" s="12"/>
+      <c r="A662" s="67"/>
     </row>
     <row r="663" spans="1:1">
-      <c r="A663" s="67"/>
+      <c r="A663" s="12"/>
     </row>
     <row r="664" spans="1:1">
-      <c r="A664" s="12"/>
+      <c r="A664" s="67"/>
     </row>
     <row r="665" spans="1:1">
-      <c r="A665" s="67"/>
+      <c r="A665" s="12"/>
     </row>
     <row r="666" spans="1:1">
-      <c r="A666" s="12"/>
+      <c r="A666" s="67"/>
     </row>
     <row r="667" spans="1:1">
-      <c r="A667" s="67"/>
+      <c r="A667" s="12"/>
     </row>
     <row r="668" spans="1:1">
-      <c r="A668" s="12"/>
+      <c r="A668" s="67"/>
     </row>
     <row r="669" spans="1:1">
-      <c r="A669" s="67"/>
+      <c r="A669" s="12"/>
     </row>
     <row r="670" spans="1:1">
-      <c r="A670" s="12"/>
+      <c r="A670" s="67"/>
     </row>
     <row r="671" spans="1:1">
-      <c r="A671" s="67"/>
+      <c r="A671" s="12"/>
     </row>
     <row r="672" spans="1:1">
-      <c r="A672" s="12"/>
+      <c r="A672" s="67"/>
     </row>
     <row r="673" spans="1:1">
-      <c r="A673" s="67"/>
+      <c r="A673" s="12"/>
     </row>
     <row r="674" spans="1:1">
-      <c r="A674" s="12"/>
+      <c r="A674" s="67"/>
     </row>
     <row r="675" spans="1:1">
-      <c r="A675" s="67"/>
+      <c r="A675" s="12"/>
     </row>
     <row r="676" spans="1:1">
-      <c r="A676" s="12"/>
+      <c r="A676" s="67"/>
     </row>
     <row r="677" spans="1:1">
-      <c r="A677" s="67"/>
+      <c r="A677" s="12"/>
     </row>
     <row r="678" spans="1:1">
-      <c r="A678" s="12"/>
+      <c r="A678" s="67"/>
     </row>
     <row r="679" spans="1:1">
-      <c r="A679" s="67"/>
+      <c r="A679" s="12"/>
     </row>
     <row r="680" spans="1:1">
-      <c r="A680" s="12"/>
+      <c r="A680" s="67"/>
     </row>
     <row r="681" spans="1:1">
-      <c r="A681" s="67"/>
+      <c r="A681" s="12"/>
     </row>
     <row r="682" spans="1:1">
-      <c r="A682" s="12"/>
+      <c r="A682" s="67"/>
     </row>
     <row r="683" spans="1:1">
-      <c r="A683" s="67"/>
+      <c r="A683" s="12"/>
     </row>
     <row r="684" spans="1:1">
-      <c r="A684" s="12"/>
+      <c r="A684" s="67"/>
     </row>
     <row r="685" spans="1:1">
-      <c r="A685" s="67"/>
+      <c r="A685" s="12"/>
     </row>
     <row r="686" spans="1:1">
-      <c r="A686" s="12"/>
+      <c r="A686" s="67"/>
     </row>
     <row r="687" spans="1:1">
-      <c r="A687" s="67"/>
+      <c r="A687" s="12"/>
     </row>
     <row r="688" spans="1:1">
-      <c r="A688" s="12"/>
+      <c r="A688" s="67"/>
     </row>
     <row r="689" spans="1:1">
-      <c r="A689" s="67"/>
+      <c r="A689" s="12"/>
     </row>
     <row r="690" spans="1:1">
-      <c r="A690" s="12"/>
+      <c r="A690" s="67"/>
     </row>
     <row r="691" spans="1:1">
-      <c r="A691" s="67"/>
+      <c r="A691" s="12"/>
     </row>
     <row r="692" spans="1:1">
-      <c r="A692" s="12"/>
+      <c r="A692" s="67"/>
     </row>
     <row r="693" spans="1:1">
-      <c r="A693" s="67"/>
+      <c r="A693" s="12"/>
     </row>
     <row r="694" spans="1:1">
-      <c r="A694" s="12"/>
+      <c r="A694" s="67"/>
     </row>
     <row r="695" spans="1:1">
-      <c r="A695" s="67"/>
+      <c r="A695" s="12"/>
     </row>
     <row r="696" spans="1:1">
-      <c r="A696" s="12"/>
+      <c r="A696" s="67"/>
     </row>
     <row r="697" spans="1:1">
-      <c r="A697" s="67"/>
+      <c r="A697" s="12"/>
     </row>
     <row r="698" spans="1:1">
-      <c r="A698" s="12"/>
+      <c r="A698" s="67"/>
     </row>
     <row r="699" spans="1:1">
-      <c r="A699" s="67"/>
+      <c r="A699" s="12"/>
     </row>
     <row r="700" spans="1:1">
-      <c r="A700" s="12"/>
+      <c r="A700" s="67"/>
     </row>
     <row r="701" spans="1:1">
-      <c r="A701" s="67"/>
+      <c r="A701" s="12"/>
     </row>
     <row r="702" spans="1:1">
-      <c r="A702" s="12"/>
+      <c r="A702" s="67"/>
     </row>
     <row r="703" spans="1:1">
-      <c r="A703" s="67"/>
+      <c r="A703" s="12"/>
     </row>
     <row r="704" spans="1:1">
-      <c r="A704" s="12"/>
+      <c r="A704" s="67"/>
     </row>
     <row r="705" spans="1:1">
-      <c r="A705" s="67"/>
+      <c r="A705" s="12"/>
     </row>
     <row r="706" spans="1:1">
-      <c r="A706" s="12"/>
+      <c r="A706" s="67"/>
     </row>
     <row r="707" spans="1:1">
-      <c r="A707" s="67"/>
+      <c r="A707" s="12"/>
     </row>
     <row r="708" spans="1:1">
-      <c r="A708" s="12"/>
+      <c r="A708" s="67"/>
     </row>
     <row r="709" spans="1:1">
-      <c r="A709" s="67"/>
+      <c r="A709" s="12"/>
     </row>
     <row r="710" spans="1:1">
-      <c r="A710" s="12"/>
+      <c r="A710" s="67"/>
     </row>
     <row r="711" spans="1:1">
-      <c r="A711" s="67"/>
+      <c r="A711" s="12"/>
     </row>
     <row r="712" spans="1:1">
-      <c r="A712" s="12"/>
+      <c r="A712" s="67"/>
     </row>
     <row r="713" spans="1:1">
-      <c r="A713" s="67"/>
+      <c r="A713" s="12"/>
     </row>
     <row r="714" spans="1:1">
-      <c r="A714" s="12"/>
+      <c r="A714" s="67"/>
     </row>
     <row r="715" spans="1:1">
-      <c r="A715" s="67"/>
+      <c r="A715" s="12"/>
     </row>
     <row r="716" spans="1:1">
-      <c r="A716" s="12"/>
+      <c r="A716" s="67"/>
     </row>
     <row r="717" spans="1:1">
-      <c r="A717" s="67"/>
+      <c r="A717" s="12"/>
     </row>
     <row r="718" spans="1:1">
-      <c r="A718" s="12"/>
+      <c r="A718" s="67"/>
     </row>
     <row r="719" spans="1:1">
-      <c r="A719" s="67"/>
+      <c r="A719" s="12"/>
     </row>
     <row r="720" spans="1:1">
-      <c r="A720" s="12"/>
+      <c r="A720" s="67"/>
     </row>
     <row r="721" spans="1:1">
-      <c r="A721" s="67"/>
+      <c r="A721" s="12"/>
     </row>
     <row r="722" spans="1:1">
-      <c r="A722" s="12"/>
+      <c r="A722" s="67"/>
     </row>
     <row r="723" spans="1:1">
-      <c r="A723" s="67"/>
+      <c r="A723" s="12"/>
     </row>
     <row r="724" spans="1:1">
-      <c r="A724" s="12"/>
+      <c r="A724" s="67"/>
     </row>
     <row r="725" spans="1:1">
-      <c r="A725" s="67"/>
+      <c r="A725" s="12"/>
     </row>
     <row r="726" spans="1:1">
-      <c r="A726" s="12"/>
+      <c r="A726" s="67"/>
     </row>
     <row r="727" spans="1:1">
-      <c r="A727" s="67"/>
+      <c r="A727" s="12"/>
     </row>
     <row r="728" spans="1:1">
-      <c r="A728" s="12"/>
+      <c r="A728" s="67"/>
     </row>
     <row r="729" spans="1:1">
-      <c r="A729" s="67"/>
+      <c r="A729" s="12"/>
     </row>
     <row r="730" spans="1:1">
-      <c r="A730" s="12"/>
+      <c r="A730" s="67"/>
     </row>
     <row r="731" spans="1:1">
-      <c r="A731" s="67"/>
+      <c r="A731" s="12"/>
     </row>
     <row r="732" spans="1:1">
-      <c r="A732" s="12"/>
+      <c r="A732" s="67"/>
     </row>
     <row r="733" spans="1:1">
-      <c r="A733" s="67"/>
+      <c r="A733" s="12"/>
     </row>
     <row r="734" spans="1:1">
-      <c r="A734" s="12"/>
+      <c r="A734" s="67"/>
     </row>
     <row r="735" spans="1:1">
-      <c r="A735" s="67"/>
+      <c r="A735" s="12"/>
     </row>
     <row r="736" spans="1:1">
-      <c r="A736" s="12"/>
+      <c r="A736" s="67"/>
     </row>
     <row r="737" spans="1:1">
-      <c r="A737" s="67"/>
+      <c r="A737" s="12"/>
     </row>
     <row r="738" spans="1:1">
-      <c r="A738" s="12"/>
+      <c r="A738" s="67"/>
     </row>
     <row r="739" spans="1:1">
-      <c r="A739" s="67"/>
+      <c r="A739" s="12"/>
     </row>
     <row r="740" spans="1:1">
-      <c r="A740" s="12"/>
+      <c r="A740" s="67"/>
     </row>
     <row r="741" spans="1:1">
-      <c r="A741" s="67"/>
+      <c r="A741" s="12"/>
     </row>
     <row r="742" spans="1:1">
-      <c r="A742" s="12"/>
+      <c r="A742" s="67"/>
     </row>
     <row r="743" spans="1:1">
-      <c r="A743" s="67"/>
+      <c r="A743" s="12"/>
     </row>
     <row r="744" spans="1:1">
-      <c r="A744" s="12"/>
+      <c r="A744" s="67"/>
     </row>
     <row r="745" spans="1:1">
-      <c r="A745" s="67"/>
+      <c r="A745" s="12"/>
     </row>
     <row r="746" spans="1:1">
-      <c r="A746" s="12"/>
+      <c r="A746" s="67"/>
     </row>
     <row r="747" spans="1:1">
-      <c r="A747" s="67"/>
+      <c r="A747" s="12"/>
     </row>
     <row r="748" spans="1:1">
-      <c r="A748" s="12"/>
+      <c r="A748" s="67"/>
     </row>
     <row r="749" spans="1:1">
-      <c r="A749" s="67"/>
+      <c r="A749" s="12"/>
     </row>
     <row r="750" spans="1:1">
-      <c r="A750" s="12"/>
+      <c r="A750" s="67"/>
     </row>
     <row r="751" spans="1:1">
-      <c r="A751" s="67"/>
+      <c r="A751" s="12"/>
     </row>
     <row r="752" spans="1:1">
-      <c r="A752" s="12"/>
+      <c r="A752" s="67"/>
     </row>
     <row r="753" spans="1:1">
-      <c r="A753" s="67"/>
+      <c r="A753" s="12"/>
     </row>
     <row r="754" spans="1:1">
-      <c r="A754" s="12"/>
+      <c r="A754" s="67"/>
+    </row>
+    <row r="755" spans="1:1">
+      <c r="A755" s="12"/>
+    </row>
+    <row r="756" spans="1:1">
+      <c r="A756" s="67"/>
+    </row>
+    <row r="757" spans="1:1">
+      <c r="A757" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -17937,13 +18031,13 @@
     <mergeCell ref="B201:B215"/>
     <mergeCell ref="B217:B226"/>
     <mergeCell ref="B228:B252"/>
-    <mergeCell ref="B254:B257"/>
+    <mergeCell ref="B254:B260"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C163 C179 C198 C199 C200 C227 C228 C229 C230 C231 C232 C233 C234 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C4:C17 C18:C23 C24:C34 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C146 C147:C162 C164:C178 C180:C197 C201:C216 C217:C226 C257:C1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C163 C179 C198 C199 C200 C227 C228 C229 C230 C231 C232 C233 C234 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C257 C258 C259 C4:C17 C18:C23 C24:C34 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C146 C147:C162 C164:C178 C180:C197 C201:C216 C217:C226 C260:C1048576">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D18 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D60 D71 D84 D85 D86 D106 D146 D163 D179 D198 D199 D200 D227 D228 D229 D235 D236 D237 D238 D239 D240 D241 D242 D243 D244 D245 D246 D247 D248 D249 D250 D251 D252 D253 D254 D255 D256 D4:D17 D19:D22 D23:D35 D49:D59 D61:D70 D72:D81 D82:D83 D87:D105 D107:D117 D118:D137 D138:D145 D147:D162 D164:D178 D180:D197 D201:D216 D217:D226 D230:D234 D257:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D18 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D60 D71 D84 D85 D86 D106 D146 D163 D179 D198 D199 D200 D227 D228 D229 D235 D236 D237 D238 D239 D240 D241 D242 D243 D244 D245 D246 D247 D248 D249 D250 D251 D252 D253 D254 D255 D256 D257 D258 D259 D4:D17 D19:D22 D23:D35 D49:D59 D61:D70 D72:D81 D82:D83 D87:D105 D107:D117 D118:D137 D138:D145 D147:D162 D164:D178 D180:D197 D201:D216 D217:D226 D230:D234 D260:D1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17972,13 +18066,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -17989,7 +18083,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -18000,7 +18094,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -18011,7 +18105,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -18027,7 +18121,7 @@
         <v>43050</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -18038,7 +18132,7 @@
         <v>43064</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -18054,7 +18148,7 @@
         <v>43079</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -18065,7 +18159,7 @@
         <v>43085</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -18076,7 +18170,7 @@
         <v>43092</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="12" spans="1:3">

--- a/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
@@ -1963,7 +1963,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2029,13 +2029,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2047,15 +2040,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2076,8 +2075,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2091,7 +2107,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2105,19 +2129,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2138,9 +2160,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2150,30 +2173,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2191,21 +2199,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2266,49 +2259,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2326,13 +2301,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2350,13 +2385,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2368,67 +2409,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2513,30 +2506,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2666,6 +2635,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -2710,6 +2692,17 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2799,11 +2792,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2823,17 +2846,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2862,32 +2881,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2902,10 +2895,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2914,149 +2907,149 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3180,16 +3173,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3207,28 +3197,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3237,7 +3209,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3246,64 +3218,61 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3315,22 +3284,22 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3342,10 +3311,10 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3354,34 +3323,34 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3399,16 +3368,16 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -3756,440 +3725,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="74" t="s">
+      <c r="F2" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="75" t="s">
+      <c r="G2" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="100" t="s">
+      <c r="I2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="101" t="s">
+      <c r="J2" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="102" t="s">
+      <c r="K2" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="103" t="s">
+      <c r="L2" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="104" t="s">
+      <c r="M2" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="105" t="s">
+      <c r="N2" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="70"/>
-      <c r="B3" s="77" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80">
+      <c r="D3" s="71"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81">
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="107"/>
-      <c r="K3" s="108" t="e">
+      <c r="J3" s="99"/>
+      <c r="K3" s="100" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="109">
+      <c r="L3" s="101">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="110">
+      <c r="M3" s="102">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="111" t="e">
+      <c r="N3" s="103" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="84" t="s">
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86">
+      <c r="D4" s="77"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="87">
+      <c r="G4" s="79"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="112"/>
-      <c r="K4" s="108" t="e">
+      <c r="J4" s="104"/>
+      <c r="K4" s="100" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="109">
+      <c r="L4" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="110">
+      <c r="M4" s="102">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="111" t="e">
+      <c r="N4" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="106"/>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="106"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="98"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="82"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="84" t="s">
+      <c r="A5" s="74"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86">
+      <c r="D5" s="77"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="87"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="87">
+      <c r="G5" s="79"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="112"/>
-      <c r="K5" s="108" t="e">
+      <c r="J5" s="104"/>
+      <c r="K5" s="100" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="109">
+      <c r="L5" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="110">
+      <c r="M5" s="102">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="111" t="e">
+      <c r="N5" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="106"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="98"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="82"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="A6" s="74"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="85"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86">
+      <c r="D6" s="77"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="87"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="87">
+      <c r="G6" s="79"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="112"/>
-      <c r="K6" s="108" t="e">
+      <c r="J6" s="104"/>
+      <c r="K6" s="100" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="109">
+      <c r="L6" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="110">
+      <c r="M6" s="102">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="111" t="e">
+      <c r="N6" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="106"/>
-      <c r="P6" s="106"/>
-      <c r="Q6" s="106"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="98"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="82"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86">
+      <c r="A7" s="74"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="77"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="87"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="87">
+      <c r="G7" s="79"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="112"/>
-      <c r="K7" s="108" t="e">
+      <c r="J7" s="104"/>
+      <c r="K7" s="100" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="109">
+      <c r="L7" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="110">
+      <c r="M7" s="102">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="111" t="e">
+      <c r="N7" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="106"/>
-      <c r="P7" s="106"/>
-      <c r="Q7" s="106"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="82"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="84" t="s">
+      <c r="A8" s="74"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="85"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86">
+      <c r="D8" s="77"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="87"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="87">
+      <c r="G8" s="79"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="112"/>
-      <c r="K8" s="108" t="e">
+      <c r="J8" s="104"/>
+      <c r="K8" s="100" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="109">
+      <c r="L8" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="110">
+      <c r="M8" s="102">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="111" t="e">
+      <c r="N8" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="106"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="98"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="82"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="84" t="s">
+      <c r="A9" s="74"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86">
+      <c r="D9" s="77"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="87"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="87">
+      <c r="G9" s="79"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="112"/>
-      <c r="K9" s="108" t="e">
+      <c r="J9" s="104"/>
+      <c r="K9" s="100" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="109">
+      <c r="L9" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="110">
+      <c r="M9" s="102">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="111" t="e">
+      <c r="N9" s="103" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="98"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="82"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="88" t="s">
+      <c r="A10" s="74"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="89"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="91">
+      <c r="D10" s="81"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="83">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="92"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="92">
+      <c r="G10" s="84"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="113"/>
-      <c r="K10" s="114" t="e">
+      <c r="J10" s="105"/>
+      <c r="K10" s="106" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="115">
+      <c r="L10" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="116">
+      <c r="M10" s="108">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="117" t="e">
+      <c r="N10" s="109" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="98"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="94"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="96" t="s">
+      <c r="A11" s="86"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="97">
+      <c r="D11" s="89">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="97">
+      <c r="E11" s="89">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="98">
+      <c r="F11" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="97">
+      <c r="G11" s="89">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="97">
+      <c r="H11" s="89">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="98">
+      <c r="I11" s="90">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="97">
+      <c r="J11" s="89">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="118" t="e">
+      <c r="K11" s="110" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="98">
+      <c r="L11" s="90">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="98">
+      <c r="M11" s="90">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="119" t="e">
+      <c r="N11" s="111" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="106"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="106"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4208,9 +4177,9 @@
   <dimension ref="A1:P757"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C258" sqref="C258"/>
+      <selection pane="bottomLeft" activeCell="A201" sqref="$A201:$XFD218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8484,7 +8453,7 @@
       <c r="N95" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O95" s="120" t="s">
+      <c r="O95" s="112" t="s">
         <v>270</v>
       </c>
       <c r="P95" s="15" t="s">
@@ -11479,13 +11448,13 @@
       <c r="L159" s="15">
         <v>17721436606</v>
       </c>
-      <c r="M159" s="47" t="s">
+      <c r="M159" s="46" t="s">
         <v>405</v>
       </c>
       <c r="N159" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O159" s="48">
+      <c r="O159" s="47">
         <v>18692273777</v>
       </c>
       <c r="P159" s="15" t="s">
@@ -11575,13 +11544,13 @@
       <c r="L161" s="15">
         <v>17721436606</v>
       </c>
-      <c r="M161" s="48" t="s">
+      <c r="M161" s="47" t="s">
         <v>409</v>
       </c>
       <c r="N161" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O161" s="48">
+      <c r="O161" s="47">
         <v>13906231845</v>
       </c>
       <c r="P161" s="15" t="s">
@@ -11823,13 +11792,13 @@
       <c r="L167" s="15">
         <v>17721436606</v>
       </c>
-      <c r="M167" s="49" t="s">
+      <c r="M167" s="48" t="s">
         <v>422</v>
       </c>
       <c r="N167" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O167" s="49">
+      <c r="O167" s="48">
         <v>13916936635</v>
       </c>
       <c r="P167" s="8" t="s">
@@ -12424,7 +12393,9 @@
       <c r="A181" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B181" s="46"/>
+      <c r="B181" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C181" s="44">
         <v>43053</v>
       </c>
@@ -12443,7 +12414,7 @@
       <c r="H181" s="42">
         <v>76103683</v>
       </c>
-      <c r="I181" s="50" t="s">
+      <c r="I181" s="49" t="s">
         <v>453</v>
       </c>
       <c r="J181" s="45" t="s">
@@ -12455,7 +12426,7 @@
       <c r="L181" s="45">
         <v>17721436606</v>
       </c>
-      <c r="M181" s="51" t="s">
+      <c r="M181" s="50" t="s">
         <v>454</v>
       </c>
       <c r="N181" s="45" t="s">
@@ -12472,7 +12443,9 @@
       <c r="A182" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B182" s="46"/>
+      <c r="B182" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C182" s="44">
         <v>43053</v>
       </c>
@@ -12503,7 +12476,7 @@
       <c r="L182" s="45">
         <v>17721436606</v>
       </c>
-      <c r="M182" s="47" t="s">
+      <c r="M182" s="46" t="s">
         <v>456</v>
       </c>
       <c r="N182" s="45" t="s">
@@ -12520,7 +12493,9 @@
       <c r="A183" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B183" s="46"/>
+      <c r="B183" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C183" s="44">
         <v>43053</v>
       </c>
@@ -12568,7 +12543,9 @@
       <c r="A184" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B184" s="46"/>
+      <c r="B184" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C184" s="44">
         <v>43053</v>
       </c>
@@ -12587,7 +12564,7 @@
       <c r="H184" s="42">
         <v>76078788</v>
       </c>
-      <c r="I184" s="50" t="s">
+      <c r="I184" s="49" t="s">
         <v>459</v>
       </c>
       <c r="J184" s="45" t="s">
@@ -12599,7 +12576,7 @@
       <c r="L184" s="45">
         <v>17721436606</v>
       </c>
-      <c r="M184" s="47" t="s">
+      <c r="M184" s="46" t="s">
         <v>460</v>
       </c>
       <c r="N184" s="45" t="s">
@@ -12616,7 +12593,9 @@
       <c r="A185" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B185" s="46"/>
+      <c r="B185" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C185" s="44">
         <v>43053</v>
       </c>
@@ -12664,7 +12643,9 @@
       <c r="A186" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B186" s="46"/>
+      <c r="B186" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C186" s="44">
         <v>43053</v>
       </c>
@@ -12695,7 +12676,7 @@
       <c r="L186" s="45">
         <v>17721436606</v>
       </c>
-      <c r="M186" s="47" t="s">
+      <c r="M186" s="46" t="s">
         <v>464</v>
       </c>
       <c r="N186" s="45" t="s">
@@ -12712,7 +12693,9 @@
       <c r="A187" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B187" s="46"/>
+      <c r="B187" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C187" s="44">
         <v>43053</v>
       </c>
@@ -12743,7 +12726,7 @@
       <c r="L187" s="45">
         <v>17721436606</v>
       </c>
-      <c r="M187" s="51" t="s">
+      <c r="M187" s="50" t="s">
         <v>467</v>
       </c>
       <c r="N187" s="45" t="s">
@@ -12760,7 +12743,9 @@
       <c r="A188" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B188" s="46"/>
+      <c r="B188" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C188" s="44">
         <v>43053</v>
       </c>
@@ -12808,7 +12793,9 @@
       <c r="A189" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B189" s="46"/>
+      <c r="B189" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C189" s="44">
         <v>43053</v>
       </c>
@@ -12856,7 +12843,9 @@
       <c r="A190" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B190" s="46"/>
+      <c r="B190" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C190" s="44">
         <v>43053</v>
       </c>
@@ -12904,7 +12893,9 @@
       <c r="A191" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B191" s="46"/>
+      <c r="B191" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C191" s="44">
         <v>43053</v>
       </c>
@@ -12952,7 +12943,9 @@
       <c r="A192" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B192" s="46"/>
+      <c r="B192" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C192" s="44">
         <v>43053</v>
       </c>
@@ -12971,7 +12964,7 @@
       <c r="H192" s="42">
         <v>76101937</v>
       </c>
-      <c r="I192" s="50" t="s">
+      <c r="I192" s="49" t="s">
         <v>476</v>
       </c>
       <c r="J192" s="45" t="s">
@@ -12983,7 +12976,7 @@
       <c r="L192" s="45">
         <v>17721436606</v>
       </c>
-      <c r="M192" s="47" t="s">
+      <c r="M192" s="46" t="s">
         <v>477</v>
       </c>
       <c r="N192" s="45" t="s">
@@ -13000,7 +12993,9 @@
       <c r="A193" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B193" s="46"/>
+      <c r="B193" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C193" s="44">
         <v>43053</v>
       </c>
@@ -13048,7 +13043,9 @@
       <c r="A194" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B194" s="46"/>
+      <c r="B194" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C194" s="44">
         <v>43053</v>
       </c>
@@ -13067,7 +13064,7 @@
       <c r="H194" s="42">
         <v>76108187</v>
       </c>
-      <c r="I194" s="50" t="s">
+      <c r="I194" s="49" t="s">
         <v>480</v>
       </c>
       <c r="J194" s="45" t="s">
@@ -13096,7 +13093,9 @@
       <c r="A195" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B195" s="46"/>
+      <c r="B195" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C195" s="44">
         <v>43053</v>
       </c>
@@ -13115,7 +13114,7 @@
       <c r="H195" s="42">
         <v>76108196</v>
       </c>
-      <c r="I195" s="50" t="s">
+      <c r="I195" s="49" t="s">
         <v>482</v>
       </c>
       <c r="J195" s="45" t="s">
@@ -13144,7 +13143,9 @@
       <c r="A196" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B196" s="46"/>
+      <c r="B196" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C196" s="44">
         <v>43053</v>
       </c>
@@ -13163,7 +13164,7 @@
       <c r="H196" s="42">
         <v>76108636</v>
       </c>
-      <c r="I196" s="50" t="s">
+      <c r="I196" s="49" t="s">
         <v>484</v>
       </c>
       <c r="J196" s="45" t="s">
@@ -13192,7 +13193,9 @@
       <c r="A197" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B197" s="46"/>
+      <c r="B197" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C197" s="44">
         <v>43053</v>
       </c>
@@ -13211,7 +13214,7 @@
       <c r="H197" s="42">
         <v>76093718</v>
       </c>
-      <c r="I197" s="50" t="s">
+      <c r="I197" s="49" t="s">
         <v>229</v>
       </c>
       <c r="J197" s="45" t="s">
@@ -13240,7 +13243,9 @@
       <c r="A198" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B198" s="46"/>
+      <c r="B198" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C198" s="44">
         <v>43053</v>
       </c>
@@ -13288,7 +13293,9 @@
       <c r="A199" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B199" s="52"/>
+      <c r="B199" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="C199" s="34">
         <v>43054</v>
       </c>
@@ -13332,23 +13339,23 @@
         <v>452</v>
       </c>
     </row>
-    <row r="200" spans="1:16">
+    <row r="200" s="5" customFormat="1" spans="1:16">
       <c r="A200" s="12"/>
-      <c r="B200" s="53"/>
-      <c r="C200" s="54"/>
-      <c r="D200" s="54"/>
-      <c r="E200" s="54"/>
-      <c r="F200" s="54"/>
-      <c r="G200" s="54"/>
-      <c r="H200" s="54"/>
-      <c r="I200" s="54"/>
-      <c r="J200" s="54"/>
-      <c r="K200" s="54"/>
-      <c r="L200" s="54"/>
-      <c r="M200" s="54"/>
-      <c r="N200" s="54"/>
-      <c r="O200" s="54"/>
-      <c r="P200" s="60"/>
+      <c r="B200" s="51"/>
+      <c r="C200" s="52"/>
+      <c r="D200" s="52"/>
+      <c r="E200" s="52"/>
+      <c r="F200" s="52"/>
+      <c r="G200" s="52"/>
+      <c r="H200" s="52"/>
+      <c r="I200" s="52"/>
+      <c r="J200" s="52"/>
+      <c r="K200" s="52"/>
+      <c r="L200" s="52"/>
+      <c r="M200" s="52"/>
+      <c r="N200" s="52"/>
+      <c r="O200" s="52"/>
+      <c r="P200" s="53"/>
     </row>
     <row r="201" spans="1:16">
       <c r="A201" s="12" t="s">
@@ -13404,7 +13411,9 @@
       <c r="A202" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B202" s="46"/>
+      <c r="B202" s="43" t="s">
+        <v>493</v>
+      </c>
       <c r="C202" s="34">
         <v>43059</v>
       </c>
@@ -13452,7 +13461,9 @@
       <c r="A203" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B203" s="46"/>
+      <c r="B203" s="43" t="s">
+        <v>493</v>
+      </c>
       <c r="C203" s="34">
         <v>43059</v>
       </c>
@@ -13500,7 +13511,9 @@
       <c r="A204" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B204" s="46"/>
+      <c r="B204" s="43" t="s">
+        <v>493</v>
+      </c>
       <c r="C204" s="34">
         <v>43059</v>
       </c>
@@ -13548,7 +13561,9 @@
       <c r="A205" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B205" s="46"/>
+      <c r="B205" s="43" t="s">
+        <v>493</v>
+      </c>
       <c r="C205" s="34">
         <v>43059</v>
       </c>
@@ -13596,7 +13611,9 @@
       <c r="A206" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B206" s="46"/>
+      <c r="B206" s="43" t="s">
+        <v>493</v>
+      </c>
       <c r="C206" s="34">
         <v>43059</v>
       </c>
@@ -13644,7 +13661,9 @@
       <c r="A207" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B207" s="46"/>
+      <c r="B207" s="43" t="s">
+        <v>493</v>
+      </c>
       <c r="C207" s="34">
         <v>43059</v>
       </c>
@@ -13692,7 +13711,9 @@
       <c r="A208" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B208" s="46"/>
+      <c r="B208" s="43" t="s">
+        <v>493</v>
+      </c>
       <c r="C208" s="34">
         <v>43059</v>
       </c>
@@ -13740,7 +13761,9 @@
       <c r="A209" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B209" s="46"/>
+      <c r="B209" s="43" t="s">
+        <v>493</v>
+      </c>
       <c r="C209" s="34">
         <v>43059</v>
       </c>
@@ -13788,7 +13811,9 @@
       <c r="A210" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B210" s="46"/>
+      <c r="B210" s="43" t="s">
+        <v>493</v>
+      </c>
       <c r="C210" s="34">
         <v>43059</v>
       </c>
@@ -13836,7 +13861,9 @@
       <c r="A211" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B211" s="46"/>
+      <c r="B211" s="43" t="s">
+        <v>493</v>
+      </c>
       <c r="C211" s="34">
         <v>43059</v>
       </c>
@@ -13884,7 +13911,9 @@
       <c r="A212" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B212" s="46"/>
+      <c r="B212" s="43" t="s">
+        <v>493</v>
+      </c>
       <c r="C212" s="34">
         <v>43059</v>
       </c>
@@ -13932,7 +13961,9 @@
       <c r="A213" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B213" s="46"/>
+      <c r="B213" s="43" t="s">
+        <v>493</v>
+      </c>
       <c r="C213" s="34">
         <v>43059</v>
       </c>
@@ -13980,7 +14011,9 @@
       <c r="A214" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B214" s="46"/>
+      <c r="B214" s="43" t="s">
+        <v>493</v>
+      </c>
       <c r="C214" s="34">
         <v>43059</v>
       </c>
@@ -14028,7 +14061,9 @@
       <c r="A215" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B215" s="52"/>
+      <c r="B215" s="43" t="s">
+        <v>493</v>
+      </c>
       <c r="C215" s="34">
         <v>43059</v>
       </c>
@@ -14072,29 +14107,29 @@
         <v>452</v>
       </c>
     </row>
-    <row r="216" spans="1:16">
+    <row r="216" s="5" customFormat="1" spans="1:16">
       <c r="A216" s="12"/>
-      <c r="B216" s="53"/>
-      <c r="C216" s="54"/>
-      <c r="D216" s="54"/>
-      <c r="E216" s="54"/>
-      <c r="F216" s="54"/>
-      <c r="G216" s="54"/>
-      <c r="H216" s="54"/>
-      <c r="I216" s="54"/>
-      <c r="J216" s="54"/>
-      <c r="K216" s="54"/>
-      <c r="L216" s="54"/>
-      <c r="M216" s="54"/>
-      <c r="N216" s="54"/>
-      <c r="O216" s="54"/>
-      <c r="P216" s="60"/>
+      <c r="B216" s="51"/>
+      <c r="C216" s="52"/>
+      <c r="D216" s="52"/>
+      <c r="E216" s="52"/>
+      <c r="F216" s="52"/>
+      <c r="G216" s="52"/>
+      <c r="H216" s="52"/>
+      <c r="I216" s="52"/>
+      <c r="J216" s="52"/>
+      <c r="K216" s="52"/>
+      <c r="L216" s="52"/>
+      <c r="M216" s="52"/>
+      <c r="N216" s="52"/>
+      <c r="O216" s="52"/>
+      <c r="P216" s="53"/>
     </row>
     <row r="217" spans="1:16">
       <c r="A217" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B217" s="55" t="s">
+      <c r="B217" s="43" t="s">
         <v>526</v>
       </c>
       <c r="C217" s="34">
@@ -14144,7 +14179,9 @@
       <c r="A218" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B218" s="56"/>
+      <c r="B218" s="43" t="s">
+        <v>526</v>
+      </c>
       <c r="C218" s="34">
         <v>43069</v>
       </c>
@@ -14181,7 +14218,7 @@
       <c r="N218" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="O218" s="50">
+      <c r="O218" s="49">
         <v>17802152313</v>
       </c>
       <c r="P218" s="8" t="s">
@@ -14192,7 +14229,9 @@
       <c r="A219" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B219" s="56"/>
+      <c r="B219" s="43" t="s">
+        <v>526</v>
+      </c>
       <c r="C219" s="34">
         <v>43069</v>
       </c>
@@ -14240,7 +14279,9 @@
       <c r="A220" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B220" s="56"/>
+      <c r="B220" s="43" t="s">
+        <v>526</v>
+      </c>
       <c r="C220" s="34">
         <v>43069</v>
       </c>
@@ -14271,13 +14312,13 @@
       <c r="L220" s="15">
         <v>17721436606</v>
       </c>
-      <c r="M220" s="61" t="s">
+      <c r="M220" s="54" t="s">
         <v>535</v>
       </c>
       <c r="N220" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="O220" s="62" t="s">
+      <c r="O220" s="55" t="s">
         <v>536</v>
       </c>
       <c r="P220" s="8" t="s">
@@ -14288,7 +14329,9 @@
       <c r="A221" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B221" s="56"/>
+      <c r="B221" s="43" t="s">
+        <v>526</v>
+      </c>
       <c r="C221" s="34">
         <v>43069</v>
       </c>
@@ -14307,7 +14350,7 @@
       <c r="H221" s="42">
         <v>76111881</v>
       </c>
-      <c r="I221" s="50" t="s">
+      <c r="I221" s="49" t="s">
         <v>537</v>
       </c>
       <c r="J221" s="15" t="s">
@@ -14336,7 +14379,9 @@
       <c r="A222" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B222" s="56"/>
+      <c r="B222" s="43" t="s">
+        <v>526</v>
+      </c>
       <c r="C222" s="34">
         <v>43069</v>
       </c>
@@ -14352,10 +14397,10 @@
       <c r="G222" s="42" t="s">
         <v>539</v>
       </c>
-      <c r="H222" s="50">
+      <c r="H222" s="49">
         <v>76111880</v>
       </c>
-      <c r="I222" s="50" t="s">
+      <c r="I222" s="49" t="s">
         <v>540</v>
       </c>
       <c r="J222" s="15" t="s">
@@ -14384,7 +14429,9 @@
       <c r="A223" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B223" s="56"/>
+      <c r="B223" s="43" t="s">
+        <v>526</v>
+      </c>
       <c r="C223" s="34">
         <v>43069</v>
       </c>
@@ -14400,10 +14447,10 @@
       <c r="G223" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="H223" s="50">
+      <c r="H223" s="49">
         <v>76107522</v>
       </c>
-      <c r="I223" s="50" t="s">
+      <c r="I223" s="49" t="s">
         <v>542</v>
       </c>
       <c r="J223" s="15" t="s">
@@ -14432,7 +14479,9 @@
       <c r="A224" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B224" s="56"/>
+      <c r="B224" s="43" t="s">
+        <v>526</v>
+      </c>
       <c r="C224" s="34">
         <v>43069</v>
       </c>
@@ -14448,10 +14497,10 @@
       <c r="G224" s="42" t="s">
         <v>544</v>
       </c>
-      <c r="H224" s="50">
+      <c r="H224" s="49">
         <v>76106008</v>
       </c>
-      <c r="I224" s="50" t="s">
+      <c r="I224" s="49" t="s">
         <v>545</v>
       </c>
       <c r="J224" s="15" t="s">
@@ -14480,7 +14529,9 @@
       <c r="A225" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B225" s="56"/>
+      <c r="B225" s="43" t="s">
+        <v>526</v>
+      </c>
       <c r="C225" s="34">
         <v>43069</v>
       </c>
@@ -14496,10 +14547,10 @@
       <c r="G225" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="H225" s="50">
+      <c r="H225" s="49">
         <v>76105998</v>
       </c>
-      <c r="I225" s="50" t="s">
+      <c r="I225" s="49" t="s">
         <v>547</v>
       </c>
       <c r="J225" s="15" t="s">
@@ -14528,7 +14579,9 @@
       <c r="A226" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B226" s="57"/>
+      <c r="B226" s="43" t="s">
+        <v>526</v>
+      </c>
       <c r="C226" s="34">
         <v>43069</v>
       </c>
@@ -14544,10 +14597,10 @@
       <c r="G226" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="H226" s="50">
+      <c r="H226" s="49">
         <v>76105997</v>
       </c>
-      <c r="I226" s="50" t="s">
+      <c r="I226" s="49" t="s">
         <v>549</v>
       </c>
       <c r="J226" s="15" t="s">
@@ -14572,29 +14625,29 @@
         <v>171</v>
       </c>
     </row>
-    <row r="227" spans="1:16">
+    <row r="227" s="5" customFormat="1" spans="1:16">
       <c r="A227" s="12"/>
-      <c r="B227" s="54"/>
-      <c r="C227" s="54"/>
-      <c r="D227" s="54"/>
-      <c r="E227" s="54"/>
-      <c r="F227" s="54"/>
-      <c r="G227" s="54"/>
-      <c r="H227" s="54"/>
-      <c r="I227" s="54"/>
-      <c r="J227" s="54"/>
-      <c r="K227" s="54"/>
-      <c r="L227" s="54"/>
-      <c r="M227" s="54"/>
-      <c r="N227" s="54"/>
-      <c r="O227" s="54"/>
-      <c r="P227" s="60"/>
+      <c r="B227" s="51"/>
+      <c r="C227" s="52"/>
+      <c r="D227" s="52"/>
+      <c r="E227" s="52"/>
+      <c r="F227" s="52"/>
+      <c r="G227" s="52"/>
+      <c r="H227" s="52"/>
+      <c r="I227" s="52"/>
+      <c r="J227" s="52"/>
+      <c r="K227" s="52"/>
+      <c r="L227" s="52"/>
+      <c r="M227" s="52"/>
+      <c r="N227" s="52"/>
+      <c r="O227" s="52"/>
+      <c r="P227" s="53"/>
     </row>
     <row r="228" s="6" customFormat="1" spans="1:16">
       <c r="A228" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B228" s="55" t="s">
+      <c r="B228" s="43" t="s">
         <v>551</v>
       </c>
       <c r="C228" s="18">
@@ -14644,7 +14697,9 @@
       <c r="A229" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B229" s="56"/>
+      <c r="B229" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C229" s="18">
         <v>43077</v>
       </c>
@@ -14692,7 +14747,9 @@
       <c r="A230" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B230" s="56"/>
+      <c r="B230" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C230" s="18">
         <v>43077</v>
       </c>
@@ -14740,7 +14797,9 @@
       <c r="A231" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B231" s="56"/>
+      <c r="B231" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C231" s="18">
         <v>43077</v>
       </c>
@@ -14759,7 +14818,7 @@
       <c r="H231" s="42">
         <v>76109756</v>
       </c>
-      <c r="I231" s="50" t="s">
+      <c r="I231" s="49" t="s">
         <v>561</v>
       </c>
       <c r="J231" s="45" t="s">
@@ -14771,13 +14830,13 @@
       <c r="L231" s="45">
         <v>17721436606</v>
       </c>
-      <c r="M231" s="63" t="s">
+      <c r="M231" s="56" t="s">
         <v>562</v>
       </c>
       <c r="N231" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O231" s="50">
+      <c r="O231" s="49">
         <v>13807599790</v>
       </c>
       <c r="P231" s="45" t="s">
@@ -14788,7 +14847,9 @@
       <c r="A232" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B232" s="56"/>
+      <c r="B232" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C232" s="18">
         <v>43077</v>
       </c>
@@ -14807,7 +14868,7 @@
       <c r="H232" s="42">
         <v>76110188</v>
       </c>
-      <c r="I232" s="50" t="s">
+      <c r="I232" s="49" t="s">
         <v>563</v>
       </c>
       <c r="J232" s="45" t="s">
@@ -14836,7 +14897,9 @@
       <c r="A233" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B233" s="56"/>
+      <c r="B233" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C233" s="18">
         <v>43077</v>
       </c>
@@ -14855,7 +14918,7 @@
       <c r="H233" s="42">
         <v>76110321</v>
       </c>
-      <c r="I233" s="50" t="s">
+      <c r="I233" s="49" t="s">
         <v>566</v>
       </c>
       <c r="J233" s="45" t="s">
@@ -14884,7 +14947,9 @@
       <c r="A234" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B234" s="56"/>
+      <c r="B234" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C234" s="18">
         <v>43077</v>
       </c>
@@ -14903,7 +14968,7 @@
       <c r="H234" s="42">
         <v>76110778</v>
       </c>
-      <c r="I234" s="50" t="s">
+      <c r="I234" s="49" t="s">
         <v>568</v>
       </c>
       <c r="J234" s="45" t="s">
@@ -14932,7 +14997,9 @@
       <c r="A235" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B235" s="56"/>
+      <c r="B235" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C235" s="18">
         <v>43077</v>
       </c>
@@ -14951,7 +15018,7 @@
       <c r="H235" s="42">
         <v>76111510</v>
       </c>
-      <c r="I235" s="50" t="s">
+      <c r="I235" s="49" t="s">
         <v>571</v>
       </c>
       <c r="J235" s="45" t="s">
@@ -14980,7 +15047,9 @@
       <c r="A236" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B236" s="56"/>
+      <c r="B236" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C236" s="18">
         <v>43077</v>
       </c>
@@ -14999,7 +15068,7 @@
       <c r="H236" s="42">
         <v>76111511</v>
       </c>
-      <c r="I236" s="50" t="s">
+      <c r="I236" s="49" t="s">
         <v>573</v>
       </c>
       <c r="J236" s="45" t="s">
@@ -15028,7 +15097,9 @@
       <c r="A237" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B237" s="56"/>
+      <c r="B237" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C237" s="18">
         <v>43077</v>
       </c>
@@ -15047,7 +15118,7 @@
       <c r="H237" s="42">
         <v>76111516</v>
       </c>
-      <c r="I237" s="50" t="s">
+      <c r="I237" s="49" t="s">
         <v>575</v>
       </c>
       <c r="J237" s="45" t="s">
@@ -15076,7 +15147,9 @@
       <c r="A238" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B238" s="56"/>
+      <c r="B238" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C238" s="18">
         <v>43077</v>
       </c>
@@ -15095,7 +15168,7 @@
       <c r="H238" s="42">
         <v>76111580</v>
       </c>
-      <c r="I238" s="50" t="s">
+      <c r="I238" s="49" t="s">
         <v>577</v>
       </c>
       <c r="J238" s="45" t="s">
@@ -15107,13 +15180,13 @@
       <c r="L238" s="45">
         <v>17721436606</v>
       </c>
-      <c r="M238" s="64" t="s">
+      <c r="M238" s="57" t="s">
         <v>578</v>
       </c>
       <c r="N238" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O238" s="64">
+      <c r="O238" s="57">
         <v>18817298582</v>
       </c>
       <c r="P238" s="45" t="s">
@@ -15124,7 +15197,9 @@
       <c r="A239" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B239" s="56"/>
+      <c r="B239" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C239" s="18">
         <v>43077</v>
       </c>
@@ -15143,7 +15218,7 @@
       <c r="H239" s="42">
         <v>76111933</v>
       </c>
-      <c r="I239" s="50" t="s">
+      <c r="I239" s="49" t="s">
         <v>579</v>
       </c>
       <c r="J239" s="45" t="s">
@@ -15155,7 +15230,7 @@
       <c r="L239" s="45">
         <v>17721436606</v>
       </c>
-      <c r="M239" s="63" t="s">
+      <c r="M239" s="56" t="s">
         <v>333</v>
       </c>
       <c r="N239" s="15" t="s">
@@ -15172,7 +15247,9 @@
       <c r="A240" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B240" s="56"/>
+      <c r="B240" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C240" s="18">
         <v>43077</v>
       </c>
@@ -15220,7 +15297,9 @@
       <c r="A241" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B241" s="56"/>
+      <c r="B241" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C241" s="18">
         <v>43077</v>
       </c>
@@ -15251,13 +15330,13 @@
       <c r="L241" s="45">
         <v>17721436606</v>
       </c>
-      <c r="M241" s="63" t="s">
+      <c r="M241" s="56" t="s">
         <v>584</v>
       </c>
       <c r="N241" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O241" s="50">
+      <c r="O241" s="49">
         <v>13736699998</v>
       </c>
       <c r="P241" s="45" t="s">
@@ -15268,7 +15347,9 @@
       <c r="A242" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B242" s="56"/>
+      <c r="B242" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C242" s="18">
         <v>43077</v>
       </c>
@@ -15299,13 +15380,13 @@
       <c r="L242" s="45">
         <v>17721436606</v>
       </c>
-      <c r="M242" s="63" t="s">
+      <c r="M242" s="56" t="s">
         <v>585</v>
       </c>
       <c r="N242" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O242" s="63">
+      <c r="O242" s="56">
         <v>15950483577</v>
       </c>
       <c r="P242" s="45" t="s">
@@ -15316,7 +15397,9 @@
       <c r="A243" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B243" s="56"/>
+      <c r="B243" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C243" s="18">
         <v>43077</v>
       </c>
@@ -15364,7 +15447,9 @@
       <c r="A244" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B244" s="56"/>
+      <c r="B244" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C244" s="18">
         <v>43077</v>
       </c>
@@ -15383,7 +15468,7 @@
       <c r="H244" s="42">
         <v>76113089</v>
       </c>
-      <c r="I244" s="50" t="s">
+      <c r="I244" s="49" t="s">
         <v>589</v>
       </c>
       <c r="J244" s="45" t="s">
@@ -15412,7 +15497,9 @@
       <c r="A245" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B245" s="56"/>
+      <c r="B245" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C245" s="18">
         <v>43077</v>
       </c>
@@ -15431,7 +15518,7 @@
       <c r="H245" s="42">
         <v>76113091</v>
       </c>
-      <c r="I245" s="50" t="s">
+      <c r="I245" s="49" t="s">
         <v>591</v>
       </c>
       <c r="J245" s="45" t="s">
@@ -15460,7 +15547,9 @@
       <c r="A246" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B246" s="56"/>
+      <c r="B246" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C246" s="18">
         <v>43077</v>
       </c>
@@ -15479,7 +15568,7 @@
       <c r="H246" s="42">
         <v>76113280</v>
       </c>
-      <c r="I246" s="50" t="s">
+      <c r="I246" s="49" t="s">
         <v>593</v>
       </c>
       <c r="J246" s="45" t="s">
@@ -15508,7 +15597,9 @@
       <c r="A247" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B247" s="56"/>
+      <c r="B247" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C247" s="18">
         <v>43077</v>
       </c>
@@ -15527,7 +15618,7 @@
       <c r="H247" s="42">
         <v>76113305</v>
       </c>
-      <c r="I247" s="50" t="s">
+      <c r="I247" s="49" t="s">
         <v>595</v>
       </c>
       <c r="J247" s="45" t="s">
@@ -15539,13 +15630,13 @@
       <c r="L247" s="45">
         <v>17721436606</v>
       </c>
-      <c r="M247" s="63" t="s">
+      <c r="M247" s="56" t="s">
         <v>596</v>
       </c>
       <c r="N247" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O247" s="63">
+      <c r="O247" s="56">
         <v>18114928177</v>
       </c>
       <c r="P247" s="45" t="s">
@@ -15556,7 +15647,9 @@
       <c r="A248" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B248" s="56"/>
+      <c r="B248" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C248" s="18">
         <v>43077</v>
       </c>
@@ -15575,7 +15668,7 @@
       <c r="H248" s="42">
         <v>76113311</v>
       </c>
-      <c r="I248" s="50" t="s">
+      <c r="I248" s="49" t="s">
         <v>597</v>
       </c>
       <c r="J248" s="45" t="s">
@@ -15604,7 +15697,9 @@
       <c r="A249" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B249" s="56"/>
+      <c r="B249" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C249" s="18">
         <v>43077</v>
       </c>
@@ -15623,7 +15718,7 @@
       <c r="H249" s="42">
         <v>76113900</v>
       </c>
-      <c r="I249" s="50" t="s">
+      <c r="I249" s="49" t="s">
         <v>599</v>
       </c>
       <c r="J249" s="45" t="s">
@@ -15652,7 +15747,9 @@
       <c r="A250" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B250" s="56"/>
+      <c r="B250" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C250" s="18">
         <v>43077</v>
       </c>
@@ -15671,7 +15768,7 @@
       <c r="H250" s="42">
         <v>76113977</v>
       </c>
-      <c r="I250" s="50" t="s">
+      <c r="I250" s="49" t="s">
         <v>601</v>
       </c>
       <c r="J250" s="45" t="s">
@@ -15700,7 +15797,9 @@
       <c r="A251" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B251" s="56"/>
+      <c r="B251" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C251" s="18">
         <v>43077</v>
       </c>
@@ -15719,7 +15818,7 @@
       <c r="H251" s="42">
         <v>76115020</v>
       </c>
-      <c r="I251" s="50" t="s">
+      <c r="I251" s="49" t="s">
         <v>603</v>
       </c>
       <c r="J251" s="45" t="s">
@@ -15748,7 +15847,9 @@
       <c r="A252" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B252" s="57"/>
+      <c r="B252" s="43" t="s">
+        <v>551</v>
+      </c>
       <c r="C252" s="18">
         <v>43082</v>
       </c>
@@ -15794,27 +15895,27 @@
     </row>
     <row r="253" spans="1:16">
       <c r="A253" s="12"/>
-      <c r="B253" s="53"/>
-      <c r="C253" s="54"/>
-      <c r="D253" s="54"/>
-      <c r="E253" s="54"/>
-      <c r="F253" s="54"/>
-      <c r="G253" s="54"/>
-      <c r="H253" s="54"/>
-      <c r="I253" s="54"/>
-      <c r="J253" s="54"/>
-      <c r="K253" s="54"/>
-      <c r="L253" s="54"/>
-      <c r="M253" s="54"/>
-      <c r="N253" s="54"/>
-      <c r="O253" s="54"/>
-      <c r="P253" s="60"/>
+      <c r="B253" s="51"/>
+      <c r="C253" s="52"/>
+      <c r="D253" s="52"/>
+      <c r="E253" s="52"/>
+      <c r="F253" s="52"/>
+      <c r="G253" s="52"/>
+      <c r="H253" s="52"/>
+      <c r="I253" s="52"/>
+      <c r="J253" s="52"/>
+      <c r="K253" s="52"/>
+      <c r="L253" s="52"/>
+      <c r="M253" s="52"/>
+      <c r="N253" s="52"/>
+      <c r="O253" s="52"/>
+      <c r="P253" s="53"/>
     </row>
     <row r="254" spans="1:16">
       <c r="A254" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B254" s="58" t="s">
+      <c r="B254" s="17" t="s">
         <v>606</v>
       </c>
       <c r="C254" s="18">
@@ -15864,7 +15965,9 @@
       <c r="A255" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B255" s="59"/>
+      <c r="B255" s="17" t="s">
+        <v>606</v>
+      </c>
       <c r="C255" s="18">
         <v>43087</v>
       </c>
@@ -15912,7 +16015,9 @@
       <c r="A256" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B256" s="59"/>
+      <c r="B256" s="17" t="s">
+        <v>606</v>
+      </c>
       <c r="C256" s="18">
         <v>43088</v>
       </c>
@@ -15960,7 +16065,9 @@
       <c r="A257" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B257" s="59"/>
+      <c r="B257" s="17" t="s">
+        <v>606</v>
+      </c>
       <c r="C257" s="18">
         <v>43089</v>
       </c>
@@ -16008,7 +16115,9 @@
       <c r="A258" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B258" s="65"/>
+      <c r="B258" s="17" t="s">
+        <v>606</v>
+      </c>
       <c r="C258" s="8"/>
       <c r="D258" s="8"/>
       <c r="E258" s="8"/>
@@ -16028,7 +16137,9 @@
       <c r="A259" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B259" s="65"/>
+      <c r="B259" s="17" t="s">
+        <v>606</v>
+      </c>
       <c r="C259" s="8"/>
       <c r="D259" s="8"/>
       <c r="E259" s="8"/>
@@ -16048,7 +16159,9 @@
       <c r="A260" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B260" s="65"/>
+      <c r="B260" s="17" t="s">
+        <v>606</v>
+      </c>
       <c r="O260" s="12"/>
       <c r="P260" s="8"/>
     </row>
@@ -16786,7 +16899,7 @@
       <c r="B413" s="21"/>
     </row>
     <row r="414" spans="1:2">
-      <c r="A414" s="66"/>
+      <c r="A414" s="58"/>
       <c r="B414" s="21"/>
     </row>
     <row r="415" spans="1:2">
@@ -16858,7 +16971,7 @@
       <c r="B431" s="21"/>
     </row>
     <row r="432" spans="1:2">
-      <c r="A432" s="66"/>
+      <c r="A432" s="58"/>
       <c r="B432" s="21"/>
     </row>
     <row r="433" spans="1:2">
@@ -16866,7 +16979,7 @@
       <c r="B433" s="21"/>
     </row>
     <row r="434" spans="1:2">
-      <c r="A434" s="66"/>
+      <c r="A434" s="58"/>
       <c r="B434" s="21"/>
     </row>
     <row r="435" spans="1:2">
@@ -16874,7 +16987,7 @@
       <c r="B435" s="21"/>
     </row>
     <row r="436" spans="1:2">
-      <c r="A436" s="66"/>
+      <c r="A436" s="58"/>
       <c r="B436" s="21"/>
     </row>
     <row r="437" spans="1:2">
@@ -16882,7 +16995,7 @@
       <c r="B437" s="21"/>
     </row>
     <row r="438" spans="1:2">
-      <c r="A438" s="66"/>
+      <c r="A438" s="58"/>
       <c r="B438" s="21"/>
     </row>
     <row r="439" spans="1:2">
@@ -16890,7 +17003,7 @@
       <c r="B439" s="21"/>
     </row>
     <row r="440" spans="1:2">
-      <c r="A440" s="66"/>
+      <c r="A440" s="58"/>
       <c r="B440" s="21"/>
     </row>
     <row r="441" spans="1:2">
@@ -16898,7 +17011,7 @@
       <c r="B441" s="21"/>
     </row>
     <row r="442" spans="1:2">
-      <c r="A442" s="66"/>
+      <c r="A442" s="58"/>
       <c r="B442" s="21"/>
     </row>
     <row r="443" spans="1:2">
@@ -16906,7 +17019,7 @@
       <c r="B443" s="21"/>
     </row>
     <row r="444" spans="1:2">
-      <c r="A444" s="66"/>
+      <c r="A444" s="58"/>
       <c r="B444" s="21"/>
     </row>
     <row r="445" spans="1:2">
@@ -16914,7 +17027,7 @@
       <c r="B445" s="21"/>
     </row>
     <row r="446" spans="1:2">
-      <c r="A446" s="66"/>
+      <c r="A446" s="58"/>
       <c r="B446" s="21"/>
     </row>
     <row r="447" spans="1:2">
@@ -16922,7 +17035,7 @@
       <c r="B447" s="21"/>
     </row>
     <row r="448" spans="1:2">
-      <c r="A448" s="66"/>
+      <c r="A448" s="58"/>
       <c r="B448" s="21"/>
     </row>
     <row r="449" spans="1:2">
@@ -16930,7 +17043,7 @@
       <c r="B449" s="21"/>
     </row>
     <row r="450" spans="1:2">
-      <c r="A450" s="66"/>
+      <c r="A450" s="58"/>
       <c r="B450" s="21"/>
     </row>
     <row r="451" spans="1:2">
@@ -16938,7 +17051,7 @@
       <c r="B451" s="21"/>
     </row>
     <row r="452" spans="1:2">
-      <c r="A452" s="66"/>
+      <c r="A452" s="58"/>
       <c r="B452" s="21"/>
     </row>
     <row r="453" spans="1:2">
@@ -16946,7 +17059,7 @@
       <c r="B453" s="21"/>
     </row>
     <row r="454" spans="1:2">
-      <c r="A454" s="66"/>
+      <c r="A454" s="58"/>
       <c r="B454" s="21"/>
     </row>
     <row r="455" spans="1:2">
@@ -16954,7 +17067,7 @@
       <c r="B455" s="21"/>
     </row>
     <row r="456" spans="1:2">
-      <c r="A456" s="66"/>
+      <c r="A456" s="58"/>
       <c r="B456" s="21"/>
     </row>
     <row r="457" spans="1:2">
@@ -16962,7 +17075,7 @@
       <c r="B457" s="21"/>
     </row>
     <row r="458" spans="1:2">
-      <c r="A458" s="66"/>
+      <c r="A458" s="58"/>
       <c r="B458" s="21"/>
     </row>
     <row r="459" spans="1:2">
@@ -16970,7 +17083,7 @@
       <c r="B459" s="21"/>
     </row>
     <row r="460" spans="1:2">
-      <c r="A460" s="66"/>
+      <c r="A460" s="58"/>
       <c r="B460" s="21"/>
     </row>
     <row r="461" spans="1:2">
@@ -16978,7 +17091,7 @@
       <c r="B461" s="21"/>
     </row>
     <row r="462" spans="1:2">
-      <c r="A462" s="66"/>
+      <c r="A462" s="58"/>
       <c r="B462" s="21"/>
     </row>
     <row r="463" spans="1:2">
@@ -16986,7 +17099,7 @@
       <c r="B463" s="21"/>
     </row>
     <row r="464" spans="1:2">
-      <c r="A464" s="66"/>
+      <c r="A464" s="58"/>
       <c r="B464" s="21"/>
     </row>
     <row r="465" spans="1:2">
@@ -16994,7 +17107,7 @@
       <c r="B465" s="21"/>
     </row>
     <row r="466" spans="1:2">
-      <c r="A466" s="66"/>
+      <c r="A466" s="58"/>
       <c r="B466" s="21"/>
     </row>
     <row r="467" spans="1:2">
@@ -17002,7 +17115,7 @@
       <c r="B467" s="21"/>
     </row>
     <row r="468" spans="1:2">
-      <c r="A468" s="66"/>
+      <c r="A468" s="58"/>
       <c r="B468" s="21"/>
     </row>
     <row r="469" spans="1:2">
@@ -17010,7 +17123,7 @@
       <c r="B469" s="21"/>
     </row>
     <row r="470" spans="1:2">
-      <c r="A470" s="66"/>
+      <c r="A470" s="58"/>
       <c r="B470" s="21"/>
     </row>
     <row r="471" spans="1:2">
@@ -17018,7 +17131,7 @@
       <c r="B471" s="21"/>
     </row>
     <row r="472" spans="1:2">
-      <c r="A472" s="66"/>
+      <c r="A472" s="58"/>
       <c r="B472" s="21"/>
     </row>
     <row r="473" spans="1:2">
@@ -17026,7 +17139,7 @@
       <c r="B473" s="21"/>
     </row>
     <row r="474" spans="1:2">
-      <c r="A474" s="66"/>
+      <c r="A474" s="58"/>
       <c r="B474" s="21"/>
     </row>
     <row r="475" spans="1:2">
@@ -17034,7 +17147,7 @@
       <c r="B475" s="21"/>
     </row>
     <row r="476" spans="1:2">
-      <c r="A476" s="66"/>
+      <c r="A476" s="58"/>
       <c r="B476" s="21"/>
     </row>
     <row r="477" spans="1:2">
@@ -17042,7 +17155,7 @@
       <c r="B477" s="21"/>
     </row>
     <row r="478" spans="1:2">
-      <c r="A478" s="66"/>
+      <c r="A478" s="58"/>
       <c r="B478" s="21"/>
     </row>
     <row r="479" spans="1:2">
@@ -17050,7 +17163,7 @@
       <c r="B479" s="21"/>
     </row>
     <row r="480" spans="1:2">
-      <c r="A480" s="66"/>
+      <c r="A480" s="58"/>
       <c r="B480" s="21"/>
     </row>
     <row r="481" spans="1:2">
@@ -17058,7 +17171,7 @@
       <c r="B481" s="21"/>
     </row>
     <row r="482" spans="1:2">
-      <c r="A482" s="66"/>
+      <c r="A482" s="58"/>
       <c r="B482" s="21"/>
     </row>
     <row r="483" spans="1:2">
@@ -17066,7 +17179,7 @@
       <c r="B483" s="21"/>
     </row>
     <row r="484" spans="1:2">
-      <c r="A484" s="66"/>
+      <c r="A484" s="58"/>
       <c r="B484" s="21"/>
     </row>
     <row r="485" spans="1:2">
@@ -17074,7 +17187,7 @@
       <c r="B485" s="21"/>
     </row>
     <row r="486" spans="1:2">
-      <c r="A486" s="66"/>
+      <c r="A486" s="58"/>
       <c r="B486" s="21"/>
     </row>
     <row r="487" spans="1:2">
@@ -17082,7 +17195,7 @@
       <c r="B487" s="21"/>
     </row>
     <row r="488" spans="1:2">
-      <c r="A488" s="66"/>
+      <c r="A488" s="58"/>
       <c r="B488" s="21"/>
     </row>
     <row r="489" spans="1:2">
@@ -17090,7 +17203,7 @@
       <c r="B489" s="21"/>
     </row>
     <row r="490" spans="1:2">
-      <c r="A490" s="66"/>
+      <c r="A490" s="58"/>
       <c r="B490" s="21"/>
     </row>
     <row r="491" spans="1:2">
@@ -17098,7 +17211,7 @@
       <c r="B491" s="21"/>
     </row>
     <row r="492" spans="1:2">
-      <c r="A492" s="66"/>
+      <c r="A492" s="58"/>
       <c r="B492" s="21"/>
     </row>
     <row r="493" spans="1:2">
@@ -17106,7 +17219,7 @@
       <c r="B493" s="21"/>
     </row>
     <row r="494" spans="1:2">
-      <c r="A494" s="66"/>
+      <c r="A494" s="58"/>
       <c r="B494" s="21"/>
     </row>
     <row r="495" spans="1:2">
@@ -17114,7 +17227,7 @@
       <c r="B495" s="21"/>
     </row>
     <row r="496" spans="1:2">
-      <c r="A496" s="66"/>
+      <c r="A496" s="58"/>
       <c r="B496" s="21"/>
     </row>
     <row r="497" spans="1:2">
@@ -17122,7 +17235,7 @@
       <c r="B497" s="21"/>
     </row>
     <row r="498" spans="1:2">
-      <c r="A498" s="66"/>
+      <c r="A498" s="58"/>
       <c r="B498" s="21"/>
     </row>
     <row r="499" spans="1:2">
@@ -17130,7 +17243,7 @@
       <c r="B499" s="21"/>
     </row>
     <row r="500" spans="1:2">
-      <c r="A500" s="66"/>
+      <c r="A500" s="58"/>
       <c r="B500" s="21"/>
     </row>
     <row r="501" spans="1:2">
@@ -17138,7 +17251,7 @@
       <c r="B501" s="21"/>
     </row>
     <row r="502" spans="1:2">
-      <c r="A502" s="66"/>
+      <c r="A502" s="58"/>
       <c r="B502" s="21"/>
     </row>
     <row r="503" spans="1:2">
@@ -17146,7 +17259,7 @@
       <c r="B503" s="21"/>
     </row>
     <row r="504" spans="1:2">
-      <c r="A504" s="66"/>
+      <c r="A504" s="58"/>
       <c r="B504" s="21"/>
     </row>
     <row r="505" spans="1:2">
@@ -17154,7 +17267,7 @@
       <c r="B505" s="21"/>
     </row>
     <row r="506" spans="1:2">
-      <c r="A506" s="66"/>
+      <c r="A506" s="58"/>
       <c r="B506" s="21"/>
     </row>
     <row r="507" spans="1:2">
@@ -17162,7 +17275,7 @@
       <c r="B507" s="21"/>
     </row>
     <row r="508" spans="1:2">
-      <c r="A508" s="66"/>
+      <c r="A508" s="58"/>
       <c r="B508" s="21"/>
     </row>
     <row r="509" spans="1:2">
@@ -17170,7 +17283,7 @@
       <c r="B509" s="21"/>
     </row>
     <row r="510" spans="1:2">
-      <c r="A510" s="66"/>
+      <c r="A510" s="58"/>
       <c r="B510" s="21"/>
     </row>
     <row r="511" spans="1:2">
@@ -17178,7 +17291,7 @@
       <c r="B511" s="21"/>
     </row>
     <row r="512" spans="1:2">
-      <c r="A512" s="66"/>
+      <c r="A512" s="58"/>
       <c r="B512" s="21"/>
     </row>
     <row r="513" spans="1:2">
@@ -17186,7 +17299,7 @@
       <c r="B513" s="21"/>
     </row>
     <row r="514" spans="1:2">
-      <c r="A514" s="66"/>
+      <c r="A514" s="58"/>
       <c r="B514" s="21"/>
     </row>
     <row r="515" spans="1:2">
@@ -17194,7 +17307,7 @@
       <c r="B515" s="21"/>
     </row>
     <row r="516" spans="1:2">
-      <c r="A516" s="66"/>
+      <c r="A516" s="58"/>
       <c r="B516" s="21"/>
     </row>
     <row r="517" spans="1:2">
@@ -17202,7 +17315,7 @@
       <c r="B517" s="21"/>
     </row>
     <row r="518" spans="1:2">
-      <c r="A518" s="66"/>
+      <c r="A518" s="58"/>
       <c r="B518" s="21"/>
     </row>
     <row r="519" spans="1:2">
@@ -17210,7 +17323,7 @@
       <c r="B519" s="21"/>
     </row>
     <row r="520" spans="1:2">
-      <c r="A520" s="66"/>
+      <c r="A520" s="58"/>
       <c r="B520" s="21"/>
     </row>
     <row r="521" spans="1:2">
@@ -17218,7 +17331,7 @@
       <c r="B521" s="21"/>
     </row>
     <row r="522" spans="1:2">
-      <c r="A522" s="66"/>
+      <c r="A522" s="58"/>
       <c r="B522" s="21"/>
     </row>
     <row r="523" spans="1:2">
@@ -17226,7 +17339,7 @@
       <c r="B523" s="21"/>
     </row>
     <row r="524" spans="1:2">
-      <c r="A524" s="66"/>
+      <c r="A524" s="58"/>
       <c r="B524" s="21"/>
     </row>
     <row r="525" spans="1:2">
@@ -17234,7 +17347,7 @@
       <c r="B525" s="21"/>
     </row>
     <row r="526" spans="1:2">
-      <c r="A526" s="66"/>
+      <c r="A526" s="58"/>
       <c r="B526" s="21"/>
     </row>
     <row r="527" spans="1:2">
@@ -17242,7 +17355,7 @@
       <c r="B527" s="21"/>
     </row>
     <row r="528" spans="1:2">
-      <c r="A528" s="66"/>
+      <c r="A528" s="58"/>
       <c r="B528" s="21"/>
     </row>
     <row r="529" spans="1:2">
@@ -17250,7 +17363,7 @@
       <c r="B529" s="21"/>
     </row>
     <row r="530" spans="1:2">
-      <c r="A530" s="66"/>
+      <c r="A530" s="58"/>
       <c r="B530" s="21"/>
     </row>
     <row r="531" spans="1:2">
@@ -17258,7 +17371,7 @@
       <c r="B531" s="21"/>
     </row>
     <row r="532" spans="1:2">
-      <c r="A532" s="66"/>
+      <c r="A532" s="58"/>
       <c r="B532" s="21"/>
     </row>
     <row r="533" spans="1:2">
@@ -17266,7 +17379,7 @@
       <c r="B533" s="21"/>
     </row>
     <row r="534" spans="1:2">
-      <c r="A534" s="66"/>
+      <c r="A534" s="58"/>
       <c r="B534" s="21"/>
     </row>
     <row r="535" spans="1:2">
@@ -17274,7 +17387,7 @@
       <c r="B535" s="21"/>
     </row>
     <row r="536" spans="1:2">
-      <c r="A536" s="66"/>
+      <c r="A536" s="58"/>
       <c r="B536" s="21"/>
     </row>
     <row r="537" spans="1:2">
@@ -17282,7 +17395,7 @@
       <c r="B537" s="21"/>
     </row>
     <row r="538" spans="1:2">
-      <c r="A538" s="66"/>
+      <c r="A538" s="58"/>
       <c r="B538" s="21"/>
     </row>
     <row r="539" spans="1:2">
@@ -17290,7 +17403,7 @@
       <c r="B539" s="21"/>
     </row>
     <row r="540" spans="1:2">
-      <c r="A540" s="66"/>
+      <c r="A540" s="58"/>
       <c r="B540" s="21"/>
     </row>
     <row r="541" spans="1:2">
@@ -17298,7 +17411,7 @@
       <c r="B541" s="21"/>
     </row>
     <row r="542" spans="1:2">
-      <c r="A542" s="66"/>
+      <c r="A542" s="58"/>
       <c r="B542" s="21"/>
     </row>
     <row r="543" spans="1:2">
@@ -17306,7 +17419,7 @@
       <c r="B543" s="21"/>
     </row>
     <row r="544" spans="1:2">
-      <c r="A544" s="66"/>
+      <c r="A544" s="58"/>
       <c r="B544" s="21"/>
     </row>
     <row r="545" spans="1:2">
@@ -17314,7 +17427,7 @@
       <c r="B545" s="21"/>
     </row>
     <row r="546" spans="1:2">
-      <c r="A546" s="66"/>
+      <c r="A546" s="58"/>
       <c r="B546" s="21"/>
     </row>
     <row r="547" spans="1:2">
@@ -17322,7 +17435,7 @@
       <c r="B547" s="21"/>
     </row>
     <row r="548" spans="1:2">
-      <c r="A548" s="66"/>
+      <c r="A548" s="58"/>
       <c r="B548" s="21"/>
     </row>
     <row r="549" spans="1:2">
@@ -17330,7 +17443,7 @@
       <c r="B549" s="21"/>
     </row>
     <row r="550" spans="1:2">
-      <c r="A550" s="66"/>
+      <c r="A550" s="58"/>
       <c r="B550" s="21"/>
     </row>
     <row r="551" spans="1:2">
@@ -17338,7 +17451,7 @@
       <c r="B551" s="21"/>
     </row>
     <row r="552" spans="1:2">
-      <c r="A552" s="66"/>
+      <c r="A552" s="58"/>
       <c r="B552" s="21"/>
     </row>
     <row r="553" spans="1:2">
@@ -17346,7 +17459,7 @@
       <c r="B553" s="21"/>
     </row>
     <row r="554" spans="1:2">
-      <c r="A554" s="66"/>
+      <c r="A554" s="58"/>
       <c r="B554" s="21"/>
     </row>
     <row r="555" spans="1:2">
@@ -17354,7 +17467,7 @@
       <c r="B555" s="21"/>
     </row>
     <row r="556" spans="1:2">
-      <c r="A556" s="66"/>
+      <c r="A556" s="58"/>
       <c r="B556" s="21"/>
     </row>
     <row r="557" spans="1:2">
@@ -17362,7 +17475,7 @@
       <c r="B557" s="21"/>
     </row>
     <row r="558" spans="1:2">
-      <c r="A558" s="66"/>
+      <c r="A558" s="58"/>
       <c r="B558" s="21"/>
     </row>
     <row r="559" spans="1:2">
@@ -17370,7 +17483,7 @@
       <c r="B559" s="21"/>
     </row>
     <row r="560" spans="1:2">
-      <c r="A560" s="66"/>
+      <c r="A560" s="58"/>
       <c r="B560" s="21"/>
     </row>
     <row r="561" spans="1:2">
@@ -17378,7 +17491,7 @@
       <c r="B561" s="21"/>
     </row>
     <row r="562" spans="1:2">
-      <c r="A562" s="66"/>
+      <c r="A562" s="58"/>
       <c r="B562" s="21"/>
     </row>
     <row r="563" spans="1:2">
@@ -17386,7 +17499,7 @@
       <c r="B563" s="21"/>
     </row>
     <row r="564" spans="1:2">
-      <c r="A564" s="66"/>
+      <c r="A564" s="58"/>
       <c r="B564" s="21"/>
     </row>
     <row r="565" spans="1:2">
@@ -17394,7 +17507,7 @@
       <c r="B565" s="21"/>
     </row>
     <row r="566" spans="1:2">
-      <c r="A566" s="66"/>
+      <c r="A566" s="58"/>
       <c r="B566" s="21"/>
     </row>
     <row r="567" spans="1:2">
@@ -17402,7 +17515,7 @@
       <c r="B567" s="21"/>
     </row>
     <row r="568" spans="1:2">
-      <c r="A568" s="66"/>
+      <c r="A568" s="58"/>
       <c r="B568" s="21"/>
     </row>
     <row r="569" spans="1:2">
@@ -17410,7 +17523,7 @@
       <c r="B569" s="21"/>
     </row>
     <row r="570" spans="1:2">
-      <c r="A570" s="66"/>
+      <c r="A570" s="58"/>
       <c r="B570" s="21"/>
     </row>
     <row r="571" spans="1:2">
@@ -17418,7 +17531,7 @@
       <c r="B571" s="21"/>
     </row>
     <row r="572" spans="1:2">
-      <c r="A572" s="66"/>
+      <c r="A572" s="58"/>
       <c r="B572" s="21"/>
     </row>
     <row r="573" spans="1:2">
@@ -17426,7 +17539,7 @@
       <c r="B573" s="21"/>
     </row>
     <row r="574" spans="1:2">
-      <c r="A574" s="66"/>
+      <c r="A574" s="58"/>
       <c r="B574" s="21"/>
     </row>
     <row r="575" spans="1:2">
@@ -17434,7 +17547,7 @@
       <c r="B575" s="21"/>
     </row>
     <row r="576" spans="1:2">
-      <c r="A576" s="66"/>
+      <c r="A576" s="58"/>
       <c r="B576" s="21"/>
     </row>
     <row r="577" spans="1:2">
@@ -17442,7 +17555,7 @@
       <c r="B577" s="21"/>
     </row>
     <row r="578" spans="1:2">
-      <c r="A578" s="66"/>
+      <c r="A578" s="58"/>
       <c r="B578" s="21"/>
     </row>
     <row r="579" spans="1:2">
@@ -17450,7 +17563,7 @@
       <c r="B579" s="21"/>
     </row>
     <row r="580" spans="1:2">
-      <c r="A580" s="66"/>
+      <c r="A580" s="58"/>
       <c r="B580" s="21"/>
     </row>
     <row r="581" spans="1:2">
@@ -17458,7 +17571,7 @@
       <c r="B581" s="21"/>
     </row>
     <row r="582" spans="1:2">
-      <c r="A582" s="66"/>
+      <c r="A582" s="58"/>
       <c r="B582" s="21"/>
     </row>
     <row r="583" spans="1:2">
@@ -17466,7 +17579,7 @@
       <c r="B583" s="21"/>
     </row>
     <row r="584" spans="1:2">
-      <c r="A584" s="66"/>
+      <c r="A584" s="58"/>
       <c r="B584" s="21"/>
     </row>
     <row r="585" spans="1:2">
@@ -17474,7 +17587,7 @@
       <c r="B585" s="21"/>
     </row>
     <row r="586" spans="1:2">
-      <c r="A586" s="66"/>
+      <c r="A586" s="58"/>
       <c r="B586" s="21"/>
     </row>
     <row r="587" spans="1:2">
@@ -17482,7 +17595,7 @@
       <c r="B587" s="21"/>
     </row>
     <row r="588" spans="1:2">
-      <c r="A588" s="66"/>
+      <c r="A588" s="58"/>
       <c r="B588" s="21"/>
     </row>
     <row r="589" spans="1:2">
@@ -17490,7 +17603,7 @@
       <c r="B589" s="21"/>
     </row>
     <row r="590" spans="1:2">
-      <c r="A590" s="66"/>
+      <c r="A590" s="58"/>
       <c r="B590" s="21"/>
     </row>
     <row r="591" spans="1:2">
@@ -17498,7 +17611,7 @@
       <c r="B591" s="21"/>
     </row>
     <row r="592" spans="1:2">
-      <c r="A592" s="66"/>
+      <c r="A592" s="58"/>
       <c r="B592" s="21"/>
     </row>
     <row r="593" spans="1:2">
@@ -17506,7 +17619,7 @@
       <c r="B593" s="15"/>
     </row>
     <row r="594" spans="1:2">
-      <c r="A594" s="66"/>
+      <c r="A594" s="58"/>
       <c r="B594" s="15"/>
     </row>
     <row r="595" spans="1:2">
@@ -17514,7 +17627,7 @@
       <c r="B595" s="15"/>
     </row>
     <row r="596" spans="1:2">
-      <c r="A596" s="66"/>
+      <c r="A596" s="58"/>
       <c r="B596" s="15"/>
     </row>
     <row r="597" spans="1:2">
@@ -17522,7 +17635,7 @@
       <c r="B597" s="15"/>
     </row>
     <row r="598" spans="1:2">
-      <c r="A598" s="66"/>
+      <c r="A598" s="58"/>
       <c r="B598" s="15"/>
     </row>
     <row r="599" spans="1:2">
@@ -17530,7 +17643,7 @@
       <c r="B599" s="15"/>
     </row>
     <row r="600" spans="1:2">
-      <c r="A600" s="66"/>
+      <c r="A600" s="58"/>
       <c r="B600" s="15"/>
     </row>
     <row r="601" spans="1:2">
@@ -17538,7 +17651,7 @@
       <c r="B601" s="15"/>
     </row>
     <row r="602" spans="1:2">
-      <c r="A602" s="66"/>
+      <c r="A602" s="58"/>
       <c r="B602" s="15"/>
     </row>
     <row r="603" spans="1:2">
@@ -17546,7 +17659,7 @@
       <c r="B603" s="15"/>
     </row>
     <row r="604" spans="1:2">
-      <c r="A604" s="66"/>
+      <c r="A604" s="58"/>
       <c r="B604" s="15"/>
     </row>
     <row r="605" spans="1:2">
@@ -17554,7 +17667,7 @@
       <c r="B605" s="15"/>
     </row>
     <row r="606" spans="1:2">
-      <c r="A606" s="66"/>
+      <c r="A606" s="58"/>
       <c r="B606" s="15"/>
     </row>
     <row r="607" spans="1:2">
@@ -17562,7 +17675,7 @@
       <c r="B607" s="15"/>
     </row>
     <row r="608" spans="1:2">
-      <c r="A608" s="66"/>
+      <c r="A608" s="58"/>
       <c r="B608" s="15"/>
     </row>
     <row r="609" spans="1:2">
@@ -17570,7 +17683,7 @@
       <c r="B609" s="15"/>
     </row>
     <row r="610" spans="1:2">
-      <c r="A610" s="66"/>
+      <c r="A610" s="58"/>
       <c r="B610" s="15"/>
     </row>
     <row r="611" spans="1:2">
@@ -17578,7 +17691,7 @@
       <c r="B611" s="15"/>
     </row>
     <row r="612" spans="1:2">
-      <c r="A612" s="66"/>
+      <c r="A612" s="58"/>
       <c r="B612" s="15"/>
     </row>
     <row r="613" spans="1:2">
@@ -17586,7 +17699,7 @@
       <c r="B613" s="15"/>
     </row>
     <row r="614" spans="1:2">
-      <c r="A614" s="66"/>
+      <c r="A614" s="58"/>
       <c r="B614" s="15"/>
     </row>
     <row r="615" spans="1:2">
@@ -17594,7 +17707,7 @@
       <c r="B615" s="15"/>
     </row>
     <row r="616" spans="1:2">
-      <c r="A616" s="66"/>
+      <c r="A616" s="58"/>
       <c r="B616" s="15"/>
     </row>
     <row r="617" spans="1:2">
@@ -17602,442 +17715,431 @@
       <c r="B617" s="15"/>
     </row>
     <row r="618" spans="1:1">
-      <c r="A618" s="67"/>
+      <c r="A618" s="59"/>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" s="12"/>
     </row>
     <row r="620" spans="1:1">
-      <c r="A620" s="67"/>
+      <c r="A620" s="59"/>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" s="12"/>
     </row>
     <row r="622" spans="1:1">
-      <c r="A622" s="67"/>
+      <c r="A622" s="59"/>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" s="12"/>
     </row>
     <row r="624" spans="1:1">
-      <c r="A624" s="67"/>
+      <c r="A624" s="59"/>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" s="12"/>
     </row>
     <row r="626" spans="1:1">
-      <c r="A626" s="67"/>
+      <c r="A626" s="59"/>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" s="12"/>
     </row>
     <row r="628" spans="1:1">
-      <c r="A628" s="67"/>
+      <c r="A628" s="59"/>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" s="12"/>
     </row>
     <row r="630" spans="1:1">
-      <c r="A630" s="67"/>
+      <c r="A630" s="59"/>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" s="12"/>
     </row>
     <row r="632" spans="1:1">
-      <c r="A632" s="67"/>
+      <c r="A632" s="59"/>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" s="12"/>
     </row>
     <row r="634" spans="1:1">
-      <c r="A634" s="67"/>
+      <c r="A634" s="59"/>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" s="12"/>
     </row>
     <row r="636" spans="1:1">
-      <c r="A636" s="67"/>
+      <c r="A636" s="59"/>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" s="12"/>
     </row>
     <row r="638" spans="1:1">
-      <c r="A638" s="67"/>
+      <c r="A638" s="59"/>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" s="12"/>
     </row>
     <row r="640" spans="1:1">
-      <c r="A640" s="67"/>
+      <c r="A640" s="59"/>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" s="12"/>
     </row>
     <row r="642" spans="1:1">
-      <c r="A642" s="67"/>
+      <c r="A642" s="59"/>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" s="12"/>
     </row>
     <row r="644" spans="1:1">
-      <c r="A644" s="67"/>
+      <c r="A644" s="59"/>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" s="12"/>
     </row>
     <row r="646" spans="1:1">
-      <c r="A646" s="67"/>
+      <c r="A646" s="59"/>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" s="12"/>
     </row>
     <row r="648" spans="1:1">
-      <c r="A648" s="67"/>
+      <c r="A648" s="59"/>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" s="12"/>
     </row>
     <row r="650" spans="1:1">
-      <c r="A650" s="67"/>
+      <c r="A650" s="59"/>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" s="12"/>
     </row>
     <row r="652" spans="1:1">
-      <c r="A652" s="67"/>
+      <c r="A652" s="59"/>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" s="12"/>
     </row>
     <row r="654" spans="1:1">
-      <c r="A654" s="67"/>
+      <c r="A654" s="59"/>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" s="12"/>
     </row>
     <row r="656" spans="1:1">
-      <c r="A656" s="67"/>
+      <c r="A656" s="59"/>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" s="12"/>
     </row>
     <row r="658" spans="1:1">
-      <c r="A658" s="67"/>
+      <c r="A658" s="59"/>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" s="12"/>
     </row>
     <row r="660" spans="1:1">
-      <c r="A660" s="67"/>
+      <c r="A660" s="59"/>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" s="12"/>
     </row>
     <row r="662" spans="1:1">
-      <c r="A662" s="67"/>
+      <c r="A662" s="59"/>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" s="12"/>
     </row>
     <row r="664" spans="1:1">
-      <c r="A664" s="67"/>
+      <c r="A664" s="59"/>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" s="12"/>
     </row>
     <row r="666" spans="1:1">
-      <c r="A666" s="67"/>
+      <c r="A666" s="59"/>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" s="12"/>
     </row>
     <row r="668" spans="1:1">
-      <c r="A668" s="67"/>
+      <c r="A668" s="59"/>
     </row>
     <row r="669" spans="1:1">
       <c r="A669" s="12"/>
     </row>
     <row r="670" spans="1:1">
-      <c r="A670" s="67"/>
+      <c r="A670" s="59"/>
     </row>
     <row r="671" spans="1:1">
       <c r="A671" s="12"/>
     </row>
     <row r="672" spans="1:1">
-      <c r="A672" s="67"/>
+      <c r="A672" s="59"/>
     </row>
     <row r="673" spans="1:1">
       <c r="A673" s="12"/>
     </row>
     <row r="674" spans="1:1">
-      <c r="A674" s="67"/>
+      <c r="A674" s="59"/>
     </row>
     <row r="675" spans="1:1">
       <c r="A675" s="12"/>
     </row>
     <row r="676" spans="1:1">
-      <c r="A676" s="67"/>
+      <c r="A676" s="59"/>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" s="12"/>
     </row>
     <row r="678" spans="1:1">
-      <c r="A678" s="67"/>
+      <c r="A678" s="59"/>
     </row>
     <row r="679" spans="1:1">
       <c r="A679" s="12"/>
     </row>
     <row r="680" spans="1:1">
-      <c r="A680" s="67"/>
+      <c r="A680" s="59"/>
     </row>
     <row r="681" spans="1:1">
       <c r="A681" s="12"/>
     </row>
     <row r="682" spans="1:1">
-      <c r="A682" s="67"/>
+      <c r="A682" s="59"/>
     </row>
     <row r="683" spans="1:1">
       <c r="A683" s="12"/>
     </row>
     <row r="684" spans="1:1">
-      <c r="A684" s="67"/>
+      <c r="A684" s="59"/>
     </row>
     <row r="685" spans="1:1">
       <c r="A685" s="12"/>
     </row>
     <row r="686" spans="1:1">
-      <c r="A686" s="67"/>
+      <c r="A686" s="59"/>
     </row>
     <row r="687" spans="1:1">
       <c r="A687" s="12"/>
     </row>
     <row r="688" spans="1:1">
-      <c r="A688" s="67"/>
+      <c r="A688" s="59"/>
     </row>
     <row r="689" spans="1:1">
       <c r="A689" s="12"/>
     </row>
     <row r="690" spans="1:1">
-      <c r="A690" s="67"/>
+      <c r="A690" s="59"/>
     </row>
     <row r="691" spans="1:1">
       <c r="A691" s="12"/>
     </row>
     <row r="692" spans="1:1">
-      <c r="A692" s="67"/>
+      <c r="A692" s="59"/>
     </row>
     <row r="693" spans="1:1">
       <c r="A693" s="12"/>
     </row>
     <row r="694" spans="1:1">
-      <c r="A694" s="67"/>
+      <c r="A694" s="59"/>
     </row>
     <row r="695" spans="1:1">
       <c r="A695" s="12"/>
     </row>
     <row r="696" spans="1:1">
-      <c r="A696" s="67"/>
+      <c r="A696" s="59"/>
     </row>
     <row r="697" spans="1:1">
       <c r="A697" s="12"/>
     </row>
     <row r="698" spans="1:1">
-      <c r="A698" s="67"/>
+      <c r="A698" s="59"/>
     </row>
     <row r="699" spans="1:1">
       <c r="A699" s="12"/>
     </row>
     <row r="700" spans="1:1">
-      <c r="A700" s="67"/>
+      <c r="A700" s="59"/>
     </row>
     <row r="701" spans="1:1">
       <c r="A701" s="12"/>
     </row>
     <row r="702" spans="1:1">
-      <c r="A702" s="67"/>
+      <c r="A702" s="59"/>
     </row>
     <row r="703" spans="1:1">
       <c r="A703" s="12"/>
     </row>
     <row r="704" spans="1:1">
-      <c r="A704" s="67"/>
+      <c r="A704" s="59"/>
     </row>
     <row r="705" spans="1:1">
       <c r="A705" s="12"/>
     </row>
     <row r="706" spans="1:1">
-      <c r="A706" s="67"/>
+      <c r="A706" s="59"/>
     </row>
     <row r="707" spans="1:1">
       <c r="A707" s="12"/>
     </row>
     <row r="708" spans="1:1">
-      <c r="A708" s="67"/>
+      <c r="A708" s="59"/>
     </row>
     <row r="709" spans="1:1">
       <c r="A709" s="12"/>
     </row>
     <row r="710" spans="1:1">
-      <c r="A710" s="67"/>
+      <c r="A710" s="59"/>
     </row>
     <row r="711" spans="1:1">
       <c r="A711" s="12"/>
     </row>
     <row r="712" spans="1:1">
-      <c r="A712" s="67"/>
+      <c r="A712" s="59"/>
     </row>
     <row r="713" spans="1:1">
       <c r="A713" s="12"/>
     </row>
     <row r="714" spans="1:1">
-      <c r="A714" s="67"/>
+      <c r="A714" s="59"/>
     </row>
     <row r="715" spans="1:1">
       <c r="A715" s="12"/>
     </row>
     <row r="716" spans="1:1">
-      <c r="A716" s="67"/>
+      <c r="A716" s="59"/>
     </row>
     <row r="717" spans="1:1">
       <c r="A717" s="12"/>
     </row>
     <row r="718" spans="1:1">
-      <c r="A718" s="67"/>
+      <c r="A718" s="59"/>
     </row>
     <row r="719" spans="1:1">
       <c r="A719" s="12"/>
     </row>
     <row r="720" spans="1:1">
-      <c r="A720" s="67"/>
+      <c r="A720" s="59"/>
     </row>
     <row r="721" spans="1:1">
       <c r="A721" s="12"/>
     </row>
     <row r="722" spans="1:1">
-      <c r="A722" s="67"/>
+      <c r="A722" s="59"/>
     </row>
     <row r="723" spans="1:1">
       <c r="A723" s="12"/>
     </row>
     <row r="724" spans="1:1">
-      <c r="A724" s="67"/>
+      <c r="A724" s="59"/>
     </row>
     <row r="725" spans="1:1">
       <c r="A725" s="12"/>
     </row>
     <row r="726" spans="1:1">
-      <c r="A726" s="67"/>
+      <c r="A726" s="59"/>
     </row>
     <row r="727" spans="1:1">
       <c r="A727" s="12"/>
     </row>
     <row r="728" spans="1:1">
-      <c r="A728" s="67"/>
+      <c r="A728" s="59"/>
     </row>
     <row r="729" spans="1:1">
       <c r="A729" s="12"/>
     </row>
     <row r="730" spans="1:1">
-      <c r="A730" s="67"/>
+      <c r="A730" s="59"/>
     </row>
     <row r="731" spans="1:1">
       <c r="A731" s="12"/>
     </row>
     <row r="732" spans="1:1">
-      <c r="A732" s="67"/>
+      <c r="A732" s="59"/>
     </row>
     <row r="733" spans="1:1">
       <c r="A733" s="12"/>
     </row>
     <row r="734" spans="1:1">
-      <c r="A734" s="67"/>
+      <c r="A734" s="59"/>
     </row>
     <row r="735" spans="1:1">
       <c r="A735" s="12"/>
     </row>
     <row r="736" spans="1:1">
-      <c r="A736" s="67"/>
+      <c r="A736" s="59"/>
     </row>
     <row r="737" spans="1:1">
       <c r="A737" s="12"/>
     </row>
     <row r="738" spans="1:1">
-      <c r="A738" s="67"/>
+      <c r="A738" s="59"/>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" s="12"/>
     </row>
     <row r="740" spans="1:1">
-      <c r="A740" s="67"/>
+      <c r="A740" s="59"/>
     </row>
     <row r="741" spans="1:1">
       <c r="A741" s="12"/>
     </row>
     <row r="742" spans="1:1">
-      <c r="A742" s="67"/>
+      <c r="A742" s="59"/>
     </row>
     <row r="743" spans="1:1">
       <c r="A743" s="12"/>
     </row>
     <row r="744" spans="1:1">
-      <c r="A744" s="67"/>
+      <c r="A744" s="59"/>
     </row>
     <row r="745" spans="1:1">
       <c r="A745" s="12"/>
     </row>
     <row r="746" spans="1:1">
-      <c r="A746" s="67"/>
+      <c r="A746" s="59"/>
     </row>
     <row r="747" spans="1:1">
       <c r="A747" s="12"/>
     </row>
     <row r="748" spans="1:1">
-      <c r="A748" s="67"/>
+      <c r="A748" s="59"/>
     </row>
     <row r="749" spans="1:1">
       <c r="A749" s="12"/>
     </row>
     <row r="750" spans="1:1">
-      <c r="A750" s="67"/>
+      <c r="A750" s="59"/>
     </row>
     <row r="751" spans="1:1">
       <c r="A751" s="12"/>
     </row>
     <row r="752" spans="1:1">
-      <c r="A752" s="67"/>
+      <c r="A752" s="59"/>
     </row>
     <row r="753" spans="1:1">
       <c r="A753" s="12"/>
     </row>
     <row r="754" spans="1:1">
-      <c r="A754" s="67"/>
+      <c r="A754" s="59"/>
     </row>
     <row r="755" spans="1:1">
       <c r="A755" s="12"/>
     </row>
     <row r="756" spans="1:1">
-      <c r="A756" s="67"/>
+      <c r="A756" s="59"/>
     </row>
     <row r="757" spans="1:1">
       <c r="A757" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A200:P200"/>
-    <mergeCell ref="A216:P216"/>
-    <mergeCell ref="A227:P227"/>
-    <mergeCell ref="A253:P253"/>
-    <mergeCell ref="B180:B199"/>
-    <mergeCell ref="B201:B215"/>
-    <mergeCell ref="B217:B226"/>
-    <mergeCell ref="B228:B252"/>
-    <mergeCell ref="B254:B260"/>
-  </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C163 C179 C198 C199 C200 C227 C228 C229 C230 C231 C232 C233 C234 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C257 C258 C259 C4:C17 C18:C23 C24:C34 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C146 C147:C162 C164:C178 C180:C197 C201:C216 C217:C226 C260:C1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C163 C179 C198 C199 C200 C216 C227 C228 C229 C230 C231 C232 C233 C234 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C257 C258 C259 C4:C17 C18:C23 C24:C34 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C146 C147:C162 C164:C178 C180:C197 C201:C215 C217:C226 C260:C1048576">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D18 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D60 D71 D84 D85 D86 D106 D146 D163 D179 D198 D199 D200 D227 D228 D229 D235 D236 D237 D238 D239 D240 D241 D242 D243 D244 D245 D246 D247 D248 D249 D250 D251 D252 D253 D254 D255 D256 D257 D258 D259 D4:D17 D19:D22 D23:D35 D49:D59 D61:D70 D72:D81 D82:D83 D87:D105 D107:D117 D118:D137 D138:D145 D147:D162 D164:D178 D180:D197 D201:D216 D217:D226 D230:D234 D260:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D18 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D60 D71 D84 D85 D86 D106 D146 D163 D179 D198 D199 D200 D216 D227 D228 D229 D235 D236 D237 D238 D239 D240 D241 D242 D243 D244 D245 D246 D247 D248 D249 D250 D251 D252 D253 D254 D255 D256 D257 D258 D259 D4:D17 D19:D22 D23:D35 D49:D59 D61:D70 D72:D81 D82:D83 D87:D105 D107:D117 D118:D137 D138:D145 D147:D162 D164:D178 D180:D197 D201:D215 D217:D226 D230:D234 D260:D1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>

--- a/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="1" r:id="rId1"/>
@@ -1946,10 +1946,10 @@
     <t>查厘士(徐汇日月光店)上线</t>
   </si>
   <si>
-    <t>捞王锅物料理(宝山龙湖店）开业驻店</t>
-  </si>
-  <si>
-    <t>捞王锅物料理(五角场万达店）上线</t>
+    <t>捞王锅物料理(宝山龙湖店）上线</t>
+  </si>
+  <si>
+    <t>捞王锅物料理(五角场万达店）开业驻店</t>
   </si>
 </sst>
 </file>
@@ -1957,10 +1957,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="34">
@@ -2040,11 +2040,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2052,122 +2047,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2187,11 +2068,130 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2259,25 +2259,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2289,91 +2295,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2391,7 +2325,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2403,13 +2379,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2421,7 +2403,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2792,6 +2792,71 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2816,76 +2881,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2895,10 +2895,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2907,141 +2907,141 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
@@ -4176,8 +4176,8 @@
   <sheetPr/>
   <dimension ref="A1:P757"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A201" sqref="$A201:$XFD218"/>
     </sheetView>
@@ -18155,8 +18155,8 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -1917,6 +1917,33 @@
   </si>
   <si>
     <t>陈华</t>
+  </si>
+  <si>
+    <t>52周</t>
+  </si>
+  <si>
+    <t>捞王锅物料理(金桥国际店)</t>
+  </si>
+  <si>
+    <t>王婷</t>
+  </si>
+  <si>
+    <t>上海朴谷健康科技有限公司</t>
+  </si>
+  <si>
+    <t>彦悦山</t>
+  </si>
+  <si>
+    <t>彦悦山(万象城店)</t>
+  </si>
+  <si>
+    <t>黄佳君</t>
+  </si>
+  <si>
+    <t>BigCup</t>
+  </si>
+  <si>
+    <t>BigCup(南京仙林财经大学店)</t>
   </si>
   <si>
     <t xml:space="preserve">                                                                                                                                                                                                                                                                              </t>
@@ -1957,11 +1984,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -2047,6 +2074,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -2055,7 +2134,82 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2069,136 +2223,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2259,7 +2286,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2271,13 +2298,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2289,25 +2322,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2325,19 +2352,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2349,25 +2370,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2379,13 +2382,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2397,19 +2394,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2421,7 +2418,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2792,71 +2819,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2881,11 +2843,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2898,7 +2925,7 @@
     <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2907,149 +2934,149 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3217,6 +3244,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3725,440 +3758,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="92" t="s">
+      <c r="I2" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="93" t="s">
+      <c r="J2" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="94" t="s">
+      <c r="K2" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="95" t="s">
+      <c r="L2" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="96" t="s">
+      <c r="M2" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="97" t="s">
+      <c r="N2" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="62"/>
-      <c r="B3" s="69" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72">
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73">
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="99"/>
-      <c r="K3" s="100" t="e">
+      <c r="J3" s="101"/>
+      <c r="K3" s="102" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="101">
+      <c r="L3" s="103">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="102">
+      <c r="M3" s="104">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="103" t="e">
+      <c r="N3" s="105" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="76" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78">
+      <c r="D4" s="79"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="79"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="79">
+      <c r="G4" s="81"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="104"/>
-      <c r="K4" s="100" t="e">
+      <c r="J4" s="106"/>
+      <c r="K4" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="101">
+      <c r="L4" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="102">
+      <c r="M4" s="104">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="103" t="e">
+      <c r="N4" s="105" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="74"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="76" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78">
+      <c r="D5" s="79"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="79"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="79">
+      <c r="G5" s="81"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="104"/>
-      <c r="K5" s="100" t="e">
+      <c r="J5" s="106"/>
+      <c r="K5" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="101">
+      <c r="L5" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="102">
+      <c r="M5" s="104">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="103" t="e">
+      <c r="N5" s="105" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="98"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="98"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="74"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="76" t="s">
+      <c r="A6" s="76"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78">
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="79"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="79">
+      <c r="G6" s="81"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="104"/>
-      <c r="K6" s="100" t="e">
+      <c r="J6" s="106"/>
+      <c r="K6" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="101">
+      <c r="L6" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="102">
+      <c r="M6" s="104">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="103" t="e">
+      <c r="N6" s="105" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="98"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="98"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="100"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="74"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="76" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78">
+      <c r="A7" s="76"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="79"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="79">
+      <c r="G7" s="81"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="104"/>
-      <c r="K7" s="100" t="e">
+      <c r="J7" s="106"/>
+      <c r="K7" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="101">
+      <c r="L7" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="102">
+      <c r="M7" s="104">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="103" t="e">
+      <c r="N7" s="105" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="98"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="74"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="76" t="s">
+      <c r="A8" s="76"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78">
+      <c r="D8" s="79"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="79"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="79">
+      <c r="G8" s="81"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="104"/>
-      <c r="K8" s="100" t="e">
+      <c r="J8" s="106"/>
+      <c r="K8" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="101">
+      <c r="L8" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="102">
+      <c r="M8" s="104">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="103" t="e">
+      <c r="N8" s="105" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="98"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="98"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="100"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="74"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="76" t="s">
+      <c r="A9" s="76"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78">
+      <c r="D9" s="79"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="79"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="79">
+      <c r="G9" s="81"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="104"/>
-      <c r="K9" s="100" t="e">
+      <c r="J9" s="106"/>
+      <c r="K9" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="101">
+      <c r="L9" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="102">
+      <c r="M9" s="104">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="103" t="e">
+      <c r="N9" s="105" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="98"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="100"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="74"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="80" t="s">
+      <c r="A10" s="76"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="81"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="83">
+      <c r="D10" s="83"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="84"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="84">
+      <c r="G10" s="86"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="86">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="105"/>
-      <c r="K10" s="106" t="e">
+      <c r="J10" s="107"/>
+      <c r="K10" s="108" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="107">
+      <c r="L10" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="108">
+      <c r="M10" s="110">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="109" t="e">
+      <c r="N10" s="111" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="98"/>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="98"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="100"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="86"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="88" t="s">
+      <c r="A11" s="88"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="89">
+      <c r="D11" s="91">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="89">
+      <c r="E11" s="91">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="90">
+      <c r="F11" s="92">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="89">
+      <c r="G11" s="91">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="89">
+      <c r="H11" s="91">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="90">
+      <c r="I11" s="92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="89">
+      <c r="J11" s="91">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="110" t="e">
+      <c r="K11" s="112" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="90">
+      <c r="L11" s="92">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="90">
+      <c r="M11" s="92">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="111" t="e">
+      <c r="N11" s="113" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="98"/>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="98"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4176,10 +4209,10 @@
   <sheetPr/>
   <dimension ref="A1:P757"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A201" sqref="$A201:$XFD218"/>
+      <selection pane="bottomLeft" activeCell="E262" sqref="E262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8453,7 +8486,7 @@
       <c r="N95" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O95" s="112" t="s">
+      <c r="O95" s="114" t="s">
         <v>270</v>
       </c>
       <c r="P95" s="15" t="s">
@@ -16062,10 +16095,10 @@
       </c>
     </row>
     <row r="257" s="5" customFormat="1" spans="1:16">
-      <c r="A257" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B257" s="17" t="s">
+      <c r="A257" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B257" s="19" t="s">
         <v>606</v>
       </c>
       <c r="C257" s="18">
@@ -16104,7 +16137,7 @@
       <c r="N257" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O257" s="12">
+      <c r="O257" s="8">
         <v>15921046369</v>
       </c>
       <c r="P257" s="8" t="s">
@@ -16112,64 +16145,172 @@
       </c>
     </row>
     <row r="258" s="5" customFormat="1" spans="1:16">
-      <c r="A258" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B258" s="17" t="s">
-        <v>606</v>
-      </c>
-      <c r="C258" s="8"/>
-      <c r="D258" s="8"/>
-      <c r="E258" s="8"/>
-      <c r="F258" s="8"/>
-      <c r="G258" s="8"/>
-      <c r="H258" s="8"/>
-      <c r="I258" s="8"/>
-      <c r="J258" s="8"/>
-      <c r="K258" s="8"/>
-      <c r="L258" s="8"/>
-      <c r="M258" s="8"/>
-      <c r="N258" s="8"/>
-      <c r="O258" s="12"/>
-      <c r="P258" s="8"/>
+      <c r="A258" s="58"/>
+      <c r="B258" s="59"/>
+      <c r="C258" s="58"/>
+      <c r="D258" s="58"/>
+      <c r="E258" s="58"/>
+      <c r="F258" s="58"/>
+      <c r="G258" s="58"/>
+      <c r="H258" s="58"/>
+      <c r="I258" s="58"/>
+      <c r="J258" s="58"/>
+      <c r="K258" s="58"/>
+      <c r="L258" s="58"/>
+      <c r="M258" s="58"/>
+      <c r="N258" s="58"/>
+      <c r="O258" s="58"/>
+      <c r="P258" s="58"/>
     </row>
     <row r="259" s="5" customFormat="1" spans="1:16">
-      <c r="A259" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B259" s="17" t="s">
-        <v>606</v>
-      </c>
-      <c r="C259" s="8"/>
-      <c r="D259" s="8"/>
-      <c r="E259" s="8"/>
-      <c r="F259" s="8"/>
-      <c r="G259" s="8"/>
-      <c r="H259" s="8"/>
-      <c r="I259" s="8"/>
-      <c r="J259" s="8"/>
-      <c r="K259" s="8"/>
-      <c r="L259" s="8"/>
-      <c r="M259" s="8"/>
-      <c r="N259" s="8"/>
-      <c r="O259" s="12"/>
-      <c r="P259" s="8"/>
+      <c r="A259" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B259" s="19" t="s">
+        <v>618</v>
+      </c>
+      <c r="C259" s="18">
+        <v>43094</v>
+      </c>
+      <c r="D259" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E259" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F259" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G259" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H259" s="8">
+        <v>76116392</v>
+      </c>
+      <c r="I259" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="J259" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K259" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L259" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M259" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="N259" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O259" s="8">
+        <v>13625565333</v>
+      </c>
+      <c r="P259" s="8" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="260" spans="1:16">
-      <c r="A260" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B260" s="17" t="s">
-        <v>606</v>
-      </c>
-      <c r="O260" s="12"/>
-      <c r="P260" s="8"/>
+      <c r="A260" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B260" s="19" t="s">
+        <v>618</v>
+      </c>
+      <c r="C260" s="18">
+        <v>43094</v>
+      </c>
+      <c r="D260" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E260" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="F260" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="G260" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H260" s="8">
+        <v>76097788</v>
+      </c>
+      <c r="I260" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="J260" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K260" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L260" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M260" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="N260" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O260" s="8">
+        <v>13701844181</v>
+      </c>
+      <c r="P260" s="8" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="261" spans="1:16">
-      <c r="A261" s="22"/>
-      <c r="B261" s="21"/>
-      <c r="O261" s="12"/>
-      <c r="P261" s="8"/>
+      <c r="A261" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B261" s="19" t="s">
+        <v>618</v>
+      </c>
+      <c r="C261" s="18">
+        <v>43094</v>
+      </c>
+      <c r="D261" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E261" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F261" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="G261" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H261" s="8">
+        <v>76118798</v>
+      </c>
+      <c r="I261" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="J261" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K261" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L261" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M261" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="N261" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O261" s="8">
+        <v>15651032299</v>
+      </c>
+      <c r="P261" s="8" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="262" spans="1:16">
       <c r="A262" s="22"/>
@@ -16247,7 +16388,7 @@
       <c r="A274" s="22"/>
       <c r="B274" s="21"/>
       <c r="H274" s="8" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="O274" s="12"/>
       <c r="P274" s="8"/>
@@ -16899,7 +17040,7 @@
       <c r="B413" s="21"/>
     </row>
     <row r="414" spans="1:2">
-      <c r="A414" s="58"/>
+      <c r="A414" s="60"/>
       <c r="B414" s="21"/>
     </row>
     <row r="415" spans="1:2">
@@ -16971,7 +17112,7 @@
       <c r="B431" s="21"/>
     </row>
     <row r="432" spans="1:2">
-      <c r="A432" s="58"/>
+      <c r="A432" s="60"/>
       <c r="B432" s="21"/>
     </row>
     <row r="433" spans="1:2">
@@ -16979,7 +17120,7 @@
       <c r="B433" s="21"/>
     </row>
     <row r="434" spans="1:2">
-      <c r="A434" s="58"/>
+      <c r="A434" s="60"/>
       <c r="B434" s="21"/>
     </row>
     <row r="435" spans="1:2">
@@ -16987,7 +17128,7 @@
       <c r="B435" s="21"/>
     </row>
     <row r="436" spans="1:2">
-      <c r="A436" s="58"/>
+      <c r="A436" s="60"/>
       <c r="B436" s="21"/>
     </row>
     <row r="437" spans="1:2">
@@ -16995,7 +17136,7 @@
       <c r="B437" s="21"/>
     </row>
     <row r="438" spans="1:2">
-      <c r="A438" s="58"/>
+      <c r="A438" s="60"/>
       <c r="B438" s="21"/>
     </row>
     <row r="439" spans="1:2">
@@ -17003,7 +17144,7 @@
       <c r="B439" s="21"/>
     </row>
     <row r="440" spans="1:2">
-      <c r="A440" s="58"/>
+      <c r="A440" s="60"/>
       <c r="B440" s="21"/>
     </row>
     <row r="441" spans="1:2">
@@ -17011,7 +17152,7 @@
       <c r="B441" s="21"/>
     </row>
     <row r="442" spans="1:2">
-      <c r="A442" s="58"/>
+      <c r="A442" s="60"/>
       <c r="B442" s="21"/>
     </row>
     <row r="443" spans="1:2">
@@ -17019,7 +17160,7 @@
       <c r="B443" s="21"/>
     </row>
     <row r="444" spans="1:2">
-      <c r="A444" s="58"/>
+      <c r="A444" s="60"/>
       <c r="B444" s="21"/>
     </row>
     <row r="445" spans="1:2">
@@ -17027,7 +17168,7 @@
       <c r="B445" s="21"/>
     </row>
     <row r="446" spans="1:2">
-      <c r="A446" s="58"/>
+      <c r="A446" s="60"/>
       <c r="B446" s="21"/>
     </row>
     <row r="447" spans="1:2">
@@ -17035,7 +17176,7 @@
       <c r="B447" s="21"/>
     </row>
     <row r="448" spans="1:2">
-      <c r="A448" s="58"/>
+      <c r="A448" s="60"/>
       <c r="B448" s="21"/>
     </row>
     <row r="449" spans="1:2">
@@ -17043,7 +17184,7 @@
       <c r="B449" s="21"/>
     </row>
     <row r="450" spans="1:2">
-      <c r="A450" s="58"/>
+      <c r="A450" s="60"/>
       <c r="B450" s="21"/>
     </row>
     <row r="451" spans="1:2">
@@ -17051,7 +17192,7 @@
       <c r="B451" s="21"/>
     </row>
     <row r="452" spans="1:2">
-      <c r="A452" s="58"/>
+      <c r="A452" s="60"/>
       <c r="B452" s="21"/>
     </row>
     <row r="453" spans="1:2">
@@ -17059,7 +17200,7 @@
       <c r="B453" s="21"/>
     </row>
     <row r="454" spans="1:2">
-      <c r="A454" s="58"/>
+      <c r="A454" s="60"/>
       <c r="B454" s="21"/>
     </row>
     <row r="455" spans="1:2">
@@ -17067,7 +17208,7 @@
       <c r="B455" s="21"/>
     </row>
     <row r="456" spans="1:2">
-      <c r="A456" s="58"/>
+      <c r="A456" s="60"/>
       <c r="B456" s="21"/>
     </row>
     <row r="457" spans="1:2">
@@ -17075,7 +17216,7 @@
       <c r="B457" s="21"/>
     </row>
     <row r="458" spans="1:2">
-      <c r="A458" s="58"/>
+      <c r="A458" s="60"/>
       <c r="B458" s="21"/>
     </row>
     <row r="459" spans="1:2">
@@ -17083,7 +17224,7 @@
       <c r="B459" s="21"/>
     </row>
     <row r="460" spans="1:2">
-      <c r="A460" s="58"/>
+      <c r="A460" s="60"/>
       <c r="B460" s="21"/>
     </row>
     <row r="461" spans="1:2">
@@ -17091,7 +17232,7 @@
       <c r="B461" s="21"/>
     </row>
     <row r="462" spans="1:2">
-      <c r="A462" s="58"/>
+      <c r="A462" s="60"/>
       <c r="B462" s="21"/>
     </row>
     <row r="463" spans="1:2">
@@ -17099,7 +17240,7 @@
       <c r="B463" s="21"/>
     </row>
     <row r="464" spans="1:2">
-      <c r="A464" s="58"/>
+      <c r="A464" s="60"/>
       <c r="B464" s="21"/>
     </row>
     <row r="465" spans="1:2">
@@ -17107,7 +17248,7 @@
       <c r="B465" s="21"/>
     </row>
     <row r="466" spans="1:2">
-      <c r="A466" s="58"/>
+      <c r="A466" s="60"/>
       <c r="B466" s="21"/>
     </row>
     <row r="467" spans="1:2">
@@ -17115,7 +17256,7 @@
       <c r="B467" s="21"/>
     </row>
     <row r="468" spans="1:2">
-      <c r="A468" s="58"/>
+      <c r="A468" s="60"/>
       <c r="B468" s="21"/>
     </row>
     <row r="469" spans="1:2">
@@ -17123,7 +17264,7 @@
       <c r="B469" s="21"/>
     </row>
     <row r="470" spans="1:2">
-      <c r="A470" s="58"/>
+      <c r="A470" s="60"/>
       <c r="B470" s="21"/>
     </row>
     <row r="471" spans="1:2">
@@ -17131,7 +17272,7 @@
       <c r="B471" s="21"/>
     </row>
     <row r="472" spans="1:2">
-      <c r="A472" s="58"/>
+      <c r="A472" s="60"/>
       <c r="B472" s="21"/>
     </row>
     <row r="473" spans="1:2">
@@ -17139,7 +17280,7 @@
       <c r="B473" s="21"/>
     </row>
     <row r="474" spans="1:2">
-      <c r="A474" s="58"/>
+      <c r="A474" s="60"/>
       <c r="B474" s="21"/>
     </row>
     <row r="475" spans="1:2">
@@ -17147,7 +17288,7 @@
       <c r="B475" s="21"/>
     </row>
     <row r="476" spans="1:2">
-      <c r="A476" s="58"/>
+      <c r="A476" s="60"/>
       <c r="B476" s="21"/>
     </row>
     <row r="477" spans="1:2">
@@ -17155,7 +17296,7 @@
       <c r="B477" s="21"/>
     </row>
     <row r="478" spans="1:2">
-      <c r="A478" s="58"/>
+      <c r="A478" s="60"/>
       <c r="B478" s="21"/>
     </row>
     <row r="479" spans="1:2">
@@ -17163,7 +17304,7 @@
       <c r="B479" s="21"/>
     </row>
     <row r="480" spans="1:2">
-      <c r="A480" s="58"/>
+      <c r="A480" s="60"/>
       <c r="B480" s="21"/>
     </row>
     <row r="481" spans="1:2">
@@ -17171,7 +17312,7 @@
       <c r="B481" s="21"/>
     </row>
     <row r="482" spans="1:2">
-      <c r="A482" s="58"/>
+      <c r="A482" s="60"/>
       <c r="B482" s="21"/>
     </row>
     <row r="483" spans="1:2">
@@ -17179,7 +17320,7 @@
       <c r="B483" s="21"/>
     </row>
     <row r="484" spans="1:2">
-      <c r="A484" s="58"/>
+      <c r="A484" s="60"/>
       <c r="B484" s="21"/>
     </row>
     <row r="485" spans="1:2">
@@ -17187,7 +17328,7 @@
       <c r="B485" s="21"/>
     </row>
     <row r="486" spans="1:2">
-      <c r="A486" s="58"/>
+      <c r="A486" s="60"/>
       <c r="B486" s="21"/>
     </row>
     <row r="487" spans="1:2">
@@ -17195,7 +17336,7 @@
       <c r="B487" s="21"/>
     </row>
     <row r="488" spans="1:2">
-      <c r="A488" s="58"/>
+      <c r="A488" s="60"/>
       <c r="B488" s="21"/>
     </row>
     <row r="489" spans="1:2">
@@ -17203,7 +17344,7 @@
       <c r="B489" s="21"/>
     </row>
     <row r="490" spans="1:2">
-      <c r="A490" s="58"/>
+      <c r="A490" s="60"/>
       <c r="B490" s="21"/>
     </row>
     <row r="491" spans="1:2">
@@ -17211,7 +17352,7 @@
       <c r="B491" s="21"/>
     </row>
     <row r="492" spans="1:2">
-      <c r="A492" s="58"/>
+      <c r="A492" s="60"/>
       <c r="B492" s="21"/>
     </row>
     <row r="493" spans="1:2">
@@ -17219,7 +17360,7 @@
       <c r="B493" s="21"/>
     </row>
     <row r="494" spans="1:2">
-      <c r="A494" s="58"/>
+      <c r="A494" s="60"/>
       <c r="B494" s="21"/>
     </row>
     <row r="495" spans="1:2">
@@ -17227,7 +17368,7 @@
       <c r="B495" s="21"/>
     </row>
     <row r="496" spans="1:2">
-      <c r="A496" s="58"/>
+      <c r="A496" s="60"/>
       <c r="B496" s="21"/>
     </row>
     <row r="497" spans="1:2">
@@ -17235,7 +17376,7 @@
       <c r="B497" s="21"/>
     </row>
     <row r="498" spans="1:2">
-      <c r="A498" s="58"/>
+      <c r="A498" s="60"/>
       <c r="B498" s="21"/>
     </row>
     <row r="499" spans="1:2">
@@ -17243,7 +17384,7 @@
       <c r="B499" s="21"/>
     </row>
     <row r="500" spans="1:2">
-      <c r="A500" s="58"/>
+      <c r="A500" s="60"/>
       <c r="B500" s="21"/>
     </row>
     <row r="501" spans="1:2">
@@ -17251,7 +17392,7 @@
       <c r="B501" s="21"/>
     </row>
     <row r="502" spans="1:2">
-      <c r="A502" s="58"/>
+      <c r="A502" s="60"/>
       <c r="B502" s="21"/>
     </row>
     <row r="503" spans="1:2">
@@ -17259,7 +17400,7 @@
       <c r="B503" s="21"/>
     </row>
     <row r="504" spans="1:2">
-      <c r="A504" s="58"/>
+      <c r="A504" s="60"/>
       <c r="B504" s="21"/>
     </row>
     <row r="505" spans="1:2">
@@ -17267,7 +17408,7 @@
       <c r="B505" s="21"/>
     </row>
     <row r="506" spans="1:2">
-      <c r="A506" s="58"/>
+      <c r="A506" s="60"/>
       <c r="B506" s="21"/>
     </row>
     <row r="507" spans="1:2">
@@ -17275,7 +17416,7 @@
       <c r="B507" s="21"/>
     </row>
     <row r="508" spans="1:2">
-      <c r="A508" s="58"/>
+      <c r="A508" s="60"/>
       <c r="B508" s="21"/>
     </row>
     <row r="509" spans="1:2">
@@ -17283,7 +17424,7 @@
       <c r="B509" s="21"/>
     </row>
     <row r="510" spans="1:2">
-      <c r="A510" s="58"/>
+      <c r="A510" s="60"/>
       <c r="B510" s="21"/>
     </row>
     <row r="511" spans="1:2">
@@ -17291,7 +17432,7 @@
       <c r="B511" s="21"/>
     </row>
     <row r="512" spans="1:2">
-      <c r="A512" s="58"/>
+      <c r="A512" s="60"/>
       <c r="B512" s="21"/>
     </row>
     <row r="513" spans="1:2">
@@ -17299,7 +17440,7 @@
       <c r="B513" s="21"/>
     </row>
     <row r="514" spans="1:2">
-      <c r="A514" s="58"/>
+      <c r="A514" s="60"/>
       <c r="B514" s="21"/>
     </row>
     <row r="515" spans="1:2">
@@ -17307,7 +17448,7 @@
       <c r="B515" s="21"/>
     </row>
     <row r="516" spans="1:2">
-      <c r="A516" s="58"/>
+      <c r="A516" s="60"/>
       <c r="B516" s="21"/>
     </row>
     <row r="517" spans="1:2">
@@ -17315,7 +17456,7 @@
       <c r="B517" s="21"/>
     </row>
     <row r="518" spans="1:2">
-      <c r="A518" s="58"/>
+      <c r="A518" s="60"/>
       <c r="B518" s="21"/>
     </row>
     <row r="519" spans="1:2">
@@ -17323,7 +17464,7 @@
       <c r="B519" s="21"/>
     </row>
     <row r="520" spans="1:2">
-      <c r="A520" s="58"/>
+      <c r="A520" s="60"/>
       <c r="B520" s="21"/>
     </row>
     <row r="521" spans="1:2">
@@ -17331,7 +17472,7 @@
       <c r="B521" s="21"/>
     </row>
     <row r="522" spans="1:2">
-      <c r="A522" s="58"/>
+      <c r="A522" s="60"/>
       <c r="B522" s="21"/>
     </row>
     <row r="523" spans="1:2">
@@ -17339,7 +17480,7 @@
       <c r="B523" s="21"/>
     </row>
     <row r="524" spans="1:2">
-      <c r="A524" s="58"/>
+      <c r="A524" s="60"/>
       <c r="B524" s="21"/>
     </row>
     <row r="525" spans="1:2">
@@ -17347,7 +17488,7 @@
       <c r="B525" s="21"/>
     </row>
     <row r="526" spans="1:2">
-      <c r="A526" s="58"/>
+      <c r="A526" s="60"/>
       <c r="B526" s="21"/>
     </row>
     <row r="527" spans="1:2">
@@ -17355,7 +17496,7 @@
       <c r="B527" s="21"/>
     </row>
     <row r="528" spans="1:2">
-      <c r="A528" s="58"/>
+      <c r="A528" s="60"/>
       <c r="B528" s="21"/>
     </row>
     <row r="529" spans="1:2">
@@ -17363,7 +17504,7 @@
       <c r="B529" s="21"/>
     </row>
     <row r="530" spans="1:2">
-      <c r="A530" s="58"/>
+      <c r="A530" s="60"/>
       <c r="B530" s="21"/>
     </row>
     <row r="531" spans="1:2">
@@ -17371,7 +17512,7 @@
       <c r="B531" s="21"/>
     </row>
     <row r="532" spans="1:2">
-      <c r="A532" s="58"/>
+      <c r="A532" s="60"/>
       <c r="B532" s="21"/>
     </row>
     <row r="533" spans="1:2">
@@ -17379,7 +17520,7 @@
       <c r="B533" s="21"/>
     </row>
     <row r="534" spans="1:2">
-      <c r="A534" s="58"/>
+      <c r="A534" s="60"/>
       <c r="B534" s="21"/>
     </row>
     <row r="535" spans="1:2">
@@ -17387,7 +17528,7 @@
       <c r="B535" s="21"/>
     </row>
     <row r="536" spans="1:2">
-      <c r="A536" s="58"/>
+      <c r="A536" s="60"/>
       <c r="B536" s="21"/>
     </row>
     <row r="537" spans="1:2">
@@ -17395,7 +17536,7 @@
       <c r="B537" s="21"/>
     </row>
     <row r="538" spans="1:2">
-      <c r="A538" s="58"/>
+      <c r="A538" s="60"/>
       <c r="B538" s="21"/>
     </row>
     <row r="539" spans="1:2">
@@ -17403,7 +17544,7 @@
       <c r="B539" s="21"/>
     </row>
     <row r="540" spans="1:2">
-      <c r="A540" s="58"/>
+      <c r="A540" s="60"/>
       <c r="B540" s="21"/>
     </row>
     <row r="541" spans="1:2">
@@ -17411,7 +17552,7 @@
       <c r="B541" s="21"/>
     </row>
     <row r="542" spans="1:2">
-      <c r="A542" s="58"/>
+      <c r="A542" s="60"/>
       <c r="B542" s="21"/>
     </row>
     <row r="543" spans="1:2">
@@ -17419,7 +17560,7 @@
       <c r="B543" s="21"/>
     </row>
     <row r="544" spans="1:2">
-      <c r="A544" s="58"/>
+      <c r="A544" s="60"/>
       <c r="B544" s="21"/>
     </row>
     <row r="545" spans="1:2">
@@ -17427,7 +17568,7 @@
       <c r="B545" s="21"/>
     </row>
     <row r="546" spans="1:2">
-      <c r="A546" s="58"/>
+      <c r="A546" s="60"/>
       <c r="B546" s="21"/>
     </row>
     <row r="547" spans="1:2">
@@ -17435,7 +17576,7 @@
       <c r="B547" s="21"/>
     </row>
     <row r="548" spans="1:2">
-      <c r="A548" s="58"/>
+      <c r="A548" s="60"/>
       <c r="B548" s="21"/>
     </row>
     <row r="549" spans="1:2">
@@ -17443,7 +17584,7 @@
       <c r="B549" s="21"/>
     </row>
     <row r="550" spans="1:2">
-      <c r="A550" s="58"/>
+      <c r="A550" s="60"/>
       <c r="B550" s="21"/>
     </row>
     <row r="551" spans="1:2">
@@ -17451,7 +17592,7 @@
       <c r="B551" s="21"/>
     </row>
     <row r="552" spans="1:2">
-      <c r="A552" s="58"/>
+      <c r="A552" s="60"/>
       <c r="B552" s="21"/>
     </row>
     <row r="553" spans="1:2">
@@ -17459,7 +17600,7 @@
       <c r="B553" s="21"/>
     </row>
     <row r="554" spans="1:2">
-      <c r="A554" s="58"/>
+      <c r="A554" s="60"/>
       <c r="B554" s="21"/>
     </row>
     <row r="555" spans="1:2">
@@ -17467,7 +17608,7 @@
       <c r="B555" s="21"/>
     </row>
     <row r="556" spans="1:2">
-      <c r="A556" s="58"/>
+      <c r="A556" s="60"/>
       <c r="B556" s="21"/>
     </row>
     <row r="557" spans="1:2">
@@ -17475,7 +17616,7 @@
       <c r="B557" s="21"/>
     </row>
     <row r="558" spans="1:2">
-      <c r="A558" s="58"/>
+      <c r="A558" s="60"/>
       <c r="B558" s="21"/>
     </row>
     <row r="559" spans="1:2">
@@ -17483,7 +17624,7 @@
       <c r="B559" s="21"/>
     </row>
     <row r="560" spans="1:2">
-      <c r="A560" s="58"/>
+      <c r="A560" s="60"/>
       <c r="B560" s="21"/>
     </row>
     <row r="561" spans="1:2">
@@ -17491,7 +17632,7 @@
       <c r="B561" s="21"/>
     </row>
     <row r="562" spans="1:2">
-      <c r="A562" s="58"/>
+      <c r="A562" s="60"/>
       <c r="B562" s="21"/>
     </row>
     <row r="563" spans="1:2">
@@ -17499,7 +17640,7 @@
       <c r="B563" s="21"/>
     </row>
     <row r="564" spans="1:2">
-      <c r="A564" s="58"/>
+      <c r="A564" s="60"/>
       <c r="B564" s="21"/>
     </row>
     <row r="565" spans="1:2">
@@ -17507,7 +17648,7 @@
       <c r="B565" s="21"/>
     </row>
     <row r="566" spans="1:2">
-      <c r="A566" s="58"/>
+      <c r="A566" s="60"/>
       <c r="B566" s="21"/>
     </row>
     <row r="567" spans="1:2">
@@ -17515,7 +17656,7 @@
       <c r="B567" s="21"/>
     </row>
     <row r="568" spans="1:2">
-      <c r="A568" s="58"/>
+      <c r="A568" s="60"/>
       <c r="B568" s="21"/>
     </row>
     <row r="569" spans="1:2">
@@ -17523,7 +17664,7 @@
       <c r="B569" s="21"/>
     </row>
     <row r="570" spans="1:2">
-      <c r="A570" s="58"/>
+      <c r="A570" s="60"/>
       <c r="B570" s="21"/>
     </row>
     <row r="571" spans="1:2">
@@ -17531,7 +17672,7 @@
       <c r="B571" s="21"/>
     </row>
     <row r="572" spans="1:2">
-      <c r="A572" s="58"/>
+      <c r="A572" s="60"/>
       <c r="B572" s="21"/>
     </row>
     <row r="573" spans="1:2">
@@ -17539,7 +17680,7 @@
       <c r="B573" s="21"/>
     </row>
     <row r="574" spans="1:2">
-      <c r="A574" s="58"/>
+      <c r="A574" s="60"/>
       <c r="B574" s="21"/>
     </row>
     <row r="575" spans="1:2">
@@ -17547,7 +17688,7 @@
       <c r="B575" s="21"/>
     </row>
     <row r="576" spans="1:2">
-      <c r="A576" s="58"/>
+      <c r="A576" s="60"/>
       <c r="B576" s="21"/>
     </row>
     <row r="577" spans="1:2">
@@ -17555,7 +17696,7 @@
       <c r="B577" s="21"/>
     </row>
     <row r="578" spans="1:2">
-      <c r="A578" s="58"/>
+      <c r="A578" s="60"/>
       <c r="B578" s="21"/>
     </row>
     <row r="579" spans="1:2">
@@ -17563,7 +17704,7 @@
       <c r="B579" s="21"/>
     </row>
     <row r="580" spans="1:2">
-      <c r="A580" s="58"/>
+      <c r="A580" s="60"/>
       <c r="B580" s="21"/>
     </row>
     <row r="581" spans="1:2">
@@ -17571,7 +17712,7 @@
       <c r="B581" s="21"/>
     </row>
     <row r="582" spans="1:2">
-      <c r="A582" s="58"/>
+      <c r="A582" s="60"/>
       <c r="B582" s="21"/>
     </row>
     <row r="583" spans="1:2">
@@ -17579,7 +17720,7 @@
       <c r="B583" s="21"/>
     </row>
     <row r="584" spans="1:2">
-      <c r="A584" s="58"/>
+      <c r="A584" s="60"/>
       <c r="B584" s="21"/>
     </row>
     <row r="585" spans="1:2">
@@ -17587,7 +17728,7 @@
       <c r="B585" s="21"/>
     </row>
     <row r="586" spans="1:2">
-      <c r="A586" s="58"/>
+      <c r="A586" s="60"/>
       <c r="B586" s="21"/>
     </row>
     <row r="587" spans="1:2">
@@ -17595,7 +17736,7 @@
       <c r="B587" s="21"/>
     </row>
     <row r="588" spans="1:2">
-      <c r="A588" s="58"/>
+      <c r="A588" s="60"/>
       <c r="B588" s="21"/>
     </row>
     <row r="589" spans="1:2">
@@ -17603,7 +17744,7 @@
       <c r="B589" s="21"/>
     </row>
     <row r="590" spans="1:2">
-      <c r="A590" s="58"/>
+      <c r="A590" s="60"/>
       <c r="B590" s="21"/>
     </row>
     <row r="591" spans="1:2">
@@ -17611,7 +17752,7 @@
       <c r="B591" s="21"/>
     </row>
     <row r="592" spans="1:2">
-      <c r="A592" s="58"/>
+      <c r="A592" s="60"/>
       <c r="B592" s="21"/>
     </row>
     <row r="593" spans="1:2">
@@ -17619,7 +17760,7 @@
       <c r="B593" s="15"/>
     </row>
     <row r="594" spans="1:2">
-      <c r="A594" s="58"/>
+      <c r="A594" s="60"/>
       <c r="B594" s="15"/>
     </row>
     <row r="595" spans="1:2">
@@ -17627,7 +17768,7 @@
       <c r="B595" s="15"/>
     </row>
     <row r="596" spans="1:2">
-      <c r="A596" s="58"/>
+      <c r="A596" s="60"/>
       <c r="B596" s="15"/>
     </row>
     <row r="597" spans="1:2">
@@ -17635,7 +17776,7 @@
       <c r="B597" s="15"/>
     </row>
     <row r="598" spans="1:2">
-      <c r="A598" s="58"/>
+      <c r="A598" s="60"/>
       <c r="B598" s="15"/>
     </row>
     <row r="599" spans="1:2">
@@ -17643,7 +17784,7 @@
       <c r="B599" s="15"/>
     </row>
     <row r="600" spans="1:2">
-      <c r="A600" s="58"/>
+      <c r="A600" s="60"/>
       <c r="B600" s="15"/>
     </row>
     <row r="601" spans="1:2">
@@ -17651,7 +17792,7 @@
       <c r="B601" s="15"/>
     </row>
     <row r="602" spans="1:2">
-      <c r="A602" s="58"/>
+      <c r="A602" s="60"/>
       <c r="B602" s="15"/>
     </row>
     <row r="603" spans="1:2">
@@ -17659,7 +17800,7 @@
       <c r="B603" s="15"/>
     </row>
     <row r="604" spans="1:2">
-      <c r="A604" s="58"/>
+      <c r="A604" s="60"/>
       <c r="B604" s="15"/>
     </row>
     <row r="605" spans="1:2">
@@ -17667,7 +17808,7 @@
       <c r="B605" s="15"/>
     </row>
     <row r="606" spans="1:2">
-      <c r="A606" s="58"/>
+      <c r="A606" s="60"/>
       <c r="B606" s="15"/>
     </row>
     <row r="607" spans="1:2">
@@ -17675,7 +17816,7 @@
       <c r="B607" s="15"/>
     </row>
     <row r="608" spans="1:2">
-      <c r="A608" s="58"/>
+      <c r="A608" s="60"/>
       <c r="B608" s="15"/>
     </row>
     <row r="609" spans="1:2">
@@ -17683,7 +17824,7 @@
       <c r="B609" s="15"/>
     </row>
     <row r="610" spans="1:2">
-      <c r="A610" s="58"/>
+      <c r="A610" s="60"/>
       <c r="B610" s="15"/>
     </row>
     <row r="611" spans="1:2">
@@ -17691,7 +17832,7 @@
       <c r="B611" s="15"/>
     </row>
     <row r="612" spans="1:2">
-      <c r="A612" s="58"/>
+      <c r="A612" s="60"/>
       <c r="B612" s="15"/>
     </row>
     <row r="613" spans="1:2">
@@ -17699,7 +17840,7 @@
       <c r="B613" s="15"/>
     </row>
     <row r="614" spans="1:2">
-      <c r="A614" s="58"/>
+      <c r="A614" s="60"/>
       <c r="B614" s="15"/>
     </row>
     <row r="615" spans="1:2">
@@ -17707,7 +17848,7 @@
       <c r="B615" s="15"/>
     </row>
     <row r="616" spans="1:2">
-      <c r="A616" s="58"/>
+      <c r="A616" s="60"/>
       <c r="B616" s="15"/>
     </row>
     <row r="617" spans="1:2">
@@ -17715,431 +17856,431 @@
       <c r="B617" s="15"/>
     </row>
     <row r="618" spans="1:1">
-      <c r="A618" s="59"/>
+      <c r="A618" s="61"/>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" s="12"/>
     </row>
     <row r="620" spans="1:1">
-      <c r="A620" s="59"/>
+      <c r="A620" s="61"/>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" s="12"/>
     </row>
     <row r="622" spans="1:1">
-      <c r="A622" s="59"/>
+      <c r="A622" s="61"/>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" s="12"/>
     </row>
     <row r="624" spans="1:1">
-      <c r="A624" s="59"/>
+      <c r="A624" s="61"/>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" s="12"/>
     </row>
     <row r="626" spans="1:1">
-      <c r="A626" s="59"/>
+      <c r="A626" s="61"/>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" s="12"/>
     </row>
     <row r="628" spans="1:1">
-      <c r="A628" s="59"/>
+      <c r="A628" s="61"/>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" s="12"/>
     </row>
     <row r="630" spans="1:1">
-      <c r="A630" s="59"/>
+      <c r="A630" s="61"/>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" s="12"/>
     </row>
     <row r="632" spans="1:1">
-      <c r="A632" s="59"/>
+      <c r="A632" s="61"/>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" s="12"/>
     </row>
     <row r="634" spans="1:1">
-      <c r="A634" s="59"/>
+      <c r="A634" s="61"/>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" s="12"/>
     </row>
     <row r="636" spans="1:1">
-      <c r="A636" s="59"/>
+      <c r="A636" s="61"/>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" s="12"/>
     </row>
     <row r="638" spans="1:1">
-      <c r="A638" s="59"/>
+      <c r="A638" s="61"/>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" s="12"/>
     </row>
     <row r="640" spans="1:1">
-      <c r="A640" s="59"/>
+      <c r="A640" s="61"/>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" s="12"/>
     </row>
     <row r="642" spans="1:1">
-      <c r="A642" s="59"/>
+      <c r="A642" s="61"/>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" s="12"/>
     </row>
     <row r="644" spans="1:1">
-      <c r="A644" s="59"/>
+      <c r="A644" s="61"/>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" s="12"/>
     </row>
     <row r="646" spans="1:1">
-      <c r="A646" s="59"/>
+      <c r="A646" s="61"/>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" s="12"/>
     </row>
     <row r="648" spans="1:1">
-      <c r="A648" s="59"/>
+      <c r="A648" s="61"/>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" s="12"/>
     </row>
     <row r="650" spans="1:1">
-      <c r="A650" s="59"/>
+      <c r="A650" s="61"/>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" s="12"/>
     </row>
     <row r="652" spans="1:1">
-      <c r="A652" s="59"/>
+      <c r="A652" s="61"/>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" s="12"/>
     </row>
     <row r="654" spans="1:1">
-      <c r="A654" s="59"/>
+      <c r="A654" s="61"/>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" s="12"/>
     </row>
     <row r="656" spans="1:1">
-      <c r="A656" s="59"/>
+      <c r="A656" s="61"/>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" s="12"/>
     </row>
     <row r="658" spans="1:1">
-      <c r="A658" s="59"/>
+      <c r="A658" s="61"/>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" s="12"/>
     </row>
     <row r="660" spans="1:1">
-      <c r="A660" s="59"/>
+      <c r="A660" s="61"/>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" s="12"/>
     </row>
     <row r="662" spans="1:1">
-      <c r="A662" s="59"/>
+      <c r="A662" s="61"/>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" s="12"/>
     </row>
     <row r="664" spans="1:1">
-      <c r="A664" s="59"/>
+      <c r="A664" s="61"/>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" s="12"/>
     </row>
     <row r="666" spans="1:1">
-      <c r="A666" s="59"/>
+      <c r="A666" s="61"/>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" s="12"/>
     </row>
     <row r="668" spans="1:1">
-      <c r="A668" s="59"/>
+      <c r="A668" s="61"/>
     </row>
     <row r="669" spans="1:1">
       <c r="A669" s="12"/>
     </row>
     <row r="670" spans="1:1">
-      <c r="A670" s="59"/>
+      <c r="A670" s="61"/>
     </row>
     <row r="671" spans="1:1">
       <c r="A671" s="12"/>
     </row>
     <row r="672" spans="1:1">
-      <c r="A672" s="59"/>
+      <c r="A672" s="61"/>
     </row>
     <row r="673" spans="1:1">
       <c r="A673" s="12"/>
     </row>
     <row r="674" spans="1:1">
-      <c r="A674" s="59"/>
+      <c r="A674" s="61"/>
     </row>
     <row r="675" spans="1:1">
       <c r="A675" s="12"/>
     </row>
     <row r="676" spans="1:1">
-      <c r="A676" s="59"/>
+      <c r="A676" s="61"/>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" s="12"/>
     </row>
     <row r="678" spans="1:1">
-      <c r="A678" s="59"/>
+      <c r="A678" s="61"/>
     </row>
     <row r="679" spans="1:1">
       <c r="A679" s="12"/>
     </row>
     <row r="680" spans="1:1">
-      <c r="A680" s="59"/>
+      <c r="A680" s="61"/>
     </row>
     <row r="681" spans="1:1">
       <c r="A681" s="12"/>
     </row>
     <row r="682" spans="1:1">
-      <c r="A682" s="59"/>
+      <c r="A682" s="61"/>
     </row>
     <row r="683" spans="1:1">
       <c r="A683" s="12"/>
     </row>
     <row r="684" spans="1:1">
-      <c r="A684" s="59"/>
+      <c r="A684" s="61"/>
     </row>
     <row r="685" spans="1:1">
       <c r="A685" s="12"/>
     </row>
     <row r="686" spans="1:1">
-      <c r="A686" s="59"/>
+      <c r="A686" s="61"/>
     </row>
     <row r="687" spans="1:1">
       <c r="A687" s="12"/>
     </row>
     <row r="688" spans="1:1">
-      <c r="A688" s="59"/>
+      <c r="A688" s="61"/>
     </row>
     <row r="689" spans="1:1">
       <c r="A689" s="12"/>
     </row>
     <row r="690" spans="1:1">
-      <c r="A690" s="59"/>
+      <c r="A690" s="61"/>
     </row>
     <row r="691" spans="1:1">
       <c r="A691" s="12"/>
     </row>
     <row r="692" spans="1:1">
-      <c r="A692" s="59"/>
+      <c r="A692" s="61"/>
     </row>
     <row r="693" spans="1:1">
       <c r="A693" s="12"/>
     </row>
     <row r="694" spans="1:1">
-      <c r="A694" s="59"/>
+      <c r="A694" s="61"/>
     </row>
     <row r="695" spans="1:1">
       <c r="A695" s="12"/>
     </row>
     <row r="696" spans="1:1">
-      <c r="A696" s="59"/>
+      <c r="A696" s="61"/>
     </row>
     <row r="697" spans="1:1">
       <c r="A697" s="12"/>
     </row>
     <row r="698" spans="1:1">
-      <c r="A698" s="59"/>
+      <c r="A698" s="61"/>
     </row>
     <row r="699" spans="1:1">
       <c r="A699" s="12"/>
     </row>
     <row r="700" spans="1:1">
-      <c r="A700" s="59"/>
+      <c r="A700" s="61"/>
     </row>
     <row r="701" spans="1:1">
       <c r="A701" s="12"/>
     </row>
     <row r="702" spans="1:1">
-      <c r="A702" s="59"/>
+      <c r="A702" s="61"/>
     </row>
     <row r="703" spans="1:1">
       <c r="A703" s="12"/>
     </row>
     <row r="704" spans="1:1">
-      <c r="A704" s="59"/>
+      <c r="A704" s="61"/>
     </row>
     <row r="705" spans="1:1">
       <c r="A705" s="12"/>
     </row>
     <row r="706" spans="1:1">
-      <c r="A706" s="59"/>
+      <c r="A706" s="61"/>
     </row>
     <row r="707" spans="1:1">
       <c r="A707" s="12"/>
     </row>
     <row r="708" spans="1:1">
-      <c r="A708" s="59"/>
+      <c r="A708" s="61"/>
     </row>
     <row r="709" spans="1:1">
       <c r="A709" s="12"/>
     </row>
     <row r="710" spans="1:1">
-      <c r="A710" s="59"/>
+      <c r="A710" s="61"/>
     </row>
     <row r="711" spans="1:1">
       <c r="A711" s="12"/>
     </row>
     <row r="712" spans="1:1">
-      <c r="A712" s="59"/>
+      <c r="A712" s="61"/>
     </row>
     <row r="713" spans="1:1">
       <c r="A713" s="12"/>
     </row>
     <row r="714" spans="1:1">
-      <c r="A714" s="59"/>
+      <c r="A714" s="61"/>
     </row>
     <row r="715" spans="1:1">
       <c r="A715" s="12"/>
     </row>
     <row r="716" spans="1:1">
-      <c r="A716" s="59"/>
+      <c r="A716" s="61"/>
     </row>
     <row r="717" spans="1:1">
       <c r="A717" s="12"/>
     </row>
     <row r="718" spans="1:1">
-      <c r="A718" s="59"/>
+      <c r="A718" s="61"/>
     </row>
     <row r="719" spans="1:1">
       <c r="A719" s="12"/>
     </row>
     <row r="720" spans="1:1">
-      <c r="A720" s="59"/>
+      <c r="A720" s="61"/>
     </row>
     <row r="721" spans="1:1">
       <c r="A721" s="12"/>
     </row>
     <row r="722" spans="1:1">
-      <c r="A722" s="59"/>
+      <c r="A722" s="61"/>
     </row>
     <row r="723" spans="1:1">
       <c r="A723" s="12"/>
     </row>
     <row r="724" spans="1:1">
-      <c r="A724" s="59"/>
+      <c r="A724" s="61"/>
     </row>
     <row r="725" spans="1:1">
       <c r="A725" s="12"/>
     </row>
     <row r="726" spans="1:1">
-      <c r="A726" s="59"/>
+      <c r="A726" s="61"/>
     </row>
     <row r="727" spans="1:1">
       <c r="A727" s="12"/>
     </row>
     <row r="728" spans="1:1">
-      <c r="A728" s="59"/>
+      <c r="A728" s="61"/>
     </row>
     <row r="729" spans="1:1">
       <c r="A729" s="12"/>
     </row>
     <row r="730" spans="1:1">
-      <c r="A730" s="59"/>
+      <c r="A730" s="61"/>
     </row>
     <row r="731" spans="1:1">
       <c r="A731" s="12"/>
     </row>
     <row r="732" spans="1:1">
-      <c r="A732" s="59"/>
+      <c r="A732" s="61"/>
     </row>
     <row r="733" spans="1:1">
       <c r="A733" s="12"/>
     </row>
     <row r="734" spans="1:1">
-      <c r="A734" s="59"/>
+      <c r="A734" s="61"/>
     </row>
     <row r="735" spans="1:1">
       <c r="A735" s="12"/>
     </row>
     <row r="736" spans="1:1">
-      <c r="A736" s="59"/>
+      <c r="A736" s="61"/>
     </row>
     <row r="737" spans="1:1">
       <c r="A737" s="12"/>
     </row>
     <row r="738" spans="1:1">
-      <c r="A738" s="59"/>
+      <c r="A738" s="61"/>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" s="12"/>
     </row>
     <row r="740" spans="1:1">
-      <c r="A740" s="59"/>
+      <c r="A740" s="61"/>
     </row>
     <row r="741" spans="1:1">
       <c r="A741" s="12"/>
     </row>
     <row r="742" spans="1:1">
-      <c r="A742" s="59"/>
+      <c r="A742" s="61"/>
     </row>
     <row r="743" spans="1:1">
       <c r="A743" s="12"/>
     </row>
     <row r="744" spans="1:1">
-      <c r="A744" s="59"/>
+      <c r="A744" s="61"/>
     </row>
     <row r="745" spans="1:1">
       <c r="A745" s="12"/>
     </row>
     <row r="746" spans="1:1">
-      <c r="A746" s="59"/>
+      <c r="A746" s="61"/>
     </row>
     <row r="747" spans="1:1">
       <c r="A747" s="12"/>
     </row>
     <row r="748" spans="1:1">
-      <c r="A748" s="59"/>
+      <c r="A748" s="61"/>
     </row>
     <row r="749" spans="1:1">
       <c r="A749" s="12"/>
     </row>
     <row r="750" spans="1:1">
-      <c r="A750" s="59"/>
+      <c r="A750" s="61"/>
     </row>
     <row r="751" spans="1:1">
       <c r="A751" s="12"/>
     </row>
     <row r="752" spans="1:1">
-      <c r="A752" s="59"/>
+      <c r="A752" s="61"/>
     </row>
     <row r="753" spans="1:1">
       <c r="A753" s="12"/>
     </row>
     <row r="754" spans="1:1">
-      <c r="A754" s="59"/>
+      <c r="A754" s="61"/>
     </row>
     <row r="755" spans="1:1">
       <c r="A755" s="12"/>
     </row>
     <row r="756" spans="1:1">
-      <c r="A756" s="59"/>
+      <c r="A756" s="61"/>
     </row>
     <row r="757" spans="1:1">
       <c r="A757" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C163 C179 C198 C199 C200 C216 C227 C228 C229 C230 C231 C232 C233 C234 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C257 C258 C259 C4:C17 C18:C23 C24:C34 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C146 C147:C162 C164:C178 C180:C197 C201:C215 C217:C226 C260:C1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C163 C179 C198 C199 C200 C216 C227 C228 C229 C230 C231 C232 C233 C234 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C257 C258 C4:C17 C18:C23 C24:C34 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C146 C147:C162 C164:C178 C180:C197 C201:C215 C217:C226 C259:C261 C262:C1048576">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D18 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D60 D71 D84 D85 D86 D106 D146 D163 D179 D198 D199 D200 D216 D227 D228 D229 D235 D236 D237 D238 D239 D240 D241 D242 D243 D244 D245 D246 D247 D248 D249 D250 D251 D252 D253 D254 D255 D256 D257 D258 D259 D4:D17 D19:D22 D23:D35 D49:D59 D61:D70 D72:D81 D82:D83 D87:D105 D107:D117 D118:D137 D138:D145 D147:D162 D164:D178 D180:D197 D201:D215 D217:D226 D230:D234 D260:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D18 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D60 D71 D84 D85 D86 D106 D146 D163 D179 D198 D199 D200 D216 D227 D228 D229 D235 D236 D237 D238 D239 D240 D241 D242 D243 D244 D245 D246 D247 D248 D249 D250 D251 D252 D253 D254 D255 D256 D257 D258 D4:D17 D19:D22 D23:D35 D49:D59 D61:D70 D72:D81 D82:D83 D87:D105 D107:D117 D118:D137 D138:D145 D147:D162 D164:D178 D180:D197 D201:D215 D217:D226 D230:D234 D259:D261 D262:D1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18155,7 +18296,7 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -18168,13 +18309,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -18185,7 +18326,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -18196,7 +18337,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -18207,7 +18348,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -18223,7 +18364,7 @@
         <v>43050</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -18234,7 +18375,7 @@
         <v>43064</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -18250,7 +18391,7 @@
         <v>43079</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -18261,7 +18402,7 @@
         <v>43085</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -18272,7 +18413,7 @@
         <v>43092</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="12" spans="1:3">

--- a/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -1944,6 +1944,27 @@
   </si>
   <si>
     <t>BigCup(南京仙林财经大学店)</t>
+  </si>
+  <si>
+    <t>重庆</t>
+  </si>
+  <si>
+    <t>一芳(重庆龙湖时代天街)</t>
+  </si>
+  <si>
+    <t>刘梦莹</t>
+  </si>
+  <si>
+    <t>一芳(金华万达金街店)</t>
+  </si>
+  <si>
+    <t>黄光立</t>
+  </si>
+  <si>
+    <t>一芳(武汉大洋百货店)</t>
+  </si>
+  <si>
+    <t>蔡芳</t>
   </si>
   <si>
     <t xml:space="preserve">                                                                                                                                                                                                                                                                              </t>
@@ -1984,11 +2005,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -2067,6 +2088,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2095,11 +2121,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <i/>
@@ -2156,6 +2177,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2180,13 +2207,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -2202,14 +2222,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2222,10 +2235,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2286,150 +2307,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2448,7 +2325,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2922,10 +2943,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2934,19 +2955,19 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2955,31 +2976,31 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2988,95 +3009,95 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3250,6 +3271,12 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3758,440 +3785,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="94" t="s">
+      <c r="I2" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="95" t="s">
+      <c r="J2" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="96" t="s">
+      <c r="K2" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="97" t="s">
+      <c r="L2" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="98" t="s">
+      <c r="M2" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="99" t="s">
+      <c r="N2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="64"/>
-      <c r="B3" s="71" t="s">
+      <c r="A3" s="66"/>
+      <c r="B3" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74">
+      <c r="D3" s="75"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75">
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="101"/>
-      <c r="K3" s="102" t="e">
+      <c r="J3" s="103"/>
+      <c r="K3" s="104" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="103">
+      <c r="L3" s="105">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="104">
+      <c r="M3" s="106">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="105" t="e">
+      <c r="N3" s="107" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="76"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="78" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80">
+      <c r="D4" s="81"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="81">
+      <c r="G4" s="83"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="106"/>
-      <c r="K4" s="102" t="e">
+      <c r="J4" s="108"/>
+      <c r="K4" s="104" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="103">
+      <c r="L4" s="105">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="104">
+      <c r="M4" s="106">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="105" t="e">
+      <c r="N4" s="107" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="102"/>
+      <c r="Q4" s="102"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="76"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="78" t="s">
+      <c r="A5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="79"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80">
+      <c r="D5" s="81"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="81">
+      <c r="G5" s="83"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="106"/>
-      <c r="K5" s="102" t="e">
+      <c r="J5" s="108"/>
+      <c r="K5" s="104" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="103">
+      <c r="L5" s="105">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="104">
+      <c r="M5" s="106">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="105" t="e">
+      <c r="N5" s="107" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="102"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="76"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="78" t="s">
+      <c r="A6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80">
+      <c r="D6" s="81"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="81"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="81">
+      <c r="G6" s="83"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="106"/>
-      <c r="K6" s="102" t="e">
+      <c r="J6" s="108"/>
+      <c r="K6" s="104" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="103">
+      <c r="L6" s="105">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="104">
+      <c r="M6" s="106">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="105" t="e">
+      <c r="N6" s="107" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="76"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80">
+      <c r="A7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="81"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="81">
+      <c r="G7" s="83"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="106"/>
-      <c r="K7" s="102" t="e">
+      <c r="J7" s="108"/>
+      <c r="K7" s="104" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="103">
+      <c r="L7" s="105">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="104">
+      <c r="M7" s="106">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="105" t="e">
+      <c r="N7" s="107" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="76"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="78" t="s">
+      <c r="A8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="79"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80">
+      <c r="D8" s="81"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="81">
+      <c r="G8" s="83"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="106"/>
-      <c r="K8" s="102" t="e">
+      <c r="J8" s="108"/>
+      <c r="K8" s="104" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="103">
+      <c r="L8" s="105">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="104">
+      <c r="M8" s="106">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="105" t="e">
+      <c r="N8" s="107" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="100"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="76"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="78" t="s">
+      <c r="A9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80">
+      <c r="D9" s="81"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="81"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="81">
+      <c r="G9" s="83"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="106"/>
-      <c r="K9" s="102" t="e">
+      <c r="J9" s="108"/>
+      <c r="K9" s="104" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="103">
+      <c r="L9" s="105">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="104">
+      <c r="M9" s="106">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="105" t="e">
+      <c r="N9" s="107" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="100"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="102"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="76"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="82" t="s">
+      <c r="A10" s="78"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="83"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="85">
+      <c r="D10" s="85"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="86"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="86">
+      <c r="G10" s="88"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="107"/>
-      <c r="K10" s="108" t="e">
+      <c r="J10" s="109"/>
+      <c r="K10" s="110" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="109">
+      <c r="L10" s="111">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="110">
+      <c r="M10" s="112">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="111" t="e">
+      <c r="N10" s="113" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="100"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="88"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="90" t="s">
+      <c r="A11" s="90"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="91">
+      <c r="D11" s="93">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="91">
+      <c r="E11" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="92">
+      <c r="F11" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="91">
+      <c r="G11" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="91">
+      <c r="H11" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="92">
+      <c r="I11" s="94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="91">
+      <c r="J11" s="93">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="112" t="e">
+      <c r="K11" s="114" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="92">
+      <c r="L11" s="94">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="92">
+      <c r="M11" s="94">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="113" t="e">
+      <c r="N11" s="115" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="100"/>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="100"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4209,10 +4236,10 @@
   <sheetPr/>
   <dimension ref="A1:P757"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E262" sqref="E262"/>
+      <selection pane="bottomLeft" activeCell="C266" sqref="C266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8486,7 +8513,7 @@
       <c r="N95" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O95" s="114" t="s">
+      <c r="O95" s="116" t="s">
         <v>270</v>
       </c>
       <c r="P95" s="15" t="s">
@@ -16313,22 +16340,154 @@
       </c>
     </row>
     <row r="262" spans="1:16">
-      <c r="A262" s="22"/>
-      <c r="B262" s="21"/>
-      <c r="O262" s="12"/>
-      <c r="P262" s="8"/>
+      <c r="A262" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B262" s="19" t="s">
+        <v>618</v>
+      </c>
+      <c r="C262" s="18">
+        <v>43095</v>
+      </c>
+      <c r="D262" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E262" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="F262" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G262" s="60" t="s">
+        <v>627</v>
+      </c>
+      <c r="H262" s="60">
+        <v>76113672</v>
+      </c>
+      <c r="I262" s="60" t="s">
+        <v>628</v>
+      </c>
+      <c r="J262" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K262" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L262" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M262" s="60" t="s">
+        <v>629</v>
+      </c>
+      <c r="N262" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O262" s="60">
+        <v>18523502323</v>
+      </c>
+      <c r="P262" s="8" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="263" spans="1:16">
-      <c r="A263" s="22"/>
-      <c r="B263" s="21"/>
-      <c r="O263" s="12"/>
-      <c r="P263" s="8"/>
+      <c r="A263" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B263" s="19" t="s">
+        <v>618</v>
+      </c>
+      <c r="C263" s="18">
+        <v>43095</v>
+      </c>
+      <c r="D263" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E263" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="F263" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G263" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="H263" s="60">
+        <v>76116101</v>
+      </c>
+      <c r="I263" s="61" t="s">
+        <v>630</v>
+      </c>
+      <c r="J263" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K263" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L263" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M263" s="60" t="s">
+        <v>631</v>
+      </c>
+      <c r="N263" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O263" s="60">
+        <v>18657929290</v>
+      </c>
+      <c r="P263" s="8" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="264" spans="1:16">
-      <c r="A264" s="22"/>
-      <c r="B264" s="21"/>
-      <c r="O264" s="12"/>
-      <c r="P264" s="8"/>
+      <c r="A264" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B264" s="19" t="s">
+        <v>618</v>
+      </c>
+      <c r="C264" s="18">
+        <v>43095</v>
+      </c>
+      <c r="D264" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E264" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="F264" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G264" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="H264" s="60">
+        <v>76116102</v>
+      </c>
+      <c r="I264" s="61" t="s">
+        <v>632</v>
+      </c>
+      <c r="J264" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K264" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L264" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M264" s="60" t="s">
+        <v>633</v>
+      </c>
+      <c r="N264" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O264" s="60">
+        <v>13036101739</v>
+      </c>
+      <c r="P264" s="8" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="265" spans="1:16">
       <c r="A265" s="22"/>
@@ -16388,7 +16547,7 @@
       <c r="A274" s="22"/>
       <c r="B274" s="21"/>
       <c r="H274" s="8" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="O274" s="12"/>
       <c r="P274" s="8"/>
@@ -17040,7 +17199,7 @@
       <c r="B413" s="21"/>
     </row>
     <row r="414" spans="1:2">
-      <c r="A414" s="60"/>
+      <c r="A414" s="62"/>
       <c r="B414" s="21"/>
     </row>
     <row r="415" spans="1:2">
@@ -17112,7 +17271,7 @@
       <c r="B431" s="21"/>
     </row>
     <row r="432" spans="1:2">
-      <c r="A432" s="60"/>
+      <c r="A432" s="62"/>
       <c r="B432" s="21"/>
     </row>
     <row r="433" spans="1:2">
@@ -17120,7 +17279,7 @@
       <c r="B433" s="21"/>
     </row>
     <row r="434" spans="1:2">
-      <c r="A434" s="60"/>
+      <c r="A434" s="62"/>
       <c r="B434" s="21"/>
     </row>
     <row r="435" spans="1:2">
@@ -17128,7 +17287,7 @@
       <c r="B435" s="21"/>
     </row>
     <row r="436" spans="1:2">
-      <c r="A436" s="60"/>
+      <c r="A436" s="62"/>
       <c r="B436" s="21"/>
     </row>
     <row r="437" spans="1:2">
@@ -17136,7 +17295,7 @@
       <c r="B437" s="21"/>
     </row>
     <row r="438" spans="1:2">
-      <c r="A438" s="60"/>
+      <c r="A438" s="62"/>
       <c r="B438" s="21"/>
     </row>
     <row r="439" spans="1:2">
@@ -17144,7 +17303,7 @@
       <c r="B439" s="21"/>
     </row>
     <row r="440" spans="1:2">
-      <c r="A440" s="60"/>
+      <c r="A440" s="62"/>
       <c r="B440" s="21"/>
     </row>
     <row r="441" spans="1:2">
@@ -17152,7 +17311,7 @@
       <c r="B441" s="21"/>
     </row>
     <row r="442" spans="1:2">
-      <c r="A442" s="60"/>
+      <c r="A442" s="62"/>
       <c r="B442" s="21"/>
     </row>
     <row r="443" spans="1:2">
@@ -17160,7 +17319,7 @@
       <c r="B443" s="21"/>
     </row>
     <row r="444" spans="1:2">
-      <c r="A444" s="60"/>
+      <c r="A444" s="62"/>
       <c r="B444" s="21"/>
     </row>
     <row r="445" spans="1:2">
@@ -17168,7 +17327,7 @@
       <c r="B445" s="21"/>
     </row>
     <row r="446" spans="1:2">
-      <c r="A446" s="60"/>
+      <c r="A446" s="62"/>
       <c r="B446" s="21"/>
     </row>
     <row r="447" spans="1:2">
@@ -17176,7 +17335,7 @@
       <c r="B447" s="21"/>
     </row>
     <row r="448" spans="1:2">
-      <c r="A448" s="60"/>
+      <c r="A448" s="62"/>
       <c r="B448" s="21"/>
     </row>
     <row r="449" spans="1:2">
@@ -17184,7 +17343,7 @@
       <c r="B449" s="21"/>
     </row>
     <row r="450" spans="1:2">
-      <c r="A450" s="60"/>
+      <c r="A450" s="62"/>
       <c r="B450" s="21"/>
     </row>
     <row r="451" spans="1:2">
@@ -17192,7 +17351,7 @@
       <c r="B451" s="21"/>
     </row>
     <row r="452" spans="1:2">
-      <c r="A452" s="60"/>
+      <c r="A452" s="62"/>
       <c r="B452" s="21"/>
     </row>
     <row r="453" spans="1:2">
@@ -17200,7 +17359,7 @@
       <c r="B453" s="21"/>
     </row>
     <row r="454" spans="1:2">
-      <c r="A454" s="60"/>
+      <c r="A454" s="62"/>
       <c r="B454" s="21"/>
     </row>
     <row r="455" spans="1:2">
@@ -17208,7 +17367,7 @@
       <c r="B455" s="21"/>
     </row>
     <row r="456" spans="1:2">
-      <c r="A456" s="60"/>
+      <c r="A456" s="62"/>
       <c r="B456" s="21"/>
     </row>
     <row r="457" spans="1:2">
@@ -17216,7 +17375,7 @@
       <c r="B457" s="21"/>
     </row>
     <row r="458" spans="1:2">
-      <c r="A458" s="60"/>
+      <c r="A458" s="62"/>
       <c r="B458" s="21"/>
     </row>
     <row r="459" spans="1:2">
@@ -17224,7 +17383,7 @@
       <c r="B459" s="21"/>
     </row>
     <row r="460" spans="1:2">
-      <c r="A460" s="60"/>
+      <c r="A460" s="62"/>
       <c r="B460" s="21"/>
     </row>
     <row r="461" spans="1:2">
@@ -17232,7 +17391,7 @@
       <c r="B461" s="21"/>
     </row>
     <row r="462" spans="1:2">
-      <c r="A462" s="60"/>
+      <c r="A462" s="62"/>
       <c r="B462" s="21"/>
     </row>
     <row r="463" spans="1:2">
@@ -17240,7 +17399,7 @@
       <c r="B463" s="21"/>
     </row>
     <row r="464" spans="1:2">
-      <c r="A464" s="60"/>
+      <c r="A464" s="62"/>
       <c r="B464" s="21"/>
     </row>
     <row r="465" spans="1:2">
@@ -17248,7 +17407,7 @@
       <c r="B465" s="21"/>
     </row>
     <row r="466" spans="1:2">
-      <c r="A466" s="60"/>
+      <c r="A466" s="62"/>
       <c r="B466" s="21"/>
     </row>
     <row r="467" spans="1:2">
@@ -17256,7 +17415,7 @@
       <c r="B467" s="21"/>
     </row>
     <row r="468" spans="1:2">
-      <c r="A468" s="60"/>
+      <c r="A468" s="62"/>
       <c r="B468" s="21"/>
     </row>
     <row r="469" spans="1:2">
@@ -17264,7 +17423,7 @@
       <c r="B469" s="21"/>
     </row>
     <row r="470" spans="1:2">
-      <c r="A470" s="60"/>
+      <c r="A470" s="62"/>
       <c r="B470" s="21"/>
     </row>
     <row r="471" spans="1:2">
@@ -17272,7 +17431,7 @@
       <c r="B471" s="21"/>
     </row>
     <row r="472" spans="1:2">
-      <c r="A472" s="60"/>
+      <c r="A472" s="62"/>
       <c r="B472" s="21"/>
     </row>
     <row r="473" spans="1:2">
@@ -17280,7 +17439,7 @@
       <c r="B473" s="21"/>
     </row>
     <row r="474" spans="1:2">
-      <c r="A474" s="60"/>
+      <c r="A474" s="62"/>
       <c r="B474" s="21"/>
     </row>
     <row r="475" spans="1:2">
@@ -17288,7 +17447,7 @@
       <c r="B475" s="21"/>
     </row>
     <row r="476" spans="1:2">
-      <c r="A476" s="60"/>
+      <c r="A476" s="62"/>
       <c r="B476" s="21"/>
     </row>
     <row r="477" spans="1:2">
@@ -17296,7 +17455,7 @@
       <c r="B477" s="21"/>
     </row>
     <row r="478" spans="1:2">
-      <c r="A478" s="60"/>
+      <c r="A478" s="62"/>
       <c r="B478" s="21"/>
     </row>
     <row r="479" spans="1:2">
@@ -17304,7 +17463,7 @@
       <c r="B479" s="21"/>
     </row>
     <row r="480" spans="1:2">
-      <c r="A480" s="60"/>
+      <c r="A480" s="62"/>
       <c r="B480" s="21"/>
     </row>
     <row r="481" spans="1:2">
@@ -17312,7 +17471,7 @@
       <c r="B481" s="21"/>
     </row>
     <row r="482" spans="1:2">
-      <c r="A482" s="60"/>
+      <c r="A482" s="62"/>
       <c r="B482" s="21"/>
     </row>
     <row r="483" spans="1:2">
@@ -17320,7 +17479,7 @@
       <c r="B483" s="21"/>
     </row>
     <row r="484" spans="1:2">
-      <c r="A484" s="60"/>
+      <c r="A484" s="62"/>
       <c r="B484" s="21"/>
     </row>
     <row r="485" spans="1:2">
@@ -17328,7 +17487,7 @@
       <c r="B485" s="21"/>
     </row>
     <row r="486" spans="1:2">
-      <c r="A486" s="60"/>
+      <c r="A486" s="62"/>
       <c r="B486" s="21"/>
     </row>
     <row r="487" spans="1:2">
@@ -17336,7 +17495,7 @@
       <c r="B487" s="21"/>
     </row>
     <row r="488" spans="1:2">
-      <c r="A488" s="60"/>
+      <c r="A488" s="62"/>
       <c r="B488" s="21"/>
     </row>
     <row r="489" spans="1:2">
@@ -17344,7 +17503,7 @@
       <c r="B489" s="21"/>
     </row>
     <row r="490" spans="1:2">
-      <c r="A490" s="60"/>
+      <c r="A490" s="62"/>
       <c r="B490" s="21"/>
     </row>
     <row r="491" spans="1:2">
@@ -17352,7 +17511,7 @@
       <c r="B491" s="21"/>
     </row>
     <row r="492" spans="1:2">
-      <c r="A492" s="60"/>
+      <c r="A492" s="62"/>
       <c r="B492" s="21"/>
     </row>
     <row r="493" spans="1:2">
@@ -17360,7 +17519,7 @@
       <c r="B493" s="21"/>
     </row>
     <row r="494" spans="1:2">
-      <c r="A494" s="60"/>
+      <c r="A494" s="62"/>
       <c r="B494" s="21"/>
     </row>
     <row r="495" spans="1:2">
@@ -17368,7 +17527,7 @@
       <c r="B495" s="21"/>
     </row>
     <row r="496" spans="1:2">
-      <c r="A496" s="60"/>
+      <c r="A496" s="62"/>
       <c r="B496" s="21"/>
     </row>
     <row r="497" spans="1:2">
@@ -17376,7 +17535,7 @@
       <c r="B497" s="21"/>
     </row>
     <row r="498" spans="1:2">
-      <c r="A498" s="60"/>
+      <c r="A498" s="62"/>
       <c r="B498" s="21"/>
     </row>
     <row r="499" spans="1:2">
@@ -17384,7 +17543,7 @@
       <c r="B499" s="21"/>
     </row>
     <row r="500" spans="1:2">
-      <c r="A500" s="60"/>
+      <c r="A500" s="62"/>
       <c r="B500" s="21"/>
     </row>
     <row r="501" spans="1:2">
@@ -17392,7 +17551,7 @@
       <c r="B501" s="21"/>
     </row>
     <row r="502" spans="1:2">
-      <c r="A502" s="60"/>
+      <c r="A502" s="62"/>
       <c r="B502" s="21"/>
     </row>
     <row r="503" spans="1:2">
@@ -17400,7 +17559,7 @@
       <c r="B503" s="21"/>
     </row>
     <row r="504" spans="1:2">
-      <c r="A504" s="60"/>
+      <c r="A504" s="62"/>
       <c r="B504" s="21"/>
     </row>
     <row r="505" spans="1:2">
@@ -17408,7 +17567,7 @@
       <c r="B505" s="21"/>
     </row>
     <row r="506" spans="1:2">
-      <c r="A506" s="60"/>
+      <c r="A506" s="62"/>
       <c r="B506" s="21"/>
     </row>
     <row r="507" spans="1:2">
@@ -17416,7 +17575,7 @@
       <c r="B507" s="21"/>
     </row>
     <row r="508" spans="1:2">
-      <c r="A508" s="60"/>
+      <c r="A508" s="62"/>
       <c r="B508" s="21"/>
     </row>
     <row r="509" spans="1:2">
@@ -17424,7 +17583,7 @@
       <c r="B509" s="21"/>
     </row>
     <row r="510" spans="1:2">
-      <c r="A510" s="60"/>
+      <c r="A510" s="62"/>
       <c r="B510" s="21"/>
     </row>
     <row r="511" spans="1:2">
@@ -17432,7 +17591,7 @@
       <c r="B511" s="21"/>
     </row>
     <row r="512" spans="1:2">
-      <c r="A512" s="60"/>
+      <c r="A512" s="62"/>
       <c r="B512" s="21"/>
     </row>
     <row r="513" spans="1:2">
@@ -17440,7 +17599,7 @@
       <c r="B513" s="21"/>
     </row>
     <row r="514" spans="1:2">
-      <c r="A514" s="60"/>
+      <c r="A514" s="62"/>
       <c r="B514" s="21"/>
     </row>
     <row r="515" spans="1:2">
@@ -17448,7 +17607,7 @@
       <c r="B515" s="21"/>
     </row>
     <row r="516" spans="1:2">
-      <c r="A516" s="60"/>
+      <c r="A516" s="62"/>
       <c r="B516" s="21"/>
     </row>
     <row r="517" spans="1:2">
@@ -17456,7 +17615,7 @@
       <c r="B517" s="21"/>
     </row>
     <row r="518" spans="1:2">
-      <c r="A518" s="60"/>
+      <c r="A518" s="62"/>
       <c r="B518" s="21"/>
     </row>
     <row r="519" spans="1:2">
@@ -17464,7 +17623,7 @@
       <c r="B519" s="21"/>
     </row>
     <row r="520" spans="1:2">
-      <c r="A520" s="60"/>
+      <c r="A520" s="62"/>
       <c r="B520" s="21"/>
     </row>
     <row r="521" spans="1:2">
@@ -17472,7 +17631,7 @@
       <c r="B521" s="21"/>
     </row>
     <row r="522" spans="1:2">
-      <c r="A522" s="60"/>
+      <c r="A522" s="62"/>
       <c r="B522" s="21"/>
     </row>
     <row r="523" spans="1:2">
@@ -17480,7 +17639,7 @@
       <c r="B523" s="21"/>
     </row>
     <row r="524" spans="1:2">
-      <c r="A524" s="60"/>
+      <c r="A524" s="62"/>
       <c r="B524" s="21"/>
     </row>
     <row r="525" spans="1:2">
@@ -17488,7 +17647,7 @@
       <c r="B525" s="21"/>
     </row>
     <row r="526" spans="1:2">
-      <c r="A526" s="60"/>
+      <c r="A526" s="62"/>
       <c r="B526" s="21"/>
     </row>
     <row r="527" spans="1:2">
@@ -17496,7 +17655,7 @@
       <c r="B527" s="21"/>
     </row>
     <row r="528" spans="1:2">
-      <c r="A528" s="60"/>
+      <c r="A528" s="62"/>
       <c r="B528" s="21"/>
     </row>
     <row r="529" spans="1:2">
@@ -17504,7 +17663,7 @@
       <c r="B529" s="21"/>
     </row>
     <row r="530" spans="1:2">
-      <c r="A530" s="60"/>
+      <c r="A530" s="62"/>
       <c r="B530" s="21"/>
     </row>
     <row r="531" spans="1:2">
@@ -17512,7 +17671,7 @@
       <c r="B531" s="21"/>
     </row>
     <row r="532" spans="1:2">
-      <c r="A532" s="60"/>
+      <c r="A532" s="62"/>
       <c r="B532" s="21"/>
     </row>
     <row r="533" spans="1:2">
@@ -17520,7 +17679,7 @@
       <c r="B533" s="21"/>
     </row>
     <row r="534" spans="1:2">
-      <c r="A534" s="60"/>
+      <c r="A534" s="62"/>
       <c r="B534" s="21"/>
     </row>
     <row r="535" spans="1:2">
@@ -17528,7 +17687,7 @@
       <c r="B535" s="21"/>
     </row>
     <row r="536" spans="1:2">
-      <c r="A536" s="60"/>
+      <c r="A536" s="62"/>
       <c r="B536" s="21"/>
     </row>
     <row r="537" spans="1:2">
@@ -17536,7 +17695,7 @@
       <c r="B537" s="21"/>
     </row>
     <row r="538" spans="1:2">
-      <c r="A538" s="60"/>
+      <c r="A538" s="62"/>
       <c r="B538" s="21"/>
     </row>
     <row r="539" spans="1:2">
@@ -17544,7 +17703,7 @@
       <c r="B539" s="21"/>
     </row>
     <row r="540" spans="1:2">
-      <c r="A540" s="60"/>
+      <c r="A540" s="62"/>
       <c r="B540" s="21"/>
     </row>
     <row r="541" spans="1:2">
@@ -17552,7 +17711,7 @@
       <c r="B541" s="21"/>
     </row>
     <row r="542" spans="1:2">
-      <c r="A542" s="60"/>
+      <c r="A542" s="62"/>
       <c r="B542" s="21"/>
     </row>
     <row r="543" spans="1:2">
@@ -17560,7 +17719,7 @@
       <c r="B543" s="21"/>
     </row>
     <row r="544" spans="1:2">
-      <c r="A544" s="60"/>
+      <c r="A544" s="62"/>
       <c r="B544" s="21"/>
     </row>
     <row r="545" spans="1:2">
@@ -17568,7 +17727,7 @@
       <c r="B545" s="21"/>
     </row>
     <row r="546" spans="1:2">
-      <c r="A546" s="60"/>
+      <c r="A546" s="62"/>
       <c r="B546" s="21"/>
     </row>
     <row r="547" spans="1:2">
@@ -17576,7 +17735,7 @@
       <c r="B547" s="21"/>
     </row>
     <row r="548" spans="1:2">
-      <c r="A548" s="60"/>
+      <c r="A548" s="62"/>
       <c r="B548" s="21"/>
     </row>
     <row r="549" spans="1:2">
@@ -17584,7 +17743,7 @@
       <c r="B549" s="21"/>
     </row>
     <row r="550" spans="1:2">
-      <c r="A550" s="60"/>
+      <c r="A550" s="62"/>
       <c r="B550" s="21"/>
     </row>
     <row r="551" spans="1:2">
@@ -17592,7 +17751,7 @@
       <c r="B551" s="21"/>
     </row>
     <row r="552" spans="1:2">
-      <c r="A552" s="60"/>
+      <c r="A552" s="62"/>
       <c r="B552" s="21"/>
     </row>
     <row r="553" spans="1:2">
@@ -17600,7 +17759,7 @@
       <c r="B553" s="21"/>
     </row>
     <row r="554" spans="1:2">
-      <c r="A554" s="60"/>
+      <c r="A554" s="62"/>
       <c r="B554" s="21"/>
     </row>
     <row r="555" spans="1:2">
@@ -17608,7 +17767,7 @@
       <c r="B555" s="21"/>
     </row>
     <row r="556" spans="1:2">
-      <c r="A556" s="60"/>
+      <c r="A556" s="62"/>
       <c r="B556" s="21"/>
     </row>
     <row r="557" spans="1:2">
@@ -17616,7 +17775,7 @@
       <c r="B557" s="21"/>
     </row>
     <row r="558" spans="1:2">
-      <c r="A558" s="60"/>
+      <c r="A558" s="62"/>
       <c r="B558" s="21"/>
     </row>
     <row r="559" spans="1:2">
@@ -17624,7 +17783,7 @@
       <c r="B559" s="21"/>
     </row>
     <row r="560" spans="1:2">
-      <c r="A560" s="60"/>
+      <c r="A560" s="62"/>
       <c r="B560" s="21"/>
     </row>
     <row r="561" spans="1:2">
@@ -17632,7 +17791,7 @@
       <c r="B561" s="21"/>
     </row>
     <row r="562" spans="1:2">
-      <c r="A562" s="60"/>
+      <c r="A562" s="62"/>
       <c r="B562" s="21"/>
     </row>
     <row r="563" spans="1:2">
@@ -17640,7 +17799,7 @@
       <c r="B563" s="21"/>
     </row>
     <row r="564" spans="1:2">
-      <c r="A564" s="60"/>
+      <c r="A564" s="62"/>
       <c r="B564" s="21"/>
     </row>
     <row r="565" spans="1:2">
@@ -17648,7 +17807,7 @@
       <c r="B565" s="21"/>
     </row>
     <row r="566" spans="1:2">
-      <c r="A566" s="60"/>
+      <c r="A566" s="62"/>
       <c r="B566" s="21"/>
     </row>
     <row r="567" spans="1:2">
@@ -17656,7 +17815,7 @@
       <c r="B567" s="21"/>
     </row>
     <row r="568" spans="1:2">
-      <c r="A568" s="60"/>
+      <c r="A568" s="62"/>
       <c r="B568" s="21"/>
     </row>
     <row r="569" spans="1:2">
@@ -17664,7 +17823,7 @@
       <c r="B569" s="21"/>
     </row>
     <row r="570" spans="1:2">
-      <c r="A570" s="60"/>
+      <c r="A570" s="62"/>
       <c r="B570" s="21"/>
     </row>
     <row r="571" spans="1:2">
@@ -17672,7 +17831,7 @@
       <c r="B571" s="21"/>
     </row>
     <row r="572" spans="1:2">
-      <c r="A572" s="60"/>
+      <c r="A572" s="62"/>
       <c r="B572" s="21"/>
     </row>
     <row r="573" spans="1:2">
@@ -17680,7 +17839,7 @@
       <c r="B573" s="21"/>
     </row>
     <row r="574" spans="1:2">
-      <c r="A574" s="60"/>
+      <c r="A574" s="62"/>
       <c r="B574" s="21"/>
     </row>
     <row r="575" spans="1:2">
@@ -17688,7 +17847,7 @@
       <c r="B575" s="21"/>
     </row>
     <row r="576" spans="1:2">
-      <c r="A576" s="60"/>
+      <c r="A576" s="62"/>
       <c r="B576" s="21"/>
     </row>
     <row r="577" spans="1:2">
@@ -17696,7 +17855,7 @@
       <c r="B577" s="21"/>
     </row>
     <row r="578" spans="1:2">
-      <c r="A578" s="60"/>
+      <c r="A578" s="62"/>
       <c r="B578" s="21"/>
     </row>
     <row r="579" spans="1:2">
@@ -17704,7 +17863,7 @@
       <c r="B579" s="21"/>
     </row>
     <row r="580" spans="1:2">
-      <c r="A580" s="60"/>
+      <c r="A580" s="62"/>
       <c r="B580" s="21"/>
     </row>
     <row r="581" spans="1:2">
@@ -17712,7 +17871,7 @@
       <c r="B581" s="21"/>
     </row>
     <row r="582" spans="1:2">
-      <c r="A582" s="60"/>
+      <c r="A582" s="62"/>
       <c r="B582" s="21"/>
     </row>
     <row r="583" spans="1:2">
@@ -17720,7 +17879,7 @@
       <c r="B583" s="21"/>
     </row>
     <row r="584" spans="1:2">
-      <c r="A584" s="60"/>
+      <c r="A584" s="62"/>
       <c r="B584" s="21"/>
     </row>
     <row r="585" spans="1:2">
@@ -17728,7 +17887,7 @@
       <c r="B585" s="21"/>
     </row>
     <row r="586" spans="1:2">
-      <c r="A586" s="60"/>
+      <c r="A586" s="62"/>
       <c r="B586" s="21"/>
     </row>
     <row r="587" spans="1:2">
@@ -17736,7 +17895,7 @@
       <c r="B587" s="21"/>
     </row>
     <row r="588" spans="1:2">
-      <c r="A588" s="60"/>
+      <c r="A588" s="62"/>
       <c r="B588" s="21"/>
     </row>
     <row r="589" spans="1:2">
@@ -17744,7 +17903,7 @@
       <c r="B589" s="21"/>
     </row>
     <row r="590" spans="1:2">
-      <c r="A590" s="60"/>
+      <c r="A590" s="62"/>
       <c r="B590" s="21"/>
     </row>
     <row r="591" spans="1:2">
@@ -17752,7 +17911,7 @@
       <c r="B591" s="21"/>
     </row>
     <row r="592" spans="1:2">
-      <c r="A592" s="60"/>
+      <c r="A592" s="62"/>
       <c r="B592" s="21"/>
     </row>
     <row r="593" spans="1:2">
@@ -17760,7 +17919,7 @@
       <c r="B593" s="15"/>
     </row>
     <row r="594" spans="1:2">
-      <c r="A594" s="60"/>
+      <c r="A594" s="62"/>
       <c r="B594" s="15"/>
     </row>
     <row r="595" spans="1:2">
@@ -17768,7 +17927,7 @@
       <c r="B595" s="15"/>
     </row>
     <row r="596" spans="1:2">
-      <c r="A596" s="60"/>
+      <c r="A596" s="62"/>
       <c r="B596" s="15"/>
     </row>
     <row r="597" spans="1:2">
@@ -17776,7 +17935,7 @@
       <c r="B597" s="15"/>
     </row>
     <row r="598" spans="1:2">
-      <c r="A598" s="60"/>
+      <c r="A598" s="62"/>
       <c r="B598" s="15"/>
     </row>
     <row r="599" spans="1:2">
@@ -17784,7 +17943,7 @@
       <c r="B599" s="15"/>
     </row>
     <row r="600" spans="1:2">
-      <c r="A600" s="60"/>
+      <c r="A600" s="62"/>
       <c r="B600" s="15"/>
     </row>
     <row r="601" spans="1:2">
@@ -17792,7 +17951,7 @@
       <c r="B601" s="15"/>
     </row>
     <row r="602" spans="1:2">
-      <c r="A602" s="60"/>
+      <c r="A602" s="62"/>
       <c r="B602" s="15"/>
     </row>
     <row r="603" spans="1:2">
@@ -17800,7 +17959,7 @@
       <c r="B603" s="15"/>
     </row>
     <row r="604" spans="1:2">
-      <c r="A604" s="60"/>
+      <c r="A604" s="62"/>
       <c r="B604" s="15"/>
     </row>
     <row r="605" spans="1:2">
@@ -17808,7 +17967,7 @@
       <c r="B605" s="15"/>
     </row>
     <row r="606" spans="1:2">
-      <c r="A606" s="60"/>
+      <c r="A606" s="62"/>
       <c r="B606" s="15"/>
     </row>
     <row r="607" spans="1:2">
@@ -17816,7 +17975,7 @@
       <c r="B607" s="15"/>
     </row>
     <row r="608" spans="1:2">
-      <c r="A608" s="60"/>
+      <c r="A608" s="62"/>
       <c r="B608" s="15"/>
     </row>
     <row r="609" spans="1:2">
@@ -17824,7 +17983,7 @@
       <c r="B609" s="15"/>
     </row>
     <row r="610" spans="1:2">
-      <c r="A610" s="60"/>
+      <c r="A610" s="62"/>
       <c r="B610" s="15"/>
     </row>
     <row r="611" spans="1:2">
@@ -17832,7 +17991,7 @@
       <c r="B611" s="15"/>
     </row>
     <row r="612" spans="1:2">
-      <c r="A612" s="60"/>
+      <c r="A612" s="62"/>
       <c r="B612" s="15"/>
     </row>
     <row r="613" spans="1:2">
@@ -17840,7 +17999,7 @@
       <c r="B613" s="15"/>
     </row>
     <row r="614" spans="1:2">
-      <c r="A614" s="60"/>
+      <c r="A614" s="62"/>
       <c r="B614" s="15"/>
     </row>
     <row r="615" spans="1:2">
@@ -17848,7 +18007,7 @@
       <c r="B615" s="15"/>
     </row>
     <row r="616" spans="1:2">
-      <c r="A616" s="60"/>
+      <c r="A616" s="62"/>
       <c r="B616" s="15"/>
     </row>
     <row r="617" spans="1:2">
@@ -17856,431 +18015,431 @@
       <c r="B617" s="15"/>
     </row>
     <row r="618" spans="1:1">
-      <c r="A618" s="61"/>
+      <c r="A618" s="63"/>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" s="12"/>
     </row>
     <row r="620" spans="1:1">
-      <c r="A620" s="61"/>
+      <c r="A620" s="63"/>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" s="12"/>
     </row>
     <row r="622" spans="1:1">
-      <c r="A622" s="61"/>
+      <c r="A622" s="63"/>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" s="12"/>
     </row>
     <row r="624" spans="1:1">
-      <c r="A624" s="61"/>
+      <c r="A624" s="63"/>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" s="12"/>
     </row>
     <row r="626" spans="1:1">
-      <c r="A626" s="61"/>
+      <c r="A626" s="63"/>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" s="12"/>
     </row>
     <row r="628" spans="1:1">
-      <c r="A628" s="61"/>
+      <c r="A628" s="63"/>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" s="12"/>
     </row>
     <row r="630" spans="1:1">
-      <c r="A630" s="61"/>
+      <c r="A630" s="63"/>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" s="12"/>
     </row>
     <row r="632" spans="1:1">
-      <c r="A632" s="61"/>
+      <c r="A632" s="63"/>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" s="12"/>
     </row>
     <row r="634" spans="1:1">
-      <c r="A634" s="61"/>
+      <c r="A634" s="63"/>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" s="12"/>
     </row>
     <row r="636" spans="1:1">
-      <c r="A636" s="61"/>
+      <c r="A636" s="63"/>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" s="12"/>
     </row>
     <row r="638" spans="1:1">
-      <c r="A638" s="61"/>
+      <c r="A638" s="63"/>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" s="12"/>
     </row>
     <row r="640" spans="1:1">
-      <c r="A640" s="61"/>
+      <c r="A640" s="63"/>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" s="12"/>
     </row>
     <row r="642" spans="1:1">
-      <c r="A642" s="61"/>
+      <c r="A642" s="63"/>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" s="12"/>
     </row>
     <row r="644" spans="1:1">
-      <c r="A644" s="61"/>
+      <c r="A644" s="63"/>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" s="12"/>
     </row>
     <row r="646" spans="1:1">
-      <c r="A646" s="61"/>
+      <c r="A646" s="63"/>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" s="12"/>
     </row>
     <row r="648" spans="1:1">
-      <c r="A648" s="61"/>
+      <c r="A648" s="63"/>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" s="12"/>
     </row>
     <row r="650" spans="1:1">
-      <c r="A650" s="61"/>
+      <c r="A650" s="63"/>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" s="12"/>
     </row>
     <row r="652" spans="1:1">
-      <c r="A652" s="61"/>
+      <c r="A652" s="63"/>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" s="12"/>
     </row>
     <row r="654" spans="1:1">
-      <c r="A654" s="61"/>
+      <c r="A654" s="63"/>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" s="12"/>
     </row>
     <row r="656" spans="1:1">
-      <c r="A656" s="61"/>
+      <c r="A656" s="63"/>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" s="12"/>
     </row>
     <row r="658" spans="1:1">
-      <c r="A658" s="61"/>
+      <c r="A658" s="63"/>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" s="12"/>
     </row>
     <row r="660" spans="1:1">
-      <c r="A660" s="61"/>
+      <c r="A660" s="63"/>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" s="12"/>
     </row>
     <row r="662" spans="1:1">
-      <c r="A662" s="61"/>
+      <c r="A662" s="63"/>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" s="12"/>
     </row>
     <row r="664" spans="1:1">
-      <c r="A664" s="61"/>
+      <c r="A664" s="63"/>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" s="12"/>
     </row>
     <row r="666" spans="1:1">
-      <c r="A666" s="61"/>
+      <c r="A666" s="63"/>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" s="12"/>
     </row>
     <row r="668" spans="1:1">
-      <c r="A668" s="61"/>
+      <c r="A668" s="63"/>
     </row>
     <row r="669" spans="1:1">
       <c r="A669" s="12"/>
     </row>
     <row r="670" spans="1:1">
-      <c r="A670" s="61"/>
+      <c r="A670" s="63"/>
     </row>
     <row r="671" spans="1:1">
       <c r="A671" s="12"/>
     </row>
     <row r="672" spans="1:1">
-      <c r="A672" s="61"/>
+      <c r="A672" s="63"/>
     </row>
     <row r="673" spans="1:1">
       <c r="A673" s="12"/>
     </row>
     <row r="674" spans="1:1">
-      <c r="A674" s="61"/>
+      <c r="A674" s="63"/>
     </row>
     <row r="675" spans="1:1">
       <c r="A675" s="12"/>
     </row>
     <row r="676" spans="1:1">
-      <c r="A676" s="61"/>
+      <c r="A676" s="63"/>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" s="12"/>
     </row>
     <row r="678" spans="1:1">
-      <c r="A678" s="61"/>
+      <c r="A678" s="63"/>
     </row>
     <row r="679" spans="1:1">
       <c r="A679" s="12"/>
     </row>
     <row r="680" spans="1:1">
-      <c r="A680" s="61"/>
+      <c r="A680" s="63"/>
     </row>
     <row r="681" spans="1:1">
       <c r="A681" s="12"/>
     </row>
     <row r="682" spans="1:1">
-      <c r="A682" s="61"/>
+      <c r="A682" s="63"/>
     </row>
     <row r="683" spans="1:1">
       <c r="A683" s="12"/>
     </row>
     <row r="684" spans="1:1">
-      <c r="A684" s="61"/>
+      <c r="A684" s="63"/>
     </row>
     <row r="685" spans="1:1">
       <c r="A685" s="12"/>
     </row>
     <row r="686" spans="1:1">
-      <c r="A686" s="61"/>
+      <c r="A686" s="63"/>
     </row>
     <row r="687" spans="1:1">
       <c r="A687" s="12"/>
     </row>
     <row r="688" spans="1:1">
-      <c r="A688" s="61"/>
+      <c r="A688" s="63"/>
     </row>
     <row r="689" spans="1:1">
       <c r="A689" s="12"/>
     </row>
     <row r="690" spans="1:1">
-      <c r="A690" s="61"/>
+      <c r="A690" s="63"/>
     </row>
     <row r="691" spans="1:1">
       <c r="A691" s="12"/>
     </row>
     <row r="692" spans="1:1">
-      <c r="A692" s="61"/>
+      <c r="A692" s="63"/>
     </row>
     <row r="693" spans="1:1">
       <c r="A693" s="12"/>
     </row>
     <row r="694" spans="1:1">
-      <c r="A694" s="61"/>
+      <c r="A694" s="63"/>
     </row>
     <row r="695" spans="1:1">
       <c r="A695" s="12"/>
     </row>
     <row r="696" spans="1:1">
-      <c r="A696" s="61"/>
+      <c r="A696" s="63"/>
     </row>
     <row r="697" spans="1:1">
       <c r="A697" s="12"/>
     </row>
     <row r="698" spans="1:1">
-      <c r="A698" s="61"/>
+      <c r="A698" s="63"/>
     </row>
     <row r="699" spans="1:1">
       <c r="A699" s="12"/>
     </row>
     <row r="700" spans="1:1">
-      <c r="A700" s="61"/>
+      <c r="A700" s="63"/>
     </row>
     <row r="701" spans="1:1">
       <c r="A701" s="12"/>
     </row>
     <row r="702" spans="1:1">
-      <c r="A702" s="61"/>
+      <c r="A702" s="63"/>
     </row>
     <row r="703" spans="1:1">
       <c r="A703" s="12"/>
     </row>
     <row r="704" spans="1:1">
-      <c r="A704" s="61"/>
+      <c r="A704" s="63"/>
     </row>
     <row r="705" spans="1:1">
       <c r="A705" s="12"/>
     </row>
     <row r="706" spans="1:1">
-      <c r="A706" s="61"/>
+      <c r="A706" s="63"/>
     </row>
     <row r="707" spans="1:1">
       <c r="A707" s="12"/>
     </row>
     <row r="708" spans="1:1">
-      <c r="A708" s="61"/>
+      <c r="A708" s="63"/>
     </row>
     <row r="709" spans="1:1">
       <c r="A709" s="12"/>
     </row>
     <row r="710" spans="1:1">
-      <c r="A710" s="61"/>
+      <c r="A710" s="63"/>
     </row>
     <row r="711" spans="1:1">
       <c r="A711" s="12"/>
     </row>
     <row r="712" spans="1:1">
-      <c r="A712" s="61"/>
+      <c r="A712" s="63"/>
     </row>
     <row r="713" spans="1:1">
       <c r="A713" s="12"/>
     </row>
     <row r="714" spans="1:1">
-      <c r="A714" s="61"/>
+      <c r="A714" s="63"/>
     </row>
     <row r="715" spans="1:1">
       <c r="A715" s="12"/>
     </row>
     <row r="716" spans="1:1">
-      <c r="A716" s="61"/>
+      <c r="A716" s="63"/>
     </row>
     <row r="717" spans="1:1">
       <c r="A717" s="12"/>
     </row>
     <row r="718" spans="1:1">
-      <c r="A718" s="61"/>
+      <c r="A718" s="63"/>
     </row>
     <row r="719" spans="1:1">
       <c r="A719" s="12"/>
     </row>
     <row r="720" spans="1:1">
-      <c r="A720" s="61"/>
+      <c r="A720" s="63"/>
     </row>
     <row r="721" spans="1:1">
       <c r="A721" s="12"/>
     </row>
     <row r="722" spans="1:1">
-      <c r="A722" s="61"/>
+      <c r="A722" s="63"/>
     </row>
     <row r="723" spans="1:1">
       <c r="A723" s="12"/>
     </row>
     <row r="724" spans="1:1">
-      <c r="A724" s="61"/>
+      <c r="A724" s="63"/>
     </row>
     <row r="725" spans="1:1">
       <c r="A725" s="12"/>
     </row>
     <row r="726" spans="1:1">
-      <c r="A726" s="61"/>
+      <c r="A726" s="63"/>
     </row>
     <row r="727" spans="1:1">
       <c r="A727" s="12"/>
     </row>
     <row r="728" spans="1:1">
-      <c r="A728" s="61"/>
+      <c r="A728" s="63"/>
     </row>
     <row r="729" spans="1:1">
       <c r="A729" s="12"/>
     </row>
     <row r="730" spans="1:1">
-      <c r="A730" s="61"/>
+      <c r="A730" s="63"/>
     </row>
     <row r="731" spans="1:1">
       <c r="A731" s="12"/>
     </row>
     <row r="732" spans="1:1">
-      <c r="A732" s="61"/>
+      <c r="A732" s="63"/>
     </row>
     <row r="733" spans="1:1">
       <c r="A733" s="12"/>
     </row>
     <row r="734" spans="1:1">
-      <c r="A734" s="61"/>
+      <c r="A734" s="63"/>
     </row>
     <row r="735" spans="1:1">
       <c r="A735" s="12"/>
     </row>
     <row r="736" spans="1:1">
-      <c r="A736" s="61"/>
+      <c r="A736" s="63"/>
     </row>
     <row r="737" spans="1:1">
       <c r="A737" s="12"/>
     </row>
     <row r="738" spans="1:1">
-      <c r="A738" s="61"/>
+      <c r="A738" s="63"/>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" s="12"/>
     </row>
     <row r="740" spans="1:1">
-      <c r="A740" s="61"/>
+      <c r="A740" s="63"/>
     </row>
     <row r="741" spans="1:1">
       <c r="A741" s="12"/>
     </row>
     <row r="742" spans="1:1">
-      <c r="A742" s="61"/>
+      <c r="A742" s="63"/>
     </row>
     <row r="743" spans="1:1">
       <c r="A743" s="12"/>
     </row>
     <row r="744" spans="1:1">
-      <c r="A744" s="61"/>
+      <c r="A744" s="63"/>
     </row>
     <row r="745" spans="1:1">
       <c r="A745" s="12"/>
     </row>
     <row r="746" spans="1:1">
-      <c r="A746" s="61"/>
+      <c r="A746" s="63"/>
     </row>
     <row r="747" spans="1:1">
       <c r="A747" s="12"/>
     </row>
     <row r="748" spans="1:1">
-      <c r="A748" s="61"/>
+      <c r="A748" s="63"/>
     </row>
     <row r="749" spans="1:1">
       <c r="A749" s="12"/>
     </row>
     <row r="750" spans="1:1">
-      <c r="A750" s="61"/>
+      <c r="A750" s="63"/>
     </row>
     <row r="751" spans="1:1">
       <c r="A751" s="12"/>
     </row>
     <row r="752" spans="1:1">
-      <c r="A752" s="61"/>
+      <c r="A752" s="63"/>
     </row>
     <row r="753" spans="1:1">
       <c r="A753" s="12"/>
     </row>
     <row r="754" spans="1:1">
-      <c r="A754" s="61"/>
+      <c r="A754" s="63"/>
     </row>
     <row r="755" spans="1:1">
       <c r="A755" s="12"/>
     </row>
     <row r="756" spans="1:1">
-      <c r="A756" s="61"/>
+      <c r="A756" s="63"/>
     </row>
     <row r="757" spans="1:1">
       <c r="A757" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C163 C179 C198 C199 C200 C216 C227 C228 C229 C230 C231 C232 C233 C234 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C257 C258 C4:C17 C18:C23 C24:C34 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C146 C147:C162 C164:C178 C180:C197 C201:C215 C217:C226 C259:C261 C262:C1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C163 C179 C198 C199 C200 C216 C227 C228 C229 C230 C231 C232 C233 C234 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C257 C258 C4:C17 C18:C23 C24:C34 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C146 C147:C162 C164:C178 C180:C197 C201:C215 C217:C226 C259:C261 C262:C264 C265:C1048576">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D18 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D60 D71 D84 D85 D86 D106 D146 D163 D179 D198 D199 D200 D216 D227 D228 D229 D235 D236 D237 D238 D239 D240 D241 D242 D243 D244 D245 D246 D247 D248 D249 D250 D251 D252 D253 D254 D255 D256 D257 D258 D4:D17 D19:D22 D23:D35 D49:D59 D61:D70 D72:D81 D82:D83 D87:D105 D107:D117 D118:D137 D138:D145 D147:D162 D164:D178 D180:D197 D201:D215 D217:D226 D230:D234 D259:D261 D262:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D18 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D60 D71 D84 D85 D86 D106 D146 D163 D179 D198 D199 D200 D216 D227 D228 D229 D235 D236 D237 D238 D239 D240 D241 D242 D243 D244 D245 D246 D247 D248 D249 D250 D251 D252 D253 D254 D255 D256 D257 D258 D259 D4:D17 D19:D22 D23:D35 D49:D59 D61:D70 D72:D81 D82:D83 D87:D105 D107:D117 D118:D137 D138:D145 D147:D162 D164:D178 D180:D197 D201:D215 D217:D226 D230:D234 D260:D264 D265:D1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18309,13 +18468,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -18326,7 +18485,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -18337,7 +18496,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -18348,7 +18507,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -18364,7 +18523,7 @@
         <v>43050</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -18375,7 +18534,7 @@
         <v>43064</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -18391,7 +18550,7 @@
         <v>43079</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -18402,7 +18561,7 @@
         <v>43085</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -18413,7 +18572,7 @@
         <v>43092</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
     </row>
     <row r="12" spans="1:3">

--- a/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -1998,6 +1998,9 @@
   </si>
   <si>
     <t>捞王锅物料理(五角场万达店）开业驻店</t>
+  </si>
+  <si>
+    <t>香天下火锅石路店开业驻店</t>
   </si>
 </sst>
 </file>
@@ -2006,9 +2009,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="34">
@@ -2088,36 +2091,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2139,14 +2122,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -2156,52 +2131,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2228,11 +2157,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2307,25 +2310,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2344,48 +2329,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2446,6 +2389,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2840,45 +2843,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2890,26 +2854,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2937,16 +2881,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2955,94 +2958,94 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3054,42 +3057,42 @@
     <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
@@ -3097,7 +3100,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3271,12 +3274,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3785,440 +3782,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="72" t="s">
+      <c r="H2" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="96" t="s">
+      <c r="I2" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="97" t="s">
+      <c r="J2" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="98" t="s">
+      <c r="K2" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="99" t="s">
+      <c r="L2" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="100" t="s">
+      <c r="M2" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="101" t="s">
+      <c r="N2" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="66"/>
-      <c r="B3" s="73" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76">
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77">
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="103"/>
-      <c r="K3" s="104" t="e">
+      <c r="J3" s="101"/>
+      <c r="K3" s="102" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="105">
+      <c r="L3" s="103">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="106">
+      <c r="M3" s="104">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="107" t="e">
+      <c r="N3" s="105" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="80" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82">
+      <c r="D4" s="79"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="83"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="83">
+      <c r="G4" s="81"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="108"/>
-      <c r="K4" s="104" t="e">
+      <c r="J4" s="106"/>
+      <c r="K4" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="105">
+      <c r="L4" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="106">
+      <c r="M4" s="104">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="107" t="e">
+      <c r="N4" s="105" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="102"/>
-      <c r="P4" s="102"/>
-      <c r="Q4" s="102"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="80" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82">
+      <c r="D5" s="79"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="83"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="83">
+      <c r="G5" s="81"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="108"/>
-      <c r="K5" s="104" t="e">
+      <c r="J5" s="106"/>
+      <c r="K5" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="105">
+      <c r="L5" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="106">
+      <c r="M5" s="104">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="107" t="e">
+      <c r="N5" s="105" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="102"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="102"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="78"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="80" t="s">
+      <c r="A6" s="76"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="81"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82">
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="83"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="83">
+      <c r="G6" s="81"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="108"/>
-      <c r="K6" s="104" t="e">
+      <c r="J6" s="106"/>
+      <c r="K6" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="105">
+      <c r="L6" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="106">
+      <c r="M6" s="104">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="107" t="e">
+      <c r="N6" s="105" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="102"/>
-      <c r="P6" s="102"/>
-      <c r="Q6" s="102"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="100"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="78"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="81"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82">
+      <c r="A7" s="76"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="79"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="83">
+      <c r="G7" s="81"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="108"/>
-      <c r="K7" s="104" t="e">
+      <c r="J7" s="106"/>
+      <c r="K7" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="105">
+      <c r="L7" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="106">
+      <c r="M7" s="104">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="107" t="e">
+      <c r="N7" s="105" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="78"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="80" t="s">
+      <c r="A8" s="76"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82">
+      <c r="D8" s="79"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="83"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="83">
+      <c r="G8" s="81"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="108"/>
-      <c r="K8" s="104" t="e">
+      <c r="J8" s="106"/>
+      <c r="K8" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="105">
+      <c r="L8" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="106">
+      <c r="M8" s="104">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="107" t="e">
+      <c r="N8" s="105" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="102"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="100"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="78"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="80" t="s">
+      <c r="A9" s="76"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="81"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82">
+      <c r="D9" s="79"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="83">
+      <c r="G9" s="81"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="108"/>
-      <c r="K9" s="104" t="e">
+      <c r="J9" s="106"/>
+      <c r="K9" s="102" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="105">
+      <c r="L9" s="103">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="106">
+      <c r="M9" s="104">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="107" t="e">
+      <c r="N9" s="105" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="102"/>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="102"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="100"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="78"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="84" t="s">
+      <c r="A10" s="76"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="85"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87">
+      <c r="D10" s="83"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="88"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="88">
+      <c r="G10" s="86"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="86">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="109"/>
-      <c r="K10" s="110" t="e">
+      <c r="J10" s="107"/>
+      <c r="K10" s="108" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="111">
+      <c r="L10" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="112">
+      <c r="M10" s="110">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="113" t="e">
+      <c r="N10" s="111" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="102"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="100"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="90"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="92" t="s">
+      <c r="A11" s="88"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="93">
+      <c r="D11" s="91">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="93">
+      <c r="E11" s="91">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="94">
+      <c r="F11" s="92">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="93">
+      <c r="G11" s="91">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="93">
+      <c r="H11" s="91">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="94">
+      <c r="I11" s="92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="93">
+      <c r="J11" s="91">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="114" t="e">
+      <c r="K11" s="112" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="94">
+      <c r="L11" s="92">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="94">
+      <c r="M11" s="92">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="115" t="e">
+      <c r="N11" s="113" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="102"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="102"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4236,7 +4233,7 @@
   <sheetPr/>
   <dimension ref="A1:P757"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C266" sqref="C266"/>
@@ -8513,7 +8510,7 @@
       <c r="N95" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O95" s="116" t="s">
+      <c r="O95" s="114" t="s">
         <v>270</v>
       </c>
       <c r="P95" s="15" t="s">
@@ -16358,13 +16355,13 @@
       <c r="F262" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G262" s="60" t="s">
+      <c r="G262" s="42" t="s">
         <v>627</v>
       </c>
-      <c r="H262" s="60">
+      <c r="H262" s="42">
         <v>76113672</v>
       </c>
-      <c r="I262" s="60" t="s">
+      <c r="I262" s="42" t="s">
         <v>628</v>
       </c>
       <c r="J262" s="8" t="s">
@@ -16376,13 +16373,13 @@
       <c r="L262" s="15">
         <v>17721436606</v>
       </c>
-      <c r="M262" s="60" t="s">
+      <c r="M262" s="42" t="s">
         <v>629</v>
       </c>
       <c r="N262" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O262" s="60">
+      <c r="O262" s="42">
         <v>18523502323</v>
       </c>
       <c r="P262" s="8" t="s">
@@ -16408,13 +16405,13 @@
       <c r="F263" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G263" s="60" t="s">
+      <c r="G263" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H263" s="60">
+      <c r="H263" s="42">
         <v>76116101</v>
       </c>
-      <c r="I263" s="61" t="s">
+      <c r="I263" s="49" t="s">
         <v>630</v>
       </c>
       <c r="J263" s="8" t="s">
@@ -16426,13 +16423,13 @@
       <c r="L263" s="15">
         <v>17721436606</v>
       </c>
-      <c r="M263" s="60" t="s">
+      <c r="M263" s="42" t="s">
         <v>631</v>
       </c>
       <c r="N263" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O263" s="60">
+      <c r="O263" s="42">
         <v>18657929290</v>
       </c>
       <c r="P263" s="8" t="s">
@@ -16458,13 +16455,13 @@
       <c r="F264" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G264" s="60" t="s">
+      <c r="G264" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="H264" s="60">
+      <c r="H264" s="42">
         <v>76116102</v>
       </c>
-      <c r="I264" s="61" t="s">
+      <c r="I264" s="49" t="s">
         <v>632</v>
       </c>
       <c r="J264" s="8" t="s">
@@ -16476,13 +16473,13 @@
       <c r="L264" s="15">
         <v>17721436606</v>
       </c>
-      <c r="M264" s="60" t="s">
+      <c r="M264" s="42" t="s">
         <v>633</v>
       </c>
       <c r="N264" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O264" s="60">
+      <c r="O264" s="42">
         <v>13036101739</v>
       </c>
       <c r="P264" s="8" t="s">
@@ -17199,7 +17196,7 @@
       <c r="B413" s="21"/>
     </row>
     <row r="414" spans="1:2">
-      <c r="A414" s="62"/>
+      <c r="A414" s="60"/>
       <c r="B414" s="21"/>
     </row>
     <row r="415" spans="1:2">
@@ -17271,7 +17268,7 @@
       <c r="B431" s="21"/>
     </row>
     <row r="432" spans="1:2">
-      <c r="A432" s="62"/>
+      <c r="A432" s="60"/>
       <c r="B432" s="21"/>
     </row>
     <row r="433" spans="1:2">
@@ -17279,7 +17276,7 @@
       <c r="B433" s="21"/>
     </row>
     <row r="434" spans="1:2">
-      <c r="A434" s="62"/>
+      <c r="A434" s="60"/>
       <c r="B434" s="21"/>
     </row>
     <row r="435" spans="1:2">
@@ -17287,7 +17284,7 @@
       <c r="B435" s="21"/>
     </row>
     <row r="436" spans="1:2">
-      <c r="A436" s="62"/>
+      <c r="A436" s="60"/>
       <c r="B436" s="21"/>
     </row>
     <row r="437" spans="1:2">
@@ -17295,7 +17292,7 @@
       <c r="B437" s="21"/>
     </row>
     <row r="438" spans="1:2">
-      <c r="A438" s="62"/>
+      <c r="A438" s="60"/>
       <c r="B438" s="21"/>
     </row>
     <row r="439" spans="1:2">
@@ -17303,7 +17300,7 @@
       <c r="B439" s="21"/>
     </row>
     <row r="440" spans="1:2">
-      <c r="A440" s="62"/>
+      <c r="A440" s="60"/>
       <c r="B440" s="21"/>
     </row>
     <row r="441" spans="1:2">
@@ -17311,7 +17308,7 @@
       <c r="B441" s="21"/>
     </row>
     <row r="442" spans="1:2">
-      <c r="A442" s="62"/>
+      <c r="A442" s="60"/>
       <c r="B442" s="21"/>
     </row>
     <row r="443" spans="1:2">
@@ -17319,7 +17316,7 @@
       <c r="B443" s="21"/>
     </row>
     <row r="444" spans="1:2">
-      <c r="A444" s="62"/>
+      <c r="A444" s="60"/>
       <c r="B444" s="21"/>
     </row>
     <row r="445" spans="1:2">
@@ -17327,7 +17324,7 @@
       <c r="B445" s="21"/>
     </row>
     <row r="446" spans="1:2">
-      <c r="A446" s="62"/>
+      <c r="A446" s="60"/>
       <c r="B446" s="21"/>
     </row>
     <row r="447" spans="1:2">
@@ -17335,7 +17332,7 @@
       <c r="B447" s="21"/>
     </row>
     <row r="448" spans="1:2">
-      <c r="A448" s="62"/>
+      <c r="A448" s="60"/>
       <c r="B448" s="21"/>
     </row>
     <row r="449" spans="1:2">
@@ -17343,7 +17340,7 @@
       <c r="B449" s="21"/>
     </row>
     <row r="450" spans="1:2">
-      <c r="A450" s="62"/>
+      <c r="A450" s="60"/>
       <c r="B450" s="21"/>
     </row>
     <row r="451" spans="1:2">
@@ -17351,7 +17348,7 @@
       <c r="B451" s="21"/>
     </row>
     <row r="452" spans="1:2">
-      <c r="A452" s="62"/>
+      <c r="A452" s="60"/>
       <c r="B452" s="21"/>
     </row>
     <row r="453" spans="1:2">
@@ -17359,7 +17356,7 @@
       <c r="B453" s="21"/>
     </row>
     <row r="454" spans="1:2">
-      <c r="A454" s="62"/>
+      <c r="A454" s="60"/>
       <c r="B454" s="21"/>
     </row>
     <row r="455" spans="1:2">
@@ -17367,7 +17364,7 @@
       <c r="B455" s="21"/>
     </row>
     <row r="456" spans="1:2">
-      <c r="A456" s="62"/>
+      <c r="A456" s="60"/>
       <c r="B456" s="21"/>
     </row>
     <row r="457" spans="1:2">
@@ -17375,7 +17372,7 @@
       <c r="B457" s="21"/>
     </row>
     <row r="458" spans="1:2">
-      <c r="A458" s="62"/>
+      <c r="A458" s="60"/>
       <c r="B458" s="21"/>
     </row>
     <row r="459" spans="1:2">
@@ -17383,7 +17380,7 @@
       <c r="B459" s="21"/>
     </row>
     <row r="460" spans="1:2">
-      <c r="A460" s="62"/>
+      <c r="A460" s="60"/>
       <c r="B460" s="21"/>
     </row>
     <row r="461" spans="1:2">
@@ -17391,7 +17388,7 @@
       <c r="B461" s="21"/>
     </row>
     <row r="462" spans="1:2">
-      <c r="A462" s="62"/>
+      <c r="A462" s="60"/>
       <c r="B462" s="21"/>
     </row>
     <row r="463" spans="1:2">
@@ -17399,7 +17396,7 @@
       <c r="B463" s="21"/>
     </row>
     <row r="464" spans="1:2">
-      <c r="A464" s="62"/>
+      <c r="A464" s="60"/>
       <c r="B464" s="21"/>
     </row>
     <row r="465" spans="1:2">
@@ -17407,7 +17404,7 @@
       <c r="B465" s="21"/>
     </row>
     <row r="466" spans="1:2">
-      <c r="A466" s="62"/>
+      <c r="A466" s="60"/>
       <c r="B466" s="21"/>
     </row>
     <row r="467" spans="1:2">
@@ -17415,7 +17412,7 @@
       <c r="B467" s="21"/>
     </row>
     <row r="468" spans="1:2">
-      <c r="A468" s="62"/>
+      <c r="A468" s="60"/>
       <c r="B468" s="21"/>
     </row>
     <row r="469" spans="1:2">
@@ -17423,7 +17420,7 @@
       <c r="B469" s="21"/>
     </row>
     <row r="470" spans="1:2">
-      <c r="A470" s="62"/>
+      <c r="A470" s="60"/>
       <c r="B470" s="21"/>
     </row>
     <row r="471" spans="1:2">
@@ -17431,7 +17428,7 @@
       <c r="B471" s="21"/>
     </row>
     <row r="472" spans="1:2">
-      <c r="A472" s="62"/>
+      <c r="A472" s="60"/>
       <c r="B472" s="21"/>
     </row>
     <row r="473" spans="1:2">
@@ -17439,7 +17436,7 @@
       <c r="B473" s="21"/>
     </row>
     <row r="474" spans="1:2">
-      <c r="A474" s="62"/>
+      <c r="A474" s="60"/>
       <c r="B474" s="21"/>
     </row>
     <row r="475" spans="1:2">
@@ -17447,7 +17444,7 @@
       <c r="B475" s="21"/>
     </row>
     <row r="476" spans="1:2">
-      <c r="A476" s="62"/>
+      <c r="A476" s="60"/>
       <c r="B476" s="21"/>
     </row>
     <row r="477" spans="1:2">
@@ -17455,7 +17452,7 @@
       <c r="B477" s="21"/>
     </row>
     <row r="478" spans="1:2">
-      <c r="A478" s="62"/>
+      <c r="A478" s="60"/>
       <c r="B478" s="21"/>
     </row>
     <row r="479" spans="1:2">
@@ -17463,7 +17460,7 @@
       <c r="B479" s="21"/>
     </row>
     <row r="480" spans="1:2">
-      <c r="A480" s="62"/>
+      <c r="A480" s="60"/>
       <c r="B480" s="21"/>
     </row>
     <row r="481" spans="1:2">
@@ -17471,7 +17468,7 @@
       <c r="B481" s="21"/>
     </row>
     <row r="482" spans="1:2">
-      <c r="A482" s="62"/>
+      <c r="A482" s="60"/>
       <c r="B482" s="21"/>
     </row>
     <row r="483" spans="1:2">
@@ -17479,7 +17476,7 @@
       <c r="B483" s="21"/>
     </row>
     <row r="484" spans="1:2">
-      <c r="A484" s="62"/>
+      <c r="A484" s="60"/>
       <c r="B484" s="21"/>
     </row>
     <row r="485" spans="1:2">
@@ -17487,7 +17484,7 @@
       <c r="B485" s="21"/>
     </row>
     <row r="486" spans="1:2">
-      <c r="A486" s="62"/>
+      <c r="A486" s="60"/>
       <c r="B486" s="21"/>
     </row>
     <row r="487" spans="1:2">
@@ -17495,7 +17492,7 @@
       <c r="B487" s="21"/>
     </row>
     <row r="488" spans="1:2">
-      <c r="A488" s="62"/>
+      <c r="A488" s="60"/>
       <c r="B488" s="21"/>
     </row>
     <row r="489" spans="1:2">
@@ -17503,7 +17500,7 @@
       <c r="B489" s="21"/>
     </row>
     <row r="490" spans="1:2">
-      <c r="A490" s="62"/>
+      <c r="A490" s="60"/>
       <c r="B490" s="21"/>
     </row>
     <row r="491" spans="1:2">
@@ -17511,7 +17508,7 @@
       <c r="B491" s="21"/>
     </row>
     <row r="492" spans="1:2">
-      <c r="A492" s="62"/>
+      <c r="A492" s="60"/>
       <c r="B492" s="21"/>
     </row>
     <row r="493" spans="1:2">
@@ -17519,7 +17516,7 @@
       <c r="B493" s="21"/>
     </row>
     <row r="494" spans="1:2">
-      <c r="A494" s="62"/>
+      <c r="A494" s="60"/>
       <c r="B494" s="21"/>
     </row>
     <row r="495" spans="1:2">
@@ -17527,7 +17524,7 @@
       <c r="B495" s="21"/>
     </row>
     <row r="496" spans="1:2">
-      <c r="A496" s="62"/>
+      <c r="A496" s="60"/>
       <c r="B496" s="21"/>
     </row>
     <row r="497" spans="1:2">
@@ -17535,7 +17532,7 @@
       <c r="B497" s="21"/>
     </row>
     <row r="498" spans="1:2">
-      <c r="A498" s="62"/>
+      <c r="A498" s="60"/>
       <c r="B498" s="21"/>
     </row>
     <row r="499" spans="1:2">
@@ -17543,7 +17540,7 @@
       <c r="B499" s="21"/>
     </row>
     <row r="500" spans="1:2">
-      <c r="A500" s="62"/>
+      <c r="A500" s="60"/>
       <c r="B500" s="21"/>
     </row>
     <row r="501" spans="1:2">
@@ -17551,7 +17548,7 @@
       <c r="B501" s="21"/>
     </row>
     <row r="502" spans="1:2">
-      <c r="A502" s="62"/>
+      <c r="A502" s="60"/>
       <c r="B502" s="21"/>
     </row>
     <row r="503" spans="1:2">
@@ -17559,7 +17556,7 @@
       <c r="B503" s="21"/>
     </row>
     <row r="504" spans="1:2">
-      <c r="A504" s="62"/>
+      <c r="A504" s="60"/>
       <c r="B504" s="21"/>
     </row>
     <row r="505" spans="1:2">
@@ -17567,7 +17564,7 @@
       <c r="B505" s="21"/>
     </row>
     <row r="506" spans="1:2">
-      <c r="A506" s="62"/>
+      <c r="A506" s="60"/>
       <c r="B506" s="21"/>
     </row>
     <row r="507" spans="1:2">
@@ -17575,7 +17572,7 @@
       <c r="B507" s="21"/>
     </row>
     <row r="508" spans="1:2">
-      <c r="A508" s="62"/>
+      <c r="A508" s="60"/>
       <c r="B508" s="21"/>
     </row>
     <row r="509" spans="1:2">
@@ -17583,7 +17580,7 @@
       <c r="B509" s="21"/>
     </row>
     <row r="510" spans="1:2">
-      <c r="A510" s="62"/>
+      <c r="A510" s="60"/>
       <c r="B510" s="21"/>
     </row>
     <row r="511" spans="1:2">
@@ -17591,7 +17588,7 @@
       <c r="B511" s="21"/>
     </row>
     <row r="512" spans="1:2">
-      <c r="A512" s="62"/>
+      <c r="A512" s="60"/>
       <c r="B512" s="21"/>
     </row>
     <row r="513" spans="1:2">
@@ -17599,7 +17596,7 @@
       <c r="B513" s="21"/>
     </row>
     <row r="514" spans="1:2">
-      <c r="A514" s="62"/>
+      <c r="A514" s="60"/>
       <c r="B514" s="21"/>
     </row>
     <row r="515" spans="1:2">
@@ -17607,7 +17604,7 @@
       <c r="B515" s="21"/>
     </row>
     <row r="516" spans="1:2">
-      <c r="A516" s="62"/>
+      <c r="A516" s="60"/>
       <c r="B516" s="21"/>
     </row>
     <row r="517" spans="1:2">
@@ -17615,7 +17612,7 @@
       <c r="B517" s="21"/>
     </row>
     <row r="518" spans="1:2">
-      <c r="A518" s="62"/>
+      <c r="A518" s="60"/>
       <c r="B518" s="21"/>
     </row>
     <row r="519" spans="1:2">
@@ -17623,7 +17620,7 @@
       <c r="B519" s="21"/>
     </row>
     <row r="520" spans="1:2">
-      <c r="A520" s="62"/>
+      <c r="A520" s="60"/>
       <c r="B520" s="21"/>
     </row>
     <row r="521" spans="1:2">
@@ -17631,7 +17628,7 @@
       <c r="B521" s="21"/>
     </row>
     <row r="522" spans="1:2">
-      <c r="A522" s="62"/>
+      <c r="A522" s="60"/>
       <c r="B522" s="21"/>
     </row>
     <row r="523" spans="1:2">
@@ -17639,7 +17636,7 @@
       <c r="B523" s="21"/>
     </row>
     <row r="524" spans="1:2">
-      <c r="A524" s="62"/>
+      <c r="A524" s="60"/>
       <c r="B524" s="21"/>
     </row>
     <row r="525" spans="1:2">
@@ -17647,7 +17644,7 @@
       <c r="B525" s="21"/>
     </row>
     <row r="526" spans="1:2">
-      <c r="A526" s="62"/>
+      <c r="A526" s="60"/>
       <c r="B526" s="21"/>
     </row>
     <row r="527" spans="1:2">
@@ -17655,7 +17652,7 @@
       <c r="B527" s="21"/>
     </row>
     <row r="528" spans="1:2">
-      <c r="A528" s="62"/>
+      <c r="A528" s="60"/>
       <c r="B528" s="21"/>
     </row>
     <row r="529" spans="1:2">
@@ -17663,7 +17660,7 @@
       <c r="B529" s="21"/>
     </row>
     <row r="530" spans="1:2">
-      <c r="A530" s="62"/>
+      <c r="A530" s="60"/>
       <c r="B530" s="21"/>
     </row>
     <row r="531" spans="1:2">
@@ -17671,7 +17668,7 @@
       <c r="B531" s="21"/>
     </row>
     <row r="532" spans="1:2">
-      <c r="A532" s="62"/>
+      <c r="A532" s="60"/>
       <c r="B532" s="21"/>
     </row>
     <row r="533" spans="1:2">
@@ -17679,7 +17676,7 @@
       <c r="B533" s="21"/>
     </row>
     <row r="534" spans="1:2">
-      <c r="A534" s="62"/>
+      <c r="A534" s="60"/>
       <c r="B534" s="21"/>
     </row>
     <row r="535" spans="1:2">
@@ -17687,7 +17684,7 @@
       <c r="B535" s="21"/>
     </row>
     <row r="536" spans="1:2">
-      <c r="A536" s="62"/>
+      <c r="A536" s="60"/>
       <c r="B536" s="21"/>
     </row>
     <row r="537" spans="1:2">
@@ -17695,7 +17692,7 @@
       <c r="B537" s="21"/>
     </row>
     <row r="538" spans="1:2">
-      <c r="A538" s="62"/>
+      <c r="A538" s="60"/>
       <c r="B538" s="21"/>
     </row>
     <row r="539" spans="1:2">
@@ -17703,7 +17700,7 @@
       <c r="B539" s="21"/>
     </row>
     <row r="540" spans="1:2">
-      <c r="A540" s="62"/>
+      <c r="A540" s="60"/>
       <c r="B540" s="21"/>
     </row>
     <row r="541" spans="1:2">
@@ -17711,7 +17708,7 @@
       <c r="B541" s="21"/>
     </row>
     <row r="542" spans="1:2">
-      <c r="A542" s="62"/>
+      <c r="A542" s="60"/>
       <c r="B542" s="21"/>
     </row>
     <row r="543" spans="1:2">
@@ -17719,7 +17716,7 @@
       <c r="B543" s="21"/>
     </row>
     <row r="544" spans="1:2">
-      <c r="A544" s="62"/>
+      <c r="A544" s="60"/>
       <c r="B544" s="21"/>
     </row>
     <row r="545" spans="1:2">
@@ -17727,7 +17724,7 @@
       <c r="B545" s="21"/>
     </row>
     <row r="546" spans="1:2">
-      <c r="A546" s="62"/>
+      <c r="A546" s="60"/>
       <c r="B546" s="21"/>
     </row>
     <row r="547" spans="1:2">
@@ -17735,7 +17732,7 @@
       <c r="B547" s="21"/>
     </row>
     <row r="548" spans="1:2">
-      <c r="A548" s="62"/>
+      <c r="A548" s="60"/>
       <c r="B548" s="21"/>
     </row>
     <row r="549" spans="1:2">
@@ -17743,7 +17740,7 @@
       <c r="B549" s="21"/>
     </row>
     <row r="550" spans="1:2">
-      <c r="A550" s="62"/>
+      <c r="A550" s="60"/>
       <c r="B550" s="21"/>
     </row>
     <row r="551" spans="1:2">
@@ -17751,7 +17748,7 @@
       <c r="B551" s="21"/>
     </row>
     <row r="552" spans="1:2">
-      <c r="A552" s="62"/>
+      <c r="A552" s="60"/>
       <c r="B552" s="21"/>
     </row>
     <row r="553" spans="1:2">
@@ -17759,7 +17756,7 @@
       <c r="B553" s="21"/>
     </row>
     <row r="554" spans="1:2">
-      <c r="A554" s="62"/>
+      <c r="A554" s="60"/>
       <c r="B554" s="21"/>
     </row>
     <row r="555" spans="1:2">
@@ -17767,7 +17764,7 @@
       <c r="B555" s="21"/>
     </row>
     <row r="556" spans="1:2">
-      <c r="A556" s="62"/>
+      <c r="A556" s="60"/>
       <c r="B556" s="21"/>
     </row>
     <row r="557" spans="1:2">
@@ -17775,7 +17772,7 @@
       <c r="B557" s="21"/>
     </row>
     <row r="558" spans="1:2">
-      <c r="A558" s="62"/>
+      <c r="A558" s="60"/>
       <c r="B558" s="21"/>
     </row>
     <row r="559" spans="1:2">
@@ -17783,7 +17780,7 @@
       <c r="B559" s="21"/>
     </row>
     <row r="560" spans="1:2">
-      <c r="A560" s="62"/>
+      <c r="A560" s="60"/>
       <c r="B560" s="21"/>
     </row>
     <row r="561" spans="1:2">
@@ -17791,7 +17788,7 @@
       <c r="B561" s="21"/>
     </row>
     <row r="562" spans="1:2">
-      <c r="A562" s="62"/>
+      <c r="A562" s="60"/>
       <c r="B562" s="21"/>
     </row>
     <row r="563" spans="1:2">
@@ -17799,7 +17796,7 @@
       <c r="B563" s="21"/>
     </row>
     <row r="564" spans="1:2">
-      <c r="A564" s="62"/>
+      <c r="A564" s="60"/>
       <c r="B564" s="21"/>
     </row>
     <row r="565" spans="1:2">
@@ -17807,7 +17804,7 @@
       <c r="B565" s="21"/>
     </row>
     <row r="566" spans="1:2">
-      <c r="A566" s="62"/>
+      <c r="A566" s="60"/>
       <c r="B566" s="21"/>
     </row>
     <row r="567" spans="1:2">
@@ -17815,7 +17812,7 @@
       <c r="B567" s="21"/>
     </row>
     <row r="568" spans="1:2">
-      <c r="A568" s="62"/>
+      <c r="A568" s="60"/>
       <c r="B568" s="21"/>
     </row>
     <row r="569" spans="1:2">
@@ -17823,7 +17820,7 @@
       <c r="B569" s="21"/>
     </row>
     <row r="570" spans="1:2">
-      <c r="A570" s="62"/>
+      <c r="A570" s="60"/>
       <c r="B570" s="21"/>
     </row>
     <row r="571" spans="1:2">
@@ -17831,7 +17828,7 @@
       <c r="B571" s="21"/>
     </row>
     <row r="572" spans="1:2">
-      <c r="A572" s="62"/>
+      <c r="A572" s="60"/>
       <c r="B572" s="21"/>
     </row>
     <row r="573" spans="1:2">
@@ -17839,7 +17836,7 @@
       <c r="B573" s="21"/>
     </row>
     <row r="574" spans="1:2">
-      <c r="A574" s="62"/>
+      <c r="A574" s="60"/>
       <c r="B574" s="21"/>
     </row>
     <row r="575" spans="1:2">
@@ -17847,7 +17844,7 @@
       <c r="B575" s="21"/>
     </row>
     <row r="576" spans="1:2">
-      <c r="A576" s="62"/>
+      <c r="A576" s="60"/>
       <c r="B576" s="21"/>
     </row>
     <row r="577" spans="1:2">
@@ -17855,7 +17852,7 @@
       <c r="B577" s="21"/>
     </row>
     <row r="578" spans="1:2">
-      <c r="A578" s="62"/>
+      <c r="A578" s="60"/>
       <c r="B578" s="21"/>
     </row>
     <row r="579" spans="1:2">
@@ -17863,7 +17860,7 @@
       <c r="B579" s="21"/>
     </row>
     <row r="580" spans="1:2">
-      <c r="A580" s="62"/>
+      <c r="A580" s="60"/>
       <c r="B580" s="21"/>
     </row>
     <row r="581" spans="1:2">
@@ -17871,7 +17868,7 @@
       <c r="B581" s="21"/>
     </row>
     <row r="582" spans="1:2">
-      <c r="A582" s="62"/>
+      <c r="A582" s="60"/>
       <c r="B582" s="21"/>
     </row>
     <row r="583" spans="1:2">
@@ -17879,7 +17876,7 @@
       <c r="B583" s="21"/>
     </row>
     <row r="584" spans="1:2">
-      <c r="A584" s="62"/>
+      <c r="A584" s="60"/>
       <c r="B584" s="21"/>
     </row>
     <row r="585" spans="1:2">
@@ -17887,7 +17884,7 @@
       <c r="B585" s="21"/>
     </row>
     <row r="586" spans="1:2">
-      <c r="A586" s="62"/>
+      <c r="A586" s="60"/>
       <c r="B586" s="21"/>
     </row>
     <row r="587" spans="1:2">
@@ -17895,7 +17892,7 @@
       <c r="B587" s="21"/>
     </row>
     <row r="588" spans="1:2">
-      <c r="A588" s="62"/>
+      <c r="A588" s="60"/>
       <c r="B588" s="21"/>
     </row>
     <row r="589" spans="1:2">
@@ -17903,7 +17900,7 @@
       <c r="B589" s="21"/>
     </row>
     <row r="590" spans="1:2">
-      <c r="A590" s="62"/>
+      <c r="A590" s="60"/>
       <c r="B590" s="21"/>
     </row>
     <row r="591" spans="1:2">
@@ -17911,7 +17908,7 @@
       <c r="B591" s="21"/>
     </row>
     <row r="592" spans="1:2">
-      <c r="A592" s="62"/>
+      <c r="A592" s="60"/>
       <c r="B592" s="21"/>
     </row>
     <row r="593" spans="1:2">
@@ -17919,7 +17916,7 @@
       <c r="B593" s="15"/>
     </row>
     <row r="594" spans="1:2">
-      <c r="A594" s="62"/>
+      <c r="A594" s="60"/>
       <c r="B594" s="15"/>
     </row>
     <row r="595" spans="1:2">
@@ -17927,7 +17924,7 @@
       <c r="B595" s="15"/>
     </row>
     <row r="596" spans="1:2">
-      <c r="A596" s="62"/>
+      <c r="A596" s="60"/>
       <c r="B596" s="15"/>
     </row>
     <row r="597" spans="1:2">
@@ -17935,7 +17932,7 @@
       <c r="B597" s="15"/>
     </row>
     <row r="598" spans="1:2">
-      <c r="A598" s="62"/>
+      <c r="A598" s="60"/>
       <c r="B598" s="15"/>
     </row>
     <row r="599" spans="1:2">
@@ -17943,7 +17940,7 @@
       <c r="B599" s="15"/>
     </row>
     <row r="600" spans="1:2">
-      <c r="A600" s="62"/>
+      <c r="A600" s="60"/>
       <c r="B600" s="15"/>
     </row>
     <row r="601" spans="1:2">
@@ -17951,7 +17948,7 @@
       <c r="B601" s="15"/>
     </row>
     <row r="602" spans="1:2">
-      <c r="A602" s="62"/>
+      <c r="A602" s="60"/>
       <c r="B602" s="15"/>
     </row>
     <row r="603" spans="1:2">
@@ -17959,7 +17956,7 @@
       <c r="B603" s="15"/>
     </row>
     <row r="604" spans="1:2">
-      <c r="A604" s="62"/>
+      <c r="A604" s="60"/>
       <c r="B604" s="15"/>
     </row>
     <row r="605" spans="1:2">
@@ -17967,7 +17964,7 @@
       <c r="B605" s="15"/>
     </row>
     <row r="606" spans="1:2">
-      <c r="A606" s="62"/>
+      <c r="A606" s="60"/>
       <c r="B606" s="15"/>
     </row>
     <row r="607" spans="1:2">
@@ -17975,7 +17972,7 @@
       <c r="B607" s="15"/>
     </row>
     <row r="608" spans="1:2">
-      <c r="A608" s="62"/>
+      <c r="A608" s="60"/>
       <c r="B608" s="15"/>
     </row>
     <row r="609" spans="1:2">
@@ -17983,7 +17980,7 @@
       <c r="B609" s="15"/>
     </row>
     <row r="610" spans="1:2">
-      <c r="A610" s="62"/>
+      <c r="A610" s="60"/>
       <c r="B610" s="15"/>
     </row>
     <row r="611" spans="1:2">
@@ -17991,7 +17988,7 @@
       <c r="B611" s="15"/>
     </row>
     <row r="612" spans="1:2">
-      <c r="A612" s="62"/>
+      <c r="A612" s="60"/>
       <c r="B612" s="15"/>
     </row>
     <row r="613" spans="1:2">
@@ -17999,7 +17996,7 @@
       <c r="B613" s="15"/>
     </row>
     <row r="614" spans="1:2">
-      <c r="A614" s="62"/>
+      <c r="A614" s="60"/>
       <c r="B614" s="15"/>
     </row>
     <row r="615" spans="1:2">
@@ -18007,7 +18004,7 @@
       <c r="B615" s="15"/>
     </row>
     <row r="616" spans="1:2">
-      <c r="A616" s="62"/>
+      <c r="A616" s="60"/>
       <c r="B616" s="15"/>
     </row>
     <row r="617" spans="1:2">
@@ -18015,421 +18012,421 @@
       <c r="B617" s="15"/>
     </row>
     <row r="618" spans="1:1">
-      <c r="A618" s="63"/>
+      <c r="A618" s="61"/>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" s="12"/>
     </row>
     <row r="620" spans="1:1">
-      <c r="A620" s="63"/>
+      <c r="A620" s="61"/>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" s="12"/>
     </row>
     <row r="622" spans="1:1">
-      <c r="A622" s="63"/>
+      <c r="A622" s="61"/>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" s="12"/>
     </row>
     <row r="624" spans="1:1">
-      <c r="A624" s="63"/>
+      <c r="A624" s="61"/>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" s="12"/>
     </row>
     <row r="626" spans="1:1">
-      <c r="A626" s="63"/>
+      <c r="A626" s="61"/>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" s="12"/>
     </row>
     <row r="628" spans="1:1">
-      <c r="A628" s="63"/>
+      <c r="A628" s="61"/>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" s="12"/>
     </row>
     <row r="630" spans="1:1">
-      <c r="A630" s="63"/>
+      <c r="A630" s="61"/>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" s="12"/>
     </row>
     <row r="632" spans="1:1">
-      <c r="A632" s="63"/>
+      <c r="A632" s="61"/>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" s="12"/>
     </row>
     <row r="634" spans="1:1">
-      <c r="A634" s="63"/>
+      <c r="A634" s="61"/>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" s="12"/>
     </row>
     <row r="636" spans="1:1">
-      <c r="A636" s="63"/>
+      <c r="A636" s="61"/>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" s="12"/>
     </row>
     <row r="638" spans="1:1">
-      <c r="A638" s="63"/>
+      <c r="A638" s="61"/>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" s="12"/>
     </row>
     <row r="640" spans="1:1">
-      <c r="A640" s="63"/>
+      <c r="A640" s="61"/>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" s="12"/>
     </row>
     <row r="642" spans="1:1">
-      <c r="A642" s="63"/>
+      <c r="A642" s="61"/>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" s="12"/>
     </row>
     <row r="644" spans="1:1">
-      <c r="A644" s="63"/>
+      <c r="A644" s="61"/>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" s="12"/>
     </row>
     <row r="646" spans="1:1">
-      <c r="A646" s="63"/>
+      <c r="A646" s="61"/>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" s="12"/>
     </row>
     <row r="648" spans="1:1">
-      <c r="A648" s="63"/>
+      <c r="A648" s="61"/>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" s="12"/>
     </row>
     <row r="650" spans="1:1">
-      <c r="A650" s="63"/>
+      <c r="A650" s="61"/>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" s="12"/>
     </row>
     <row r="652" spans="1:1">
-      <c r="A652" s="63"/>
+      <c r="A652" s="61"/>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" s="12"/>
     </row>
     <row r="654" spans="1:1">
-      <c r="A654" s="63"/>
+      <c r="A654" s="61"/>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" s="12"/>
     </row>
     <row r="656" spans="1:1">
-      <c r="A656" s="63"/>
+      <c r="A656" s="61"/>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" s="12"/>
     </row>
     <row r="658" spans="1:1">
-      <c r="A658" s="63"/>
+      <c r="A658" s="61"/>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" s="12"/>
     </row>
     <row r="660" spans="1:1">
-      <c r="A660" s="63"/>
+      <c r="A660" s="61"/>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" s="12"/>
     </row>
     <row r="662" spans="1:1">
-      <c r="A662" s="63"/>
+      <c r="A662" s="61"/>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" s="12"/>
     </row>
     <row r="664" spans="1:1">
-      <c r="A664" s="63"/>
+      <c r="A664" s="61"/>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" s="12"/>
     </row>
     <row r="666" spans="1:1">
-      <c r="A666" s="63"/>
+      <c r="A666" s="61"/>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" s="12"/>
     </row>
     <row r="668" spans="1:1">
-      <c r="A668" s="63"/>
+      <c r="A668" s="61"/>
     </row>
     <row r="669" spans="1:1">
       <c r="A669" s="12"/>
     </row>
     <row r="670" spans="1:1">
-      <c r="A670" s="63"/>
+      <c r="A670" s="61"/>
     </row>
     <row r="671" spans="1:1">
       <c r="A671" s="12"/>
     </row>
     <row r="672" spans="1:1">
-      <c r="A672" s="63"/>
+      <c r="A672" s="61"/>
     </row>
     <row r="673" spans="1:1">
       <c r="A673" s="12"/>
     </row>
     <row r="674" spans="1:1">
-      <c r="A674" s="63"/>
+      <c r="A674" s="61"/>
     </row>
     <row r="675" spans="1:1">
       <c r="A675" s="12"/>
     </row>
     <row r="676" spans="1:1">
-      <c r="A676" s="63"/>
+      <c r="A676" s="61"/>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" s="12"/>
     </row>
     <row r="678" spans="1:1">
-      <c r="A678" s="63"/>
+      <c r="A678" s="61"/>
     </row>
     <row r="679" spans="1:1">
       <c r="A679" s="12"/>
     </row>
     <row r="680" spans="1:1">
-      <c r="A680" s="63"/>
+      <c r="A680" s="61"/>
     </row>
     <row r="681" spans="1:1">
       <c r="A681" s="12"/>
     </row>
     <row r="682" spans="1:1">
-      <c r="A682" s="63"/>
+      <c r="A682" s="61"/>
     </row>
     <row r="683" spans="1:1">
       <c r="A683" s="12"/>
     </row>
     <row r="684" spans="1:1">
-      <c r="A684" s="63"/>
+      <c r="A684" s="61"/>
     </row>
     <row r="685" spans="1:1">
       <c r="A685" s="12"/>
     </row>
     <row r="686" spans="1:1">
-      <c r="A686" s="63"/>
+      <c r="A686" s="61"/>
     </row>
     <row r="687" spans="1:1">
       <c r="A687" s="12"/>
     </row>
     <row r="688" spans="1:1">
-      <c r="A688" s="63"/>
+      <c r="A688" s="61"/>
     </row>
     <row r="689" spans="1:1">
       <c r="A689" s="12"/>
     </row>
     <row r="690" spans="1:1">
-      <c r="A690" s="63"/>
+      <c r="A690" s="61"/>
     </row>
     <row r="691" spans="1:1">
       <c r="A691" s="12"/>
     </row>
     <row r="692" spans="1:1">
-      <c r="A692" s="63"/>
+      <c r="A692" s="61"/>
     </row>
     <row r="693" spans="1:1">
       <c r="A693" s="12"/>
     </row>
     <row r="694" spans="1:1">
-      <c r="A694" s="63"/>
+      <c r="A694" s="61"/>
     </row>
     <row r="695" spans="1:1">
       <c r="A695" s="12"/>
     </row>
     <row r="696" spans="1:1">
-      <c r="A696" s="63"/>
+      <c r="A696" s="61"/>
     </row>
     <row r="697" spans="1:1">
       <c r="A697" s="12"/>
     </row>
     <row r="698" spans="1:1">
-      <c r="A698" s="63"/>
+      <c r="A698" s="61"/>
     </row>
     <row r="699" spans="1:1">
       <c r="A699" s="12"/>
     </row>
     <row r="700" spans="1:1">
-      <c r="A700" s="63"/>
+      <c r="A700" s="61"/>
     </row>
     <row r="701" spans="1:1">
       <c r="A701" s="12"/>
     </row>
     <row r="702" spans="1:1">
-      <c r="A702" s="63"/>
+      <c r="A702" s="61"/>
     </row>
     <row r="703" spans="1:1">
       <c r="A703" s="12"/>
     </row>
     <row r="704" spans="1:1">
-      <c r="A704" s="63"/>
+      <c r="A704" s="61"/>
     </row>
     <row r="705" spans="1:1">
       <c r="A705" s="12"/>
     </row>
     <row r="706" spans="1:1">
-      <c r="A706" s="63"/>
+      <c r="A706" s="61"/>
     </row>
     <row r="707" spans="1:1">
       <c r="A707" s="12"/>
     </row>
     <row r="708" spans="1:1">
-      <c r="A708" s="63"/>
+      <c r="A708" s="61"/>
     </row>
     <row r="709" spans="1:1">
       <c r="A709" s="12"/>
     </row>
     <row r="710" spans="1:1">
-      <c r="A710" s="63"/>
+      <c r="A710" s="61"/>
     </row>
     <row r="711" spans="1:1">
       <c r="A711" s="12"/>
     </row>
     <row r="712" spans="1:1">
-      <c r="A712" s="63"/>
+      <c r="A712" s="61"/>
     </row>
     <row r="713" spans="1:1">
       <c r="A713" s="12"/>
     </row>
     <row r="714" spans="1:1">
-      <c r="A714" s="63"/>
+      <c r="A714" s="61"/>
     </row>
     <row r="715" spans="1:1">
       <c r="A715" s="12"/>
     </row>
     <row r="716" spans="1:1">
-      <c r="A716" s="63"/>
+      <c r="A716" s="61"/>
     </row>
     <row r="717" spans="1:1">
       <c r="A717" s="12"/>
     </row>
     <row r="718" spans="1:1">
-      <c r="A718" s="63"/>
+      <c r="A718" s="61"/>
     </row>
     <row r="719" spans="1:1">
       <c r="A719" s="12"/>
     </row>
     <row r="720" spans="1:1">
-      <c r="A720" s="63"/>
+      <c r="A720" s="61"/>
     </row>
     <row r="721" spans="1:1">
       <c r="A721" s="12"/>
     </row>
     <row r="722" spans="1:1">
-      <c r="A722" s="63"/>
+      <c r="A722" s="61"/>
     </row>
     <row r="723" spans="1:1">
       <c r="A723" s="12"/>
     </row>
     <row r="724" spans="1:1">
-      <c r="A724" s="63"/>
+      <c r="A724" s="61"/>
     </row>
     <row r="725" spans="1:1">
       <c r="A725" s="12"/>
     </row>
     <row r="726" spans="1:1">
-      <c r="A726" s="63"/>
+      <c r="A726" s="61"/>
     </row>
     <row r="727" spans="1:1">
       <c r="A727" s="12"/>
     </row>
     <row r="728" spans="1:1">
-      <c r="A728" s="63"/>
+      <c r="A728" s="61"/>
     </row>
     <row r="729" spans="1:1">
       <c r="A729" s="12"/>
     </row>
     <row r="730" spans="1:1">
-      <c r="A730" s="63"/>
+      <c r="A730" s="61"/>
     </row>
     <row r="731" spans="1:1">
       <c r="A731" s="12"/>
     </row>
     <row r="732" spans="1:1">
-      <c r="A732" s="63"/>
+      <c r="A732" s="61"/>
     </row>
     <row r="733" spans="1:1">
       <c r="A733" s="12"/>
     </row>
     <row r="734" spans="1:1">
-      <c r="A734" s="63"/>
+      <c r="A734" s="61"/>
     </row>
     <row r="735" spans="1:1">
       <c r="A735" s="12"/>
     </row>
     <row r="736" spans="1:1">
-      <c r="A736" s="63"/>
+      <c r="A736" s="61"/>
     </row>
     <row r="737" spans="1:1">
       <c r="A737" s="12"/>
     </row>
     <row r="738" spans="1:1">
-      <c r="A738" s="63"/>
+      <c r="A738" s="61"/>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" s="12"/>
     </row>
     <row r="740" spans="1:1">
-      <c r="A740" s="63"/>
+      <c r="A740" s="61"/>
     </row>
     <row r="741" spans="1:1">
       <c r="A741" s="12"/>
     </row>
     <row r="742" spans="1:1">
-      <c r="A742" s="63"/>
+      <c r="A742" s="61"/>
     </row>
     <row r="743" spans="1:1">
       <c r="A743" s="12"/>
     </row>
     <row r="744" spans="1:1">
-      <c r="A744" s="63"/>
+      <c r="A744" s="61"/>
     </row>
     <row r="745" spans="1:1">
       <c r="A745" s="12"/>
     </row>
     <row r="746" spans="1:1">
-      <c r="A746" s="63"/>
+      <c r="A746" s="61"/>
     </row>
     <row r="747" spans="1:1">
       <c r="A747" s="12"/>
     </row>
     <row r="748" spans="1:1">
-      <c r="A748" s="63"/>
+      <c r="A748" s="61"/>
     </row>
     <row r="749" spans="1:1">
       <c r="A749" s="12"/>
     </row>
     <row r="750" spans="1:1">
-      <c r="A750" s="63"/>
+      <c r="A750" s="61"/>
     </row>
     <row r="751" spans="1:1">
       <c r="A751" s="12"/>
     </row>
     <row r="752" spans="1:1">
-      <c r="A752" s="63"/>
+      <c r="A752" s="61"/>
     </row>
     <row r="753" spans="1:1">
       <c r="A753" s="12"/>
     </row>
     <row r="754" spans="1:1">
-      <c r="A754" s="63"/>
+      <c r="A754" s="61"/>
     </row>
     <row r="755" spans="1:1">
       <c r="A755" s="12"/>
     </row>
     <row r="756" spans="1:1">
-      <c r="A756" s="63"/>
+      <c r="A756" s="61"/>
     </row>
     <row r="757" spans="1:1">
       <c r="A757" s="12"/>
@@ -18455,8 +18452,8 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -18576,9 +18573,15 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3">
+        <v>43099</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2"/>

--- a/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -1998,6 +1998,9 @@
   </si>
   <si>
     <t>捞王锅物料理(五角场万达店）开业驻店</t>
+  </si>
+  <si>
+    <t>香天下火锅石路店上线</t>
   </si>
   <si>
     <t>香天下火锅石路店开业驻店</t>
@@ -2008,11 +2011,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -2091,14 +2094,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2106,9 +2101,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2122,8 +2146,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2143,43 +2176,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2200,42 +2199,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2246,10 +2228,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2310,13 +2313,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2334,31 +2349,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2376,7 +2373,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2388,43 +2415,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2442,37 +2457,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2844,21 +2847,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2876,8 +2864,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2893,26 +2896,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2940,16 +2923,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2958,144 +2961,144 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -18453,7 +18456,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -18584,9 +18587,15 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3">
+        <v>43100</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2"/>

--- a/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="1" r:id="rId1"/>
@@ -2011,11 +2011,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -2101,8 +2101,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2116,7 +2156,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2132,17 +2180,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2163,64 +2203,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2234,25 +2236,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2313,25 +2313,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2349,7 +2337,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2361,49 +2457,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2415,67 +2475,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2846,17 +2846,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2866,6 +2866,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2885,17 +2900,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2910,27 +2921,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2949,10 +2949,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2961,144 +2961,144 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4236,7 +4236,7 @@
   <sheetPr/>
   <dimension ref="A1:P757"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C266" sqref="C266"/>
@@ -18455,7 +18455,7 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>

--- a/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="19770" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -1421,9 +1421,6 @@
     <t>卞元海</t>
   </si>
   <si>
-    <t>老品牌</t>
-  </si>
-  <si>
     <t>悸动(闵行罗秀路店)</t>
   </si>
   <si>
@@ -1967,7 +1964,205 @@
     <t>蔡芳</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                                                                                                                                                                                                                              </t>
+    <t>2周</t>
+  </si>
+  <si>
+    <t>供应链</t>
+  </si>
+  <si>
+    <t>苏州泰迪餐饮有限公司</t>
+  </si>
+  <si>
+    <t>SteiffLadyCafe</t>
+  </si>
+  <si>
+    <t>王丽维</t>
+  </si>
+  <si>
+    <t>库管</t>
+  </si>
+  <si>
+    <t>Steiff café</t>
+  </si>
+  <si>
+    <t>Steiff café（万象城店）</t>
+  </si>
+  <si>
+    <t>香天下火锅石路店</t>
+  </si>
+  <si>
+    <t>雷静</t>
+  </si>
+  <si>
+    <t>财务</t>
+  </si>
+  <si>
+    <t>悸动(襄阳樊城家乐福店)</t>
+  </si>
+  <si>
+    <t>李华康</t>
+  </si>
+  <si>
+    <t>悸动(松江同乐路店)</t>
+  </si>
+  <si>
+    <t>孙文斌</t>
+  </si>
+  <si>
+    <t>悸动(苏州木东路店)</t>
+  </si>
+  <si>
+    <t>刘先明</t>
+  </si>
+  <si>
+    <t>成都</t>
+  </si>
+  <si>
+    <t>悸动(成都武侯吾悦广场店)</t>
+  </si>
+  <si>
+    <t>悸动(徐汇江安路店)</t>
+  </si>
+  <si>
+    <t>鲍江明</t>
+  </si>
+  <si>
+    <t>悸动(盐城滨海玉龙路店)</t>
+  </si>
+  <si>
+    <t>张孟</t>
+  </si>
+  <si>
+    <t>悸动(常州东安镇店)</t>
+  </si>
+  <si>
+    <t>刘烨文</t>
+  </si>
+  <si>
+    <t>悸动(扬州文汇东路店)</t>
+  </si>
+  <si>
+    <t>赵贝贝</t>
+  </si>
+  <si>
+    <t>悸动(洪山高级中学店)</t>
+  </si>
+  <si>
+    <t>周双</t>
+  </si>
+  <si>
+    <t>悸动(武汉江腾广场店)</t>
+  </si>
+  <si>
+    <t>徐青</t>
+  </si>
+  <si>
+    <t>悸动(十堰人民北路)</t>
+  </si>
+  <si>
+    <t>张亮</t>
+  </si>
+  <si>
+    <t>银川</t>
+  </si>
+  <si>
+    <t>悸动(宁夏文化宫广场店)</t>
+  </si>
+  <si>
+    <t>刘文虎</t>
+  </si>
+  <si>
+    <t>悸动(奉贤金汇店)</t>
+  </si>
+  <si>
+    <t>龚月明</t>
+  </si>
+  <si>
+    <t>悸动(太仓锦州路店)</t>
+  </si>
+  <si>
+    <t>黄晗</t>
+  </si>
+  <si>
+    <t>悸动(松江九新公路店)</t>
+  </si>
+  <si>
+    <t>许雯晴</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>悸动(北京邮电大学南门店)</t>
+  </si>
+  <si>
+    <t>宋凯杰</t>
+  </si>
+  <si>
+    <t>马鞍山</t>
+  </si>
+  <si>
+    <t>悸动(马鞍山安德利广场店)</t>
+  </si>
+  <si>
+    <t>唐源</t>
+  </si>
+  <si>
+    <t>悸动(诸暨永利吾悦广场店)</t>
+  </si>
+  <si>
+    <t>周正立</t>
+  </si>
+  <si>
+    <t>悸动(宿迁哥伦布广场店)</t>
+  </si>
+  <si>
+    <t>滕国飞</t>
+  </si>
+  <si>
+    <t>悸动(南昌上海路店)</t>
+  </si>
+  <si>
+    <t>向涛</t>
+  </si>
+  <si>
+    <t>一芳(南京石鼓路店)</t>
+  </si>
+  <si>
+    <t>杨云</t>
+  </si>
+  <si>
+    <t>一芳(成都鸿云悦街店)</t>
+  </si>
+  <si>
+    <t>钟小翠</t>
+  </si>
+  <si>
+    <t>一芳(北京朝阳店)</t>
+  </si>
+  <si>
+    <t>王华楠</t>
+  </si>
+  <si>
+    <t>一芳(柳州五星步行街店)</t>
+  </si>
+  <si>
+    <t>沈涛</t>
+  </si>
+  <si>
+    <t>深圳</t>
+  </si>
+  <si>
+    <t>一芳(深圳海上世界店)</t>
+  </si>
+  <si>
+    <t>谢丽斯</t>
+  </si>
+  <si>
+    <t>一芳(郑州丹尼斯大卫城店)</t>
+  </si>
+  <si>
+    <t>崔天一</t>
   </si>
   <si>
     <t>姓名</t>
@@ -2011,13 +2206,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2097,15 +2292,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2124,11 +2311,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2140,9 +2327,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2157,46 +2359,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2223,8 +2385,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2247,6 +2433,22 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2313,13 +2515,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2332,6 +2534,78 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2355,73 +2629,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2434,18 +2642,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2469,13 +2665,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2846,41 +3048,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2896,17 +3068,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2943,16 +3104,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2961,149 +3163,149 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3277,6 +3479,39 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3785,440 +4020,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="94" t="s">
+      <c r="I2" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="95" t="s">
+      <c r="J2" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="96" t="s">
+      <c r="K2" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="97" t="s">
+      <c r="L2" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="98" t="s">
+      <c r="M2" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="99" t="s">
+      <c r="N2" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="64"/>
-      <c r="B3" s="71" t="s">
+      <c r="A3" s="75"/>
+      <c r="B3" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74">
+      <c r="D3" s="84"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75">
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="101"/>
-      <c r="K3" s="102" t="e">
+      <c r="J3" s="112"/>
+      <c r="K3" s="113" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="103">
+      <c r="L3" s="114">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="104">
+      <c r="M3" s="115">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="105" t="e">
+      <c r="N3" s="116" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="76"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="78" t="s">
+      <c r="A4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80">
+      <c r="D4" s="90"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="81">
+      <c r="G4" s="92"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="106"/>
-      <c r="K4" s="102" t="e">
+      <c r="J4" s="117"/>
+      <c r="K4" s="113" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="103">
+      <c r="L4" s="114">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="104">
+      <c r="M4" s="115">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="105" t="e">
+      <c r="N4" s="116" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="76"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="78" t="s">
+      <c r="A5" s="87"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="79"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80">
+      <c r="D5" s="90"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="81">
+      <c r="G5" s="92"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="106"/>
-      <c r="K5" s="102" t="e">
+      <c r="J5" s="117"/>
+      <c r="K5" s="113" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="103">
+      <c r="L5" s="114">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="104">
+      <c r="M5" s="115">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="105" t="e">
+      <c r="N5" s="116" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="111"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="76"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="78" t="s">
+      <c r="A6" s="87"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80">
+      <c r="D6" s="90"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="81"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="81">
+      <c r="G6" s="92"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="106"/>
-      <c r="K6" s="102" t="e">
+      <c r="J6" s="117"/>
+      <c r="K6" s="113" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="103">
+      <c r="L6" s="114">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="104">
+      <c r="M6" s="115">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="105" t="e">
+      <c r="N6" s="116" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="76"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80">
+      <c r="A7" s="87"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="89" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="90"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="81">
+      <c r="G7" s="92"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="106"/>
-      <c r="K7" s="102" t="e">
+      <c r="J7" s="117"/>
+      <c r="K7" s="113" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="103">
+      <c r="L7" s="114">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="104">
+      <c r="M7" s="115">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="105" t="e">
+      <c r="N7" s="116" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="76"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="78" t="s">
+      <c r="A8" s="87"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="79"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80">
+      <c r="D8" s="90"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="81">
+      <c r="G8" s="92"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="106"/>
-      <c r="K8" s="102" t="e">
+      <c r="J8" s="117"/>
+      <c r="K8" s="113" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="103">
+      <c r="L8" s="114">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="104">
+      <c r="M8" s="115">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="105" t="e">
+      <c r="N8" s="116" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="100"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="111"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="76"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="78" t="s">
+      <c r="A9" s="87"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80">
+      <c r="D9" s="90"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="81"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="81">
+      <c r="G9" s="92"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="106"/>
-      <c r="K9" s="102" t="e">
+      <c r="J9" s="117"/>
+      <c r="K9" s="113" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="103">
+      <c r="L9" s="114">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="104">
+      <c r="M9" s="115">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="105" t="e">
+      <c r="N9" s="116" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="100"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="76"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="82" t="s">
+      <c r="A10" s="87"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="83"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="85">
+      <c r="D10" s="94"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="86"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="86">
+      <c r="G10" s="97"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="97">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="107"/>
-      <c r="K10" s="108" t="e">
+      <c r="J10" s="118"/>
+      <c r="K10" s="119" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="109">
+      <c r="L10" s="120">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="110">
+      <c r="M10" s="121">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="111" t="e">
+      <c r="N10" s="122" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="100"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="88"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="90" t="s">
+      <c r="A11" s="99"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="91">
+      <c r="D11" s="102">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="91">
+      <c r="E11" s="102">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="92">
+      <c r="F11" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="91">
+      <c r="G11" s="102">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="91">
+      <c r="H11" s="102">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="92">
+      <c r="I11" s="103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="91">
+      <c r="J11" s="102">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="112" t="e">
+      <c r="K11" s="123" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="92">
+      <c r="L11" s="103">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="92">
+      <c r="M11" s="103">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="113" t="e">
+      <c r="N11" s="124" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="100"/>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="100"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4237,9 +4472,9 @@
   <dimension ref="A1:P757"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C266" sqref="C266"/>
+      <selection pane="bottomLeft" activeCell="D315" sqref="D315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8513,7 +8748,7 @@
       <c r="N95" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O95" s="114" t="s">
+      <c r="O95" s="125" t="s">
         <v>270</v>
       </c>
       <c r="P95" s="15" t="s">
@@ -12445,8 +12680,8 @@
       <c r="O180" s="42">
         <v>15851899046</v>
       </c>
-      <c r="P180" s="45" t="s">
-        <v>452</v>
+      <c r="P180" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -12475,19 +12710,19 @@
         <v>76103683</v>
       </c>
       <c r="I181" s="49" t="s">
+        <v>452</v>
+      </c>
+      <c r="J181" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K181" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L181" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M181" s="50" t="s">
         <v>453</v>
-      </c>
-      <c r="J181" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K181" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L181" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M181" s="50" t="s">
-        <v>454</v>
       </c>
       <c r="N181" s="45" t="s">
         <v>46</v>
@@ -12495,8 +12730,8 @@
       <c r="O181" s="42">
         <v>18917398507</v>
       </c>
-      <c r="P181" s="45" t="s">
-        <v>452</v>
+      <c r="P181" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -12525,19 +12760,19 @@
         <v>76106268</v>
       </c>
       <c r="I182" s="42" t="s">
+        <v>454</v>
+      </c>
+      <c r="J182" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K182" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L182" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M182" s="46" t="s">
         <v>455</v>
-      </c>
-      <c r="J182" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K182" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L182" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M182" s="46" t="s">
-        <v>456</v>
       </c>
       <c r="N182" s="45" t="s">
         <v>46</v>
@@ -12545,8 +12780,8 @@
       <c r="O182" s="42">
         <v>15057999044</v>
       </c>
-      <c r="P182" s="45" t="s">
-        <v>452</v>
+      <c r="P182" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -12575,19 +12810,19 @@
         <v>76106175</v>
       </c>
       <c r="I183" s="42" t="s">
+        <v>456</v>
+      </c>
+      <c r="J183" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K183" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L183" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M183" s="42" t="s">
         <v>457</v>
-      </c>
-      <c r="J183" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K183" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L183" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M183" s="42" t="s">
-        <v>458</v>
       </c>
       <c r="N183" s="45" t="s">
         <v>46</v>
@@ -12595,8 +12830,8 @@
       <c r="O183" s="42">
         <v>13814547010</v>
       </c>
-      <c r="P183" s="45" t="s">
-        <v>452</v>
+      <c r="P183" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -12625,19 +12860,19 @@
         <v>76078788</v>
       </c>
       <c r="I184" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="J184" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K184" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L184" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M184" s="46" t="s">
         <v>459</v>
-      </c>
-      <c r="J184" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K184" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L184" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M184" s="46" t="s">
-        <v>460</v>
       </c>
       <c r="N184" s="45" t="s">
         <v>46</v>
@@ -12645,8 +12880,8 @@
       <c r="O184" s="42">
         <v>15618523690</v>
       </c>
-      <c r="P184" s="45" t="s">
-        <v>452</v>
+      <c r="P184" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -12675,19 +12910,19 @@
         <v>76105953</v>
       </c>
       <c r="I185" s="42" t="s">
+        <v>460</v>
+      </c>
+      <c r="J185" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K185" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L185" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M185" s="41" t="s">
         <v>461</v>
-      </c>
-      <c r="J185" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K185" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L185" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M185" s="41" t="s">
-        <v>462</v>
       </c>
       <c r="N185" s="45" t="s">
         <v>46</v>
@@ -12695,8 +12930,8 @@
       <c r="O185" s="42">
         <v>15189740111</v>
       </c>
-      <c r="P185" s="45" t="s">
-        <v>452</v>
+      <c r="P185" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -12725,19 +12960,19 @@
         <v>76087615</v>
       </c>
       <c r="I186" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="J186" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K186" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L186" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M186" s="46" t="s">
         <v>463</v>
-      </c>
-      <c r="J186" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K186" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L186" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M186" s="46" t="s">
-        <v>464</v>
       </c>
       <c r="N186" s="45" t="s">
         <v>46</v>
@@ -12745,8 +12980,8 @@
       <c r="O186" s="42">
         <v>15298339996</v>
       </c>
-      <c r="P186" s="45" t="s">
-        <v>452</v>
+      <c r="P186" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -12769,25 +13004,25 @@
         <v>53</v>
       </c>
       <c r="G187" s="42" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H187" s="42">
         <v>76105508</v>
       </c>
       <c r="I187" s="42" t="s">
+        <v>465</v>
+      </c>
+      <c r="J187" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K187" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L187" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M187" s="50" t="s">
         <v>466</v>
-      </c>
-      <c r="J187" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K187" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L187" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M187" s="50" t="s">
-        <v>467</v>
       </c>
       <c r="N187" s="45" t="s">
         <v>46</v>
@@ -12795,8 +13030,8 @@
       <c r="O187" s="42">
         <v>15726283872</v>
       </c>
-      <c r="P187" s="45" t="s">
-        <v>452</v>
+      <c r="P187" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -12825,19 +13060,19 @@
         <v>76105323</v>
       </c>
       <c r="I188" s="42" t="s">
+        <v>467</v>
+      </c>
+      <c r="J188" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K188" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L188" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M188" s="42" t="s">
         <v>468</v>
-      </c>
-      <c r="J188" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K188" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L188" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M188" s="42" t="s">
-        <v>469</v>
       </c>
       <c r="N188" s="45" t="s">
         <v>46</v>
@@ -12845,8 +13080,8 @@
       <c r="O188" s="42">
         <v>18701775826</v>
       </c>
-      <c r="P188" s="45" t="s">
-        <v>452</v>
+      <c r="P188" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -12875,19 +13110,19 @@
         <v>76105578</v>
       </c>
       <c r="I189" s="42" t="s">
+        <v>469</v>
+      </c>
+      <c r="J189" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K189" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L189" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M189" s="41" t="s">
         <v>470</v>
-      </c>
-      <c r="J189" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K189" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L189" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M189" s="41" t="s">
-        <v>471</v>
       </c>
       <c r="N189" s="45" t="s">
         <v>46</v>
@@ -12895,8 +13130,8 @@
       <c r="O189" s="42">
         <v>13661533442</v>
       </c>
-      <c r="P189" s="45" t="s">
-        <v>452</v>
+      <c r="P189" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -12925,19 +13160,19 @@
         <v>76106131</v>
       </c>
       <c r="I190" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="J190" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K190" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L190" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M190" s="42" t="s">
         <v>472</v>
-      </c>
-      <c r="J190" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K190" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L190" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M190" s="42" t="s">
-        <v>473</v>
       </c>
       <c r="N190" s="45" t="s">
         <v>46</v>
@@ -12945,8 +13180,8 @@
       <c r="O190" s="42">
         <v>13813557044</v>
       </c>
-      <c r="P190" s="45" t="s">
-        <v>452</v>
+      <c r="P190" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -12975,19 +13210,19 @@
         <v>76099661</v>
       </c>
       <c r="I191" s="42" t="s">
+        <v>473</v>
+      </c>
+      <c r="J191" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K191" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L191" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M191" s="42" t="s">
         <v>474</v>
-      </c>
-      <c r="J191" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K191" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L191" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M191" s="42" t="s">
-        <v>475</v>
       </c>
       <c r="N191" s="45" t="s">
         <v>46</v>
@@ -12995,8 +13230,8 @@
       <c r="O191" s="42">
         <v>13671677897</v>
       </c>
-      <c r="P191" s="45" t="s">
-        <v>452</v>
+      <c r="P191" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -13025,19 +13260,19 @@
         <v>76101937</v>
       </c>
       <c r="I192" s="49" t="s">
+        <v>475</v>
+      </c>
+      <c r="J192" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K192" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L192" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M192" s="46" t="s">
         <v>476</v>
-      </c>
-      <c r="J192" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K192" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L192" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M192" s="46" t="s">
-        <v>477</v>
       </c>
       <c r="N192" s="45" t="s">
         <v>46</v>
@@ -13045,8 +13280,8 @@
       <c r="O192" s="42">
         <v>18115600561</v>
       </c>
-      <c r="P192" s="45" t="s">
-        <v>452</v>
+      <c r="P192" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -13075,19 +13310,19 @@
         <v>76108189</v>
       </c>
       <c r="I193" s="42" t="s">
+        <v>477</v>
+      </c>
+      <c r="J193" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K193" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L193" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M193" s="42" t="s">
         <v>478</v>
-      </c>
-      <c r="J193" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K193" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L193" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M193" s="42" t="s">
-        <v>479</v>
       </c>
       <c r="N193" s="45" t="s">
         <v>46</v>
@@ -13095,8 +13330,8 @@
       <c r="O193" s="42">
         <v>13986052837</v>
       </c>
-      <c r="P193" s="45" t="s">
-        <v>452</v>
+      <c r="P193" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -13125,19 +13360,19 @@
         <v>76108187</v>
       </c>
       <c r="I194" s="49" t="s">
+        <v>479</v>
+      </c>
+      <c r="J194" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K194" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L194" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M194" s="42" t="s">
         <v>480</v>
-      </c>
-      <c r="J194" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K194" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L194" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M194" s="42" t="s">
-        <v>481</v>
       </c>
       <c r="N194" s="45" t="s">
         <v>46</v>
@@ -13145,8 +13380,8 @@
       <c r="O194" s="42">
         <v>13761097276</v>
       </c>
-      <c r="P194" s="45" t="s">
-        <v>452</v>
+      <c r="P194" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -13175,19 +13410,19 @@
         <v>76108196</v>
       </c>
       <c r="I195" s="49" t="s">
+        <v>481</v>
+      </c>
+      <c r="J195" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K195" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L195" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M195" s="42" t="s">
         <v>482</v>
-      </c>
-      <c r="J195" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K195" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L195" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M195" s="42" t="s">
-        <v>483</v>
       </c>
       <c r="N195" s="45" t="s">
         <v>46</v>
@@ -13195,8 +13430,8 @@
       <c r="O195" s="42">
         <v>13501863833</v>
       </c>
-      <c r="P195" s="45" t="s">
-        <v>452</v>
+      <c r="P195" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="196" spans="1:16">
@@ -13225,19 +13460,19 @@
         <v>76108636</v>
       </c>
       <c r="I196" s="49" t="s">
+        <v>483</v>
+      </c>
+      <c r="J196" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K196" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L196" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M196" s="42" t="s">
         <v>484</v>
-      </c>
-      <c r="J196" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K196" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L196" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M196" s="42" t="s">
-        <v>485</v>
       </c>
       <c r="N196" s="45" t="s">
         <v>46</v>
@@ -13245,8 +13480,8 @@
       <c r="O196" s="42">
         <v>18706118030</v>
       </c>
-      <c r="P196" s="45" t="s">
-        <v>452</v>
+      <c r="P196" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -13269,7 +13504,7 @@
         <v>53</v>
       </c>
       <c r="G197" s="42" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H197" s="42">
         <v>76093718</v>
@@ -13287,7 +13522,7 @@
         <v>17721436606</v>
       </c>
       <c r="M197" s="42" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="N197" s="45" t="s">
         <v>46</v>
@@ -13295,8 +13530,8 @@
       <c r="O197" s="42">
         <v>18457988858</v>
       </c>
-      <c r="P197" s="45" t="s">
-        <v>452</v>
+      <c r="P197" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -13316,7 +13551,7 @@
         <v>136</v>
       </c>
       <c r="F198" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G198" s="8" t="s">
         <v>41</v>
@@ -13325,19 +13560,19 @@
         <v>76108207</v>
       </c>
       <c r="I198" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="J198" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K198" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L198" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M198" s="8" t="s">
         <v>489</v>
-      </c>
-      <c r="J198" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K198" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L198" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M198" s="8" t="s">
-        <v>490</v>
       </c>
       <c r="N198" s="8" t="s">
         <v>372</v>
@@ -13345,8 +13580,8 @@
       <c r="O198" s="12">
         <v>18016233560</v>
       </c>
-      <c r="P198" s="45" t="s">
-        <v>452</v>
+      <c r="P198" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="199" s="5" customFormat="1" spans="1:16">
@@ -13375,7 +13610,7 @@
         <v>76102029</v>
       </c>
       <c r="I199" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J199" s="15" t="s">
         <v>41</v>
@@ -13393,10 +13628,10 @@
         <v>52</v>
       </c>
       <c r="O199" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="P199" s="45" t="s">
-        <v>452</v>
+        <v>491</v>
+      </c>
+      <c r="P199" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="200" s="5" customFormat="1" spans="1:16">
@@ -13422,7 +13657,7 @@
         <v>41</v>
       </c>
       <c r="B201" s="43" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C201" s="34">
         <v>43059</v>
@@ -13443,19 +13678,19 @@
         <v>76109355</v>
       </c>
       <c r="I201" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="J201" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K201" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L201" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M201" s="16" t="s">
         <v>494</v>
-      </c>
-      <c r="J201" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K201" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L201" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M201" s="16" t="s">
-        <v>495</v>
       </c>
       <c r="N201" s="45" t="s">
         <v>46</v>
@@ -13463,8 +13698,8 @@
       <c r="O201" s="16">
         <v>18101920825</v>
       </c>
-      <c r="P201" s="45" t="s">
-        <v>452</v>
+      <c r="P201" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -13472,7 +13707,7 @@
         <v>41</v>
       </c>
       <c r="B202" s="43" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C202" s="34">
         <v>43059</v>
@@ -13487,25 +13722,25 @@
         <v>53</v>
       </c>
       <c r="G202" s="16" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H202" s="16">
         <v>76109282</v>
       </c>
       <c r="I202" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="J202" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K202" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L202" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M202" s="16" t="s">
         <v>497</v>
-      </c>
-      <c r="J202" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K202" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L202" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M202" s="16" t="s">
-        <v>498</v>
       </c>
       <c r="N202" s="45" t="s">
         <v>46</v>
@@ -13513,8 +13748,8 @@
       <c r="O202" s="16">
         <v>13797135055</v>
       </c>
-      <c r="P202" s="45" t="s">
-        <v>452</v>
+      <c r="P202" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -13522,7 +13757,7 @@
         <v>41</v>
       </c>
       <c r="B203" s="43" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C203" s="34">
         <v>43059</v>
@@ -13543,19 +13778,19 @@
         <v>76109125</v>
       </c>
       <c r="I203" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="J203" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K203" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L203" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M203" s="16" t="s">
         <v>499</v>
-      </c>
-      <c r="J203" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K203" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L203" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M203" s="16" t="s">
-        <v>500</v>
       </c>
       <c r="N203" s="45" t="s">
         <v>46</v>
@@ -13563,8 +13798,8 @@
       <c r="O203" s="16">
         <v>13817697556</v>
       </c>
-      <c r="P203" s="45" t="s">
-        <v>452</v>
+      <c r="P203" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -13572,7 +13807,7 @@
         <v>41</v>
       </c>
       <c r="B204" s="43" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C204" s="34">
         <v>43059</v>
@@ -13593,19 +13828,19 @@
         <v>76108852</v>
       </c>
       <c r="I204" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="J204" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K204" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L204" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M204" s="16" t="s">
         <v>501</v>
-      </c>
-      <c r="J204" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K204" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L204" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M204" s="16" t="s">
-        <v>502</v>
       </c>
       <c r="N204" s="45" t="s">
         <v>46</v>
@@ -13613,8 +13848,8 @@
       <c r="O204" s="16">
         <v>13813208418</v>
       </c>
-      <c r="P204" s="45" t="s">
-        <v>452</v>
+      <c r="P204" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -13622,7 +13857,7 @@
         <v>41</v>
       </c>
       <c r="B205" s="43" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C205" s="34">
         <v>43059</v>
@@ -13643,19 +13878,19 @@
         <v>76108722</v>
       </c>
       <c r="I205" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="J205" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K205" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L205" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M205" s="16" t="s">
         <v>503</v>
-      </c>
-      <c r="J205" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K205" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L205" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M205" s="16" t="s">
-        <v>504</v>
       </c>
       <c r="N205" s="45" t="s">
         <v>46</v>
@@ -13663,8 +13898,8 @@
       <c r="O205" s="16">
         <v>13957375306</v>
       </c>
-      <c r="P205" s="45" t="s">
-        <v>452</v>
+      <c r="P205" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -13672,7 +13907,7 @@
         <v>41</v>
       </c>
       <c r="B206" s="43" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C206" s="34">
         <v>43059</v>
@@ -13693,19 +13928,19 @@
         <v>76108830</v>
       </c>
       <c r="I206" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="J206" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K206" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L206" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M206" s="16" t="s">
         <v>505</v>
-      </c>
-      <c r="J206" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K206" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L206" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M206" s="16" t="s">
-        <v>506</v>
       </c>
       <c r="N206" s="45" t="s">
         <v>46</v>
@@ -13713,8 +13948,8 @@
       <c r="O206" s="16">
         <v>13564627898</v>
       </c>
-      <c r="P206" s="45" t="s">
-        <v>452</v>
+      <c r="P206" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -13722,7 +13957,7 @@
         <v>41</v>
       </c>
       <c r="B207" s="43" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C207" s="34">
         <v>43059</v>
@@ -13743,19 +13978,19 @@
         <v>76078016</v>
       </c>
       <c r="I207" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="J207" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K207" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L207" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M207" s="16" t="s">
         <v>507</v>
-      </c>
-      <c r="J207" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K207" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L207" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M207" s="16" t="s">
-        <v>508</v>
       </c>
       <c r="N207" s="45" t="s">
         <v>46</v>
@@ -13763,8 +13998,8 @@
       <c r="O207" s="16">
         <v>13818847791</v>
       </c>
-      <c r="P207" s="45" t="s">
-        <v>452</v>
+      <c r="P207" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -13772,7 +14007,7 @@
         <v>41</v>
       </c>
       <c r="B208" s="43" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C208" s="34">
         <v>43059</v>
@@ -13793,19 +14028,19 @@
         <v>76107261</v>
       </c>
       <c r="I208" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="J208" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K208" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L208" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M208" s="16" t="s">
         <v>509</v>
-      </c>
-      <c r="J208" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K208" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L208" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M208" s="16" t="s">
-        <v>510</v>
       </c>
       <c r="N208" s="45" t="s">
         <v>46</v>
@@ -13813,8 +14048,8 @@
       <c r="O208" s="16">
         <v>18969029778</v>
       </c>
-      <c r="P208" s="45" t="s">
-        <v>452</v>
+      <c r="P208" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -13822,7 +14057,7 @@
         <v>41</v>
       </c>
       <c r="B209" s="43" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C209" s="34">
         <v>43059</v>
@@ -13843,19 +14078,19 @@
         <v>76106757</v>
       </c>
       <c r="I209" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="J209" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K209" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L209" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M209" s="16" t="s">
         <v>511</v>
-      </c>
-      <c r="J209" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K209" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L209" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M209" s="16" t="s">
-        <v>512</v>
       </c>
       <c r="N209" s="45" t="s">
         <v>46</v>
@@ -13863,8 +14098,8 @@
       <c r="O209" s="16">
         <v>13401360033</v>
       </c>
-      <c r="P209" s="45" t="s">
-        <v>452</v>
+      <c r="P209" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -13872,7 +14107,7 @@
         <v>41</v>
       </c>
       <c r="B210" s="43" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C210" s="34">
         <v>43059</v>
@@ -13893,19 +14128,19 @@
         <v>76109690</v>
       </c>
       <c r="I210" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="J210" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K210" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L210" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M210" s="16" t="s">
         <v>513</v>
-      </c>
-      <c r="J210" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K210" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L210" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M210" s="16" t="s">
-        <v>514</v>
       </c>
       <c r="N210" s="45" t="s">
         <v>46</v>
@@ -13913,8 +14148,8 @@
       <c r="O210" s="16">
         <v>17321160037</v>
       </c>
-      <c r="P210" s="45" t="s">
-        <v>452</v>
+      <c r="P210" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="211" spans="1:16">
@@ -13922,7 +14157,7 @@
         <v>41</v>
       </c>
       <c r="B211" s="43" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C211" s="34">
         <v>43059</v>
@@ -13937,25 +14172,25 @@
         <v>53</v>
       </c>
       <c r="G211" s="16" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H211" s="16">
         <v>76103156</v>
       </c>
       <c r="I211" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="J211" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K211" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L211" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M211" s="16" t="s">
         <v>516</v>
-      </c>
-      <c r="J211" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K211" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L211" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M211" s="16" t="s">
-        <v>517</v>
       </c>
       <c r="N211" s="45" t="s">
         <v>46</v>
@@ -13963,8 +14198,8 @@
       <c r="O211" s="16">
         <v>18502221900</v>
       </c>
-      <c r="P211" s="45" t="s">
-        <v>452</v>
+      <c r="P211" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -13972,7 +14207,7 @@
         <v>41</v>
       </c>
       <c r="B212" s="43" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C212" s="34">
         <v>43059</v>
@@ -13993,19 +14228,19 @@
         <v>76091385</v>
       </c>
       <c r="I212" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="J212" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K212" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L212" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M212" s="16" t="s">
         <v>518</v>
-      </c>
-      <c r="J212" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K212" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L212" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M212" s="16" t="s">
-        <v>519</v>
       </c>
       <c r="N212" s="45" t="s">
         <v>46</v>
@@ -14013,8 +14248,8 @@
       <c r="O212" s="16">
         <v>15180424364</v>
       </c>
-      <c r="P212" s="45" t="s">
-        <v>452</v>
+      <c r="P212" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -14022,7 +14257,7 @@
         <v>41</v>
       </c>
       <c r="B213" s="43" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C213" s="34">
         <v>43059</v>
@@ -14043,19 +14278,19 @@
         <v>76108185</v>
       </c>
       <c r="I213" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="J213" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K213" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L213" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M213" s="16" t="s">
         <v>520</v>
-      </c>
-      <c r="J213" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K213" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L213" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M213" s="16" t="s">
-        <v>521</v>
       </c>
       <c r="N213" s="45" t="s">
         <v>46</v>
@@ -14063,8 +14298,8 @@
       <c r="O213" s="16">
         <v>15906823676</v>
       </c>
-      <c r="P213" s="45" t="s">
-        <v>452</v>
+      <c r="P213" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -14072,7 +14307,7 @@
         <v>41</v>
       </c>
       <c r="B214" s="43" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C214" s="34">
         <v>43059</v>
@@ -14093,19 +14328,19 @@
         <v>76109725</v>
       </c>
       <c r="I214" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="J214" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K214" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L214" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M214" s="16" t="s">
         <v>522</v>
-      </c>
-      <c r="J214" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K214" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L214" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M214" s="16" t="s">
-        <v>523</v>
       </c>
       <c r="N214" s="45" t="s">
         <v>46</v>
@@ -14113,8 +14348,8 @@
       <c r="O214" s="16">
         <v>18201889103</v>
       </c>
-      <c r="P214" s="45" t="s">
-        <v>452</v>
+      <c r="P214" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -14122,7 +14357,7 @@
         <v>41</v>
       </c>
       <c r="B215" s="43" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C215" s="34">
         <v>43059</v>
@@ -14143,19 +14378,19 @@
         <v>76109788</v>
       </c>
       <c r="I215" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="J215" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K215" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L215" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M215" s="16" t="s">
         <v>524</v>
-      </c>
-      <c r="J215" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K215" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L215" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M215" s="16" t="s">
-        <v>525</v>
       </c>
       <c r="N215" s="45" t="s">
         <v>46</v>
@@ -14163,8 +14398,8 @@
       <c r="O215" s="16">
         <v>13621598071</v>
       </c>
-      <c r="P215" s="45" t="s">
-        <v>452</v>
+      <c r="P215" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="216" s="5" customFormat="1" spans="1:16">
@@ -14190,7 +14425,7 @@
         <v>41</v>
       </c>
       <c r="B217" s="43" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C217" s="34">
         <v>43069</v>
@@ -14205,25 +14440,25 @@
         <v>413</v>
       </c>
       <c r="G217" s="42" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H217" s="42">
         <v>76105618</v>
       </c>
       <c r="I217" s="42" t="s">
+        <v>527</v>
+      </c>
+      <c r="J217" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K217" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L217" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M217" s="42" t="s">
         <v>528</v>
-      </c>
-      <c r="J217" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K217" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L217" s="15">
-        <v>17721436606</v>
-      </c>
-      <c r="M217" s="42" t="s">
-        <v>529</v>
       </c>
       <c r="N217" s="45" t="s">
         <v>46</v>
@@ -14240,7 +14475,7 @@
         <v>41</v>
       </c>
       <c r="B218" s="43" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C218" s="34">
         <v>43069</v>
@@ -14261,19 +14496,19 @@
         <v>76111099</v>
       </c>
       <c r="I218" s="42" t="s">
+        <v>529</v>
+      </c>
+      <c r="J218" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K218" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L218" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M218" s="42" t="s">
         <v>530</v>
-      </c>
-      <c r="J218" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K218" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L218" s="15">
-        <v>17721436606</v>
-      </c>
-      <c r="M218" s="42" t="s">
-        <v>531</v>
       </c>
       <c r="N218" s="45" t="s">
         <v>46</v>
@@ -14290,7 +14525,7 @@
         <v>41</v>
       </c>
       <c r="B219" s="43" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C219" s="34">
         <v>43069</v>
@@ -14311,19 +14546,19 @@
         <v>76111102</v>
       </c>
       <c r="I219" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="J219" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K219" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L219" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M219" s="42" t="s">
         <v>532</v>
-      </c>
-      <c r="J219" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K219" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L219" s="15">
-        <v>17721436606</v>
-      </c>
-      <c r="M219" s="42" t="s">
-        <v>533</v>
       </c>
       <c r="N219" s="45" t="s">
         <v>46</v>
@@ -14340,7 +14575,7 @@
         <v>41</v>
       </c>
       <c r="B220" s="43" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C220" s="34">
         <v>43069</v>
@@ -14361,25 +14596,25 @@
         <v>76111103</v>
       </c>
       <c r="I220" s="42" t="s">
+        <v>533</v>
+      </c>
+      <c r="J220" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K220" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L220" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M220" s="54" t="s">
         <v>534</v>
       </c>
-      <c r="J220" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K220" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L220" s="15">
-        <v>17721436606</v>
-      </c>
-      <c r="M220" s="54" t="s">
+      <c r="N220" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="O220" s="55" t="s">
         <v>535</v>
-      </c>
-      <c r="N220" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="O220" s="55" t="s">
-        <v>536</v>
       </c>
       <c r="P220" s="8" t="s">
         <v>171</v>
@@ -14390,7 +14625,7 @@
         <v>41</v>
       </c>
       <c r="B221" s="43" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C221" s="34">
         <v>43069</v>
@@ -14411,19 +14646,19 @@
         <v>76111881</v>
       </c>
       <c r="I221" s="49" t="s">
+        <v>536</v>
+      </c>
+      <c r="J221" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K221" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L221" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M221" s="42" t="s">
         <v>537</v>
-      </c>
-      <c r="J221" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K221" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L221" s="15">
-        <v>17721436606</v>
-      </c>
-      <c r="M221" s="42" t="s">
-        <v>538</v>
       </c>
       <c r="N221" s="45" t="s">
         <v>46</v>
@@ -14440,7 +14675,7 @@
         <v>41</v>
       </c>
       <c r="B222" s="43" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C222" s="34">
         <v>43069</v>
@@ -14455,25 +14690,25 @@
         <v>413</v>
       </c>
       <c r="G222" s="42" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H222" s="49">
         <v>76111880</v>
       </c>
       <c r="I222" s="49" t="s">
+        <v>539</v>
+      </c>
+      <c r="J222" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K222" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L222" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M222" s="42" t="s">
         <v>540</v>
-      </c>
-      <c r="J222" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K222" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L222" s="15">
-        <v>17721436606</v>
-      </c>
-      <c r="M222" s="42" t="s">
-        <v>541</v>
       </c>
       <c r="N222" s="45" t="s">
         <v>46</v>
@@ -14490,7 +14725,7 @@
         <v>41</v>
       </c>
       <c r="B223" s="43" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C223" s="34">
         <v>43069</v>
@@ -14511,19 +14746,19 @@
         <v>76107522</v>
       </c>
       <c r="I223" s="49" t="s">
+        <v>541</v>
+      </c>
+      <c r="J223" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K223" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L223" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M223" s="42" t="s">
         <v>542</v>
-      </c>
-      <c r="J223" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K223" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L223" s="15">
-        <v>17721436606</v>
-      </c>
-      <c r="M223" s="42" t="s">
-        <v>543</v>
       </c>
       <c r="N223" s="45" t="s">
         <v>46</v>
@@ -14540,7 +14775,7 @@
         <v>41</v>
       </c>
       <c r="B224" s="43" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C224" s="34">
         <v>43069</v>
@@ -14555,25 +14790,25 @@
         <v>413</v>
       </c>
       <c r="G224" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H224" s="49">
         <v>76106008</v>
       </c>
       <c r="I224" s="49" t="s">
+        <v>544</v>
+      </c>
+      <c r="J224" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K224" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L224" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M224" s="42" t="s">
         <v>545</v>
-      </c>
-      <c r="J224" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K224" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L224" s="15">
-        <v>17721436606</v>
-      </c>
-      <c r="M224" s="42" t="s">
-        <v>546</v>
       </c>
       <c r="N224" s="45" t="s">
         <v>46</v>
@@ -14590,7 +14825,7 @@
         <v>41</v>
       </c>
       <c r="B225" s="43" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C225" s="34">
         <v>43069</v>
@@ -14611,19 +14846,19 @@
         <v>76105998</v>
       </c>
       <c r="I225" s="49" t="s">
+        <v>546</v>
+      </c>
+      <c r="J225" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K225" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L225" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M225" s="42" t="s">
         <v>547</v>
-      </c>
-      <c r="J225" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K225" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L225" s="15">
-        <v>17721436606</v>
-      </c>
-      <c r="M225" s="42" t="s">
-        <v>548</v>
       </c>
       <c r="N225" s="45" t="s">
         <v>46</v>
@@ -14640,7 +14875,7 @@
         <v>41</v>
       </c>
       <c r="B226" s="43" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C226" s="34">
         <v>43069</v>
@@ -14661,19 +14896,19 @@
         <v>76105997</v>
       </c>
       <c r="I226" s="49" t="s">
+        <v>548</v>
+      </c>
+      <c r="J226" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K226" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L226" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M226" s="42" t="s">
         <v>549</v>
-      </c>
-      <c r="J226" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K226" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L226" s="15">
-        <v>17721436606</v>
-      </c>
-      <c r="M226" s="42" t="s">
-        <v>550</v>
       </c>
       <c r="N226" s="45" t="s">
         <v>46</v>
@@ -14708,7 +14943,7 @@
         <v>41</v>
       </c>
       <c r="B228" s="43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C228" s="18">
         <v>43077</v>
@@ -14729,19 +14964,19 @@
         <v>76115060</v>
       </c>
       <c r="I228" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="J228" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K228" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L228" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M228" s="15" t="s">
         <v>552</v>
-      </c>
-      <c r="J228" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K228" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L228" s="15">
-        <v>17721436606</v>
-      </c>
-      <c r="M228" s="15" t="s">
-        <v>553</v>
       </c>
       <c r="N228" s="15" t="s">
         <v>46</v>
@@ -14758,7 +14993,7 @@
         <v>41</v>
       </c>
       <c r="B229" s="43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C229" s="18">
         <v>43077</v>
@@ -14767,31 +15002,31 @@
         <v>42</v>
       </c>
       <c r="E229" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="F229" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="G229" s="15" t="s">
         <v>554</v>
-      </c>
-      <c r="F229" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="G229" s="15" t="s">
-        <v>555</v>
       </c>
       <c r="H229" s="15">
         <v>76112588</v>
       </c>
       <c r="I229" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="J229" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K229" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L229" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M229" s="15" t="s">
         <v>556</v>
-      </c>
-      <c r="J229" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K229" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L229" s="15">
-        <v>17721436606</v>
-      </c>
-      <c r="M229" s="15" t="s">
-        <v>557</v>
       </c>
       <c r="N229" s="15" t="s">
         <v>46</v>
@@ -14808,7 +15043,7 @@
         <v>41</v>
       </c>
       <c r="B230" s="43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C230" s="18">
         <v>43077</v>
@@ -14829,19 +15064,19 @@
         <v>76111093</v>
       </c>
       <c r="I230" s="42" t="s">
+        <v>557</v>
+      </c>
+      <c r="J230" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K230" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L230" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M230" s="42" t="s">
         <v>558</v>
-      </c>
-      <c r="J230" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K230" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L230" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M230" s="42" t="s">
-        <v>559</v>
       </c>
       <c r="N230" s="15" t="s">
         <v>46</v>
@@ -14849,8 +15084,8 @@
       <c r="O230" s="42">
         <v>13732588886</v>
       </c>
-      <c r="P230" s="45" t="s">
-        <v>452</v>
+      <c r="P230" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="231" s="6" customFormat="1" spans="1:16">
@@ -14858,7 +15093,7 @@
         <v>41</v>
       </c>
       <c r="B231" s="43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C231" s="18">
         <v>43077</v>
@@ -14873,25 +15108,25 @@
         <v>53</v>
       </c>
       <c r="G231" s="42" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H231" s="42">
         <v>76109756</v>
       </c>
       <c r="I231" s="49" t="s">
+        <v>560</v>
+      </c>
+      <c r="J231" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K231" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L231" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M231" s="56" t="s">
         <v>561</v>
-      </c>
-      <c r="J231" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K231" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L231" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M231" s="56" t="s">
-        <v>562</v>
       </c>
       <c r="N231" s="15" t="s">
         <v>46</v>
@@ -14899,8 +15134,8 @@
       <c r="O231" s="49">
         <v>13807599790</v>
       </c>
-      <c r="P231" s="45" t="s">
-        <v>452</v>
+      <c r="P231" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="232" s="6" customFormat="1" spans="1:16">
@@ -14908,7 +15143,7 @@
         <v>41</v>
       </c>
       <c r="B232" s="43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C232" s="18">
         <v>43077</v>
@@ -14929,19 +15164,19 @@
         <v>76110188</v>
       </c>
       <c r="I232" s="49" t="s">
+        <v>562</v>
+      </c>
+      <c r="J232" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K232" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L232" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M232" s="42" t="s">
         <v>563</v>
-      </c>
-      <c r="J232" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K232" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L232" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M232" s="42" t="s">
-        <v>564</v>
       </c>
       <c r="N232" s="15" t="s">
         <v>46</v>
@@ -14949,8 +15184,8 @@
       <c r="O232" s="42">
         <v>15351992995</v>
       </c>
-      <c r="P232" s="45" t="s">
-        <v>452</v>
+      <c r="P232" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="233" s="6" customFormat="1" spans="1:16">
@@ -14958,7 +15193,7 @@
         <v>41</v>
       </c>
       <c r="B233" s="43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C233" s="18">
         <v>43077</v>
@@ -14973,25 +15208,25 @@
         <v>53</v>
       </c>
       <c r="G233" s="42" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H233" s="42">
         <v>76110321</v>
       </c>
       <c r="I233" s="49" t="s">
+        <v>565</v>
+      </c>
+      <c r="J233" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K233" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L233" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M233" s="42" t="s">
         <v>566</v>
-      </c>
-      <c r="J233" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K233" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L233" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M233" s="42" t="s">
-        <v>567</v>
       </c>
       <c r="N233" s="15" t="s">
         <v>46</v>
@@ -14999,8 +15234,8 @@
       <c r="O233" s="42">
         <v>18356111981</v>
       </c>
-      <c r="P233" s="45" t="s">
-        <v>452</v>
+      <c r="P233" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="234" s="6" customFormat="1" spans="1:16">
@@ -15008,7 +15243,7 @@
         <v>41</v>
       </c>
       <c r="B234" s="43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C234" s="18">
         <v>43077</v>
@@ -15029,19 +15264,19 @@
         <v>76110778</v>
       </c>
       <c r="I234" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="J234" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K234" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L234" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M234" s="42" t="s">
         <v>568</v>
-      </c>
-      <c r="J234" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K234" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L234" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M234" s="42" t="s">
-        <v>569</v>
       </c>
       <c r="N234" s="15" t="s">
         <v>46</v>
@@ -15049,8 +15284,8 @@
       <c r="O234" s="42">
         <v>15068360668</v>
       </c>
-      <c r="P234" s="45" t="s">
-        <v>452</v>
+      <c r="P234" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="235" s="6" customFormat="1" spans="1:16">
@@ -15058,7 +15293,7 @@
         <v>41</v>
       </c>
       <c r="B235" s="43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C235" s="18">
         <v>43077</v>
@@ -15073,25 +15308,25 @@
         <v>53</v>
       </c>
       <c r="G235" s="42" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H235" s="42">
         <v>76111510</v>
       </c>
       <c r="I235" s="49" t="s">
+        <v>570</v>
+      </c>
+      <c r="J235" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K235" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L235" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M235" s="42" t="s">
         <v>571</v>
-      </c>
-      <c r="J235" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K235" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L235" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M235" s="42" t="s">
-        <v>572</v>
       </c>
       <c r="N235" s="15" t="s">
         <v>46</v>
@@ -15099,8 +15334,8 @@
       <c r="O235" s="42">
         <v>18555105720</v>
       </c>
-      <c r="P235" s="45" t="s">
-        <v>452</v>
+      <c r="P235" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="236" s="6" customFormat="1" spans="1:16">
@@ -15108,7 +15343,7 @@
         <v>41</v>
       </c>
       <c r="B236" s="43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C236" s="18">
         <v>43077</v>
@@ -15129,19 +15364,19 @@
         <v>76111511</v>
       </c>
       <c r="I236" s="49" t="s">
+        <v>572</v>
+      </c>
+      <c r="J236" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K236" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L236" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M236" s="42" t="s">
         <v>573</v>
-      </c>
-      <c r="J236" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K236" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L236" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M236" s="42" t="s">
-        <v>574</v>
       </c>
       <c r="N236" s="15" t="s">
         <v>46</v>
@@ -15149,8 +15384,8 @@
       <c r="O236" s="42">
         <v>13162280322</v>
       </c>
-      <c r="P236" s="45" t="s">
-        <v>452</v>
+      <c r="P236" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="237" s="6" customFormat="1" spans="1:16">
@@ -15158,7 +15393,7 @@
         <v>41</v>
       </c>
       <c r="B237" s="43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C237" s="18">
         <v>43077</v>
@@ -15179,19 +15414,19 @@
         <v>76111516</v>
       </c>
       <c r="I237" s="49" t="s">
+        <v>574</v>
+      </c>
+      <c r="J237" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K237" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L237" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M237" s="42" t="s">
         <v>575</v>
-      </c>
-      <c r="J237" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K237" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L237" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M237" s="42" t="s">
-        <v>576</v>
       </c>
       <c r="N237" s="15" t="s">
         <v>46</v>
@@ -15199,8 +15434,8 @@
       <c r="O237" s="42">
         <v>13651942178</v>
       </c>
-      <c r="P237" s="45" t="s">
-        <v>452</v>
+      <c r="P237" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="238" s="6" customFormat="1" spans="1:16">
@@ -15208,7 +15443,7 @@
         <v>41</v>
       </c>
       <c r="B238" s="43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C238" s="18">
         <v>43077</v>
@@ -15229,19 +15464,19 @@
         <v>76111580</v>
       </c>
       <c r="I238" s="49" t="s">
+        <v>576</v>
+      </c>
+      <c r="J238" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K238" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L238" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M238" s="57" t="s">
         <v>577</v>
-      </c>
-      <c r="J238" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K238" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L238" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M238" s="57" t="s">
-        <v>578</v>
       </c>
       <c r="N238" s="15" t="s">
         <v>46</v>
@@ -15249,8 +15484,8 @@
       <c r="O238" s="57">
         <v>18817298582</v>
       </c>
-      <c r="P238" s="45" t="s">
-        <v>452</v>
+      <c r="P238" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="239" s="6" customFormat="1" spans="1:16">
@@ -15258,7 +15493,7 @@
         <v>41</v>
       </c>
       <c r="B239" s="43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C239" s="18">
         <v>43077</v>
@@ -15279,7 +15514,7 @@
         <v>76111933</v>
       </c>
       <c r="I239" s="49" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J239" s="45" t="s">
         <v>41</v>
@@ -15299,8 +15534,8 @@
       <c r="O239" s="42">
         <v>13914295927</v>
       </c>
-      <c r="P239" s="45" t="s">
-        <v>452</v>
+      <c r="P239" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="240" s="6" customFormat="1" spans="1:16">
@@ -15308,7 +15543,7 @@
         <v>41</v>
       </c>
       <c r="B240" s="43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C240" s="18">
         <v>43077</v>
@@ -15329,19 +15564,19 @@
         <v>76112636</v>
       </c>
       <c r="I240" s="42" t="s">
+        <v>579</v>
+      </c>
+      <c r="J240" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K240" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L240" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M240" s="42" t="s">
         <v>580</v>
-      </c>
-      <c r="J240" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K240" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L240" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M240" s="42" t="s">
-        <v>581</v>
       </c>
       <c r="N240" s="15" t="s">
         <v>46</v>
@@ -15349,8 +15584,8 @@
       <c r="O240" s="42">
         <v>13913615398</v>
       </c>
-      <c r="P240" s="45" t="s">
-        <v>452</v>
+      <c r="P240" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="241" s="6" customFormat="1" spans="1:16">
@@ -15358,7 +15593,7 @@
         <v>41</v>
       </c>
       <c r="B241" s="43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C241" s="18">
         <v>43077</v>
@@ -15373,25 +15608,25 @@
         <v>53</v>
       </c>
       <c r="G241" s="42" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H241" s="42">
         <v>76112678</v>
       </c>
       <c r="I241" s="42" t="s">
+        <v>582</v>
+      </c>
+      <c r="J241" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K241" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L241" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M241" s="56" t="s">
         <v>583</v>
-      </c>
-      <c r="J241" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K241" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L241" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M241" s="56" t="s">
-        <v>584</v>
       </c>
       <c r="N241" s="15" t="s">
         <v>46</v>
@@ -15399,8 +15634,8 @@
       <c r="O241" s="49">
         <v>13736699998</v>
       </c>
-      <c r="P241" s="45" t="s">
-        <v>452</v>
+      <c r="P241" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="242" s="6" customFormat="1" spans="1:16">
@@ -15408,7 +15643,7 @@
         <v>41</v>
       </c>
       <c r="B242" s="43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C242" s="18">
         <v>43077</v>
@@ -15441,7 +15676,7 @@
         <v>17721436606</v>
       </c>
       <c r="M242" s="56" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="N242" s="15" t="s">
         <v>46</v>
@@ -15449,8 +15684,8 @@
       <c r="O242" s="56">
         <v>15950483577</v>
       </c>
-      <c r="P242" s="45" t="s">
-        <v>452</v>
+      <c r="P242" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="243" s="6" customFormat="1" spans="1:16">
@@ -15458,7 +15693,7 @@
         <v>41</v>
       </c>
       <c r="B243" s="43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C243" s="18">
         <v>43077</v>
@@ -15479,19 +15714,19 @@
         <v>76112769</v>
       </c>
       <c r="I243" s="42" t="s">
+        <v>585</v>
+      </c>
+      <c r="J243" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K243" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L243" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M243" s="42" t="s">
         <v>586</v>
-      </c>
-      <c r="J243" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K243" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L243" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M243" s="42" t="s">
-        <v>587</v>
       </c>
       <c r="N243" s="15" t="s">
         <v>46</v>
@@ -15499,8 +15734,8 @@
       <c r="O243" s="42">
         <v>13861046978</v>
       </c>
-      <c r="P243" s="45" t="s">
-        <v>452</v>
+      <c r="P243" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="244" s="6" customFormat="1" spans="1:16">
@@ -15508,7 +15743,7 @@
         <v>41</v>
       </c>
       <c r="B244" s="43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C244" s="18">
         <v>43077</v>
@@ -15523,25 +15758,25 @@
         <v>53</v>
       </c>
       <c r="G244" s="42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H244" s="42">
         <v>76113089</v>
       </c>
       <c r="I244" s="49" t="s">
+        <v>588</v>
+      </c>
+      <c r="J244" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K244" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L244" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M244" s="42" t="s">
         <v>589</v>
-      </c>
-      <c r="J244" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K244" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L244" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M244" s="42" t="s">
-        <v>590</v>
       </c>
       <c r="N244" s="15" t="s">
         <v>46</v>
@@ -15549,8 +15784,8 @@
       <c r="O244" s="42">
         <v>15988573306</v>
       </c>
-      <c r="P244" s="45" t="s">
-        <v>452</v>
+      <c r="P244" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="245" s="6" customFormat="1" spans="1:16">
@@ -15558,7 +15793,7 @@
         <v>41</v>
       </c>
       <c r="B245" s="43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C245" s="18">
         <v>43077</v>
@@ -15579,19 +15814,19 @@
         <v>76113091</v>
       </c>
       <c r="I245" s="49" t="s">
+        <v>590</v>
+      </c>
+      <c r="J245" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K245" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L245" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M245" s="42" t="s">
         <v>591</v>
-      </c>
-      <c r="J245" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K245" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L245" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M245" s="42" t="s">
-        <v>592</v>
       </c>
       <c r="N245" s="15" t="s">
         <v>46</v>
@@ -15599,8 +15834,8 @@
       <c r="O245" s="42">
         <v>13205539699</v>
       </c>
-      <c r="P245" s="45" t="s">
-        <v>452</v>
+      <c r="P245" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="246" s="6" customFormat="1" spans="1:16">
@@ -15608,7 +15843,7 @@
         <v>41</v>
       </c>
       <c r="B246" s="43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C246" s="18">
         <v>43077</v>
@@ -15629,19 +15864,19 @@
         <v>76113280</v>
       </c>
       <c r="I246" s="49" t="s">
+        <v>592</v>
+      </c>
+      <c r="J246" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K246" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L246" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M246" s="42" t="s">
         <v>593</v>
-      </c>
-      <c r="J246" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K246" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L246" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M246" s="42" t="s">
-        <v>594</v>
       </c>
       <c r="N246" s="15" t="s">
         <v>46</v>
@@ -15649,8 +15884,8 @@
       <c r="O246" s="42">
         <v>13003386260</v>
       </c>
-      <c r="P246" s="45" t="s">
-        <v>452</v>
+      <c r="P246" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="247" s="6" customFormat="1" spans="1:16">
@@ -15658,7 +15893,7 @@
         <v>41</v>
       </c>
       <c r="B247" s="43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C247" s="18">
         <v>43077</v>
@@ -15679,19 +15914,19 @@
         <v>76113305</v>
       </c>
       <c r="I247" s="49" t="s">
+        <v>594</v>
+      </c>
+      <c r="J247" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K247" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L247" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M247" s="56" t="s">
         <v>595</v>
-      </c>
-      <c r="J247" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K247" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L247" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M247" s="56" t="s">
-        <v>596</v>
       </c>
       <c r="N247" s="15" t="s">
         <v>46</v>
@@ -15699,8 +15934,8 @@
       <c r="O247" s="56">
         <v>18114928177</v>
       </c>
-      <c r="P247" s="45" t="s">
-        <v>452</v>
+      <c r="P247" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="248" s="6" customFormat="1" spans="1:16">
@@ -15708,7 +15943,7 @@
         <v>41</v>
       </c>
       <c r="B248" s="43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C248" s="18">
         <v>43077</v>
@@ -15729,19 +15964,19 @@
         <v>76113311</v>
       </c>
       <c r="I248" s="49" t="s">
+        <v>596</v>
+      </c>
+      <c r="J248" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K248" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L248" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M248" s="42" t="s">
         <v>597</v>
-      </c>
-      <c r="J248" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K248" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L248" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M248" s="42" t="s">
-        <v>598</v>
       </c>
       <c r="N248" s="15" t="s">
         <v>46</v>
@@ -15749,8 +15984,8 @@
       <c r="O248" s="42">
         <v>15727273620</v>
       </c>
-      <c r="P248" s="45" t="s">
-        <v>452</v>
+      <c r="P248" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="249" s="6" customFormat="1" spans="1:16">
@@ -15758,7 +15993,7 @@
         <v>41</v>
       </c>
       <c r="B249" s="43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C249" s="18">
         <v>43077</v>
@@ -15779,19 +16014,19 @@
         <v>76113900</v>
       </c>
       <c r="I249" s="49" t="s">
+        <v>598</v>
+      </c>
+      <c r="J249" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K249" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L249" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M249" s="42" t="s">
         <v>599</v>
-      </c>
-      <c r="J249" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K249" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L249" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M249" s="42" t="s">
-        <v>600</v>
       </c>
       <c r="N249" s="15" t="s">
         <v>46</v>
@@ -15799,8 +16034,8 @@
       <c r="O249" s="42">
         <v>18020558055</v>
       </c>
-      <c r="P249" s="45" t="s">
-        <v>452</v>
+      <c r="P249" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="250" s="6" customFormat="1" spans="1:16">
@@ -15808,7 +16043,7 @@
         <v>41</v>
       </c>
       <c r="B250" s="43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C250" s="18">
         <v>43077</v>
@@ -15829,19 +16064,19 @@
         <v>76113977</v>
       </c>
       <c r="I250" s="49" t="s">
+        <v>600</v>
+      </c>
+      <c r="J250" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K250" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L250" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M250" s="42" t="s">
         <v>601</v>
-      </c>
-      <c r="J250" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K250" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L250" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M250" s="42" t="s">
-        <v>602</v>
       </c>
       <c r="N250" s="15" t="s">
         <v>46</v>
@@ -15849,8 +16084,8 @@
       <c r="O250" s="42">
         <v>18505129981</v>
       </c>
-      <c r="P250" s="45" t="s">
-        <v>452</v>
+      <c r="P250" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="251" s="6" customFormat="1" spans="1:16">
@@ -15858,7 +16093,7 @@
         <v>41</v>
       </c>
       <c r="B251" s="43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C251" s="18">
         <v>43077</v>
@@ -15879,19 +16114,19 @@
         <v>76115020</v>
       </c>
       <c r="I251" s="49" t="s">
+        <v>602</v>
+      </c>
+      <c r="J251" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K251" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L251" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M251" s="42" t="s">
         <v>603</v>
-      </c>
-      <c r="J251" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K251" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L251" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M251" s="42" t="s">
-        <v>604</v>
       </c>
       <c r="N251" s="15" t="s">
         <v>46</v>
@@ -15899,8 +16134,8 @@
       <c r="O251" s="42">
         <v>17316386122</v>
       </c>
-      <c r="P251" s="45" t="s">
-        <v>452</v>
+      <c r="P251" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="252" s="5" customFormat="1" ht="14" customHeight="1" spans="1:16">
@@ -15908,7 +16143,7 @@
         <v>41</v>
       </c>
       <c r="B252" s="43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C252" s="18">
         <v>43082</v>
@@ -15929,7 +16164,7 @@
         <v>76113852</v>
       </c>
       <c r="I252" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J252" s="8" t="s">
         <v>41</v>
@@ -15949,8 +16184,8 @@
       <c r="O252" s="12">
         <v>18016233560</v>
       </c>
-      <c r="P252" s="8" t="s">
-        <v>452</v>
+      <c r="P252" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="253" spans="1:16">
@@ -15976,7 +16211,7 @@
         <v>41</v>
       </c>
       <c r="B254" s="17" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C254" s="18">
         <v>43087</v>
@@ -15985,10 +16220,10 @@
         <v>42</v>
       </c>
       <c r="E254" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="F254" s="8" t="s">
         <v>607</v>
-      </c>
-      <c r="F254" s="8" t="s">
-        <v>608</v>
       </c>
       <c r="G254" s="8" t="s">
         <v>41</v>
@@ -15997,19 +16232,19 @@
         <v>76110599</v>
       </c>
       <c r="I254" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="J254" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K254" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L254" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M254" s="8" t="s">
         <v>609</v>
-      </c>
-      <c r="J254" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K254" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L254" s="15">
-        <v>17721436606</v>
-      </c>
-      <c r="M254" s="8" t="s">
-        <v>610</v>
       </c>
       <c r="N254" s="8" t="s">
         <v>46</v>
@@ -16017,8 +16252,8 @@
       <c r="O254" s="12">
         <v>13661599457</v>
       </c>
-      <c r="P254" s="8" t="s">
-        <v>452</v>
+      <c r="P254" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="255" spans="1:16">
@@ -16026,7 +16261,7 @@
         <v>41</v>
       </c>
       <c r="B255" s="17" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C255" s="18">
         <v>43087</v>
@@ -16047,19 +16282,19 @@
         <v>76116391</v>
       </c>
       <c r="I255" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="J255" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K255" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L255" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M255" s="8" t="s">
         <v>611</v>
-      </c>
-      <c r="J255" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K255" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L255" s="15">
-        <v>17721436606</v>
-      </c>
-      <c r="M255" s="8" t="s">
-        <v>612</v>
       </c>
       <c r="N255" s="8" t="s">
         <v>52</v>
@@ -16067,8 +16302,8 @@
       <c r="O255" s="12">
         <v>13524056463</v>
       </c>
-      <c r="P255" s="8" t="s">
-        <v>452</v>
+      <c r="P255" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="256" spans="1:16">
@@ -16076,7 +16311,7 @@
         <v>41</v>
       </c>
       <c r="B256" s="17" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C256" s="18">
         <v>43088</v>
@@ -16085,10 +16320,10 @@
         <v>42</v>
       </c>
       <c r="E256" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="F256" s="8" t="s">
         <v>613</v>
-      </c>
-      <c r="F256" s="8" t="s">
-        <v>614</v>
       </c>
       <c r="G256" s="8" t="s">
         <v>41</v>
@@ -16097,19 +16332,19 @@
         <v>76117306</v>
       </c>
       <c r="I256" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="J256" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K256" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L256" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M256" s="8" t="s">
         <v>614</v>
-      </c>
-      <c r="J256" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K256" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L256" s="15">
-        <v>17721436606</v>
-      </c>
-      <c r="M256" s="8" t="s">
-        <v>615</v>
       </c>
       <c r="N256" s="8" t="s">
         <v>46</v>
@@ -16117,8 +16352,8 @@
       <c r="O256" s="12">
         <v>13761461169</v>
       </c>
-      <c r="P256" s="8" t="s">
-        <v>171</v>
+      <c r="P256" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="257" s="5" customFormat="1" spans="1:16">
@@ -16126,7 +16361,7 @@
         <v>41</v>
       </c>
       <c r="B257" s="19" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C257" s="18">
         <v>43089</v>
@@ -16147,19 +16382,19 @@
         <v>76116396</v>
       </c>
       <c r="I257" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="J257" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K257" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L257" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M257" s="8" t="s">
         <v>616</v>
-      </c>
-      <c r="J257" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K257" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L257" s="15">
-        <v>17721436606</v>
-      </c>
-      <c r="M257" s="8" t="s">
-        <v>617</v>
       </c>
       <c r="N257" s="8" t="s">
         <v>52</v>
@@ -16167,8 +16402,8 @@
       <c r="O257" s="8">
         <v>15921046369</v>
       </c>
-      <c r="P257" s="8" t="s">
-        <v>452</v>
+      <c r="P257" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="258" s="5" customFormat="1" spans="1:16">
@@ -16194,7 +16429,7 @@
         <v>41</v>
       </c>
       <c r="B259" s="19" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C259" s="18">
         <v>43094</v>
@@ -16215,19 +16450,19 @@
         <v>76116392</v>
       </c>
       <c r="I259" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="J259" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K259" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L259" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M259" s="8" t="s">
         <v>619</v>
-      </c>
-      <c r="J259" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K259" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L259" s="15">
-        <v>17721436606</v>
-      </c>
-      <c r="M259" s="8" t="s">
-        <v>620</v>
       </c>
       <c r="N259" s="8" t="s">
         <v>52</v>
@@ -16235,8 +16470,8 @@
       <c r="O259" s="8">
         <v>13625565333</v>
       </c>
-      <c r="P259" s="8" t="s">
-        <v>452</v>
+      <c r="P259" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="260" spans="1:16">
@@ -16244,7 +16479,7 @@
         <v>41</v>
       </c>
       <c r="B260" s="19" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C260" s="18">
         <v>43094</v>
@@ -16253,10 +16488,10 @@
         <v>42</v>
       </c>
       <c r="E260" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="F260" s="8" t="s">
         <v>621</v>
-      </c>
-      <c r="F260" s="8" t="s">
-        <v>622</v>
       </c>
       <c r="G260" s="8" t="s">
         <v>41</v>
@@ -16265,19 +16500,19 @@
         <v>76097788</v>
       </c>
       <c r="I260" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="J260" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K260" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L260" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M260" s="8" t="s">
         <v>623</v>
-      </c>
-      <c r="J260" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K260" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L260" s="15">
-        <v>17721436606</v>
-      </c>
-      <c r="M260" s="8" t="s">
-        <v>624</v>
       </c>
       <c r="N260" s="8" t="s">
         <v>52</v>
@@ -16285,8 +16520,8 @@
       <c r="O260" s="8">
         <v>13701844181</v>
       </c>
-      <c r="P260" s="8" t="s">
-        <v>452</v>
+      <c r="P260" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="261" spans="1:16">
@@ -16294,7 +16529,7 @@
         <v>41</v>
       </c>
       <c r="B261" s="19" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C261" s="18">
         <v>43094</v>
@@ -16306,7 +16541,7 @@
         <v>53</v>
       </c>
       <c r="F261" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G261" s="8" t="s">
         <v>97</v>
@@ -16315,7 +16550,7 @@
         <v>76118798</v>
       </c>
       <c r="I261" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J261" s="8" t="s">
         <v>41</v>
@@ -16344,7 +16579,7 @@
         <v>41</v>
       </c>
       <c r="B262" s="19" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C262" s="18">
         <v>43095</v>
@@ -16359,25 +16594,25 @@
         <v>413</v>
       </c>
       <c r="G262" s="42" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H262" s="42">
         <v>76113672</v>
       </c>
       <c r="I262" s="42" t="s">
+        <v>627</v>
+      </c>
+      <c r="J262" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K262" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L262" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M262" s="42" t="s">
         <v>628</v>
-      </c>
-      <c r="J262" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K262" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L262" s="15">
-        <v>17721436606</v>
-      </c>
-      <c r="M262" s="42" t="s">
-        <v>629</v>
       </c>
       <c r="N262" s="8" t="s">
         <v>52</v>
@@ -16385,8 +16620,8 @@
       <c r="O262" s="42">
         <v>18523502323</v>
       </c>
-      <c r="P262" s="8" t="s">
-        <v>452</v>
+      <c r="P262" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="263" spans="1:16">
@@ -16394,7 +16629,7 @@
         <v>41</v>
       </c>
       <c r="B263" s="19" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C263" s="18">
         <v>43095</v>
@@ -16415,19 +16650,19 @@
         <v>76116101</v>
       </c>
       <c r="I263" s="49" t="s">
+        <v>629</v>
+      </c>
+      <c r="J263" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K263" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L263" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M263" s="42" t="s">
         <v>630</v>
-      </c>
-      <c r="J263" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K263" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L263" s="15">
-        <v>17721436606</v>
-      </c>
-      <c r="M263" s="42" t="s">
-        <v>631</v>
       </c>
       <c r="N263" s="8" t="s">
         <v>52</v>
@@ -16435,8 +16670,8 @@
       <c r="O263" s="42">
         <v>18657929290</v>
       </c>
-      <c r="P263" s="8" t="s">
-        <v>452</v>
+      <c r="P263" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="264" spans="1:16">
@@ -16444,7 +16679,7 @@
         <v>41</v>
       </c>
       <c r="B264" s="19" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C264" s="18">
         <v>43095</v>
@@ -16465,19 +16700,19 @@
         <v>76116102</v>
       </c>
       <c r="I264" s="49" t="s">
+        <v>631</v>
+      </c>
+      <c r="J264" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K264" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L264" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M264" s="42" t="s">
         <v>632</v>
-      </c>
-      <c r="J264" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K264" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L264" s="15">
-        <v>17721436606</v>
-      </c>
-      <c r="M264" s="42" t="s">
-        <v>633</v>
       </c>
       <c r="N264" s="8" t="s">
         <v>52</v>
@@ -16485,8 +16720,8 @@
       <c r="O264" s="42">
         <v>13036101739</v>
       </c>
-      <c r="P264" s="8" t="s">
-        <v>452</v>
+      <c r="P264" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="265" spans="1:16">
@@ -16496,351 +16731,1830 @@
       <c r="P265" s="8"/>
     </row>
     <row r="266" spans="1:16">
-      <c r="A266" s="22"/>
-      <c r="B266" s="21"/>
-      <c r="O266" s="12"/>
-      <c r="P266" s="8"/>
+      <c r="A266" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B266" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C266" s="18">
+        <v>43105</v>
+      </c>
+      <c r="D266" s="45" t="s">
+        <v>634</v>
+      </c>
+      <c r="E266" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="F266" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="G266" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="H266" s="8">
+        <v>76057106</v>
+      </c>
+      <c r="I266" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="J266" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K266" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L266" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M266" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="N266" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="O266" s="12">
+        <v>15900941705</v>
+      </c>
+      <c r="P266" s="8" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="267" spans="1:16">
-      <c r="A267" s="22"/>
-      <c r="B267" s="21"/>
-      <c r="O267" s="12"/>
-      <c r="P267" s="8"/>
+      <c r="A267" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B267" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C267" s="18">
+        <v>43105</v>
+      </c>
+      <c r="D267" s="45" t="s">
+        <v>634</v>
+      </c>
+      <c r="E267" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="F267" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="G267" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H267" s="8">
+        <v>76092869</v>
+      </c>
+      <c r="I267" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="J267" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K267" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L267" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M267" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="N267" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="O267" s="12">
+        <v>15900941705</v>
+      </c>
+      <c r="P267" s="8" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="268" spans="1:16">
-      <c r="A268" s="22"/>
-      <c r="B268" s="21"/>
+      <c r="A268" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B268" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C268" s="18">
+        <v>43105</v>
+      </c>
+      <c r="D268" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E268" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="F268" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="G268" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="H268" s="8">
+        <v>76119812</v>
+      </c>
+      <c r="I268" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="J268" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K268" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L268" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M268" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="N268" s="8" t="s">
+        <v>643</v>
+      </c>
       <c r="O268" s="12"/>
-      <c r="P268" s="8"/>
+      <c r="P268" s="8" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="269" spans="1:16">
-      <c r="A269" s="22"/>
-      <c r="B269" s="21"/>
-      <c r="O269" s="12"/>
-      <c r="P269" s="8"/>
+      <c r="A269" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B269" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C269" s="18">
+        <v>43105</v>
+      </c>
+      <c r="D269" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="E269" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="F269" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G269" s="61" t="s">
+        <v>395</v>
+      </c>
+      <c r="H269" s="62">
+        <v>76115725</v>
+      </c>
+      <c r="I269" s="61" t="s">
+        <v>644</v>
+      </c>
+      <c r="J269" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K269" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L269" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M269" s="61" t="s">
+        <v>645</v>
+      </c>
+      <c r="N269" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O269" s="61">
+        <v>18972067666</v>
+      </c>
+      <c r="P269" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="270" spans="1:16">
-      <c r="A270" s="22"/>
-      <c r="B270" s="21"/>
-      <c r="O270" s="12"/>
-      <c r="P270" s="8"/>
+      <c r="A270" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B270" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C270" s="18">
+        <v>43105</v>
+      </c>
+      <c r="D270" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="E270" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="F270" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G270" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="H270" s="62">
+        <v>76115906</v>
+      </c>
+      <c r="I270" s="61" t="s">
+        <v>646</v>
+      </c>
+      <c r="J270" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K270" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L270" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M270" s="61" t="s">
+        <v>647</v>
+      </c>
+      <c r="N270" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O270" s="61">
+        <v>13818685270</v>
+      </c>
+      <c r="P270" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="271" spans="1:16">
-      <c r="A271" s="22"/>
-      <c r="B271" s="21"/>
-      <c r="O271" s="12"/>
-      <c r="P271" s="8"/>
+      <c r="A271" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B271" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C271" s="18">
+        <v>43105</v>
+      </c>
+      <c r="D271" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="E271" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="F271" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G271" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="H271" s="62">
+        <v>76116165</v>
+      </c>
+      <c r="I271" s="61" t="s">
+        <v>648</v>
+      </c>
+      <c r="J271" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K271" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L271" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M271" s="61" t="s">
+        <v>649</v>
+      </c>
+      <c r="N271" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O271" s="61">
+        <v>18351032270</v>
+      </c>
+      <c r="P271" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="272" spans="1:16">
-      <c r="A272" s="22"/>
-      <c r="B272" s="21"/>
-      <c r="O272" s="12"/>
-      <c r="P272" s="8"/>
+      <c r="A272" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B272" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C272" s="18">
+        <v>43105</v>
+      </c>
+      <c r="D272" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="E272" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="F272" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G272" s="61" t="s">
+        <v>650</v>
+      </c>
+      <c r="H272" s="62">
+        <v>76116352</v>
+      </c>
+      <c r="I272" s="61" t="s">
+        <v>651</v>
+      </c>
+      <c r="J272" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K272" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L272" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M272" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="N272" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O272" s="61">
+        <v>18602808857</v>
+      </c>
+      <c r="P272" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="273" spans="1:16">
-      <c r="A273" s="22"/>
-      <c r="B273" s="21"/>
-      <c r="O273" s="12"/>
-      <c r="P273" s="8"/>
+      <c r="A273" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B273" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C273" s="18">
+        <v>43105</v>
+      </c>
+      <c r="D273" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="E273" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="F273" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G273" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="H273" s="62">
+        <v>76116670</v>
+      </c>
+      <c r="I273" s="61" t="s">
+        <v>652</v>
+      </c>
+      <c r="J273" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K273" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L273" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M273" s="61" t="s">
+        <v>653</v>
+      </c>
+      <c r="N273" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O273" s="61">
+        <v>15921618009</v>
+      </c>
+      <c r="P273" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="274" spans="1:16">
-      <c r="A274" s="22"/>
-      <c r="B274" s="21"/>
-      <c r="H274" s="8" t="s">
-        <v>634</v>
-      </c>
-      <c r="O274" s="12"/>
-      <c r="P274" s="8"/>
+      <c r="A274" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B274" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C274" s="18">
+        <v>43105</v>
+      </c>
+      <c r="D274" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="E274" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="F274" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G274" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="H274" s="62">
+        <v>76116691</v>
+      </c>
+      <c r="I274" s="61" t="s">
+        <v>654</v>
+      </c>
+      <c r="J274" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K274" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L274" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M274" s="61" t="s">
+        <v>655</v>
+      </c>
+      <c r="N274" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O274" s="61">
+        <v>15396703888</v>
+      </c>
+      <c r="P274" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="275" spans="1:16">
-      <c r="A275" s="22"/>
-      <c r="B275" s="21"/>
-      <c r="O275" s="12"/>
-      <c r="P275" s="8"/>
+      <c r="A275" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B275" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C275" s="18">
+        <v>43105</v>
+      </c>
+      <c r="D275" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="E275" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="F275" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G275" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="H275" s="62">
+        <v>76117525</v>
+      </c>
+      <c r="I275" s="61" t="s">
+        <v>656</v>
+      </c>
+      <c r="J275" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K275" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L275" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M275" s="61" t="s">
+        <v>657</v>
+      </c>
+      <c r="N275" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O275" s="61">
+        <v>13585453315</v>
+      </c>
+      <c r="P275" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="276" spans="1:16">
-      <c r="A276" s="22"/>
-      <c r="B276" s="21"/>
-      <c r="O276" s="12"/>
-      <c r="P276" s="8"/>
+      <c r="A276" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B276" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C276" s="18">
+        <v>43105</v>
+      </c>
+      <c r="D276" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="E276" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="F276" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G276" s="61" t="s">
+        <v>429</v>
+      </c>
+      <c r="H276" s="62">
+        <v>76117532</v>
+      </c>
+      <c r="I276" s="61" t="s">
+        <v>658</v>
+      </c>
+      <c r="J276" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K276" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L276" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M276" s="61" t="s">
+        <v>659</v>
+      </c>
+      <c r="N276" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O276" s="61">
+        <v>18921907339</v>
+      </c>
+      <c r="P276" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="277" spans="1:16">
-      <c r="A277" s="22"/>
-      <c r="B277" s="21"/>
-      <c r="O277" s="12"/>
-      <c r="P277" s="8"/>
+      <c r="A277" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B277" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C277" s="18">
+        <v>43105</v>
+      </c>
+      <c r="D277" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="E277" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="F277" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G277" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="H277" s="62">
+        <v>76118028</v>
+      </c>
+      <c r="I277" s="61" t="s">
+        <v>660</v>
+      </c>
+      <c r="J277" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K277" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L277" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M277" s="61" t="s">
+        <v>661</v>
+      </c>
+      <c r="N277" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O277" s="61">
+        <v>18627764565</v>
+      </c>
+      <c r="P277" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="278" spans="1:16">
-      <c r="A278" s="22"/>
-      <c r="B278" s="21"/>
-      <c r="O278" s="12"/>
-      <c r="P278" s="8"/>
+      <c r="A278" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B278" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C278" s="18">
+        <v>43105</v>
+      </c>
+      <c r="D278" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="E278" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="F278" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G278" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="H278" s="62">
+        <v>76118291</v>
+      </c>
+      <c r="I278" s="61" t="s">
+        <v>662</v>
+      </c>
+      <c r="J278" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K278" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L278" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M278" s="61" t="s">
+        <v>663</v>
+      </c>
+      <c r="N278" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O278" s="61">
+        <v>13638686775</v>
+      </c>
+      <c r="P278" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="279" spans="1:16">
-      <c r="A279" s="22"/>
-      <c r="B279" s="21"/>
-      <c r="O279" s="12"/>
-      <c r="P279" s="8"/>
+      <c r="A279" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B279" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C279" s="18">
+        <v>43105</v>
+      </c>
+      <c r="D279" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="E279" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="F279" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G279" s="61" t="s">
+        <v>395</v>
+      </c>
+      <c r="H279" s="62">
+        <v>76118925</v>
+      </c>
+      <c r="I279" s="61" t="s">
+        <v>664</v>
+      </c>
+      <c r="J279" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K279" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L279" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M279" s="61" t="s">
+        <v>665</v>
+      </c>
+      <c r="N279" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O279" s="61">
+        <v>13636185109</v>
+      </c>
+      <c r="P279" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="280" spans="1:16">
-      <c r="A280" s="22"/>
-      <c r="B280" s="21"/>
-      <c r="O280" s="12"/>
-      <c r="P280" s="8"/>
+      <c r="A280" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B280" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C280" s="18">
+        <v>43105</v>
+      </c>
+      <c r="D280" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="E280" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="F280" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G280" s="61" t="s">
+        <v>666</v>
+      </c>
+      <c r="H280" s="62">
+        <v>76119039</v>
+      </c>
+      <c r="I280" s="61" t="s">
+        <v>667</v>
+      </c>
+      <c r="J280" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K280" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L280" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M280" s="61" t="s">
+        <v>668</v>
+      </c>
+      <c r="N280" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O280" s="61">
+        <v>18809501886</v>
+      </c>
+      <c r="P280" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="281" spans="1:16">
-      <c r="A281" s="22"/>
-      <c r="B281" s="21"/>
-      <c r="O281" s="12"/>
-      <c r="P281" s="8"/>
+      <c r="A281" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B281" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C281" s="18">
+        <v>43105</v>
+      </c>
+      <c r="D281" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="E281" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="F281" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G281" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="H281" s="62">
+        <v>76119301</v>
+      </c>
+      <c r="I281" s="61" t="s">
+        <v>669</v>
+      </c>
+      <c r="J281" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K281" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L281" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M281" s="61" t="s">
+        <v>670</v>
+      </c>
+      <c r="N281" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O281" s="61">
+        <v>17621822232</v>
+      </c>
+      <c r="P281" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="282" spans="1:16">
-      <c r="A282" s="22"/>
-      <c r="B282" s="21"/>
-      <c r="O282" s="12"/>
-      <c r="P282" s="8"/>
+      <c r="A282" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B282" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C282" s="18">
+        <v>43105</v>
+      </c>
+      <c r="D282" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="E282" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="F282" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G282" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="H282" s="62">
+        <v>76119326</v>
+      </c>
+      <c r="I282" s="61" t="s">
+        <v>671</v>
+      </c>
+      <c r="J282" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K282" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L282" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M282" s="61" t="s">
+        <v>672</v>
+      </c>
+      <c r="N282" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O282" s="61">
+        <v>18913779066</v>
+      </c>
+      <c r="P282" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="283" spans="1:16">
-      <c r="A283" s="22"/>
-      <c r="B283" s="21"/>
-      <c r="O283" s="12"/>
-      <c r="P283" s="8"/>
+      <c r="A283" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B283" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C283" s="18">
+        <v>43105</v>
+      </c>
+      <c r="D283" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="E283" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="F283" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G283" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="H283" s="62">
+        <v>76119369</v>
+      </c>
+      <c r="I283" s="61" t="s">
+        <v>673</v>
+      </c>
+      <c r="J283" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K283" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L283" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M283" s="61" t="s">
+        <v>674</v>
+      </c>
+      <c r="N283" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O283" s="61">
+        <v>18101869616</v>
+      </c>
+      <c r="P283" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="284" spans="1:16">
-      <c r="A284" s="22"/>
-      <c r="B284" s="21"/>
-      <c r="O284" s="12"/>
-      <c r="P284" s="8"/>
+      <c r="A284" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B284" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C284" s="18">
+        <v>43105</v>
+      </c>
+      <c r="D284" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="E284" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="F284" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G284" s="61" t="s">
+        <v>675</v>
+      </c>
+      <c r="H284" s="62">
+        <v>76119620</v>
+      </c>
+      <c r="I284" s="61" t="s">
+        <v>676</v>
+      </c>
+      <c r="J284" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K284" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L284" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M284" s="61" t="s">
+        <v>677</v>
+      </c>
+      <c r="N284" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O284" s="61">
+        <v>13051278982</v>
+      </c>
+      <c r="P284" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="285" spans="1:16">
-      <c r="A285" s="22"/>
-      <c r="B285" s="21"/>
-      <c r="O285" s="12"/>
-      <c r="P285" s="8"/>
+      <c r="A285" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B285" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C285" s="18">
+        <v>43105</v>
+      </c>
+      <c r="D285" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="E285" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="F285" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G285" s="61" t="s">
+        <v>678</v>
+      </c>
+      <c r="H285" s="62">
+        <v>76119721</v>
+      </c>
+      <c r="I285" s="61" t="s">
+        <v>679</v>
+      </c>
+      <c r="J285" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K285" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L285" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M285" s="61" t="s">
+        <v>680</v>
+      </c>
+      <c r="N285" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O285" s="61">
+        <v>18355520823</v>
+      </c>
+      <c r="P285" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="286" spans="1:16">
-      <c r="A286" s="22"/>
-      <c r="B286" s="21"/>
-      <c r="O286" s="12"/>
-      <c r="P286" s="8"/>
+      <c r="A286" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B286" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C286" s="18">
+        <v>43105</v>
+      </c>
+      <c r="D286" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="E286" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="F286" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G286" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="H286" s="62">
+        <v>76120023</v>
+      </c>
+      <c r="I286" s="61" t="s">
+        <v>681</v>
+      </c>
+      <c r="J286" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K286" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L286" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M286" s="61" t="s">
+        <v>682</v>
+      </c>
+      <c r="N286" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O286" s="61">
+        <v>15068526265</v>
+      </c>
+      <c r="P286" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="287" spans="1:16">
-      <c r="A287" s="22"/>
-      <c r="B287" s="21"/>
-      <c r="O287" s="12"/>
-      <c r="P287" s="8"/>
+      <c r="A287" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B287" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C287" s="18">
+        <v>43105</v>
+      </c>
+      <c r="D287" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="E287" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="F287" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G287" s="61" t="s">
+        <v>328</v>
+      </c>
+      <c r="H287" s="62">
+        <v>76120101</v>
+      </c>
+      <c r="I287" s="61" t="s">
+        <v>683</v>
+      </c>
+      <c r="J287" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K287" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L287" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M287" s="61" t="s">
+        <v>684</v>
+      </c>
+      <c r="N287" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O287" s="61">
+        <v>13776694457</v>
+      </c>
+      <c r="P287" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="288" spans="1:16">
-      <c r="A288" s="22"/>
-      <c r="B288" s="21"/>
-      <c r="O288" s="12"/>
-      <c r="P288" s="8"/>
+      <c r="A288" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B288" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C288" s="18">
+        <v>43105</v>
+      </c>
+      <c r="D288" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="E288" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="F288" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G288" s="61" t="s">
+        <v>325</v>
+      </c>
+      <c r="H288" s="62">
+        <v>76122022</v>
+      </c>
+      <c r="I288" s="61" t="s">
+        <v>685</v>
+      </c>
+      <c r="J288" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K288" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L288" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M288" s="61" t="s">
+        <v>686</v>
+      </c>
+      <c r="N288" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O288" s="61">
+        <v>13576107314</v>
+      </c>
+      <c r="P288" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="289" spans="1:16">
-      <c r="A289" s="22"/>
-      <c r="B289" s="21"/>
-      <c r="O289" s="12"/>
-      <c r="P289" s="8"/>
+      <c r="A289" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B289" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C289" s="18">
+        <v>43105</v>
+      </c>
+      <c r="D289" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E289" s="63" t="s">
+        <v>412</v>
+      </c>
+      <c r="F289" s="63" t="s">
+        <v>413</v>
+      </c>
+      <c r="G289" s="61" t="s">
+        <v>626</v>
+      </c>
+      <c r="H289" s="61">
+        <v>76113672</v>
+      </c>
+      <c r="I289" s="61" t="s">
+        <v>627</v>
+      </c>
+      <c r="J289" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K289" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L289" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M289" s="61" t="s">
+        <v>628</v>
+      </c>
+      <c r="N289" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O289" s="61">
+        <v>18523502323</v>
+      </c>
+      <c r="P289" s="15" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="290" spans="1:16">
-      <c r="A290" s="22"/>
-      <c r="B290" s="21"/>
-      <c r="O290" s="12"/>
-      <c r="P290" s="8"/>
+      <c r="A290" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B290" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C290" s="18">
+        <v>43105</v>
+      </c>
+      <c r="D290" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E290" s="63" t="s">
+        <v>412</v>
+      </c>
+      <c r="F290" s="63" t="s">
+        <v>413</v>
+      </c>
+      <c r="G290" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="H290" s="61">
+        <v>76116101</v>
+      </c>
+      <c r="I290" s="69" t="s">
+        <v>629</v>
+      </c>
+      <c r="J290" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K290" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L290" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M290" s="61" t="s">
+        <v>630</v>
+      </c>
+      <c r="N290" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O290" s="61">
+        <v>18657929290</v>
+      </c>
+      <c r="P290" s="15" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="291" spans="1:16">
-      <c r="A291" s="22"/>
-      <c r="B291" s="21"/>
-      <c r="O291" s="12"/>
-      <c r="P291" s="8"/>
+      <c r="A291" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B291" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C291" s="18">
+        <v>43105</v>
+      </c>
+      <c r="D291" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E291" s="63" t="s">
+        <v>412</v>
+      </c>
+      <c r="F291" s="63" t="s">
+        <v>413</v>
+      </c>
+      <c r="G291" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="H291" s="61">
+        <v>76116102</v>
+      </c>
+      <c r="I291" s="69" t="s">
+        <v>631</v>
+      </c>
+      <c r="J291" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K291" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L291" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M291" s="61" t="s">
+        <v>632</v>
+      </c>
+      <c r="N291" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O291" s="61">
+        <v>13036101739</v>
+      </c>
+      <c r="P291" s="15" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="292" spans="1:16">
-      <c r="A292" s="22"/>
-      <c r="B292" s="21"/>
-      <c r="O292" s="12"/>
-      <c r="P292" s="8"/>
+      <c r="A292" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B292" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C292" s="18">
+        <v>43105</v>
+      </c>
+      <c r="D292" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E292" s="63" t="s">
+        <v>412</v>
+      </c>
+      <c r="F292" s="63" t="s">
+        <v>413</v>
+      </c>
+      <c r="G292" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="H292" s="61">
+        <v>76116103</v>
+      </c>
+      <c r="I292" s="69" t="s">
+        <v>687</v>
+      </c>
+      <c r="J292" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K292" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L292" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M292" s="61" t="s">
+        <v>688</v>
+      </c>
+      <c r="N292" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O292" s="61">
+        <v>18651877708</v>
+      </c>
+      <c r="P292" s="15" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="293" spans="1:16">
-      <c r="A293" s="22"/>
-      <c r="B293" s="21"/>
-      <c r="O293" s="12"/>
-      <c r="P293" s="8"/>
+      <c r="A293" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B293" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C293" s="18">
+        <v>43105</v>
+      </c>
+      <c r="D293" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E293" s="63" t="s">
+        <v>412</v>
+      </c>
+      <c r="F293" s="63" t="s">
+        <v>413</v>
+      </c>
+      <c r="G293" s="61" t="s">
+        <v>650</v>
+      </c>
+      <c r="H293" s="61">
+        <v>76116720</v>
+      </c>
+      <c r="I293" s="69" t="s">
+        <v>689</v>
+      </c>
+      <c r="J293" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K293" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L293" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M293" s="61" t="s">
+        <v>690</v>
+      </c>
+      <c r="N293" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O293" s="61">
+        <v>15828549091</v>
+      </c>
+      <c r="P293" s="15" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="294" spans="1:16">
-      <c r="A294" s="22"/>
-      <c r="B294" s="21"/>
-      <c r="O294" s="12"/>
-      <c r="P294" s="8"/>
+      <c r="A294" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B294" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C294" s="18">
+        <v>43105</v>
+      </c>
+      <c r="D294" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E294" s="63" t="s">
+        <v>412</v>
+      </c>
+      <c r="F294" s="63" t="s">
+        <v>413</v>
+      </c>
+      <c r="G294" s="61" t="s">
+        <v>675</v>
+      </c>
+      <c r="H294" s="61">
+        <v>76118932</v>
+      </c>
+      <c r="I294" s="69" t="s">
+        <v>691</v>
+      </c>
+      <c r="J294" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K294" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L294" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M294" s="61" t="s">
+        <v>692</v>
+      </c>
+      <c r="N294" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O294" s="61">
+        <v>15810099357</v>
+      </c>
+      <c r="P294" s="15" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="295" spans="1:16">
-      <c r="A295" s="22"/>
-      <c r="B295" s="21"/>
-      <c r="O295" s="12"/>
-      <c r="P295" s="8"/>
+      <c r="A295" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B295" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C295" s="18">
+        <v>43105</v>
+      </c>
+      <c r="D295" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E295" s="63" t="s">
+        <v>412</v>
+      </c>
+      <c r="F295" s="63" t="s">
+        <v>413</v>
+      </c>
+      <c r="G295" s="61" t="s">
+        <v>398</v>
+      </c>
+      <c r="H295" s="61">
+        <v>76118953</v>
+      </c>
+      <c r="I295" s="69" t="s">
+        <v>693</v>
+      </c>
+      <c r="J295" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K295" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L295" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M295" s="61" t="s">
+        <v>694</v>
+      </c>
+      <c r="N295" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O295" s="61">
+        <v>15878899766</v>
+      </c>
+      <c r="P295" s="15" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="296" spans="1:16">
-      <c r="A296" s="22"/>
-      <c r="B296" s="21"/>
-      <c r="O296" s="12"/>
-      <c r="P296" s="8"/>
+      <c r="A296" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B296" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C296" s="18">
+        <v>43105</v>
+      </c>
+      <c r="D296" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E296" s="63" t="s">
+        <v>412</v>
+      </c>
+      <c r="F296" s="63" t="s">
+        <v>413</v>
+      </c>
+      <c r="G296" s="64" t="s">
+        <v>695</v>
+      </c>
+      <c r="H296" s="65">
+        <v>76119726</v>
+      </c>
+      <c r="I296" s="70" t="s">
+        <v>696</v>
+      </c>
+      <c r="J296" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K296" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L296" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M296" s="64" t="s">
+        <v>697</v>
+      </c>
+      <c r="N296" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O296" s="64">
+        <v>13510607237</v>
+      </c>
+      <c r="P296" s="15" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="297" spans="1:16">
-      <c r="A297" s="22"/>
-      <c r="B297" s="21"/>
-      <c r="O297" s="12"/>
-      <c r="P297" s="8"/>
+      <c r="A297" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B297" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C297" s="18">
+        <v>43105</v>
+      </c>
+      <c r="D297" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E297" s="63" t="s">
+        <v>412</v>
+      </c>
+      <c r="F297" s="63" t="s">
+        <v>413</v>
+      </c>
+      <c r="G297" s="64" t="s">
+        <v>543</v>
+      </c>
+      <c r="H297" s="65">
+        <v>76119718</v>
+      </c>
+      <c r="I297" s="62" t="s">
+        <v>698</v>
+      </c>
+      <c r="J297" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K297" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L297" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M297" s="64" t="s">
+        <v>699</v>
+      </c>
+      <c r="N297" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O297" s="64">
+        <v>18616721701</v>
+      </c>
+      <c r="P297" s="15" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="298" spans="1:16">
-      <c r="A298" s="22"/>
-      <c r="B298" s="21"/>
+      <c r="A298" s="8"/>
+      <c r="B298" s="66"/>
+      <c r="C298" s="18"/>
+      <c r="D298" s="45"/>
+      <c r="K298" s="16"/>
+      <c r="L298" s="15"/>
       <c r="O298" s="12"/>
-      <c r="P298" s="8"/>
+      <c r="P298" s="15"/>
     </row>
     <row r="299" spans="1:16">
-      <c r="A299" s="22"/>
-      <c r="B299" s="21"/>
+      <c r="A299" s="8"/>
+      <c r="B299" s="66"/>
+      <c r="C299" s="18"/>
+      <c r="D299" s="45"/>
+      <c r="K299" s="16"/>
+      <c r="L299" s="15"/>
       <c r="O299" s="12"/>
-      <c r="P299" s="8"/>
+      <c r="P299" s="15"/>
     </row>
     <row r="300" spans="1:16">
-      <c r="A300" s="22"/>
-      <c r="B300" s="21"/>
+      <c r="A300" s="8"/>
+      <c r="B300" s="66"/>
+      <c r="C300" s="18"/>
+      <c r="D300" s="45"/>
+      <c r="K300" s="16"/>
+      <c r="L300" s="15"/>
       <c r="O300" s="12"/>
-      <c r="P300" s="8"/>
+      <c r="P300" s="15"/>
     </row>
     <row r="301" spans="1:16">
-      <c r="A301" s="22"/>
-      <c r="B301" s="21"/>
+      <c r="A301" s="8"/>
+      <c r="B301" s="66"/>
+      <c r="C301" s="18"/>
+      <c r="D301" s="45"/>
+      <c r="K301" s="16"/>
+      <c r="L301" s="15"/>
       <c r="O301" s="12"/>
-      <c r="P301" s="8"/>
+      <c r="P301" s="15"/>
     </row>
     <row r="302" spans="1:16">
-      <c r="A302" s="22"/>
-      <c r="B302" s="21"/>
+      <c r="A302" s="8"/>
+      <c r="B302" s="66"/>
+      <c r="C302" s="18"/>
+      <c r="D302" s="45"/>
+      <c r="K302" s="16"/>
+      <c r="L302" s="15"/>
       <c r="O302" s="12"/>
-      <c r="P302" s="8"/>
+      <c r="P302" s="15"/>
     </row>
     <row r="303" spans="1:16">
-      <c r="A303" s="22"/>
-      <c r="B303" s="21"/>
+      <c r="A303" s="8"/>
+      <c r="B303" s="66"/>
+      <c r="C303" s="18"/>
+      <c r="D303" s="45"/>
+      <c r="K303" s="16"/>
+      <c r="L303" s="15"/>
       <c r="O303" s="12"/>
-      <c r="P303" s="8"/>
+      <c r="P303" s="15"/>
     </row>
     <row r="304" spans="1:16">
-      <c r="A304" s="22"/>
-      <c r="B304" s="21"/>
+      <c r="A304" s="8"/>
+      <c r="B304" s="66"/>
+      <c r="C304" s="18"/>
+      <c r="D304" s="45"/>
+      <c r="K304" s="16"/>
+      <c r="L304" s="15"/>
       <c r="O304" s="12"/>
-      <c r="P304" s="8"/>
+      <c r="P304" s="15"/>
     </row>
     <row r="305" spans="1:16">
-      <c r="A305" s="22"/>
-      <c r="B305" s="21"/>
+      <c r="A305" s="8"/>
+      <c r="B305" s="66"/>
+      <c r="C305" s="18"/>
+      <c r="D305" s="45"/>
+      <c r="K305" s="16"/>
+      <c r="L305" s="15"/>
       <c r="O305" s="12"/>
-      <c r="P305" s="8"/>
+      <c r="P305" s="15"/>
     </row>
     <row r="306" spans="1:16">
-      <c r="A306" s="22"/>
-      <c r="B306" s="21"/>
+      <c r="A306" s="8"/>
+      <c r="B306" s="66"/>
+      <c r="C306" s="18"/>
+      <c r="D306" s="45"/>
+      <c r="K306" s="16"/>
+      <c r="L306" s="15"/>
       <c r="O306" s="12"/>
-      <c r="P306" s="8"/>
+      <c r="P306" s="15"/>
     </row>
     <row r="307" spans="1:16">
-      <c r="A307" s="22"/>
-      <c r="B307" s="21"/>
+      <c r="A307" s="8"/>
+      <c r="B307" s="66"/>
+      <c r="C307" s="18"/>
+      <c r="D307" s="45"/>
+      <c r="K307" s="16"/>
+      <c r="L307" s="15"/>
       <c r="O307" s="12"/>
-      <c r="P307" s="8"/>
+      <c r="P307" s="15"/>
     </row>
     <row r="308" spans="1:16">
-      <c r="A308" s="22"/>
-      <c r="B308" s="21"/>
+      <c r="A308" s="8"/>
+      <c r="B308" s="66"/>
+      <c r="C308" s="18"/>
+      <c r="D308" s="45"/>
+      <c r="K308" s="16"/>
+      <c r="L308" s="15"/>
       <c r="O308" s="12"/>
-      <c r="P308" s="8"/>
+      <c r="P308" s="15"/>
     </row>
     <row r="309" spans="1:16">
-      <c r="A309" s="22"/>
-      <c r="B309" s="21"/>
+      <c r="A309" s="8"/>
+      <c r="B309" s="66"/>
+      <c r="C309" s="18"/>
+      <c r="D309" s="45"/>
+      <c r="K309" s="16"/>
+      <c r="L309" s="15"/>
       <c r="O309" s="12"/>
-      <c r="P309" s="8"/>
+      <c r="P309" s="15"/>
     </row>
     <row r="310" spans="1:16">
-      <c r="A310" s="22"/>
-      <c r="B310" s="21"/>
+      <c r="A310" s="8"/>
+      <c r="B310" s="66"/>
+      <c r="C310" s="18"/>
+      <c r="D310" s="45"/>
+      <c r="K310" s="16"/>
+      <c r="L310" s="15"/>
       <c r="O310" s="12"/>
-      <c r="P310" s="8"/>
+      <c r="P310" s="15"/>
     </row>
     <row r="311" spans="1:16">
-      <c r="A311" s="22"/>
-      <c r="B311" s="21"/>
+      <c r="A311" s="8"/>
+      <c r="B311" s="66"/>
+      <c r="C311" s="18"/>
+      <c r="D311" s="45"/>
+      <c r="K311" s="16"/>
+      <c r="L311" s="15"/>
       <c r="O311" s="12"/>
-      <c r="P311" s="8"/>
+      <c r="P311" s="15"/>
     </row>
     <row r="312" spans="1:16">
-      <c r="A312" s="22"/>
-      <c r="B312" s="21"/>
+      <c r="A312" s="8"/>
+      <c r="B312" s="66"/>
+      <c r="C312" s="18"/>
+      <c r="D312" s="45"/>
+      <c r="K312" s="16"/>
+      <c r="L312" s="15"/>
       <c r="O312" s="12"/>
-      <c r="P312" s="8"/>
+      <c r="P312" s="15"/>
     </row>
     <row r="313" spans="1:16">
-      <c r="A313" s="22"/>
-      <c r="B313" s="21"/>
+      <c r="A313" s="8"/>
+      <c r="B313" s="66"/>
+      <c r="C313" s="18"/>
+      <c r="D313" s="45"/>
+      <c r="K313" s="16"/>
+      <c r="L313" s="15"/>
       <c r="O313" s="12"/>
-      <c r="P313" s="8"/>
+      <c r="P313" s="15"/>
     </row>
     <row r="314" spans="1:16">
-      <c r="A314" s="22"/>
-      <c r="B314" s="21"/>
+      <c r="A314" s="8"/>
+      <c r="B314" s="66"/>
+      <c r="C314" s="18"/>
+      <c r="D314" s="45"/>
+      <c r="K314" s="16"/>
+      <c r="L314" s="15"/>
       <c r="O314" s="12"/>
       <c r="P314" s="8"/>
     </row>
     <row r="315" spans="1:16">
-      <c r="A315" s="22"/>
-      <c r="B315" s="21"/>
+      <c r="A315" s="8"/>
+      <c r="B315" s="66"/>
+      <c r="C315" s="18"/>
+      <c r="D315" s="45"/>
+      <c r="K315" s="16"/>
+      <c r="L315" s="15"/>
       <c r="O315" s="12"/>
       <c r="P315" s="8"/>
     </row>
     <row r="316" spans="1:16">
-      <c r="A316" s="22"/>
-      <c r="B316" s="21"/>
+      <c r="A316" s="8"/>
+      <c r="B316" s="66"/>
+      <c r="C316" s="18"/>
+      <c r="D316" s="45"/>
+      <c r="K316" s="16"/>
+      <c r="L316" s="15"/>
       <c r="O316" s="12"/>
       <c r="P316" s="8"/>
     </row>
     <row r="317" spans="1:16">
       <c r="A317" s="22"/>
-      <c r="B317" s="21"/>
+      <c r="B317" s="67"/>
       <c r="O317" s="12"/>
       <c r="P317" s="8"/>
     </row>
     <row r="318" spans="1:16">
       <c r="A318" s="22"/>
-      <c r="B318" s="21"/>
+      <c r="B318" s="67"/>
       <c r="O318" s="12"/>
       <c r="P318" s="8"/>
     </row>
     <row r="319" spans="1:16">
       <c r="A319" s="22"/>
-      <c r="B319" s="21"/>
+      <c r="B319" s="67"/>
       <c r="O319" s="12"/>
       <c r="P319" s="8"/>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="22"/>
-      <c r="B320" s="21"/>
+      <c r="B320" s="67"/>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="22"/>
-      <c r="B321" s="21"/>
+      <c r="B321" s="67"/>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="22"/>
-      <c r="B322" s="21"/>
+      <c r="B322" s="67"/>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="22"/>
-      <c r="B323" s="21"/>
+      <c r="B323" s="67"/>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="22"/>
-      <c r="B324" s="21"/>
+      <c r="B324" s="67"/>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="22"/>
@@ -17199,7 +18913,7 @@
       <c r="B413" s="21"/>
     </row>
     <row r="414" spans="1:2">
-      <c r="A414" s="60"/>
+      <c r="A414" s="71"/>
       <c r="B414" s="21"/>
     </row>
     <row r="415" spans="1:2">
@@ -17271,7 +18985,7 @@
       <c r="B431" s="21"/>
     </row>
     <row r="432" spans="1:2">
-      <c r="A432" s="60"/>
+      <c r="A432" s="71"/>
       <c r="B432" s="21"/>
     </row>
     <row r="433" spans="1:2">
@@ -17279,7 +18993,7 @@
       <c r="B433" s="21"/>
     </row>
     <row r="434" spans="1:2">
-      <c r="A434" s="60"/>
+      <c r="A434" s="71"/>
       <c r="B434" s="21"/>
     </row>
     <row r="435" spans="1:2">
@@ -17287,7 +19001,7 @@
       <c r="B435" s="21"/>
     </row>
     <row r="436" spans="1:2">
-      <c r="A436" s="60"/>
+      <c r="A436" s="71"/>
       <c r="B436" s="21"/>
     </row>
     <row r="437" spans="1:2">
@@ -17295,7 +19009,7 @@
       <c r="B437" s="21"/>
     </row>
     <row r="438" spans="1:2">
-      <c r="A438" s="60"/>
+      <c r="A438" s="71"/>
       <c r="B438" s="21"/>
     </row>
     <row r="439" spans="1:2">
@@ -17303,7 +19017,7 @@
       <c r="B439" s="21"/>
     </row>
     <row r="440" spans="1:2">
-      <c r="A440" s="60"/>
+      <c r="A440" s="71"/>
       <c r="B440" s="21"/>
     </row>
     <row r="441" spans="1:2">
@@ -17311,7 +19025,7 @@
       <c r="B441" s="21"/>
     </row>
     <row r="442" spans="1:2">
-      <c r="A442" s="60"/>
+      <c r="A442" s="71"/>
       <c r="B442" s="21"/>
     </row>
     <row r="443" spans="1:2">
@@ -17319,7 +19033,7 @@
       <c r="B443" s="21"/>
     </row>
     <row r="444" spans="1:2">
-      <c r="A444" s="60"/>
+      <c r="A444" s="71"/>
       <c r="B444" s="21"/>
     </row>
     <row r="445" spans="1:2">
@@ -17327,7 +19041,7 @@
       <c r="B445" s="21"/>
     </row>
     <row r="446" spans="1:2">
-      <c r="A446" s="60"/>
+      <c r="A446" s="71"/>
       <c r="B446" s="21"/>
     </row>
     <row r="447" spans="1:2">
@@ -17335,7 +19049,7 @@
       <c r="B447" s="21"/>
     </row>
     <row r="448" spans="1:2">
-      <c r="A448" s="60"/>
+      <c r="A448" s="71"/>
       <c r="B448" s="21"/>
     </row>
     <row r="449" spans="1:2">
@@ -17343,7 +19057,7 @@
       <c r="B449" s="21"/>
     </row>
     <row r="450" spans="1:2">
-      <c r="A450" s="60"/>
+      <c r="A450" s="71"/>
       <c r="B450" s="21"/>
     </row>
     <row r="451" spans="1:2">
@@ -17351,7 +19065,7 @@
       <c r="B451" s="21"/>
     </row>
     <row r="452" spans="1:2">
-      <c r="A452" s="60"/>
+      <c r="A452" s="71"/>
       <c r="B452" s="21"/>
     </row>
     <row r="453" spans="1:2">
@@ -17359,7 +19073,7 @@
       <c r="B453" s="21"/>
     </row>
     <row r="454" spans="1:2">
-      <c r="A454" s="60"/>
+      <c r="A454" s="71"/>
       <c r="B454" s="21"/>
     </row>
     <row r="455" spans="1:2">
@@ -17367,7 +19081,7 @@
       <c r="B455" s="21"/>
     </row>
     <row r="456" spans="1:2">
-      <c r="A456" s="60"/>
+      <c r="A456" s="71"/>
       <c r="B456" s="21"/>
     </row>
     <row r="457" spans="1:2">
@@ -17375,7 +19089,7 @@
       <c r="B457" s="21"/>
     </row>
     <row r="458" spans="1:2">
-      <c r="A458" s="60"/>
+      <c r="A458" s="71"/>
       <c r="B458" s="21"/>
     </row>
     <row r="459" spans="1:2">
@@ -17383,7 +19097,7 @@
       <c r="B459" s="21"/>
     </row>
     <row r="460" spans="1:2">
-      <c r="A460" s="60"/>
+      <c r="A460" s="71"/>
       <c r="B460" s="21"/>
     </row>
     <row r="461" spans="1:2">
@@ -17391,7 +19105,7 @@
       <c r="B461" s="21"/>
     </row>
     <row r="462" spans="1:2">
-      <c r="A462" s="60"/>
+      <c r="A462" s="71"/>
       <c r="B462" s="21"/>
     </row>
     <row r="463" spans="1:2">
@@ -17399,7 +19113,7 @@
       <c r="B463" s="21"/>
     </row>
     <row r="464" spans="1:2">
-      <c r="A464" s="60"/>
+      <c r="A464" s="71"/>
       <c r="B464" s="21"/>
     </row>
     <row r="465" spans="1:2">
@@ -17407,7 +19121,7 @@
       <c r="B465" s="21"/>
     </row>
     <row r="466" spans="1:2">
-      <c r="A466" s="60"/>
+      <c r="A466" s="71"/>
       <c r="B466" s="21"/>
     </row>
     <row r="467" spans="1:2">
@@ -17415,7 +19129,7 @@
       <c r="B467" s="21"/>
     </row>
     <row r="468" spans="1:2">
-      <c r="A468" s="60"/>
+      <c r="A468" s="71"/>
       <c r="B468" s="21"/>
     </row>
     <row r="469" spans="1:2">
@@ -17423,7 +19137,7 @@
       <c r="B469" s="21"/>
     </row>
     <row r="470" spans="1:2">
-      <c r="A470" s="60"/>
+      <c r="A470" s="71"/>
       <c r="B470" s="21"/>
     </row>
     <row r="471" spans="1:2">
@@ -17431,7 +19145,7 @@
       <c r="B471" s="21"/>
     </row>
     <row r="472" spans="1:2">
-      <c r="A472" s="60"/>
+      <c r="A472" s="71"/>
       <c r="B472" s="21"/>
     </row>
     <row r="473" spans="1:2">
@@ -17439,7 +19153,7 @@
       <c r="B473" s="21"/>
     </row>
     <row r="474" spans="1:2">
-      <c r="A474" s="60"/>
+      <c r="A474" s="71"/>
       <c r="B474" s="21"/>
     </row>
     <row r="475" spans="1:2">
@@ -17447,7 +19161,7 @@
       <c r="B475" s="21"/>
     </row>
     <row r="476" spans="1:2">
-      <c r="A476" s="60"/>
+      <c r="A476" s="71"/>
       <c r="B476" s="21"/>
     </row>
     <row r="477" spans="1:2">
@@ -17455,7 +19169,7 @@
       <c r="B477" s="21"/>
     </row>
     <row r="478" spans="1:2">
-      <c r="A478" s="60"/>
+      <c r="A478" s="71"/>
       <c r="B478" s="21"/>
     </row>
     <row r="479" spans="1:2">
@@ -17463,7 +19177,7 @@
       <c r="B479" s="21"/>
     </row>
     <row r="480" spans="1:2">
-      <c r="A480" s="60"/>
+      <c r="A480" s="71"/>
       <c r="B480" s="21"/>
     </row>
     <row r="481" spans="1:2">
@@ -17471,7 +19185,7 @@
       <c r="B481" s="21"/>
     </row>
     <row r="482" spans="1:2">
-      <c r="A482" s="60"/>
+      <c r="A482" s="71"/>
       <c r="B482" s="21"/>
     </row>
     <row r="483" spans="1:2">
@@ -17479,7 +19193,7 @@
       <c r="B483" s="21"/>
     </row>
     <row r="484" spans="1:2">
-      <c r="A484" s="60"/>
+      <c r="A484" s="71"/>
       <c r="B484" s="21"/>
     </row>
     <row r="485" spans="1:2">
@@ -17487,7 +19201,7 @@
       <c r="B485" s="21"/>
     </row>
     <row r="486" spans="1:2">
-      <c r="A486" s="60"/>
+      <c r="A486" s="71"/>
       <c r="B486" s="21"/>
     </row>
     <row r="487" spans="1:2">
@@ -17495,7 +19209,7 @@
       <c r="B487" s="21"/>
     </row>
     <row r="488" spans="1:2">
-      <c r="A488" s="60"/>
+      <c r="A488" s="71"/>
       <c r="B488" s="21"/>
     </row>
     <row r="489" spans="1:2">
@@ -17503,7 +19217,7 @@
       <c r="B489" s="21"/>
     </row>
     <row r="490" spans="1:2">
-      <c r="A490" s="60"/>
+      <c r="A490" s="71"/>
       <c r="B490" s="21"/>
     </row>
     <row r="491" spans="1:2">
@@ -17511,7 +19225,7 @@
       <c r="B491" s="21"/>
     </row>
     <row r="492" spans="1:2">
-      <c r="A492" s="60"/>
+      <c r="A492" s="71"/>
       <c r="B492" s="21"/>
     </row>
     <row r="493" spans="1:2">
@@ -17519,7 +19233,7 @@
       <c r="B493" s="21"/>
     </row>
     <row r="494" spans="1:2">
-      <c r="A494" s="60"/>
+      <c r="A494" s="71"/>
       <c r="B494" s="21"/>
     </row>
     <row r="495" spans="1:2">
@@ -17527,7 +19241,7 @@
       <c r="B495" s="21"/>
     </row>
     <row r="496" spans="1:2">
-      <c r="A496" s="60"/>
+      <c r="A496" s="71"/>
       <c r="B496" s="21"/>
     </row>
     <row r="497" spans="1:2">
@@ -17535,7 +19249,7 @@
       <c r="B497" s="21"/>
     </row>
     <row r="498" spans="1:2">
-      <c r="A498" s="60"/>
+      <c r="A498" s="71"/>
       <c r="B498" s="21"/>
     </row>
     <row r="499" spans="1:2">
@@ -17543,7 +19257,7 @@
       <c r="B499" s="21"/>
     </row>
     <row r="500" spans="1:2">
-      <c r="A500" s="60"/>
+      <c r="A500" s="71"/>
       <c r="B500" s="21"/>
     </row>
     <row r="501" spans="1:2">
@@ -17551,7 +19265,7 @@
       <c r="B501" s="21"/>
     </row>
     <row r="502" spans="1:2">
-      <c r="A502" s="60"/>
+      <c r="A502" s="71"/>
       <c r="B502" s="21"/>
     </row>
     <row r="503" spans="1:2">
@@ -17559,7 +19273,7 @@
       <c r="B503" s="21"/>
     </row>
     <row r="504" spans="1:2">
-      <c r="A504" s="60"/>
+      <c r="A504" s="71"/>
       <c r="B504" s="21"/>
     </row>
     <row r="505" spans="1:2">
@@ -17567,7 +19281,7 @@
       <c r="B505" s="21"/>
     </row>
     <row r="506" spans="1:2">
-      <c r="A506" s="60"/>
+      <c r="A506" s="71"/>
       <c r="B506" s="21"/>
     </row>
     <row r="507" spans="1:2">
@@ -17575,7 +19289,7 @@
       <c r="B507" s="21"/>
     </row>
     <row r="508" spans="1:2">
-      <c r="A508" s="60"/>
+      <c r="A508" s="71"/>
       <c r="B508" s="21"/>
     </row>
     <row r="509" spans="1:2">
@@ -17583,7 +19297,7 @@
       <c r="B509" s="21"/>
     </row>
     <row r="510" spans="1:2">
-      <c r="A510" s="60"/>
+      <c r="A510" s="71"/>
       <c r="B510" s="21"/>
     </row>
     <row r="511" spans="1:2">
@@ -17591,7 +19305,7 @@
       <c r="B511" s="21"/>
     </row>
     <row r="512" spans="1:2">
-      <c r="A512" s="60"/>
+      <c r="A512" s="71"/>
       <c r="B512" s="21"/>
     </row>
     <row r="513" spans="1:2">
@@ -17599,7 +19313,7 @@
       <c r="B513" s="21"/>
     </row>
     <row r="514" spans="1:2">
-      <c r="A514" s="60"/>
+      <c r="A514" s="71"/>
       <c r="B514" s="21"/>
     </row>
     <row r="515" spans="1:2">
@@ -17607,7 +19321,7 @@
       <c r="B515" s="21"/>
     </row>
     <row r="516" spans="1:2">
-      <c r="A516" s="60"/>
+      <c r="A516" s="71"/>
       <c r="B516" s="21"/>
     </row>
     <row r="517" spans="1:2">
@@ -17615,7 +19329,7 @@
       <c r="B517" s="21"/>
     </row>
     <row r="518" spans="1:2">
-      <c r="A518" s="60"/>
+      <c r="A518" s="71"/>
       <c r="B518" s="21"/>
     </row>
     <row r="519" spans="1:2">
@@ -17623,7 +19337,7 @@
       <c r="B519" s="21"/>
     </row>
     <row r="520" spans="1:2">
-      <c r="A520" s="60"/>
+      <c r="A520" s="71"/>
       <c r="B520" s="21"/>
     </row>
     <row r="521" spans="1:2">
@@ -17631,7 +19345,7 @@
       <c r="B521" s="21"/>
     </row>
     <row r="522" spans="1:2">
-      <c r="A522" s="60"/>
+      <c r="A522" s="71"/>
       <c r="B522" s="21"/>
     </row>
     <row r="523" spans="1:2">
@@ -17639,7 +19353,7 @@
       <c r="B523" s="21"/>
     </row>
     <row r="524" spans="1:2">
-      <c r="A524" s="60"/>
+      <c r="A524" s="71"/>
       <c r="B524" s="21"/>
     </row>
     <row r="525" spans="1:2">
@@ -17647,7 +19361,7 @@
       <c r="B525" s="21"/>
     </row>
     <row r="526" spans="1:2">
-      <c r="A526" s="60"/>
+      <c r="A526" s="71"/>
       <c r="B526" s="21"/>
     </row>
     <row r="527" spans="1:2">
@@ -17655,7 +19369,7 @@
       <c r="B527" s="21"/>
     </row>
     <row r="528" spans="1:2">
-      <c r="A528" s="60"/>
+      <c r="A528" s="71"/>
       <c r="B528" s="21"/>
     </row>
     <row r="529" spans="1:2">
@@ -17663,7 +19377,7 @@
       <c r="B529" s="21"/>
     </row>
     <row r="530" spans="1:2">
-      <c r="A530" s="60"/>
+      <c r="A530" s="71"/>
       <c r="B530" s="21"/>
     </row>
     <row r="531" spans="1:2">
@@ -17671,7 +19385,7 @@
       <c r="B531" s="21"/>
     </row>
     <row r="532" spans="1:2">
-      <c r="A532" s="60"/>
+      <c r="A532" s="71"/>
       <c r="B532" s="21"/>
     </row>
     <row r="533" spans="1:2">
@@ -17679,7 +19393,7 @@
       <c r="B533" s="21"/>
     </row>
     <row r="534" spans="1:2">
-      <c r="A534" s="60"/>
+      <c r="A534" s="71"/>
       <c r="B534" s="21"/>
     </row>
     <row r="535" spans="1:2">
@@ -17687,7 +19401,7 @@
       <c r="B535" s="21"/>
     </row>
     <row r="536" spans="1:2">
-      <c r="A536" s="60"/>
+      <c r="A536" s="71"/>
       <c r="B536" s="21"/>
     </row>
     <row r="537" spans="1:2">
@@ -17695,7 +19409,7 @@
       <c r="B537" s="21"/>
     </row>
     <row r="538" spans="1:2">
-      <c r="A538" s="60"/>
+      <c r="A538" s="71"/>
       <c r="B538" s="21"/>
     </row>
     <row r="539" spans="1:2">
@@ -17703,7 +19417,7 @@
       <c r="B539" s="21"/>
     </row>
     <row r="540" spans="1:2">
-      <c r="A540" s="60"/>
+      <c r="A540" s="71"/>
       <c r="B540" s="21"/>
     </row>
     <row r="541" spans="1:2">
@@ -17711,7 +19425,7 @@
       <c r="B541" s="21"/>
     </row>
     <row r="542" spans="1:2">
-      <c r="A542" s="60"/>
+      <c r="A542" s="71"/>
       <c r="B542" s="21"/>
     </row>
     <row r="543" spans="1:2">
@@ -17719,7 +19433,7 @@
       <c r="B543" s="21"/>
     </row>
     <row r="544" spans="1:2">
-      <c r="A544" s="60"/>
+      <c r="A544" s="71"/>
       <c r="B544" s="21"/>
     </row>
     <row r="545" spans="1:2">
@@ -17727,7 +19441,7 @@
       <c r="B545" s="21"/>
     </row>
     <row r="546" spans="1:2">
-      <c r="A546" s="60"/>
+      <c r="A546" s="71"/>
       <c r="B546" s="21"/>
     </row>
     <row r="547" spans="1:2">
@@ -17735,7 +19449,7 @@
       <c r="B547" s="21"/>
     </row>
     <row r="548" spans="1:2">
-      <c r="A548" s="60"/>
+      <c r="A548" s="71"/>
       <c r="B548" s="21"/>
     </row>
     <row r="549" spans="1:2">
@@ -17743,7 +19457,7 @@
       <c r="B549" s="21"/>
     </row>
     <row r="550" spans="1:2">
-      <c r="A550" s="60"/>
+      <c r="A550" s="71"/>
       <c r="B550" s="21"/>
     </row>
     <row r="551" spans="1:2">
@@ -17751,7 +19465,7 @@
       <c r="B551" s="21"/>
     </row>
     <row r="552" spans="1:2">
-      <c r="A552" s="60"/>
+      <c r="A552" s="71"/>
       <c r="B552" s="21"/>
     </row>
     <row r="553" spans="1:2">
@@ -17759,7 +19473,7 @@
       <c r="B553" s="21"/>
     </row>
     <row r="554" spans="1:2">
-      <c r="A554" s="60"/>
+      <c r="A554" s="71"/>
       <c r="B554" s="21"/>
     </row>
     <row r="555" spans="1:2">
@@ -17767,7 +19481,7 @@
       <c r="B555" s="21"/>
     </row>
     <row r="556" spans="1:2">
-      <c r="A556" s="60"/>
+      <c r="A556" s="71"/>
       <c r="B556" s="21"/>
     </row>
     <row r="557" spans="1:2">
@@ -17775,7 +19489,7 @@
       <c r="B557" s="21"/>
     </row>
     <row r="558" spans="1:2">
-      <c r="A558" s="60"/>
+      <c r="A558" s="71"/>
       <c r="B558" s="21"/>
     </row>
     <row r="559" spans="1:2">
@@ -17783,7 +19497,7 @@
       <c r="B559" s="21"/>
     </row>
     <row r="560" spans="1:2">
-      <c r="A560" s="60"/>
+      <c r="A560" s="71"/>
       <c r="B560" s="21"/>
     </row>
     <row r="561" spans="1:2">
@@ -17791,7 +19505,7 @@
       <c r="B561" s="21"/>
     </row>
     <row r="562" spans="1:2">
-      <c r="A562" s="60"/>
+      <c r="A562" s="71"/>
       <c r="B562" s="21"/>
     </row>
     <row r="563" spans="1:2">
@@ -17799,7 +19513,7 @@
       <c r="B563" s="21"/>
     </row>
     <row r="564" spans="1:2">
-      <c r="A564" s="60"/>
+      <c r="A564" s="71"/>
       <c r="B564" s="21"/>
     </row>
     <row r="565" spans="1:2">
@@ -17807,7 +19521,7 @@
       <c r="B565" s="21"/>
     </row>
     <row r="566" spans="1:2">
-      <c r="A566" s="60"/>
+      <c r="A566" s="71"/>
       <c r="B566" s="21"/>
     </row>
     <row r="567" spans="1:2">
@@ -17815,7 +19529,7 @@
       <c r="B567" s="21"/>
     </row>
     <row r="568" spans="1:2">
-      <c r="A568" s="60"/>
+      <c r="A568" s="71"/>
       <c r="B568" s="21"/>
     </row>
     <row r="569" spans="1:2">
@@ -17823,7 +19537,7 @@
       <c r="B569" s="21"/>
     </row>
     <row r="570" spans="1:2">
-      <c r="A570" s="60"/>
+      <c r="A570" s="71"/>
       <c r="B570" s="21"/>
     </row>
     <row r="571" spans="1:2">
@@ -17831,7 +19545,7 @@
       <c r="B571" s="21"/>
     </row>
     <row r="572" spans="1:2">
-      <c r="A572" s="60"/>
+      <c r="A572" s="71"/>
       <c r="B572" s="21"/>
     </row>
     <row r="573" spans="1:2">
@@ -17839,7 +19553,7 @@
       <c r="B573" s="21"/>
     </row>
     <row r="574" spans="1:2">
-      <c r="A574" s="60"/>
+      <c r="A574" s="71"/>
       <c r="B574" s="21"/>
     </row>
     <row r="575" spans="1:2">
@@ -17847,7 +19561,7 @@
       <c r="B575" s="21"/>
     </row>
     <row r="576" spans="1:2">
-      <c r="A576" s="60"/>
+      <c r="A576" s="71"/>
       <c r="B576" s="21"/>
     </row>
     <row r="577" spans="1:2">
@@ -17855,7 +19569,7 @@
       <c r="B577" s="21"/>
     </row>
     <row r="578" spans="1:2">
-      <c r="A578" s="60"/>
+      <c r="A578" s="71"/>
       <c r="B578" s="21"/>
     </row>
     <row r="579" spans="1:2">
@@ -17863,7 +19577,7 @@
       <c r="B579" s="21"/>
     </row>
     <row r="580" spans="1:2">
-      <c r="A580" s="60"/>
+      <c r="A580" s="71"/>
       <c r="B580" s="21"/>
     </row>
     <row r="581" spans="1:2">
@@ -17871,7 +19585,7 @@
       <c r="B581" s="21"/>
     </row>
     <row r="582" spans="1:2">
-      <c r="A582" s="60"/>
+      <c r="A582" s="71"/>
       <c r="B582" s="21"/>
     </row>
     <row r="583" spans="1:2">
@@ -17879,7 +19593,7 @@
       <c r="B583" s="21"/>
     </row>
     <row r="584" spans="1:2">
-      <c r="A584" s="60"/>
+      <c r="A584" s="71"/>
       <c r="B584" s="21"/>
     </row>
     <row r="585" spans="1:2">
@@ -17887,7 +19601,7 @@
       <c r="B585" s="21"/>
     </row>
     <row r="586" spans="1:2">
-      <c r="A586" s="60"/>
+      <c r="A586" s="71"/>
       <c r="B586" s="21"/>
     </row>
     <row r="587" spans="1:2">
@@ -17895,7 +19609,7 @@
       <c r="B587" s="21"/>
     </row>
     <row r="588" spans="1:2">
-      <c r="A588" s="60"/>
+      <c r="A588" s="71"/>
       <c r="B588" s="21"/>
     </row>
     <row r="589" spans="1:2">
@@ -17903,7 +19617,7 @@
       <c r="B589" s="21"/>
     </row>
     <row r="590" spans="1:2">
-      <c r="A590" s="60"/>
+      <c r="A590" s="71"/>
       <c r="B590" s="21"/>
     </row>
     <row r="591" spans="1:2">
@@ -17911,7 +19625,7 @@
       <c r="B591" s="21"/>
     </row>
     <row r="592" spans="1:2">
-      <c r="A592" s="60"/>
+      <c r="A592" s="71"/>
       <c r="B592" s="21"/>
     </row>
     <row r="593" spans="1:2">
@@ -17919,7 +19633,7 @@
       <c r="B593" s="15"/>
     </row>
     <row r="594" spans="1:2">
-      <c r="A594" s="60"/>
+      <c r="A594" s="71"/>
       <c r="B594" s="15"/>
     </row>
     <row r="595" spans="1:2">
@@ -17927,7 +19641,7 @@
       <c r="B595" s="15"/>
     </row>
     <row r="596" spans="1:2">
-      <c r="A596" s="60"/>
+      <c r="A596" s="71"/>
       <c r="B596" s="15"/>
     </row>
     <row r="597" spans="1:2">
@@ -17935,7 +19649,7 @@
       <c r="B597" s="15"/>
     </row>
     <row r="598" spans="1:2">
-      <c r="A598" s="60"/>
+      <c r="A598" s="71"/>
       <c r="B598" s="15"/>
     </row>
     <row r="599" spans="1:2">
@@ -17943,7 +19657,7 @@
       <c r="B599" s="15"/>
     </row>
     <row r="600" spans="1:2">
-      <c r="A600" s="60"/>
+      <c r="A600" s="71"/>
       <c r="B600" s="15"/>
     </row>
     <row r="601" spans="1:2">
@@ -17951,7 +19665,7 @@
       <c r="B601" s="15"/>
     </row>
     <row r="602" spans="1:2">
-      <c r="A602" s="60"/>
+      <c r="A602" s="71"/>
       <c r="B602" s="15"/>
     </row>
     <row r="603" spans="1:2">
@@ -17959,7 +19673,7 @@
       <c r="B603" s="15"/>
     </row>
     <row r="604" spans="1:2">
-      <c r="A604" s="60"/>
+      <c r="A604" s="71"/>
       <c r="B604" s="15"/>
     </row>
     <row r="605" spans="1:2">
@@ -17967,7 +19681,7 @@
       <c r="B605" s="15"/>
     </row>
     <row r="606" spans="1:2">
-      <c r="A606" s="60"/>
+      <c r="A606" s="71"/>
       <c r="B606" s="15"/>
     </row>
     <row r="607" spans="1:2">
@@ -17975,7 +19689,7 @@
       <c r="B607" s="15"/>
     </row>
     <row r="608" spans="1:2">
-      <c r="A608" s="60"/>
+      <c r="A608" s="71"/>
       <c r="B608" s="15"/>
     </row>
     <row r="609" spans="1:2">
@@ -17983,7 +19697,7 @@
       <c r="B609" s="15"/>
     </row>
     <row r="610" spans="1:2">
-      <c r="A610" s="60"/>
+      <c r="A610" s="71"/>
       <c r="B610" s="15"/>
     </row>
     <row r="611" spans="1:2">
@@ -17991,7 +19705,7 @@
       <c r="B611" s="15"/>
     </row>
     <row r="612" spans="1:2">
-      <c r="A612" s="60"/>
+      <c r="A612" s="71"/>
       <c r="B612" s="15"/>
     </row>
     <row r="613" spans="1:2">
@@ -17999,7 +19713,7 @@
       <c r="B613" s="15"/>
     </row>
     <row r="614" spans="1:2">
-      <c r="A614" s="60"/>
+      <c r="A614" s="71"/>
       <c r="B614" s="15"/>
     </row>
     <row r="615" spans="1:2">
@@ -18007,7 +19721,7 @@
       <c r="B615" s="15"/>
     </row>
     <row r="616" spans="1:2">
-      <c r="A616" s="60"/>
+      <c r="A616" s="71"/>
       <c r="B616" s="15"/>
     </row>
     <row r="617" spans="1:2">
@@ -18015,431 +19729,431 @@
       <c r="B617" s="15"/>
     </row>
     <row r="618" spans="1:1">
-      <c r="A618" s="61"/>
+      <c r="A618" s="72"/>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" s="12"/>
     </row>
     <row r="620" spans="1:1">
-      <c r="A620" s="61"/>
+      <c r="A620" s="72"/>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" s="12"/>
     </row>
     <row r="622" spans="1:1">
-      <c r="A622" s="61"/>
+      <c r="A622" s="72"/>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" s="12"/>
     </row>
     <row r="624" spans="1:1">
-      <c r="A624" s="61"/>
+      <c r="A624" s="72"/>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" s="12"/>
     </row>
     <row r="626" spans="1:1">
-      <c r="A626" s="61"/>
+      <c r="A626" s="72"/>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" s="12"/>
     </row>
     <row r="628" spans="1:1">
-      <c r="A628" s="61"/>
+      <c r="A628" s="72"/>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" s="12"/>
     </row>
     <row r="630" spans="1:1">
-      <c r="A630" s="61"/>
+      <c r="A630" s="72"/>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" s="12"/>
     </row>
     <row r="632" spans="1:1">
-      <c r="A632" s="61"/>
+      <c r="A632" s="72"/>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" s="12"/>
     </row>
     <row r="634" spans="1:1">
-      <c r="A634" s="61"/>
+      <c r="A634" s="72"/>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" s="12"/>
     </row>
     <row r="636" spans="1:1">
-      <c r="A636" s="61"/>
+      <c r="A636" s="72"/>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" s="12"/>
     </row>
     <row r="638" spans="1:1">
-      <c r="A638" s="61"/>
+      <c r="A638" s="72"/>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" s="12"/>
     </row>
     <row r="640" spans="1:1">
-      <c r="A640" s="61"/>
+      <c r="A640" s="72"/>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" s="12"/>
     </row>
     <row r="642" spans="1:1">
-      <c r="A642" s="61"/>
+      <c r="A642" s="72"/>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" s="12"/>
     </row>
     <row r="644" spans="1:1">
-      <c r="A644" s="61"/>
+      <c r="A644" s="72"/>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" s="12"/>
     </row>
     <row r="646" spans="1:1">
-      <c r="A646" s="61"/>
+      <c r="A646" s="72"/>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" s="12"/>
     </row>
     <row r="648" spans="1:1">
-      <c r="A648" s="61"/>
+      <c r="A648" s="72"/>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" s="12"/>
     </row>
     <row r="650" spans="1:1">
-      <c r="A650" s="61"/>
+      <c r="A650" s="72"/>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" s="12"/>
     </row>
     <row r="652" spans="1:1">
-      <c r="A652" s="61"/>
+      <c r="A652" s="72"/>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" s="12"/>
     </row>
     <row r="654" spans="1:1">
-      <c r="A654" s="61"/>
+      <c r="A654" s="72"/>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" s="12"/>
     </row>
     <row r="656" spans="1:1">
-      <c r="A656" s="61"/>
+      <c r="A656" s="72"/>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" s="12"/>
     </row>
     <row r="658" spans="1:1">
-      <c r="A658" s="61"/>
+      <c r="A658" s="72"/>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" s="12"/>
     </row>
     <row r="660" spans="1:1">
-      <c r="A660" s="61"/>
+      <c r="A660" s="72"/>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" s="12"/>
     </row>
     <row r="662" spans="1:1">
-      <c r="A662" s="61"/>
+      <c r="A662" s="72"/>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" s="12"/>
     </row>
     <row r="664" spans="1:1">
-      <c r="A664" s="61"/>
+      <c r="A664" s="72"/>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" s="12"/>
     </row>
     <row r="666" spans="1:1">
-      <c r="A666" s="61"/>
+      <c r="A666" s="72"/>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" s="12"/>
     </row>
     <row r="668" spans="1:1">
-      <c r="A668" s="61"/>
+      <c r="A668" s="72"/>
     </row>
     <row r="669" spans="1:1">
       <c r="A669" s="12"/>
     </row>
     <row r="670" spans="1:1">
-      <c r="A670" s="61"/>
+      <c r="A670" s="72"/>
     </row>
     <row r="671" spans="1:1">
       <c r="A671" s="12"/>
     </row>
     <row r="672" spans="1:1">
-      <c r="A672" s="61"/>
+      <c r="A672" s="72"/>
     </row>
     <row r="673" spans="1:1">
       <c r="A673" s="12"/>
     </row>
     <row r="674" spans="1:1">
-      <c r="A674" s="61"/>
+      <c r="A674" s="72"/>
     </row>
     <row r="675" spans="1:1">
       <c r="A675" s="12"/>
     </row>
     <row r="676" spans="1:1">
-      <c r="A676" s="61"/>
+      <c r="A676" s="72"/>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" s="12"/>
     </row>
     <row r="678" spans="1:1">
-      <c r="A678" s="61"/>
+      <c r="A678" s="72"/>
     </row>
     <row r="679" spans="1:1">
       <c r="A679" s="12"/>
     </row>
     <row r="680" spans="1:1">
-      <c r="A680" s="61"/>
+      <c r="A680" s="72"/>
     </row>
     <row r="681" spans="1:1">
       <c r="A681" s="12"/>
     </row>
     <row r="682" spans="1:1">
-      <c r="A682" s="61"/>
+      <c r="A682" s="72"/>
     </row>
     <row r="683" spans="1:1">
       <c r="A683" s="12"/>
     </row>
     <row r="684" spans="1:1">
-      <c r="A684" s="61"/>
+      <c r="A684" s="72"/>
     </row>
     <row r="685" spans="1:1">
       <c r="A685" s="12"/>
     </row>
     <row r="686" spans="1:1">
-      <c r="A686" s="61"/>
+      <c r="A686" s="72"/>
     </row>
     <row r="687" spans="1:1">
       <c r="A687" s="12"/>
     </row>
     <row r="688" spans="1:1">
-      <c r="A688" s="61"/>
+      <c r="A688" s="72"/>
     </row>
     <row r="689" spans="1:1">
       <c r="A689" s="12"/>
     </row>
     <row r="690" spans="1:1">
-      <c r="A690" s="61"/>
+      <c r="A690" s="72"/>
     </row>
     <row r="691" spans="1:1">
       <c r="A691" s="12"/>
     </row>
     <row r="692" spans="1:1">
-      <c r="A692" s="61"/>
+      <c r="A692" s="72"/>
     </row>
     <row r="693" spans="1:1">
       <c r="A693" s="12"/>
     </row>
     <row r="694" spans="1:1">
-      <c r="A694" s="61"/>
+      <c r="A694" s="72"/>
     </row>
     <row r="695" spans="1:1">
       <c r="A695" s="12"/>
     </row>
     <row r="696" spans="1:1">
-      <c r="A696" s="61"/>
+      <c r="A696" s="72"/>
     </row>
     <row r="697" spans="1:1">
       <c r="A697" s="12"/>
     </row>
     <row r="698" spans="1:1">
-      <c r="A698" s="61"/>
+      <c r="A698" s="72"/>
     </row>
     <row r="699" spans="1:1">
       <c r="A699" s="12"/>
     </row>
     <row r="700" spans="1:1">
-      <c r="A700" s="61"/>
+      <c r="A700" s="72"/>
     </row>
     <row r="701" spans="1:1">
       <c r="A701" s="12"/>
     </row>
     <row r="702" spans="1:1">
-      <c r="A702" s="61"/>
+      <c r="A702" s="72"/>
     </row>
     <row r="703" spans="1:1">
       <c r="A703" s="12"/>
     </row>
     <row r="704" spans="1:1">
-      <c r="A704" s="61"/>
+      <c r="A704" s="72"/>
     </row>
     <row r="705" spans="1:1">
       <c r="A705" s="12"/>
     </row>
     <row r="706" spans="1:1">
-      <c r="A706" s="61"/>
+      <c r="A706" s="72"/>
     </row>
     <row r="707" spans="1:1">
       <c r="A707" s="12"/>
     </row>
     <row r="708" spans="1:1">
-      <c r="A708" s="61"/>
+      <c r="A708" s="72"/>
     </row>
     <row r="709" spans="1:1">
       <c r="A709" s="12"/>
     </row>
     <row r="710" spans="1:1">
-      <c r="A710" s="61"/>
+      <c r="A710" s="72"/>
     </row>
     <row r="711" spans="1:1">
       <c r="A711" s="12"/>
     </row>
     <row r="712" spans="1:1">
-      <c r="A712" s="61"/>
+      <c r="A712" s="72"/>
     </row>
     <row r="713" spans="1:1">
       <c r="A713" s="12"/>
     </row>
     <row r="714" spans="1:1">
-      <c r="A714" s="61"/>
+      <c r="A714" s="72"/>
     </row>
     <row r="715" spans="1:1">
       <c r="A715" s="12"/>
     </row>
     <row r="716" spans="1:1">
-      <c r="A716" s="61"/>
+      <c r="A716" s="72"/>
     </row>
     <row r="717" spans="1:1">
       <c r="A717" s="12"/>
     </row>
     <row r="718" spans="1:1">
-      <c r="A718" s="61"/>
+      <c r="A718" s="72"/>
     </row>
     <row r="719" spans="1:1">
       <c r="A719" s="12"/>
     </row>
     <row r="720" spans="1:1">
-      <c r="A720" s="61"/>
+      <c r="A720" s="72"/>
     </row>
     <row r="721" spans="1:1">
       <c r="A721" s="12"/>
     </row>
     <row r="722" spans="1:1">
-      <c r="A722" s="61"/>
+      <c r="A722" s="72"/>
     </row>
     <row r="723" spans="1:1">
       <c r="A723" s="12"/>
     </row>
     <row r="724" spans="1:1">
-      <c r="A724" s="61"/>
+      <c r="A724" s="72"/>
     </row>
     <row r="725" spans="1:1">
       <c r="A725" s="12"/>
     </row>
     <row r="726" spans="1:1">
-      <c r="A726" s="61"/>
+      <c r="A726" s="72"/>
     </row>
     <row r="727" spans="1:1">
       <c r="A727" s="12"/>
     </row>
     <row r="728" spans="1:1">
-      <c r="A728" s="61"/>
+      <c r="A728" s="72"/>
     </row>
     <row r="729" spans="1:1">
       <c r="A729" s="12"/>
     </row>
     <row r="730" spans="1:1">
-      <c r="A730" s="61"/>
+      <c r="A730" s="72"/>
     </row>
     <row r="731" spans="1:1">
       <c r="A731" s="12"/>
     </row>
     <row r="732" spans="1:1">
-      <c r="A732" s="61"/>
+      <c r="A732" s="72"/>
     </row>
     <row r="733" spans="1:1">
       <c r="A733" s="12"/>
     </row>
     <row r="734" spans="1:1">
-      <c r="A734" s="61"/>
+      <c r="A734" s="72"/>
     </row>
     <row r="735" spans="1:1">
       <c r="A735" s="12"/>
     </row>
     <row r="736" spans="1:1">
-      <c r="A736" s="61"/>
+      <c r="A736" s="72"/>
     </row>
     <row r="737" spans="1:1">
       <c r="A737" s="12"/>
     </row>
     <row r="738" spans="1:1">
-      <c r="A738" s="61"/>
+      <c r="A738" s="72"/>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" s="12"/>
     </row>
     <row r="740" spans="1:1">
-      <c r="A740" s="61"/>
+      <c r="A740" s="72"/>
     </row>
     <row r="741" spans="1:1">
       <c r="A741" s="12"/>
     </row>
     <row r="742" spans="1:1">
-      <c r="A742" s="61"/>
+      <c r="A742" s="72"/>
     </row>
     <row r="743" spans="1:1">
       <c r="A743" s="12"/>
     </row>
     <row r="744" spans="1:1">
-      <c r="A744" s="61"/>
+      <c r="A744" s="72"/>
     </row>
     <row r="745" spans="1:1">
       <c r="A745" s="12"/>
     </row>
     <row r="746" spans="1:1">
-      <c r="A746" s="61"/>
+      <c r="A746" s="72"/>
     </row>
     <row r="747" spans="1:1">
       <c r="A747" s="12"/>
     </row>
     <row r="748" spans="1:1">
-      <c r="A748" s="61"/>
+      <c r="A748" s="72"/>
     </row>
     <row r="749" spans="1:1">
       <c r="A749" s="12"/>
     </row>
     <row r="750" spans="1:1">
-      <c r="A750" s="61"/>
+      <c r="A750" s="72"/>
     </row>
     <row r="751" spans="1:1">
       <c r="A751" s="12"/>
     </row>
     <row r="752" spans="1:1">
-      <c r="A752" s="61"/>
+      <c r="A752" s="72"/>
     </row>
     <row r="753" spans="1:1">
       <c r="A753" s="12"/>
     </row>
     <row r="754" spans="1:1">
-      <c r="A754" s="61"/>
+      <c r="A754" s="72"/>
     </row>
     <row r="755" spans="1:1">
       <c r="A755" s="12"/>
     </row>
     <row r="756" spans="1:1">
-      <c r="A756" s="61"/>
+      <c r="A756" s="72"/>
     </row>
     <row r="757" spans="1:1">
       <c r="A757" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C163 C179 C198 C199 C200 C216 C227 C228 C229 C230 C231 C232 C233 C234 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C257 C258 C4:C17 C18:C23 C24:C34 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C146 C147:C162 C164:C178 C180:C197 C201:C215 C217:C226 C259:C261 C262:C264 C265:C1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C163 C179 C198 C199 C200 C216 C227 C228 C229 C230 C231 C232 C233 C234 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C257 C258 C265 C266 C267 C268 C269 C270 C271 C272 C273 C274 C275 C276 C277 C278 C279 C280 C281 C282 C283 C284 C285 C286 C287 C288 C289 C290 C291 C292 C293 C294 C295 C296 C297 C298 C299 C300 C301 C302 C303 C304 C305 C306 C307 C308 C309 C310 C311 C312 C313 C314 C315 C316 C4:C17 C18:C23 C24:C34 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C146 C147:C162 C164:C178 C180:C197 C201:C215 C217:C226 C259:C261 C262:C264 C317:C1048576">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D18 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D60 D71 D84 D85 D86 D106 D146 D163 D179 D198 D199 D200 D216 D227 D228 D229 D235 D236 D237 D238 D239 D240 D241 D242 D243 D244 D245 D246 D247 D248 D249 D250 D251 D252 D253 D254 D255 D256 D257 D258 D259 D4:D17 D19:D22 D23:D35 D49:D59 D61:D70 D72:D81 D82:D83 D87:D105 D107:D117 D118:D137 D138:D145 D147:D162 D164:D178 D180:D197 D201:D215 D217:D226 D230:D234 D260:D264 D265:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D18 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D60 D71 D84 D85 D86 D106 D146 D163 D179 D198 D199 D200 D216 D227 D228 D229 D235 D236 D237 D238 D239 D240 D241 D242 D243 D244 D245 D246 D247 D248 D249 D250 D251 D252 D253 D254 D255 D256 D257 D258 D259 D265 D266 D267 D268 D269 D270 D271 D272 D273 D274 D275 D276 D277 D278 D279 D280 D281 D282 D283 D284 D285 D286 D287 D288 D289 D290 D291 D292 D293 D294 D295 D296 D297 D298 D299 D300 D301 D302 D303 D304 D305 D306 D307 D308 D309 D310 D311 D312 D313 D314 D315 D316 D4:D17 D19:D22 D23:D35 D49:D59 D61:D70 D72:D81 D82:D83 D87:D105 D107:D117 D118:D137 D138:D145 D147:D162 D164:D178 D180:D197 D201:D215 D217:D226 D230:D234 D260:D264 D317:D1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18468,13 +20182,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>635</v>
+        <v>700</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>636</v>
+        <v>701</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>637</v>
+        <v>702</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -18485,7 +20199,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>638</v>
+        <v>703</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -18496,7 +20210,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>639</v>
+        <v>704</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -18507,7 +20221,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>640</v>
+        <v>705</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -18523,7 +20237,7 @@
         <v>43050</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>641</v>
+        <v>706</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -18534,7 +20248,7 @@
         <v>43064</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>639</v>
+        <v>704</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -18550,7 +20264,7 @@
         <v>43079</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>642</v>
+        <v>707</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -18561,7 +20275,7 @@
         <v>43085</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>643</v>
+        <v>708</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -18572,7 +20286,7 @@
         <v>43092</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>644</v>
+        <v>709</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -18583,7 +20297,7 @@
         <v>43099</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>645</v>
+        <v>710</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -18594,7 +20308,7 @@
         <v>43100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>646</v>
+        <v>711</v>
       </c>
     </row>
     <row r="14" spans="1:3">

--- a/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -2163,6 +2163,27 @@
   </si>
   <si>
     <t>崔天一</t>
+  </si>
+  <si>
+    <t>珍赏甜品</t>
+  </si>
+  <si>
+    <t>珍赏甜品（杭州店）</t>
+  </si>
+  <si>
+    <t>香香</t>
+  </si>
+  <si>
+    <t>上海鸿瑞兴餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>鸿瑞兴</t>
+  </si>
+  <si>
+    <t>鸿瑞兴(柳州店)</t>
+  </si>
+  <si>
+    <t>021-53550177</t>
   </si>
   <si>
     <t>姓名</t>
@@ -2206,10 +2227,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="35">
@@ -3305,7 +3326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3480,35 +3501,8 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4020,440 +4014,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="105" t="s">
+      <c r="I2" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="106" t="s">
+      <c r="J2" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="107" t="s">
+      <c r="K2" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="108" t="s">
+      <c r="L2" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="109" t="s">
+      <c r="M2" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="110" t="s">
+      <c r="N2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="75"/>
-      <c r="B3" s="82" t="s">
+      <c r="A3" s="66"/>
+      <c r="B3" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85">
+      <c r="D3" s="75"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86">
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="112"/>
-      <c r="K3" s="113" t="e">
+      <c r="J3" s="103"/>
+      <c r="K3" s="104" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="114">
+      <c r="L3" s="105">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="115">
+      <c r="M3" s="106">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="116" t="e">
+      <c r="N3" s="107" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="89" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91">
+      <c r="D4" s="81"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="92"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="92">
+      <c r="G4" s="83"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="117"/>
-      <c r="K4" s="113" t="e">
+      <c r="J4" s="108"/>
+      <c r="K4" s="104" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="114">
+      <c r="L4" s="105">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="115">
+      <c r="M4" s="106">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="116" t="e">
+      <c r="N4" s="107" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="111"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="102"/>
+      <c r="Q4" s="102"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="87"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="89" t="s">
+      <c r="A5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91">
+      <c r="D5" s="81"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="92"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="92">
+      <c r="G5" s="83"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="117"/>
-      <c r="K5" s="113" t="e">
+      <c r="J5" s="108"/>
+      <c r="K5" s="104" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="114">
+      <c r="L5" s="105">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="115">
+      <c r="M5" s="106">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="116" t="e">
+      <c r="N5" s="107" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="111"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="102"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="87"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="89" t="s">
+      <c r="A6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="90"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91">
+      <c r="D6" s="81"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="92"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="92">
+      <c r="G6" s="83"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="117"/>
-      <c r="K6" s="113" t="e">
+      <c r="J6" s="108"/>
+      <c r="K6" s="104" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="114">
+      <c r="L6" s="105">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="115">
+      <c r="M6" s="106">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="116" t="e">
+      <c r="N6" s="107" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="87"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="89" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="90"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91">
+      <c r="A7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="81"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="92">
+      <c r="G7" s="83"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="117"/>
-      <c r="K7" s="113" t="e">
+      <c r="J7" s="108"/>
+      <c r="K7" s="104" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="114">
+      <c r="L7" s="105">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="115">
+      <c r="M7" s="106">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="116" t="e">
+      <c r="N7" s="107" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="87"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="89" t="s">
+      <c r="A8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="90"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91">
+      <c r="D8" s="81"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="92"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="92">
+      <c r="G8" s="83"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="117"/>
-      <c r="K8" s="113" t="e">
+      <c r="J8" s="108"/>
+      <c r="K8" s="104" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="114">
+      <c r="L8" s="105">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="115">
+      <c r="M8" s="106">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="116" t="e">
+      <c r="N8" s="107" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="87"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="89" t="s">
+      <c r="A9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="90"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91">
+      <c r="D9" s="81"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="92"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="92">
+      <c r="G9" s="83"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="117"/>
-      <c r="K9" s="113" t="e">
+      <c r="J9" s="108"/>
+      <c r="K9" s="104" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="114">
+      <c r="L9" s="105">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="115">
+      <c r="M9" s="106">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="116" t="e">
+      <c r="N9" s="107" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="102"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="87"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="93" t="s">
+      <c r="A10" s="78"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="94"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="96">
+      <c r="D10" s="85"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="97"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="97">
+      <c r="G10" s="88"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="118"/>
-      <c r="K10" s="119" t="e">
+      <c r="J10" s="109"/>
+      <c r="K10" s="110" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="120">
+      <c r="L10" s="111">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="121">
+      <c r="M10" s="112">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="122" t="e">
+      <c r="N10" s="113" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="111"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="99"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="101" t="s">
+      <c r="A11" s="90"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="102">
+      <c r="D11" s="93">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="102">
+      <c r="E11" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="103">
+      <c r="F11" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="102">
+      <c r="G11" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="102">
+      <c r="H11" s="93">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="103">
+      <c r="I11" s="94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="102">
+      <c r="J11" s="93">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="123" t="e">
+      <c r="K11" s="114" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="103">
+      <c r="L11" s="94">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="103">
+      <c r="M11" s="94">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="124" t="e">
+      <c r="N11" s="115" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4472,9 +4466,9 @@
   <dimension ref="A1:P757"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D315" sqref="D315"/>
+      <selection pane="bottomLeft" activeCell="C300" sqref="C300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8748,7 +8742,7 @@
       <c r="N95" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O95" s="125" t="s">
+      <c r="O95" s="116" t="s">
         <v>270</v>
       </c>
       <c r="P95" s="15" t="s">
@@ -16888,43 +16882,43 @@
       <c r="C269" s="18">
         <v>43105</v>
       </c>
-      <c r="D269" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E269" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F269" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G269" s="61" t="s">
+      <c r="D269" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E269" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F269" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G269" s="42" t="s">
         <v>395</v>
       </c>
-      <c r="H269" s="62">
+      <c r="H269" s="16">
         <v>76115725</v>
       </c>
-      <c r="I269" s="61" t="s">
+      <c r="I269" s="42" t="s">
         <v>644</v>
       </c>
-      <c r="J269" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K269" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L269" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M269" s="61" t="s">
+      <c r="J269" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K269" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L269" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M269" s="42" t="s">
         <v>645</v>
       </c>
-      <c r="N269" s="63" t="s">
+      <c r="N269" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O269" s="61">
+      <c r="O269" s="42">
         <v>18972067666</v>
       </c>
-      <c r="P269" s="63" t="s">
+      <c r="P269" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -16938,43 +16932,43 @@
       <c r="C270" s="18">
         <v>43105</v>
       </c>
-      <c r="D270" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E270" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F270" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G270" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="H270" s="62">
+      <c r="D270" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E270" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F270" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G270" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H270" s="16">
         <v>76115906</v>
       </c>
-      <c r="I270" s="61" t="s">
+      <c r="I270" s="42" t="s">
         <v>646</v>
       </c>
-      <c r="J270" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K270" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L270" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M270" s="61" t="s">
+      <c r="J270" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K270" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L270" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M270" s="42" t="s">
         <v>647</v>
       </c>
-      <c r="N270" s="63" t="s">
+      <c r="N270" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O270" s="61">
+      <c r="O270" s="42">
         <v>13818685270</v>
       </c>
-      <c r="P270" s="63" t="s">
+      <c r="P270" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -16988,43 +16982,43 @@
       <c r="C271" s="18">
         <v>43105</v>
       </c>
-      <c r="D271" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E271" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F271" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G271" s="61" t="s">
+      <c r="D271" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E271" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F271" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G271" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="H271" s="62">
+      <c r="H271" s="16">
         <v>76116165</v>
       </c>
-      <c r="I271" s="61" t="s">
+      <c r="I271" s="42" t="s">
         <v>648</v>
       </c>
-      <c r="J271" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K271" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L271" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M271" s="61" t="s">
+      <c r="J271" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K271" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L271" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M271" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="N271" s="63" t="s">
+      <c r="N271" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O271" s="61">
+      <c r="O271" s="42">
         <v>18351032270</v>
       </c>
-      <c r="P271" s="63" t="s">
+      <c r="P271" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17038,43 +17032,43 @@
       <c r="C272" s="18">
         <v>43105</v>
       </c>
-      <c r="D272" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E272" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F272" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G272" s="61" t="s">
+      <c r="D272" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E272" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F272" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G272" s="42" t="s">
         <v>650</v>
       </c>
-      <c r="H272" s="62">
+      <c r="H272" s="16">
         <v>76116352</v>
       </c>
-      <c r="I272" s="61" t="s">
+      <c r="I272" s="42" t="s">
         <v>651</v>
       </c>
-      <c r="J272" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K272" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L272" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M272" s="61" t="s">
+      <c r="J272" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K272" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L272" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M272" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="N272" s="63" t="s">
+      <c r="N272" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O272" s="61">
+      <c r="O272" s="42">
         <v>18602808857</v>
       </c>
-      <c r="P272" s="63" t="s">
+      <c r="P272" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17088,43 +17082,43 @@
       <c r="C273" s="18">
         <v>43105</v>
       </c>
-      <c r="D273" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E273" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F273" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G273" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="H273" s="62">
+      <c r="D273" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E273" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F273" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G273" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H273" s="16">
         <v>76116670</v>
       </c>
-      <c r="I273" s="61" t="s">
+      <c r="I273" s="42" t="s">
         <v>652</v>
       </c>
-      <c r="J273" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K273" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L273" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M273" s="61" t="s">
+      <c r="J273" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K273" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L273" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M273" s="42" t="s">
         <v>653</v>
       </c>
-      <c r="N273" s="63" t="s">
+      <c r="N273" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O273" s="61">
+      <c r="O273" s="42">
         <v>15921618009</v>
       </c>
-      <c r="P273" s="63" t="s">
+      <c r="P273" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17138,43 +17132,43 @@
       <c r="C274" s="18">
         <v>43105</v>
       </c>
-      <c r="D274" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E274" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F274" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G274" s="61" t="s">
+      <c r="D274" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E274" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F274" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G274" s="42" t="s">
         <v>300</v>
       </c>
-      <c r="H274" s="62">
+      <c r="H274" s="16">
         <v>76116691</v>
       </c>
-      <c r="I274" s="61" t="s">
+      <c r="I274" s="42" t="s">
         <v>654</v>
       </c>
-      <c r="J274" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K274" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L274" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M274" s="61" t="s">
+      <c r="J274" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K274" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L274" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M274" s="42" t="s">
         <v>655</v>
       </c>
-      <c r="N274" s="63" t="s">
+      <c r="N274" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O274" s="61">
+      <c r="O274" s="42">
         <v>15396703888</v>
       </c>
-      <c r="P274" s="63" t="s">
+      <c r="P274" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17188,43 +17182,43 @@
       <c r="C275" s="18">
         <v>43105</v>
       </c>
-      <c r="D275" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E275" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F275" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G275" s="61" t="s">
+      <c r="D275" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E275" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F275" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G275" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="H275" s="62">
+      <c r="H275" s="16">
         <v>76117525</v>
       </c>
-      <c r="I275" s="61" t="s">
+      <c r="I275" s="42" t="s">
         <v>656</v>
       </c>
-      <c r="J275" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K275" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L275" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M275" s="61" t="s">
+      <c r="J275" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K275" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L275" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M275" s="42" t="s">
         <v>657</v>
       </c>
-      <c r="N275" s="63" t="s">
+      <c r="N275" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O275" s="61">
+      <c r="O275" s="42">
         <v>13585453315</v>
       </c>
-      <c r="P275" s="63" t="s">
+      <c r="P275" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17238,43 +17232,43 @@
       <c r="C276" s="18">
         <v>43105</v>
       </c>
-      <c r="D276" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E276" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F276" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G276" s="61" t="s">
+      <c r="D276" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E276" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F276" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G276" s="42" t="s">
         <v>429</v>
       </c>
-      <c r="H276" s="62">
+      <c r="H276" s="16">
         <v>76117532</v>
       </c>
-      <c r="I276" s="61" t="s">
+      <c r="I276" s="42" t="s">
         <v>658</v>
       </c>
-      <c r="J276" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K276" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L276" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M276" s="61" t="s">
+      <c r="J276" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K276" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L276" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M276" s="42" t="s">
         <v>659</v>
       </c>
-      <c r="N276" s="63" t="s">
+      <c r="N276" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O276" s="61">
+      <c r="O276" s="42">
         <v>18921907339</v>
       </c>
-      <c r="P276" s="63" t="s">
+      <c r="P276" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17288,43 +17282,43 @@
       <c r="C277" s="18">
         <v>43105</v>
       </c>
-      <c r="D277" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E277" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F277" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G277" s="61" t="s">
+      <c r="D277" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E277" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F277" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G277" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="H277" s="62">
+      <c r="H277" s="16">
         <v>76118028</v>
       </c>
-      <c r="I277" s="61" t="s">
+      <c r="I277" s="42" t="s">
         <v>660</v>
       </c>
-      <c r="J277" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K277" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L277" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M277" s="61" t="s">
+      <c r="J277" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K277" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L277" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M277" s="42" t="s">
         <v>661</v>
       </c>
-      <c r="N277" s="63" t="s">
+      <c r="N277" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O277" s="61">
+      <c r="O277" s="42">
         <v>18627764565</v>
       </c>
-      <c r="P277" s="63" t="s">
+      <c r="P277" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17338,43 +17332,43 @@
       <c r="C278" s="18">
         <v>43105</v>
       </c>
-      <c r="D278" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E278" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F278" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G278" s="61" t="s">
+      <c r="D278" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E278" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F278" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G278" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="H278" s="62">
+      <c r="H278" s="16">
         <v>76118291</v>
       </c>
-      <c r="I278" s="61" t="s">
+      <c r="I278" s="42" t="s">
         <v>662</v>
       </c>
-      <c r="J278" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K278" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L278" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M278" s="61" t="s">
+      <c r="J278" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K278" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L278" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M278" s="42" t="s">
         <v>663</v>
       </c>
-      <c r="N278" s="63" t="s">
+      <c r="N278" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O278" s="61">
+      <c r="O278" s="42">
         <v>13638686775</v>
       </c>
-      <c r="P278" s="63" t="s">
+      <c r="P278" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17388,43 +17382,43 @@
       <c r="C279" s="18">
         <v>43105</v>
       </c>
-      <c r="D279" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E279" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F279" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G279" s="61" t="s">
+      <c r="D279" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E279" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F279" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G279" s="42" t="s">
         <v>395</v>
       </c>
-      <c r="H279" s="62">
+      <c r="H279" s="16">
         <v>76118925</v>
       </c>
-      <c r="I279" s="61" t="s">
+      <c r="I279" s="42" t="s">
         <v>664</v>
       </c>
-      <c r="J279" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K279" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L279" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M279" s="61" t="s">
+      <c r="J279" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K279" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L279" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M279" s="42" t="s">
         <v>665</v>
       </c>
-      <c r="N279" s="63" t="s">
+      <c r="N279" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O279" s="61">
+      <c r="O279" s="42">
         <v>13636185109</v>
       </c>
-      <c r="P279" s="63" t="s">
+      <c r="P279" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17438,43 +17432,43 @@
       <c r="C280" s="18">
         <v>43105</v>
       </c>
-      <c r="D280" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E280" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F280" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G280" s="61" t="s">
+      <c r="D280" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E280" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F280" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G280" s="42" t="s">
         <v>666</v>
       </c>
-      <c r="H280" s="62">
+      <c r="H280" s="16">
         <v>76119039</v>
       </c>
-      <c r="I280" s="61" t="s">
+      <c r="I280" s="42" t="s">
         <v>667</v>
       </c>
-      <c r="J280" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K280" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L280" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M280" s="61" t="s">
+      <c r="J280" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K280" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L280" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M280" s="42" t="s">
         <v>668</v>
       </c>
-      <c r="N280" s="63" t="s">
+      <c r="N280" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O280" s="61">
+      <c r="O280" s="42">
         <v>18809501886</v>
       </c>
-      <c r="P280" s="63" t="s">
+      <c r="P280" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17488,43 +17482,43 @@
       <c r="C281" s="18">
         <v>43105</v>
       </c>
-      <c r="D281" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E281" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F281" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G281" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="H281" s="62">
+      <c r="D281" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E281" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F281" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G281" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H281" s="16">
         <v>76119301</v>
       </c>
-      <c r="I281" s="61" t="s">
+      <c r="I281" s="42" t="s">
         <v>669</v>
       </c>
-      <c r="J281" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K281" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L281" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M281" s="61" t="s">
+      <c r="J281" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K281" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L281" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M281" s="42" t="s">
         <v>670</v>
       </c>
-      <c r="N281" s="63" t="s">
+      <c r="N281" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O281" s="61">
+      <c r="O281" s="42">
         <v>17621822232</v>
       </c>
-      <c r="P281" s="63" t="s">
+      <c r="P281" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17538,43 +17532,43 @@
       <c r="C282" s="18">
         <v>43105</v>
       </c>
-      <c r="D282" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E282" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F282" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G282" s="61" t="s">
+      <c r="D282" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E282" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F282" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G282" s="42" t="s">
         <v>325</v>
       </c>
-      <c r="H282" s="62">
+      <c r="H282" s="16">
         <v>76119326</v>
       </c>
-      <c r="I282" s="61" t="s">
+      <c r="I282" s="42" t="s">
         <v>671</v>
       </c>
-      <c r="J282" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K282" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L282" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M282" s="61" t="s">
+      <c r="J282" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K282" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L282" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M282" s="42" t="s">
         <v>672</v>
       </c>
-      <c r="N282" s="63" t="s">
+      <c r="N282" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O282" s="61">
+      <c r="O282" s="42">
         <v>18913779066</v>
       </c>
-      <c r="P282" s="63" t="s">
+      <c r="P282" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17588,43 +17582,43 @@
       <c r="C283" s="18">
         <v>43105</v>
       </c>
-      <c r="D283" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E283" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F283" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G283" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="H283" s="62">
+      <c r="D283" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E283" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F283" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G283" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H283" s="16">
         <v>76119369</v>
       </c>
-      <c r="I283" s="61" t="s">
+      <c r="I283" s="42" t="s">
         <v>673</v>
       </c>
-      <c r="J283" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K283" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L283" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M283" s="61" t="s">
+      <c r="J283" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K283" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L283" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M283" s="42" t="s">
         <v>674</v>
       </c>
-      <c r="N283" s="63" t="s">
+      <c r="N283" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O283" s="61">
+      <c r="O283" s="42">
         <v>18101869616</v>
       </c>
-      <c r="P283" s="63" t="s">
+      <c r="P283" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17638,43 +17632,43 @@
       <c r="C284" s="18">
         <v>43105</v>
       </c>
-      <c r="D284" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E284" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F284" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G284" s="61" t="s">
+      <c r="D284" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E284" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F284" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G284" s="42" t="s">
         <v>675</v>
       </c>
-      <c r="H284" s="62">
+      <c r="H284" s="16">
         <v>76119620</v>
       </c>
-      <c r="I284" s="61" t="s">
+      <c r="I284" s="42" t="s">
         <v>676</v>
       </c>
-      <c r="J284" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K284" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L284" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M284" s="61" t="s">
+      <c r="J284" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K284" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L284" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M284" s="42" t="s">
         <v>677</v>
       </c>
-      <c r="N284" s="63" t="s">
+      <c r="N284" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O284" s="61">
+      <c r="O284" s="42">
         <v>13051278982</v>
       </c>
-      <c r="P284" s="63" t="s">
+      <c r="P284" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17688,43 +17682,43 @@
       <c r="C285" s="18">
         <v>43105</v>
       </c>
-      <c r="D285" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E285" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F285" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G285" s="61" t="s">
+      <c r="D285" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E285" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F285" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G285" s="42" t="s">
         <v>678</v>
       </c>
-      <c r="H285" s="62">
+      <c r="H285" s="16">
         <v>76119721</v>
       </c>
-      <c r="I285" s="61" t="s">
+      <c r="I285" s="42" t="s">
         <v>679</v>
       </c>
-      <c r="J285" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K285" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L285" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M285" s="61" t="s">
+      <c r="J285" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K285" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L285" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M285" s="42" t="s">
         <v>680</v>
       </c>
-      <c r="N285" s="63" t="s">
+      <c r="N285" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O285" s="61">
+      <c r="O285" s="42">
         <v>18355520823</v>
       </c>
-      <c r="P285" s="63" t="s">
+      <c r="P285" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17738,43 +17732,43 @@
       <c r="C286" s="18">
         <v>43105</v>
       </c>
-      <c r="D286" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E286" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F286" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G286" s="61" t="s">
+      <c r="D286" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E286" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F286" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G286" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H286" s="62">
+      <c r="H286" s="16">
         <v>76120023</v>
       </c>
-      <c r="I286" s="61" t="s">
+      <c r="I286" s="42" t="s">
         <v>681</v>
       </c>
-      <c r="J286" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K286" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L286" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M286" s="61" t="s">
+      <c r="J286" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K286" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L286" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M286" s="42" t="s">
         <v>682</v>
       </c>
-      <c r="N286" s="63" t="s">
+      <c r="N286" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O286" s="61">
+      <c r="O286" s="42">
         <v>15068526265</v>
       </c>
-      <c r="P286" s="63" t="s">
+      <c r="P286" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17788,43 +17782,43 @@
       <c r="C287" s="18">
         <v>43105</v>
       </c>
-      <c r="D287" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E287" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F287" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G287" s="61" t="s">
+      <c r="D287" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E287" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F287" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G287" s="42" t="s">
         <v>328</v>
       </c>
-      <c r="H287" s="62">
+      <c r="H287" s="16">
         <v>76120101</v>
       </c>
-      <c r="I287" s="61" t="s">
+      <c r="I287" s="42" t="s">
         <v>683</v>
       </c>
-      <c r="J287" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K287" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L287" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M287" s="61" t="s">
+      <c r="J287" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K287" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L287" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M287" s="42" t="s">
         <v>684</v>
       </c>
-      <c r="N287" s="63" t="s">
+      <c r="N287" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O287" s="61">
+      <c r="O287" s="42">
         <v>13776694457</v>
       </c>
-      <c r="P287" s="63" t="s">
+      <c r="P287" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17838,43 +17832,43 @@
       <c r="C288" s="18">
         <v>43105</v>
       </c>
-      <c r="D288" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="E288" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F288" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="G288" s="61" t="s">
+      <c r="D288" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E288" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F288" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G288" s="42" t="s">
         <v>325</v>
       </c>
-      <c r="H288" s="62">
+      <c r="H288" s="16">
         <v>76122022</v>
       </c>
-      <c r="I288" s="61" t="s">
+      <c r="I288" s="42" t="s">
         <v>685</v>
       </c>
-      <c r="J288" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K288" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L288" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M288" s="61" t="s">
+      <c r="J288" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K288" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L288" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M288" s="42" t="s">
         <v>686</v>
       </c>
-      <c r="N288" s="63" t="s">
+      <c r="N288" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O288" s="61">
+      <c r="O288" s="42">
         <v>13576107314</v>
       </c>
-      <c r="P288" s="63" t="s">
+      <c r="P288" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -17891,37 +17885,37 @@
       <c r="D289" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E289" s="63" t="s">
+      <c r="E289" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="F289" s="63" t="s">
+      <c r="F289" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G289" s="61" t="s">
+      <c r="G289" s="42" t="s">
         <v>626</v>
       </c>
-      <c r="H289" s="61">
+      <c r="H289" s="42">
         <v>76113672</v>
       </c>
-      <c r="I289" s="61" t="s">
+      <c r="I289" s="42" t="s">
         <v>627</v>
       </c>
-      <c r="J289" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K289" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L289" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M289" s="61" t="s">
+      <c r="J289" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K289" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L289" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M289" s="42" t="s">
         <v>628</v>
       </c>
-      <c r="N289" s="63" t="s">
+      <c r="N289" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O289" s="61">
+      <c r="O289" s="42">
         <v>18523502323</v>
       </c>
       <c r="P289" s="15" t="s">
@@ -17941,37 +17935,37 @@
       <c r="D290" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E290" s="63" t="s">
+      <c r="E290" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="F290" s="63" t="s">
+      <c r="F290" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G290" s="61" t="s">
+      <c r="G290" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H290" s="61">
+      <c r="H290" s="42">
         <v>76116101</v>
       </c>
-      <c r="I290" s="69" t="s">
+      <c r="I290" s="49" t="s">
         <v>629</v>
       </c>
-      <c r="J290" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K290" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L290" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M290" s="61" t="s">
+      <c r="J290" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K290" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L290" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M290" s="42" t="s">
         <v>630</v>
       </c>
-      <c r="N290" s="63" t="s">
+      <c r="N290" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O290" s="61">
+      <c r="O290" s="42">
         <v>18657929290</v>
       </c>
       <c r="P290" s="15" t="s">
@@ -17991,37 +17985,37 @@
       <c r="D291" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E291" s="63" t="s">
+      <c r="E291" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="F291" s="63" t="s">
+      <c r="F291" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G291" s="61" t="s">
+      <c r="G291" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="H291" s="61">
+      <c r="H291" s="42">
         <v>76116102</v>
       </c>
-      <c r="I291" s="69" t="s">
+      <c r="I291" s="49" t="s">
         <v>631</v>
       </c>
-      <c r="J291" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K291" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L291" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M291" s="61" t="s">
+      <c r="J291" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K291" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L291" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M291" s="42" t="s">
         <v>632</v>
       </c>
-      <c r="N291" s="63" t="s">
+      <c r="N291" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O291" s="61">
+      <c r="O291" s="42">
         <v>13036101739</v>
       </c>
       <c r="P291" s="15" t="s">
@@ -18041,37 +18035,37 @@
       <c r="D292" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E292" s="63" t="s">
+      <c r="E292" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="F292" s="63" t="s">
+      <c r="F292" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G292" s="61" t="s">
+      <c r="G292" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="H292" s="61">
+      <c r="H292" s="42">
         <v>76116103</v>
       </c>
-      <c r="I292" s="69" t="s">
+      <c r="I292" s="49" t="s">
         <v>687</v>
       </c>
-      <c r="J292" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K292" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L292" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M292" s="61" t="s">
+      <c r="J292" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K292" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L292" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M292" s="42" t="s">
         <v>688</v>
       </c>
-      <c r="N292" s="63" t="s">
+      <c r="N292" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O292" s="61">
+      <c r="O292" s="42">
         <v>18651877708</v>
       </c>
       <c r="P292" s="15" t="s">
@@ -18091,37 +18085,37 @@
       <c r="D293" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E293" s="63" t="s">
+      <c r="E293" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="F293" s="63" t="s">
+      <c r="F293" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G293" s="61" t="s">
+      <c r="G293" s="42" t="s">
         <v>650</v>
       </c>
-      <c r="H293" s="61">
+      <c r="H293" s="42">
         <v>76116720</v>
       </c>
-      <c r="I293" s="69" t="s">
+      <c r="I293" s="49" t="s">
         <v>689</v>
       </c>
-      <c r="J293" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K293" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L293" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M293" s="61" t="s">
+      <c r="J293" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K293" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L293" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M293" s="42" t="s">
         <v>690</v>
       </c>
-      <c r="N293" s="63" t="s">
+      <c r="N293" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O293" s="61">
+      <c r="O293" s="42">
         <v>15828549091</v>
       </c>
       <c r="P293" s="15" t="s">
@@ -18141,37 +18135,37 @@
       <c r="D294" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E294" s="63" t="s">
+      <c r="E294" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="F294" s="63" t="s">
+      <c r="F294" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G294" s="61" t="s">
+      <c r="G294" s="42" t="s">
         <v>675</v>
       </c>
-      <c r="H294" s="61">
+      <c r="H294" s="42">
         <v>76118932</v>
       </c>
-      <c r="I294" s="69" t="s">
+      <c r="I294" s="49" t="s">
         <v>691</v>
       </c>
-      <c r="J294" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K294" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L294" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M294" s="61" t="s">
+      <c r="J294" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K294" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L294" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M294" s="42" t="s">
         <v>692</v>
       </c>
-      <c r="N294" s="63" t="s">
+      <c r="N294" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O294" s="61">
+      <c r="O294" s="42">
         <v>15810099357</v>
       </c>
       <c r="P294" s="15" t="s">
@@ -18191,37 +18185,37 @@
       <c r="D295" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E295" s="63" t="s">
+      <c r="E295" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="F295" s="63" t="s">
+      <c r="F295" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G295" s="61" t="s">
+      <c r="G295" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="H295" s="61">
+      <c r="H295" s="42">
         <v>76118953</v>
       </c>
-      <c r="I295" s="69" t="s">
+      <c r="I295" s="49" t="s">
         <v>693</v>
       </c>
-      <c r="J295" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K295" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L295" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M295" s="61" t="s">
+      <c r="J295" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K295" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L295" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M295" s="42" t="s">
         <v>694</v>
       </c>
-      <c r="N295" s="63" t="s">
+      <c r="N295" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O295" s="61">
+      <c r="O295" s="42">
         <v>15878899766</v>
       </c>
       <c r="P295" s="15" t="s">
@@ -18241,37 +18235,37 @@
       <c r="D296" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E296" s="63" t="s">
+      <c r="E296" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="F296" s="63" t="s">
+      <c r="F296" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G296" s="64" t="s">
+      <c r="G296" s="16" t="s">
         <v>695</v>
       </c>
-      <c r="H296" s="65">
+      <c r="H296" s="60">
         <v>76119726</v>
       </c>
-      <c r="I296" s="70" t="s">
+      <c r="I296" s="61" t="s">
         <v>696</v>
       </c>
-      <c r="J296" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K296" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L296" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M296" s="64" t="s">
+      <c r="J296" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K296" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L296" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M296" s="16" t="s">
         <v>697</v>
       </c>
-      <c r="N296" s="63" t="s">
+      <c r="N296" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O296" s="64">
+      <c r="O296" s="16">
         <v>13510607237</v>
       </c>
       <c r="P296" s="15" t="s">
@@ -18291,66 +18285,146 @@
       <c r="D297" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E297" s="63" t="s">
+      <c r="E297" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="F297" s="63" t="s">
+      <c r="F297" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G297" s="64" t="s">
+      <c r="G297" s="16" t="s">
         <v>543</v>
       </c>
-      <c r="H297" s="65">
+      <c r="H297" s="60">
         <v>76119718</v>
       </c>
-      <c r="I297" s="62" t="s">
+      <c r="I297" s="16" t="s">
         <v>698</v>
       </c>
-      <c r="J297" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K297" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="L297" s="63">
-        <v>17721436606</v>
-      </c>
-      <c r="M297" s="64" t="s">
+      <c r="J297" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K297" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L297" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M297" s="16" t="s">
         <v>699</v>
       </c>
-      <c r="N297" s="63" t="s">
+      <c r="N297" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O297" s="64">
+      <c r="O297" s="16">
         <v>18616721701</v>
       </c>
       <c r="P297" s="15" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="298" spans="1:16">
-      <c r="A298" s="8"/>
-      <c r="B298" s="66"/>
-      <c r="C298" s="18"/>
-      <c r="D298" s="45"/>
-      <c r="K298" s="16"/>
-      <c r="L298" s="15"/>
-      <c r="O298" s="12"/>
-      <c r="P298" s="15"/>
-    </row>
-    <row r="299" spans="1:16">
-      <c r="A299" s="8"/>
-      <c r="B299" s="66"/>
-      <c r="C299" s="18"/>
-      <c r="D299" s="45"/>
-      <c r="K299" s="16"/>
-      <c r="L299" s="15"/>
-      <c r="O299" s="12"/>
-      <c r="P299" s="15"/>
+    <row r="298" s="5" customFormat="1" spans="1:16">
+      <c r="A298" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B298" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C298" s="18">
+        <v>43110</v>
+      </c>
+      <c r="D298" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E298" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="F298" s="15" t="s">
+        <v>700</v>
+      </c>
+      <c r="G298" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H298" s="60">
+        <v>76121738</v>
+      </c>
+      <c r="I298" s="61" t="s">
+        <v>701</v>
+      </c>
+      <c r="J298" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K298" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L298" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M298" s="16" t="s">
+        <v>702</v>
+      </c>
+      <c r="N298" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="O298" s="16">
+        <v>13109570608</v>
+      </c>
+      <c r="P298" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="299" s="5" customFormat="1" spans="1:16">
+      <c r="A299" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B299" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="C299" s="18">
+        <v>43110</v>
+      </c>
+      <c r="D299" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E299" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="F299" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="G299" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H299" s="60">
+        <v>76022625</v>
+      </c>
+      <c r="I299" s="16" t="s">
+        <v>705</v>
+      </c>
+      <c r="J299" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K299" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L299" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M299" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="N299" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="O299" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="P299" s="15" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="300" spans="1:16">
       <c r="A300" s="8"/>
-      <c r="B300" s="66"/>
+      <c r="B300" s="21"/>
       <c r="C300" s="18"/>
       <c r="D300" s="45"/>
       <c r="K300" s="16"/>
@@ -18360,7 +18434,7 @@
     </row>
     <row r="301" spans="1:16">
       <c r="A301" s="8"/>
-      <c r="B301" s="66"/>
+      <c r="B301" s="21"/>
       <c r="C301" s="18"/>
       <c r="D301" s="45"/>
       <c r="K301" s="16"/>
@@ -18370,7 +18444,7 @@
     </row>
     <row r="302" spans="1:16">
       <c r="A302" s="8"/>
-      <c r="B302" s="66"/>
+      <c r="B302" s="21"/>
       <c r="C302" s="18"/>
       <c r="D302" s="45"/>
       <c r="K302" s="16"/>
@@ -18380,7 +18454,7 @@
     </row>
     <row r="303" spans="1:16">
       <c r="A303" s="8"/>
-      <c r="B303" s="66"/>
+      <c r="B303" s="21"/>
       <c r="C303" s="18"/>
       <c r="D303" s="45"/>
       <c r="K303" s="16"/>
@@ -18390,7 +18464,7 @@
     </row>
     <row r="304" spans="1:16">
       <c r="A304" s="8"/>
-      <c r="B304" s="66"/>
+      <c r="B304" s="21"/>
       <c r="C304" s="18"/>
       <c r="D304" s="45"/>
       <c r="K304" s="16"/>
@@ -18400,7 +18474,7 @@
     </row>
     <row r="305" spans="1:16">
       <c r="A305" s="8"/>
-      <c r="B305" s="66"/>
+      <c r="B305" s="21"/>
       <c r="C305" s="18"/>
       <c r="D305" s="45"/>
       <c r="K305" s="16"/>
@@ -18410,7 +18484,7 @@
     </row>
     <row r="306" spans="1:16">
       <c r="A306" s="8"/>
-      <c r="B306" s="66"/>
+      <c r="B306" s="21"/>
       <c r="C306" s="18"/>
       <c r="D306" s="45"/>
       <c r="K306" s="16"/>
@@ -18420,7 +18494,7 @@
     </row>
     <row r="307" spans="1:16">
       <c r="A307" s="8"/>
-      <c r="B307" s="66"/>
+      <c r="B307" s="21"/>
       <c r="C307" s="18"/>
       <c r="D307" s="45"/>
       <c r="K307" s="16"/>
@@ -18430,7 +18504,7 @@
     </row>
     <row r="308" spans="1:16">
       <c r="A308" s="8"/>
-      <c r="B308" s="66"/>
+      <c r="B308" s="21"/>
       <c r="C308" s="18"/>
       <c r="D308" s="45"/>
       <c r="K308" s="16"/>
@@ -18440,7 +18514,7 @@
     </row>
     <row r="309" spans="1:16">
       <c r="A309" s="8"/>
-      <c r="B309" s="66"/>
+      <c r="B309" s="21"/>
       <c r="C309" s="18"/>
       <c r="D309" s="45"/>
       <c r="K309" s="16"/>
@@ -18450,7 +18524,7 @@
     </row>
     <row r="310" spans="1:16">
       <c r="A310" s="8"/>
-      <c r="B310" s="66"/>
+      <c r="B310" s="21"/>
       <c r="C310" s="18"/>
       <c r="D310" s="45"/>
       <c r="K310" s="16"/>
@@ -18460,7 +18534,7 @@
     </row>
     <row r="311" spans="1:16">
       <c r="A311" s="8"/>
-      <c r="B311" s="66"/>
+      <c r="B311" s="21"/>
       <c r="C311" s="18"/>
       <c r="D311" s="45"/>
       <c r="K311" s="16"/>
@@ -18470,7 +18544,7 @@
     </row>
     <row r="312" spans="1:16">
       <c r="A312" s="8"/>
-      <c r="B312" s="66"/>
+      <c r="B312" s="21"/>
       <c r="C312" s="18"/>
       <c r="D312" s="45"/>
       <c r="K312" s="16"/>
@@ -18480,7 +18554,7 @@
     </row>
     <row r="313" spans="1:16">
       <c r="A313" s="8"/>
-      <c r="B313" s="66"/>
+      <c r="B313" s="21"/>
       <c r="C313" s="18"/>
       <c r="D313" s="45"/>
       <c r="K313" s="16"/>
@@ -18490,7 +18564,7 @@
     </row>
     <row r="314" spans="1:16">
       <c r="A314" s="8"/>
-      <c r="B314" s="66"/>
+      <c r="B314" s="21"/>
       <c r="C314" s="18"/>
       <c r="D314" s="45"/>
       <c r="K314" s="16"/>
@@ -18500,7 +18574,7 @@
     </row>
     <row r="315" spans="1:16">
       <c r="A315" s="8"/>
-      <c r="B315" s="66"/>
+      <c r="B315" s="21"/>
       <c r="C315" s="18"/>
       <c r="D315" s="45"/>
       <c r="K315" s="16"/>
@@ -18510,7 +18584,7 @@
     </row>
     <row r="316" spans="1:16">
       <c r="A316" s="8"/>
-      <c r="B316" s="66"/>
+      <c r="B316" s="21"/>
       <c r="C316" s="18"/>
       <c r="D316" s="45"/>
       <c r="K316" s="16"/>
@@ -18520,41 +18594,41 @@
     </row>
     <row r="317" spans="1:16">
       <c r="A317" s="22"/>
-      <c r="B317" s="67"/>
+      <c r="B317" s="21"/>
       <c r="O317" s="12"/>
       <c r="P317" s="8"/>
     </row>
     <row r="318" spans="1:16">
       <c r="A318" s="22"/>
-      <c r="B318" s="67"/>
+      <c r="B318" s="21"/>
       <c r="O318" s="12"/>
       <c r="P318" s="8"/>
     </row>
     <row r="319" spans="1:16">
       <c r="A319" s="22"/>
-      <c r="B319" s="67"/>
+      <c r="B319" s="21"/>
       <c r="O319" s="12"/>
       <c r="P319" s="8"/>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="22"/>
-      <c r="B320" s="67"/>
+      <c r="B320" s="21"/>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="22"/>
-      <c r="B321" s="67"/>
+      <c r="B321" s="21"/>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="22"/>
-      <c r="B322" s="67"/>
+      <c r="B322" s="21"/>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="22"/>
-      <c r="B323" s="67"/>
+      <c r="B323" s="21"/>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="22"/>
-      <c r="B324" s="67"/>
+      <c r="B324" s="21"/>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="22"/>
@@ -18913,7 +18987,7 @@
       <c r="B413" s="21"/>
     </row>
     <row r="414" spans="1:2">
-      <c r="A414" s="71"/>
+      <c r="A414" s="62"/>
       <c r="B414" s="21"/>
     </row>
     <row r="415" spans="1:2">
@@ -18985,7 +19059,7 @@
       <c r="B431" s="21"/>
     </row>
     <row r="432" spans="1:2">
-      <c r="A432" s="71"/>
+      <c r="A432" s="62"/>
       <c r="B432" s="21"/>
     </row>
     <row r="433" spans="1:2">
@@ -18993,7 +19067,7 @@
       <c r="B433" s="21"/>
     </row>
     <row r="434" spans="1:2">
-      <c r="A434" s="71"/>
+      <c r="A434" s="62"/>
       <c r="B434" s="21"/>
     </row>
     <row r="435" spans="1:2">
@@ -19001,7 +19075,7 @@
       <c r="B435" s="21"/>
     </row>
     <row r="436" spans="1:2">
-      <c r="A436" s="71"/>
+      <c r="A436" s="62"/>
       <c r="B436" s="21"/>
     </row>
     <row r="437" spans="1:2">
@@ -19009,7 +19083,7 @@
       <c r="B437" s="21"/>
     </row>
     <row r="438" spans="1:2">
-      <c r="A438" s="71"/>
+      <c r="A438" s="62"/>
       <c r="B438" s="21"/>
     </row>
     <row r="439" spans="1:2">
@@ -19017,7 +19091,7 @@
       <c r="B439" s="21"/>
     </row>
     <row r="440" spans="1:2">
-      <c r="A440" s="71"/>
+      <c r="A440" s="62"/>
       <c r="B440" s="21"/>
     </row>
     <row r="441" spans="1:2">
@@ -19025,7 +19099,7 @@
       <c r="B441" s="21"/>
     </row>
     <row r="442" spans="1:2">
-      <c r="A442" s="71"/>
+      <c r="A442" s="62"/>
       <c r="B442" s="21"/>
     </row>
     <row r="443" spans="1:2">
@@ -19033,7 +19107,7 @@
       <c r="B443" s="21"/>
     </row>
     <row r="444" spans="1:2">
-      <c r="A444" s="71"/>
+      <c r="A444" s="62"/>
       <c r="B444" s="21"/>
     </row>
     <row r="445" spans="1:2">
@@ -19041,7 +19115,7 @@
       <c r="B445" s="21"/>
     </row>
     <row r="446" spans="1:2">
-      <c r="A446" s="71"/>
+      <c r="A446" s="62"/>
       <c r="B446" s="21"/>
     </row>
     <row r="447" spans="1:2">
@@ -19049,7 +19123,7 @@
       <c r="B447" s="21"/>
     </row>
     <row r="448" spans="1:2">
-      <c r="A448" s="71"/>
+      <c r="A448" s="62"/>
       <c r="B448" s="21"/>
     </row>
     <row r="449" spans="1:2">
@@ -19057,7 +19131,7 @@
       <c r="B449" s="21"/>
     </row>
     <row r="450" spans="1:2">
-      <c r="A450" s="71"/>
+      <c r="A450" s="62"/>
       <c r="B450" s="21"/>
     </row>
     <row r="451" spans="1:2">
@@ -19065,7 +19139,7 @@
       <c r="B451" s="21"/>
     </row>
     <row r="452" spans="1:2">
-      <c r="A452" s="71"/>
+      <c r="A452" s="62"/>
       <c r="B452" s="21"/>
     </row>
     <row r="453" spans="1:2">
@@ -19073,7 +19147,7 @@
       <c r="B453" s="21"/>
     </row>
     <row r="454" spans="1:2">
-      <c r="A454" s="71"/>
+      <c r="A454" s="62"/>
       <c r="B454" s="21"/>
     </row>
     <row r="455" spans="1:2">
@@ -19081,7 +19155,7 @@
       <c r="B455" s="21"/>
     </row>
     <row r="456" spans="1:2">
-      <c r="A456" s="71"/>
+      <c r="A456" s="62"/>
       <c r="B456" s="21"/>
     </row>
     <row r="457" spans="1:2">
@@ -19089,7 +19163,7 @@
       <c r="B457" s="21"/>
     </row>
     <row r="458" spans="1:2">
-      <c r="A458" s="71"/>
+      <c r="A458" s="62"/>
       <c r="B458" s="21"/>
     </row>
     <row r="459" spans="1:2">
@@ -19097,7 +19171,7 @@
       <c r="B459" s="21"/>
     </row>
     <row r="460" spans="1:2">
-      <c r="A460" s="71"/>
+      <c r="A460" s="62"/>
       <c r="B460" s="21"/>
     </row>
     <row r="461" spans="1:2">
@@ -19105,7 +19179,7 @@
       <c r="B461" s="21"/>
     </row>
     <row r="462" spans="1:2">
-      <c r="A462" s="71"/>
+      <c r="A462" s="62"/>
       <c r="B462" s="21"/>
     </row>
     <row r="463" spans="1:2">
@@ -19113,7 +19187,7 @@
       <c r="B463" s="21"/>
     </row>
     <row r="464" spans="1:2">
-      <c r="A464" s="71"/>
+      <c r="A464" s="62"/>
       <c r="B464" s="21"/>
     </row>
     <row r="465" spans="1:2">
@@ -19121,7 +19195,7 @@
       <c r="B465" s="21"/>
     </row>
     <row r="466" spans="1:2">
-      <c r="A466" s="71"/>
+      <c r="A466" s="62"/>
       <c r="B466" s="21"/>
     </row>
     <row r="467" spans="1:2">
@@ -19129,7 +19203,7 @@
       <c r="B467" s="21"/>
     </row>
     <row r="468" spans="1:2">
-      <c r="A468" s="71"/>
+      <c r="A468" s="62"/>
       <c r="B468" s="21"/>
     </row>
     <row r="469" spans="1:2">
@@ -19137,7 +19211,7 @@
       <c r="B469" s="21"/>
     </row>
     <row r="470" spans="1:2">
-      <c r="A470" s="71"/>
+      <c r="A470" s="62"/>
       <c r="B470" s="21"/>
     </row>
     <row r="471" spans="1:2">
@@ -19145,7 +19219,7 @@
       <c r="B471" s="21"/>
     </row>
     <row r="472" spans="1:2">
-      <c r="A472" s="71"/>
+      <c r="A472" s="62"/>
       <c r="B472" s="21"/>
     </row>
     <row r="473" spans="1:2">
@@ -19153,7 +19227,7 @@
       <c r="B473" s="21"/>
     </row>
     <row r="474" spans="1:2">
-      <c r="A474" s="71"/>
+      <c r="A474" s="62"/>
       <c r="B474" s="21"/>
     </row>
     <row r="475" spans="1:2">
@@ -19161,7 +19235,7 @@
       <c r="B475" s="21"/>
     </row>
     <row r="476" spans="1:2">
-      <c r="A476" s="71"/>
+      <c r="A476" s="62"/>
       <c r="B476" s="21"/>
     </row>
     <row r="477" spans="1:2">
@@ -19169,7 +19243,7 @@
       <c r="B477" s="21"/>
     </row>
     <row r="478" spans="1:2">
-      <c r="A478" s="71"/>
+      <c r="A478" s="62"/>
       <c r="B478" s="21"/>
     </row>
     <row r="479" spans="1:2">
@@ -19177,7 +19251,7 @@
       <c r="B479" s="21"/>
     </row>
     <row r="480" spans="1:2">
-      <c r="A480" s="71"/>
+      <c r="A480" s="62"/>
       <c r="B480" s="21"/>
     </row>
     <row r="481" spans="1:2">
@@ -19185,7 +19259,7 @@
       <c r="B481" s="21"/>
     </row>
     <row r="482" spans="1:2">
-      <c r="A482" s="71"/>
+      <c r="A482" s="62"/>
       <c r="B482" s="21"/>
     </row>
     <row r="483" spans="1:2">
@@ -19193,7 +19267,7 @@
       <c r="B483" s="21"/>
     </row>
     <row r="484" spans="1:2">
-      <c r="A484" s="71"/>
+      <c r="A484" s="62"/>
       <c r="B484" s="21"/>
     </row>
     <row r="485" spans="1:2">
@@ -19201,7 +19275,7 @@
       <c r="B485" s="21"/>
     </row>
     <row r="486" spans="1:2">
-      <c r="A486" s="71"/>
+      <c r="A486" s="62"/>
       <c r="B486" s="21"/>
     </row>
     <row r="487" spans="1:2">
@@ -19209,7 +19283,7 @@
       <c r="B487" s="21"/>
     </row>
     <row r="488" spans="1:2">
-      <c r="A488" s="71"/>
+      <c r="A488" s="62"/>
       <c r="B488" s="21"/>
     </row>
     <row r="489" spans="1:2">
@@ -19217,7 +19291,7 @@
       <c r="B489" s="21"/>
     </row>
     <row r="490" spans="1:2">
-      <c r="A490" s="71"/>
+      <c r="A490" s="62"/>
       <c r="B490" s="21"/>
     </row>
     <row r="491" spans="1:2">
@@ -19225,7 +19299,7 @@
       <c r="B491" s="21"/>
     </row>
     <row r="492" spans="1:2">
-      <c r="A492" s="71"/>
+      <c r="A492" s="62"/>
       <c r="B492" s="21"/>
     </row>
     <row r="493" spans="1:2">
@@ -19233,7 +19307,7 @@
       <c r="B493" s="21"/>
     </row>
     <row r="494" spans="1:2">
-      <c r="A494" s="71"/>
+      <c r="A494" s="62"/>
       <c r="B494" s="21"/>
     </row>
     <row r="495" spans="1:2">
@@ -19241,7 +19315,7 @@
       <c r="B495" s="21"/>
     </row>
     <row r="496" spans="1:2">
-      <c r="A496" s="71"/>
+      <c r="A496" s="62"/>
       <c r="B496" s="21"/>
     </row>
     <row r="497" spans="1:2">
@@ -19249,7 +19323,7 @@
       <c r="B497" s="21"/>
     </row>
     <row r="498" spans="1:2">
-      <c r="A498" s="71"/>
+      <c r="A498" s="62"/>
       <c r="B498" s="21"/>
     </row>
     <row r="499" spans="1:2">
@@ -19257,7 +19331,7 @@
       <c r="B499" s="21"/>
     </row>
     <row r="500" spans="1:2">
-      <c r="A500" s="71"/>
+      <c r="A500" s="62"/>
       <c r="B500" s="21"/>
     </row>
     <row r="501" spans="1:2">
@@ -19265,7 +19339,7 @@
       <c r="B501" s="21"/>
     </row>
     <row r="502" spans="1:2">
-      <c r="A502" s="71"/>
+      <c r="A502" s="62"/>
       <c r="B502" s="21"/>
     </row>
     <row r="503" spans="1:2">
@@ -19273,7 +19347,7 @@
       <c r="B503" s="21"/>
     </row>
     <row r="504" spans="1:2">
-      <c r="A504" s="71"/>
+      <c r="A504" s="62"/>
       <c r="B504" s="21"/>
     </row>
     <row r="505" spans="1:2">
@@ -19281,7 +19355,7 @@
       <c r="B505" s="21"/>
     </row>
     <row r="506" spans="1:2">
-      <c r="A506" s="71"/>
+      <c r="A506" s="62"/>
       <c r="B506" s="21"/>
     </row>
     <row r="507" spans="1:2">
@@ -19289,7 +19363,7 @@
       <c r="B507" s="21"/>
     </row>
     <row r="508" spans="1:2">
-      <c r="A508" s="71"/>
+      <c r="A508" s="62"/>
       <c r="B508" s="21"/>
     </row>
     <row r="509" spans="1:2">
@@ -19297,7 +19371,7 @@
       <c r="B509" s="21"/>
     </row>
     <row r="510" spans="1:2">
-      <c r="A510" s="71"/>
+      <c r="A510" s="62"/>
       <c r="B510" s="21"/>
     </row>
     <row r="511" spans="1:2">
@@ -19305,7 +19379,7 @@
       <c r="B511" s="21"/>
     </row>
     <row r="512" spans="1:2">
-      <c r="A512" s="71"/>
+      <c r="A512" s="62"/>
       <c r="B512" s="21"/>
     </row>
     <row r="513" spans="1:2">
@@ -19313,7 +19387,7 @@
       <c r="B513" s="21"/>
     </row>
     <row r="514" spans="1:2">
-      <c r="A514" s="71"/>
+      <c r="A514" s="62"/>
       <c r="B514" s="21"/>
     </row>
     <row r="515" spans="1:2">
@@ -19321,7 +19395,7 @@
       <c r="B515" s="21"/>
     </row>
     <row r="516" spans="1:2">
-      <c r="A516" s="71"/>
+      <c r="A516" s="62"/>
       <c r="B516" s="21"/>
     </row>
     <row r="517" spans="1:2">
@@ -19329,7 +19403,7 @@
       <c r="B517" s="21"/>
     </row>
     <row r="518" spans="1:2">
-      <c r="A518" s="71"/>
+      <c r="A518" s="62"/>
       <c r="B518" s="21"/>
     </row>
     <row r="519" spans="1:2">
@@ -19337,7 +19411,7 @@
       <c r="B519" s="21"/>
     </row>
     <row r="520" spans="1:2">
-      <c r="A520" s="71"/>
+      <c r="A520" s="62"/>
       <c r="B520" s="21"/>
     </row>
     <row r="521" spans="1:2">
@@ -19345,7 +19419,7 @@
       <c r="B521" s="21"/>
     </row>
     <row r="522" spans="1:2">
-      <c r="A522" s="71"/>
+      <c r="A522" s="62"/>
       <c r="B522" s="21"/>
     </row>
     <row r="523" spans="1:2">
@@ -19353,7 +19427,7 @@
       <c r="B523" s="21"/>
     </row>
     <row r="524" spans="1:2">
-      <c r="A524" s="71"/>
+      <c r="A524" s="62"/>
       <c r="B524" s="21"/>
     </row>
     <row r="525" spans="1:2">
@@ -19361,7 +19435,7 @@
       <c r="B525" s="21"/>
     </row>
     <row r="526" spans="1:2">
-      <c r="A526" s="71"/>
+      <c r="A526" s="62"/>
       <c r="B526" s="21"/>
     </row>
     <row r="527" spans="1:2">
@@ -19369,7 +19443,7 @@
       <c r="B527" s="21"/>
     </row>
     <row r="528" spans="1:2">
-      <c r="A528" s="71"/>
+      <c r="A528" s="62"/>
       <c r="B528" s="21"/>
     </row>
     <row r="529" spans="1:2">
@@ -19377,7 +19451,7 @@
       <c r="B529" s="21"/>
     </row>
     <row r="530" spans="1:2">
-      <c r="A530" s="71"/>
+      <c r="A530" s="62"/>
       <c r="B530" s="21"/>
     </row>
     <row r="531" spans="1:2">
@@ -19385,7 +19459,7 @@
       <c r="B531" s="21"/>
     </row>
     <row r="532" spans="1:2">
-      <c r="A532" s="71"/>
+      <c r="A532" s="62"/>
       <c r="B532" s="21"/>
     </row>
     <row r="533" spans="1:2">
@@ -19393,7 +19467,7 @@
       <c r="B533" s="21"/>
     </row>
     <row r="534" spans="1:2">
-      <c r="A534" s="71"/>
+      <c r="A534" s="62"/>
       <c r="B534" s="21"/>
     </row>
     <row r="535" spans="1:2">
@@ -19401,7 +19475,7 @@
       <c r="B535" s="21"/>
     </row>
     <row r="536" spans="1:2">
-      <c r="A536" s="71"/>
+      <c r="A536" s="62"/>
       <c r="B536" s="21"/>
     </row>
     <row r="537" spans="1:2">
@@ -19409,7 +19483,7 @@
       <c r="B537" s="21"/>
     </row>
     <row r="538" spans="1:2">
-      <c r="A538" s="71"/>
+      <c r="A538" s="62"/>
       <c r="B538" s="21"/>
     </row>
     <row r="539" spans="1:2">
@@ -19417,7 +19491,7 @@
       <c r="B539" s="21"/>
     </row>
     <row r="540" spans="1:2">
-      <c r="A540" s="71"/>
+      <c r="A540" s="62"/>
       <c r="B540" s="21"/>
     </row>
     <row r="541" spans="1:2">
@@ -19425,7 +19499,7 @@
       <c r="B541" s="21"/>
     </row>
     <row r="542" spans="1:2">
-      <c r="A542" s="71"/>
+      <c r="A542" s="62"/>
       <c r="B542" s="21"/>
     </row>
     <row r="543" spans="1:2">
@@ -19433,7 +19507,7 @@
       <c r="B543" s="21"/>
     </row>
     <row r="544" spans="1:2">
-      <c r="A544" s="71"/>
+      <c r="A544" s="62"/>
       <c r="B544" s="21"/>
     </row>
     <row r="545" spans="1:2">
@@ -19441,7 +19515,7 @@
       <c r="B545" s="21"/>
     </row>
     <row r="546" spans="1:2">
-      <c r="A546" s="71"/>
+      <c r="A546" s="62"/>
       <c r="B546" s="21"/>
     </row>
     <row r="547" spans="1:2">
@@ -19449,7 +19523,7 @@
       <c r="B547" s="21"/>
     </row>
     <row r="548" spans="1:2">
-      <c r="A548" s="71"/>
+      <c r="A548" s="62"/>
       <c r="B548" s="21"/>
     </row>
     <row r="549" spans="1:2">
@@ -19457,7 +19531,7 @@
       <c r="B549" s="21"/>
     </row>
     <row r="550" spans="1:2">
-      <c r="A550" s="71"/>
+      <c r="A550" s="62"/>
       <c r="B550" s="21"/>
     </row>
     <row r="551" spans="1:2">
@@ -19465,7 +19539,7 @@
       <c r="B551" s="21"/>
     </row>
     <row r="552" spans="1:2">
-      <c r="A552" s="71"/>
+      <c r="A552" s="62"/>
       <c r="B552" s="21"/>
     </row>
     <row r="553" spans="1:2">
@@ -19473,7 +19547,7 @@
       <c r="B553" s="21"/>
     </row>
     <row r="554" spans="1:2">
-      <c r="A554" s="71"/>
+      <c r="A554" s="62"/>
       <c r="B554" s="21"/>
     </row>
     <row r="555" spans="1:2">
@@ -19481,7 +19555,7 @@
       <c r="B555" s="21"/>
     </row>
     <row r="556" spans="1:2">
-      <c r="A556" s="71"/>
+      <c r="A556" s="62"/>
       <c r="B556" s="21"/>
     </row>
     <row r="557" spans="1:2">
@@ -19489,7 +19563,7 @@
       <c r="B557" s="21"/>
     </row>
     <row r="558" spans="1:2">
-      <c r="A558" s="71"/>
+      <c r="A558" s="62"/>
       <c r="B558" s="21"/>
     </row>
     <row r="559" spans="1:2">
@@ -19497,7 +19571,7 @@
       <c r="B559" s="21"/>
     </row>
     <row r="560" spans="1:2">
-      <c r="A560" s="71"/>
+      <c r="A560" s="62"/>
       <c r="B560" s="21"/>
     </row>
     <row r="561" spans="1:2">
@@ -19505,7 +19579,7 @@
       <c r="B561" s="21"/>
     </row>
     <row r="562" spans="1:2">
-      <c r="A562" s="71"/>
+      <c r="A562" s="62"/>
       <c r="B562" s="21"/>
     </row>
     <row r="563" spans="1:2">
@@ -19513,7 +19587,7 @@
       <c r="B563" s="21"/>
     </row>
     <row r="564" spans="1:2">
-      <c r="A564" s="71"/>
+      <c r="A564" s="62"/>
       <c r="B564" s="21"/>
     </row>
     <row r="565" spans="1:2">
@@ -19521,7 +19595,7 @@
       <c r="B565" s="21"/>
     </row>
     <row r="566" spans="1:2">
-      <c r="A566" s="71"/>
+      <c r="A566" s="62"/>
       <c r="B566" s="21"/>
     </row>
     <row r="567" spans="1:2">
@@ -19529,7 +19603,7 @@
       <c r="B567" s="21"/>
     </row>
     <row r="568" spans="1:2">
-      <c r="A568" s="71"/>
+      <c r="A568" s="62"/>
       <c r="B568" s="21"/>
     </row>
     <row r="569" spans="1:2">
@@ -19537,7 +19611,7 @@
       <c r="B569" s="21"/>
     </row>
     <row r="570" spans="1:2">
-      <c r="A570" s="71"/>
+      <c r="A570" s="62"/>
       <c r="B570" s="21"/>
     </row>
     <row r="571" spans="1:2">
@@ -19545,7 +19619,7 @@
       <c r="B571" s="21"/>
     </row>
     <row r="572" spans="1:2">
-      <c r="A572" s="71"/>
+      <c r="A572" s="62"/>
       <c r="B572" s="21"/>
     </row>
     <row r="573" spans="1:2">
@@ -19553,7 +19627,7 @@
       <c r="B573" s="21"/>
     </row>
     <row r="574" spans="1:2">
-      <c r="A574" s="71"/>
+      <c r="A574" s="62"/>
       <c r="B574" s="21"/>
     </row>
     <row r="575" spans="1:2">
@@ -19561,7 +19635,7 @@
       <c r="B575" s="21"/>
     </row>
     <row r="576" spans="1:2">
-      <c r="A576" s="71"/>
+      <c r="A576" s="62"/>
       <c r="B576" s="21"/>
     </row>
     <row r="577" spans="1:2">
@@ -19569,7 +19643,7 @@
       <c r="B577" s="21"/>
     </row>
     <row r="578" spans="1:2">
-      <c r="A578" s="71"/>
+      <c r="A578" s="62"/>
       <c r="B578" s="21"/>
     </row>
     <row r="579" spans="1:2">
@@ -19577,7 +19651,7 @@
       <c r="B579" s="21"/>
     </row>
     <row r="580" spans="1:2">
-      <c r="A580" s="71"/>
+      <c r="A580" s="62"/>
       <c r="B580" s="21"/>
     </row>
     <row r="581" spans="1:2">
@@ -19585,7 +19659,7 @@
       <c r="B581" s="21"/>
     </row>
     <row r="582" spans="1:2">
-      <c r="A582" s="71"/>
+      <c r="A582" s="62"/>
       <c r="B582" s="21"/>
     </row>
     <row r="583" spans="1:2">
@@ -19593,7 +19667,7 @@
       <c r="B583" s="21"/>
     </row>
     <row r="584" spans="1:2">
-      <c r="A584" s="71"/>
+      <c r="A584" s="62"/>
       <c r="B584" s="21"/>
     </row>
     <row r="585" spans="1:2">
@@ -19601,7 +19675,7 @@
       <c r="B585" s="21"/>
     </row>
     <row r="586" spans="1:2">
-      <c r="A586" s="71"/>
+      <c r="A586" s="62"/>
       <c r="B586" s="21"/>
     </row>
     <row r="587" spans="1:2">
@@ -19609,7 +19683,7 @@
       <c r="B587" s="21"/>
     </row>
     <row r="588" spans="1:2">
-      <c r="A588" s="71"/>
+      <c r="A588" s="62"/>
       <c r="B588" s="21"/>
     </row>
     <row r="589" spans="1:2">
@@ -19617,7 +19691,7 @@
       <c r="B589" s="21"/>
     </row>
     <row r="590" spans="1:2">
-      <c r="A590" s="71"/>
+      <c r="A590" s="62"/>
       <c r="B590" s="21"/>
     </row>
     <row r="591" spans="1:2">
@@ -19625,7 +19699,7 @@
       <c r="B591" s="21"/>
     </row>
     <row r="592" spans="1:2">
-      <c r="A592" s="71"/>
+      <c r="A592" s="62"/>
       <c r="B592" s="21"/>
     </row>
     <row r="593" spans="1:2">
@@ -19633,7 +19707,7 @@
       <c r="B593" s="15"/>
     </row>
     <row r="594" spans="1:2">
-      <c r="A594" s="71"/>
+      <c r="A594" s="62"/>
       <c r="B594" s="15"/>
     </row>
     <row r="595" spans="1:2">
@@ -19641,7 +19715,7 @@
       <c r="B595" s="15"/>
     </row>
     <row r="596" spans="1:2">
-      <c r="A596" s="71"/>
+      <c r="A596" s="62"/>
       <c r="B596" s="15"/>
     </row>
     <row r="597" spans="1:2">
@@ -19649,7 +19723,7 @@
       <c r="B597" s="15"/>
     </row>
     <row r="598" spans="1:2">
-      <c r="A598" s="71"/>
+      <c r="A598" s="62"/>
       <c r="B598" s="15"/>
     </row>
     <row r="599" spans="1:2">
@@ -19657,7 +19731,7 @@
       <c r="B599" s="15"/>
     </row>
     <row r="600" spans="1:2">
-      <c r="A600" s="71"/>
+      <c r="A600" s="62"/>
       <c r="B600" s="15"/>
     </row>
     <row r="601" spans="1:2">
@@ -19665,7 +19739,7 @@
       <c r="B601" s="15"/>
     </row>
     <row r="602" spans="1:2">
-      <c r="A602" s="71"/>
+      <c r="A602" s="62"/>
       <c r="B602" s="15"/>
     </row>
     <row r="603" spans="1:2">
@@ -19673,7 +19747,7 @@
       <c r="B603" s="15"/>
     </row>
     <row r="604" spans="1:2">
-      <c r="A604" s="71"/>
+      <c r="A604" s="62"/>
       <c r="B604" s="15"/>
     </row>
     <row r="605" spans="1:2">
@@ -19681,7 +19755,7 @@
       <c r="B605" s="15"/>
     </row>
     <row r="606" spans="1:2">
-      <c r="A606" s="71"/>
+      <c r="A606" s="62"/>
       <c r="B606" s="15"/>
     </row>
     <row r="607" spans="1:2">
@@ -19689,7 +19763,7 @@
       <c r="B607" s="15"/>
     </row>
     <row r="608" spans="1:2">
-      <c r="A608" s="71"/>
+      <c r="A608" s="62"/>
       <c r="B608" s="15"/>
     </row>
     <row r="609" spans="1:2">
@@ -19697,7 +19771,7 @@
       <c r="B609" s="15"/>
     </row>
     <row r="610" spans="1:2">
-      <c r="A610" s="71"/>
+      <c r="A610" s="62"/>
       <c r="B610" s="15"/>
     </row>
     <row r="611" spans="1:2">
@@ -19705,7 +19779,7 @@
       <c r="B611" s="15"/>
     </row>
     <row r="612" spans="1:2">
-      <c r="A612" s="71"/>
+      <c r="A612" s="62"/>
       <c r="B612" s="15"/>
     </row>
     <row r="613" spans="1:2">
@@ -19713,7 +19787,7 @@
       <c r="B613" s="15"/>
     </row>
     <row r="614" spans="1:2">
-      <c r="A614" s="71"/>
+      <c r="A614" s="62"/>
       <c r="B614" s="15"/>
     </row>
     <row r="615" spans="1:2">
@@ -19721,7 +19795,7 @@
       <c r="B615" s="15"/>
     </row>
     <row r="616" spans="1:2">
-      <c r="A616" s="71"/>
+      <c r="A616" s="62"/>
       <c r="B616" s="15"/>
     </row>
     <row r="617" spans="1:2">
@@ -19729,421 +19803,421 @@
       <c r="B617" s="15"/>
     </row>
     <row r="618" spans="1:1">
-      <c r="A618" s="72"/>
+      <c r="A618" s="63"/>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" s="12"/>
     </row>
     <row r="620" spans="1:1">
-      <c r="A620" s="72"/>
+      <c r="A620" s="63"/>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" s="12"/>
     </row>
     <row r="622" spans="1:1">
-      <c r="A622" s="72"/>
+      <c r="A622" s="63"/>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" s="12"/>
     </row>
     <row r="624" spans="1:1">
-      <c r="A624" s="72"/>
+      <c r="A624" s="63"/>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" s="12"/>
     </row>
     <row r="626" spans="1:1">
-      <c r="A626" s="72"/>
+      <c r="A626" s="63"/>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" s="12"/>
     </row>
     <row r="628" spans="1:1">
-      <c r="A628" s="72"/>
+      <c r="A628" s="63"/>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" s="12"/>
     </row>
     <row r="630" spans="1:1">
-      <c r="A630" s="72"/>
+      <c r="A630" s="63"/>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" s="12"/>
     </row>
     <row r="632" spans="1:1">
-      <c r="A632" s="72"/>
+      <c r="A632" s="63"/>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" s="12"/>
     </row>
     <row r="634" spans="1:1">
-      <c r="A634" s="72"/>
+      <c r="A634" s="63"/>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" s="12"/>
     </row>
     <row r="636" spans="1:1">
-      <c r="A636" s="72"/>
+      <c r="A636" s="63"/>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" s="12"/>
     </row>
     <row r="638" spans="1:1">
-      <c r="A638" s="72"/>
+      <c r="A638" s="63"/>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" s="12"/>
     </row>
     <row r="640" spans="1:1">
-      <c r="A640" s="72"/>
+      <c r="A640" s="63"/>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" s="12"/>
     </row>
     <row r="642" spans="1:1">
-      <c r="A642" s="72"/>
+      <c r="A642" s="63"/>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" s="12"/>
     </row>
     <row r="644" spans="1:1">
-      <c r="A644" s="72"/>
+      <c r="A644" s="63"/>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" s="12"/>
     </row>
     <row r="646" spans="1:1">
-      <c r="A646" s="72"/>
+      <c r="A646" s="63"/>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" s="12"/>
     </row>
     <row r="648" spans="1:1">
-      <c r="A648" s="72"/>
+      <c r="A648" s="63"/>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" s="12"/>
     </row>
     <row r="650" spans="1:1">
-      <c r="A650" s="72"/>
+      <c r="A650" s="63"/>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" s="12"/>
     </row>
     <row r="652" spans="1:1">
-      <c r="A652" s="72"/>
+      <c r="A652" s="63"/>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" s="12"/>
     </row>
     <row r="654" spans="1:1">
-      <c r="A654" s="72"/>
+      <c r="A654" s="63"/>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" s="12"/>
     </row>
     <row r="656" spans="1:1">
-      <c r="A656" s="72"/>
+      <c r="A656" s="63"/>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" s="12"/>
     </row>
     <row r="658" spans="1:1">
-      <c r="A658" s="72"/>
+      <c r="A658" s="63"/>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" s="12"/>
     </row>
     <row r="660" spans="1:1">
-      <c r="A660" s="72"/>
+      <c r="A660" s="63"/>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" s="12"/>
     </row>
     <row r="662" spans="1:1">
-      <c r="A662" s="72"/>
+      <c r="A662" s="63"/>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" s="12"/>
     </row>
     <row r="664" spans="1:1">
-      <c r="A664" s="72"/>
+      <c r="A664" s="63"/>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" s="12"/>
     </row>
     <row r="666" spans="1:1">
-      <c r="A666" s="72"/>
+      <c r="A666" s="63"/>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" s="12"/>
     </row>
     <row r="668" spans="1:1">
-      <c r="A668" s="72"/>
+      <c r="A668" s="63"/>
     </row>
     <row r="669" spans="1:1">
       <c r="A669" s="12"/>
     </row>
     <row r="670" spans="1:1">
-      <c r="A670" s="72"/>
+      <c r="A670" s="63"/>
     </row>
     <row r="671" spans="1:1">
       <c r="A671" s="12"/>
     </row>
     <row r="672" spans="1:1">
-      <c r="A672" s="72"/>
+      <c r="A672" s="63"/>
     </row>
     <row r="673" spans="1:1">
       <c r="A673" s="12"/>
     </row>
     <row r="674" spans="1:1">
-      <c r="A674" s="72"/>
+      <c r="A674" s="63"/>
     </row>
     <row r="675" spans="1:1">
       <c r="A675" s="12"/>
     </row>
     <row r="676" spans="1:1">
-      <c r="A676" s="72"/>
+      <c r="A676" s="63"/>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" s="12"/>
     </row>
     <row r="678" spans="1:1">
-      <c r="A678" s="72"/>
+      <c r="A678" s="63"/>
     </row>
     <row r="679" spans="1:1">
       <c r="A679" s="12"/>
     </row>
     <row r="680" spans="1:1">
-      <c r="A680" s="72"/>
+      <c r="A680" s="63"/>
     </row>
     <row r="681" spans="1:1">
       <c r="A681" s="12"/>
     </row>
     <row r="682" spans="1:1">
-      <c r="A682" s="72"/>
+      <c r="A682" s="63"/>
     </row>
     <row r="683" spans="1:1">
       <c r="A683" s="12"/>
     </row>
     <row r="684" spans="1:1">
-      <c r="A684" s="72"/>
+      <c r="A684" s="63"/>
     </row>
     <row r="685" spans="1:1">
       <c r="A685" s="12"/>
     </row>
     <row r="686" spans="1:1">
-      <c r="A686" s="72"/>
+      <c r="A686" s="63"/>
     </row>
     <row r="687" spans="1:1">
       <c r="A687" s="12"/>
     </row>
     <row r="688" spans="1:1">
-      <c r="A688" s="72"/>
+      <c r="A688" s="63"/>
     </row>
     <row r="689" spans="1:1">
       <c r="A689" s="12"/>
     </row>
     <row r="690" spans="1:1">
-      <c r="A690" s="72"/>
+      <c r="A690" s="63"/>
     </row>
     <row r="691" spans="1:1">
       <c r="A691" s="12"/>
     </row>
     <row r="692" spans="1:1">
-      <c r="A692" s="72"/>
+      <c r="A692" s="63"/>
     </row>
     <row r="693" spans="1:1">
       <c r="A693" s="12"/>
     </row>
     <row r="694" spans="1:1">
-      <c r="A694" s="72"/>
+      <c r="A694" s="63"/>
     </row>
     <row r="695" spans="1:1">
       <c r="A695" s="12"/>
     </row>
     <row r="696" spans="1:1">
-      <c r="A696" s="72"/>
+      <c r="A696" s="63"/>
     </row>
     <row r="697" spans="1:1">
       <c r="A697" s="12"/>
     </row>
     <row r="698" spans="1:1">
-      <c r="A698" s="72"/>
+      <c r="A698" s="63"/>
     </row>
     <row r="699" spans="1:1">
       <c r="A699" s="12"/>
     </row>
     <row r="700" spans="1:1">
-      <c r="A700" s="72"/>
+      <c r="A700" s="63"/>
     </row>
     <row r="701" spans="1:1">
       <c r="A701" s="12"/>
     </row>
     <row r="702" spans="1:1">
-      <c r="A702" s="72"/>
+      <c r="A702" s="63"/>
     </row>
     <row r="703" spans="1:1">
       <c r="A703" s="12"/>
     </row>
     <row r="704" spans="1:1">
-      <c r="A704" s="72"/>
+      <c r="A704" s="63"/>
     </row>
     <row r="705" spans="1:1">
       <c r="A705" s="12"/>
     </row>
     <row r="706" spans="1:1">
-      <c r="A706" s="72"/>
+      <c r="A706" s="63"/>
     </row>
     <row r="707" spans="1:1">
       <c r="A707" s="12"/>
     </row>
     <row r="708" spans="1:1">
-      <c r="A708" s="72"/>
+      <c r="A708" s="63"/>
     </row>
     <row r="709" spans="1:1">
       <c r="A709" s="12"/>
     </row>
     <row r="710" spans="1:1">
-      <c r="A710" s="72"/>
+      <c r="A710" s="63"/>
     </row>
     <row r="711" spans="1:1">
       <c r="A711" s="12"/>
     </row>
     <row r="712" spans="1:1">
-      <c r="A712" s="72"/>
+      <c r="A712" s="63"/>
     </row>
     <row r="713" spans="1:1">
       <c r="A713" s="12"/>
     </row>
     <row r="714" spans="1:1">
-      <c r="A714" s="72"/>
+      <c r="A714" s="63"/>
     </row>
     <row r="715" spans="1:1">
       <c r="A715" s="12"/>
     </row>
     <row r="716" spans="1:1">
-      <c r="A716" s="72"/>
+      <c r="A716" s="63"/>
     </row>
     <row r="717" spans="1:1">
       <c r="A717" s="12"/>
     </row>
     <row r="718" spans="1:1">
-      <c r="A718" s="72"/>
+      <c r="A718" s="63"/>
     </row>
     <row r="719" spans="1:1">
       <c r="A719" s="12"/>
     </row>
     <row r="720" spans="1:1">
-      <c r="A720" s="72"/>
+      <c r="A720" s="63"/>
     </row>
     <row r="721" spans="1:1">
       <c r="A721" s="12"/>
     </row>
     <row r="722" spans="1:1">
-      <c r="A722" s="72"/>
+      <c r="A722" s="63"/>
     </row>
     <row r="723" spans="1:1">
       <c r="A723" s="12"/>
     </row>
     <row r="724" spans="1:1">
-      <c r="A724" s="72"/>
+      <c r="A724" s="63"/>
     </row>
     <row r="725" spans="1:1">
       <c r="A725" s="12"/>
     </row>
     <row r="726" spans="1:1">
-      <c r="A726" s="72"/>
+      <c r="A726" s="63"/>
     </row>
     <row r="727" spans="1:1">
       <c r="A727" s="12"/>
     </row>
     <row r="728" spans="1:1">
-      <c r="A728" s="72"/>
+      <c r="A728" s="63"/>
     </row>
     <row r="729" spans="1:1">
       <c r="A729" s="12"/>
     </row>
     <row r="730" spans="1:1">
-      <c r="A730" s="72"/>
+      <c r="A730" s="63"/>
     </row>
     <row r="731" spans="1:1">
       <c r="A731" s="12"/>
     </row>
     <row r="732" spans="1:1">
-      <c r="A732" s="72"/>
+      <c r="A732" s="63"/>
     </row>
     <row r="733" spans="1:1">
       <c r="A733" s="12"/>
     </row>
     <row r="734" spans="1:1">
-      <c r="A734" s="72"/>
+      <c r="A734" s="63"/>
     </row>
     <row r="735" spans="1:1">
       <c r="A735" s="12"/>
     </row>
     <row r="736" spans="1:1">
-      <c r="A736" s="72"/>
+      <c r="A736" s="63"/>
     </row>
     <row r="737" spans="1:1">
       <c r="A737" s="12"/>
     </row>
     <row r="738" spans="1:1">
-      <c r="A738" s="72"/>
+      <c r="A738" s="63"/>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" s="12"/>
     </row>
     <row r="740" spans="1:1">
-      <c r="A740" s="72"/>
+      <c r="A740" s="63"/>
     </row>
     <row r="741" spans="1:1">
       <c r="A741" s="12"/>
     </row>
     <row r="742" spans="1:1">
-      <c r="A742" s="72"/>
+      <c r="A742" s="63"/>
     </row>
     <row r="743" spans="1:1">
       <c r="A743" s="12"/>
     </row>
     <row r="744" spans="1:1">
-      <c r="A744" s="72"/>
+      <c r="A744" s="63"/>
     </row>
     <row r="745" spans="1:1">
       <c r="A745" s="12"/>
     </row>
     <row r="746" spans="1:1">
-      <c r="A746" s="72"/>
+      <c r="A746" s="63"/>
     </row>
     <row r="747" spans="1:1">
       <c r="A747" s="12"/>
     </row>
     <row r="748" spans="1:1">
-      <c r="A748" s="72"/>
+      <c r="A748" s="63"/>
     </row>
     <row r="749" spans="1:1">
       <c r="A749" s="12"/>
     </row>
     <row r="750" spans="1:1">
-      <c r="A750" s="72"/>
+      <c r="A750" s="63"/>
     </row>
     <row r="751" spans="1:1">
       <c r="A751" s="12"/>
     </row>
     <row r="752" spans="1:1">
-      <c r="A752" s="72"/>
+      <c r="A752" s="63"/>
     </row>
     <row r="753" spans="1:1">
       <c r="A753" s="12"/>
     </row>
     <row r="754" spans="1:1">
-      <c r="A754" s="72"/>
+      <c r="A754" s="63"/>
     </row>
     <row r="755" spans="1:1">
       <c r="A755" s="12"/>
     </row>
     <row r="756" spans="1:1">
-      <c r="A756" s="72"/>
+      <c r="A756" s="63"/>
     </row>
     <row r="757" spans="1:1">
       <c r="A757" s="12"/>
@@ -20182,13 +20256,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -20199,7 +20273,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -20210,7 +20284,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -20221,7 +20295,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -20237,7 +20311,7 @@
         <v>43050</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -20248,7 +20322,7 @@
         <v>43064</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -20264,7 +20338,7 @@
         <v>43079</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -20275,7 +20349,7 @@
         <v>43085</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -20286,7 +20360,7 @@
         <v>43092</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -20297,7 +20371,7 @@
         <v>43099</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -20308,7 +20382,7 @@
         <v>43100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
     </row>
     <row r="14" spans="1:3">

--- a/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
@@ -2317,6 +2317,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -2326,7 +2341,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2337,6 +2365,33 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2365,21 +2420,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2392,15 +2433,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2431,51 +2473,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2536,13 +2536,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2555,120 +2579,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2698,7 +2608,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3069,6 +3069,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3093,15 +3108,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3113,30 +3119,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3158,11 +3140,29 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3172,10 +3172,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3184,37 +3184,34 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3223,105 +3220,108 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -20244,7 +20244,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -20391,9 +20391,15 @@
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3">
+        <v>43107</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2"/>

--- a/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -1412,9 +1412,6 @@
     <t>高媛媛</t>
   </si>
   <si>
-    <t>46周</t>
-  </si>
-  <si>
     <t>悸动(南京浦口信息工程大学店)</t>
   </si>
   <si>
@@ -1541,9 +1538,6 @@
     <t>0512-69881998</t>
   </si>
   <si>
-    <t>47周</t>
-  </si>
-  <si>
     <t>悸动(长宁天山西路店)</t>
   </si>
   <si>
@@ -1640,9 +1634,6 @@
     <t>魏贤萍</t>
   </si>
   <si>
-    <t>48周</t>
-  </si>
-  <si>
     <t>大连</t>
   </si>
   <si>
@@ -1715,9 +1706,6 @@
     <t>苏海燕</t>
   </si>
   <si>
-    <t>50周</t>
-  </si>
-  <si>
     <t>遇见王者(松江荣乐店)</t>
   </si>
   <si>
@@ -1880,9 +1868,6 @@
     <t>查厘士(徐汇日月光店11)</t>
   </si>
   <si>
-    <t>51周</t>
-  </si>
-  <si>
     <t>易涞司（上海）食品有限公司</t>
   </si>
   <si>
@@ -1916,9 +1901,6 @@
     <t>陈华</t>
   </si>
   <si>
-    <t>52周</t>
-  </si>
-  <si>
     <t>捞王锅物料理(金桥国际店)</t>
   </si>
   <si>
@@ -1962,9 +1944,6 @@
   </si>
   <si>
     <t>蔡芳</t>
-  </si>
-  <si>
-    <t>2周</t>
   </si>
   <si>
     <t>供应链</t>
@@ -2228,9 +2207,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="35">
@@ -2318,6 +2297,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2333,34 +2373,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -2368,38 +2380,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2420,45 +2405,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2471,11 +2432,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2536,54 +2515,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2608,6 +2539,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2626,49 +2641,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2699,6 +2672,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3069,6 +3048,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3080,15 +3083,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3108,32 +3102,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3147,13 +3122,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3172,10 +3151,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3184,16 +3163,16 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3202,126 +3181,126 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4466,9 +4445,9 @@
   <dimension ref="A1:P757"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C300" sqref="C300"/>
+      <selection pane="bottomLeft" activeCell="D300" sqref="D300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12632,8 +12611,8 @@
       <c r="A180" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B180" s="43" t="s">
-        <v>449</v>
+      <c r="B180" s="43">
+        <v>46</v>
       </c>
       <c r="C180" s="44">
         <v>43053</v>
@@ -12654,19 +12633,19 @@
         <v>76106276</v>
       </c>
       <c r="I180" s="42" t="s">
+        <v>449</v>
+      </c>
+      <c r="J180" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K180" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L180" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M180" s="42" t="s">
         <v>450</v>
-      </c>
-      <c r="J180" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K180" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L180" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M180" s="42" t="s">
-        <v>451</v>
       </c>
       <c r="N180" s="45" t="s">
         <v>46</v>
@@ -12682,8 +12661,8 @@
       <c r="A181" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B181" s="43" t="s">
-        <v>449</v>
+      <c r="B181" s="43">
+        <v>46</v>
       </c>
       <c r="C181" s="44">
         <v>43053</v>
@@ -12704,19 +12683,19 @@
         <v>76103683</v>
       </c>
       <c r="I181" s="49" t="s">
+        <v>451</v>
+      </c>
+      <c r="J181" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K181" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L181" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M181" s="50" t="s">
         <v>452</v>
-      </c>
-      <c r="J181" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K181" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L181" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M181" s="50" t="s">
-        <v>453</v>
       </c>
       <c r="N181" s="45" t="s">
         <v>46</v>
@@ -12732,8 +12711,8 @@
       <c r="A182" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B182" s="43" t="s">
-        <v>449</v>
+      <c r="B182" s="43">
+        <v>46</v>
       </c>
       <c r="C182" s="44">
         <v>43053</v>
@@ -12754,19 +12733,19 @@
         <v>76106268</v>
       </c>
       <c r="I182" s="42" t="s">
+        <v>453</v>
+      </c>
+      <c r="J182" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K182" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L182" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M182" s="46" t="s">
         <v>454</v>
-      </c>
-      <c r="J182" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K182" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L182" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M182" s="46" t="s">
-        <v>455</v>
       </c>
       <c r="N182" s="45" t="s">
         <v>46</v>
@@ -12782,8 +12761,8 @@
       <c r="A183" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B183" s="43" t="s">
-        <v>449</v>
+      <c r="B183" s="43">
+        <v>46</v>
       </c>
       <c r="C183" s="44">
         <v>43053</v>
@@ -12804,19 +12783,19 @@
         <v>76106175</v>
       </c>
       <c r="I183" s="42" t="s">
+        <v>455</v>
+      </c>
+      <c r="J183" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K183" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L183" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M183" s="42" t="s">
         <v>456</v>
-      </c>
-      <c r="J183" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K183" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L183" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M183" s="42" t="s">
-        <v>457</v>
       </c>
       <c r="N183" s="45" t="s">
         <v>46</v>
@@ -12832,8 +12811,8 @@
       <c r="A184" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B184" s="43" t="s">
-        <v>449</v>
+      <c r="B184" s="43">
+        <v>46</v>
       </c>
       <c r="C184" s="44">
         <v>43053</v>
@@ -12854,19 +12833,19 @@
         <v>76078788</v>
       </c>
       <c r="I184" s="49" t="s">
+        <v>457</v>
+      </c>
+      <c r="J184" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K184" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L184" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M184" s="46" t="s">
         <v>458</v>
-      </c>
-      <c r="J184" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K184" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L184" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M184" s="46" t="s">
-        <v>459</v>
       </c>
       <c r="N184" s="45" t="s">
         <v>46</v>
@@ -12882,8 +12861,8 @@
       <c r="A185" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B185" s="43" t="s">
-        <v>449</v>
+      <c r="B185" s="43">
+        <v>46</v>
       </c>
       <c r="C185" s="44">
         <v>43053</v>
@@ -12904,19 +12883,19 @@
         <v>76105953</v>
       </c>
       <c r="I185" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="J185" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K185" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L185" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M185" s="41" t="s">
         <v>460</v>
-      </c>
-      <c r="J185" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K185" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L185" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M185" s="41" t="s">
-        <v>461</v>
       </c>
       <c r="N185" s="45" t="s">
         <v>46</v>
@@ -12932,8 +12911,8 @@
       <c r="A186" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B186" s="43" t="s">
-        <v>449</v>
+      <c r="B186" s="43">
+        <v>46</v>
       </c>
       <c r="C186" s="44">
         <v>43053</v>
@@ -12954,19 +12933,19 @@
         <v>76087615</v>
       </c>
       <c r="I186" s="42" t="s">
+        <v>461</v>
+      </c>
+      <c r="J186" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K186" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L186" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M186" s="46" t="s">
         <v>462</v>
-      </c>
-      <c r="J186" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K186" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L186" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M186" s="46" t="s">
-        <v>463</v>
       </c>
       <c r="N186" s="45" t="s">
         <v>46</v>
@@ -12982,8 +12961,8 @@
       <c r="A187" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B187" s="43" t="s">
-        <v>449</v>
+      <c r="B187" s="43">
+        <v>46</v>
       </c>
       <c r="C187" s="44">
         <v>43053</v>
@@ -12998,25 +12977,25 @@
         <v>53</v>
       </c>
       <c r="G187" s="42" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H187" s="42">
         <v>76105508</v>
       </c>
       <c r="I187" s="42" t="s">
+        <v>464</v>
+      </c>
+      <c r="J187" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K187" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L187" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M187" s="50" t="s">
         <v>465</v>
-      </c>
-      <c r="J187" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K187" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L187" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M187" s="50" t="s">
-        <v>466</v>
       </c>
       <c r="N187" s="45" t="s">
         <v>46</v>
@@ -13032,8 +13011,8 @@
       <c r="A188" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B188" s="43" t="s">
-        <v>449</v>
+      <c r="B188" s="43">
+        <v>46</v>
       </c>
       <c r="C188" s="44">
         <v>43053</v>
@@ -13054,19 +13033,19 @@
         <v>76105323</v>
       </c>
       <c r="I188" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="J188" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K188" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L188" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M188" s="42" t="s">
         <v>467</v>
-      </c>
-      <c r="J188" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K188" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L188" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M188" s="42" t="s">
-        <v>468</v>
       </c>
       <c r="N188" s="45" t="s">
         <v>46</v>
@@ -13082,8 +13061,8 @@
       <c r="A189" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B189" s="43" t="s">
-        <v>449</v>
+      <c r="B189" s="43">
+        <v>46</v>
       </c>
       <c r="C189" s="44">
         <v>43053</v>
@@ -13104,19 +13083,19 @@
         <v>76105578</v>
       </c>
       <c r="I189" s="42" t="s">
+        <v>468</v>
+      </c>
+      <c r="J189" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K189" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L189" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M189" s="41" t="s">
         <v>469</v>
-      </c>
-      <c r="J189" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K189" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L189" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M189" s="41" t="s">
-        <v>470</v>
       </c>
       <c r="N189" s="45" t="s">
         <v>46</v>
@@ -13132,8 +13111,8 @@
       <c r="A190" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B190" s="43" t="s">
-        <v>449</v>
+      <c r="B190" s="43">
+        <v>46</v>
       </c>
       <c r="C190" s="44">
         <v>43053</v>
@@ -13154,19 +13133,19 @@
         <v>76106131</v>
       </c>
       <c r="I190" s="42" t="s">
+        <v>470</v>
+      </c>
+      <c r="J190" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K190" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L190" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M190" s="42" t="s">
         <v>471</v>
-      </c>
-      <c r="J190" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K190" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L190" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M190" s="42" t="s">
-        <v>472</v>
       </c>
       <c r="N190" s="45" t="s">
         <v>46</v>
@@ -13182,8 +13161,8 @@
       <c r="A191" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B191" s="43" t="s">
-        <v>449</v>
+      <c r="B191" s="43">
+        <v>46</v>
       </c>
       <c r="C191" s="44">
         <v>43053</v>
@@ -13204,19 +13183,19 @@
         <v>76099661</v>
       </c>
       <c r="I191" s="42" t="s">
+        <v>472</v>
+      </c>
+      <c r="J191" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K191" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L191" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M191" s="42" t="s">
         <v>473</v>
-      </c>
-      <c r="J191" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K191" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L191" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M191" s="42" t="s">
-        <v>474</v>
       </c>
       <c r="N191" s="45" t="s">
         <v>46</v>
@@ -13232,8 +13211,8 @@
       <c r="A192" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B192" s="43" t="s">
-        <v>449</v>
+      <c r="B192" s="43">
+        <v>46</v>
       </c>
       <c r="C192" s="44">
         <v>43053</v>
@@ -13254,19 +13233,19 @@
         <v>76101937</v>
       </c>
       <c r="I192" s="49" t="s">
+        <v>474</v>
+      </c>
+      <c r="J192" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K192" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L192" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M192" s="46" t="s">
         <v>475</v>
-      </c>
-      <c r="J192" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K192" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L192" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M192" s="46" t="s">
-        <v>476</v>
       </c>
       <c r="N192" s="45" t="s">
         <v>46</v>
@@ -13282,8 +13261,8 @@
       <c r="A193" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B193" s="43" t="s">
-        <v>449</v>
+      <c r="B193" s="43">
+        <v>46</v>
       </c>
       <c r="C193" s="44">
         <v>43053</v>
@@ -13304,19 +13283,19 @@
         <v>76108189</v>
       </c>
       <c r="I193" s="42" t="s">
+        <v>476</v>
+      </c>
+      <c r="J193" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K193" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L193" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M193" s="42" t="s">
         <v>477</v>
-      </c>
-      <c r="J193" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K193" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L193" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M193" s="42" t="s">
-        <v>478</v>
       </c>
       <c r="N193" s="45" t="s">
         <v>46</v>
@@ -13332,8 +13311,8 @@
       <c r="A194" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B194" s="43" t="s">
-        <v>449</v>
+      <c r="B194" s="43">
+        <v>46</v>
       </c>
       <c r="C194" s="44">
         <v>43053</v>
@@ -13354,19 +13333,19 @@
         <v>76108187</v>
       </c>
       <c r="I194" s="49" t="s">
+        <v>478</v>
+      </c>
+      <c r="J194" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K194" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L194" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M194" s="42" t="s">
         <v>479</v>
-      </c>
-      <c r="J194" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K194" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L194" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M194" s="42" t="s">
-        <v>480</v>
       </c>
       <c r="N194" s="45" t="s">
         <v>46</v>
@@ -13382,8 +13361,8 @@
       <c r="A195" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B195" s="43" t="s">
-        <v>449</v>
+      <c r="B195" s="43">
+        <v>46</v>
       </c>
       <c r="C195" s="44">
         <v>43053</v>
@@ -13404,19 +13383,19 @@
         <v>76108196</v>
       </c>
       <c r="I195" s="49" t="s">
+        <v>480</v>
+      </c>
+      <c r="J195" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K195" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L195" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M195" s="42" t="s">
         <v>481</v>
-      </c>
-      <c r="J195" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K195" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L195" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M195" s="42" t="s">
-        <v>482</v>
       </c>
       <c r="N195" s="45" t="s">
         <v>46</v>
@@ -13432,8 +13411,8 @@
       <c r="A196" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B196" s="43" t="s">
-        <v>449</v>
+      <c r="B196" s="43">
+        <v>46</v>
       </c>
       <c r="C196" s="44">
         <v>43053</v>
@@ -13454,19 +13433,19 @@
         <v>76108636</v>
       </c>
       <c r="I196" s="49" t="s">
+        <v>482</v>
+      </c>
+      <c r="J196" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K196" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L196" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M196" s="42" t="s">
         <v>483</v>
-      </c>
-      <c r="J196" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K196" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L196" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M196" s="42" t="s">
-        <v>484</v>
       </c>
       <c r="N196" s="45" t="s">
         <v>46</v>
@@ -13482,8 +13461,8 @@
       <c r="A197" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B197" s="43" t="s">
-        <v>449</v>
+      <c r="B197" s="43">
+        <v>46</v>
       </c>
       <c r="C197" s="44">
         <v>43053</v>
@@ -13498,7 +13477,7 @@
         <v>53</v>
       </c>
       <c r="G197" s="42" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H197" s="42">
         <v>76093718</v>
@@ -13516,7 +13495,7 @@
         <v>17721436606</v>
       </c>
       <c r="M197" s="42" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="N197" s="45" t="s">
         <v>46</v>
@@ -13532,8 +13511,8 @@
       <c r="A198" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B198" s="43" t="s">
-        <v>449</v>
+      <c r="B198" s="43">
+        <v>46</v>
       </c>
       <c r="C198" s="44">
         <v>43053</v>
@@ -13545,7 +13524,7 @@
         <v>136</v>
       </c>
       <c r="F198" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G198" s="8" t="s">
         <v>41</v>
@@ -13554,19 +13533,19 @@
         <v>76108207</v>
       </c>
       <c r="I198" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="J198" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K198" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L198" s="45">
+        <v>17721436606</v>
+      </c>
+      <c r="M198" s="8" t="s">
         <v>488</v>
-      </c>
-      <c r="J198" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="K198" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L198" s="45">
-        <v>17721436606</v>
-      </c>
-      <c r="M198" s="8" t="s">
-        <v>489</v>
       </c>
       <c r="N198" s="8" t="s">
         <v>372</v>
@@ -13582,8 +13561,8 @@
       <c r="A199" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B199" s="43" t="s">
-        <v>449</v>
+      <c r="B199" s="43">
+        <v>46</v>
       </c>
       <c r="C199" s="34">
         <v>43054</v>
@@ -13604,7 +13583,7 @@
         <v>76102029</v>
       </c>
       <c r="I199" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J199" s="15" t="s">
         <v>41</v>
@@ -13622,7 +13601,7 @@
         <v>52</v>
       </c>
       <c r="O199" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="P199" s="15" t="s">
         <v>174</v>
@@ -13650,8 +13629,8 @@
       <c r="A201" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B201" s="43" t="s">
-        <v>492</v>
+      <c r="B201" s="43">
+        <v>47</v>
       </c>
       <c r="C201" s="34">
         <v>43059</v>
@@ -13672,7 +13651,7 @@
         <v>76109355</v>
       </c>
       <c r="I201" s="16" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J201" s="45" t="s">
         <v>41</v>
@@ -13684,7 +13663,7 @@
         <v>17721436606</v>
       </c>
       <c r="M201" s="16" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="N201" s="45" t="s">
         <v>46</v>
@@ -13700,8 +13679,8 @@
       <c r="A202" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B202" s="43" t="s">
-        <v>492</v>
+      <c r="B202" s="43">
+        <v>47</v>
       </c>
       <c r="C202" s="34">
         <v>43059</v>
@@ -13716,13 +13695,13 @@
         <v>53</v>
       </c>
       <c r="G202" s="16" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H202" s="16">
         <v>76109282</v>
       </c>
       <c r="I202" s="16" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J202" s="45" t="s">
         <v>41</v>
@@ -13734,7 +13713,7 @@
         <v>17721436606</v>
       </c>
       <c r="M202" s="16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="N202" s="45" t="s">
         <v>46</v>
@@ -13750,8 +13729,8 @@
       <c r="A203" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B203" s="43" t="s">
-        <v>492</v>
+      <c r="B203" s="43">
+        <v>47</v>
       </c>
       <c r="C203" s="34">
         <v>43059</v>
@@ -13772,7 +13751,7 @@
         <v>76109125</v>
       </c>
       <c r="I203" s="16" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J203" s="45" t="s">
         <v>41</v>
@@ -13784,7 +13763,7 @@
         <v>17721436606</v>
       </c>
       <c r="M203" s="16" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="N203" s="45" t="s">
         <v>46</v>
@@ -13800,8 +13779,8 @@
       <c r="A204" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B204" s="43" t="s">
-        <v>492</v>
+      <c r="B204" s="43">
+        <v>47</v>
       </c>
       <c r="C204" s="34">
         <v>43059</v>
@@ -13822,7 +13801,7 @@
         <v>76108852</v>
       </c>
       <c r="I204" s="16" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J204" s="45" t="s">
         <v>41</v>
@@ -13834,7 +13813,7 @@
         <v>17721436606</v>
       </c>
       <c r="M204" s="16" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="N204" s="45" t="s">
         <v>46</v>
@@ -13850,8 +13829,8 @@
       <c r="A205" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B205" s="43" t="s">
-        <v>492</v>
+      <c r="B205" s="43">
+        <v>47</v>
       </c>
       <c r="C205" s="34">
         <v>43059</v>
@@ -13872,7 +13851,7 @@
         <v>76108722</v>
       </c>
       <c r="I205" s="16" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="J205" s="45" t="s">
         <v>41</v>
@@ -13884,7 +13863,7 @@
         <v>17721436606</v>
       </c>
       <c r="M205" s="16" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="N205" s="45" t="s">
         <v>46</v>
@@ -13900,8 +13879,8 @@
       <c r="A206" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B206" s="43" t="s">
-        <v>492</v>
+      <c r="B206" s="43">
+        <v>47</v>
       </c>
       <c r="C206" s="34">
         <v>43059</v>
@@ -13922,7 +13901,7 @@
         <v>76108830</v>
       </c>
       <c r="I206" s="16" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="J206" s="45" t="s">
         <v>41</v>
@@ -13934,7 +13913,7 @@
         <v>17721436606</v>
       </c>
       <c r="M206" s="16" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="N206" s="45" t="s">
         <v>46</v>
@@ -13950,8 +13929,8 @@
       <c r="A207" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B207" s="43" t="s">
-        <v>492</v>
+      <c r="B207" s="43">
+        <v>47</v>
       </c>
       <c r="C207" s="34">
         <v>43059</v>
@@ -13972,7 +13951,7 @@
         <v>76078016</v>
       </c>
       <c r="I207" s="16" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="J207" s="45" t="s">
         <v>41</v>
@@ -13984,7 +13963,7 @@
         <v>17721436606</v>
       </c>
       <c r="M207" s="16" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="N207" s="45" t="s">
         <v>46</v>
@@ -14000,8 +13979,8 @@
       <c r="A208" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B208" s="43" t="s">
-        <v>492</v>
+      <c r="B208" s="43">
+        <v>47</v>
       </c>
       <c r="C208" s="34">
         <v>43059</v>
@@ -14022,7 +14001,7 @@
         <v>76107261</v>
       </c>
       <c r="I208" s="16" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J208" s="45" t="s">
         <v>41</v>
@@ -14034,7 +14013,7 @@
         <v>17721436606</v>
       </c>
       <c r="M208" s="16" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="N208" s="45" t="s">
         <v>46</v>
@@ -14050,8 +14029,8 @@
       <c r="A209" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B209" s="43" t="s">
-        <v>492</v>
+      <c r="B209" s="43">
+        <v>47</v>
       </c>
       <c r="C209" s="34">
         <v>43059</v>
@@ -14072,7 +14051,7 @@
         <v>76106757</v>
       </c>
       <c r="I209" s="16" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J209" s="45" t="s">
         <v>41</v>
@@ -14084,7 +14063,7 @@
         <v>17721436606</v>
       </c>
       <c r="M209" s="16" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="N209" s="45" t="s">
         <v>46</v>
@@ -14100,8 +14079,8 @@
       <c r="A210" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B210" s="43" t="s">
-        <v>492</v>
+      <c r="B210" s="43">
+        <v>47</v>
       </c>
       <c r="C210" s="34">
         <v>43059</v>
@@ -14122,7 +14101,7 @@
         <v>76109690</v>
       </c>
       <c r="I210" s="16" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="J210" s="45" t="s">
         <v>41</v>
@@ -14134,7 +14113,7 @@
         <v>17721436606</v>
       </c>
       <c r="M210" s="16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="N210" s="45" t="s">
         <v>46</v>
@@ -14150,8 +14129,8 @@
       <c r="A211" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B211" s="43" t="s">
-        <v>492</v>
+      <c r="B211" s="43">
+        <v>47</v>
       </c>
       <c r="C211" s="34">
         <v>43059</v>
@@ -14166,13 +14145,13 @@
         <v>53</v>
       </c>
       <c r="G211" s="16" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H211" s="16">
         <v>76103156</v>
       </c>
       <c r="I211" s="16" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J211" s="45" t="s">
         <v>41</v>
@@ -14184,7 +14163,7 @@
         <v>17721436606</v>
       </c>
       <c r="M211" s="16" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N211" s="45" t="s">
         <v>46</v>
@@ -14200,8 +14179,8 @@
       <c r="A212" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B212" s="43" t="s">
-        <v>492</v>
+      <c r="B212" s="43">
+        <v>47</v>
       </c>
       <c r="C212" s="34">
         <v>43059</v>
@@ -14222,7 +14201,7 @@
         <v>76091385</v>
       </c>
       <c r="I212" s="16" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J212" s="45" t="s">
         <v>41</v>
@@ -14234,7 +14213,7 @@
         <v>17721436606</v>
       </c>
       <c r="M212" s="16" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="N212" s="45" t="s">
         <v>46</v>
@@ -14250,8 +14229,8 @@
       <c r="A213" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B213" s="43" t="s">
-        <v>492</v>
+      <c r="B213" s="43">
+        <v>47</v>
       </c>
       <c r="C213" s="34">
         <v>43059</v>
@@ -14272,7 +14251,7 @@
         <v>76108185</v>
       </c>
       <c r="I213" s="16" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="J213" s="45" t="s">
         <v>41</v>
@@ -14284,7 +14263,7 @@
         <v>17721436606</v>
       </c>
       <c r="M213" s="16" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="N213" s="45" t="s">
         <v>46</v>
@@ -14300,8 +14279,8 @@
       <c r="A214" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B214" s="43" t="s">
-        <v>492</v>
+      <c r="B214" s="43">
+        <v>47</v>
       </c>
       <c r="C214" s="34">
         <v>43059</v>
@@ -14322,7 +14301,7 @@
         <v>76109725</v>
       </c>
       <c r="I214" s="16" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J214" s="45" t="s">
         <v>41</v>
@@ -14334,7 +14313,7 @@
         <v>17721436606</v>
       </c>
       <c r="M214" s="16" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="N214" s="45" t="s">
         <v>46</v>
@@ -14350,8 +14329,8 @@
       <c r="A215" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B215" s="43" t="s">
-        <v>492</v>
+      <c r="B215" s="43">
+        <v>47</v>
       </c>
       <c r="C215" s="34">
         <v>43059</v>
@@ -14372,7 +14351,7 @@
         <v>76109788</v>
       </c>
       <c r="I215" s="16" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="J215" s="45" t="s">
         <v>41</v>
@@ -14384,7 +14363,7 @@
         <v>17721436606</v>
       </c>
       <c r="M215" s="16" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="N215" s="45" t="s">
         <v>46</v>
@@ -14418,8 +14397,8 @@
       <c r="A217" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B217" s="43" t="s">
-        <v>525</v>
+      <c r="B217" s="43">
+        <v>48</v>
       </c>
       <c r="C217" s="34">
         <v>43069</v>
@@ -14434,13 +14413,13 @@
         <v>413</v>
       </c>
       <c r="G217" s="42" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H217" s="42">
         <v>76105618</v>
       </c>
       <c r="I217" s="42" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="J217" s="15" t="s">
         <v>41</v>
@@ -14452,7 +14431,7 @@
         <v>17721436606</v>
       </c>
       <c r="M217" s="42" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="N217" s="45" t="s">
         <v>46</v>
@@ -14468,8 +14447,8 @@
       <c r="A218" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B218" s="43" t="s">
-        <v>525</v>
+      <c r="B218" s="43">
+        <v>48</v>
       </c>
       <c r="C218" s="34">
         <v>43069</v>
@@ -14490,7 +14469,7 @@
         <v>76111099</v>
       </c>
       <c r="I218" s="42" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="J218" s="15" t="s">
         <v>41</v>
@@ -14502,7 +14481,7 @@
         <v>17721436606</v>
       </c>
       <c r="M218" s="42" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="N218" s="45" t="s">
         <v>46</v>
@@ -14518,8 +14497,8 @@
       <c r="A219" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B219" s="43" t="s">
-        <v>525</v>
+      <c r="B219" s="43">
+        <v>48</v>
       </c>
       <c r="C219" s="34">
         <v>43069</v>
@@ -14540,7 +14519,7 @@
         <v>76111102</v>
       </c>
       <c r="I219" s="42" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="J219" s="15" t="s">
         <v>41</v>
@@ -14552,7 +14531,7 @@
         <v>17721436606</v>
       </c>
       <c r="M219" s="42" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="N219" s="45" t="s">
         <v>46</v>
@@ -14568,8 +14547,8 @@
       <c r="A220" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B220" s="43" t="s">
-        <v>525</v>
+      <c r="B220" s="43">
+        <v>48</v>
       </c>
       <c r="C220" s="34">
         <v>43069</v>
@@ -14590,7 +14569,7 @@
         <v>76111103</v>
       </c>
       <c r="I220" s="42" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="J220" s="15" t="s">
         <v>41</v>
@@ -14602,13 +14581,13 @@
         <v>17721436606</v>
       </c>
       <c r="M220" s="54" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="N220" s="45" t="s">
         <v>46</v>
       </c>
       <c r="O220" s="55" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="P220" s="8" t="s">
         <v>171</v>
@@ -14618,8 +14597,8 @@
       <c r="A221" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B221" s="43" t="s">
-        <v>525</v>
+      <c r="B221" s="43">
+        <v>48</v>
       </c>
       <c r="C221" s="34">
         <v>43069</v>
@@ -14640,7 +14619,7 @@
         <v>76111881</v>
       </c>
       <c r="I221" s="49" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="J221" s="15" t="s">
         <v>41</v>
@@ -14652,7 +14631,7 @@
         <v>17721436606</v>
       </c>
       <c r="M221" s="42" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="N221" s="45" t="s">
         <v>46</v>
@@ -14668,8 +14647,8 @@
       <c r="A222" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B222" s="43" t="s">
-        <v>525</v>
+      <c r="B222" s="43">
+        <v>48</v>
       </c>
       <c r="C222" s="34">
         <v>43069</v>
@@ -14684,13 +14663,13 @@
         <v>413</v>
       </c>
       <c r="G222" s="42" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="H222" s="49">
         <v>76111880</v>
       </c>
       <c r="I222" s="49" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="J222" s="15" t="s">
         <v>41</v>
@@ -14702,7 +14681,7 @@
         <v>17721436606</v>
       </c>
       <c r="M222" s="42" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="N222" s="45" t="s">
         <v>46</v>
@@ -14718,8 +14697,8 @@
       <c r="A223" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B223" s="43" t="s">
-        <v>525</v>
+      <c r="B223" s="43">
+        <v>48</v>
       </c>
       <c r="C223" s="34">
         <v>43069</v>
@@ -14740,7 +14719,7 @@
         <v>76107522</v>
       </c>
       <c r="I223" s="49" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="J223" s="15" t="s">
         <v>41</v>
@@ -14752,7 +14731,7 @@
         <v>17721436606</v>
       </c>
       <c r="M223" s="42" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="N223" s="45" t="s">
         <v>46</v>
@@ -14768,8 +14747,8 @@
       <c r="A224" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B224" s="43" t="s">
-        <v>525</v>
+      <c r="B224" s="43">
+        <v>48</v>
       </c>
       <c r="C224" s="34">
         <v>43069</v>
@@ -14784,13 +14763,13 @@
         <v>413</v>
       </c>
       <c r="G224" s="42" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="H224" s="49">
         <v>76106008</v>
       </c>
       <c r="I224" s="49" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="J224" s="15" t="s">
         <v>41</v>
@@ -14802,7 +14781,7 @@
         <v>17721436606</v>
       </c>
       <c r="M224" s="42" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="N224" s="45" t="s">
         <v>46</v>
@@ -14818,8 +14797,8 @@
       <c r="A225" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B225" s="43" t="s">
-        <v>525</v>
+      <c r="B225" s="43">
+        <v>48</v>
       </c>
       <c r="C225" s="34">
         <v>43069</v>
@@ -14840,7 +14819,7 @@
         <v>76105998</v>
       </c>
       <c r="I225" s="49" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="J225" s="15" t="s">
         <v>41</v>
@@ -14852,7 +14831,7 @@
         <v>17721436606</v>
       </c>
       <c r="M225" s="42" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="N225" s="45" t="s">
         <v>46</v>
@@ -14868,8 +14847,8 @@
       <c r="A226" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B226" s="43" t="s">
-        <v>525</v>
+      <c r="B226" s="43">
+        <v>48</v>
       </c>
       <c r="C226" s="34">
         <v>43069</v>
@@ -14890,7 +14869,7 @@
         <v>76105997</v>
       </c>
       <c r="I226" s="49" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="J226" s="15" t="s">
         <v>41</v>
@@ -14902,7 +14881,7 @@
         <v>17721436606</v>
       </c>
       <c r="M226" s="42" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="N226" s="45" t="s">
         <v>46</v>
@@ -14936,8 +14915,8 @@
       <c r="A228" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B228" s="43" t="s">
-        <v>550</v>
+      <c r="B228" s="43">
+        <v>50</v>
       </c>
       <c r="C228" s="18">
         <v>43077</v>
@@ -14958,7 +14937,7 @@
         <v>76115060</v>
       </c>
       <c r="I228" s="15" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="J228" s="15" t="s">
         <v>41</v>
@@ -14970,7 +14949,7 @@
         <v>17721436606</v>
       </c>
       <c r="M228" s="15" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="N228" s="15" t="s">
         <v>46</v>
@@ -14986,8 +14965,8 @@
       <c r="A229" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B229" s="43" t="s">
-        <v>550</v>
+      <c r="B229" s="43">
+        <v>50</v>
       </c>
       <c r="C229" s="18">
         <v>43077</v>
@@ -14996,19 +14975,19 @@
         <v>42</v>
       </c>
       <c r="E229" s="15" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F229" s="15" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="G229" s="15" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="H229" s="15">
         <v>76112588</v>
       </c>
       <c r="I229" s="15" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="J229" s="15" t="s">
         <v>41</v>
@@ -15020,7 +14999,7 @@
         <v>17721436606</v>
       </c>
       <c r="M229" s="15" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="N229" s="15" t="s">
         <v>46</v>
@@ -15036,8 +15015,8 @@
       <c r="A230" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B230" s="43" t="s">
-        <v>550</v>
+      <c r="B230" s="43">
+        <v>50</v>
       </c>
       <c r="C230" s="18">
         <v>43077</v>
@@ -15058,7 +15037,7 @@
         <v>76111093</v>
       </c>
       <c r="I230" s="42" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="J230" s="45" t="s">
         <v>41</v>
@@ -15070,7 +15049,7 @@
         <v>17721436606</v>
       </c>
       <c r="M230" s="42" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="N230" s="15" t="s">
         <v>46</v>
@@ -15086,8 +15065,8 @@
       <c r="A231" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B231" s="43" t="s">
-        <v>550</v>
+      <c r="B231" s="43">
+        <v>50</v>
       </c>
       <c r="C231" s="18">
         <v>43077</v>
@@ -15102,13 +15081,13 @@
         <v>53</v>
       </c>
       <c r="G231" s="42" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H231" s="42">
         <v>76109756</v>
       </c>
       <c r="I231" s="49" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="J231" s="45" t="s">
         <v>41</v>
@@ -15120,7 +15099,7 @@
         <v>17721436606</v>
       </c>
       <c r="M231" s="56" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="N231" s="15" t="s">
         <v>46</v>
@@ -15136,8 +15115,8 @@
       <c r="A232" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B232" s="43" t="s">
-        <v>550</v>
+      <c r="B232" s="43">
+        <v>50</v>
       </c>
       <c r="C232" s="18">
         <v>43077</v>
@@ -15158,7 +15137,7 @@
         <v>76110188</v>
       </c>
       <c r="I232" s="49" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="J232" s="45" t="s">
         <v>41</v>
@@ -15170,7 +15149,7 @@
         <v>17721436606</v>
       </c>
       <c r="M232" s="42" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="N232" s="15" t="s">
         <v>46</v>
@@ -15186,8 +15165,8 @@
       <c r="A233" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B233" s="43" t="s">
-        <v>550</v>
+      <c r="B233" s="43">
+        <v>50</v>
       </c>
       <c r="C233" s="18">
         <v>43077</v>
@@ -15202,13 +15181,13 @@
         <v>53</v>
       </c>
       <c r="G233" s="42" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H233" s="42">
         <v>76110321</v>
       </c>
       <c r="I233" s="49" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="J233" s="45" t="s">
         <v>41</v>
@@ -15220,7 +15199,7 @@
         <v>17721436606</v>
       </c>
       <c r="M233" s="42" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="N233" s="15" t="s">
         <v>46</v>
@@ -15236,8 +15215,8 @@
       <c r="A234" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B234" s="43" t="s">
-        <v>550</v>
+      <c r="B234" s="43">
+        <v>50</v>
       </c>
       <c r="C234" s="18">
         <v>43077</v>
@@ -15258,7 +15237,7 @@
         <v>76110778</v>
       </c>
       <c r="I234" s="49" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="J234" s="45" t="s">
         <v>41</v>
@@ -15270,7 +15249,7 @@
         <v>17721436606</v>
       </c>
       <c r="M234" s="42" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="N234" s="15" t="s">
         <v>46</v>
@@ -15286,8 +15265,8 @@
       <c r="A235" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B235" s="43" t="s">
-        <v>550</v>
+      <c r="B235" s="43">
+        <v>50</v>
       </c>
       <c r="C235" s="18">
         <v>43077</v>
@@ -15302,13 +15281,13 @@
         <v>53</v>
       </c>
       <c r="G235" s="42" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="H235" s="42">
         <v>76111510</v>
       </c>
       <c r="I235" s="49" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="J235" s="45" t="s">
         <v>41</v>
@@ -15320,7 +15299,7 @@
         <v>17721436606</v>
       </c>
       <c r="M235" s="42" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="N235" s="15" t="s">
         <v>46</v>
@@ -15336,8 +15315,8 @@
       <c r="A236" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B236" s="43" t="s">
-        <v>550</v>
+      <c r="B236" s="43">
+        <v>50</v>
       </c>
       <c r="C236" s="18">
         <v>43077</v>
@@ -15358,7 +15337,7 @@
         <v>76111511</v>
       </c>
       <c r="I236" s="49" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="J236" s="45" t="s">
         <v>41</v>
@@ -15370,7 +15349,7 @@
         <v>17721436606</v>
       </c>
       <c r="M236" s="42" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="N236" s="15" t="s">
         <v>46</v>
@@ -15386,8 +15365,8 @@
       <c r="A237" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B237" s="43" t="s">
-        <v>550</v>
+      <c r="B237" s="43">
+        <v>50</v>
       </c>
       <c r="C237" s="18">
         <v>43077</v>
@@ -15408,7 +15387,7 @@
         <v>76111516</v>
       </c>
       <c r="I237" s="49" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="J237" s="45" t="s">
         <v>41</v>
@@ -15420,7 +15399,7 @@
         <v>17721436606</v>
       </c>
       <c r="M237" s="42" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="N237" s="15" t="s">
         <v>46</v>
@@ -15436,8 +15415,8 @@
       <c r="A238" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B238" s="43" t="s">
-        <v>550</v>
+      <c r="B238" s="43">
+        <v>50</v>
       </c>
       <c r="C238" s="18">
         <v>43077</v>
@@ -15458,7 +15437,7 @@
         <v>76111580</v>
       </c>
       <c r="I238" s="49" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="J238" s="45" t="s">
         <v>41</v>
@@ -15470,7 +15449,7 @@
         <v>17721436606</v>
       </c>
       <c r="M238" s="57" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="N238" s="15" t="s">
         <v>46</v>
@@ -15486,8 +15465,8 @@
       <c r="A239" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B239" s="43" t="s">
-        <v>550</v>
+      <c r="B239" s="43">
+        <v>50</v>
       </c>
       <c r="C239" s="18">
         <v>43077</v>
@@ -15508,7 +15487,7 @@
         <v>76111933</v>
       </c>
       <c r="I239" s="49" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="J239" s="45" t="s">
         <v>41</v>
@@ -15536,8 +15515,8 @@
       <c r="A240" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B240" s="43" t="s">
-        <v>550</v>
+      <c r="B240" s="43">
+        <v>50</v>
       </c>
       <c r="C240" s="18">
         <v>43077</v>
@@ -15558,7 +15537,7 @@
         <v>76112636</v>
       </c>
       <c r="I240" s="42" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="J240" s="45" t="s">
         <v>41</v>
@@ -15570,7 +15549,7 @@
         <v>17721436606</v>
       </c>
       <c r="M240" s="42" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="N240" s="15" t="s">
         <v>46</v>
@@ -15586,8 +15565,8 @@
       <c r="A241" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B241" s="43" t="s">
-        <v>550</v>
+      <c r="B241" s="43">
+        <v>50</v>
       </c>
       <c r="C241" s="18">
         <v>43077</v>
@@ -15602,13 +15581,13 @@
         <v>53</v>
       </c>
       <c r="G241" s="42" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H241" s="42">
         <v>76112678</v>
       </c>
       <c r="I241" s="42" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="J241" s="45" t="s">
         <v>41</v>
@@ -15620,7 +15599,7 @@
         <v>17721436606</v>
       </c>
       <c r="M241" s="56" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="N241" s="15" t="s">
         <v>46</v>
@@ -15636,8 +15615,8 @@
       <c r="A242" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B242" s="43" t="s">
-        <v>550</v>
+      <c r="B242" s="43">
+        <v>50</v>
       </c>
       <c r="C242" s="18">
         <v>43077</v>
@@ -15670,7 +15649,7 @@
         <v>17721436606</v>
       </c>
       <c r="M242" s="56" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="N242" s="15" t="s">
         <v>46</v>
@@ -15686,8 +15665,8 @@
       <c r="A243" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B243" s="43" t="s">
-        <v>550</v>
+      <c r="B243" s="43">
+        <v>50</v>
       </c>
       <c r="C243" s="18">
         <v>43077</v>
@@ -15708,7 +15687,7 @@
         <v>76112769</v>
       </c>
       <c r="I243" s="42" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="J243" s="45" t="s">
         <v>41</v>
@@ -15720,7 +15699,7 @@
         <v>17721436606</v>
       </c>
       <c r="M243" s="42" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="N243" s="15" t="s">
         <v>46</v>
@@ -15736,8 +15715,8 @@
       <c r="A244" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B244" s="43" t="s">
-        <v>550</v>
+      <c r="B244" s="43">
+        <v>50</v>
       </c>
       <c r="C244" s="18">
         <v>43077</v>
@@ -15752,13 +15731,13 @@
         <v>53</v>
       </c>
       <c r="G244" s="42" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="H244" s="42">
         <v>76113089</v>
       </c>
       <c r="I244" s="49" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="J244" s="45" t="s">
         <v>41</v>
@@ -15770,7 +15749,7 @@
         <v>17721436606</v>
       </c>
       <c r="M244" s="42" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="N244" s="15" t="s">
         <v>46</v>
@@ -15786,8 +15765,8 @@
       <c r="A245" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B245" s="43" t="s">
-        <v>550</v>
+      <c r="B245" s="43">
+        <v>50</v>
       </c>
       <c r="C245" s="18">
         <v>43077</v>
@@ -15808,7 +15787,7 @@
         <v>76113091</v>
       </c>
       <c r="I245" s="49" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="J245" s="45" t="s">
         <v>41</v>
@@ -15820,7 +15799,7 @@
         <v>17721436606</v>
       </c>
       <c r="M245" s="42" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="N245" s="15" t="s">
         <v>46</v>
@@ -15836,8 +15815,8 @@
       <c r="A246" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B246" s="43" t="s">
-        <v>550</v>
+      <c r="B246" s="43">
+        <v>50</v>
       </c>
       <c r="C246" s="18">
         <v>43077</v>
@@ -15858,7 +15837,7 @@
         <v>76113280</v>
       </c>
       <c r="I246" s="49" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="J246" s="45" t="s">
         <v>41</v>
@@ -15870,7 +15849,7 @@
         <v>17721436606</v>
       </c>
       <c r="M246" s="42" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="N246" s="15" t="s">
         <v>46</v>
@@ -15886,8 +15865,8 @@
       <c r="A247" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B247" s="43" t="s">
-        <v>550</v>
+      <c r="B247" s="43">
+        <v>50</v>
       </c>
       <c r="C247" s="18">
         <v>43077</v>
@@ -15908,7 +15887,7 @@
         <v>76113305</v>
       </c>
       <c r="I247" s="49" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="J247" s="45" t="s">
         <v>41</v>
@@ -15920,7 +15899,7 @@
         <v>17721436606</v>
       </c>
       <c r="M247" s="56" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="N247" s="15" t="s">
         <v>46</v>
@@ -15936,8 +15915,8 @@
       <c r="A248" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B248" s="43" t="s">
-        <v>550</v>
+      <c r="B248" s="43">
+        <v>50</v>
       </c>
       <c r="C248" s="18">
         <v>43077</v>
@@ -15958,7 +15937,7 @@
         <v>76113311</v>
       </c>
       <c r="I248" s="49" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="J248" s="45" t="s">
         <v>41</v>
@@ -15970,7 +15949,7 @@
         <v>17721436606</v>
       </c>
       <c r="M248" s="42" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="N248" s="15" t="s">
         <v>46</v>
@@ -15986,8 +15965,8 @@
       <c r="A249" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B249" s="43" t="s">
-        <v>550</v>
+      <c r="B249" s="43">
+        <v>50</v>
       </c>
       <c r="C249" s="18">
         <v>43077</v>
@@ -16008,7 +15987,7 @@
         <v>76113900</v>
       </c>
       <c r="I249" s="49" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="J249" s="45" t="s">
         <v>41</v>
@@ -16020,7 +15999,7 @@
         <v>17721436606</v>
       </c>
       <c r="M249" s="42" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="N249" s="15" t="s">
         <v>46</v>
@@ -16036,8 +16015,8 @@
       <c r="A250" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B250" s="43" t="s">
-        <v>550</v>
+      <c r="B250" s="43">
+        <v>50</v>
       </c>
       <c r="C250" s="18">
         <v>43077</v>
@@ -16058,7 +16037,7 @@
         <v>76113977</v>
       </c>
       <c r="I250" s="49" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="J250" s="45" t="s">
         <v>41</v>
@@ -16070,7 +16049,7 @@
         <v>17721436606</v>
       </c>
       <c r="M250" s="42" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="N250" s="15" t="s">
         <v>46</v>
@@ -16086,8 +16065,8 @@
       <c r="A251" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B251" s="43" t="s">
-        <v>550</v>
+      <c r="B251" s="43">
+        <v>50</v>
       </c>
       <c r="C251" s="18">
         <v>43077</v>
@@ -16108,7 +16087,7 @@
         <v>76115020</v>
       </c>
       <c r="I251" s="49" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="J251" s="45" t="s">
         <v>41</v>
@@ -16120,7 +16099,7 @@
         <v>17721436606</v>
       </c>
       <c r="M251" s="42" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="N251" s="15" t="s">
         <v>46</v>
@@ -16136,8 +16115,8 @@
       <c r="A252" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B252" s="43" t="s">
-        <v>550</v>
+      <c r="B252" s="43">
+        <v>50</v>
       </c>
       <c r="C252" s="18">
         <v>43082</v>
@@ -16158,7 +16137,7 @@
         <v>76113852</v>
       </c>
       <c r="I252" s="8" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="J252" s="8" t="s">
         <v>41</v>
@@ -16204,8 +16183,8 @@
       <c r="A254" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B254" s="17" t="s">
-        <v>605</v>
+      <c r="B254" s="17">
+        <v>51</v>
       </c>
       <c r="C254" s="18">
         <v>43087</v>
@@ -16214,10 +16193,10 @@
         <v>42</v>
       </c>
       <c r="E254" s="8" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="F254" s="8" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="G254" s="8" t="s">
         <v>41</v>
@@ -16226,7 +16205,7 @@
         <v>76110599</v>
       </c>
       <c r="I254" s="8" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="J254" s="8" t="s">
         <v>41</v>
@@ -16238,7 +16217,7 @@
         <v>17721436606</v>
       </c>
       <c r="M254" s="8" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="N254" s="8" t="s">
         <v>46</v>
@@ -16254,8 +16233,8 @@
       <c r="A255" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B255" s="17" t="s">
-        <v>605</v>
+      <c r="B255" s="17">
+        <v>51</v>
       </c>
       <c r="C255" s="18">
         <v>43087</v>
@@ -16276,7 +16255,7 @@
         <v>76116391</v>
       </c>
       <c r="I255" s="8" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="J255" s="8" t="s">
         <v>41</v>
@@ -16288,7 +16267,7 @@
         <v>17721436606</v>
       </c>
       <c r="M255" s="8" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="N255" s="8" t="s">
         <v>52</v>
@@ -16304,8 +16283,8 @@
       <c r="A256" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B256" s="17" t="s">
-        <v>605</v>
+      <c r="B256" s="17">
+        <v>51</v>
       </c>
       <c r="C256" s="18">
         <v>43088</v>
@@ -16314,10 +16293,10 @@
         <v>42</v>
       </c>
       <c r="E256" s="8" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="F256" s="8" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="G256" s="8" t="s">
         <v>41</v>
@@ -16326,7 +16305,7 @@
         <v>76117306</v>
       </c>
       <c r="I256" s="8" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J256" s="8" t="s">
         <v>41</v>
@@ -16338,7 +16317,7 @@
         <v>17721436606</v>
       </c>
       <c r="M256" s="8" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="N256" s="8" t="s">
         <v>46</v>
@@ -16354,8 +16333,8 @@
       <c r="A257" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B257" s="19" t="s">
-        <v>605</v>
+      <c r="B257" s="19">
+        <v>51</v>
       </c>
       <c r="C257" s="18">
         <v>43089</v>
@@ -16376,7 +16355,7 @@
         <v>76116396</v>
       </c>
       <c r="I257" s="8" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="J257" s="8" t="s">
         <v>41</v>
@@ -16388,7 +16367,7 @@
         <v>17721436606</v>
       </c>
       <c r="M257" s="8" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="N257" s="8" t="s">
         <v>52</v>
@@ -16422,8 +16401,8 @@
       <c r="A259" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B259" s="19" t="s">
-        <v>617</v>
+      <c r="B259" s="19">
+        <v>52</v>
       </c>
       <c r="C259" s="18">
         <v>43094</v>
@@ -16444,7 +16423,7 @@
         <v>76116392</v>
       </c>
       <c r="I259" s="8" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="J259" s="8" t="s">
         <v>41</v>
@@ -16456,7 +16435,7 @@
         <v>17721436606</v>
       </c>
       <c r="M259" s="8" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="N259" s="8" t="s">
         <v>52</v>
@@ -16472,8 +16451,8 @@
       <c r="A260" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B260" s="19" t="s">
-        <v>617</v>
+      <c r="B260" s="19">
+        <v>52</v>
       </c>
       <c r="C260" s="18">
         <v>43094</v>
@@ -16482,10 +16461,10 @@
         <v>42</v>
       </c>
       <c r="E260" s="8" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="F260" s="8" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="G260" s="8" t="s">
         <v>41</v>
@@ -16494,7 +16473,7 @@
         <v>76097788</v>
       </c>
       <c r="I260" s="8" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="J260" s="8" t="s">
         <v>41</v>
@@ -16506,7 +16485,7 @@
         <v>17721436606</v>
       </c>
       <c r="M260" s="8" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="N260" s="8" t="s">
         <v>52</v>
@@ -16522,8 +16501,8 @@
       <c r="A261" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B261" s="19" t="s">
-        <v>617</v>
+      <c r="B261" s="19">
+        <v>52</v>
       </c>
       <c r="C261" s="18">
         <v>43094</v>
@@ -16535,7 +16514,7 @@
         <v>53</v>
       </c>
       <c r="F261" s="8" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="G261" s="8" t="s">
         <v>97</v>
@@ -16544,7 +16523,7 @@
         <v>76118798</v>
       </c>
       <c r="I261" s="8" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="J261" s="8" t="s">
         <v>41</v>
@@ -16572,8 +16551,8 @@
       <c r="A262" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B262" s="19" t="s">
-        <v>617</v>
+      <c r="B262" s="19">
+        <v>52</v>
       </c>
       <c r="C262" s="18">
         <v>43095</v>
@@ -16588,13 +16567,13 @@
         <v>413</v>
       </c>
       <c r="G262" s="42" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="H262" s="42">
         <v>76113672</v>
       </c>
       <c r="I262" s="42" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="J262" s="8" t="s">
         <v>41</v>
@@ -16606,7 +16585,7 @@
         <v>17721436606</v>
       </c>
       <c r="M262" s="42" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="N262" s="8" t="s">
         <v>52</v>
@@ -16622,8 +16601,8 @@
       <c r="A263" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B263" s="19" t="s">
-        <v>617</v>
+      <c r="B263" s="19">
+        <v>52</v>
       </c>
       <c r="C263" s="18">
         <v>43095</v>
@@ -16644,7 +16623,7 @@
         <v>76116101</v>
       </c>
       <c r="I263" s="49" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="J263" s="8" t="s">
         <v>41</v>
@@ -16656,7 +16635,7 @@
         <v>17721436606</v>
       </c>
       <c r="M263" s="42" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="N263" s="8" t="s">
         <v>52</v>
@@ -16672,8 +16651,8 @@
       <c r="A264" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B264" s="19" t="s">
-        <v>617</v>
+      <c r="B264" s="19">
+        <v>52</v>
       </c>
       <c r="C264" s="18">
         <v>43095</v>
@@ -16694,7 +16673,7 @@
         <v>76116102</v>
       </c>
       <c r="I264" s="49" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="J264" s="8" t="s">
         <v>41</v>
@@ -16706,7 +16685,7 @@
         <v>17721436606</v>
       </c>
       <c r="M264" s="42" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="N264" s="8" t="s">
         <v>52</v>
@@ -16728,20 +16707,20 @@
       <c r="A266" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B266" s="19" t="s">
-        <v>633</v>
+      <c r="B266" s="19">
+        <v>2</v>
       </c>
       <c r="C266" s="18">
         <v>43105</v>
       </c>
       <c r="D266" s="45" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="E266" s="8" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="F266" s="8" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="G266" s="8" t="s">
         <v>292</v>
@@ -16750,7 +16729,7 @@
         <v>76057106</v>
       </c>
       <c r="I266" s="8" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="J266" s="8" t="s">
         <v>41</v>
@@ -16762,10 +16741,10 @@
         <v>17721436606</v>
       </c>
       <c r="M266" s="8" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="N266" s="8" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="O266" s="12">
         <v>15900941705</v>
@@ -16778,20 +16757,20 @@
       <c r="A267" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B267" s="19" t="s">
-        <v>633</v>
+      <c r="B267" s="19">
+        <v>2</v>
       </c>
       <c r="C267" s="18">
         <v>43105</v>
       </c>
       <c r="D267" s="45" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="E267" s="8" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="F267" s="8" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="G267" s="8" t="s">
         <v>41</v>
@@ -16800,7 +16779,7 @@
         <v>76092869</v>
       </c>
       <c r="I267" s="8" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="J267" s="8" t="s">
         <v>41</v>
@@ -16812,10 +16791,10 @@
         <v>17721436606</v>
       </c>
       <c r="M267" s="8" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="N267" s="8" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="O267" s="12">
         <v>15900941705</v>
@@ -16828,8 +16807,8 @@
       <c r="A268" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B268" s="19" t="s">
-        <v>633</v>
+      <c r="B268" s="19">
+        <v>2</v>
       </c>
       <c r="C268" s="18">
         <v>43105</v>
@@ -16838,10 +16817,10 @@
         <v>42</v>
       </c>
       <c r="E268" s="8" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="F268" s="8" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="G268" s="8" t="s">
         <v>292</v>
@@ -16850,7 +16829,7 @@
         <v>76119812</v>
       </c>
       <c r="I268" s="8" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="J268" s="8" t="s">
         <v>41</v>
@@ -16862,10 +16841,10 @@
         <v>17721436606</v>
       </c>
       <c r="M268" s="8" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="N268" s="8" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="O268" s="12"/>
       <c r="P268" s="8" t="s">
@@ -16876,8 +16855,8 @@
       <c r="A269" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B269" s="19" t="s">
-        <v>633</v>
+      <c r="B269" s="19">
+        <v>2</v>
       </c>
       <c r="C269" s="18">
         <v>43105</v>
@@ -16898,7 +16877,7 @@
         <v>76115725</v>
       </c>
       <c r="I269" s="42" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="J269" s="15" t="s">
         <v>41</v>
@@ -16910,7 +16889,7 @@
         <v>17721436606</v>
       </c>
       <c r="M269" s="42" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="N269" s="15" t="s">
         <v>52</v>
@@ -16926,8 +16905,8 @@
       <c r="A270" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B270" s="19" t="s">
-        <v>633</v>
+      <c r="B270" s="19">
+        <v>2</v>
       </c>
       <c r="C270" s="18">
         <v>43105</v>
@@ -16948,7 +16927,7 @@
         <v>76115906</v>
       </c>
       <c r="I270" s="42" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="J270" s="15" t="s">
         <v>41</v>
@@ -16960,7 +16939,7 @@
         <v>17721436606</v>
       </c>
       <c r="M270" s="42" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="N270" s="15" t="s">
         <v>52</v>
@@ -16976,8 +16955,8 @@
       <c r="A271" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B271" s="19" t="s">
-        <v>633</v>
+      <c r="B271" s="19">
+        <v>2</v>
       </c>
       <c r="C271" s="18">
         <v>43105</v>
@@ -16998,7 +16977,7 @@
         <v>76116165</v>
       </c>
       <c r="I271" s="42" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="J271" s="15" t="s">
         <v>41</v>
@@ -17010,7 +16989,7 @@
         <v>17721436606</v>
       </c>
       <c r="M271" s="42" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="N271" s="15" t="s">
         <v>52</v>
@@ -17026,8 +17005,8 @@
       <c r="A272" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B272" s="19" t="s">
-        <v>633</v>
+      <c r="B272" s="19">
+        <v>2</v>
       </c>
       <c r="C272" s="18">
         <v>43105</v>
@@ -17042,13 +17021,13 @@
         <v>53</v>
       </c>
       <c r="G272" s="42" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="H272" s="16">
         <v>76116352</v>
       </c>
       <c r="I272" s="42" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="J272" s="15" t="s">
         <v>41</v>
@@ -17076,8 +17055,8 @@
       <c r="A273" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B273" s="19" t="s">
-        <v>633</v>
+      <c r="B273" s="19">
+        <v>2</v>
       </c>
       <c r="C273" s="18">
         <v>43105</v>
@@ -17098,7 +17077,7 @@
         <v>76116670</v>
       </c>
       <c r="I273" s="42" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="J273" s="15" t="s">
         <v>41</v>
@@ -17110,7 +17089,7 @@
         <v>17721436606</v>
       </c>
       <c r="M273" s="42" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="N273" s="15" t="s">
         <v>52</v>
@@ -17126,8 +17105,8 @@
       <c r="A274" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B274" s="19" t="s">
-        <v>633</v>
+      <c r="B274" s="19">
+        <v>2</v>
       </c>
       <c r="C274" s="18">
         <v>43105</v>
@@ -17148,7 +17127,7 @@
         <v>76116691</v>
       </c>
       <c r="I274" s="42" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="J274" s="15" t="s">
         <v>41</v>
@@ -17160,7 +17139,7 @@
         <v>17721436606</v>
       </c>
       <c r="M274" s="42" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="N274" s="15" t="s">
         <v>52</v>
@@ -17176,8 +17155,8 @@
       <c r="A275" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B275" s="19" t="s">
-        <v>633</v>
+      <c r="B275" s="19">
+        <v>2</v>
       </c>
       <c r="C275" s="18">
         <v>43105</v>
@@ -17198,7 +17177,7 @@
         <v>76117525</v>
       </c>
       <c r="I275" s="42" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="J275" s="15" t="s">
         <v>41</v>
@@ -17210,7 +17189,7 @@
         <v>17721436606</v>
       </c>
       <c r="M275" s="42" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="N275" s="15" t="s">
         <v>52</v>
@@ -17226,8 +17205,8 @@
       <c r="A276" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B276" s="19" t="s">
-        <v>633</v>
+      <c r="B276" s="19">
+        <v>2</v>
       </c>
       <c r="C276" s="18">
         <v>43105</v>
@@ -17248,7 +17227,7 @@
         <v>76117532</v>
       </c>
       <c r="I276" s="42" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="J276" s="15" t="s">
         <v>41</v>
@@ -17260,7 +17239,7 @@
         <v>17721436606</v>
       </c>
       <c r="M276" s="42" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="N276" s="15" t="s">
         <v>52</v>
@@ -17276,8 +17255,8 @@
       <c r="A277" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B277" s="19" t="s">
-        <v>633</v>
+      <c r="B277" s="19">
+        <v>2</v>
       </c>
       <c r="C277" s="18">
         <v>43105</v>
@@ -17298,7 +17277,7 @@
         <v>76118028</v>
       </c>
       <c r="I277" s="42" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="J277" s="15" t="s">
         <v>41</v>
@@ -17310,7 +17289,7 @@
         <v>17721436606</v>
       </c>
       <c r="M277" s="42" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="N277" s="15" t="s">
         <v>52</v>
@@ -17326,8 +17305,8 @@
       <c r="A278" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B278" s="19" t="s">
-        <v>633</v>
+      <c r="B278" s="19">
+        <v>2</v>
       </c>
       <c r="C278" s="18">
         <v>43105</v>
@@ -17348,7 +17327,7 @@
         <v>76118291</v>
       </c>
       <c r="I278" s="42" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="J278" s="15" t="s">
         <v>41</v>
@@ -17360,7 +17339,7 @@
         <v>17721436606</v>
       </c>
       <c r="M278" s="42" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="N278" s="15" t="s">
         <v>52</v>
@@ -17376,8 +17355,8 @@
       <c r="A279" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B279" s="19" t="s">
-        <v>633</v>
+      <c r="B279" s="19">
+        <v>2</v>
       </c>
       <c r="C279" s="18">
         <v>43105</v>
@@ -17398,7 +17377,7 @@
         <v>76118925</v>
       </c>
       <c r="I279" s="42" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="J279" s="15" t="s">
         <v>41</v>
@@ -17410,7 +17389,7 @@
         <v>17721436606</v>
       </c>
       <c r="M279" s="42" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="N279" s="15" t="s">
         <v>52</v>
@@ -17426,8 +17405,8 @@
       <c r="A280" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B280" s="19" t="s">
-        <v>633</v>
+      <c r="B280" s="19">
+        <v>2</v>
       </c>
       <c r="C280" s="18">
         <v>43105</v>
@@ -17442,13 +17421,13 @@
         <v>53</v>
       </c>
       <c r="G280" s="42" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="H280" s="16">
         <v>76119039</v>
       </c>
       <c r="I280" s="42" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="J280" s="15" t="s">
         <v>41</v>
@@ -17460,7 +17439,7 @@
         <v>17721436606</v>
       </c>
       <c r="M280" s="42" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="N280" s="15" t="s">
         <v>52</v>
@@ -17476,8 +17455,8 @@
       <c r="A281" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B281" s="19" t="s">
-        <v>633</v>
+      <c r="B281" s="19">
+        <v>2</v>
       </c>
       <c r="C281" s="18">
         <v>43105</v>
@@ -17498,7 +17477,7 @@
         <v>76119301</v>
       </c>
       <c r="I281" s="42" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="J281" s="15" t="s">
         <v>41</v>
@@ -17510,7 +17489,7 @@
         <v>17721436606</v>
       </c>
       <c r="M281" s="42" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="N281" s="15" t="s">
         <v>52</v>
@@ -17526,8 +17505,8 @@
       <c r="A282" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B282" s="19" t="s">
-        <v>633</v>
+      <c r="B282" s="19">
+        <v>2</v>
       </c>
       <c r="C282" s="18">
         <v>43105</v>
@@ -17548,7 +17527,7 @@
         <v>76119326</v>
       </c>
       <c r="I282" s="42" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="J282" s="15" t="s">
         <v>41</v>
@@ -17560,7 +17539,7 @@
         <v>17721436606</v>
       </c>
       <c r="M282" s="42" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="N282" s="15" t="s">
         <v>52</v>
@@ -17576,8 +17555,8 @@
       <c r="A283" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B283" s="19" t="s">
-        <v>633</v>
+      <c r="B283" s="19">
+        <v>2</v>
       </c>
       <c r="C283" s="18">
         <v>43105</v>
@@ -17598,7 +17577,7 @@
         <v>76119369</v>
       </c>
       <c r="I283" s="42" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="J283" s="15" t="s">
         <v>41</v>
@@ -17610,7 +17589,7 @@
         <v>17721436606</v>
       </c>
       <c r="M283" s="42" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="N283" s="15" t="s">
         <v>52</v>
@@ -17626,8 +17605,8 @@
       <c r="A284" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B284" s="19" t="s">
-        <v>633</v>
+      <c r="B284" s="19">
+        <v>2</v>
       </c>
       <c r="C284" s="18">
         <v>43105</v>
@@ -17642,13 +17621,13 @@
         <v>53</v>
       </c>
       <c r="G284" s="42" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="H284" s="16">
         <v>76119620</v>
       </c>
       <c r="I284" s="42" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="J284" s="15" t="s">
         <v>41</v>
@@ -17660,7 +17639,7 @@
         <v>17721436606</v>
       </c>
       <c r="M284" s="42" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="N284" s="15" t="s">
         <v>52</v>
@@ -17676,8 +17655,8 @@
       <c r="A285" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B285" s="19" t="s">
-        <v>633</v>
+      <c r="B285" s="19">
+        <v>2</v>
       </c>
       <c r="C285" s="18">
         <v>43105</v>
@@ -17692,13 +17671,13 @@
         <v>53</v>
       </c>
       <c r="G285" s="42" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="H285" s="16">
         <v>76119721</v>
       </c>
       <c r="I285" s="42" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="J285" s="15" t="s">
         <v>41</v>
@@ -17710,7 +17689,7 @@
         <v>17721436606</v>
       </c>
       <c r="M285" s="42" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="N285" s="15" t="s">
         <v>52</v>
@@ -17726,8 +17705,8 @@
       <c r="A286" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B286" s="19" t="s">
-        <v>633</v>
+      <c r="B286" s="19">
+        <v>2</v>
       </c>
       <c r="C286" s="18">
         <v>43105</v>
@@ -17748,7 +17727,7 @@
         <v>76120023</v>
       </c>
       <c r="I286" s="42" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="J286" s="15" t="s">
         <v>41</v>
@@ -17760,7 +17739,7 @@
         <v>17721436606</v>
       </c>
       <c r="M286" s="42" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="N286" s="15" t="s">
         <v>52</v>
@@ -17776,8 +17755,8 @@
       <c r="A287" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B287" s="19" t="s">
-        <v>633</v>
+      <c r="B287" s="19">
+        <v>2</v>
       </c>
       <c r="C287" s="18">
         <v>43105</v>
@@ -17798,7 +17777,7 @@
         <v>76120101</v>
       </c>
       <c r="I287" s="42" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="J287" s="15" t="s">
         <v>41</v>
@@ -17810,7 +17789,7 @@
         <v>17721436606</v>
       </c>
       <c r="M287" s="42" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="N287" s="15" t="s">
         <v>52</v>
@@ -17826,8 +17805,8 @@
       <c r="A288" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B288" s="19" t="s">
-        <v>633</v>
+      <c r="B288" s="19">
+        <v>2</v>
       </c>
       <c r="C288" s="18">
         <v>43105</v>
@@ -17848,7 +17827,7 @@
         <v>76122022</v>
       </c>
       <c r="I288" s="42" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="J288" s="15" t="s">
         <v>41</v>
@@ -17860,7 +17839,7 @@
         <v>17721436606</v>
       </c>
       <c r="M288" s="42" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="N288" s="15" t="s">
         <v>52</v>
@@ -17876,8 +17855,8 @@
       <c r="A289" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B289" s="19" t="s">
-        <v>633</v>
+      <c r="B289" s="19">
+        <v>2</v>
       </c>
       <c r="C289" s="18">
         <v>43105</v>
@@ -17892,13 +17871,13 @@
         <v>413</v>
       </c>
       <c r="G289" s="42" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="H289" s="42">
         <v>76113672</v>
       </c>
       <c r="I289" s="42" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="J289" s="15" t="s">
         <v>41</v>
@@ -17910,7 +17889,7 @@
         <v>17721436606</v>
       </c>
       <c r="M289" s="42" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="N289" s="15" t="s">
         <v>52</v>
@@ -17926,8 +17905,8 @@
       <c r="A290" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B290" s="19" t="s">
-        <v>633</v>
+      <c r="B290" s="19">
+        <v>2</v>
       </c>
       <c r="C290" s="18">
         <v>43105</v>
@@ -17948,7 +17927,7 @@
         <v>76116101</v>
       </c>
       <c r="I290" s="49" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="J290" s="15" t="s">
         <v>41</v>
@@ -17960,7 +17939,7 @@
         <v>17721436606</v>
       </c>
       <c r="M290" s="42" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="N290" s="15" t="s">
         <v>52</v>
@@ -17976,8 +17955,8 @@
       <c r="A291" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B291" s="19" t="s">
-        <v>633</v>
+      <c r="B291" s="19">
+        <v>2</v>
       </c>
       <c r="C291" s="18">
         <v>43105</v>
@@ -17998,7 +17977,7 @@
         <v>76116102</v>
       </c>
       <c r="I291" s="49" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="J291" s="15" t="s">
         <v>41</v>
@@ -18010,7 +17989,7 @@
         <v>17721436606</v>
       </c>
       <c r="M291" s="42" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="N291" s="15" t="s">
         <v>52</v>
@@ -18026,8 +18005,8 @@
       <c r="A292" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B292" s="19" t="s">
-        <v>633</v>
+      <c r="B292" s="19">
+        <v>2</v>
       </c>
       <c r="C292" s="18">
         <v>43105</v>
@@ -18048,7 +18027,7 @@
         <v>76116103</v>
       </c>
       <c r="I292" s="49" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="J292" s="15" t="s">
         <v>41</v>
@@ -18060,7 +18039,7 @@
         <v>17721436606</v>
       </c>
       <c r="M292" s="42" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="N292" s="15" t="s">
         <v>52</v>
@@ -18076,8 +18055,8 @@
       <c r="A293" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B293" s="19" t="s">
-        <v>633</v>
+      <c r="B293" s="19">
+        <v>2</v>
       </c>
       <c r="C293" s="18">
         <v>43105</v>
@@ -18092,13 +18071,13 @@
         <v>413</v>
       </c>
       <c r="G293" s="42" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="H293" s="42">
         <v>76116720</v>
       </c>
       <c r="I293" s="49" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="J293" s="15" t="s">
         <v>41</v>
@@ -18110,7 +18089,7 @@
         <v>17721436606</v>
       </c>
       <c r="M293" s="42" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="N293" s="15" t="s">
         <v>52</v>
@@ -18126,8 +18105,8 @@
       <c r="A294" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B294" s="19" t="s">
-        <v>633</v>
+      <c r="B294" s="19">
+        <v>2</v>
       </c>
       <c r="C294" s="18">
         <v>43105</v>
@@ -18142,13 +18121,13 @@
         <v>413</v>
       </c>
       <c r="G294" s="42" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="H294" s="42">
         <v>76118932</v>
       </c>
       <c r="I294" s="49" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="J294" s="15" t="s">
         <v>41</v>
@@ -18160,7 +18139,7 @@
         <v>17721436606</v>
       </c>
       <c r="M294" s="42" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="N294" s="15" t="s">
         <v>52</v>
@@ -18176,8 +18155,8 @@
       <c r="A295" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B295" s="19" t="s">
-        <v>633</v>
+      <c r="B295" s="19">
+        <v>2</v>
       </c>
       <c r="C295" s="18">
         <v>43105</v>
@@ -18198,7 +18177,7 @@
         <v>76118953</v>
       </c>
       <c r="I295" s="49" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="J295" s="15" t="s">
         <v>41</v>
@@ -18210,7 +18189,7 @@
         <v>17721436606</v>
       </c>
       <c r="M295" s="42" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="N295" s="15" t="s">
         <v>52</v>
@@ -18226,8 +18205,8 @@
       <c r="A296" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B296" s="19" t="s">
-        <v>633</v>
+      <c r="B296" s="19">
+        <v>2</v>
       </c>
       <c r="C296" s="18">
         <v>43105</v>
@@ -18242,13 +18221,13 @@
         <v>413</v>
       </c>
       <c r="G296" s="16" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="H296" s="60">
         <v>76119726</v>
       </c>
       <c r="I296" s="61" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="J296" s="15" t="s">
         <v>41</v>
@@ -18260,7 +18239,7 @@
         <v>17721436606</v>
       </c>
       <c r="M296" s="16" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="N296" s="15" t="s">
         <v>52</v>
@@ -18276,8 +18255,8 @@
       <c r="A297" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B297" s="19" t="s">
-        <v>633</v>
+      <c r="B297" s="19">
+        <v>2</v>
       </c>
       <c r="C297" s="18">
         <v>43105</v>
@@ -18292,13 +18271,13 @@
         <v>413</v>
       </c>
       <c r="G297" s="16" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="H297" s="60">
         <v>76119718</v>
       </c>
       <c r="I297" s="16" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="J297" s="15" t="s">
         <v>41</v>
@@ -18310,7 +18289,7 @@
         <v>17721436606</v>
       </c>
       <c r="M297" s="16" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="N297" s="15" t="s">
         <v>52</v>
@@ -18326,8 +18305,8 @@
       <c r="A298" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B298" s="19" t="s">
-        <v>633</v>
+      <c r="B298" s="19">
+        <v>2</v>
       </c>
       <c r="C298" s="18">
         <v>43110</v>
@@ -18336,10 +18315,10 @@
         <v>42</v>
       </c>
       <c r="E298" s="15" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="F298" s="15" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="G298" s="16" t="s">
         <v>86</v>
@@ -18348,7 +18327,7 @@
         <v>76121738</v>
       </c>
       <c r="I298" s="61" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="J298" s="15" t="s">
         <v>41</v>
@@ -18360,7 +18339,7 @@
         <v>17721436606</v>
       </c>
       <c r="M298" s="16" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="N298" s="15" t="s">
         <v>52</v>
@@ -18376,8 +18355,8 @@
       <c r="A299" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B299" s="19" t="s">
-        <v>633</v>
+      <c r="B299" s="19">
+        <v>2</v>
       </c>
       <c r="C299" s="18">
         <v>43110</v>
@@ -18386,10 +18365,10 @@
         <v>42</v>
       </c>
       <c r="E299" s="15" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="F299" s="15" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="G299" s="16" t="s">
         <v>41</v>
@@ -18398,7 +18377,7 @@
         <v>76022625</v>
       </c>
       <c r="I299" s="16" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="J299" s="15" t="s">
         <v>41</v>
@@ -18416,7 +18395,7 @@
         <v>52</v>
       </c>
       <c r="O299" s="16" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="P299" s="15" t="s">
         <v>174</v>
@@ -20256,13 +20235,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -20273,7 +20252,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -20284,7 +20263,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -20295,7 +20274,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -20311,7 +20290,7 @@
         <v>43050</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -20322,7 +20301,7 @@
         <v>43064</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -20338,7 +20317,7 @@
         <v>43079</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -20349,7 +20328,7 @@
         <v>43085</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -20360,7 +20339,7 @@
         <v>43092</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -20371,7 +20350,7 @@
         <v>43099</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -20382,7 +20361,7 @@
         <v>43100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -20398,7 +20377,7 @@
         <v>43107</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="16" spans="1:3">

--- a/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
@@ -2206,11 +2206,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2296,13 +2296,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -2357,13 +2350,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -2405,13 +2391,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2419,14 +2398,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2441,6 +2427,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2515,25 +2515,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2551,7 +2557,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2581,73 +2629,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2677,7 +2659,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3151,10 +3151,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3163,138 +3163,138 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
@@ -4444,10 +4444,10 @@
   <sheetPr/>
   <dimension ref="A1:P757"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D300" sqref="D300"/>
+      <selection pane="bottomLeft" activeCell="Q268" sqref="Q268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -16846,7 +16846,9 @@
       <c r="N268" s="8" t="s">
         <v>636</v>
       </c>
-      <c r="O268" s="12"/>
+      <c r="O268" s="12">
+        <v>13962566661</v>
+      </c>
       <c r="P268" s="8" t="s">
         <v>171</v>
       </c>

--- a/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -2165,6 +2165,9 @@
     <t>021-53550177</t>
   </si>
   <si>
+    <t>查厘士(大宁店12)</t>
+  </si>
+  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -2199,6 +2202,9 @@
   </si>
   <si>
     <t>香天下火锅石路店开业驻店</t>
+  </si>
+  <si>
+    <t>查厘士(大宁店12)开业驻店</t>
   </si>
 </sst>
 </file>
@@ -2206,11 +2212,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2296,6 +2302,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -2350,6 +2368,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -2364,6 +2389,12 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2391,6 +2422,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2398,35 +2436,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2439,16 +2449,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2515,13 +2521,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2539,31 +2599,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2593,6 +2629,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2600,36 +2660,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2654,30 +2684,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3151,10 +3157,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3163,141 +3169,141 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
@@ -4444,10 +4450,10 @@
   <sheetPr/>
   <dimension ref="A1:P757"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q268" sqref="Q268"/>
+      <selection pane="bottomLeft" activeCell="B301" sqref="B301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18414,14 +18420,54 @@
       <c r="P300" s="15"/>
     </row>
     <row r="301" spans="1:16">
-      <c r="A301" s="8"/>
-      <c r="B301" s="21"/>
-      <c r="C301" s="18"/>
-      <c r="D301" s="45"/>
-      <c r="K301" s="16"/>
-      <c r="L301" s="15"/>
-      <c r="O301" s="12"/>
-      <c r="P301" s="15"/>
+      <c r="A301" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B301" s="19">
+        <v>3</v>
+      </c>
+      <c r="C301" s="18">
+        <v>43115</v>
+      </c>
+      <c r="D301" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E301" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F301" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G301" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H301" s="8">
+        <v>76123180</v>
+      </c>
+      <c r="I301" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="J301" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K301" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L301" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M301" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="N301" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="O301" s="12">
+        <v>18016233560</v>
+      </c>
+      <c r="P301" s="15" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="302" spans="1:16">
       <c r="A302" s="8"/>
@@ -20225,7 +20271,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -20237,13 +20283,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -20254,7 +20300,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -20265,7 +20311,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -20276,7 +20322,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -20292,7 +20338,7 @@
         <v>43050</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -20303,7 +20349,7 @@
         <v>43064</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -20319,7 +20365,7 @@
         <v>43079</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -20330,7 +20376,7 @@
         <v>43085</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -20341,7 +20387,7 @@
         <v>43092</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -20352,7 +20398,7 @@
         <v>43099</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -20363,7 +20409,7 @@
         <v>43100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -20379,13 +20425,19 @@
         <v>43107</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3">
+        <v>43113</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>713</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2"/>

--- a/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
@@ -587,7 +587,7 @@
     <t>悸动(嘉定花园浜路店)</t>
   </si>
   <si>
-    <t>旧品牌</t>
+    <t>老品牌</t>
   </si>
   <si>
     <t>悸动(松江嘉禾广场店)</t>
@@ -2212,11 +2212,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2302,21 +2302,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2337,25 +2324,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2369,15 +2339,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2391,17 +2353,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2422,7 +2386,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2435,13 +2399,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2450,6 +2443,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2521,13 +2521,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2539,7 +2533,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2551,91 +2587,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2653,6 +2617,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2665,25 +2635,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3054,41 +3054,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3108,13 +3078,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3143,6 +3117,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3157,10 +3157,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3169,141 +3169,141 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
@@ -4450,7 +4450,7 @@
   <sheetPr/>
   <dimension ref="A1:P757"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="B301" sqref="B301"/>

--- a/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -2166,6 +2166,111 @@
   </si>
   <si>
     <t>查厘士(大宁店12)</t>
+  </si>
+  <si>
+    <t>悸动(常州郑陆镇店)</t>
+  </si>
+  <si>
+    <t>范蒙霞</t>
+  </si>
+  <si>
+    <t>悸动(浦东齐河沃尔玛店)</t>
+  </si>
+  <si>
+    <t>张高丽</t>
+  </si>
+  <si>
+    <t>悸动(湖州兴康北路店)</t>
+  </si>
+  <si>
+    <t>蒋小琪</t>
+  </si>
+  <si>
+    <t>悸动(南京清凉门苏果店)</t>
+  </si>
+  <si>
+    <t>刘洋</t>
+  </si>
+  <si>
+    <t>悸动(海盐嘉凯城店)</t>
+  </si>
+  <si>
+    <t>王慧萍</t>
+  </si>
+  <si>
+    <t>悸动(南京永嘉大润发店)</t>
+  </si>
+  <si>
+    <t>余雷</t>
+  </si>
+  <si>
+    <t>悸动(南京美利广场店)</t>
+  </si>
+  <si>
+    <t>蔡超</t>
+  </si>
+  <si>
+    <t>悸动(南京马群新街店)</t>
+  </si>
+  <si>
+    <t>陈海宁</t>
+  </si>
+  <si>
+    <t>西藏</t>
+  </si>
+  <si>
+    <t>悸动(维多利广场店)</t>
+  </si>
+  <si>
+    <t>张富余</t>
+  </si>
+  <si>
+    <t>悸动(嘉兴广穹路店)</t>
+  </si>
+  <si>
+    <t>俞爱萍</t>
+  </si>
+  <si>
+    <t>悸动(常德长源路店)</t>
+  </si>
+  <si>
+    <t>彭洪英</t>
+  </si>
+  <si>
+    <t>一芳(上海大学城店)</t>
+  </si>
+  <si>
+    <t>黄挺</t>
+  </si>
+  <si>
+    <t>一芳(上海四川北路店)</t>
+  </si>
+  <si>
+    <t>陈远</t>
+  </si>
+  <si>
+    <t>一芳(上海金高路店)</t>
+  </si>
+  <si>
+    <t>金雳钦</t>
+  </si>
+  <si>
+    <t>一芳(上海成山路店)</t>
+  </si>
+  <si>
+    <t>沈菁菁</t>
+  </si>
+  <si>
+    <t>一芳(泉州百源店)</t>
+  </si>
+  <si>
+    <t>谢凯</t>
+  </si>
+  <si>
+    <t>一芳(上海临沂路店)</t>
+  </si>
+  <si>
+    <t>范志伟</t>
   </si>
   <si>
     <t>姓名</t>
@@ -2212,11 +2317,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2303,7 +2408,125 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2325,117 +2548,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2443,13 +2555,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2521,13 +2626,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2539,13 +2644,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2557,19 +2680,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2581,25 +2716,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2617,7 +2734,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2635,55 +2770,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3054,6 +3159,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3078,17 +3198,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3134,17 +3250,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -3157,10 +3262,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3169,7 +3274,7 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3178,132 +3283,132 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
@@ -3311,7 +3416,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3489,7 +3594,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3999,440 +4125,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="72" t="s">
+      <c r="H2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="96" t="s">
+      <c r="I2" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="97" t="s">
+      <c r="J2" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="98" t="s">
+      <c r="K2" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="99" t="s">
+      <c r="L2" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="100" t="s">
+      <c r="M2" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="101" t="s">
+      <c r="N2" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="66"/>
-      <c r="B3" s="73" t="s">
+      <c r="A3" s="73"/>
+      <c r="B3" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76">
+      <c r="D3" s="82"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77">
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="103"/>
-      <c r="K3" s="104" t="e">
+      <c r="J3" s="110"/>
+      <c r="K3" s="111" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="105">
+      <c r="L3" s="112">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="106">
+      <c r="M3" s="113">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="107" t="e">
+      <c r="N3" s="114" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="80" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82">
+      <c r="D4" s="88"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="83"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="83">
+      <c r="G4" s="90"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="90">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="108"/>
-      <c r="K4" s="104" t="e">
+      <c r="J4" s="115"/>
+      <c r="K4" s="111" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="105">
+      <c r="L4" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="106">
+      <c r="M4" s="113">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="107" t="e">
+      <c r="N4" s="114" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="102"/>
-      <c r="P4" s="102"/>
-      <c r="Q4" s="102"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="80" t="s">
+      <c r="A5" s="85"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82">
+      <c r="D5" s="88"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="83"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="83">
+      <c r="G5" s="90"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="90">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="108"/>
-      <c r="K5" s="104" t="e">
+      <c r="J5" s="115"/>
+      <c r="K5" s="111" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="105">
+      <c r="L5" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="106">
+      <c r="M5" s="113">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="107" t="e">
+      <c r="N5" s="114" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="102"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="102"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="78"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="80" t="s">
+      <c r="A6" s="85"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="81"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82">
+      <c r="D6" s="88"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="83"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="83">
+      <c r="G6" s="90"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="90">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="108"/>
-      <c r="K6" s="104" t="e">
+      <c r="J6" s="115"/>
+      <c r="K6" s="111" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="105">
+      <c r="L6" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="106">
+      <c r="M6" s="113">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="107" t="e">
+      <c r="N6" s="114" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="102"/>
-      <c r="P6" s="102"/>
-      <c r="Q6" s="102"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="109"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="78"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="81"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82">
+      <c r="A7" s="85"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="88"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="83">
+      <c r="G7" s="90"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="90">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="108"/>
-      <c r="K7" s="104" t="e">
+      <c r="J7" s="115"/>
+      <c r="K7" s="111" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="105">
+      <c r="L7" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="106">
+      <c r="M7" s="113">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="107" t="e">
+      <c r="N7" s="114" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="109"/>
+      <c r="Q7" s="109"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="78"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="80" t="s">
+      <c r="A8" s="85"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82">
+      <c r="D8" s="88"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="83"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="83">
+      <c r="G8" s="90"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="90">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="108"/>
-      <c r="K8" s="104" t="e">
+      <c r="J8" s="115"/>
+      <c r="K8" s="111" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="105">
+      <c r="L8" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="106">
+      <c r="M8" s="113">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="107" t="e">
+      <c r="N8" s="114" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="102"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="102"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="109"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="78"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="80" t="s">
+      <c r="A9" s="85"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="81"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82">
+      <c r="D9" s="88"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="83">
+      <c r="G9" s="90"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="90">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="108"/>
-      <c r="K9" s="104" t="e">
+      <c r="J9" s="115"/>
+      <c r="K9" s="111" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="105">
+      <c r="L9" s="112">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="106">
+      <c r="M9" s="113">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="107" t="e">
+      <c r="N9" s="114" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="102"/>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="102"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="78"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="84" t="s">
+      <c r="A10" s="85"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="85"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87">
+      <c r="D10" s="92"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="88"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="88">
+      <c r="G10" s="95"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="95">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="109"/>
-      <c r="K10" s="110" t="e">
+      <c r="J10" s="116"/>
+      <c r="K10" s="117" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="111">
+      <c r="L10" s="118">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="112">
+      <c r="M10" s="119">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="113" t="e">
+      <c r="N10" s="120" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="102"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="90"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="92" t="s">
+      <c r="A11" s="97"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="93">
+      <c r="D11" s="100">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="93">
+      <c r="E11" s="100">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="94">
+      <c r="F11" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="93">
+      <c r="G11" s="100">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="93">
+      <c r="H11" s="100">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="94">
+      <c r="I11" s="101">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="93">
+      <c r="J11" s="100">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="114" t="e">
+      <c r="K11" s="121" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="94">
+      <c r="L11" s="101">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="94">
+      <c r="M11" s="101">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="115" t="e">
+      <c r="N11" s="122" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="102"/>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="102"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4450,10 +4576,10 @@
   <sheetPr/>
   <dimension ref="A1:P757"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B301" sqref="B301"/>
+      <selection pane="bottomLeft" activeCell="D307" sqref="D307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8727,7 +8853,7 @@
       <c r="N95" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O95" s="116" t="s">
+      <c r="O95" s="123" t="s">
         <v>270</v>
       </c>
       <c r="P95" s="15" t="s">
@@ -18234,7 +18360,7 @@
       <c r="H296" s="60">
         <v>76119726</v>
       </c>
-      <c r="I296" s="61" t="s">
+      <c r="I296" s="65" t="s">
         <v>689</v>
       </c>
       <c r="J296" s="15" t="s">
@@ -18334,7 +18460,7 @@
       <c r="H298" s="60">
         <v>76121738</v>
       </c>
-      <c r="I298" s="61" t="s">
+      <c r="I298" s="65" t="s">
         <v>694</v>
       </c>
       <c r="J298" s="15" t="s">
@@ -18480,797 +18606,1647 @@
       <c r="P302" s="15"/>
     </row>
     <row r="303" spans="1:16">
-      <c r="A303" s="8"/>
-      <c r="B303" s="21"/>
-      <c r="C303" s="18"/>
-      <c r="D303" s="45"/>
-      <c r="K303" s="16"/>
-      <c r="L303" s="15"/>
-      <c r="O303" s="12"/>
-      <c r="P303" s="15"/>
+      <c r="A303" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B303" s="19">
+        <v>4</v>
+      </c>
+      <c r="C303" s="18">
+        <v>43124</v>
+      </c>
+      <c r="D303" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E303" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F303" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G303" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="H303" s="62">
+        <v>76123691</v>
+      </c>
+      <c r="I303" s="61" t="s">
+        <v>701</v>
+      </c>
+      <c r="J303" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="K303" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="L303" s="66">
+        <v>17721436606</v>
+      </c>
+      <c r="M303" s="61" t="s">
+        <v>702</v>
+      </c>
+      <c r="N303" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="O303" s="61">
+        <v>15961222912</v>
+      </c>
+      <c r="P303" s="66" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="304" spans="1:16">
-      <c r="A304" s="8"/>
-      <c r="B304" s="21"/>
-      <c r="C304" s="18"/>
-      <c r="D304" s="45"/>
-      <c r="K304" s="16"/>
-      <c r="L304" s="15"/>
-      <c r="O304" s="12"/>
-      <c r="P304" s="15"/>
+      <c r="A304" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B304" s="19">
+        <v>4</v>
+      </c>
+      <c r="C304" s="18">
+        <v>43124</v>
+      </c>
+      <c r="D304" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E304" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F304" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G304" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="H304" s="62">
+        <v>76123736</v>
+      </c>
+      <c r="I304" s="61" t="s">
+        <v>703</v>
+      </c>
+      <c r="J304" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="K304" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="L304" s="66">
+        <v>17721436606</v>
+      </c>
+      <c r="M304" s="61" t="s">
+        <v>704</v>
+      </c>
+      <c r="N304" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="O304" s="61">
+        <v>17621574512</v>
+      </c>
+      <c r="P304" s="66" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="305" spans="1:16">
-      <c r="A305" s="8"/>
-      <c r="B305" s="21"/>
-      <c r="C305" s="18"/>
-      <c r="D305" s="45"/>
-      <c r="K305" s="16"/>
-      <c r="L305" s="15"/>
-      <c r="O305" s="12"/>
-      <c r="P305" s="15"/>
+      <c r="A305" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B305" s="19">
+        <v>4</v>
+      </c>
+      <c r="C305" s="18">
+        <v>43124</v>
+      </c>
+      <c r="D305" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E305" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F305" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G305" s="61" t="s">
+        <v>310</v>
+      </c>
+      <c r="H305" s="62">
+        <v>76125207</v>
+      </c>
+      <c r="I305" s="61" t="s">
+        <v>705</v>
+      </c>
+      <c r="J305" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="K305" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="L305" s="66">
+        <v>17721436606</v>
+      </c>
+      <c r="M305" s="61" t="s">
+        <v>706</v>
+      </c>
+      <c r="N305" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="O305" s="61">
+        <v>15988312558</v>
+      </c>
+      <c r="P305" s="66" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="306" spans="1:16">
-      <c r="A306" s="8"/>
-      <c r="B306" s="21"/>
-      <c r="C306" s="18"/>
-      <c r="D306" s="45"/>
-      <c r="K306" s="16"/>
-      <c r="L306" s="15"/>
-      <c r="O306" s="12"/>
-      <c r="P306" s="15"/>
+      <c r="A306" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B306" s="19">
+        <v>4</v>
+      </c>
+      <c r="C306" s="18">
+        <v>43124</v>
+      </c>
+      <c r="D306" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E306" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F306" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G306" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="H306" s="62">
+        <v>76125280</v>
+      </c>
+      <c r="I306" s="61" t="s">
+        <v>707</v>
+      </c>
+      <c r="J306" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="K306" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="L306" s="66">
+        <v>17721436606</v>
+      </c>
+      <c r="M306" s="61" t="s">
+        <v>708</v>
+      </c>
+      <c r="N306" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="O306" s="61">
+        <v>13611584429</v>
+      </c>
+      <c r="P306" s="66" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="307" spans="1:16">
-      <c r="A307" s="8"/>
-      <c r="B307" s="21"/>
-      <c r="C307" s="18"/>
-      <c r="D307" s="45"/>
-      <c r="K307" s="16"/>
-      <c r="L307" s="15"/>
-      <c r="O307" s="12"/>
-      <c r="P307" s="15"/>
+      <c r="A307" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B307" s="19">
+        <v>4</v>
+      </c>
+      <c r="C307" s="18">
+        <v>43124</v>
+      </c>
+      <c r="D307" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E307" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F307" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G307" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="H307" s="62">
+        <v>76126082</v>
+      </c>
+      <c r="I307" s="61" t="s">
+        <v>709</v>
+      </c>
+      <c r="J307" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="K307" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="L307" s="66">
+        <v>17721436606</v>
+      </c>
+      <c r="M307" s="61" t="s">
+        <v>710</v>
+      </c>
+      <c r="N307" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="O307" s="61">
+        <v>15857337682</v>
+      </c>
+      <c r="P307" s="66" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="308" spans="1:16">
-      <c r="A308" s="8"/>
-      <c r="B308" s="21"/>
-      <c r="C308" s="18"/>
-      <c r="D308" s="45"/>
-      <c r="K308" s="16"/>
-      <c r="L308" s="15"/>
-      <c r="O308" s="12"/>
-      <c r="P308" s="15"/>
+      <c r="A308" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B308" s="19">
+        <v>4</v>
+      </c>
+      <c r="C308" s="18">
+        <v>43124</v>
+      </c>
+      <c r="D308" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E308" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F308" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G308" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="H308" s="62">
+        <v>76126262</v>
+      </c>
+      <c r="I308" s="61" t="s">
+        <v>711</v>
+      </c>
+      <c r="J308" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="K308" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="L308" s="66">
+        <v>17721436606</v>
+      </c>
+      <c r="M308" s="61" t="s">
+        <v>712</v>
+      </c>
+      <c r="N308" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="O308" s="61">
+        <v>15852934351</v>
+      </c>
+      <c r="P308" s="66" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="309" spans="1:16">
-      <c r="A309" s="8"/>
-      <c r="B309" s="21"/>
-      <c r="C309" s="18"/>
-      <c r="D309" s="45"/>
-      <c r="K309" s="16"/>
-      <c r="L309" s="15"/>
-      <c r="O309" s="12"/>
-      <c r="P309" s="15"/>
+      <c r="A309" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B309" s="19">
+        <v>4</v>
+      </c>
+      <c r="C309" s="18">
+        <v>43124</v>
+      </c>
+      <c r="D309" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E309" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F309" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G309" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="H309" s="62">
+        <v>76126826</v>
+      </c>
+      <c r="I309" s="61" t="s">
+        <v>713</v>
+      </c>
+      <c r="J309" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="K309" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="L309" s="66">
+        <v>17721436606</v>
+      </c>
+      <c r="M309" s="61" t="s">
+        <v>714</v>
+      </c>
+      <c r="N309" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="O309" s="61">
+        <v>17601550842</v>
+      </c>
+      <c r="P309" s="66" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="310" spans="1:16">
-      <c r="A310" s="8"/>
-      <c r="B310" s="21"/>
-      <c r="C310" s="18"/>
-      <c r="D310" s="45"/>
-      <c r="K310" s="16"/>
-      <c r="L310" s="15"/>
-      <c r="O310" s="12"/>
-      <c r="P310" s="15"/>
+      <c r="A310" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B310" s="19">
+        <v>4</v>
+      </c>
+      <c r="C310" s="18">
+        <v>43124</v>
+      </c>
+      <c r="D310" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E310" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F310" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G310" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="H310" s="62">
+        <v>76127688</v>
+      </c>
+      <c r="I310" s="61" t="s">
+        <v>715</v>
+      </c>
+      <c r="J310" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="K310" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="L310" s="66">
+        <v>17721436606</v>
+      </c>
+      <c r="M310" s="61" t="s">
+        <v>716</v>
+      </c>
+      <c r="N310" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="O310" s="61">
+        <v>18351928199</v>
+      </c>
+      <c r="P310" s="66" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="311" spans="1:16">
-      <c r="A311" s="8"/>
-      <c r="B311" s="21"/>
-      <c r="C311" s="18"/>
-      <c r="D311" s="45"/>
-      <c r="K311" s="16"/>
-      <c r="L311" s="15"/>
-      <c r="O311" s="12"/>
-      <c r="P311" s="15"/>
+      <c r="A311" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B311" s="19">
+        <v>4</v>
+      </c>
+      <c r="C311" s="18">
+        <v>43124</v>
+      </c>
+      <c r="D311" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E311" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F311" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G311" s="61" t="s">
+        <v>717</v>
+      </c>
+      <c r="H311" s="62">
+        <v>76127796</v>
+      </c>
+      <c r="I311" s="61" t="s">
+        <v>718</v>
+      </c>
+      <c r="J311" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="K311" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="L311" s="66">
+        <v>17721436606</v>
+      </c>
+      <c r="M311" s="61" t="s">
+        <v>719</v>
+      </c>
+      <c r="N311" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="O311" s="61">
+        <v>15048899812</v>
+      </c>
+      <c r="P311" s="66" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="312" spans="1:16">
-      <c r="A312" s="8"/>
-      <c r="B312" s="21"/>
-      <c r="C312" s="18"/>
-      <c r="D312" s="45"/>
-      <c r="K312" s="16"/>
-      <c r="L312" s="15"/>
-      <c r="O312" s="12"/>
-      <c r="P312" s="15"/>
+      <c r="A312" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B312" s="19">
+        <v>4</v>
+      </c>
+      <c r="C312" s="18">
+        <v>43124</v>
+      </c>
+      <c r="D312" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E312" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F312" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G312" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="H312" s="62">
+        <v>76127970</v>
+      </c>
+      <c r="I312" s="61" t="s">
+        <v>720</v>
+      </c>
+      <c r="J312" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="K312" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="L312" s="66">
+        <v>17721436606</v>
+      </c>
+      <c r="M312" s="61" t="s">
+        <v>721</v>
+      </c>
+      <c r="N312" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="O312" s="61">
+        <v>15868303386</v>
+      </c>
+      <c r="P312" s="66" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="313" spans="1:16">
-      <c r="A313" s="8"/>
-      <c r="B313" s="21"/>
-      <c r="C313" s="18"/>
-      <c r="D313" s="45"/>
-      <c r="K313" s="16"/>
-      <c r="L313" s="15"/>
-      <c r="O313" s="12"/>
-      <c r="P313" s="15"/>
+      <c r="A313" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B313" s="19">
+        <v>4</v>
+      </c>
+      <c r="C313" s="18">
+        <v>43124</v>
+      </c>
+      <c r="D313" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E313" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F313" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G313" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="H313" s="62">
+        <v>76128162</v>
+      </c>
+      <c r="I313" s="61" t="s">
+        <v>722</v>
+      </c>
+      <c r="J313" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="K313" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="L313" s="66">
+        <v>17721436606</v>
+      </c>
+      <c r="M313" s="61" t="s">
+        <v>723</v>
+      </c>
+      <c r="N313" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="O313" s="61">
+        <v>17773608161</v>
+      </c>
+      <c r="P313" s="66" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="314" spans="1:16">
-      <c r="A314" s="8"/>
-      <c r="B314" s="21"/>
-      <c r="C314" s="18"/>
-      <c r="D314" s="45"/>
-      <c r="K314" s="16"/>
-      <c r="L314" s="15"/>
-      <c r="O314" s="12"/>
-      <c r="P314" s="8"/>
+      <c r="A314" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B314" s="19">
+        <v>4</v>
+      </c>
+      <c r="C314" s="18">
+        <v>43124</v>
+      </c>
+      <c r="D314" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E314" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="F314" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G314" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="H314" s="64">
+        <v>76125580</v>
+      </c>
+      <c r="I314" s="61" t="s">
+        <v>724</v>
+      </c>
+      <c r="J314" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="K314" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="L314" s="66">
+        <v>17721436606</v>
+      </c>
+      <c r="M314" s="63" t="s">
+        <v>725</v>
+      </c>
+      <c r="N314" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="O314" s="68">
+        <v>13022176131</v>
+      </c>
+      <c r="P314" s="66" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="315" spans="1:16">
-      <c r="A315" s="8"/>
-      <c r="B315" s="21"/>
-      <c r="C315" s="18"/>
-      <c r="D315" s="45"/>
-      <c r="K315" s="16"/>
-      <c r="L315" s="15"/>
-      <c r="O315" s="12"/>
-      <c r="P315" s="8"/>
+      <c r="A315" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B315" s="19">
+        <v>4</v>
+      </c>
+      <c r="C315" s="18">
+        <v>43124</v>
+      </c>
+      <c r="D315" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E315" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="F315" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G315" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="H315" s="64">
+        <v>76102623</v>
+      </c>
+      <c r="I315" s="62" t="s">
+        <v>726</v>
+      </c>
+      <c r="J315" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="K315" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="L315" s="66">
+        <v>17721436606</v>
+      </c>
+      <c r="M315" s="63" t="s">
+        <v>727</v>
+      </c>
+      <c r="N315" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="O315" s="63">
+        <v>18587588810</v>
+      </c>
+      <c r="P315" s="66" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="316" spans="1:16">
-      <c r="A316" s="8"/>
-      <c r="B316" s="21"/>
-      <c r="C316" s="18"/>
-      <c r="D316" s="45"/>
-      <c r="K316" s="16"/>
-      <c r="L316" s="15"/>
-      <c r="O316" s="12"/>
-      <c r="P316" s="8"/>
+      <c r="A316" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B316" s="19">
+        <v>4</v>
+      </c>
+      <c r="C316" s="18">
+        <v>43124</v>
+      </c>
+      <c r="D316" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E316" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="F316" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G316" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="H316" s="61">
+        <v>76120227</v>
+      </c>
+      <c r="I316" s="62" t="s">
+        <v>728</v>
+      </c>
+      <c r="J316" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="K316" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="L316" s="66">
+        <v>17721436606</v>
+      </c>
+      <c r="M316" s="61" t="s">
+        <v>729</v>
+      </c>
+      <c r="N316" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="O316" s="61">
+        <v>13918036758</v>
+      </c>
+      <c r="P316" s="66" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="317" spans="1:16">
-      <c r="A317" s="22"/>
-      <c r="B317" s="21"/>
-      <c r="O317" s="12"/>
-      <c r="P317" s="8"/>
+      <c r="A317" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B317" s="19">
+        <v>4</v>
+      </c>
+      <c r="C317" s="18">
+        <v>43124</v>
+      </c>
+      <c r="D317" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E317" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="F317" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G317" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="H317" s="64">
+        <v>76120227</v>
+      </c>
+      <c r="I317" s="62" t="s">
+        <v>730</v>
+      </c>
+      <c r="J317" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="K317" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="L317" s="66">
+        <v>17721436606</v>
+      </c>
+      <c r="M317" s="63" t="s">
+        <v>731</v>
+      </c>
+      <c r="N317" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="O317" s="63">
+        <v>13774421741</v>
+      </c>
+      <c r="P317" s="66" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="318" spans="1:16">
-      <c r="A318" s="22"/>
-      <c r="B318" s="21"/>
-      <c r="O318" s="12"/>
-      <c r="P318" s="8"/>
+      <c r="A318" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B318" s="19">
+        <v>4</v>
+      </c>
+      <c r="C318" s="18">
+        <v>43124</v>
+      </c>
+      <c r="D318" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E318" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="F318" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G318" s="63" t="s">
+        <v>416</v>
+      </c>
+      <c r="H318" s="64">
+        <v>76128176</v>
+      </c>
+      <c r="I318" s="62" t="s">
+        <v>732</v>
+      </c>
+      <c r="J318" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="K318" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="L318" s="66">
+        <v>17721436606</v>
+      </c>
+      <c r="M318" s="63" t="s">
+        <v>733</v>
+      </c>
+      <c r="N318" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="O318" s="63">
+        <v>13788858818</v>
+      </c>
+      <c r="P318" s="66" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="319" spans="1:16">
-      <c r="A319" s="22"/>
-      <c r="B319" s="21"/>
-      <c r="O319" s="12"/>
-      <c r="P319" s="8"/>
-    </row>
-    <row r="320" spans="1:2">
+      <c r="A319" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B319" s="19">
+        <v>4</v>
+      </c>
+      <c r="C319" s="18">
+        <v>43124</v>
+      </c>
+      <c r="D319" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E319" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="F319" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G319" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="H319" s="64">
+        <v>76128177</v>
+      </c>
+      <c r="I319" s="62" t="s">
+        <v>734</v>
+      </c>
+      <c r="J319" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="K319" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="L319" s="66">
+        <v>17721436606</v>
+      </c>
+      <c r="M319" s="63" t="s">
+        <v>735</v>
+      </c>
+      <c r="N319" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="O319" s="63">
+        <v>15021554787</v>
+      </c>
+      <c r="P319" s="66" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16">
       <c r="A320" s="22"/>
       <c r="B320" s="21"/>
-    </row>
-    <row r="321" spans="1:2">
+      <c r="P320" s="8"/>
+    </row>
+    <row r="321" spans="1:16">
       <c r="A321" s="22"/>
       <c r="B321" s="21"/>
-    </row>
-    <row r="322" spans="1:2">
+      <c r="P321" s="8"/>
+    </row>
+    <row r="322" spans="1:16">
       <c r="A322" s="22"/>
       <c r="B322" s="21"/>
-    </row>
-    <row r="323" spans="1:2">
+      <c r="P322" s="8"/>
+    </row>
+    <row r="323" spans="1:16">
       <c r="A323" s="22"/>
       <c r="B323" s="21"/>
-    </row>
-    <row r="324" spans="1:2">
+      <c r="P323" s="8"/>
+    </row>
+    <row r="324" spans="1:16">
       <c r="A324" s="22"/>
       <c r="B324" s="21"/>
-    </row>
-    <row r="325" spans="1:2">
+      <c r="P324" s="8"/>
+    </row>
+    <row r="325" spans="1:16">
       <c r="A325" s="22"/>
       <c r="B325" s="21"/>
-    </row>
-    <row r="326" spans="1:2">
+      <c r="P325" s="8"/>
+    </row>
+    <row r="326" spans="1:16">
       <c r="A326" s="22"/>
       <c r="B326" s="21"/>
-    </row>
-    <row r="327" spans="1:2">
+      <c r="P326" s="8"/>
+    </row>
+    <row r="327" spans="1:16">
       <c r="A327" s="22"/>
       <c r="B327" s="21"/>
-    </row>
-    <row r="328" spans="1:2">
+      <c r="P327" s="8"/>
+    </row>
+    <row r="328" spans="1:16">
       <c r="A328" s="22"/>
       <c r="B328" s="21"/>
-    </row>
-    <row r="329" spans="1:2">
+      <c r="P328" s="8"/>
+    </row>
+    <row r="329" spans="1:16">
       <c r="A329" s="22"/>
       <c r="B329" s="21"/>
-    </row>
-    <row r="330" spans="1:2">
+      <c r="P329" s="8"/>
+    </row>
+    <row r="330" spans="1:16">
       <c r="A330" s="22"/>
       <c r="B330" s="21"/>
-    </row>
-    <row r="331" spans="1:2">
+      <c r="P330" s="8"/>
+    </row>
+    <row r="331" spans="1:16">
       <c r="A331" s="22"/>
       <c r="B331" s="21"/>
-    </row>
-    <row r="332" spans="1:2">
+      <c r="P331" s="8"/>
+    </row>
+    <row r="332" spans="1:16">
       <c r="A332" s="22"/>
       <c r="B332" s="21"/>
-    </row>
-    <row r="333" spans="1:2">
+      <c r="P332" s="8"/>
+    </row>
+    <row r="333" spans="1:16">
       <c r="A333" s="22"/>
       <c r="B333" s="21"/>
-    </row>
-    <row r="334" spans="1:2">
+      <c r="P333" s="8"/>
+    </row>
+    <row r="334" spans="1:16">
       <c r="A334" s="22"/>
       <c r="B334" s="21"/>
-    </row>
-    <row r="335" spans="1:2">
+      <c r="P334" s="8"/>
+    </row>
+    <row r="335" spans="1:16">
       <c r="A335" s="22"/>
       <c r="B335" s="21"/>
-    </row>
-    <row r="336" spans="1:2">
+      <c r="P335" s="8"/>
+    </row>
+    <row r="336" spans="1:16">
       <c r="A336" s="22"/>
       <c r="B336" s="21"/>
-    </row>
-    <row r="337" spans="1:2">
+      <c r="P336" s="8"/>
+    </row>
+    <row r="337" spans="1:16">
       <c r="A337" s="22"/>
       <c r="B337" s="21"/>
-    </row>
-    <row r="338" spans="1:2">
+      <c r="P337" s="8"/>
+    </row>
+    <row r="338" spans="1:16">
       <c r="A338" s="22"/>
       <c r="B338" s="21"/>
-    </row>
-    <row r="339" spans="1:2">
+      <c r="P338" s="8"/>
+    </row>
+    <row r="339" spans="1:16">
       <c r="A339" s="22"/>
       <c r="B339" s="21"/>
-    </row>
-    <row r="340" spans="1:2">
+      <c r="P339" s="8"/>
+    </row>
+    <row r="340" spans="1:16">
       <c r="A340" s="22"/>
       <c r="B340" s="21"/>
-    </row>
-    <row r="341" spans="1:2">
+      <c r="P340" s="8"/>
+    </row>
+    <row r="341" spans="1:16">
       <c r="A341" s="22"/>
       <c r="B341" s="21"/>
-    </row>
-    <row r="342" spans="1:2">
+      <c r="P341" s="8"/>
+    </row>
+    <row r="342" spans="1:16">
       <c r="A342" s="22"/>
       <c r="B342" s="21"/>
-    </row>
-    <row r="343" spans="1:2">
+      <c r="P342" s="8"/>
+    </row>
+    <row r="343" spans="1:16">
       <c r="A343" s="22"/>
       <c r="B343" s="21"/>
-    </row>
-    <row r="344" spans="1:2">
+      <c r="P343" s="8"/>
+    </row>
+    <row r="344" spans="1:16">
       <c r="A344" s="22"/>
       <c r="B344" s="21"/>
-    </row>
-    <row r="345" spans="1:2">
+      <c r="P344" s="8"/>
+    </row>
+    <row r="345" spans="1:16">
       <c r="A345" s="22"/>
       <c r="B345" s="21"/>
-    </row>
-    <row r="346" spans="1:2">
+      <c r="P345" s="8"/>
+    </row>
+    <row r="346" spans="1:16">
       <c r="A346" s="22"/>
       <c r="B346" s="21"/>
-    </row>
-    <row r="347" spans="1:2">
+      <c r="P346" s="8"/>
+    </row>
+    <row r="347" spans="1:16">
       <c r="A347" s="22"/>
       <c r="B347" s="21"/>
-    </row>
-    <row r="348" spans="1:2">
+      <c r="P347" s="8"/>
+    </row>
+    <row r="348" spans="1:16">
       <c r="A348" s="22"/>
       <c r="B348" s="21"/>
-    </row>
-    <row r="349" spans="1:2">
+      <c r="P348" s="8"/>
+    </row>
+    <row r="349" spans="1:16">
       <c r="A349" s="22"/>
       <c r="B349" s="21"/>
-    </row>
-    <row r="350" spans="1:2">
+      <c r="P349" s="8"/>
+    </row>
+    <row r="350" spans="1:16">
       <c r="A350" s="22"/>
       <c r="B350" s="21"/>
-    </row>
-    <row r="351" spans="1:2">
+      <c r="P350" s="8"/>
+    </row>
+    <row r="351" spans="1:16">
       <c r="A351" s="22"/>
       <c r="B351" s="21"/>
-    </row>
-    <row r="352" spans="1:2">
+      <c r="P351" s="8"/>
+    </row>
+    <row r="352" spans="1:16">
       <c r="A352" s="22"/>
       <c r="B352" s="21"/>
-    </row>
-    <row r="353" spans="1:2">
+      <c r="P352" s="8"/>
+    </row>
+    <row r="353" spans="1:16">
       <c r="A353" s="22"/>
       <c r="B353" s="21"/>
-    </row>
-    <row r="354" spans="1:2">
+      <c r="P353" s="8"/>
+    </row>
+    <row r="354" spans="1:16">
       <c r="A354" s="22"/>
       <c r="B354" s="21"/>
-    </row>
-    <row r="355" spans="1:2">
+      <c r="P354" s="8"/>
+    </row>
+    <row r="355" spans="1:16">
       <c r="A355" s="22"/>
       <c r="B355" s="21"/>
-    </row>
-    <row r="356" spans="1:2">
+      <c r="P355" s="8"/>
+    </row>
+    <row r="356" spans="1:16">
       <c r="A356" s="22"/>
       <c r="B356" s="21"/>
-    </row>
-    <row r="357" spans="1:2">
+      <c r="P356" s="8"/>
+    </row>
+    <row r="357" spans="1:16">
       <c r="A357" s="22"/>
       <c r="B357" s="21"/>
-    </row>
-    <row r="358" spans="1:2">
+      <c r="P357" s="8"/>
+    </row>
+    <row r="358" spans="1:16">
       <c r="A358" s="22"/>
       <c r="B358" s="21"/>
-    </row>
-    <row r="359" spans="1:2">
+      <c r="P358" s="8"/>
+    </row>
+    <row r="359" spans="1:16">
       <c r="A359" s="22"/>
       <c r="B359" s="21"/>
-    </row>
-    <row r="360" spans="1:2">
+      <c r="P359" s="8"/>
+    </row>
+    <row r="360" spans="1:16">
       <c r="A360" s="22"/>
       <c r="B360" s="21"/>
-    </row>
-    <row r="361" spans="1:2">
+      <c r="P360" s="8"/>
+    </row>
+    <row r="361" spans="1:16">
       <c r="A361" s="22"/>
       <c r="B361" s="21"/>
-    </row>
-    <row r="362" spans="1:2">
+      <c r="P361" s="8"/>
+    </row>
+    <row r="362" spans="1:16">
       <c r="A362" s="22"/>
       <c r="B362" s="21"/>
-    </row>
-    <row r="363" spans="1:2">
+      <c r="P362" s="8"/>
+    </row>
+    <row r="363" spans="1:16">
       <c r="A363" s="22"/>
       <c r="B363" s="21"/>
-    </row>
-    <row r="364" spans="1:2">
+      <c r="P363" s="8"/>
+    </row>
+    <row r="364" spans="1:16">
       <c r="A364" s="22"/>
       <c r="B364" s="21"/>
-    </row>
-    <row r="365" spans="1:2">
+      <c r="P364" s="8"/>
+    </row>
+    <row r="365" spans="1:16">
       <c r="A365" s="22"/>
       <c r="B365" s="21"/>
-    </row>
-    <row r="366" spans="1:2">
+      <c r="P365" s="8"/>
+    </row>
+    <row r="366" spans="1:16">
       <c r="A366" s="22"/>
       <c r="B366" s="21"/>
-    </row>
-    <row r="367" spans="1:2">
+      <c r="P366" s="8"/>
+    </row>
+    <row r="367" spans="1:16">
       <c r="A367" s="22"/>
       <c r="B367" s="21"/>
-    </row>
-    <row r="368" spans="1:2">
+      <c r="P367" s="8"/>
+    </row>
+    <row r="368" spans="1:16">
       <c r="A368" s="22"/>
       <c r="B368" s="21"/>
-    </row>
-    <row r="369" spans="1:2">
+      <c r="P368" s="8"/>
+    </row>
+    <row r="369" spans="1:16">
       <c r="A369" s="22"/>
       <c r="B369" s="21"/>
-    </row>
-    <row r="370" spans="1:2">
+      <c r="P369" s="8"/>
+    </row>
+    <row r="370" spans="1:16">
       <c r="A370" s="22"/>
       <c r="B370" s="21"/>
-    </row>
-    <row r="371" spans="1:2">
+      <c r="P370" s="8"/>
+    </row>
+    <row r="371" spans="1:16">
       <c r="A371" s="22"/>
       <c r="B371" s="21"/>
-    </row>
-    <row r="372" spans="1:2">
+      <c r="P371" s="8"/>
+    </row>
+    <row r="372" spans="1:16">
       <c r="A372" s="22"/>
       <c r="B372" s="21"/>
-    </row>
-    <row r="373" spans="1:2">
+      <c r="P372" s="8"/>
+    </row>
+    <row r="373" spans="1:16">
       <c r="A373" s="22"/>
       <c r="B373" s="21"/>
-    </row>
-    <row r="374" spans="1:2">
+      <c r="P373" s="8"/>
+    </row>
+    <row r="374" spans="1:16">
       <c r="A374" s="22"/>
       <c r="B374" s="21"/>
-    </row>
-    <row r="375" spans="1:2">
+      <c r="P374" s="8"/>
+    </row>
+    <row r="375" spans="1:16">
       <c r="A375" s="22"/>
       <c r="B375" s="21"/>
-    </row>
-    <row r="376" spans="1:2">
+      <c r="P375" s="8"/>
+    </row>
+    <row r="376" spans="1:16">
       <c r="A376" s="22"/>
       <c r="B376" s="21"/>
-    </row>
-    <row r="377" spans="1:2">
+      <c r="P376" s="8"/>
+    </row>
+    <row r="377" spans="1:16">
       <c r="A377" s="22"/>
       <c r="B377" s="21"/>
-    </row>
-    <row r="378" spans="1:2">
+      <c r="P377" s="8"/>
+    </row>
+    <row r="378" spans="1:16">
       <c r="A378" s="22"/>
       <c r="B378" s="21"/>
-    </row>
-    <row r="379" spans="1:2">
+      <c r="P378" s="8"/>
+    </row>
+    <row r="379" spans="1:16">
       <c r="A379" s="22"/>
       <c r="B379" s="21"/>
-    </row>
-    <row r="380" spans="1:2">
+      <c r="P379" s="8"/>
+    </row>
+    <row r="380" spans="1:16">
       <c r="A380" s="22"/>
       <c r="B380" s="21"/>
-    </row>
-    <row r="381" spans="1:2">
+      <c r="P380" s="8"/>
+    </row>
+    <row r="381" spans="1:16">
       <c r="A381" s="22"/>
       <c r="B381" s="21"/>
-    </row>
-    <row r="382" spans="1:2">
+      <c r="P381" s="8"/>
+    </row>
+    <row r="382" spans="1:16">
       <c r="A382" s="22"/>
       <c r="B382" s="21"/>
-    </row>
-    <row r="383" spans="1:2">
+      <c r="P382" s="8"/>
+    </row>
+    <row r="383" spans="1:16">
       <c r="A383" s="22"/>
       <c r="B383" s="21"/>
-    </row>
-    <row r="384" spans="1:2">
+      <c r="P383" s="8"/>
+    </row>
+    <row r="384" spans="1:16">
       <c r="A384" s="22"/>
       <c r="B384" s="21"/>
-    </row>
-    <row r="385" spans="1:2">
+      <c r="P384" s="8"/>
+    </row>
+    <row r="385" spans="1:16">
       <c r="A385" s="22"/>
       <c r="B385" s="21"/>
-    </row>
-    <row r="386" spans="1:2">
+      <c r="P385" s="8"/>
+    </row>
+    <row r="386" spans="1:16">
       <c r="A386" s="22"/>
       <c r="B386" s="21"/>
-    </row>
-    <row r="387" spans="1:2">
+      <c r="P386" s="8"/>
+    </row>
+    <row r="387" spans="1:16">
       <c r="A387" s="22"/>
       <c r="B387" s="21"/>
-    </row>
-    <row r="388" spans="1:2">
+      <c r="P387" s="8"/>
+    </row>
+    <row r="388" spans="1:16">
       <c r="A388" s="22"/>
       <c r="B388" s="21"/>
-    </row>
-    <row r="389" spans="1:2">
+      <c r="P388" s="8"/>
+    </row>
+    <row r="389" spans="1:16">
       <c r="A389" s="22"/>
       <c r="B389" s="21"/>
-    </row>
-    <row r="390" spans="1:2">
+      <c r="P389" s="8"/>
+    </row>
+    <row r="390" spans="1:16">
       <c r="A390" s="22"/>
       <c r="B390" s="21"/>
-    </row>
-    <row r="391" spans="1:2">
+      <c r="P390" s="8"/>
+    </row>
+    <row r="391" spans="1:16">
       <c r="A391" s="22"/>
       <c r="B391" s="21"/>
-    </row>
-    <row r="392" spans="1:2">
+      <c r="P391" s="8"/>
+    </row>
+    <row r="392" spans="1:16">
       <c r="A392" s="22"/>
       <c r="B392" s="21"/>
-    </row>
-    <row r="393" spans="1:2">
+      <c r="P392" s="8"/>
+    </row>
+    <row r="393" spans="1:16">
       <c r="A393" s="22"/>
       <c r="B393" s="21"/>
-    </row>
-    <row r="394" spans="1:2">
+      <c r="P393" s="8"/>
+    </row>
+    <row r="394" spans="1:16">
       <c r="A394" s="22"/>
       <c r="B394" s="21"/>
-    </row>
-    <row r="395" spans="1:2">
+      <c r="P394" s="8"/>
+    </row>
+    <row r="395" spans="1:16">
       <c r="A395" s="22"/>
       <c r="B395" s="21"/>
-    </row>
-    <row r="396" spans="1:2">
+      <c r="P395" s="8"/>
+    </row>
+    <row r="396" spans="1:16">
       <c r="A396" s="22"/>
       <c r="B396" s="21"/>
-    </row>
-    <row r="397" spans="1:2">
+      <c r="P396" s="8"/>
+    </row>
+    <row r="397" spans="1:16">
       <c r="A397" s="22"/>
       <c r="B397" s="21"/>
-    </row>
-    <row r="398" spans="1:2">
+      <c r="P397" s="8"/>
+    </row>
+    <row r="398" spans="1:16">
       <c r="A398" s="22"/>
       <c r="B398" s="21"/>
-    </row>
-    <row r="399" spans="1:2">
+      <c r="P398" s="8"/>
+    </row>
+    <row r="399" spans="1:16">
       <c r="A399" s="22"/>
       <c r="B399" s="21"/>
-    </row>
-    <row r="400" spans="1:2">
+      <c r="P399" s="8"/>
+    </row>
+    <row r="400" spans="1:16">
       <c r="A400" s="22"/>
       <c r="B400" s="21"/>
-    </row>
-    <row r="401" spans="1:2">
+      <c r="P400" s="8"/>
+    </row>
+    <row r="401" spans="1:16">
       <c r="A401" s="22"/>
       <c r="B401" s="21"/>
-    </row>
-    <row r="402" spans="1:2">
+      <c r="P401" s="8"/>
+    </row>
+    <row r="402" spans="1:16">
       <c r="A402" s="22"/>
       <c r="B402" s="21"/>
-    </row>
-    <row r="403" spans="1:2">
+      <c r="P402" s="8"/>
+    </row>
+    <row r="403" spans="1:16">
       <c r="A403" s="22"/>
       <c r="B403" s="21"/>
-    </row>
-    <row r="404" spans="1:2">
+      <c r="P403" s="8"/>
+    </row>
+    <row r="404" spans="1:16">
       <c r="A404" s="22"/>
       <c r="B404" s="21"/>
-    </row>
-    <row r="405" spans="1:2">
+      <c r="P404" s="8"/>
+    </row>
+    <row r="405" spans="1:16">
       <c r="A405" s="22"/>
       <c r="B405" s="21"/>
-    </row>
-    <row r="406" spans="1:2">
+      <c r="P405" s="8"/>
+    </row>
+    <row r="406" spans="1:16">
       <c r="A406" s="22"/>
       <c r="B406" s="21"/>
-    </row>
-    <row r="407" spans="1:2">
+      <c r="P406" s="8"/>
+    </row>
+    <row r="407" spans="1:16">
       <c r="A407" s="22"/>
       <c r="B407" s="21"/>
-    </row>
-    <row r="408" spans="1:2">
+      <c r="P407" s="8"/>
+    </row>
+    <row r="408" spans="1:16">
       <c r="A408" s="22"/>
       <c r="B408" s="21"/>
-    </row>
-    <row r="409" spans="1:2">
+      <c r="P408" s="8"/>
+    </row>
+    <row r="409" spans="1:16">
       <c r="A409" s="22"/>
       <c r="B409" s="21"/>
-    </row>
-    <row r="410" spans="1:2">
+      <c r="P409" s="8"/>
+    </row>
+    <row r="410" spans="1:16">
       <c r="A410" s="22"/>
       <c r="B410" s="21"/>
-    </row>
-    <row r="411" spans="1:2">
+      <c r="P410" s="8"/>
+    </row>
+    <row r="411" spans="1:16">
       <c r="A411" s="22"/>
       <c r="B411" s="21"/>
-    </row>
-    <row r="412" spans="1:2">
+      <c r="P411" s="8"/>
+    </row>
+    <row r="412" spans="1:16">
       <c r="A412" s="22"/>
       <c r="B412" s="21"/>
-    </row>
-    <row r="413" spans="1:2">
+      <c r="P412" s="8"/>
+    </row>
+    <row r="413" spans="1:16">
       <c r="A413" s="22"/>
       <c r="B413" s="21"/>
-    </row>
-    <row r="414" spans="1:2">
-      <c r="A414" s="62"/>
+      <c r="P413" s="8"/>
+    </row>
+    <row r="414" spans="1:16">
+      <c r="A414" s="69"/>
       <c r="B414" s="21"/>
-    </row>
-    <row r="415" spans="1:2">
+      <c r="P414" s="8"/>
+    </row>
+    <row r="415" spans="1:16">
       <c r="A415" s="22"/>
       <c r="B415" s="21"/>
-    </row>
-    <row r="416" spans="1:2">
+      <c r="P415" s="8"/>
+    </row>
+    <row r="416" spans="1:16">
       <c r="A416" s="22"/>
       <c r="B416" s="21"/>
-    </row>
-    <row r="417" spans="1:2">
+      <c r="P416" s="8"/>
+    </row>
+    <row r="417" spans="1:16">
       <c r="A417" s="22"/>
       <c r="B417" s="21"/>
-    </row>
-    <row r="418" spans="1:2">
+      <c r="P417" s="8"/>
+    </row>
+    <row r="418" spans="1:16">
       <c r="A418" s="22"/>
       <c r="B418" s="21"/>
-    </row>
-    <row r="419" spans="1:2">
+      <c r="P418" s="8"/>
+    </row>
+    <row r="419" spans="1:16">
       <c r="A419" s="22"/>
       <c r="B419" s="21"/>
-    </row>
-    <row r="420" spans="1:2">
+      <c r="P419" s="8"/>
+    </row>
+    <row r="420" spans="1:16">
       <c r="A420" s="22"/>
       <c r="B420" s="21"/>
-    </row>
-    <row r="421" spans="1:2">
+      <c r="P420" s="8"/>
+    </row>
+    <row r="421" spans="1:16">
       <c r="A421" s="22"/>
       <c r="B421" s="21"/>
-    </row>
-    <row r="422" spans="1:2">
+      <c r="P421" s="8"/>
+    </row>
+    <row r="422" spans="1:16">
       <c r="A422" s="22"/>
       <c r="B422" s="21"/>
-    </row>
-    <row r="423" spans="1:2">
+      <c r="P422" s="8"/>
+    </row>
+    <row r="423" spans="1:16">
       <c r="A423" s="22"/>
       <c r="B423" s="21"/>
-    </row>
-    <row r="424" spans="1:2">
+      <c r="P423" s="8"/>
+    </row>
+    <row r="424" spans="1:16">
       <c r="A424" s="22"/>
       <c r="B424" s="21"/>
-    </row>
-    <row r="425" spans="1:2">
+      <c r="P424" s="8"/>
+    </row>
+    <row r="425" spans="1:16">
       <c r="A425" s="22"/>
       <c r="B425" s="21"/>
-    </row>
-    <row r="426" spans="1:2">
+      <c r="P425" s="8"/>
+    </row>
+    <row r="426" spans="1:16">
       <c r="A426" s="22"/>
       <c r="B426" s="21"/>
-    </row>
-    <row r="427" spans="1:2">
+      <c r="P426" s="8"/>
+    </row>
+    <row r="427" spans="1:16">
       <c r="A427" s="22"/>
       <c r="B427" s="21"/>
-    </row>
-    <row r="428" spans="1:2">
+      <c r="P427" s="8"/>
+    </row>
+    <row r="428" spans="1:16">
       <c r="A428" s="22"/>
       <c r="B428" s="21"/>
-    </row>
-    <row r="429" spans="1:2">
+      <c r="P428" s="8"/>
+    </row>
+    <row r="429" spans="1:16">
       <c r="A429" s="22"/>
       <c r="B429" s="21"/>
-    </row>
-    <row r="430" spans="1:2">
+      <c r="P429" s="8"/>
+    </row>
+    <row r="430" spans="1:16">
       <c r="A430" s="22"/>
       <c r="B430" s="21"/>
-    </row>
-    <row r="431" spans="1:2">
+      <c r="P430" s="8"/>
+    </row>
+    <row r="431" spans="1:16">
       <c r="A431" s="22"/>
       <c r="B431" s="21"/>
-    </row>
-    <row r="432" spans="1:2">
-      <c r="A432" s="62"/>
+      <c r="P431" s="8"/>
+    </row>
+    <row r="432" spans="1:16">
+      <c r="A432" s="69"/>
       <c r="B432" s="21"/>
-    </row>
-    <row r="433" spans="1:2">
+      <c r="P432" s="8"/>
+    </row>
+    <row r="433" spans="1:16">
       <c r="A433" s="22"/>
       <c r="B433" s="21"/>
-    </row>
-    <row r="434" spans="1:2">
-      <c r="A434" s="62"/>
+      <c r="P433" s="8"/>
+    </row>
+    <row r="434" spans="1:16">
+      <c r="A434" s="69"/>
       <c r="B434" s="21"/>
-    </row>
-    <row r="435" spans="1:2">
+      <c r="P434" s="8"/>
+    </row>
+    <row r="435" spans="1:16">
       <c r="A435" s="22"/>
       <c r="B435" s="21"/>
-    </row>
-    <row r="436" spans="1:2">
-      <c r="A436" s="62"/>
+      <c r="P435" s="8"/>
+    </row>
+    <row r="436" spans="1:16">
+      <c r="A436" s="69"/>
       <c r="B436" s="21"/>
-    </row>
-    <row r="437" spans="1:2">
+      <c r="P436" s="8"/>
+    </row>
+    <row r="437" spans="1:16">
       <c r="A437" s="22"/>
       <c r="B437" s="21"/>
-    </row>
-    <row r="438" spans="1:2">
-      <c r="A438" s="62"/>
+      <c r="P437" s="8"/>
+    </row>
+    <row r="438" spans="1:16">
+      <c r="A438" s="69"/>
       <c r="B438" s="21"/>
-    </row>
-    <row r="439" spans="1:2">
+      <c r="P438" s="8"/>
+    </row>
+    <row r="439" spans="1:16">
       <c r="A439" s="22"/>
       <c r="B439" s="21"/>
-    </row>
-    <row r="440" spans="1:2">
-      <c r="A440" s="62"/>
+      <c r="P439" s="8"/>
+    </row>
+    <row r="440" spans="1:16">
+      <c r="A440" s="69"/>
       <c r="B440" s="21"/>
-    </row>
-    <row r="441" spans="1:2">
+      <c r="P440" s="8"/>
+    </row>
+    <row r="441" spans="1:16">
       <c r="A441" s="22"/>
       <c r="B441" s="21"/>
-    </row>
-    <row r="442" spans="1:2">
-      <c r="A442" s="62"/>
+      <c r="P441" s="8"/>
+    </row>
+    <row r="442" spans="1:16">
+      <c r="A442" s="69"/>
       <c r="B442" s="21"/>
-    </row>
-    <row r="443" spans="1:2">
+      <c r="P442" s="8"/>
+    </row>
+    <row r="443" spans="1:16">
       <c r="A443" s="22"/>
       <c r="B443" s="21"/>
-    </row>
-    <row r="444" spans="1:2">
-      <c r="A444" s="62"/>
+      <c r="P443" s="8"/>
+    </row>
+    <row r="444" spans="1:16">
+      <c r="A444" s="69"/>
       <c r="B444" s="21"/>
-    </row>
-    <row r="445" spans="1:2">
+      <c r="P444" s="8"/>
+    </row>
+    <row r="445" spans="1:16">
       <c r="A445" s="22"/>
       <c r="B445" s="21"/>
-    </row>
-    <row r="446" spans="1:2">
-      <c r="A446" s="62"/>
+      <c r="P445" s="8"/>
+    </row>
+    <row r="446" spans="1:16">
+      <c r="A446" s="69"/>
       <c r="B446" s="21"/>
-    </row>
-    <row r="447" spans="1:2">
+      <c r="P446" s="8"/>
+    </row>
+    <row r="447" spans="1:16">
       <c r="A447" s="22"/>
       <c r="B447" s="21"/>
-    </row>
-    <row r="448" spans="1:2">
-      <c r="A448" s="62"/>
+      <c r="P447" s="8"/>
+    </row>
+    <row r="448" spans="1:16">
+      <c r="A448" s="69"/>
       <c r="B448" s="21"/>
-    </row>
-    <row r="449" spans="1:2">
+      <c r="P448" s="8"/>
+    </row>
+    <row r="449" spans="1:16">
       <c r="A449" s="22"/>
       <c r="B449" s="21"/>
-    </row>
-    <row r="450" spans="1:2">
-      <c r="A450" s="62"/>
+      <c r="P449" s="8"/>
+    </row>
+    <row r="450" spans="1:16">
+      <c r="A450" s="69"/>
       <c r="B450" s="21"/>
-    </row>
-    <row r="451" spans="1:2">
+      <c r="P450" s="8"/>
+    </row>
+    <row r="451" spans="1:16">
       <c r="A451" s="22"/>
       <c r="B451" s="21"/>
-    </row>
-    <row r="452" spans="1:2">
-      <c r="A452" s="62"/>
+      <c r="P451" s="8"/>
+    </row>
+    <row r="452" spans="1:16">
+      <c r="A452" s="69"/>
       <c r="B452" s="21"/>
-    </row>
-    <row r="453" spans="1:2">
+      <c r="P452" s="8"/>
+    </row>
+    <row r="453" spans="1:16">
       <c r="A453" s="22"/>
       <c r="B453" s="21"/>
-    </row>
-    <row r="454" spans="1:2">
-      <c r="A454" s="62"/>
+      <c r="P453" s="8"/>
+    </row>
+    <row r="454" spans="1:16">
+      <c r="A454" s="69"/>
       <c r="B454" s="21"/>
-    </row>
-    <row r="455" spans="1:2">
+      <c r="P454" s="8"/>
+    </row>
+    <row r="455" spans="1:16">
       <c r="A455" s="22"/>
       <c r="B455" s="21"/>
-    </row>
-    <row r="456" spans="1:2">
-      <c r="A456" s="62"/>
+      <c r="P455" s="8"/>
+    </row>
+    <row r="456" spans="1:16">
+      <c r="A456" s="69"/>
       <c r="B456" s="21"/>
-    </row>
-    <row r="457" spans="1:2">
+      <c r="P456" s="8"/>
+    </row>
+    <row r="457" spans="1:16">
       <c r="A457" s="22"/>
       <c r="B457" s="21"/>
-    </row>
-    <row r="458" spans="1:2">
-      <c r="A458" s="62"/>
+      <c r="P457" s="8"/>
+    </row>
+    <row r="458" spans="1:16">
+      <c r="A458" s="69"/>
       <c r="B458" s="21"/>
-    </row>
-    <row r="459" spans="1:2">
+      <c r="P458" s="8"/>
+    </row>
+    <row r="459" spans="1:16">
       <c r="A459" s="22"/>
       <c r="B459" s="21"/>
-    </row>
-    <row r="460" spans="1:2">
-      <c r="A460" s="62"/>
+      <c r="P459" s="8"/>
+    </row>
+    <row r="460" spans="1:16">
+      <c r="A460" s="69"/>
       <c r="B460" s="21"/>
-    </row>
-    <row r="461" spans="1:2">
+      <c r="P460" s="8"/>
+    </row>
+    <row r="461" spans="1:16">
       <c r="A461" s="22"/>
       <c r="B461" s="21"/>
-    </row>
-    <row r="462" spans="1:2">
-      <c r="A462" s="62"/>
+      <c r="P461" s="8"/>
+    </row>
+    <row r="462" spans="1:16">
+      <c r="A462" s="69"/>
       <c r="B462" s="21"/>
-    </row>
-    <row r="463" spans="1:2">
+      <c r="P462" s="8"/>
+    </row>
+    <row r="463" spans="1:16">
       <c r="A463" s="22"/>
       <c r="B463" s="21"/>
-    </row>
-    <row r="464" spans="1:2">
-      <c r="A464" s="62"/>
+      <c r="P463" s="8"/>
+    </row>
+    <row r="464" spans="1:16">
+      <c r="A464" s="69"/>
       <c r="B464" s="21"/>
-    </row>
-    <row r="465" spans="1:2">
+      <c r="P464" s="8"/>
+    </row>
+    <row r="465" spans="1:16">
       <c r="A465" s="22"/>
       <c r="B465" s="21"/>
-    </row>
-    <row r="466" spans="1:2">
-      <c r="A466" s="62"/>
+      <c r="P465" s="8"/>
+    </row>
+    <row r="466" spans="1:16">
+      <c r="A466" s="69"/>
       <c r="B466" s="21"/>
-    </row>
-    <row r="467" spans="1:2">
+      <c r="P466" s="8"/>
+    </row>
+    <row r="467" spans="1:16">
       <c r="A467" s="22"/>
       <c r="B467" s="21"/>
-    </row>
-    <row r="468" spans="1:2">
-      <c r="A468" s="62"/>
+      <c r="P467" s="8"/>
+    </row>
+    <row r="468" spans="1:16">
+      <c r="A468" s="69"/>
       <c r="B468" s="21"/>
-    </row>
-    <row r="469" spans="1:2">
+      <c r="P468" s="8"/>
+    </row>
+    <row r="469" spans="1:16">
       <c r="A469" s="22"/>
       <c r="B469" s="21"/>
-    </row>
-    <row r="470" spans="1:2">
-      <c r="A470" s="62"/>
+      <c r="P469" s="8"/>
+    </row>
+    <row r="470" spans="1:16">
+      <c r="A470" s="69"/>
       <c r="B470" s="21"/>
-    </row>
-    <row r="471" spans="1:2">
+      <c r="P470" s="8"/>
+    </row>
+    <row r="471" spans="1:16">
       <c r="A471" s="22"/>
       <c r="B471" s="21"/>
-    </row>
-    <row r="472" spans="1:2">
-      <c r="A472" s="62"/>
+      <c r="P471" s="8"/>
+    </row>
+    <row r="472" spans="1:16">
+      <c r="A472" s="69"/>
       <c r="B472" s="21"/>
-    </row>
-    <row r="473" spans="1:2">
+      <c r="P472" s="8"/>
+    </row>
+    <row r="473" spans="1:16">
       <c r="A473" s="22"/>
       <c r="B473" s="21"/>
-    </row>
-    <row r="474" spans="1:2">
-      <c r="A474" s="62"/>
+      <c r="P473" s="8"/>
+    </row>
+    <row r="474" spans="1:16">
+      <c r="A474" s="69"/>
       <c r="B474" s="21"/>
-    </row>
-    <row r="475" spans="1:2">
+      <c r="P474" s="8"/>
+    </row>
+    <row r="475" spans="1:16">
       <c r="A475" s="22"/>
       <c r="B475" s="21"/>
-    </row>
-    <row r="476" spans="1:2">
-      <c r="A476" s="62"/>
+      <c r="P475" s="8"/>
+    </row>
+    <row r="476" spans="1:16">
+      <c r="A476" s="69"/>
       <c r="B476" s="21"/>
-    </row>
-    <row r="477" spans="1:2">
+      <c r="P476" s="8"/>
+    </row>
+    <row r="477" spans="1:16">
       <c r="A477" s="22"/>
       <c r="B477" s="21"/>
+      <c r="P477" s="8"/>
     </row>
     <row r="478" spans="1:2">
-      <c r="A478" s="62"/>
+      <c r="A478" s="69"/>
       <c r="B478" s="21"/>
     </row>
     <row r="479" spans="1:2">
@@ -19278,7 +20254,7 @@
       <c r="B479" s="21"/>
     </row>
     <row r="480" spans="1:2">
-      <c r="A480" s="62"/>
+      <c r="A480" s="69"/>
       <c r="B480" s="21"/>
     </row>
     <row r="481" spans="1:2">
@@ -19286,7 +20262,7 @@
       <c r="B481" s="21"/>
     </row>
     <row r="482" spans="1:2">
-      <c r="A482" s="62"/>
+      <c r="A482" s="69"/>
       <c r="B482" s="21"/>
     </row>
     <row r="483" spans="1:2">
@@ -19294,7 +20270,7 @@
       <c r="B483" s="21"/>
     </row>
     <row r="484" spans="1:2">
-      <c r="A484" s="62"/>
+      <c r="A484" s="69"/>
       <c r="B484" s="21"/>
     </row>
     <row r="485" spans="1:2">
@@ -19302,7 +20278,7 @@
       <c r="B485" s="21"/>
     </row>
     <row r="486" spans="1:2">
-      <c r="A486" s="62"/>
+      <c r="A486" s="69"/>
       <c r="B486" s="21"/>
     </row>
     <row r="487" spans="1:2">
@@ -19310,7 +20286,7 @@
       <c r="B487" s="21"/>
     </row>
     <row r="488" spans="1:2">
-      <c r="A488" s="62"/>
+      <c r="A488" s="69"/>
       <c r="B488" s="21"/>
     </row>
     <row r="489" spans="1:2">
@@ -19318,7 +20294,7 @@
       <c r="B489" s="21"/>
     </row>
     <row r="490" spans="1:2">
-      <c r="A490" s="62"/>
+      <c r="A490" s="69"/>
       <c r="B490" s="21"/>
     </row>
     <row r="491" spans="1:2">
@@ -19326,7 +20302,7 @@
       <c r="B491" s="21"/>
     </row>
     <row r="492" spans="1:2">
-      <c r="A492" s="62"/>
+      <c r="A492" s="69"/>
       <c r="B492" s="21"/>
     </row>
     <row r="493" spans="1:2">
@@ -19334,7 +20310,7 @@
       <c r="B493" s="21"/>
     </row>
     <row r="494" spans="1:2">
-      <c r="A494" s="62"/>
+      <c r="A494" s="69"/>
       <c r="B494" s="21"/>
     </row>
     <row r="495" spans="1:2">
@@ -19342,7 +20318,7 @@
       <c r="B495" s="21"/>
     </row>
     <row r="496" spans="1:2">
-      <c r="A496" s="62"/>
+      <c r="A496" s="69"/>
       <c r="B496" s="21"/>
     </row>
     <row r="497" spans="1:2">
@@ -19350,7 +20326,7 @@
       <c r="B497" s="21"/>
     </row>
     <row r="498" spans="1:2">
-      <c r="A498" s="62"/>
+      <c r="A498" s="69"/>
       <c r="B498" s="21"/>
     </row>
     <row r="499" spans="1:2">
@@ -19358,7 +20334,7 @@
       <c r="B499" s="21"/>
     </row>
     <row r="500" spans="1:2">
-      <c r="A500" s="62"/>
+      <c r="A500" s="69"/>
       <c r="B500" s="21"/>
     </row>
     <row r="501" spans="1:2">
@@ -19366,7 +20342,7 @@
       <c r="B501" s="21"/>
     </row>
     <row r="502" spans="1:2">
-      <c r="A502" s="62"/>
+      <c r="A502" s="69"/>
       <c r="B502" s="21"/>
     </row>
     <row r="503" spans="1:2">
@@ -19374,7 +20350,7 @@
       <c r="B503" s="21"/>
     </row>
     <row r="504" spans="1:2">
-      <c r="A504" s="62"/>
+      <c r="A504" s="69"/>
       <c r="B504" s="21"/>
     </row>
     <row r="505" spans="1:2">
@@ -19382,7 +20358,7 @@
       <c r="B505" s="21"/>
     </row>
     <row r="506" spans="1:2">
-      <c r="A506" s="62"/>
+      <c r="A506" s="69"/>
       <c r="B506" s="21"/>
     </row>
     <row r="507" spans="1:2">
@@ -19390,7 +20366,7 @@
       <c r="B507" s="21"/>
     </row>
     <row r="508" spans="1:2">
-      <c r="A508" s="62"/>
+      <c r="A508" s="69"/>
       <c r="B508" s="21"/>
     </row>
     <row r="509" spans="1:2">
@@ -19398,7 +20374,7 @@
       <c r="B509" s="21"/>
     </row>
     <row r="510" spans="1:2">
-      <c r="A510" s="62"/>
+      <c r="A510" s="69"/>
       <c r="B510" s="21"/>
     </row>
     <row r="511" spans="1:2">
@@ -19406,7 +20382,7 @@
       <c r="B511" s="21"/>
     </row>
     <row r="512" spans="1:2">
-      <c r="A512" s="62"/>
+      <c r="A512" s="69"/>
       <c r="B512" s="21"/>
     </row>
     <row r="513" spans="1:2">
@@ -19414,7 +20390,7 @@
       <c r="B513" s="21"/>
     </row>
     <row r="514" spans="1:2">
-      <c r="A514" s="62"/>
+      <c r="A514" s="69"/>
       <c r="B514" s="21"/>
     </row>
     <row r="515" spans="1:2">
@@ -19422,7 +20398,7 @@
       <c r="B515" s="21"/>
     </row>
     <row r="516" spans="1:2">
-      <c r="A516" s="62"/>
+      <c r="A516" s="69"/>
       <c r="B516" s="21"/>
     </row>
     <row r="517" spans="1:2">
@@ -19430,7 +20406,7 @@
       <c r="B517" s="21"/>
     </row>
     <row r="518" spans="1:2">
-      <c r="A518" s="62"/>
+      <c r="A518" s="69"/>
       <c r="B518" s="21"/>
     </row>
     <row r="519" spans="1:2">
@@ -19438,7 +20414,7 @@
       <c r="B519" s="21"/>
     </row>
     <row r="520" spans="1:2">
-      <c r="A520" s="62"/>
+      <c r="A520" s="69"/>
       <c r="B520" s="21"/>
     </row>
     <row r="521" spans="1:2">
@@ -19446,7 +20422,7 @@
       <c r="B521" s="21"/>
     </row>
     <row r="522" spans="1:2">
-      <c r="A522" s="62"/>
+      <c r="A522" s="69"/>
       <c r="B522" s="21"/>
     </row>
     <row r="523" spans="1:2">
@@ -19454,7 +20430,7 @@
       <c r="B523" s="21"/>
     </row>
     <row r="524" spans="1:2">
-      <c r="A524" s="62"/>
+      <c r="A524" s="69"/>
       <c r="B524" s="21"/>
     </row>
     <row r="525" spans="1:2">
@@ -19462,7 +20438,7 @@
       <c r="B525" s="21"/>
     </row>
     <row r="526" spans="1:2">
-      <c r="A526" s="62"/>
+      <c r="A526" s="69"/>
       <c r="B526" s="21"/>
     </row>
     <row r="527" spans="1:2">
@@ -19470,7 +20446,7 @@
       <c r="B527" s="21"/>
     </row>
     <row r="528" spans="1:2">
-      <c r="A528" s="62"/>
+      <c r="A528" s="69"/>
       <c r="B528" s="21"/>
     </row>
     <row r="529" spans="1:2">
@@ -19478,7 +20454,7 @@
       <c r="B529" s="21"/>
     </row>
     <row r="530" spans="1:2">
-      <c r="A530" s="62"/>
+      <c r="A530" s="69"/>
       <c r="B530" s="21"/>
     </row>
     <row r="531" spans="1:2">
@@ -19486,7 +20462,7 @@
       <c r="B531" s="21"/>
     </row>
     <row r="532" spans="1:2">
-      <c r="A532" s="62"/>
+      <c r="A532" s="69"/>
       <c r="B532" s="21"/>
     </row>
     <row r="533" spans="1:2">
@@ -19494,7 +20470,7 @@
       <c r="B533" s="21"/>
     </row>
     <row r="534" spans="1:2">
-      <c r="A534" s="62"/>
+      <c r="A534" s="69"/>
       <c r="B534" s="21"/>
     </row>
     <row r="535" spans="1:2">
@@ -19502,7 +20478,7 @@
       <c r="B535" s="21"/>
     </row>
     <row r="536" spans="1:2">
-      <c r="A536" s="62"/>
+      <c r="A536" s="69"/>
       <c r="B536" s="21"/>
     </row>
     <row r="537" spans="1:2">
@@ -19510,7 +20486,7 @@
       <c r="B537" s="21"/>
     </row>
     <row r="538" spans="1:2">
-      <c r="A538" s="62"/>
+      <c r="A538" s="69"/>
       <c r="B538" s="21"/>
     </row>
     <row r="539" spans="1:2">
@@ -19518,7 +20494,7 @@
       <c r="B539" s="21"/>
     </row>
     <row r="540" spans="1:2">
-      <c r="A540" s="62"/>
+      <c r="A540" s="69"/>
       <c r="B540" s="21"/>
     </row>
     <row r="541" spans="1:2">
@@ -19526,7 +20502,7 @@
       <c r="B541" s="21"/>
     </row>
     <row r="542" spans="1:2">
-      <c r="A542" s="62"/>
+      <c r="A542" s="69"/>
       <c r="B542" s="21"/>
     </row>
     <row r="543" spans="1:2">
@@ -19534,7 +20510,7 @@
       <c r="B543" s="21"/>
     </row>
     <row r="544" spans="1:2">
-      <c r="A544" s="62"/>
+      <c r="A544" s="69"/>
       <c r="B544" s="21"/>
     </row>
     <row r="545" spans="1:2">
@@ -19542,7 +20518,7 @@
       <c r="B545" s="21"/>
     </row>
     <row r="546" spans="1:2">
-      <c r="A546" s="62"/>
+      <c r="A546" s="69"/>
       <c r="B546" s="21"/>
     </row>
     <row r="547" spans="1:2">
@@ -19550,7 +20526,7 @@
       <c r="B547" s="21"/>
     </row>
     <row r="548" spans="1:2">
-      <c r="A548" s="62"/>
+      <c r="A548" s="69"/>
       <c r="B548" s="21"/>
     </row>
     <row r="549" spans="1:2">
@@ -19558,7 +20534,7 @@
       <c r="B549" s="21"/>
     </row>
     <row r="550" spans="1:2">
-      <c r="A550" s="62"/>
+      <c r="A550" s="69"/>
       <c r="B550" s="21"/>
     </row>
     <row r="551" spans="1:2">
@@ -19566,7 +20542,7 @@
       <c r="B551" s="21"/>
     </row>
     <row r="552" spans="1:2">
-      <c r="A552" s="62"/>
+      <c r="A552" s="69"/>
       <c r="B552" s="21"/>
     </row>
     <row r="553" spans="1:2">
@@ -19574,7 +20550,7 @@
       <c r="B553" s="21"/>
     </row>
     <row r="554" spans="1:2">
-      <c r="A554" s="62"/>
+      <c r="A554" s="69"/>
       <c r="B554" s="21"/>
     </row>
     <row r="555" spans="1:2">
@@ -19582,7 +20558,7 @@
       <c r="B555" s="21"/>
     </row>
     <row r="556" spans="1:2">
-      <c r="A556" s="62"/>
+      <c r="A556" s="69"/>
       <c r="B556" s="21"/>
     </row>
     <row r="557" spans="1:2">
@@ -19590,7 +20566,7 @@
       <c r="B557" s="21"/>
     </row>
     <row r="558" spans="1:2">
-      <c r="A558" s="62"/>
+      <c r="A558" s="69"/>
       <c r="B558" s="21"/>
     </row>
     <row r="559" spans="1:2">
@@ -19598,7 +20574,7 @@
       <c r="B559" s="21"/>
     </row>
     <row r="560" spans="1:2">
-      <c r="A560" s="62"/>
+      <c r="A560" s="69"/>
       <c r="B560" s="21"/>
     </row>
     <row r="561" spans="1:2">
@@ -19606,7 +20582,7 @@
       <c r="B561" s="21"/>
     </row>
     <row r="562" spans="1:2">
-      <c r="A562" s="62"/>
+      <c r="A562" s="69"/>
       <c r="B562" s="21"/>
     </row>
     <row r="563" spans="1:2">
@@ -19614,7 +20590,7 @@
       <c r="B563" s="21"/>
     </row>
     <row r="564" spans="1:2">
-      <c r="A564" s="62"/>
+      <c r="A564" s="69"/>
       <c r="B564" s="21"/>
     </row>
     <row r="565" spans="1:2">
@@ -19622,7 +20598,7 @@
       <c r="B565" s="21"/>
     </row>
     <row r="566" spans="1:2">
-      <c r="A566" s="62"/>
+      <c r="A566" s="69"/>
       <c r="B566" s="21"/>
     </row>
     <row r="567" spans="1:2">
@@ -19630,7 +20606,7 @@
       <c r="B567" s="21"/>
     </row>
     <row r="568" spans="1:2">
-      <c r="A568" s="62"/>
+      <c r="A568" s="69"/>
       <c r="B568" s="21"/>
     </row>
     <row r="569" spans="1:2">
@@ -19638,7 +20614,7 @@
       <c r="B569" s="21"/>
     </row>
     <row r="570" spans="1:2">
-      <c r="A570" s="62"/>
+      <c r="A570" s="69"/>
       <c r="B570" s="21"/>
     </row>
     <row r="571" spans="1:2">
@@ -19646,7 +20622,7 @@
       <c r="B571" s="21"/>
     </row>
     <row r="572" spans="1:2">
-      <c r="A572" s="62"/>
+      <c r="A572" s="69"/>
       <c r="B572" s="21"/>
     </row>
     <row r="573" spans="1:2">
@@ -19654,7 +20630,7 @@
       <c r="B573" s="21"/>
     </row>
     <row r="574" spans="1:2">
-      <c r="A574" s="62"/>
+      <c r="A574" s="69"/>
       <c r="B574" s="21"/>
     </row>
     <row r="575" spans="1:2">
@@ -19662,7 +20638,7 @@
       <c r="B575" s="21"/>
     </row>
     <row r="576" spans="1:2">
-      <c r="A576" s="62"/>
+      <c r="A576" s="69"/>
       <c r="B576" s="21"/>
     </row>
     <row r="577" spans="1:2">
@@ -19670,7 +20646,7 @@
       <c r="B577" s="21"/>
     </row>
     <row r="578" spans="1:2">
-      <c r="A578" s="62"/>
+      <c r="A578" s="69"/>
       <c r="B578" s="21"/>
     </row>
     <row r="579" spans="1:2">
@@ -19678,7 +20654,7 @@
       <c r="B579" s="21"/>
     </row>
     <row r="580" spans="1:2">
-      <c r="A580" s="62"/>
+      <c r="A580" s="69"/>
       <c r="B580" s="21"/>
     </row>
     <row r="581" spans="1:2">
@@ -19686,7 +20662,7 @@
       <c r="B581" s="21"/>
     </row>
     <row r="582" spans="1:2">
-      <c r="A582" s="62"/>
+      <c r="A582" s="69"/>
       <c r="B582" s="21"/>
     </row>
     <row r="583" spans="1:2">
@@ -19694,7 +20670,7 @@
       <c r="B583" s="21"/>
     </row>
     <row r="584" spans="1:2">
-      <c r="A584" s="62"/>
+      <c r="A584" s="69"/>
       <c r="B584" s="21"/>
     </row>
     <row r="585" spans="1:2">
@@ -19702,7 +20678,7 @@
       <c r="B585" s="21"/>
     </row>
     <row r="586" spans="1:2">
-      <c r="A586" s="62"/>
+      <c r="A586" s="69"/>
       <c r="B586" s="21"/>
     </row>
     <row r="587" spans="1:2">
@@ -19710,7 +20686,7 @@
       <c r="B587" s="21"/>
     </row>
     <row r="588" spans="1:2">
-      <c r="A588" s="62"/>
+      <c r="A588" s="69"/>
       <c r="B588" s="21"/>
     </row>
     <row r="589" spans="1:2">
@@ -19718,7 +20694,7 @@
       <c r="B589" s="21"/>
     </row>
     <row r="590" spans="1:2">
-      <c r="A590" s="62"/>
+      <c r="A590" s="69"/>
       <c r="B590" s="21"/>
     </row>
     <row r="591" spans="1:2">
@@ -19726,7 +20702,7 @@
       <c r="B591" s="21"/>
     </row>
     <row r="592" spans="1:2">
-      <c r="A592" s="62"/>
+      <c r="A592" s="69"/>
       <c r="B592" s="21"/>
     </row>
     <row r="593" spans="1:2">
@@ -19734,7 +20710,7 @@
       <c r="B593" s="15"/>
     </row>
     <row r="594" spans="1:2">
-      <c r="A594" s="62"/>
+      <c r="A594" s="69"/>
       <c r="B594" s="15"/>
     </row>
     <row r="595" spans="1:2">
@@ -19742,7 +20718,7 @@
       <c r="B595" s="15"/>
     </row>
     <row r="596" spans="1:2">
-      <c r="A596" s="62"/>
+      <c r="A596" s="69"/>
       <c r="B596" s="15"/>
     </row>
     <row r="597" spans="1:2">
@@ -19750,7 +20726,7 @@
       <c r="B597" s="15"/>
     </row>
     <row r="598" spans="1:2">
-      <c r="A598" s="62"/>
+      <c r="A598" s="69"/>
       <c r="B598" s="15"/>
     </row>
     <row r="599" spans="1:2">
@@ -19758,7 +20734,7 @@
       <c r="B599" s="15"/>
     </row>
     <row r="600" spans="1:2">
-      <c r="A600" s="62"/>
+      <c r="A600" s="69"/>
       <c r="B600" s="15"/>
     </row>
     <row r="601" spans="1:2">
@@ -19766,7 +20742,7 @@
       <c r="B601" s="15"/>
     </row>
     <row r="602" spans="1:2">
-      <c r="A602" s="62"/>
+      <c r="A602" s="69"/>
       <c r="B602" s="15"/>
     </row>
     <row r="603" spans="1:2">
@@ -19774,7 +20750,7 @@
       <c r="B603" s="15"/>
     </row>
     <row r="604" spans="1:2">
-      <c r="A604" s="62"/>
+      <c r="A604" s="69"/>
       <c r="B604" s="15"/>
     </row>
     <row r="605" spans="1:2">
@@ -19782,7 +20758,7 @@
       <c r="B605" s="15"/>
     </row>
     <row r="606" spans="1:2">
-      <c r="A606" s="62"/>
+      <c r="A606" s="69"/>
       <c r="B606" s="15"/>
     </row>
     <row r="607" spans="1:2">
@@ -19790,7 +20766,7 @@
       <c r="B607" s="15"/>
     </row>
     <row r="608" spans="1:2">
-      <c r="A608" s="62"/>
+      <c r="A608" s="69"/>
       <c r="B608" s="15"/>
     </row>
     <row r="609" spans="1:2">
@@ -19798,7 +20774,7 @@
       <c r="B609" s="15"/>
     </row>
     <row r="610" spans="1:2">
-      <c r="A610" s="62"/>
+      <c r="A610" s="69"/>
       <c r="B610" s="15"/>
     </row>
     <row r="611" spans="1:2">
@@ -19806,7 +20782,7 @@
       <c r="B611" s="15"/>
     </row>
     <row r="612" spans="1:2">
-      <c r="A612" s="62"/>
+      <c r="A612" s="69"/>
       <c r="B612" s="15"/>
     </row>
     <row r="613" spans="1:2">
@@ -19814,7 +20790,7 @@
       <c r="B613" s="15"/>
     </row>
     <row r="614" spans="1:2">
-      <c r="A614" s="62"/>
+      <c r="A614" s="69"/>
       <c r="B614" s="15"/>
     </row>
     <row r="615" spans="1:2">
@@ -19822,7 +20798,7 @@
       <c r="B615" s="15"/>
     </row>
     <row r="616" spans="1:2">
-      <c r="A616" s="62"/>
+      <c r="A616" s="69"/>
       <c r="B616" s="15"/>
     </row>
     <row r="617" spans="1:2">
@@ -19830,431 +20806,431 @@
       <c r="B617" s="15"/>
     </row>
     <row r="618" spans="1:1">
-      <c r="A618" s="63"/>
+      <c r="A618" s="70"/>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" s="12"/>
     </row>
     <row r="620" spans="1:1">
-      <c r="A620" s="63"/>
+      <c r="A620" s="70"/>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" s="12"/>
     </row>
     <row r="622" spans="1:1">
-      <c r="A622" s="63"/>
+      <c r="A622" s="70"/>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" s="12"/>
     </row>
     <row r="624" spans="1:1">
-      <c r="A624" s="63"/>
+      <c r="A624" s="70"/>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" s="12"/>
     </row>
     <row r="626" spans="1:1">
-      <c r="A626" s="63"/>
+      <c r="A626" s="70"/>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" s="12"/>
     </row>
     <row r="628" spans="1:1">
-      <c r="A628" s="63"/>
+      <c r="A628" s="70"/>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" s="12"/>
     </row>
     <row r="630" spans="1:1">
-      <c r="A630" s="63"/>
+      <c r="A630" s="70"/>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" s="12"/>
     </row>
     <row r="632" spans="1:1">
-      <c r="A632" s="63"/>
+      <c r="A632" s="70"/>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" s="12"/>
     </row>
     <row r="634" spans="1:1">
-      <c r="A634" s="63"/>
+      <c r="A634" s="70"/>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" s="12"/>
     </row>
     <row r="636" spans="1:1">
-      <c r="A636" s="63"/>
+      <c r="A636" s="70"/>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" s="12"/>
     </row>
     <row r="638" spans="1:1">
-      <c r="A638" s="63"/>
+      <c r="A638" s="70"/>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" s="12"/>
     </row>
     <row r="640" spans="1:1">
-      <c r="A640" s="63"/>
+      <c r="A640" s="70"/>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" s="12"/>
     </row>
     <row r="642" spans="1:1">
-      <c r="A642" s="63"/>
+      <c r="A642" s="70"/>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" s="12"/>
     </row>
     <row r="644" spans="1:1">
-      <c r="A644" s="63"/>
+      <c r="A644" s="70"/>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" s="12"/>
     </row>
     <row r="646" spans="1:1">
-      <c r="A646" s="63"/>
+      <c r="A646" s="70"/>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" s="12"/>
     </row>
     <row r="648" spans="1:1">
-      <c r="A648" s="63"/>
+      <c r="A648" s="70"/>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" s="12"/>
     </row>
     <row r="650" spans="1:1">
-      <c r="A650" s="63"/>
+      <c r="A650" s="70"/>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" s="12"/>
     </row>
     <row r="652" spans="1:1">
-      <c r="A652" s="63"/>
+      <c r="A652" s="70"/>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" s="12"/>
     </row>
     <row r="654" spans="1:1">
-      <c r="A654" s="63"/>
+      <c r="A654" s="70"/>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" s="12"/>
     </row>
     <row r="656" spans="1:1">
-      <c r="A656" s="63"/>
+      <c r="A656" s="70"/>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" s="12"/>
     </row>
     <row r="658" spans="1:1">
-      <c r="A658" s="63"/>
+      <c r="A658" s="70"/>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" s="12"/>
     </row>
     <row r="660" spans="1:1">
-      <c r="A660" s="63"/>
+      <c r="A660" s="70"/>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" s="12"/>
     </row>
     <row r="662" spans="1:1">
-      <c r="A662" s="63"/>
+      <c r="A662" s="70"/>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" s="12"/>
     </row>
     <row r="664" spans="1:1">
-      <c r="A664" s="63"/>
+      <c r="A664" s="70"/>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" s="12"/>
     </row>
     <row r="666" spans="1:1">
-      <c r="A666" s="63"/>
+      <c r="A666" s="70"/>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" s="12"/>
     </row>
     <row r="668" spans="1:1">
-      <c r="A668" s="63"/>
+      <c r="A668" s="70"/>
     </row>
     <row r="669" spans="1:1">
       <c r="A669" s="12"/>
     </row>
     <row r="670" spans="1:1">
-      <c r="A670" s="63"/>
+      <c r="A670" s="70"/>
     </row>
     <row r="671" spans="1:1">
       <c r="A671" s="12"/>
     </row>
     <row r="672" spans="1:1">
-      <c r="A672" s="63"/>
+      <c r="A672" s="70"/>
     </row>
     <row r="673" spans="1:1">
       <c r="A673" s="12"/>
     </row>
     <row r="674" spans="1:1">
-      <c r="A674" s="63"/>
+      <c r="A674" s="70"/>
     </row>
     <row r="675" spans="1:1">
       <c r="A675" s="12"/>
     </row>
     <row r="676" spans="1:1">
-      <c r="A676" s="63"/>
+      <c r="A676" s="70"/>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" s="12"/>
     </row>
     <row r="678" spans="1:1">
-      <c r="A678" s="63"/>
+      <c r="A678" s="70"/>
     </row>
     <row r="679" spans="1:1">
       <c r="A679" s="12"/>
     </row>
     <row r="680" spans="1:1">
-      <c r="A680" s="63"/>
+      <c r="A680" s="70"/>
     </row>
     <row r="681" spans="1:1">
       <c r="A681" s="12"/>
     </row>
     <row r="682" spans="1:1">
-      <c r="A682" s="63"/>
+      <c r="A682" s="70"/>
     </row>
     <row r="683" spans="1:1">
       <c r="A683" s="12"/>
     </row>
     <row r="684" spans="1:1">
-      <c r="A684" s="63"/>
+      <c r="A684" s="70"/>
     </row>
     <row r="685" spans="1:1">
       <c r="A685" s="12"/>
     </row>
     <row r="686" spans="1:1">
-      <c r="A686" s="63"/>
+      <c r="A686" s="70"/>
     </row>
     <row r="687" spans="1:1">
       <c r="A687" s="12"/>
     </row>
     <row r="688" spans="1:1">
-      <c r="A688" s="63"/>
+      <c r="A688" s="70"/>
     </row>
     <row r="689" spans="1:1">
       <c r="A689" s="12"/>
     </row>
     <row r="690" spans="1:1">
-      <c r="A690" s="63"/>
+      <c r="A690" s="70"/>
     </row>
     <row r="691" spans="1:1">
       <c r="A691" s="12"/>
     </row>
     <row r="692" spans="1:1">
-      <c r="A692" s="63"/>
+      <c r="A692" s="70"/>
     </row>
     <row r="693" spans="1:1">
       <c r="A693" s="12"/>
     </row>
     <row r="694" spans="1:1">
-      <c r="A694" s="63"/>
+      <c r="A694" s="70"/>
     </row>
     <row r="695" spans="1:1">
       <c r="A695" s="12"/>
     </row>
     <row r="696" spans="1:1">
-      <c r="A696" s="63"/>
+      <c r="A696" s="70"/>
     </row>
     <row r="697" spans="1:1">
       <c r="A697" s="12"/>
     </row>
     <row r="698" spans="1:1">
-      <c r="A698" s="63"/>
+      <c r="A698" s="70"/>
     </row>
     <row r="699" spans="1:1">
       <c r="A699" s="12"/>
     </row>
     <row r="700" spans="1:1">
-      <c r="A700" s="63"/>
+      <c r="A700" s="70"/>
     </row>
     <row r="701" spans="1:1">
       <c r="A701" s="12"/>
     </row>
     <row r="702" spans="1:1">
-      <c r="A702" s="63"/>
+      <c r="A702" s="70"/>
     </row>
     <row r="703" spans="1:1">
       <c r="A703" s="12"/>
     </row>
     <row r="704" spans="1:1">
-      <c r="A704" s="63"/>
+      <c r="A704" s="70"/>
     </row>
     <row r="705" spans="1:1">
       <c r="A705" s="12"/>
     </row>
     <row r="706" spans="1:1">
-      <c r="A706" s="63"/>
+      <c r="A706" s="70"/>
     </row>
     <row r="707" spans="1:1">
       <c r="A707" s="12"/>
     </row>
     <row r="708" spans="1:1">
-      <c r="A708" s="63"/>
+      <c r="A708" s="70"/>
     </row>
     <row r="709" spans="1:1">
       <c r="A709" s="12"/>
     </row>
     <row r="710" spans="1:1">
-      <c r="A710" s="63"/>
+      <c r="A710" s="70"/>
     </row>
     <row r="711" spans="1:1">
       <c r="A711" s="12"/>
     </row>
     <row r="712" spans="1:1">
-      <c r="A712" s="63"/>
+      <c r="A712" s="70"/>
     </row>
     <row r="713" spans="1:1">
       <c r="A713" s="12"/>
     </row>
     <row r="714" spans="1:1">
-      <c r="A714" s="63"/>
+      <c r="A714" s="70"/>
     </row>
     <row r="715" spans="1:1">
       <c r="A715" s="12"/>
     </row>
     <row r="716" spans="1:1">
-      <c r="A716" s="63"/>
+      <c r="A716" s="70"/>
     </row>
     <row r="717" spans="1:1">
       <c r="A717" s="12"/>
     </row>
     <row r="718" spans="1:1">
-      <c r="A718" s="63"/>
+      <c r="A718" s="70"/>
     </row>
     <row r="719" spans="1:1">
       <c r="A719" s="12"/>
     </row>
     <row r="720" spans="1:1">
-      <c r="A720" s="63"/>
+      <c r="A720" s="70"/>
     </row>
     <row r="721" spans="1:1">
       <c r="A721" s="12"/>
     </row>
     <row r="722" spans="1:1">
-      <c r="A722" s="63"/>
+      <c r="A722" s="70"/>
     </row>
     <row r="723" spans="1:1">
       <c r="A723" s="12"/>
     </row>
     <row r="724" spans="1:1">
-      <c r="A724" s="63"/>
+      <c r="A724" s="70"/>
     </row>
     <row r="725" spans="1:1">
       <c r="A725" s="12"/>
     </row>
     <row r="726" spans="1:1">
-      <c r="A726" s="63"/>
+      <c r="A726" s="70"/>
     </row>
     <row r="727" spans="1:1">
       <c r="A727" s="12"/>
     </row>
     <row r="728" spans="1:1">
-      <c r="A728" s="63"/>
+      <c r="A728" s="70"/>
     </row>
     <row r="729" spans="1:1">
       <c r="A729" s="12"/>
     </row>
     <row r="730" spans="1:1">
-      <c r="A730" s="63"/>
+      <c r="A730" s="70"/>
     </row>
     <row r="731" spans="1:1">
       <c r="A731" s="12"/>
     </row>
     <row r="732" spans="1:1">
-      <c r="A732" s="63"/>
+      <c r="A732" s="70"/>
     </row>
     <row r="733" spans="1:1">
       <c r="A733" s="12"/>
     </row>
     <row r="734" spans="1:1">
-      <c r="A734" s="63"/>
+      <c r="A734" s="70"/>
     </row>
     <row r="735" spans="1:1">
       <c r="A735" s="12"/>
     </row>
     <row r="736" spans="1:1">
-      <c r="A736" s="63"/>
+      <c r="A736" s="70"/>
     </row>
     <row r="737" spans="1:1">
       <c r="A737" s="12"/>
     </row>
     <row r="738" spans="1:1">
-      <c r="A738" s="63"/>
+      <c r="A738" s="70"/>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" s="12"/>
     </row>
     <row r="740" spans="1:1">
-      <c r="A740" s="63"/>
+      <c r="A740" s="70"/>
     </row>
     <row r="741" spans="1:1">
       <c r="A741" s="12"/>
     </row>
     <row r="742" spans="1:1">
-      <c r="A742" s="63"/>
+      <c r="A742" s="70"/>
     </row>
     <row r="743" spans="1:1">
       <c r="A743" s="12"/>
     </row>
     <row r="744" spans="1:1">
-      <c r="A744" s="63"/>
+      <c r="A744" s="70"/>
     </row>
     <row r="745" spans="1:1">
       <c r="A745" s="12"/>
     </row>
     <row r="746" spans="1:1">
-      <c r="A746" s="63"/>
+      <c r="A746" s="70"/>
     </row>
     <row r="747" spans="1:1">
       <c r="A747" s="12"/>
     </row>
     <row r="748" spans="1:1">
-      <c r="A748" s="63"/>
+      <c r="A748" s="70"/>
     </row>
     <row r="749" spans="1:1">
       <c r="A749" s="12"/>
     </row>
     <row r="750" spans="1:1">
-      <c r="A750" s="63"/>
+      <c r="A750" s="70"/>
     </row>
     <row r="751" spans="1:1">
       <c r="A751" s="12"/>
     </row>
     <row r="752" spans="1:1">
-      <c r="A752" s="63"/>
+      <c r="A752" s="70"/>
     </row>
     <row r="753" spans="1:1">
       <c r="A753" s="12"/>
     </row>
     <row r="754" spans="1:1">
-      <c r="A754" s="63"/>
+      <c r="A754" s="70"/>
     </row>
     <row r="755" spans="1:1">
       <c r="A755" s="12"/>
     </row>
     <row r="756" spans="1:1">
-      <c r="A756" s="63"/>
+      <c r="A756" s="70"/>
     </row>
     <row r="757" spans="1:1">
       <c r="A757" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C163 C179 C198 C199 C200 C216 C227 C228 C229 C230 C231 C232 C233 C234 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C257 C258 C265 C266 C267 C268 C269 C270 C271 C272 C273 C274 C275 C276 C277 C278 C279 C280 C281 C282 C283 C284 C285 C286 C287 C288 C289 C290 C291 C292 C293 C294 C295 C296 C297 C298 C299 C300 C301 C302 C303 C304 C305 C306 C307 C308 C309 C310 C311 C312 C313 C314 C315 C316 C4:C17 C18:C23 C24:C34 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C146 C147:C162 C164:C178 C180:C197 C201:C215 C217:C226 C259:C261 C262:C264 C317:C1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C163 C179 C198 C199 C200 C216 C227 C228 C229 C230 C231 C232 C233 C234 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C257 C258 C265 C266 C267 C268 C269 C270 C271 C272 C273 C274 C275 C276 C277 C278 C279 C280 C281 C282 C283 C284 C285 C286 C287 C288 C289 C290 C291 C292 C293 C294 C295 C296 C297 C298 C299 C300 C301 C302 C4:C17 C18:C23 C24:C34 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C146 C147:C162 C164:C178 C180:C197 C201:C215 C217:C226 C259:C261 C262:C264 C303:C313 C314:C319 C320:C1048576">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D18 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D60 D71 D84 D85 D86 D106 D146 D163 D179 D198 D199 D200 D216 D227 D228 D229 D235 D236 D237 D238 D239 D240 D241 D242 D243 D244 D245 D246 D247 D248 D249 D250 D251 D252 D253 D254 D255 D256 D257 D258 D259 D265 D266 D267 D268 D269 D270 D271 D272 D273 D274 D275 D276 D277 D278 D279 D280 D281 D282 D283 D284 D285 D286 D287 D288 D289 D290 D291 D292 D293 D294 D295 D296 D297 D298 D299 D300 D301 D302 D303 D304 D305 D306 D307 D308 D309 D310 D311 D312 D313 D314 D315 D316 D4:D17 D19:D22 D23:D35 D49:D59 D61:D70 D72:D81 D82:D83 D87:D105 D107:D117 D118:D137 D138:D145 D147:D162 D164:D178 D180:D197 D201:D215 D217:D226 D230:D234 D260:D264 D317:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D18 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D60 D71 D84 D85 D86 D106 D146 D163 D179 D198 D199 D200 D216 D227 D228 D229 D235 D236 D237 D238 D239 D240 D241 D242 D243 D244 D245 D246 D247 D248 D249 D250 D251 D252 D253 D254 D255 D256 D257 D258 D259 D265 D266 D267 D268 D269 D270 D271 D272 D273 D274 D275 D276 D277 D278 D279 D280 D281 D282 D283 D284 D285 D286 D287 D288 D289 D290 D291 D292 D293 D294 D295 D296 D297 D298 D299 D300 D301 D302 D4:D17 D19:D22 D23:D35 D49:D59 D61:D70 D72:D81 D82:D83 D87:D105 D107:D117 D118:D137 D138:D145 D147:D162 D164:D178 D180:D197 D201:D215 D217:D226 D230:D234 D260:D264 D303:D313 D314:D319 D320:D1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20283,13 +21259,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>701</v>
+        <v>736</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>702</v>
+        <v>737</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>703</v>
+        <v>738</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -20300,7 +21276,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>704</v>
+        <v>739</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -20311,7 +21287,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>705</v>
+        <v>740</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -20322,7 +21298,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>706</v>
+        <v>741</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -20338,7 +21314,7 @@
         <v>43050</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>707</v>
+        <v>742</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -20349,7 +21325,7 @@
         <v>43064</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>705</v>
+        <v>740</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -20365,7 +21341,7 @@
         <v>43079</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>708</v>
+        <v>743</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -20376,7 +21352,7 @@
         <v>43085</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>709</v>
+        <v>744</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -20387,7 +21363,7 @@
         <v>43092</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>710</v>
+        <v>745</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -20398,7 +21374,7 @@
         <v>43099</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>711</v>
+        <v>746</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -20409,7 +21385,7 @@
         <v>43100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>712</v>
+        <v>747</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -20425,7 +21401,7 @@
         <v>43107</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>705</v>
+        <v>740</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -20436,7 +21412,7 @@
         <v>43113</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>713</v>
+        <v>748</v>
       </c>
     </row>
     <row r="17" spans="1:3">

--- a/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -2364,6 +2364,135 @@
   </si>
   <si>
     <t>娄加琴</t>
+  </si>
+  <si>
+    <t>悸动(宜昌CBD西陵一路店)</t>
+  </si>
+  <si>
+    <t>王丽丽</t>
+  </si>
+  <si>
+    <t>悸动(无锡蠡湖市场店)</t>
+  </si>
+  <si>
+    <t>汪冉</t>
+  </si>
+  <si>
+    <t>悸动(九方巨亿广场店)</t>
+  </si>
+  <si>
+    <t>范梦玉</t>
+  </si>
+  <si>
+    <t>悸动(沭阳名品店)</t>
+  </si>
+  <si>
+    <t>徐新国</t>
+  </si>
+  <si>
+    <t>湖南</t>
+  </si>
+  <si>
+    <t>悸动(靖州潩溪园店)</t>
+  </si>
+  <si>
+    <t>侗明心</t>
+  </si>
+  <si>
+    <t>悸动(延安中心街店)</t>
+  </si>
+  <si>
+    <t>张玉</t>
+  </si>
+  <si>
+    <t>悸动(海宁华润万家店)</t>
+  </si>
+  <si>
+    <t>缪剑超</t>
+  </si>
+  <si>
+    <t>江阴</t>
+  </si>
+  <si>
+    <t>悸动(江阴文化中路店)</t>
+  </si>
+  <si>
+    <t>徐锦鹏</t>
+  </si>
+  <si>
+    <t>悸动(马鞍山秀山店)</t>
+  </si>
+  <si>
+    <t>0555-5222277</t>
+  </si>
+  <si>
+    <t>悸动(合肥融侨里店)</t>
+  </si>
+  <si>
+    <t>鲁道迪</t>
+  </si>
+  <si>
+    <t>悸动(恩施东风大道店)</t>
+  </si>
+  <si>
+    <t>向光绪</t>
+  </si>
+  <si>
+    <t>悸动(天津恒隆广场店)</t>
+  </si>
+  <si>
+    <t>梁芝</t>
+  </si>
+  <si>
+    <t>悸动(常州鸣新中路店)</t>
+  </si>
+  <si>
+    <t>倪建华</t>
+  </si>
+  <si>
+    <t>悸动(常州勤业店)</t>
+  </si>
+  <si>
+    <t>张林富</t>
+  </si>
+  <si>
+    <t>邳州</t>
+  </si>
+  <si>
+    <t>悸动(邳州新城第一街店)</t>
+  </si>
+  <si>
+    <t>李冉</t>
+  </si>
+  <si>
+    <t>悸动(南通福成路店)</t>
+  </si>
+  <si>
+    <t>王顺芳</t>
+  </si>
+  <si>
+    <t>悸动(嘉兴车站南路店)</t>
+  </si>
+  <si>
+    <t>肖生虎</t>
+  </si>
+  <si>
+    <t>悸动(江苏沭阳蓝天店)</t>
+  </si>
+  <si>
+    <t>贾留洋</t>
+  </si>
+  <si>
+    <t>悸动(海盐沈荡店)</t>
+  </si>
+  <si>
+    <t>陆东阳</t>
+  </si>
+  <si>
+    <t>悸动(昆山锦溪古镇店)</t>
+  </si>
+  <si>
+    <t>黄莹洁</t>
   </si>
   <si>
     <t>姓名</t>
@@ -2411,9 +2540,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
@@ -2507,6 +2636,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -2514,9 +2663,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2529,44 +2677,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2588,33 +2700,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2625,9 +2715,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2641,25 +2762,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="38">
@@ -2719,7 +2848,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2731,31 +2860,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2785,7 +2896,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2797,13 +2968,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2821,49 +2986,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2875,13 +3004,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3252,6 +3381,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3282,17 +3420,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3314,18 +3446,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3338,27 +3478,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3370,146 +3499,146 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3693,25 +3822,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4224,440 +4350,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="105" t="s">
+      <c r="I2" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="106" t="s">
+      <c r="J2" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="107" t="s">
+      <c r="K2" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="108" t="s">
+      <c r="L2" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="109" t="s">
+      <c r="M2" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="110" t="s">
+      <c r="N2" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="75"/>
-      <c r="B3" s="82" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85">
+      <c r="D3" s="83"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86">
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="112"/>
-      <c r="K3" s="113" t="e">
+      <c r="J3" s="111"/>
+      <c r="K3" s="112" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="114">
+      <c r="L3" s="113">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="115">
+      <c r="M3" s="114">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="116" t="e">
+      <c r="N3" s="115" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="89" t="s">
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91">
+      <c r="D4" s="89"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="92"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="92">
+      <c r="G4" s="91"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="117"/>
-      <c r="K4" s="113" t="e">
+      <c r="J4" s="116"/>
+      <c r="K4" s="112" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="114">
+      <c r="L4" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="115">
+      <c r="M4" s="114">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="116" t="e">
+      <c r="N4" s="115" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="111"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="110"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="87"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="89" t="s">
+      <c r="A5" s="86"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91">
+      <c r="D5" s="89"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="92"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="92">
+      <c r="G5" s="91"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="117"/>
-      <c r="K5" s="113" t="e">
+      <c r="J5" s="116"/>
+      <c r="K5" s="112" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="114">
+      <c r="L5" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="115">
+      <c r="M5" s="114">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="116" t="e">
+      <c r="N5" s="115" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="111"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="110"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="87"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="89" t="s">
+      <c r="A6" s="86"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="90"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91">
+      <c r="D6" s="89"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="92"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="92">
+      <c r="G6" s="91"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="117"/>
-      <c r="K6" s="113" t="e">
+      <c r="J6" s="116"/>
+      <c r="K6" s="112" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="114">
+      <c r="L6" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="115">
+      <c r="M6" s="114">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="116" t="e">
+      <c r="N6" s="115" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
+      <c r="O6" s="110"/>
+      <c r="P6" s="110"/>
+      <c r="Q6" s="110"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="87"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="89" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="90"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91">
+      <c r="A7" s="86"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="89"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="92">
+      <c r="G7" s="91"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="117"/>
-      <c r="K7" s="113" t="e">
+      <c r="J7" s="116"/>
+      <c r="K7" s="112" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="114">
+      <c r="L7" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="115">
+      <c r="M7" s="114">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="116" t="e">
+      <c r="N7" s="115" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="110"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="87"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="89" t="s">
+      <c r="A8" s="86"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="90"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91">
+      <c r="D8" s="89"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="92"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="92">
+      <c r="G8" s="91"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="117"/>
-      <c r="K8" s="113" t="e">
+      <c r="J8" s="116"/>
+      <c r="K8" s="112" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="114">
+      <c r="L8" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="115">
+      <c r="M8" s="114">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="116" t="e">
+      <c r="N8" s="115" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="110"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="87"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="89" t="s">
+      <c r="A9" s="86"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="90"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91">
+      <c r="D9" s="89"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="92"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="92">
+      <c r="G9" s="91"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="117"/>
-      <c r="K9" s="113" t="e">
+      <c r="J9" s="116"/>
+      <c r="K9" s="112" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="114">
+      <c r="L9" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="115">
+      <c r="M9" s="114">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="116" t="e">
+      <c r="N9" s="115" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
+      <c r="O9" s="110"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="110"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="87"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="93" t="s">
+      <c r="A10" s="86"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="94"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="96">
+      <c r="D10" s="93"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="95">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="97"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="97">
+      <c r="G10" s="96"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="118"/>
-      <c r="K10" s="119" t="e">
+      <c r="J10" s="117"/>
+      <c r="K10" s="118" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="120">
+      <c r="L10" s="119">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="121">
+      <c r="M10" s="120">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="122" t="e">
+      <c r="N10" s="121" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="111"/>
+      <c r="O10" s="110"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="110"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="99"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="101" t="s">
+      <c r="A11" s="98"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="102">
+      <c r="D11" s="101">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="102">
+      <c r="E11" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="103">
+      <c r="F11" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="102">
+      <c r="G11" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="102">
+      <c r="H11" s="101">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="103">
+      <c r="I11" s="102">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="102">
+      <c r="J11" s="101">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="123" t="e">
+      <c r="K11" s="122" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="103">
+      <c r="L11" s="102">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="103">
+      <c r="M11" s="102">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="124" t="e">
+      <c r="N11" s="123" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4676,9 +4802,9 @@
   <dimension ref="A1:P757"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E337" sqref="E337"/>
+      <selection pane="bottomLeft" activeCell="D340" sqref="D340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8952,7 +9078,7 @@
       <c r="N95" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O95" s="125" t="s">
+      <c r="O95" s="124" t="s">
         <v>270</v>
       </c>
       <c r="P95" s="15" t="s">
@@ -19766,46 +19892,46 @@
       <c r="B325" s="19">
         <v>5</v>
       </c>
-      <c r="C325" s="63">
+      <c r="C325" s="18">
         <v>43129</v>
       </c>
-      <c r="D325" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="E325" s="65" t="s">
+      <c r="D325" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E325" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="F325" s="65" t="s">
+      <c r="F325" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G325" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="H325" s="67">
+      <c r="G325" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H325" s="60">
         <v>76128732</v>
       </c>
-      <c r="I325" s="69" t="s">
+      <c r="I325" s="16" t="s">
         <v>746</v>
       </c>
-      <c r="J325" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="K325" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L325" s="65">
-        <v>17721436606</v>
-      </c>
-      <c r="M325" s="70" t="s">
+      <c r="J325" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K325" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L325" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M325" s="16" t="s">
         <v>747</v>
       </c>
-      <c r="N325" s="65" t="s">
+      <c r="N325" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O325" s="66">
+      <c r="O325" s="16">
         <v>15985893342</v>
       </c>
-      <c r="P325" s="65" t="s">
+      <c r="P325" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -19816,46 +19942,46 @@
       <c r="B326" s="19">
         <v>5</v>
       </c>
-      <c r="C326" s="63">
+      <c r="C326" s="18">
         <v>43129</v>
       </c>
-      <c r="D326" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="E326" s="65" t="s">
+      <c r="D326" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E326" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="F326" s="65" t="s">
+      <c r="F326" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G326" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="H326" s="68">
+      <c r="G326" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H326" s="42">
         <v>76129331</v>
       </c>
-      <c r="I326" s="69" t="s">
+      <c r="I326" s="16" t="s">
         <v>728</v>
       </c>
-      <c r="J326" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="K326" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L326" s="65">
-        <v>17721436606</v>
-      </c>
-      <c r="M326" s="68" t="s">
+      <c r="J326" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K326" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L326" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M326" s="42" t="s">
         <v>729</v>
       </c>
-      <c r="N326" s="65" t="s">
+      <c r="N326" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O326" s="65">
+      <c r="O326" s="15">
         <v>13918036758</v>
       </c>
-      <c r="P326" s="65" t="s">
+      <c r="P326" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -19866,46 +19992,46 @@
       <c r="B327" s="19">
         <v>5</v>
       </c>
-      <c r="C327" s="63">
+      <c r="C327" s="18">
         <v>43129</v>
       </c>
-      <c r="D327" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="E327" s="65" t="s">
+      <c r="D327" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E327" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="F327" s="65" t="s">
+      <c r="F327" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G327" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="H327" s="68">
+      <c r="G327" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H327" s="42">
         <v>76129327</v>
       </c>
-      <c r="I327" s="69" t="s">
+      <c r="I327" s="16" t="s">
         <v>748</v>
       </c>
-      <c r="J327" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="K327" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L327" s="65">
-        <v>17721436606</v>
-      </c>
-      <c r="M327" s="70" t="s">
+      <c r="J327" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K327" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L327" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M327" s="16" t="s">
         <v>749</v>
       </c>
-      <c r="N327" s="65" t="s">
+      <c r="N327" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O327" s="65">
+      <c r="O327" s="15">
         <v>18972397755</v>
       </c>
-      <c r="P327" s="65" t="s">
+      <c r="P327" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -19916,46 +20042,46 @@
       <c r="B328" s="19">
         <v>5</v>
       </c>
-      <c r="C328" s="63">
+      <c r="C328" s="18">
         <v>43129</v>
       </c>
-      <c r="D328" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="E328" s="65" t="s">
+      <c r="D328" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E328" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="F328" s="65" t="s">
+      <c r="F328" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G328" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="H328" s="68">
+      <c r="G328" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H328" s="42">
         <v>76129329</v>
       </c>
-      <c r="I328" s="69" t="s">
+      <c r="I328" s="16" t="s">
         <v>750</v>
       </c>
-      <c r="J328" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="K328" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L328" s="65">
-        <v>17721436606</v>
-      </c>
-      <c r="M328" s="70" t="s">
+      <c r="J328" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K328" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L328" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M328" s="16" t="s">
         <v>751</v>
       </c>
-      <c r="N328" s="65" t="s">
+      <c r="N328" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O328" s="65">
+      <c r="O328" s="15">
         <v>13584003156</v>
       </c>
-      <c r="P328" s="65" t="s">
+      <c r="P328" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -19966,46 +20092,46 @@
       <c r="B329" s="19">
         <v>5</v>
       </c>
-      <c r="C329" s="63">
+      <c r="C329" s="18">
         <v>43129</v>
       </c>
-      <c r="D329" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="E329" s="65" t="s">
+      <c r="D329" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E329" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="F329" s="65" t="s">
+      <c r="F329" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G329" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="H329" s="68">
+      <c r="G329" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H329" s="42">
         <v>76129330</v>
       </c>
-      <c r="I329" s="69" t="s">
+      <c r="I329" s="16" t="s">
         <v>752</v>
       </c>
-      <c r="J329" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="K329" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L329" s="65">
-        <v>17721436606</v>
-      </c>
-      <c r="M329" s="70" t="s">
+      <c r="J329" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K329" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L329" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M329" s="16" t="s">
         <v>753</v>
       </c>
-      <c r="N329" s="65" t="s">
+      <c r="N329" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O329" s="65">
+      <c r="O329" s="15">
         <v>13585136783</v>
       </c>
-      <c r="P329" s="65" t="s">
+      <c r="P329" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -20016,46 +20142,46 @@
       <c r="B330" s="19">
         <v>5</v>
       </c>
-      <c r="C330" s="63">
+      <c r="C330" s="18">
         <v>43129</v>
       </c>
-      <c r="D330" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="E330" s="65" t="s">
+      <c r="D330" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E330" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="F330" s="65" t="s">
+      <c r="F330" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G330" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="H330" s="68">
+      <c r="G330" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H330" s="42">
         <v>76129326</v>
       </c>
-      <c r="I330" s="69" t="s">
+      <c r="I330" s="16" t="s">
         <v>754</v>
       </c>
-      <c r="J330" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="K330" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L330" s="65">
-        <v>17721436606</v>
-      </c>
-      <c r="M330" s="70" t="s">
+      <c r="J330" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K330" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L330" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M330" s="16" t="s">
         <v>755</v>
       </c>
-      <c r="N330" s="65" t="s">
+      <c r="N330" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O330" s="65">
+      <c r="O330" s="15">
         <v>17721044455</v>
       </c>
-      <c r="P330" s="65" t="s">
+      <c r="P330" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -20066,46 +20192,46 @@
       <c r="B331" s="19">
         <v>5</v>
       </c>
-      <c r="C331" s="63">
+      <c r="C331" s="18">
         <v>43129</v>
       </c>
-      <c r="D331" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="E331" s="65" t="s">
+      <c r="D331" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E331" s="15" t="s">
         <v>412</v>
       </c>
-      <c r="F331" s="65" t="s">
+      <c r="F331" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G331" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="H331" s="68">
+      <c r="G331" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H331" s="42">
         <v>76129325</v>
       </c>
-      <c r="I331" s="69" t="s">
+      <c r="I331" s="16" t="s">
         <v>756</v>
       </c>
-      <c r="J331" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="K331" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L331" s="65">
-        <v>17721436606</v>
-      </c>
-      <c r="M331" s="70" t="s">
+      <c r="J331" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K331" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L331" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M331" s="16" t="s">
         <v>757</v>
       </c>
-      <c r="N331" s="65" t="s">
+      <c r="N331" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O331" s="65">
+      <c r="O331" s="15">
         <v>13626062224</v>
       </c>
-      <c r="P331" s="65" t="s">
+      <c r="P331" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -20116,46 +20242,46 @@
       <c r="B332" s="19">
         <v>5</v>
       </c>
-      <c r="C332" s="63">
+      <c r="C332" s="18">
         <v>43129</v>
       </c>
-      <c r="D332" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="E332" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="F332" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="G332" s="68" t="s">
+      <c r="D332" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E332" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F332" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G332" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="H332" s="69">
+      <c r="H332" s="16">
         <v>76128287</v>
       </c>
-      <c r="I332" s="68" t="s">
+      <c r="I332" s="42" t="s">
         <v>758</v>
       </c>
-      <c r="J332" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="K332" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L332" s="65">
-        <v>17721436606</v>
-      </c>
-      <c r="M332" s="68" t="s">
+      <c r="J332" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K332" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L332" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M332" s="42" t="s">
         <v>759</v>
       </c>
-      <c r="N332" s="65" t="s">
+      <c r="N332" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O332" s="68">
+      <c r="O332" s="42">
         <v>18608691359</v>
       </c>
-      <c r="P332" s="65" t="s">
+      <c r="P332" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -20166,46 +20292,46 @@
       <c r="B333" s="19">
         <v>5</v>
       </c>
-      <c r="C333" s="63">
+      <c r="C333" s="18">
         <v>43129</v>
       </c>
-      <c r="D333" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="E333" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="F333" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="G333" s="68" t="s">
+      <c r="D333" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E333" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F333" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G333" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="H333" s="69">
+      <c r="H333" s="16">
         <v>76128355</v>
       </c>
-      <c r="I333" s="68" t="s">
+      <c r="I333" s="42" t="s">
         <v>760</v>
       </c>
-      <c r="J333" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="K333" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L333" s="65">
-        <v>17721436606</v>
-      </c>
-      <c r="M333" s="68" t="s">
+      <c r="J333" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K333" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L333" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M333" s="42" t="s">
         <v>761</v>
       </c>
-      <c r="N333" s="65" t="s">
+      <c r="N333" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O333" s="68">
+      <c r="O333" s="42">
         <v>15671501001</v>
       </c>
-      <c r="P333" s="65" t="s">
+      <c r="P333" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -20216,46 +20342,46 @@
       <c r="B334" s="19">
         <v>5</v>
       </c>
-      <c r="C334" s="63">
+      <c r="C334" s="18">
         <v>43129</v>
       </c>
-      <c r="D334" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="E334" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="F334" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="G334" s="68" t="s">
+      <c r="D334" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E334" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F334" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G334" s="42" t="s">
         <v>328</v>
       </c>
-      <c r="H334" s="69">
+      <c r="H334" s="16">
         <v>76128708</v>
       </c>
-      <c r="I334" s="68" t="s">
+      <c r="I334" s="42" t="s">
         <v>762</v>
       </c>
-      <c r="J334" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="K334" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L334" s="65">
-        <v>17721436606</v>
-      </c>
-      <c r="M334" s="68" t="s">
+      <c r="J334" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K334" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L334" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M334" s="42" t="s">
         <v>552</v>
       </c>
-      <c r="N334" s="65" t="s">
+      <c r="N334" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O334" s="68">
+      <c r="O334" s="42">
         <v>13815759449</v>
       </c>
-      <c r="P334" s="65" t="s">
+      <c r="P334" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -20266,46 +20392,46 @@
       <c r="B335" s="19">
         <v>5</v>
       </c>
-      <c r="C335" s="63">
+      <c r="C335" s="18">
         <v>43129</v>
       </c>
-      <c r="D335" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="E335" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="F335" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="G335" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="H335" s="69">
+      <c r="D335" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E335" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F335" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G335" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H335" s="16">
         <v>76129279</v>
       </c>
-      <c r="I335" s="68" t="s">
+      <c r="I335" s="42" t="s">
         <v>763</v>
       </c>
-      <c r="J335" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="K335" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L335" s="65">
-        <v>17721436606</v>
-      </c>
-      <c r="M335" s="68" t="s">
+      <c r="J335" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K335" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L335" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M335" s="42" t="s">
         <v>764</v>
       </c>
-      <c r="N335" s="65" t="s">
+      <c r="N335" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O335" s="68">
+      <c r="O335" s="42">
         <v>13166257787</v>
       </c>
-      <c r="P335" s="65" t="s">
+      <c r="P335" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -20316,46 +20442,46 @@
       <c r="B336" s="19">
         <v>5</v>
       </c>
-      <c r="C336" s="63">
+      <c r="C336" s="18">
         <v>43129</v>
       </c>
-      <c r="D336" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="E336" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="F336" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="G336" s="68" t="s">
+      <c r="D336" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E336" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F336" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G336" s="42" t="s">
         <v>565</v>
       </c>
-      <c r="H336" s="69">
+      <c r="H336" s="16">
         <v>76129282</v>
       </c>
-      <c r="I336" s="68" t="s">
+      <c r="I336" s="42" t="s">
         <v>765</v>
       </c>
-      <c r="J336" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="K336" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L336" s="65">
-        <v>17721436606</v>
-      </c>
-      <c r="M336" s="68" t="s">
+      <c r="J336" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K336" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L336" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M336" s="42" t="s">
         <v>766</v>
       </c>
-      <c r="N336" s="65" t="s">
+      <c r="N336" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O336" s="68">
+      <c r="O336" s="42">
         <v>17856032077</v>
       </c>
-      <c r="P336" s="65" t="s">
+      <c r="P336" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -20365,104 +20491,1004 @@
       <c r="P337" s="8"/>
     </row>
     <row r="338" spans="1:16">
-      <c r="A338" s="22"/>
-      <c r="B338" s="21"/>
-      <c r="P338" s="8"/>
+      <c r="A338" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B338" s="19">
+        <v>9</v>
+      </c>
+      <c r="C338" s="64">
+        <v>43155</v>
+      </c>
+      <c r="D338" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="E338" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F338" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="G338" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="H338" s="67">
+        <v>76129833</v>
+      </c>
+      <c r="I338" s="66" t="s">
+        <v>767</v>
+      </c>
+      <c r="J338" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K338" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L338" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M338" s="66" t="s">
+        <v>768</v>
+      </c>
+      <c r="N338" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O338" s="66">
+        <v>18607207743</v>
+      </c>
+      <c r="P338" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="339" spans="1:16">
-      <c r="A339" s="22"/>
-      <c r="B339" s="21"/>
-      <c r="P339" s="8"/>
+      <c r="A339" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B339" s="19">
+        <v>9</v>
+      </c>
+      <c r="C339" s="64">
+        <v>43155</v>
+      </c>
+      <c r="D339" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="E339" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F339" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="G339" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="H339" s="67">
+        <v>76129906</v>
+      </c>
+      <c r="I339" s="66" t="s">
+        <v>769</v>
+      </c>
+      <c r="J339" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K339" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L339" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M339" s="66" t="s">
+        <v>770</v>
+      </c>
+      <c r="N339" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O339" s="66">
+        <v>18801225817</v>
+      </c>
+      <c r="P339" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="340" spans="1:16">
-      <c r="A340" s="22"/>
-      <c r="B340" s="21"/>
-      <c r="P340" s="8"/>
+      <c r="A340" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B340" s="19">
+        <v>9</v>
+      </c>
+      <c r="C340" s="64">
+        <v>43155</v>
+      </c>
+      <c r="D340" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="E340" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F340" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="G340" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="H340" s="67">
+        <v>76129979</v>
+      </c>
+      <c r="I340" s="66" t="s">
+        <v>771</v>
+      </c>
+      <c r="J340" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K340" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L340" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M340" s="66" t="s">
+        <v>772</v>
+      </c>
+      <c r="N340" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O340" s="66">
+        <v>13767994963</v>
+      </c>
+      <c r="P340" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="341" spans="1:16">
-      <c r="A341" s="22"/>
-      <c r="B341" s="21"/>
-      <c r="P341" s="8"/>
+      <c r="A341" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B341" s="19">
+        <v>9</v>
+      </c>
+      <c r="C341" s="64">
+        <v>43155</v>
+      </c>
+      <c r="D341" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="E341" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F341" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="G341" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="H341" s="67">
+        <v>76130253</v>
+      </c>
+      <c r="I341" s="66" t="s">
+        <v>773</v>
+      </c>
+      <c r="J341" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K341" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L341" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M341" s="66" t="s">
+        <v>774</v>
+      </c>
+      <c r="N341" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O341" s="66">
+        <v>17805280000</v>
+      </c>
+      <c r="P341" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="342" spans="1:16">
-      <c r="A342" s="22"/>
-      <c r="B342" s="21"/>
-      <c r="P342" s="8"/>
+      <c r="A342" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B342" s="19">
+        <v>9</v>
+      </c>
+      <c r="C342" s="64">
+        <v>43155</v>
+      </c>
+      <c r="D342" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="E342" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F342" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="G342" s="66" t="s">
+        <v>775</v>
+      </c>
+      <c r="H342" s="66">
+        <v>76130532</v>
+      </c>
+      <c r="I342" s="66" t="s">
+        <v>776</v>
+      </c>
+      <c r="J342" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K342" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L342" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M342" s="66" t="s">
+        <v>777</v>
+      </c>
+      <c r="N342" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O342" s="66">
+        <v>15003661661</v>
+      </c>
+      <c r="P342" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="343" spans="1:16">
-      <c r="A343" s="22"/>
-      <c r="B343" s="21"/>
-      <c r="P343" s="8"/>
+      <c r="A343" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B343" s="19">
+        <v>9</v>
+      </c>
+      <c r="C343" s="64">
+        <v>43155</v>
+      </c>
+      <c r="D343" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="E343" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F343" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="G343" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="H343" s="66">
+        <v>76130587</v>
+      </c>
+      <c r="I343" s="66" t="s">
+        <v>778</v>
+      </c>
+      <c r="J343" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K343" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L343" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M343" s="66" t="s">
+        <v>779</v>
+      </c>
+      <c r="N343" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O343" s="66">
+        <v>13098050068</v>
+      </c>
+      <c r="P343" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="344" spans="1:16">
-      <c r="A344" s="22"/>
-      <c r="B344" s="21"/>
-      <c r="P344" s="8"/>
+      <c r="A344" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B344" s="19">
+        <v>9</v>
+      </c>
+      <c r="C344" s="64">
+        <v>43155</v>
+      </c>
+      <c r="D344" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="E344" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F344" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="G344" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="H344" s="66">
+        <v>76130598</v>
+      </c>
+      <c r="I344" s="66" t="s">
+        <v>780</v>
+      </c>
+      <c r="J344" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K344" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L344" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M344" s="66" t="s">
+        <v>781</v>
+      </c>
+      <c r="N344" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O344" s="66">
+        <v>13165819976</v>
+      </c>
+      <c r="P344" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="345" spans="1:16">
-      <c r="A345" s="22"/>
-      <c r="B345" s="21"/>
-      <c r="P345" s="8"/>
+      <c r="A345" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B345" s="19">
+        <v>9</v>
+      </c>
+      <c r="C345" s="64">
+        <v>43155</v>
+      </c>
+      <c r="D345" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="E345" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F345" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="G345" s="66" t="s">
+        <v>782</v>
+      </c>
+      <c r="H345" s="66">
+        <v>76130603</v>
+      </c>
+      <c r="I345" s="66" t="s">
+        <v>783</v>
+      </c>
+      <c r="J345" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K345" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L345" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M345" s="66" t="s">
+        <v>784</v>
+      </c>
+      <c r="N345" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O345" s="66">
+        <v>13861605454</v>
+      </c>
+      <c r="P345" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="346" spans="1:16">
-      <c r="A346" s="22"/>
-      <c r="B346" s="21"/>
-      <c r="P346" s="8"/>
+      <c r="A346" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B346" s="19">
+        <v>9</v>
+      </c>
+      <c r="C346" s="64">
+        <v>43155</v>
+      </c>
+      <c r="D346" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="E346" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F346" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="G346" s="66" t="s">
+        <v>671</v>
+      </c>
+      <c r="H346" s="66">
+        <v>76130656</v>
+      </c>
+      <c r="I346" s="66" t="s">
+        <v>785</v>
+      </c>
+      <c r="J346" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K346" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L346" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M346" s="66" t="s">
+        <v>477</v>
+      </c>
+      <c r="N346" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O346" s="66" t="s">
+        <v>786</v>
+      </c>
+      <c r="P346" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="347" spans="1:16">
-      <c r="A347" s="22"/>
-      <c r="B347" s="21"/>
-      <c r="P347" s="8"/>
+      <c r="A347" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B347" s="19">
+        <v>9</v>
+      </c>
+      <c r="C347" s="64">
+        <v>43155</v>
+      </c>
+      <c r="D347" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="E347" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F347" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="G347" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="H347" s="66">
+        <v>76130667</v>
+      </c>
+      <c r="I347" s="66" t="s">
+        <v>787</v>
+      </c>
+      <c r="J347" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K347" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L347" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M347" s="66" t="s">
+        <v>788</v>
+      </c>
+      <c r="N347" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O347" s="66">
+        <v>17756592077</v>
+      </c>
+      <c r="P347" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="348" spans="1:16">
-      <c r="A348" s="22"/>
-      <c r="B348" s="21"/>
-      <c r="P348" s="8"/>
+      <c r="A348" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B348" s="19">
+        <v>9</v>
+      </c>
+      <c r="C348" s="64">
+        <v>43155</v>
+      </c>
+      <c r="D348" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="E348" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F348" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="G348" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="H348" s="66">
+        <v>76130777</v>
+      </c>
+      <c r="I348" s="66" t="s">
+        <v>789</v>
+      </c>
+      <c r="J348" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K348" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L348" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M348" s="66" t="s">
+        <v>790</v>
+      </c>
+      <c r="N348" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O348" s="66">
+        <v>13377966444</v>
+      </c>
+      <c r="P348" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="349" spans="1:16">
-      <c r="A349" s="22"/>
-      <c r="B349" s="21"/>
-      <c r="P349" s="8"/>
+      <c r="A349" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B349" s="19">
+        <v>9</v>
+      </c>
+      <c r="C349" s="64">
+        <v>43155</v>
+      </c>
+      <c r="D349" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="E349" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F349" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="G349" s="66" t="s">
+        <v>512</v>
+      </c>
+      <c r="H349" s="66">
+        <v>76130787</v>
+      </c>
+      <c r="I349" s="66" t="s">
+        <v>791</v>
+      </c>
+      <c r="J349" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K349" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L349" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M349" s="66" t="s">
+        <v>792</v>
+      </c>
+      <c r="N349" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O349" s="66">
+        <v>13820801013</v>
+      </c>
+      <c r="P349" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="350" spans="1:16">
-      <c r="A350" s="22"/>
-      <c r="B350" s="21"/>
-      <c r="P350" s="8"/>
+      <c r="A350" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B350" s="19">
+        <v>9</v>
+      </c>
+      <c r="C350" s="64">
+        <v>43155</v>
+      </c>
+      <c r="D350" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="E350" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F350" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="G350" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="H350" s="66">
+        <v>76130826</v>
+      </c>
+      <c r="I350" s="66" t="s">
+        <v>793</v>
+      </c>
+      <c r="J350" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K350" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L350" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M350" s="66" t="s">
+        <v>794</v>
+      </c>
+      <c r="N350" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O350" s="66">
+        <v>13961141577</v>
+      </c>
+      <c r="P350" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="351" spans="1:16">
-      <c r="A351" s="22"/>
-      <c r="B351" s="21"/>
-      <c r="P351" s="8"/>
+      <c r="A351" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B351" s="19">
+        <v>9</v>
+      </c>
+      <c r="C351" s="64">
+        <v>43155</v>
+      </c>
+      <c r="D351" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="E351" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F351" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="G351" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="H351" s="66">
+        <v>76131818</v>
+      </c>
+      <c r="I351" s="66" t="s">
+        <v>795</v>
+      </c>
+      <c r="J351" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K351" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L351" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M351" s="66" t="s">
+        <v>796</v>
+      </c>
+      <c r="N351" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O351" s="66">
+        <v>13301836969</v>
+      </c>
+      <c r="P351" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="352" spans="1:16">
-      <c r="A352" s="22"/>
-      <c r="B352" s="21"/>
-      <c r="P352" s="8"/>
+      <c r="A352" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B352" s="19">
+        <v>9</v>
+      </c>
+      <c r="C352" s="64">
+        <v>43155</v>
+      </c>
+      <c r="D352" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="E352" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F352" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="G352" s="66" t="s">
+        <v>797</v>
+      </c>
+      <c r="H352" s="66">
+        <v>76131819</v>
+      </c>
+      <c r="I352" s="66" t="s">
+        <v>798</v>
+      </c>
+      <c r="J352" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K352" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L352" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M352" s="66" t="s">
+        <v>799</v>
+      </c>
+      <c r="N352" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O352" s="66">
+        <v>15077688411</v>
+      </c>
+      <c r="P352" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="353" spans="1:16">
-      <c r="A353" s="22"/>
-      <c r="B353" s="21"/>
-      <c r="P353" s="8"/>
+      <c r="A353" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B353" s="19">
+        <v>9</v>
+      </c>
+      <c r="C353" s="64">
+        <v>43155</v>
+      </c>
+      <c r="D353" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="E353" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F353" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="G353" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="H353" s="66">
+        <v>76131119</v>
+      </c>
+      <c r="I353" s="66" t="s">
+        <v>800</v>
+      </c>
+      <c r="J353" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K353" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L353" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M353" s="66" t="s">
+        <v>801</v>
+      </c>
+      <c r="N353" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O353" s="66">
+        <v>18112270222</v>
+      </c>
+      <c r="P353" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="354" spans="1:16">
-      <c r="A354" s="22"/>
-      <c r="B354" s="21"/>
-      <c r="P354" s="8"/>
+      <c r="A354" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B354" s="19">
+        <v>9</v>
+      </c>
+      <c r="C354" s="64">
+        <v>43155</v>
+      </c>
+      <c r="D354" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="E354" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F354" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="G354" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="H354" s="66">
+        <v>76131255</v>
+      </c>
+      <c r="I354" s="66" t="s">
+        <v>802</v>
+      </c>
+      <c r="J354" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K354" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L354" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M354" s="66" t="s">
+        <v>803</v>
+      </c>
+      <c r="N354" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O354" s="66">
+        <v>13616839850</v>
+      </c>
+      <c r="P354" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="355" spans="1:16">
-      <c r="A355" s="22"/>
-      <c r="B355" s="21"/>
-      <c r="P355" s="8"/>
+      <c r="A355" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B355" s="19">
+        <v>9</v>
+      </c>
+      <c r="C355" s="64">
+        <v>43155</v>
+      </c>
+      <c r="D355" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="E355" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F355" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="G355" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="H355" s="66">
+        <v>76131565</v>
+      </c>
+      <c r="I355" s="66" t="s">
+        <v>804</v>
+      </c>
+      <c r="J355" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K355" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L355" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M355" s="66" t="s">
+        <v>805</v>
+      </c>
+      <c r="N355" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O355" s="66">
+        <v>13357852688</v>
+      </c>
+      <c r="P355" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="356" spans="1:16">
-      <c r="A356" s="22"/>
-      <c r="B356" s="21"/>
-      <c r="P356" s="8"/>
+      <c r="A356" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B356" s="19">
+        <v>9</v>
+      </c>
+      <c r="C356" s="64">
+        <v>43155</v>
+      </c>
+      <c r="D356" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="E356" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F356" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="G356" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="H356" s="68">
+        <v>76131791</v>
+      </c>
+      <c r="I356" s="68" t="s">
+        <v>806</v>
+      </c>
+      <c r="J356" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K356" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L356" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M356" s="68" t="s">
+        <v>807</v>
+      </c>
+      <c r="N356" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O356" s="68">
+        <v>13736468270</v>
+      </c>
+      <c r="P356" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="357" spans="1:16">
-      <c r="A357" s="22"/>
-      <c r="B357" s="21"/>
-      <c r="P357" s="8"/>
+      <c r="A357" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B357" s="19">
+        <v>9</v>
+      </c>
+      <c r="C357" s="64">
+        <v>43155</v>
+      </c>
+      <c r="D357" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="E357" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="F357" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="G357" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="H357" s="66">
+        <v>76131816</v>
+      </c>
+      <c r="I357" s="66" t="s">
+        <v>808</v>
+      </c>
+      <c r="J357" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="K357" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L357" s="63">
+        <v>17721436606</v>
+      </c>
+      <c r="M357" s="66" t="s">
+        <v>809</v>
+      </c>
+      <c r="N357" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="O357" s="66">
+        <v>15298890922</v>
+      </c>
+      <c r="P357" s="63" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="358" spans="1:16">
       <c r="A358" s="22"/>
@@ -20745,7 +21771,7 @@
       <c r="P413" s="8"/>
     </row>
     <row r="414" spans="1:16">
-      <c r="A414" s="71"/>
+      <c r="A414" s="70"/>
       <c r="B414" s="21"/>
       <c r="P414" s="8"/>
     </row>
@@ -20835,7 +21861,7 @@
       <c r="P431" s="8"/>
     </row>
     <row r="432" spans="1:16">
-      <c r="A432" s="71"/>
+      <c r="A432" s="70"/>
       <c r="B432" s="21"/>
       <c r="P432" s="8"/>
     </row>
@@ -20845,7 +21871,7 @@
       <c r="P433" s="8"/>
     </row>
     <row r="434" spans="1:16">
-      <c r="A434" s="71"/>
+      <c r="A434" s="70"/>
       <c r="B434" s="21"/>
       <c r="P434" s="8"/>
     </row>
@@ -20855,7 +21881,7 @@
       <c r="P435" s="8"/>
     </row>
     <row r="436" spans="1:16">
-      <c r="A436" s="71"/>
+      <c r="A436" s="70"/>
       <c r="B436" s="21"/>
       <c r="P436" s="8"/>
     </row>
@@ -20865,7 +21891,7 @@
       <c r="P437" s="8"/>
     </row>
     <row r="438" spans="1:16">
-      <c r="A438" s="71"/>
+      <c r="A438" s="70"/>
       <c r="B438" s="21"/>
       <c r="P438" s="8"/>
     </row>
@@ -20875,7 +21901,7 @@
       <c r="P439" s="8"/>
     </row>
     <row r="440" spans="1:16">
-      <c r="A440" s="71"/>
+      <c r="A440" s="70"/>
       <c r="B440" s="21"/>
       <c r="P440" s="8"/>
     </row>
@@ -20885,7 +21911,7 @@
       <c r="P441" s="8"/>
     </row>
     <row r="442" spans="1:16">
-      <c r="A442" s="71"/>
+      <c r="A442" s="70"/>
       <c r="B442" s="21"/>
       <c r="P442" s="8"/>
     </row>
@@ -20895,7 +21921,7 @@
       <c r="P443" s="8"/>
     </row>
     <row r="444" spans="1:16">
-      <c r="A444" s="71"/>
+      <c r="A444" s="70"/>
       <c r="B444" s="21"/>
       <c r="P444" s="8"/>
     </row>
@@ -20905,7 +21931,7 @@
       <c r="P445" s="8"/>
     </row>
     <row r="446" spans="1:16">
-      <c r="A446" s="71"/>
+      <c r="A446" s="70"/>
       <c r="B446" s="21"/>
       <c r="P446" s="8"/>
     </row>
@@ -20915,7 +21941,7 @@
       <c r="P447" s="8"/>
     </row>
     <row r="448" spans="1:16">
-      <c r="A448" s="71"/>
+      <c r="A448" s="70"/>
       <c r="B448" s="21"/>
       <c r="P448" s="8"/>
     </row>
@@ -20925,7 +21951,7 @@
       <c r="P449" s="8"/>
     </row>
     <row r="450" spans="1:16">
-      <c r="A450" s="71"/>
+      <c r="A450" s="70"/>
       <c r="B450" s="21"/>
       <c r="P450" s="8"/>
     </row>
@@ -20935,7 +21961,7 @@
       <c r="P451" s="8"/>
     </row>
     <row r="452" spans="1:16">
-      <c r="A452" s="71"/>
+      <c r="A452" s="70"/>
       <c r="B452" s="21"/>
       <c r="P452" s="8"/>
     </row>
@@ -20945,7 +21971,7 @@
       <c r="P453" s="8"/>
     </row>
     <row r="454" spans="1:16">
-      <c r="A454" s="71"/>
+      <c r="A454" s="70"/>
       <c r="B454" s="21"/>
       <c r="P454" s="8"/>
     </row>
@@ -20955,7 +21981,7 @@
       <c r="P455" s="8"/>
     </row>
     <row r="456" spans="1:16">
-      <c r="A456" s="71"/>
+      <c r="A456" s="70"/>
       <c r="B456" s="21"/>
       <c r="P456" s="8"/>
     </row>
@@ -20965,7 +21991,7 @@
       <c r="P457" s="8"/>
     </row>
     <row r="458" spans="1:16">
-      <c r="A458" s="71"/>
+      <c r="A458" s="70"/>
       <c r="B458" s="21"/>
       <c r="P458" s="8"/>
     </row>
@@ -20975,7 +22001,7 @@
       <c r="P459" s="8"/>
     </row>
     <row r="460" spans="1:16">
-      <c r="A460" s="71"/>
+      <c r="A460" s="70"/>
       <c r="B460" s="21"/>
       <c r="P460" s="8"/>
     </row>
@@ -20985,7 +22011,7 @@
       <c r="P461" s="8"/>
     </row>
     <row r="462" spans="1:16">
-      <c r="A462" s="71"/>
+      <c r="A462" s="70"/>
       <c r="B462" s="21"/>
       <c r="P462" s="8"/>
     </row>
@@ -20995,7 +22021,7 @@
       <c r="P463" s="8"/>
     </row>
     <row r="464" spans="1:16">
-      <c r="A464" s="71"/>
+      <c r="A464" s="70"/>
       <c r="B464" s="21"/>
       <c r="P464" s="8"/>
     </row>
@@ -21005,7 +22031,7 @@
       <c r="P465" s="8"/>
     </row>
     <row r="466" spans="1:16">
-      <c r="A466" s="71"/>
+      <c r="A466" s="70"/>
       <c r="B466" s="21"/>
       <c r="P466" s="8"/>
     </row>
@@ -21015,7 +22041,7 @@
       <c r="P467" s="8"/>
     </row>
     <row r="468" spans="1:16">
-      <c r="A468" s="71"/>
+      <c r="A468" s="70"/>
       <c r="B468" s="21"/>
       <c r="P468" s="8"/>
     </row>
@@ -21025,7 +22051,7 @@
       <c r="P469" s="8"/>
     </row>
     <row r="470" spans="1:16">
-      <c r="A470" s="71"/>
+      <c r="A470" s="70"/>
       <c r="B470" s="21"/>
       <c r="P470" s="8"/>
     </row>
@@ -21035,7 +22061,7 @@
       <c r="P471" s="8"/>
     </row>
     <row r="472" spans="1:16">
-      <c r="A472" s="71"/>
+      <c r="A472" s="70"/>
       <c r="B472" s="21"/>
       <c r="P472" s="8"/>
     </row>
@@ -21045,7 +22071,7 @@
       <c r="P473" s="8"/>
     </row>
     <row r="474" spans="1:16">
-      <c r="A474" s="71"/>
+      <c r="A474" s="70"/>
       <c r="B474" s="21"/>
       <c r="P474" s="8"/>
     </row>
@@ -21055,7 +22081,7 @@
       <c r="P475" s="8"/>
     </row>
     <row r="476" spans="1:16">
-      <c r="A476" s="71"/>
+      <c r="A476" s="70"/>
       <c r="B476" s="21"/>
       <c r="P476" s="8"/>
     </row>
@@ -21065,7 +22091,7 @@
       <c r="P477" s="8"/>
     </row>
     <row r="478" spans="1:2">
-      <c r="A478" s="71"/>
+      <c r="A478" s="70"/>
       <c r="B478" s="21"/>
     </row>
     <row r="479" spans="1:2">
@@ -21073,7 +22099,7 @@
       <c r="B479" s="21"/>
     </row>
     <row r="480" spans="1:2">
-      <c r="A480" s="71"/>
+      <c r="A480" s="70"/>
       <c r="B480" s="21"/>
     </row>
     <row r="481" spans="1:2">
@@ -21081,7 +22107,7 @@
       <c r="B481" s="21"/>
     </row>
     <row r="482" spans="1:2">
-      <c r="A482" s="71"/>
+      <c r="A482" s="70"/>
       <c r="B482" s="21"/>
     </row>
     <row r="483" spans="1:2">
@@ -21089,7 +22115,7 @@
       <c r="B483" s="21"/>
     </row>
     <row r="484" spans="1:2">
-      <c r="A484" s="71"/>
+      <c r="A484" s="70"/>
       <c r="B484" s="21"/>
     </row>
     <row r="485" spans="1:2">
@@ -21097,7 +22123,7 @@
       <c r="B485" s="21"/>
     </row>
     <row r="486" spans="1:2">
-      <c r="A486" s="71"/>
+      <c r="A486" s="70"/>
       <c r="B486" s="21"/>
     </row>
     <row r="487" spans="1:2">
@@ -21105,7 +22131,7 @@
       <c r="B487" s="21"/>
     </row>
     <row r="488" spans="1:2">
-      <c r="A488" s="71"/>
+      <c r="A488" s="70"/>
       <c r="B488" s="21"/>
     </row>
     <row r="489" spans="1:2">
@@ -21113,7 +22139,7 @@
       <c r="B489" s="21"/>
     </row>
     <row r="490" spans="1:2">
-      <c r="A490" s="71"/>
+      <c r="A490" s="70"/>
       <c r="B490" s="21"/>
     </row>
     <row r="491" spans="1:2">
@@ -21121,7 +22147,7 @@
       <c r="B491" s="21"/>
     </row>
     <row r="492" spans="1:2">
-      <c r="A492" s="71"/>
+      <c r="A492" s="70"/>
       <c r="B492" s="21"/>
     </row>
     <row r="493" spans="1:2">
@@ -21129,7 +22155,7 @@
       <c r="B493" s="21"/>
     </row>
     <row r="494" spans="1:2">
-      <c r="A494" s="71"/>
+      <c r="A494" s="70"/>
       <c r="B494" s="21"/>
     </row>
     <row r="495" spans="1:2">
@@ -21137,7 +22163,7 @@
       <c r="B495" s="21"/>
     </row>
     <row r="496" spans="1:2">
-      <c r="A496" s="71"/>
+      <c r="A496" s="70"/>
       <c r="B496" s="21"/>
     </row>
     <row r="497" spans="1:2">
@@ -21145,7 +22171,7 @@
       <c r="B497" s="21"/>
     </row>
     <row r="498" spans="1:2">
-      <c r="A498" s="71"/>
+      <c r="A498" s="70"/>
       <c r="B498" s="21"/>
     </row>
     <row r="499" spans="1:2">
@@ -21153,7 +22179,7 @@
       <c r="B499" s="21"/>
     </row>
     <row r="500" spans="1:2">
-      <c r="A500" s="71"/>
+      <c r="A500" s="70"/>
       <c r="B500" s="21"/>
     </row>
     <row r="501" spans="1:2">
@@ -21161,7 +22187,7 @@
       <c r="B501" s="21"/>
     </row>
     <row r="502" spans="1:2">
-      <c r="A502" s="71"/>
+      <c r="A502" s="70"/>
       <c r="B502" s="21"/>
     </row>
     <row r="503" spans="1:2">
@@ -21169,7 +22195,7 @@
       <c r="B503" s="21"/>
     </row>
     <row r="504" spans="1:2">
-      <c r="A504" s="71"/>
+      <c r="A504" s="70"/>
       <c r="B504" s="21"/>
     </row>
     <row r="505" spans="1:2">
@@ -21177,7 +22203,7 @@
       <c r="B505" s="21"/>
     </row>
     <row r="506" spans="1:2">
-      <c r="A506" s="71"/>
+      <c r="A506" s="70"/>
       <c r="B506" s="21"/>
     </row>
     <row r="507" spans="1:2">
@@ -21185,7 +22211,7 @@
       <c r="B507" s="21"/>
     </row>
     <row r="508" spans="1:2">
-      <c r="A508" s="71"/>
+      <c r="A508" s="70"/>
       <c r="B508" s="21"/>
     </row>
     <row r="509" spans="1:2">
@@ -21193,7 +22219,7 @@
       <c r="B509" s="21"/>
     </row>
     <row r="510" spans="1:2">
-      <c r="A510" s="71"/>
+      <c r="A510" s="70"/>
       <c r="B510" s="21"/>
     </row>
     <row r="511" spans="1:2">
@@ -21201,7 +22227,7 @@
       <c r="B511" s="21"/>
     </row>
     <row r="512" spans="1:2">
-      <c r="A512" s="71"/>
+      <c r="A512" s="70"/>
       <c r="B512" s="21"/>
     </row>
     <row r="513" spans="1:2">
@@ -21209,7 +22235,7 @@
       <c r="B513" s="21"/>
     </row>
     <row r="514" spans="1:2">
-      <c r="A514" s="71"/>
+      <c r="A514" s="70"/>
       <c r="B514" s="21"/>
     </row>
     <row r="515" spans="1:2">
@@ -21217,7 +22243,7 @@
       <c r="B515" s="21"/>
     </row>
     <row r="516" spans="1:2">
-      <c r="A516" s="71"/>
+      <c r="A516" s="70"/>
       <c r="B516" s="21"/>
     </row>
     <row r="517" spans="1:2">
@@ -21225,7 +22251,7 @@
       <c r="B517" s="21"/>
     </row>
     <row r="518" spans="1:2">
-      <c r="A518" s="71"/>
+      <c r="A518" s="70"/>
       <c r="B518" s="21"/>
     </row>
     <row r="519" spans="1:2">
@@ -21233,7 +22259,7 @@
       <c r="B519" s="21"/>
     </row>
     <row r="520" spans="1:2">
-      <c r="A520" s="71"/>
+      <c r="A520" s="70"/>
       <c r="B520" s="21"/>
     </row>
     <row r="521" spans="1:2">
@@ -21241,7 +22267,7 @@
       <c r="B521" s="21"/>
     </row>
     <row r="522" spans="1:2">
-      <c r="A522" s="71"/>
+      <c r="A522" s="70"/>
       <c r="B522" s="21"/>
     </row>
     <row r="523" spans="1:2">
@@ -21249,7 +22275,7 @@
       <c r="B523" s="21"/>
     </row>
     <row r="524" spans="1:2">
-      <c r="A524" s="71"/>
+      <c r="A524" s="70"/>
       <c r="B524" s="21"/>
     </row>
     <row r="525" spans="1:2">
@@ -21257,7 +22283,7 @@
       <c r="B525" s="21"/>
     </row>
     <row r="526" spans="1:2">
-      <c r="A526" s="71"/>
+      <c r="A526" s="70"/>
       <c r="B526" s="21"/>
     </row>
     <row r="527" spans="1:2">
@@ -21265,7 +22291,7 @@
       <c r="B527" s="21"/>
     </row>
     <row r="528" spans="1:2">
-      <c r="A528" s="71"/>
+      <c r="A528" s="70"/>
       <c r="B528" s="21"/>
     </row>
     <row r="529" spans="1:2">
@@ -21273,7 +22299,7 @@
       <c r="B529" s="21"/>
     </row>
     <row r="530" spans="1:2">
-      <c r="A530" s="71"/>
+      <c r="A530" s="70"/>
       <c r="B530" s="21"/>
     </row>
     <row r="531" spans="1:2">
@@ -21281,7 +22307,7 @@
       <c r="B531" s="21"/>
     </row>
     <row r="532" spans="1:2">
-      <c r="A532" s="71"/>
+      <c r="A532" s="70"/>
       <c r="B532" s="21"/>
     </row>
     <row r="533" spans="1:2">
@@ -21289,7 +22315,7 @@
       <c r="B533" s="21"/>
     </row>
     <row r="534" spans="1:2">
-      <c r="A534" s="71"/>
+      <c r="A534" s="70"/>
       <c r="B534" s="21"/>
     </row>
     <row r="535" spans="1:2">
@@ -21297,7 +22323,7 @@
       <c r="B535" s="21"/>
     </row>
     <row r="536" spans="1:2">
-      <c r="A536" s="71"/>
+      <c r="A536" s="70"/>
       <c r="B536" s="21"/>
     </row>
     <row r="537" spans="1:2">
@@ -21305,7 +22331,7 @@
       <c r="B537" s="21"/>
     </row>
     <row r="538" spans="1:2">
-      <c r="A538" s="71"/>
+      <c r="A538" s="70"/>
       <c r="B538" s="21"/>
     </row>
     <row r="539" spans="1:2">
@@ -21313,7 +22339,7 @@
       <c r="B539" s="21"/>
     </row>
     <row r="540" spans="1:2">
-      <c r="A540" s="71"/>
+      <c r="A540" s="70"/>
       <c r="B540" s="21"/>
     </row>
     <row r="541" spans="1:2">
@@ -21321,7 +22347,7 @@
       <c r="B541" s="21"/>
     </row>
     <row r="542" spans="1:2">
-      <c r="A542" s="71"/>
+      <c r="A542" s="70"/>
       <c r="B542" s="21"/>
     </row>
     <row r="543" spans="1:2">
@@ -21329,7 +22355,7 @@
       <c r="B543" s="21"/>
     </row>
     <row r="544" spans="1:2">
-      <c r="A544" s="71"/>
+      <c r="A544" s="70"/>
       <c r="B544" s="21"/>
     </row>
     <row r="545" spans="1:2">
@@ -21337,7 +22363,7 @@
       <c r="B545" s="21"/>
     </row>
     <row r="546" spans="1:2">
-      <c r="A546" s="71"/>
+      <c r="A546" s="70"/>
       <c r="B546" s="21"/>
     </row>
     <row r="547" spans="1:2">
@@ -21345,7 +22371,7 @@
       <c r="B547" s="21"/>
     </row>
     <row r="548" spans="1:2">
-      <c r="A548" s="71"/>
+      <c r="A548" s="70"/>
       <c r="B548" s="21"/>
     </row>
     <row r="549" spans="1:2">
@@ -21353,7 +22379,7 @@
       <c r="B549" s="21"/>
     </row>
     <row r="550" spans="1:2">
-      <c r="A550" s="71"/>
+      <c r="A550" s="70"/>
       <c r="B550" s="21"/>
     </row>
     <row r="551" spans="1:2">
@@ -21361,7 +22387,7 @@
       <c r="B551" s="21"/>
     </row>
     <row r="552" spans="1:2">
-      <c r="A552" s="71"/>
+      <c r="A552" s="70"/>
       <c r="B552" s="21"/>
     </row>
     <row r="553" spans="1:2">
@@ -21369,7 +22395,7 @@
       <c r="B553" s="21"/>
     </row>
     <row r="554" spans="1:2">
-      <c r="A554" s="71"/>
+      <c r="A554" s="70"/>
       <c r="B554" s="21"/>
     </row>
     <row r="555" spans="1:2">
@@ -21377,7 +22403,7 @@
       <c r="B555" s="21"/>
     </row>
     <row r="556" spans="1:2">
-      <c r="A556" s="71"/>
+      <c r="A556" s="70"/>
       <c r="B556" s="21"/>
     </row>
     <row r="557" spans="1:2">
@@ -21385,7 +22411,7 @@
       <c r="B557" s="21"/>
     </row>
     <row r="558" spans="1:2">
-      <c r="A558" s="71"/>
+      <c r="A558" s="70"/>
       <c r="B558" s="21"/>
     </row>
     <row r="559" spans="1:2">
@@ -21393,7 +22419,7 @@
       <c r="B559" s="21"/>
     </row>
     <row r="560" spans="1:2">
-      <c r="A560" s="71"/>
+      <c r="A560" s="70"/>
       <c r="B560" s="21"/>
     </row>
     <row r="561" spans="1:2">
@@ -21401,7 +22427,7 @@
       <c r="B561" s="21"/>
     </row>
     <row r="562" spans="1:2">
-      <c r="A562" s="71"/>
+      <c r="A562" s="70"/>
       <c r="B562" s="21"/>
     </row>
     <row r="563" spans="1:2">
@@ -21409,7 +22435,7 @@
       <c r="B563" s="21"/>
     </row>
     <row r="564" spans="1:2">
-      <c r="A564" s="71"/>
+      <c r="A564" s="70"/>
       <c r="B564" s="21"/>
     </row>
     <row r="565" spans="1:2">
@@ -21417,7 +22443,7 @@
       <c r="B565" s="21"/>
     </row>
     <row r="566" spans="1:2">
-      <c r="A566" s="71"/>
+      <c r="A566" s="70"/>
       <c r="B566" s="21"/>
     </row>
     <row r="567" spans="1:2">
@@ -21425,7 +22451,7 @@
       <c r="B567" s="21"/>
     </row>
     <row r="568" spans="1:2">
-      <c r="A568" s="71"/>
+      <c r="A568" s="70"/>
       <c r="B568" s="21"/>
     </row>
     <row r="569" spans="1:2">
@@ -21433,7 +22459,7 @@
       <c r="B569" s="21"/>
     </row>
     <row r="570" spans="1:2">
-      <c r="A570" s="71"/>
+      <c r="A570" s="70"/>
       <c r="B570" s="21"/>
     </row>
     <row r="571" spans="1:2">
@@ -21441,7 +22467,7 @@
       <c r="B571" s="21"/>
     </row>
     <row r="572" spans="1:2">
-      <c r="A572" s="71"/>
+      <c r="A572" s="70"/>
       <c r="B572" s="21"/>
     </row>
     <row r="573" spans="1:2">
@@ -21449,7 +22475,7 @@
       <c r="B573" s="21"/>
     </row>
     <row r="574" spans="1:2">
-      <c r="A574" s="71"/>
+      <c r="A574" s="70"/>
       <c r="B574" s="21"/>
     </row>
     <row r="575" spans="1:2">
@@ -21457,7 +22483,7 @@
       <c r="B575" s="21"/>
     </row>
     <row r="576" spans="1:2">
-      <c r="A576" s="71"/>
+      <c r="A576" s="70"/>
       <c r="B576" s="21"/>
     </row>
     <row r="577" spans="1:2">
@@ -21465,7 +22491,7 @@
       <c r="B577" s="21"/>
     </row>
     <row r="578" spans="1:2">
-      <c r="A578" s="71"/>
+      <c r="A578" s="70"/>
       <c r="B578" s="21"/>
     </row>
     <row r="579" spans="1:2">
@@ -21473,7 +22499,7 @@
       <c r="B579" s="21"/>
     </row>
     <row r="580" spans="1:2">
-      <c r="A580" s="71"/>
+      <c r="A580" s="70"/>
       <c r="B580" s="21"/>
     </row>
     <row r="581" spans="1:2">
@@ -21481,7 +22507,7 @@
       <c r="B581" s="21"/>
     </row>
     <row r="582" spans="1:2">
-      <c r="A582" s="71"/>
+      <c r="A582" s="70"/>
       <c r="B582" s="21"/>
     </row>
     <row r="583" spans="1:2">
@@ -21489,7 +22515,7 @@
       <c r="B583" s="21"/>
     </row>
     <row r="584" spans="1:2">
-      <c r="A584" s="71"/>
+      <c r="A584" s="70"/>
       <c r="B584" s="21"/>
     </row>
     <row r="585" spans="1:2">
@@ -21497,7 +22523,7 @@
       <c r="B585" s="21"/>
     </row>
     <row r="586" spans="1:2">
-      <c r="A586" s="71"/>
+      <c r="A586" s="70"/>
       <c r="B586" s="21"/>
     </row>
     <row r="587" spans="1:2">
@@ -21505,7 +22531,7 @@
       <c r="B587" s="21"/>
     </row>
     <row r="588" spans="1:2">
-      <c r="A588" s="71"/>
+      <c r="A588" s="70"/>
       <c r="B588" s="21"/>
     </row>
     <row r="589" spans="1:2">
@@ -21513,7 +22539,7 @@
       <c r="B589" s="21"/>
     </row>
     <row r="590" spans="1:2">
-      <c r="A590" s="71"/>
+      <c r="A590" s="70"/>
       <c r="B590" s="21"/>
     </row>
     <row r="591" spans="1:2">
@@ -21521,7 +22547,7 @@
       <c r="B591" s="21"/>
     </row>
     <row r="592" spans="1:2">
-      <c r="A592" s="71"/>
+      <c r="A592" s="70"/>
       <c r="B592" s="21"/>
     </row>
     <row r="593" spans="1:2">
@@ -21529,7 +22555,7 @@
       <c r="B593" s="15"/>
     </row>
     <row r="594" spans="1:2">
-      <c r="A594" s="71"/>
+      <c r="A594" s="70"/>
       <c r="B594" s="15"/>
     </row>
     <row r="595" spans="1:2">
@@ -21537,7 +22563,7 @@
       <c r="B595" s="15"/>
     </row>
     <row r="596" spans="1:2">
-      <c r="A596" s="71"/>
+      <c r="A596" s="70"/>
       <c r="B596" s="15"/>
     </row>
     <row r="597" spans="1:2">
@@ -21545,7 +22571,7 @@
       <c r="B597" s="15"/>
     </row>
     <row r="598" spans="1:2">
-      <c r="A598" s="71"/>
+      <c r="A598" s="70"/>
       <c r="B598" s="15"/>
     </row>
     <row r="599" spans="1:2">
@@ -21553,7 +22579,7 @@
       <c r="B599" s="15"/>
     </row>
     <row r="600" spans="1:2">
-      <c r="A600" s="71"/>
+      <c r="A600" s="70"/>
       <c r="B600" s="15"/>
     </row>
     <row r="601" spans="1:2">
@@ -21561,7 +22587,7 @@
       <c r="B601" s="15"/>
     </row>
     <row r="602" spans="1:2">
-      <c r="A602" s="71"/>
+      <c r="A602" s="70"/>
       <c r="B602" s="15"/>
     </row>
     <row r="603" spans="1:2">
@@ -21569,7 +22595,7 @@
       <c r="B603" s="15"/>
     </row>
     <row r="604" spans="1:2">
-      <c r="A604" s="71"/>
+      <c r="A604" s="70"/>
       <c r="B604" s="15"/>
     </row>
     <row r="605" spans="1:2">
@@ -21577,7 +22603,7 @@
       <c r="B605" s="15"/>
     </row>
     <row r="606" spans="1:2">
-      <c r="A606" s="71"/>
+      <c r="A606" s="70"/>
       <c r="B606" s="15"/>
     </row>
     <row r="607" spans="1:2">
@@ -21585,7 +22611,7 @@
       <c r="B607" s="15"/>
     </row>
     <row r="608" spans="1:2">
-      <c r="A608" s="71"/>
+      <c r="A608" s="70"/>
       <c r="B608" s="15"/>
     </row>
     <row r="609" spans="1:2">
@@ -21593,7 +22619,7 @@
       <c r="B609" s="15"/>
     </row>
     <row r="610" spans="1:2">
-      <c r="A610" s="71"/>
+      <c r="A610" s="70"/>
       <c r="B610" s="15"/>
     </row>
     <row r="611" spans="1:2">
@@ -21601,7 +22627,7 @@
       <c r="B611" s="15"/>
     </row>
     <row r="612" spans="1:2">
-      <c r="A612" s="71"/>
+      <c r="A612" s="70"/>
       <c r="B612" s="15"/>
     </row>
     <row r="613" spans="1:2">
@@ -21609,7 +22635,7 @@
       <c r="B613" s="15"/>
     </row>
     <row r="614" spans="1:2">
-      <c r="A614" s="71"/>
+      <c r="A614" s="70"/>
       <c r="B614" s="15"/>
     </row>
     <row r="615" spans="1:2">
@@ -21617,7 +22643,7 @@
       <c r="B615" s="15"/>
     </row>
     <row r="616" spans="1:2">
-      <c r="A616" s="71"/>
+      <c r="A616" s="70"/>
       <c r="B616" s="15"/>
     </row>
     <row r="617" spans="1:2">
@@ -21625,431 +22651,431 @@
       <c r="B617" s="15"/>
     </row>
     <row r="618" spans="1:1">
-      <c r="A618" s="72"/>
+      <c r="A618" s="71"/>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" s="12"/>
     </row>
     <row r="620" spans="1:1">
-      <c r="A620" s="72"/>
+      <c r="A620" s="71"/>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" s="12"/>
     </row>
     <row r="622" spans="1:1">
-      <c r="A622" s="72"/>
+      <c r="A622" s="71"/>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" s="12"/>
     </row>
     <row r="624" spans="1:1">
-      <c r="A624" s="72"/>
+      <c r="A624" s="71"/>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" s="12"/>
     </row>
     <row r="626" spans="1:1">
-      <c r="A626" s="72"/>
+      <c r="A626" s="71"/>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" s="12"/>
     </row>
     <row r="628" spans="1:1">
-      <c r="A628" s="72"/>
+      <c r="A628" s="71"/>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" s="12"/>
     </row>
     <row r="630" spans="1:1">
-      <c r="A630" s="72"/>
+      <c r="A630" s="71"/>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" s="12"/>
     </row>
     <row r="632" spans="1:1">
-      <c r="A632" s="72"/>
+      <c r="A632" s="71"/>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" s="12"/>
     </row>
     <row r="634" spans="1:1">
-      <c r="A634" s="72"/>
+      <c r="A634" s="71"/>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" s="12"/>
     </row>
     <row r="636" spans="1:1">
-      <c r="A636" s="72"/>
+      <c r="A636" s="71"/>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" s="12"/>
     </row>
     <row r="638" spans="1:1">
-      <c r="A638" s="72"/>
+      <c r="A638" s="71"/>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" s="12"/>
     </row>
     <row r="640" spans="1:1">
-      <c r="A640" s="72"/>
+      <c r="A640" s="71"/>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" s="12"/>
     </row>
     <row r="642" spans="1:1">
-      <c r="A642" s="72"/>
+      <c r="A642" s="71"/>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" s="12"/>
     </row>
     <row r="644" spans="1:1">
-      <c r="A644" s="72"/>
+      <c r="A644" s="71"/>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" s="12"/>
     </row>
     <row r="646" spans="1:1">
-      <c r="A646" s="72"/>
+      <c r="A646" s="71"/>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" s="12"/>
     </row>
     <row r="648" spans="1:1">
-      <c r="A648" s="72"/>
+      <c r="A648" s="71"/>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" s="12"/>
     </row>
     <row r="650" spans="1:1">
-      <c r="A650" s="72"/>
+      <c r="A650" s="71"/>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" s="12"/>
     </row>
     <row r="652" spans="1:1">
-      <c r="A652" s="72"/>
+      <c r="A652" s="71"/>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" s="12"/>
     </row>
     <row r="654" spans="1:1">
-      <c r="A654" s="72"/>
+      <c r="A654" s="71"/>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" s="12"/>
     </row>
     <row r="656" spans="1:1">
-      <c r="A656" s="72"/>
+      <c r="A656" s="71"/>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" s="12"/>
     </row>
     <row r="658" spans="1:1">
-      <c r="A658" s="72"/>
+      <c r="A658" s="71"/>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" s="12"/>
     </row>
     <row r="660" spans="1:1">
-      <c r="A660" s="72"/>
+      <c r="A660" s="71"/>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" s="12"/>
     </row>
     <row r="662" spans="1:1">
-      <c r="A662" s="72"/>
+      <c r="A662" s="71"/>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" s="12"/>
     </row>
     <row r="664" spans="1:1">
-      <c r="A664" s="72"/>
+      <c r="A664" s="71"/>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" s="12"/>
     </row>
     <row r="666" spans="1:1">
-      <c r="A666" s="72"/>
+      <c r="A666" s="71"/>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" s="12"/>
     </row>
     <row r="668" spans="1:1">
-      <c r="A668" s="72"/>
+      <c r="A668" s="71"/>
     </row>
     <row r="669" spans="1:1">
       <c r="A669" s="12"/>
     </row>
     <row r="670" spans="1:1">
-      <c r="A670" s="72"/>
+      <c r="A670" s="71"/>
     </row>
     <row r="671" spans="1:1">
       <c r="A671" s="12"/>
     </row>
     <row r="672" spans="1:1">
-      <c r="A672" s="72"/>
+      <c r="A672" s="71"/>
     </row>
     <row r="673" spans="1:1">
       <c r="A673" s="12"/>
     </row>
     <row r="674" spans="1:1">
-      <c r="A674" s="72"/>
+      <c r="A674" s="71"/>
     </row>
     <row r="675" spans="1:1">
       <c r="A675" s="12"/>
     </row>
     <row r="676" spans="1:1">
-      <c r="A676" s="72"/>
+      <c r="A676" s="71"/>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" s="12"/>
     </row>
     <row r="678" spans="1:1">
-      <c r="A678" s="72"/>
+      <c r="A678" s="71"/>
     </row>
     <row r="679" spans="1:1">
       <c r="A679" s="12"/>
     </row>
     <row r="680" spans="1:1">
-      <c r="A680" s="72"/>
+      <c r="A680" s="71"/>
     </row>
     <row r="681" spans="1:1">
       <c r="A681" s="12"/>
     </row>
     <row r="682" spans="1:1">
-      <c r="A682" s="72"/>
+      <c r="A682" s="71"/>
     </row>
     <row r="683" spans="1:1">
       <c r="A683" s="12"/>
     </row>
     <row r="684" spans="1:1">
-      <c r="A684" s="72"/>
+      <c r="A684" s="71"/>
     </row>
     <row r="685" spans="1:1">
       <c r="A685" s="12"/>
     </row>
     <row r="686" spans="1:1">
-      <c r="A686" s="72"/>
+      <c r="A686" s="71"/>
     </row>
     <row r="687" spans="1:1">
       <c r="A687" s="12"/>
     </row>
     <row r="688" spans="1:1">
-      <c r="A688" s="72"/>
+      <c r="A688" s="71"/>
     </row>
     <row r="689" spans="1:1">
       <c r="A689" s="12"/>
     </row>
     <row r="690" spans="1:1">
-      <c r="A690" s="72"/>
+      <c r="A690" s="71"/>
     </row>
     <row r="691" spans="1:1">
       <c r="A691" s="12"/>
     </row>
     <row r="692" spans="1:1">
-      <c r="A692" s="72"/>
+      <c r="A692" s="71"/>
     </row>
     <row r="693" spans="1:1">
       <c r="A693" s="12"/>
     </row>
     <row r="694" spans="1:1">
-      <c r="A694" s="72"/>
+      <c r="A694" s="71"/>
     </row>
     <row r="695" spans="1:1">
       <c r="A695" s="12"/>
     </row>
     <row r="696" spans="1:1">
-      <c r="A696" s="72"/>
+      <c r="A696" s="71"/>
     </row>
     <row r="697" spans="1:1">
       <c r="A697" s="12"/>
     </row>
     <row r="698" spans="1:1">
-      <c r="A698" s="72"/>
+      <c r="A698" s="71"/>
     </row>
     <row r="699" spans="1:1">
       <c r="A699" s="12"/>
     </row>
     <row r="700" spans="1:1">
-      <c r="A700" s="72"/>
+      <c r="A700" s="71"/>
     </row>
     <row r="701" spans="1:1">
       <c r="A701" s="12"/>
     </row>
     <row r="702" spans="1:1">
-      <c r="A702" s="72"/>
+      <c r="A702" s="71"/>
     </row>
     <row r="703" spans="1:1">
       <c r="A703" s="12"/>
     </row>
     <row r="704" spans="1:1">
-      <c r="A704" s="72"/>
+      <c r="A704" s="71"/>
     </row>
     <row r="705" spans="1:1">
       <c r="A705" s="12"/>
     </row>
     <row r="706" spans="1:1">
-      <c r="A706" s="72"/>
+      <c r="A706" s="71"/>
     </row>
     <row r="707" spans="1:1">
       <c r="A707" s="12"/>
     </row>
     <row r="708" spans="1:1">
-      <c r="A708" s="72"/>
+      <c r="A708" s="71"/>
     </row>
     <row r="709" spans="1:1">
       <c r="A709" s="12"/>
     </row>
     <row r="710" spans="1:1">
-      <c r="A710" s="72"/>
+      <c r="A710" s="71"/>
     </row>
     <row r="711" spans="1:1">
       <c r="A711" s="12"/>
     </row>
     <row r="712" spans="1:1">
-      <c r="A712" s="72"/>
+      <c r="A712" s="71"/>
     </row>
     <row r="713" spans="1:1">
       <c r="A713" s="12"/>
     </row>
     <row r="714" spans="1:1">
-      <c r="A714" s="72"/>
+      <c r="A714" s="71"/>
     </row>
     <row r="715" spans="1:1">
       <c r="A715" s="12"/>
     </row>
     <row r="716" spans="1:1">
-      <c r="A716" s="72"/>
+      <c r="A716" s="71"/>
     </row>
     <row r="717" spans="1:1">
       <c r="A717" s="12"/>
     </row>
     <row r="718" spans="1:1">
-      <c r="A718" s="72"/>
+      <c r="A718" s="71"/>
     </row>
     <row r="719" spans="1:1">
       <c r="A719" s="12"/>
     </row>
     <row r="720" spans="1:1">
-      <c r="A720" s="72"/>
+      <c r="A720" s="71"/>
     </row>
     <row r="721" spans="1:1">
       <c r="A721" s="12"/>
     </row>
     <row r="722" spans="1:1">
-      <c r="A722" s="72"/>
+      <c r="A722" s="71"/>
     </row>
     <row r="723" spans="1:1">
       <c r="A723" s="12"/>
     </row>
     <row r="724" spans="1:1">
-      <c r="A724" s="72"/>
+      <c r="A724" s="71"/>
     </row>
     <row r="725" spans="1:1">
       <c r="A725" s="12"/>
     </row>
     <row r="726" spans="1:1">
-      <c r="A726" s="72"/>
+      <c r="A726" s="71"/>
     </row>
     <row r="727" spans="1:1">
       <c r="A727" s="12"/>
     </row>
     <row r="728" spans="1:1">
-      <c r="A728" s="72"/>
+      <c r="A728" s="71"/>
     </row>
     <row r="729" spans="1:1">
       <c r="A729" s="12"/>
     </row>
     <row r="730" spans="1:1">
-      <c r="A730" s="72"/>
+      <c r="A730" s="71"/>
     </row>
     <row r="731" spans="1:1">
       <c r="A731" s="12"/>
     </row>
     <row r="732" spans="1:1">
-      <c r="A732" s="72"/>
+      <c r="A732" s="71"/>
     </row>
     <row r="733" spans="1:1">
       <c r="A733" s="12"/>
     </row>
     <row r="734" spans="1:1">
-      <c r="A734" s="72"/>
+      <c r="A734" s="71"/>
     </row>
     <row r="735" spans="1:1">
       <c r="A735" s="12"/>
     </row>
     <row r="736" spans="1:1">
-      <c r="A736" s="72"/>
+      <c r="A736" s="71"/>
     </row>
     <row r="737" spans="1:1">
       <c r="A737" s="12"/>
     </row>
     <row r="738" spans="1:1">
-      <c r="A738" s="72"/>
+      <c r="A738" s="71"/>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" s="12"/>
     </row>
     <row r="740" spans="1:1">
-      <c r="A740" s="72"/>
+      <c r="A740" s="71"/>
     </row>
     <row r="741" spans="1:1">
       <c r="A741" s="12"/>
     </row>
     <row r="742" spans="1:1">
-      <c r="A742" s="72"/>
+      <c r="A742" s="71"/>
     </row>
     <row r="743" spans="1:1">
       <c r="A743" s="12"/>
     </row>
     <row r="744" spans="1:1">
-      <c r="A744" s="72"/>
+      <c r="A744" s="71"/>
     </row>
     <row r="745" spans="1:1">
       <c r="A745" s="12"/>
     </row>
     <row r="746" spans="1:1">
-      <c r="A746" s="72"/>
+      <c r="A746" s="71"/>
     </row>
     <row r="747" spans="1:1">
       <c r="A747" s="12"/>
     </row>
     <row r="748" spans="1:1">
-      <c r="A748" s="72"/>
+      <c r="A748" s="71"/>
     </row>
     <row r="749" spans="1:1">
       <c r="A749" s="12"/>
     </row>
     <row r="750" spans="1:1">
-      <c r="A750" s="72"/>
+      <c r="A750" s="71"/>
     </row>
     <row r="751" spans="1:1">
       <c r="A751" s="12"/>
     </row>
     <row r="752" spans="1:1">
-      <c r="A752" s="72"/>
+      <c r="A752" s="71"/>
     </row>
     <row r="753" spans="1:1">
       <c r="A753" s="12"/>
     </row>
     <row r="754" spans="1:1">
-      <c r="A754" s="72"/>
+      <c r="A754" s="71"/>
     </row>
     <row r="755" spans="1:1">
       <c r="A755" s="12"/>
     </row>
     <row r="756" spans="1:1">
-      <c r="A756" s="72"/>
+      <c r="A756" s="71"/>
     </row>
     <row r="757" spans="1:1">
       <c r="A757" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C163 C179 C198 C199 C200 C216 C227 C228 C229 C230 C231 C232 C233 C234 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C257 C258 C265 C266 C267 C268 C269 C270 C271 C272 C273 C274 C275 C276 C277 C278 C279 C280 C281 C282 C283 C284 C285 C286 C287 C288 C289 C290 C291 C292 C293 C294 C295 C296 C297 C298 C299 C300 C301 C302 C320 C321 C322 C323 C324 C4:C17 C18:C23 C24:C34 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C146 C147:C162 C164:C178 C180:C197 C201:C215 C217:C226 C259:C261 C262:C264 C303:C313 C314:C319 C325:C330 C331:C336 C337:C1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C163 C179 C198 C199 C200 C216 C227 C228 C229 C230 C231 C232 C233 C234 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C257 C258 C265 C266 C267 C268 C269 C270 C271 C272 C273 C274 C275 C276 C277 C278 C279 C280 C281 C282 C283 C284 C285 C286 C287 C288 C289 C290 C291 C292 C293 C294 C295 C296 C297 C298 C299 C300 C301 C302 C320 C321 C322 C323 C324 C337 C338 C339 C340 C341 C342 C343 C344 C345 C346 C347 C348 C349 C350 C351 C352 C353 C354 C355 C356 C357 C4:C17 C18:C23 C24:C34 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C146 C147:C162 C164:C178 C180:C197 C201:C215 C217:C226 C259:C261 C262:C264 C303:C313 C314:C319 C325:C330 C331:C336 C358:C1048576">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D18 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D60 D71 D84 D85 D86 D106 D146 D163 D179 D198 D199 D200 D216 D227 D228 D229 D235 D236 D237 D238 D239 D240 D241 D242 D243 D244 D245 D246 D247 D248 D249 D250 D251 D252 D253 D254 D255 D256 D257 D258 D259 D265 D266 D267 D268 D269 D270 D271 D272 D273 D274 D275 D276 D277 D278 D279 D280 D281 D282 D283 D284 D285 D286 D287 D288 D289 D290 D291 D292 D293 D294 D295 D296 D297 D298 D299 D300 D301 D302 D320 D321 D322 D323 D324 D4:D17 D19:D22 D23:D35 D49:D59 D61:D70 D72:D81 D82:D83 D87:D105 D107:D117 D118:D137 D138:D145 D147:D162 D164:D178 D180:D197 D201:D215 D217:D226 D230:D234 D260:D264 D303:D313 D314:D319 D325:D331 D332:D336 D337:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D18 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D60 D71 D84 D85 D86 D106 D146 D163 D179 D198 D199 D200 D216 D227 D228 D229 D235 D236 D237 D238 D239 D240 D241 D242 D243 D244 D245 D246 D247 D248 D249 D250 D251 D252 D253 D254 D255 D256 D257 D258 D259 D265 D266 D267 D268 D269 D270 D271 D272 D273 D274 D275 D276 D277 D278 D279 D280 D281 D282 D283 D284 D285 D286 D287 D288 D289 D290 D291 D292 D293 D294 D295 D296 D297 D298 D299 D300 D301 D302 D320 D321 D322 D323 D324 D337 D338 D339 D340 D341 D342 D343 D344 D345 D346 D347 D348 D349 D350 D351 D352 D353 D354 D355 D356 D357 D4:D17 D19:D22 D23:D35 D49:D59 D61:D70 D72:D81 D82:D83 D87:D105 D107:D117 D118:D137 D138:D145 D147:D162 D164:D178 D180:D197 D201:D215 D217:D226 D230:D234 D260:D264 D303:D313 D314:D319 D325:D331 D332:D336 D358:D1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>
@@ -22078,13 +23104,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>767</v>
+        <v>810</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>768</v>
+        <v>811</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>769</v>
+        <v>812</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -22095,7 +23121,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>770</v>
+        <v>813</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -22106,7 +23132,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>771</v>
+        <v>814</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -22117,7 +23143,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>772</v>
+        <v>815</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -22133,7 +23159,7 @@
         <v>43050</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>773</v>
+        <v>816</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -22144,7 +23170,7 @@
         <v>43064</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>771</v>
+        <v>814</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -22160,7 +23186,7 @@
         <v>43079</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>774</v>
+        <v>817</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -22171,7 +23197,7 @@
         <v>43085</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>775</v>
+        <v>818</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -22182,7 +23208,7 @@
         <v>43092</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>776</v>
+        <v>819</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -22193,7 +23219,7 @@
         <v>43099</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>777</v>
+        <v>820</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -22204,7 +23230,7 @@
         <v>43100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>778</v>
+        <v>821</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -22220,7 +23246,7 @@
         <v>43107</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>771</v>
+        <v>814</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -22231,7 +23257,7 @@
         <v>43113</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>779</v>
+        <v>822</v>
       </c>
     </row>
     <row r="17" spans="1:3">

--- a/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
@@ -2708,10 +2708,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2797,8 +2797,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2842,42 +2870,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2885,10 +2887,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2915,26 +2916,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3016,6 +3016,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3029,6 +3053,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3077,72 +3143,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3549,21 +3549,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3584,26 +3569,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3640,6 +3605,41 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -3652,10 +3652,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3664,16 +3664,16 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3682,123 +3682,123 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
@@ -3806,7 +3806,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3991,21 +3991,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4515,440 +4500,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="103" t="s">
+      <c r="I2" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="104" t="s">
+      <c r="J2" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="105" t="s">
+      <c r="K2" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="106" t="s">
+      <c r="L2" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="107" t="s">
+      <c r="M2" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="108" t="s">
+      <c r="N2" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="73"/>
-      <c r="B3" s="80" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="82"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83">
+      <c r="D3" s="77"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84">
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="110"/>
-      <c r="K3" s="111" t="e">
+      <c r="J3" s="105"/>
+      <c r="K3" s="106" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="112">
+      <c r="L3" s="107">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="113">
+      <c r="M3" s="108">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="114" t="e">
+      <c r="N3" s="109" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="85"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="87" t="s">
+      <c r="A4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89">
+      <c r="D4" s="83"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="90">
+      <c r="G4" s="85"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="115"/>
-      <c r="K4" s="111" t="e">
+      <c r="J4" s="110"/>
+      <c r="K4" s="106" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="112">
+      <c r="L4" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="113">
+      <c r="M4" s="108">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="114" t="e">
+      <c r="N4" s="109" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="109"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="109"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="85"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="87" t="s">
+      <c r="A5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="88"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89">
+      <c r="D5" s="83"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="90"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="90">
+      <c r="G5" s="85"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="115"/>
-      <c r="K5" s="111" t="e">
+      <c r="J5" s="110"/>
+      <c r="K5" s="106" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="112">
+      <c r="L5" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="113">
+      <c r="M5" s="108">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="114" t="e">
+      <c r="N5" s="109" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="109"/>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="109"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="85"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="87" t="s">
+      <c r="A6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89">
+      <c r="D6" s="83"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="90"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="90">
+      <c r="G6" s="85"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="115"/>
-      <c r="K6" s="111" t="e">
+      <c r="J6" s="110"/>
+      <c r="K6" s="106" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="112">
+      <c r="L6" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="113">
+      <c r="M6" s="108">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="114" t="e">
+      <c r="N6" s="109" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="109"/>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="109"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="85"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="87" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89">
+      <c r="A7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="83"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="90"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="90">
+      <c r="G7" s="85"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="115"/>
-      <c r="K7" s="111" t="e">
+      <c r="J7" s="110"/>
+      <c r="K7" s="106" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="112">
+      <c r="L7" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="113">
+      <c r="M7" s="108">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="114" t="e">
+      <c r="N7" s="109" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="109"/>
-      <c r="P7" s="109"/>
-      <c r="Q7" s="109"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="104"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="85"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="87" t="s">
+      <c r="A8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="88"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89">
+      <c r="D8" s="83"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="90"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="90">
+      <c r="G8" s="85"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="115"/>
-      <c r="K8" s="111" t="e">
+      <c r="J8" s="110"/>
+      <c r="K8" s="106" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="112">
+      <c r="L8" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="113">
+      <c r="M8" s="108">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="114" t="e">
+      <c r="N8" s="109" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="109"/>
-      <c r="P8" s="109"/>
-      <c r="Q8" s="109"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="85"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="87" t="s">
+      <c r="A9" s="80"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="88"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89">
+      <c r="D9" s="83"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="90"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="90">
+      <c r="G9" s="85"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="115"/>
-      <c r="K9" s="111" t="e">
+      <c r="J9" s="110"/>
+      <c r="K9" s="106" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="112">
+      <c r="L9" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="113">
+      <c r="M9" s="108">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="114" t="e">
+      <c r="N9" s="109" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="85"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="91" t="s">
+      <c r="A10" s="80"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="92"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="94">
+      <c r="D10" s="87"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="95"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="95">
+      <c r="G10" s="90"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="90">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="116"/>
-      <c r="K10" s="117" t="e">
+      <c r="J10" s="111"/>
+      <c r="K10" s="112" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="118">
+      <c r="L10" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="119">
+      <c r="M10" s="114">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="120" t="e">
+      <c r="N10" s="115" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="97"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="99" t="s">
+      <c r="A11" s="92"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="100">
+      <c r="D11" s="95">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="100">
+      <c r="E11" s="95">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="101">
+      <c r="F11" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="100">
+      <c r="G11" s="95">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="100">
+      <c r="H11" s="95">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="101">
+      <c r="I11" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="100">
+      <c r="J11" s="95">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="121" t="e">
+      <c r="K11" s="116" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="101">
+      <c r="L11" s="96">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="101">
+      <c r="M11" s="96">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="122" t="e">
+      <c r="N11" s="117" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="109"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4964,12 +4949,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P757"/>
+  <dimension ref="A1:P756"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A369" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A363" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B389" sqref="B389"/>
+      <selection pane="bottomLeft" activeCell="A369" sqref="$A369:$XFD369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9243,7 +9228,7 @@
       <c r="N95" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O95" s="123" t="s">
+      <c r="O95" s="118" t="s">
         <v>270</v>
       </c>
       <c r="P95" s="15" t="s">
@@ -21679,31 +21664,31 @@
       <c r="F359" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G359" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="H359" s="64">
+      <c r="G359" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H359" s="42">
         <v>76131959</v>
       </c>
-      <c r="I359" s="64" t="s">
+      <c r="I359" s="42" t="s">
         <v>810</v>
       </c>
-      <c r="J359" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K359" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L359" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M359" s="64" t="s">
+      <c r="J359" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K359" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L359" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M359" s="42" t="s">
         <v>811</v>
       </c>
-      <c r="N359" s="67" t="s">
+      <c r="N359" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O359" s="64">
+      <c r="O359" s="42">
         <v>18766011025</v>
       </c>
       <c r="P359" s="15" t="s">
@@ -21729,31 +21714,31 @@
       <c r="F360" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G360" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="H360" s="64">
+      <c r="G360" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H360" s="42">
         <v>76132085</v>
       </c>
-      <c r="I360" s="64" t="s">
+      <c r="I360" s="42" t="s">
         <v>812</v>
       </c>
-      <c r="J360" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K360" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L360" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M360" s="64" t="s">
+      <c r="J360" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K360" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L360" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M360" s="42" t="s">
         <v>813</v>
       </c>
-      <c r="N360" s="67" t="s">
+      <c r="N360" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O360" s="64">
+      <c r="O360" s="42">
         <v>18516327670</v>
       </c>
       <c r="P360" s="15" t="s">
@@ -21779,31 +21764,31 @@
       <c r="F361" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G361" s="64" t="s">
+      <c r="G361" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="H361" s="64">
+      <c r="H361" s="42">
         <v>76132178</v>
       </c>
-      <c r="I361" s="64" t="s">
+      <c r="I361" s="42" t="s">
         <v>814</v>
       </c>
-      <c r="J361" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K361" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L361" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M361" s="64" t="s">
+      <c r="J361" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K361" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L361" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M361" s="42" t="s">
         <v>815</v>
       </c>
-      <c r="N361" s="67" t="s">
+      <c r="N361" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O361" s="68">
+      <c r="O361" s="39">
         <v>13686624337</v>
       </c>
       <c r="P361" s="15" t="s">
@@ -21829,31 +21814,31 @@
       <c r="F362" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G362" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="H362" s="64">
+      <c r="G362" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H362" s="42">
         <v>76132679</v>
       </c>
-      <c r="I362" s="64" t="s">
+      <c r="I362" s="42" t="s">
         <v>816</v>
       </c>
-      <c r="J362" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K362" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L362" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M362" s="68" t="s">
+      <c r="J362" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K362" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L362" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M362" s="39" t="s">
         <v>764</v>
       </c>
-      <c r="N362" s="67" t="s">
+      <c r="N362" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O362" s="64">
+      <c r="O362" s="42">
         <v>17828999500</v>
       </c>
       <c r="P362" s="15" t="s">
@@ -21879,31 +21864,31 @@
       <c r="F363" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G363" s="64" t="s">
+      <c r="G363" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="H363" s="64">
+      <c r="H363" s="42">
         <v>76133685</v>
       </c>
-      <c r="I363" s="64" t="s">
+      <c r="I363" s="42" t="s">
         <v>817</v>
       </c>
-      <c r="J363" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K363" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L363" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M363" s="64" t="s">
+      <c r="J363" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K363" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L363" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M363" s="42" t="s">
         <v>818</v>
       </c>
-      <c r="N363" s="67" t="s">
+      <c r="N363" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O363" s="64">
+      <c r="O363" s="42">
         <v>18171241882</v>
       </c>
       <c r="P363" s="15" t="s">
@@ -21929,31 +21914,31 @@
       <c r="F364" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G364" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="H364" s="64">
+      <c r="G364" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H364" s="42">
         <v>76133831</v>
       </c>
-      <c r="I364" s="64" t="s">
+      <c r="I364" s="42" t="s">
         <v>819</v>
       </c>
-      <c r="J364" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K364" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L364" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M364" s="64" t="s">
+      <c r="J364" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K364" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L364" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M364" s="42" t="s">
         <v>820</v>
       </c>
-      <c r="N364" s="67" t="s">
+      <c r="N364" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O364" s="64">
+      <c r="O364" s="42">
         <v>13916097119</v>
       </c>
       <c r="P364" s="15" t="s">
@@ -21979,31 +21964,31 @@
       <c r="F365" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G365" s="64" t="s">
+      <c r="G365" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="H365" s="64">
+      <c r="H365" s="42">
         <v>76135382</v>
       </c>
-      <c r="I365" s="64" t="s">
+      <c r="I365" s="42" t="s">
         <v>821</v>
       </c>
-      <c r="J365" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K365" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L365" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M365" s="64" t="s">
+      <c r="J365" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K365" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L365" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M365" s="42" t="s">
         <v>822</v>
       </c>
-      <c r="N365" s="67" t="s">
+      <c r="N365" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O365" s="64">
+      <c r="O365" s="42">
         <v>13813923915</v>
       </c>
       <c r="P365" s="15" t="s">
@@ -22029,31 +22014,31 @@
       <c r="F366" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G366" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="H366" s="64">
+      <c r="G366" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H366" s="42">
         <v>76116670</v>
       </c>
-      <c r="I366" s="64" t="s">
+      <c r="I366" s="42" t="s">
         <v>645</v>
       </c>
-      <c r="J366" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K366" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L366" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M366" s="64" t="s">
+      <c r="J366" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K366" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L366" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M366" s="42" t="s">
         <v>823</v>
       </c>
-      <c r="N366" s="67" t="s">
+      <c r="N366" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O366" s="64">
+      <c r="O366" s="42">
         <v>15921618009</v>
       </c>
       <c r="P366" s="15" t="s">
@@ -22079,31 +22064,31 @@
       <c r="F367" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G367" s="64" t="s">
+      <c r="G367" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="H367" s="64">
+      <c r="H367" s="42">
         <v>76136538</v>
       </c>
-      <c r="I367" s="64" t="s">
+      <c r="I367" s="42" t="s">
         <v>824</v>
       </c>
-      <c r="J367" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K367" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L367" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M367" s="64" t="s">
+      <c r="J367" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K367" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L367" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M367" s="42" t="s">
         <v>825</v>
       </c>
-      <c r="N367" s="67" t="s">
+      <c r="N367" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O367" s="64">
+      <c r="O367" s="42">
         <v>15043335210</v>
       </c>
       <c r="P367" s="15" t="s">
@@ -22129,31 +22114,31 @@
       <c r="F368" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G368" s="64" t="s">
+      <c r="G368" s="42" t="s">
         <v>634</v>
       </c>
-      <c r="H368" s="64">
+      <c r="H368" s="42">
         <v>76136880</v>
       </c>
-      <c r="I368" s="64" t="s">
+      <c r="I368" s="42" t="s">
         <v>826</v>
       </c>
-      <c r="J368" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K368" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L368" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M368" s="64" t="s">
+      <c r="J368" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K368" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L368" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M368" s="42" t="s">
         <v>827</v>
       </c>
-      <c r="N368" s="67" t="s">
+      <c r="N368" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O368" s="64">
+      <c r="O368" s="42">
         <v>15262623387</v>
       </c>
       <c r="P368" s="15" t="s">
@@ -22179,32 +22164,32 @@
       <c r="F369" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G369" s="65" t="s">
-        <v>395</v>
-      </c>
-      <c r="H369" s="64">
-        <v>76129327</v>
-      </c>
-      <c r="I369" s="66" t="s">
-        <v>748</v>
-      </c>
-      <c r="J369" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K369" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L369" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M369" s="65" t="s">
-        <v>749</v>
-      </c>
-      <c r="N369" s="67" t="s">
+      <c r="G369" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H369" s="42">
+        <v>76135061</v>
+      </c>
+      <c r="I369" s="16" t="s">
+        <v>828</v>
+      </c>
+      <c r="J369" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K369" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L369" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M369" s="16" t="s">
+        <v>829</v>
+      </c>
+      <c r="N369" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O369" s="65">
-        <v>18972397755</v>
+      <c r="O369" s="16">
+        <v>13601994879</v>
       </c>
       <c r="P369" s="15" t="s">
         <v>174</v>
@@ -22229,32 +22214,32 @@
       <c r="F370" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G370" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="H370" s="64">
-        <v>76135061</v>
-      </c>
-      <c r="I370" s="66" t="s">
-        <v>828</v>
-      </c>
-      <c r="J370" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K370" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L370" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M370" s="65" t="s">
-        <v>829</v>
-      </c>
-      <c r="N370" s="67" t="s">
+      <c r="G370" s="16" t="s">
+        <v>688</v>
+      </c>
+      <c r="H370" s="42">
+        <v>76135063</v>
+      </c>
+      <c r="I370" s="16" t="s">
+        <v>830</v>
+      </c>
+      <c r="J370" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K370" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L370" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M370" s="16" t="s">
+        <v>831</v>
+      </c>
+      <c r="N370" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O370" s="65">
-        <v>13601994879</v>
+      <c r="O370" s="16">
+        <v>15813826521</v>
       </c>
       <c r="P370" s="15" t="s">
         <v>174</v>
@@ -22279,32 +22264,32 @@
       <c r="F371" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G371" s="65" t="s">
-        <v>688</v>
-      </c>
-      <c r="H371" s="64">
-        <v>76135063</v>
-      </c>
-      <c r="I371" s="66" t="s">
-        <v>830</v>
-      </c>
-      <c r="J371" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K371" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L371" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M371" s="65" t="s">
-        <v>831</v>
-      </c>
-      <c r="N371" s="67" t="s">
+      <c r="G371" s="16" t="s">
+        <v>832</v>
+      </c>
+      <c r="H371" s="42">
+        <v>76130055</v>
+      </c>
+      <c r="I371" s="16" t="s">
+        <v>833</v>
+      </c>
+      <c r="J371" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K371" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L371" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M371" s="16" t="s">
+        <v>834</v>
+      </c>
+      <c r="N371" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O371" s="65">
-        <v>15813826521</v>
+      <c r="O371" s="16">
+        <v>15009511134</v>
       </c>
       <c r="P371" s="15" t="s">
         <v>174</v>
@@ -22329,32 +22314,32 @@
       <c r="F372" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G372" s="65" t="s">
-        <v>832</v>
-      </c>
-      <c r="H372" s="64">
-        <v>76130055</v>
-      </c>
-      <c r="I372" s="66" t="s">
-        <v>833</v>
-      </c>
-      <c r="J372" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K372" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L372" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M372" s="65" t="s">
-        <v>834</v>
-      </c>
-      <c r="N372" s="67" t="s">
+      <c r="G372" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="H372" s="42">
+        <v>76129807</v>
+      </c>
+      <c r="I372" s="16" t="s">
+        <v>835</v>
+      </c>
+      <c r="J372" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K372" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L372" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M372" s="16" t="s">
+        <v>836</v>
+      </c>
+      <c r="N372" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O372" s="65">
-        <v>15009511134</v>
+      <c r="O372" s="16">
+        <v>18638021596</v>
       </c>
       <c r="P372" s="15" t="s">
         <v>174</v>
@@ -22379,32 +22364,32 @@
       <c r="F373" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G373" s="65" t="s">
-        <v>540</v>
-      </c>
-      <c r="H373" s="64">
-        <v>76129807</v>
-      </c>
-      <c r="I373" s="66" t="s">
-        <v>835</v>
-      </c>
-      <c r="J373" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K373" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L373" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M373" s="65" t="s">
-        <v>836</v>
-      </c>
-      <c r="N373" s="67" t="s">
+      <c r="G373" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H373" s="42">
+        <v>76136739</v>
+      </c>
+      <c r="I373" s="16" t="s">
+        <v>837</v>
+      </c>
+      <c r="J373" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K373" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L373" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M373" s="16" t="s">
+        <v>838</v>
+      </c>
+      <c r="N373" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O373" s="65">
-        <v>18638021596</v>
+      <c r="O373" s="16">
+        <v>15000271949</v>
       </c>
       <c r="P373" s="15" t="s">
         <v>174</v>
@@ -22429,32 +22414,32 @@
       <c r="F374" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G374" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="H374" s="64">
-        <v>76136739</v>
-      </c>
-      <c r="I374" s="66" t="s">
-        <v>837</v>
-      </c>
-      <c r="J374" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K374" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L374" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M374" s="65" t="s">
-        <v>838</v>
-      </c>
-      <c r="N374" s="67" t="s">
+      <c r="G374" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H374" s="42">
+        <v>76136825</v>
+      </c>
+      <c r="I374" s="16" t="s">
+        <v>839</v>
+      </c>
+      <c r="J374" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K374" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L374" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M374" s="16" t="s">
+        <v>840</v>
+      </c>
+      <c r="N374" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O374" s="65">
-        <v>15000271949</v>
+      <c r="O374" s="16">
+        <v>15001777205</v>
       </c>
       <c r="P374" s="15" t="s">
         <v>174</v>
@@ -22479,32 +22464,32 @@
       <c r="F375" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G375" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="H375" s="64">
-        <v>76136825</v>
-      </c>
-      <c r="I375" s="66" t="s">
-        <v>839</v>
-      </c>
-      <c r="J375" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K375" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L375" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M375" s="65" t="s">
-        <v>840</v>
-      </c>
-      <c r="N375" s="67" t="s">
+      <c r="G375" s="16" t="s">
+        <v>688</v>
+      </c>
+      <c r="H375" s="42">
+        <v>76137190</v>
+      </c>
+      <c r="I375" s="16" t="s">
+        <v>841</v>
+      </c>
+      <c r="J375" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K375" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L375" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M375" s="16" t="s">
+        <v>842</v>
+      </c>
+      <c r="N375" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O375" s="65">
-        <v>15001777205</v>
+      <c r="O375" s="16">
+        <v>15813738929</v>
       </c>
       <c r="P375" s="15" t="s">
         <v>174</v>
@@ -22529,32 +22514,32 @@
       <c r="F376" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G376" s="65" t="s">
-        <v>688</v>
-      </c>
-      <c r="H376" s="64">
-        <v>76137190</v>
-      </c>
-      <c r="I376" s="66" t="s">
-        <v>841</v>
-      </c>
-      <c r="J376" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K376" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L376" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M376" s="65" t="s">
-        <v>842</v>
-      </c>
-      <c r="N376" s="67" t="s">
+      <c r="G376" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="H376" s="42">
+        <v>76131069</v>
+      </c>
+      <c r="I376" s="16" t="s">
+        <v>843</v>
+      </c>
+      <c r="J376" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K376" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L376" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M376" s="16" t="s">
+        <v>844</v>
+      </c>
+      <c r="N376" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O376" s="65">
-        <v>15813738929</v>
+      <c r="O376" s="16">
+        <v>13906257206</v>
       </c>
       <c r="P376" s="15" t="s">
         <v>174</v>
@@ -22573,41 +22558,41 @@
       <c r="D377" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="E377" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="F377" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="G377" s="65" t="s">
-        <v>292</v>
-      </c>
-      <c r="H377" s="64">
-        <v>76131069</v>
-      </c>
-      <c r="I377" s="66" t="s">
-        <v>843</v>
-      </c>
-      <c r="J377" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K377" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L377" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M377" s="65" t="s">
-        <v>844</v>
-      </c>
-      <c r="N377" s="67" t="s">
+      <c r="E377" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="F377" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="G377" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="H377" s="16">
+        <v>76126353</v>
+      </c>
+      <c r="I377" s="16" t="s">
+        <v>846</v>
+      </c>
+      <c r="J377" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K377" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L377" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M377" s="16" t="s">
+        <v>847</v>
+      </c>
+      <c r="N377" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O377" s="65">
-        <v>13906257206</v>
+      <c r="O377" s="16">
+        <v>13801585556</v>
       </c>
       <c r="P377" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="378" spans="1:16">
@@ -22629,32 +22614,32 @@
       <c r="F378" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="G378" s="66" t="s">
+      <c r="G378" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="H378" s="66">
-        <v>76126353</v>
-      </c>
-      <c r="I378" s="66" t="s">
-        <v>846</v>
-      </c>
-      <c r="J378" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K378" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L378" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M378" s="66" t="s">
-        <v>847</v>
-      </c>
-      <c r="N378" s="67" t="s">
+      <c r="H378" s="16">
+        <v>76136089</v>
+      </c>
+      <c r="I378" s="16" t="s">
+        <v>848</v>
+      </c>
+      <c r="J378" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K378" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L378" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M378" s="16" t="s">
+        <v>849</v>
+      </c>
+      <c r="N378" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O378" s="66">
-        <v>13801585556</v>
+      <c r="O378" s="16">
+        <v>15905192673</v>
       </c>
       <c r="P378" s="15" t="s">
         <v>171</v>
@@ -22679,32 +22664,32 @@
       <c r="F379" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="G379" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="H379" s="66">
-        <v>76136089</v>
-      </c>
-      <c r="I379" s="66" t="s">
-        <v>848</v>
-      </c>
-      <c r="J379" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K379" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L379" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M379" s="66" t="s">
-        <v>849</v>
-      </c>
-      <c r="N379" s="67" t="s">
+      <c r="G379" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H379" s="16">
+        <v>76126350</v>
+      </c>
+      <c r="I379" s="16" t="s">
+        <v>850</v>
+      </c>
+      <c r="J379" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K379" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L379" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M379" s="16" t="s">
+        <v>851</v>
+      </c>
+      <c r="N379" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O379" s="66">
-        <v>15905192673</v>
+      <c r="O379" s="16">
+        <v>13955995051</v>
       </c>
       <c r="P379" s="15" t="s">
         <v>171</v>
@@ -22729,32 +22714,32 @@
       <c r="F380" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="G380" s="66" t="s">
-        <v>179</v>
-      </c>
-      <c r="H380" s="66">
-        <v>76126350</v>
-      </c>
-      <c r="I380" s="66" t="s">
-        <v>850</v>
-      </c>
-      <c r="J380" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K380" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L380" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M380" s="66" t="s">
-        <v>851</v>
-      </c>
-      <c r="N380" s="67" t="s">
+      <c r="G380" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H380" s="16">
+        <v>76127920</v>
+      </c>
+      <c r="I380" s="16" t="s">
+        <v>852</v>
+      </c>
+      <c r="J380" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K380" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L380" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M380" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="N380" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O380" s="66">
-        <v>13955995051</v>
+      <c r="O380" s="16">
+        <v>18616873060</v>
       </c>
       <c r="P380" s="15" t="s">
         <v>171</v>
@@ -22779,32 +22764,32 @@
       <c r="F381" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="G381" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="H381" s="66">
-        <v>76127920</v>
-      </c>
-      <c r="I381" s="66" t="s">
-        <v>852</v>
-      </c>
-      <c r="J381" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K381" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L381" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M381" s="66" t="s">
-        <v>477</v>
-      </c>
-      <c r="N381" s="67" t="s">
+      <c r="G381" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="H381" s="16">
+        <v>76126352</v>
+      </c>
+      <c r="I381" s="16" t="s">
+        <v>619</v>
+      </c>
+      <c r="J381" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K381" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L381" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M381" s="16" t="s">
+        <v>847</v>
+      </c>
+      <c r="N381" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O381" s="66">
-        <v>18616873060</v>
+      <c r="O381" s="16">
+        <v>18502560868</v>
       </c>
       <c r="P381" s="15" t="s">
         <v>171</v>
@@ -22829,32 +22814,32 @@
       <c r="F382" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="G382" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="H382" s="66">
-        <v>76126352</v>
-      </c>
-      <c r="I382" s="66" t="s">
-        <v>619</v>
-      </c>
-      <c r="J382" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K382" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L382" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M382" s="66" t="s">
-        <v>847</v>
-      </c>
-      <c r="N382" s="67" t="s">
+      <c r="G382" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H382" s="16">
+        <v>76125717</v>
+      </c>
+      <c r="I382" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="J382" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K382" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L382" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M382" s="16" t="s">
+        <v>854</v>
+      </c>
+      <c r="N382" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O382" s="66">
-        <v>18502560868</v>
+      <c r="O382" s="16">
+        <v>18217199515</v>
       </c>
       <c r="P382" s="15" t="s">
         <v>171</v>
@@ -22874,37 +22859,37 @@
         <v>42</v>
       </c>
       <c r="E383" s="8" t="s">
-        <v>845</v>
+        <v>855</v>
       </c>
       <c r="F383" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="G383" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="H383" s="66">
-        <v>76125717</v>
-      </c>
-      <c r="I383" s="66" t="s">
-        <v>853</v>
-      </c>
-      <c r="J383" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K383" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L383" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M383" s="66" t="s">
-        <v>854</v>
-      </c>
-      <c r="N383" s="67" t="s">
+        <v>855</v>
+      </c>
+      <c r="G383" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H383" s="16">
+        <v>76116978</v>
+      </c>
+      <c r="I383" s="16" t="s">
+        <v>856</v>
+      </c>
+      <c r="J383" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K383" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L383" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M383" s="16" t="s">
+        <v>857</v>
+      </c>
+      <c r="N383" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O383" s="66">
-        <v>18217199515</v>
+      <c r="O383" s="16">
+        <v>15779553685</v>
       </c>
       <c r="P383" s="15" t="s">
         <v>171</v>
@@ -22929,32 +22914,32 @@
       <c r="F384" s="8" t="s">
         <v>855</v>
       </c>
-      <c r="G384" s="66" t="s">
-        <v>124</v>
-      </c>
-      <c r="H384" s="66">
-        <v>76116978</v>
-      </c>
-      <c r="I384" s="66" t="s">
-        <v>856</v>
-      </c>
-      <c r="J384" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K384" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L384" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M384" s="66" t="s">
-        <v>857</v>
-      </c>
-      <c r="N384" s="67" t="s">
+      <c r="G384" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H384" s="16">
+        <v>76116868</v>
+      </c>
+      <c r="I384" s="16" t="s">
+        <v>858</v>
+      </c>
+      <c r="J384" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K384" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L384" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M384" s="16" t="s">
+        <v>859</v>
+      </c>
+      <c r="N384" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O384" s="66">
-        <v>15779553685</v>
+      <c r="O384" s="16">
+        <v>15250597823</v>
       </c>
       <c r="P384" s="15" t="s">
         <v>171</v>
@@ -22979,32 +22964,32 @@
       <c r="F385" s="8" t="s">
         <v>855</v>
       </c>
-      <c r="G385" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="H385" s="66">
-        <v>76116868</v>
-      </c>
-      <c r="I385" s="66" t="s">
-        <v>858</v>
-      </c>
-      <c r="J385" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K385" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L385" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M385" s="66" t="s">
-        <v>859</v>
-      </c>
-      <c r="N385" s="67" t="s">
+      <c r="G385" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H385" s="16">
+        <v>76115972</v>
+      </c>
+      <c r="I385" s="16" t="s">
+        <v>860</v>
+      </c>
+      <c r="J385" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K385" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L385" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M385" s="16" t="s">
+        <v>861</v>
+      </c>
+      <c r="N385" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O385" s="66">
-        <v>15250597823</v>
+      <c r="O385" s="16">
+        <v>15868338050</v>
       </c>
       <c r="P385" s="15" t="s">
         <v>171</v>
@@ -23029,32 +23014,32 @@
       <c r="F386" s="8" t="s">
         <v>855</v>
       </c>
-      <c r="G386" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="H386" s="66">
-        <v>76115972</v>
-      </c>
-      <c r="I386" s="66" t="s">
-        <v>860</v>
-      </c>
-      <c r="J386" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K386" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L386" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M386" s="66" t="s">
-        <v>861</v>
-      </c>
-      <c r="N386" s="67" t="s">
+      <c r="G386" s="42" t="s">
+        <v>862</v>
+      </c>
+      <c r="H386" s="16">
+        <v>76123765</v>
+      </c>
+      <c r="I386" s="42" t="s">
+        <v>863</v>
+      </c>
+      <c r="J386" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K386" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L386" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M386" s="42" t="s">
+        <v>658</v>
+      </c>
+      <c r="N386" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O386" s="66">
-        <v>15868338050</v>
+      <c r="O386" s="42">
+        <v>13715764510</v>
       </c>
       <c r="P386" s="15" t="s">
         <v>171</v>
@@ -23079,86 +23064,43 @@
       <c r="F387" s="8" t="s">
         <v>855</v>
       </c>
-      <c r="G387" s="64" t="s">
-        <v>862</v>
-      </c>
-      <c r="H387" s="66">
-        <v>76123765</v>
-      </c>
-      <c r="I387" s="64" t="s">
-        <v>863</v>
-      </c>
-      <c r="J387" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K387" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L387" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M387" s="64" t="s">
-        <v>658</v>
-      </c>
-      <c r="N387" s="67" t="s">
+      <c r="G387" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H387" s="16">
+        <v>76128629</v>
+      </c>
+      <c r="I387" s="16" t="s">
+        <v>864</v>
+      </c>
+      <c r="J387" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K387" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L387" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M387" s="16" t="s">
+        <v>865</v>
+      </c>
+      <c r="N387" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O387" s="64">
-        <v>13715764510</v>
+      <c r="O387" s="16">
+        <v>15906739239</v>
       </c>
       <c r="P387" s="15" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="388" spans="1:16">
-      <c r="A388" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B388" s="19">
-        <v>11</v>
-      </c>
-      <c r="C388" s="18">
-        <v>43173</v>
-      </c>
-      <c r="D388" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="E388" s="8" t="s">
-        <v>855</v>
-      </c>
-      <c r="F388" s="8" t="s">
-        <v>855</v>
-      </c>
-      <c r="G388" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="H388" s="65">
-        <v>76128629</v>
-      </c>
-      <c r="I388" s="65" t="s">
-        <v>864</v>
-      </c>
-      <c r="J388" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K388" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="L388" s="67">
-        <v>17721436606</v>
-      </c>
-      <c r="M388" s="65" t="s">
-        <v>865</v>
-      </c>
-      <c r="N388" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="O388" s="65">
-        <v>15906739239</v>
-      </c>
-      <c r="P388" s="15" t="s">
-        <v>171</v>
-      </c>
+      <c r="A388" s="22"/>
+      <c r="B388" s="21"/>
+      <c r="C388" s="18"/>
+      <c r="D388" s="45"/>
+      <c r="P388" s="8"/>
     </row>
     <row r="389" spans="1:16">
       <c r="A389" s="22"/>
@@ -23184,8 +23126,6 @@
     <row r="392" spans="1:16">
       <c r="A392" s="22"/>
       <c r="B392" s="21"/>
-      <c r="C392" s="18"/>
-      <c r="D392" s="45"/>
       <c r="P392" s="8"/>
     </row>
     <row r="393" spans="1:16">
@@ -23289,12 +23229,12 @@
       <c r="P412" s="8"/>
     </row>
     <row r="413" spans="1:16">
-      <c r="A413" s="22"/>
+      <c r="A413" s="64"/>
       <c r="B413" s="21"/>
       <c r="P413" s="8"/>
     </row>
     <row r="414" spans="1:16">
-      <c r="A414" s="69"/>
+      <c r="A414" s="22"/>
       <c r="B414" s="21"/>
       <c r="P414" s="8"/>
     </row>
@@ -23379,1226 +23319,1221 @@
       <c r="P430" s="8"/>
     </row>
     <row r="431" spans="1:16">
-      <c r="A431" s="22"/>
+      <c r="A431" s="64"/>
       <c r="B431" s="21"/>
       <c r="P431" s="8"/>
     </row>
     <row r="432" spans="1:16">
-      <c r="A432" s="69"/>
+      <c r="A432" s="22"/>
       <c r="B432" s="21"/>
       <c r="P432" s="8"/>
     </row>
     <row r="433" spans="1:16">
-      <c r="A433" s="22"/>
+      <c r="A433" s="64"/>
       <c r="B433" s="21"/>
       <c r="P433" s="8"/>
     </row>
     <row r="434" spans="1:16">
-      <c r="A434" s="69"/>
+      <c r="A434" s="22"/>
       <c r="B434" s="21"/>
       <c r="P434" s="8"/>
     </row>
     <row r="435" spans="1:16">
-      <c r="A435" s="22"/>
+      <c r="A435" s="64"/>
       <c r="B435" s="21"/>
       <c r="P435" s="8"/>
     </row>
     <row r="436" spans="1:16">
-      <c r="A436" s="69"/>
+      <c r="A436" s="22"/>
       <c r="B436" s="21"/>
       <c r="P436" s="8"/>
     </row>
     <row r="437" spans="1:16">
-      <c r="A437" s="22"/>
+      <c r="A437" s="64"/>
       <c r="B437" s="21"/>
       <c r="P437" s="8"/>
     </row>
     <row r="438" spans="1:16">
-      <c r="A438" s="69"/>
+      <c r="A438" s="22"/>
       <c r="B438" s="21"/>
       <c r="P438" s="8"/>
     </row>
     <row r="439" spans="1:16">
-      <c r="A439" s="22"/>
+      <c r="A439" s="64"/>
       <c r="B439" s="21"/>
       <c r="P439" s="8"/>
     </row>
     <row r="440" spans="1:16">
-      <c r="A440" s="69"/>
+      <c r="A440" s="22"/>
       <c r="B440" s="21"/>
       <c r="P440" s="8"/>
     </row>
     <row r="441" spans="1:16">
-      <c r="A441" s="22"/>
+      <c r="A441" s="64"/>
       <c r="B441" s="21"/>
       <c r="P441" s="8"/>
     </row>
     <row r="442" spans="1:16">
-      <c r="A442" s="69"/>
+      <c r="A442" s="22"/>
       <c r="B442" s="21"/>
       <c r="P442" s="8"/>
     </row>
     <row r="443" spans="1:16">
-      <c r="A443" s="22"/>
+      <c r="A443" s="64"/>
       <c r="B443" s="21"/>
       <c r="P443" s="8"/>
     </row>
     <row r="444" spans="1:16">
-      <c r="A444" s="69"/>
+      <c r="A444" s="22"/>
       <c r="B444" s="21"/>
       <c r="P444" s="8"/>
     </row>
     <row r="445" spans="1:16">
-      <c r="A445" s="22"/>
+      <c r="A445" s="64"/>
       <c r="B445" s="21"/>
       <c r="P445" s="8"/>
     </row>
     <row r="446" spans="1:16">
-      <c r="A446" s="69"/>
+      <c r="A446" s="22"/>
       <c r="B446" s="21"/>
       <c r="P446" s="8"/>
     </row>
     <row r="447" spans="1:16">
-      <c r="A447" s="22"/>
+      <c r="A447" s="64"/>
       <c r="B447" s="21"/>
       <c r="P447" s="8"/>
     </row>
     <row r="448" spans="1:16">
-      <c r="A448" s="69"/>
+      <c r="A448" s="22"/>
       <c r="B448" s="21"/>
       <c r="P448" s="8"/>
     </row>
     <row r="449" spans="1:16">
-      <c r="A449" s="22"/>
+      <c r="A449" s="64"/>
       <c r="B449" s="21"/>
       <c r="P449" s="8"/>
     </row>
     <row r="450" spans="1:16">
-      <c r="A450" s="69"/>
+      <c r="A450" s="22"/>
       <c r="B450" s="21"/>
       <c r="P450" s="8"/>
     </row>
     <row r="451" spans="1:16">
-      <c r="A451" s="22"/>
+      <c r="A451" s="64"/>
       <c r="B451" s="21"/>
       <c r="P451" s="8"/>
     </row>
     <row r="452" spans="1:16">
-      <c r="A452" s="69"/>
+      <c r="A452" s="22"/>
       <c r="B452" s="21"/>
       <c r="P452" s="8"/>
     </row>
     <row r="453" spans="1:16">
-      <c r="A453" s="22"/>
+      <c r="A453" s="64"/>
       <c r="B453" s="21"/>
       <c r="P453" s="8"/>
     </row>
     <row r="454" spans="1:16">
-      <c r="A454" s="69"/>
+      <c r="A454" s="22"/>
       <c r="B454" s="21"/>
       <c r="P454" s="8"/>
     </row>
     <row r="455" spans="1:16">
-      <c r="A455" s="22"/>
+      <c r="A455" s="64"/>
       <c r="B455" s="21"/>
       <c r="P455" s="8"/>
     </row>
     <row r="456" spans="1:16">
-      <c r="A456" s="69"/>
+      <c r="A456" s="22"/>
       <c r="B456" s="21"/>
       <c r="P456" s="8"/>
     </row>
     <row r="457" spans="1:16">
-      <c r="A457" s="22"/>
+      <c r="A457" s="64"/>
       <c r="B457" s="21"/>
       <c r="P457" s="8"/>
     </row>
     <row r="458" spans="1:16">
-      <c r="A458" s="69"/>
+      <c r="A458" s="22"/>
       <c r="B458" s="21"/>
       <c r="P458" s="8"/>
     </row>
     <row r="459" spans="1:16">
-      <c r="A459" s="22"/>
+      <c r="A459" s="64"/>
       <c r="B459" s="21"/>
       <c r="P459" s="8"/>
     </row>
     <row r="460" spans="1:16">
-      <c r="A460" s="69"/>
+      <c r="A460" s="22"/>
       <c r="B460" s="21"/>
       <c r="P460" s="8"/>
     </row>
     <row r="461" spans="1:16">
-      <c r="A461" s="22"/>
+      <c r="A461" s="64"/>
       <c r="B461" s="21"/>
       <c r="P461" s="8"/>
     </row>
     <row r="462" spans="1:16">
-      <c r="A462" s="69"/>
+      <c r="A462" s="22"/>
       <c r="B462" s="21"/>
       <c r="P462" s="8"/>
     </row>
     <row r="463" spans="1:16">
-      <c r="A463" s="22"/>
+      <c r="A463" s="64"/>
       <c r="B463" s="21"/>
       <c r="P463" s="8"/>
     </row>
     <row r="464" spans="1:16">
-      <c r="A464" s="69"/>
+      <c r="A464" s="22"/>
       <c r="B464" s="21"/>
       <c r="P464" s="8"/>
     </row>
     <row r="465" spans="1:16">
-      <c r="A465" s="22"/>
+      <c r="A465" s="64"/>
       <c r="B465" s="21"/>
       <c r="P465" s="8"/>
     </row>
     <row r="466" spans="1:16">
-      <c r="A466" s="69"/>
+      <c r="A466" s="22"/>
       <c r="B466" s="21"/>
       <c r="P466" s="8"/>
     </row>
     <row r="467" spans="1:16">
-      <c r="A467" s="22"/>
+      <c r="A467" s="64"/>
       <c r="B467" s="21"/>
       <c r="P467" s="8"/>
     </row>
     <row r="468" spans="1:16">
-      <c r="A468" s="69"/>
+      <c r="A468" s="22"/>
       <c r="B468" s="21"/>
       <c r="P468" s="8"/>
     </row>
     <row r="469" spans="1:16">
-      <c r="A469" s="22"/>
+      <c r="A469" s="64"/>
       <c r="B469" s="21"/>
       <c r="P469" s="8"/>
     </row>
     <row r="470" spans="1:16">
-      <c r="A470" s="69"/>
+      <c r="A470" s="22"/>
       <c r="B470" s="21"/>
       <c r="P470" s="8"/>
     </row>
     <row r="471" spans="1:16">
-      <c r="A471" s="22"/>
+      <c r="A471" s="64"/>
       <c r="B471" s="21"/>
       <c r="P471" s="8"/>
     </row>
     <row r="472" spans="1:16">
-      <c r="A472" s="69"/>
+      <c r="A472" s="22"/>
       <c r="B472" s="21"/>
       <c r="P472" s="8"/>
     </row>
     <row r="473" spans="1:16">
-      <c r="A473" s="22"/>
+      <c r="A473" s="64"/>
       <c r="B473" s="21"/>
       <c r="P473" s="8"/>
     </row>
     <row r="474" spans="1:16">
-      <c r="A474" s="69"/>
+      <c r="A474" s="22"/>
       <c r="B474" s="21"/>
       <c r="P474" s="8"/>
     </row>
     <row r="475" spans="1:16">
-      <c r="A475" s="22"/>
+      <c r="A475" s="64"/>
       <c r="B475" s="21"/>
       <c r="P475" s="8"/>
     </row>
     <row r="476" spans="1:16">
-      <c r="A476" s="69"/>
+      <c r="A476" s="22"/>
       <c r="B476" s="21"/>
       <c r="P476" s="8"/>
     </row>
-    <row r="477" spans="1:16">
-      <c r="A477" s="22"/>
+    <row r="477" spans="1:2">
+      <c r="A477" s="64"/>
       <c r="B477" s="21"/>
-      <c r="P477" s="8"/>
     </row>
     <row r="478" spans="1:2">
-      <c r="A478" s="69"/>
+      <c r="A478" s="22"/>
       <c r="B478" s="21"/>
     </row>
     <row r="479" spans="1:2">
-      <c r="A479" s="22"/>
+      <c r="A479" s="64"/>
       <c r="B479" s="21"/>
     </row>
     <row r="480" spans="1:2">
-      <c r="A480" s="69"/>
+      <c r="A480" s="22"/>
       <c r="B480" s="21"/>
     </row>
     <row r="481" spans="1:2">
-      <c r="A481" s="22"/>
+      <c r="A481" s="64"/>
       <c r="B481" s="21"/>
     </row>
     <row r="482" spans="1:2">
-      <c r="A482" s="69"/>
+      <c r="A482" s="22"/>
       <c r="B482" s="21"/>
     </row>
     <row r="483" spans="1:2">
-      <c r="A483" s="22"/>
+      <c r="A483" s="64"/>
       <c r="B483" s="21"/>
     </row>
     <row r="484" spans="1:2">
-      <c r="A484" s="69"/>
+      <c r="A484" s="22"/>
       <c r="B484" s="21"/>
     </row>
     <row r="485" spans="1:2">
-      <c r="A485" s="22"/>
+      <c r="A485" s="64"/>
       <c r="B485" s="21"/>
     </row>
     <row r="486" spans="1:2">
-      <c r="A486" s="69"/>
+      <c r="A486" s="22"/>
       <c r="B486" s="21"/>
     </row>
     <row r="487" spans="1:2">
-      <c r="A487" s="22"/>
+      <c r="A487" s="64"/>
       <c r="B487" s="21"/>
     </row>
     <row r="488" spans="1:2">
-      <c r="A488" s="69"/>
+      <c r="A488" s="22"/>
       <c r="B488" s="21"/>
     </row>
     <row r="489" spans="1:2">
-      <c r="A489" s="22"/>
+      <c r="A489" s="64"/>
       <c r="B489" s="21"/>
     </row>
     <row r="490" spans="1:2">
-      <c r="A490" s="69"/>
+      <c r="A490" s="22"/>
       <c r="B490" s="21"/>
     </row>
     <row r="491" spans="1:2">
-      <c r="A491" s="22"/>
+      <c r="A491" s="64"/>
       <c r="B491" s="21"/>
     </row>
     <row r="492" spans="1:2">
-      <c r="A492" s="69"/>
+      <c r="A492" s="22"/>
       <c r="B492" s="21"/>
     </row>
     <row r="493" spans="1:2">
-      <c r="A493" s="22"/>
+      <c r="A493" s="64"/>
       <c r="B493" s="21"/>
     </row>
     <row r="494" spans="1:2">
-      <c r="A494" s="69"/>
+      <c r="A494" s="22"/>
       <c r="B494" s="21"/>
     </row>
     <row r="495" spans="1:2">
-      <c r="A495" s="22"/>
+      <c r="A495" s="64"/>
       <c r="B495" s="21"/>
     </row>
     <row r="496" spans="1:2">
-      <c r="A496" s="69"/>
+      <c r="A496" s="22"/>
       <c r="B496" s="21"/>
     </row>
     <row r="497" spans="1:2">
-      <c r="A497" s="22"/>
+      <c r="A497" s="64"/>
       <c r="B497" s="21"/>
     </row>
     <row r="498" spans="1:2">
-      <c r="A498" s="69"/>
+      <c r="A498" s="22"/>
       <c r="B498" s="21"/>
     </row>
     <row r="499" spans="1:2">
-      <c r="A499" s="22"/>
+      <c r="A499" s="64"/>
       <c r="B499" s="21"/>
     </row>
     <row r="500" spans="1:2">
-      <c r="A500" s="69"/>
+      <c r="A500" s="22"/>
       <c r="B500" s="21"/>
     </row>
     <row r="501" spans="1:2">
-      <c r="A501" s="22"/>
+      <c r="A501" s="64"/>
       <c r="B501" s="21"/>
     </row>
     <row r="502" spans="1:2">
-      <c r="A502" s="69"/>
+      <c r="A502" s="22"/>
       <c r="B502" s="21"/>
     </row>
     <row r="503" spans="1:2">
-      <c r="A503" s="22"/>
+      <c r="A503" s="64"/>
       <c r="B503" s="21"/>
     </row>
     <row r="504" spans="1:2">
-      <c r="A504" s="69"/>
+      <c r="A504" s="22"/>
       <c r="B504" s="21"/>
     </row>
     <row r="505" spans="1:2">
-      <c r="A505" s="22"/>
+      <c r="A505" s="64"/>
       <c r="B505" s="21"/>
     </row>
     <row r="506" spans="1:2">
-      <c r="A506" s="69"/>
+      <c r="A506" s="22"/>
       <c r="B506" s="21"/>
     </row>
     <row r="507" spans="1:2">
-      <c r="A507" s="22"/>
+      <c r="A507" s="64"/>
       <c r="B507" s="21"/>
     </row>
     <row r="508" spans="1:2">
-      <c r="A508" s="69"/>
+      <c r="A508" s="22"/>
       <c r="B508" s="21"/>
     </row>
     <row r="509" spans="1:2">
-      <c r="A509" s="22"/>
+      <c r="A509" s="64"/>
       <c r="B509" s="21"/>
     </row>
     <row r="510" spans="1:2">
-      <c r="A510" s="69"/>
+      <c r="A510" s="22"/>
       <c r="B510" s="21"/>
     </row>
     <row r="511" spans="1:2">
-      <c r="A511" s="22"/>
+      <c r="A511" s="64"/>
       <c r="B511" s="21"/>
     </row>
     <row r="512" spans="1:2">
-      <c r="A512" s="69"/>
+      <c r="A512" s="22"/>
       <c r="B512" s="21"/>
     </row>
     <row r="513" spans="1:2">
-      <c r="A513" s="22"/>
+      <c r="A513" s="64"/>
       <c r="B513" s="21"/>
     </row>
     <row r="514" spans="1:2">
-      <c r="A514" s="69"/>
+      <c r="A514" s="22"/>
       <c r="B514" s="21"/>
     </row>
     <row r="515" spans="1:2">
-      <c r="A515" s="22"/>
+      <c r="A515" s="64"/>
       <c r="B515" s="21"/>
     </row>
     <row r="516" spans="1:2">
-      <c r="A516" s="69"/>
+      <c r="A516" s="22"/>
       <c r="B516" s="21"/>
     </row>
     <row r="517" spans="1:2">
-      <c r="A517" s="22"/>
+      <c r="A517" s="64"/>
       <c r="B517" s="21"/>
     </row>
     <row r="518" spans="1:2">
-      <c r="A518" s="69"/>
+      <c r="A518" s="22"/>
       <c r="B518" s="21"/>
     </row>
     <row r="519" spans="1:2">
-      <c r="A519" s="22"/>
+      <c r="A519" s="64"/>
       <c r="B519" s="21"/>
     </row>
     <row r="520" spans="1:2">
-      <c r="A520" s="69"/>
+      <c r="A520" s="22"/>
       <c r="B520" s="21"/>
     </row>
     <row r="521" spans="1:2">
-      <c r="A521" s="22"/>
+      <c r="A521" s="64"/>
       <c r="B521" s="21"/>
     </row>
     <row r="522" spans="1:2">
-      <c r="A522" s="69"/>
+      <c r="A522" s="22"/>
       <c r="B522" s="21"/>
     </row>
     <row r="523" spans="1:2">
-      <c r="A523" s="22"/>
+      <c r="A523" s="64"/>
       <c r="B523" s="21"/>
     </row>
     <row r="524" spans="1:2">
-      <c r="A524" s="69"/>
+      <c r="A524" s="22"/>
       <c r="B524" s="21"/>
     </row>
     <row r="525" spans="1:2">
-      <c r="A525" s="22"/>
+      <c r="A525" s="64"/>
       <c r="B525" s="21"/>
     </row>
     <row r="526" spans="1:2">
-      <c r="A526" s="69"/>
+      <c r="A526" s="22"/>
       <c r="B526" s="21"/>
     </row>
     <row r="527" spans="1:2">
-      <c r="A527" s="22"/>
+      <c r="A527" s="64"/>
       <c r="B527" s="21"/>
     </row>
     <row r="528" spans="1:2">
-      <c r="A528" s="69"/>
+      <c r="A528" s="22"/>
       <c r="B528" s="21"/>
     </row>
     <row r="529" spans="1:2">
-      <c r="A529" s="22"/>
+      <c r="A529" s="64"/>
       <c r="B529" s="21"/>
     </row>
     <row r="530" spans="1:2">
-      <c r="A530" s="69"/>
+      <c r="A530" s="22"/>
       <c r="B530" s="21"/>
     </row>
     <row r="531" spans="1:2">
-      <c r="A531" s="22"/>
+      <c r="A531" s="64"/>
       <c r="B531" s="21"/>
     </row>
     <row r="532" spans="1:2">
-      <c r="A532" s="69"/>
+      <c r="A532" s="22"/>
       <c r="B532" s="21"/>
     </row>
     <row r="533" spans="1:2">
-      <c r="A533" s="22"/>
+      <c r="A533" s="64"/>
       <c r="B533" s="21"/>
     </row>
     <row r="534" spans="1:2">
-      <c r="A534" s="69"/>
+      <c r="A534" s="22"/>
       <c r="B534" s="21"/>
     </row>
     <row r="535" spans="1:2">
-      <c r="A535" s="22"/>
+      <c r="A535" s="64"/>
       <c r="B535" s="21"/>
     </row>
     <row r="536" spans="1:2">
-      <c r="A536" s="69"/>
+      <c r="A536" s="22"/>
       <c r="B536" s="21"/>
     </row>
     <row r="537" spans="1:2">
-      <c r="A537" s="22"/>
+      <c r="A537" s="64"/>
       <c r="B537" s="21"/>
     </row>
     <row r="538" spans="1:2">
-      <c r="A538" s="69"/>
+      <c r="A538" s="22"/>
       <c r="B538" s="21"/>
     </row>
     <row r="539" spans="1:2">
-      <c r="A539" s="22"/>
+      <c r="A539" s="64"/>
       <c r="B539" s="21"/>
     </row>
     <row r="540" spans="1:2">
-      <c r="A540" s="69"/>
+      <c r="A540" s="22"/>
       <c r="B540" s="21"/>
     </row>
     <row r="541" spans="1:2">
-      <c r="A541" s="22"/>
+      <c r="A541" s="64"/>
       <c r="B541" s="21"/>
     </row>
     <row r="542" spans="1:2">
-      <c r="A542" s="69"/>
+      <c r="A542" s="22"/>
       <c r="B542" s="21"/>
     </row>
     <row r="543" spans="1:2">
-      <c r="A543" s="22"/>
+      <c r="A543" s="64"/>
       <c r="B543" s="21"/>
     </row>
     <row r="544" spans="1:2">
-      <c r="A544" s="69"/>
+      <c r="A544" s="22"/>
       <c r="B544" s="21"/>
     </row>
     <row r="545" spans="1:2">
-      <c r="A545" s="22"/>
+      <c r="A545" s="64"/>
       <c r="B545" s="21"/>
     </row>
     <row r="546" spans="1:2">
-      <c r="A546" s="69"/>
+      <c r="A546" s="22"/>
       <c r="B546" s="21"/>
     </row>
     <row r="547" spans="1:2">
-      <c r="A547" s="22"/>
+      <c r="A547" s="64"/>
       <c r="B547" s="21"/>
     </row>
     <row r="548" spans="1:2">
-      <c r="A548" s="69"/>
+      <c r="A548" s="22"/>
       <c r="B548" s="21"/>
     </row>
     <row r="549" spans="1:2">
-      <c r="A549" s="22"/>
+      <c r="A549" s="64"/>
       <c r="B549" s="21"/>
     </row>
     <row r="550" spans="1:2">
-      <c r="A550" s="69"/>
+      <c r="A550" s="22"/>
       <c r="B550" s="21"/>
     </row>
     <row r="551" spans="1:2">
-      <c r="A551" s="22"/>
+      <c r="A551" s="64"/>
       <c r="B551" s="21"/>
     </row>
     <row r="552" spans="1:2">
-      <c r="A552" s="69"/>
+      <c r="A552" s="22"/>
       <c r="B552" s="21"/>
     </row>
     <row r="553" spans="1:2">
-      <c r="A553" s="22"/>
+      <c r="A553" s="64"/>
       <c r="B553" s="21"/>
     </row>
     <row r="554" spans="1:2">
-      <c r="A554" s="69"/>
+      <c r="A554" s="22"/>
       <c r="B554" s="21"/>
     </row>
     <row r="555" spans="1:2">
-      <c r="A555" s="22"/>
+      <c r="A555" s="64"/>
       <c r="B555" s="21"/>
     </row>
     <row r="556" spans="1:2">
-      <c r="A556" s="69"/>
+      <c r="A556" s="22"/>
       <c r="B556" s="21"/>
     </row>
     <row r="557" spans="1:2">
-      <c r="A557" s="22"/>
+      <c r="A557" s="64"/>
       <c r="B557" s="21"/>
     </row>
     <row r="558" spans="1:2">
-      <c r="A558" s="69"/>
+      <c r="A558" s="22"/>
       <c r="B558" s="21"/>
     </row>
     <row r="559" spans="1:2">
-      <c r="A559" s="22"/>
+      <c r="A559" s="64"/>
       <c r="B559" s="21"/>
     </row>
     <row r="560" spans="1:2">
-      <c r="A560" s="69"/>
+      <c r="A560" s="22"/>
       <c r="B560" s="21"/>
     </row>
     <row r="561" spans="1:2">
-      <c r="A561" s="22"/>
+      <c r="A561" s="64"/>
       <c r="B561" s="21"/>
     </row>
     <row r="562" spans="1:2">
-      <c r="A562" s="69"/>
+      <c r="A562" s="22"/>
       <c r="B562" s="21"/>
     </row>
     <row r="563" spans="1:2">
-      <c r="A563" s="22"/>
+      <c r="A563" s="64"/>
       <c r="B563" s="21"/>
     </row>
     <row r="564" spans="1:2">
-      <c r="A564" s="69"/>
+      <c r="A564" s="22"/>
       <c r="B564" s="21"/>
     </row>
     <row r="565" spans="1:2">
-      <c r="A565" s="22"/>
+      <c r="A565" s="64"/>
       <c r="B565" s="21"/>
     </row>
     <row r="566" spans="1:2">
-      <c r="A566" s="69"/>
+      <c r="A566" s="22"/>
       <c r="B566" s="21"/>
     </row>
     <row r="567" spans="1:2">
-      <c r="A567" s="22"/>
+      <c r="A567" s="64"/>
       <c r="B567" s="21"/>
     </row>
     <row r="568" spans="1:2">
-      <c r="A568" s="69"/>
+      <c r="A568" s="22"/>
       <c r="B568" s="21"/>
     </row>
     <row r="569" spans="1:2">
-      <c r="A569" s="22"/>
+      <c r="A569" s="64"/>
       <c r="B569" s="21"/>
     </row>
     <row r="570" spans="1:2">
-      <c r="A570" s="69"/>
+      <c r="A570" s="22"/>
       <c r="B570" s="21"/>
     </row>
     <row r="571" spans="1:2">
-      <c r="A571" s="22"/>
+      <c r="A571" s="64"/>
       <c r="B571" s="21"/>
     </row>
     <row r="572" spans="1:2">
-      <c r="A572" s="69"/>
+      <c r="A572" s="22"/>
       <c r="B572" s="21"/>
     </row>
     <row r="573" spans="1:2">
-      <c r="A573" s="22"/>
+      <c r="A573" s="64"/>
       <c r="B573" s="21"/>
     </row>
     <row r="574" spans="1:2">
-      <c r="A574" s="69"/>
+      <c r="A574" s="22"/>
       <c r="B574" s="21"/>
     </row>
     <row r="575" spans="1:2">
-      <c r="A575" s="22"/>
+      <c r="A575" s="64"/>
       <c r="B575" s="21"/>
     </row>
     <row r="576" spans="1:2">
-      <c r="A576" s="69"/>
+      <c r="A576" s="22"/>
       <c r="B576" s="21"/>
     </row>
     <row r="577" spans="1:2">
-      <c r="A577" s="22"/>
+      <c r="A577" s="64"/>
       <c r="B577" s="21"/>
     </row>
     <row r="578" spans="1:2">
-      <c r="A578" s="69"/>
+      <c r="A578" s="22"/>
       <c r="B578" s="21"/>
     </row>
     <row r="579" spans="1:2">
-      <c r="A579" s="22"/>
+      <c r="A579" s="64"/>
       <c r="B579" s="21"/>
     </row>
     <row r="580" spans="1:2">
-      <c r="A580" s="69"/>
+      <c r="A580" s="22"/>
       <c r="B580" s="21"/>
     </row>
     <row r="581" spans="1:2">
-      <c r="A581" s="22"/>
+      <c r="A581" s="64"/>
       <c r="B581" s="21"/>
     </row>
     <row r="582" spans="1:2">
-      <c r="A582" s="69"/>
+      <c r="A582" s="22"/>
       <c r="B582" s="21"/>
     </row>
     <row r="583" spans="1:2">
-      <c r="A583" s="22"/>
+      <c r="A583" s="64"/>
       <c r="B583" s="21"/>
     </row>
     <row r="584" spans="1:2">
-      <c r="A584" s="69"/>
+      <c r="A584" s="22"/>
       <c r="B584" s="21"/>
     </row>
     <row r="585" spans="1:2">
-      <c r="A585" s="22"/>
+      <c r="A585" s="64"/>
       <c r="B585" s="21"/>
     </row>
     <row r="586" spans="1:2">
-      <c r="A586" s="69"/>
+      <c r="A586" s="22"/>
       <c r="B586" s="21"/>
     </row>
     <row r="587" spans="1:2">
-      <c r="A587" s="22"/>
+      <c r="A587" s="64"/>
       <c r="B587" s="21"/>
     </row>
     <row r="588" spans="1:2">
-      <c r="A588" s="69"/>
+      <c r="A588" s="22"/>
       <c r="B588" s="21"/>
     </row>
     <row r="589" spans="1:2">
-      <c r="A589" s="22"/>
+      <c r="A589" s="64"/>
       <c r="B589" s="21"/>
     </row>
     <row r="590" spans="1:2">
-      <c r="A590" s="69"/>
+      <c r="A590" s="22"/>
       <c r="B590" s="21"/>
     </row>
     <row r="591" spans="1:2">
-      <c r="A591" s="22"/>
+      <c r="A591" s="64"/>
       <c r="B591" s="21"/>
     </row>
     <row r="592" spans="1:2">
-      <c r="A592" s="69"/>
-      <c r="B592" s="21"/>
+      <c r="A592" s="22"/>
+      <c r="B592" s="15"/>
     </row>
     <row r="593" spans="1:2">
-      <c r="A593" s="22"/>
+      <c r="A593" s="64"/>
       <c r="B593" s="15"/>
     </row>
     <row r="594" spans="1:2">
-      <c r="A594" s="69"/>
+      <c r="A594" s="22"/>
       <c r="B594" s="15"/>
     </row>
     <row r="595" spans="1:2">
-      <c r="A595" s="22"/>
+      <c r="A595" s="64"/>
       <c r="B595" s="15"/>
     </row>
     <row r="596" spans="1:2">
-      <c r="A596" s="69"/>
+      <c r="A596" s="22"/>
       <c r="B596" s="15"/>
     </row>
     <row r="597" spans="1:2">
-      <c r="A597" s="22"/>
+      <c r="A597" s="64"/>
       <c r="B597" s="15"/>
     </row>
     <row r="598" spans="1:2">
-      <c r="A598" s="69"/>
+      <c r="A598" s="22"/>
       <c r="B598" s="15"/>
     </row>
     <row r="599" spans="1:2">
-      <c r="A599" s="22"/>
+      <c r="A599" s="64"/>
       <c r="B599" s="15"/>
     </row>
     <row r="600" spans="1:2">
-      <c r="A600" s="69"/>
+      <c r="A600" s="22"/>
       <c r="B600" s="15"/>
     </row>
     <row r="601" spans="1:2">
-      <c r="A601" s="22"/>
+      <c r="A601" s="64"/>
       <c r="B601" s="15"/>
     </row>
     <row r="602" spans="1:2">
-      <c r="A602" s="69"/>
+      <c r="A602" s="22"/>
       <c r="B602" s="15"/>
     </row>
     <row r="603" spans="1:2">
-      <c r="A603" s="22"/>
+      <c r="A603" s="64"/>
       <c r="B603" s="15"/>
     </row>
     <row r="604" spans="1:2">
-      <c r="A604" s="69"/>
+      <c r="A604" s="22"/>
       <c r="B604" s="15"/>
     </row>
     <row r="605" spans="1:2">
-      <c r="A605" s="22"/>
+      <c r="A605" s="64"/>
       <c r="B605" s="15"/>
     </row>
     <row r="606" spans="1:2">
-      <c r="A606" s="69"/>
+      <c r="A606" s="22"/>
       <c r="B606" s="15"/>
     </row>
     <row r="607" spans="1:2">
-      <c r="A607" s="22"/>
+      <c r="A607" s="64"/>
       <c r="B607" s="15"/>
     </row>
     <row r="608" spans="1:2">
-      <c r="A608" s="69"/>
+      <c r="A608" s="22"/>
       <c r="B608" s="15"/>
     </row>
     <row r="609" spans="1:2">
-      <c r="A609" s="22"/>
+      <c r="A609" s="64"/>
       <c r="B609" s="15"/>
     </row>
     <row r="610" spans="1:2">
-      <c r="A610" s="69"/>
+      <c r="A610" s="22"/>
       <c r="B610" s="15"/>
     </row>
     <row r="611" spans="1:2">
-      <c r="A611" s="22"/>
+      <c r="A611" s="64"/>
       <c r="B611" s="15"/>
     </row>
     <row r="612" spans="1:2">
-      <c r="A612" s="69"/>
+      <c r="A612" s="22"/>
       <c r="B612" s="15"/>
     </row>
     <row r="613" spans="1:2">
-      <c r="A613" s="22"/>
+      <c r="A613" s="64"/>
       <c r="B613" s="15"/>
     </row>
     <row r="614" spans="1:2">
-      <c r="A614" s="69"/>
+      <c r="A614" s="22"/>
       <c r="B614" s="15"/>
     </row>
     <row r="615" spans="1:2">
-      <c r="A615" s="22"/>
+      <c r="A615" s="64"/>
       <c r="B615" s="15"/>
     </row>
     <row r="616" spans="1:2">
-      <c r="A616" s="69"/>
+      <c r="A616" s="22"/>
       <c r="B616" s="15"/>
     </row>
-    <row r="617" spans="1:2">
-      <c r="A617" s="22"/>
-      <c r="B617" s="15"/>
+    <row r="617" spans="1:1">
+      <c r="A617" s="65"/>
     </row>
     <row r="618" spans="1:1">
-      <c r="A618" s="70"/>
+      <c r="A618" s="12"/>
     </row>
     <row r="619" spans="1:1">
-      <c r="A619" s="12"/>
+      <c r="A619" s="65"/>
     </row>
     <row r="620" spans="1:1">
-      <c r="A620" s="70"/>
+      <c r="A620" s="12"/>
     </row>
     <row r="621" spans="1:1">
-      <c r="A621" s="12"/>
+      <c r="A621" s="65"/>
     </row>
     <row r="622" spans="1:1">
-      <c r="A622" s="70"/>
+      <c r="A622" s="12"/>
     </row>
     <row r="623" spans="1:1">
-      <c r="A623" s="12"/>
+      <c r="A623" s="65"/>
     </row>
     <row r="624" spans="1:1">
-      <c r="A624" s="70"/>
+      <c r="A624" s="12"/>
     </row>
     <row r="625" spans="1:1">
-      <c r="A625" s="12"/>
+      <c r="A625" s="65"/>
     </row>
     <row r="626" spans="1:1">
-      <c r="A626" s="70"/>
+      <c r="A626" s="12"/>
     </row>
     <row r="627" spans="1:1">
-      <c r="A627" s="12"/>
+      <c r="A627" s="65"/>
     </row>
     <row r="628" spans="1:1">
-      <c r="A628" s="70"/>
+      <c r="A628" s="12"/>
     </row>
     <row r="629" spans="1:1">
-      <c r="A629" s="12"/>
+      <c r="A629" s="65"/>
     </row>
     <row r="630" spans="1:1">
-      <c r="A630" s="70"/>
+      <c r="A630" s="12"/>
     </row>
     <row r="631" spans="1:1">
-      <c r="A631" s="12"/>
+      <c r="A631" s="65"/>
     </row>
     <row r="632" spans="1:1">
-      <c r="A632" s="70"/>
+      <c r="A632" s="12"/>
     </row>
     <row r="633" spans="1:1">
-      <c r="A633" s="12"/>
+      <c r="A633" s="65"/>
     </row>
     <row r="634" spans="1:1">
-      <c r="A634" s="70"/>
+      <c r="A634" s="12"/>
     </row>
     <row r="635" spans="1:1">
-      <c r="A635" s="12"/>
+      <c r="A635" s="65"/>
     </row>
     <row r="636" spans="1:1">
-      <c r="A636" s="70"/>
+      <c r="A636" s="12"/>
     </row>
     <row r="637" spans="1:1">
-      <c r="A637" s="12"/>
+      <c r="A637" s="65"/>
     </row>
     <row r="638" spans="1:1">
-      <c r="A638" s="70"/>
+      <c r="A638" s="12"/>
     </row>
     <row r="639" spans="1:1">
-      <c r="A639" s="12"/>
+      <c r="A639" s="65"/>
     </row>
     <row r="640" spans="1:1">
-      <c r="A640" s="70"/>
+      <c r="A640" s="12"/>
     </row>
     <row r="641" spans="1:1">
-      <c r="A641" s="12"/>
+      <c r="A641" s="65"/>
     </row>
     <row r="642" spans="1:1">
-      <c r="A642" s="70"/>
+      <c r="A642" s="12"/>
     </row>
     <row r="643" spans="1:1">
-      <c r="A643" s="12"/>
+      <c r="A643" s="65"/>
     </row>
     <row r="644" spans="1:1">
-      <c r="A644" s="70"/>
+      <c r="A644" s="12"/>
     </row>
     <row r="645" spans="1:1">
-      <c r="A645" s="12"/>
+      <c r="A645" s="65"/>
     </row>
     <row r="646" spans="1:1">
-      <c r="A646" s="70"/>
+      <c r="A646" s="12"/>
     </row>
     <row r="647" spans="1:1">
-      <c r="A647" s="12"/>
+      <c r="A647" s="65"/>
     </row>
     <row r="648" spans="1:1">
-      <c r="A648" s="70"/>
+      <c r="A648" s="12"/>
     </row>
     <row r="649" spans="1:1">
-      <c r="A649" s="12"/>
+      <c r="A649" s="65"/>
     </row>
     <row r="650" spans="1:1">
-      <c r="A650" s="70"/>
+      <c r="A650" s="12"/>
     </row>
     <row r="651" spans="1:1">
-      <c r="A651" s="12"/>
+      <c r="A651" s="65"/>
     </row>
     <row r="652" spans="1:1">
-      <c r="A652" s="70"/>
+      <c r="A652" s="12"/>
     </row>
     <row r="653" spans="1:1">
-      <c r="A653" s="12"/>
+      <c r="A653" s="65"/>
     </row>
     <row r="654" spans="1:1">
-      <c r="A654" s="70"/>
+      <c r="A654" s="12"/>
     </row>
     <row r="655" spans="1:1">
-      <c r="A655" s="12"/>
+      <c r="A655" s="65"/>
     </row>
     <row r="656" spans="1:1">
-      <c r="A656" s="70"/>
+      <c r="A656" s="12"/>
     </row>
     <row r="657" spans="1:1">
-      <c r="A657" s="12"/>
+      <c r="A657" s="65"/>
     </row>
     <row r="658" spans="1:1">
-      <c r="A658" s="70"/>
+      <c r="A658" s="12"/>
     </row>
     <row r="659" spans="1:1">
-      <c r="A659" s="12"/>
+      <c r="A659" s="65"/>
     </row>
     <row r="660" spans="1:1">
-      <c r="A660" s="70"/>
+      <c r="A660" s="12"/>
     </row>
     <row r="661" spans="1:1">
-      <c r="A661" s="12"/>
+      <c r="A661" s="65"/>
     </row>
     <row r="662" spans="1:1">
-      <c r="A662" s="70"/>
+      <c r="A662" s="12"/>
     </row>
     <row r="663" spans="1:1">
-      <c r="A663" s="12"/>
+      <c r="A663" s="65"/>
     </row>
     <row r="664" spans="1:1">
-      <c r="A664" s="70"/>
+      <c r="A664" s="12"/>
     </row>
     <row r="665" spans="1:1">
-      <c r="A665" s="12"/>
+      <c r="A665" s="65"/>
     </row>
     <row r="666" spans="1:1">
-      <c r="A666" s="70"/>
+      <c r="A666" s="12"/>
     </row>
     <row r="667" spans="1:1">
-      <c r="A667" s="12"/>
+      <c r="A667" s="65"/>
     </row>
     <row r="668" spans="1:1">
-      <c r="A668" s="70"/>
+      <c r="A668" s="12"/>
     </row>
     <row r="669" spans="1:1">
-      <c r="A669" s="12"/>
+      <c r="A669" s="65"/>
     </row>
     <row r="670" spans="1:1">
-      <c r="A670" s="70"/>
+      <c r="A670" s="12"/>
     </row>
     <row r="671" spans="1:1">
-      <c r="A671" s="12"/>
+      <c r="A671" s="65"/>
     </row>
     <row r="672" spans="1:1">
-      <c r="A672" s="70"/>
+      <c r="A672" s="12"/>
     </row>
     <row r="673" spans="1:1">
-      <c r="A673" s="12"/>
+      <c r="A673" s="65"/>
     </row>
     <row r="674" spans="1:1">
-      <c r="A674" s="70"/>
+      <c r="A674" s="12"/>
     </row>
     <row r="675" spans="1:1">
-      <c r="A675" s="12"/>
+      <c r="A675" s="65"/>
     </row>
     <row r="676" spans="1:1">
-      <c r="A676" s="70"/>
+      <c r="A676" s="12"/>
     </row>
     <row r="677" spans="1:1">
-      <c r="A677" s="12"/>
+      <c r="A677" s="65"/>
     </row>
     <row r="678" spans="1:1">
-      <c r="A678" s="70"/>
+      <c r="A678" s="12"/>
     </row>
     <row r="679" spans="1:1">
-      <c r="A679" s="12"/>
+      <c r="A679" s="65"/>
     </row>
     <row r="680" spans="1:1">
-      <c r="A680" s="70"/>
+      <c r="A680" s="12"/>
     </row>
     <row r="681" spans="1:1">
-      <c r="A681" s="12"/>
+      <c r="A681" s="65"/>
     </row>
     <row r="682" spans="1:1">
-      <c r="A682" s="70"/>
+      <c r="A682" s="12"/>
     </row>
     <row r="683" spans="1:1">
-      <c r="A683" s="12"/>
+      <c r="A683" s="65"/>
     </row>
     <row r="684" spans="1:1">
-      <c r="A684" s="70"/>
+      <c r="A684" s="12"/>
     </row>
     <row r="685" spans="1:1">
-      <c r="A685" s="12"/>
+      <c r="A685" s="65"/>
     </row>
     <row r="686" spans="1:1">
-      <c r="A686" s="70"/>
+      <c r="A686" s="12"/>
     </row>
     <row r="687" spans="1:1">
-      <c r="A687" s="12"/>
+      <c r="A687" s="65"/>
     </row>
     <row r="688" spans="1:1">
-      <c r="A688" s="70"/>
+      <c r="A688" s="12"/>
     </row>
     <row r="689" spans="1:1">
-      <c r="A689" s="12"/>
+      <c r="A689" s="65"/>
     </row>
     <row r="690" spans="1:1">
-      <c r="A690" s="70"/>
+      <c r="A690" s="12"/>
     </row>
     <row r="691" spans="1:1">
-      <c r="A691" s="12"/>
+      <c r="A691" s="65"/>
     </row>
     <row r="692" spans="1:1">
-      <c r="A692" s="70"/>
+      <c r="A692" s="12"/>
     </row>
     <row r="693" spans="1:1">
-      <c r="A693" s="12"/>
+      <c r="A693" s="65"/>
     </row>
     <row r="694" spans="1:1">
-      <c r="A694" s="70"/>
+      <c r="A694" s="12"/>
     </row>
     <row r="695" spans="1:1">
-      <c r="A695" s="12"/>
+      <c r="A695" s="65"/>
     </row>
     <row r="696" spans="1:1">
-      <c r="A696" s="70"/>
+      <c r="A696" s="12"/>
     </row>
     <row r="697" spans="1:1">
-      <c r="A697" s="12"/>
+      <c r="A697" s="65"/>
     </row>
     <row r="698" spans="1:1">
-      <c r="A698" s="70"/>
+      <c r="A698" s="12"/>
     </row>
     <row r="699" spans="1:1">
-      <c r="A699" s="12"/>
+      <c r="A699" s="65"/>
     </row>
     <row r="700" spans="1:1">
-      <c r="A700" s="70"/>
+      <c r="A700" s="12"/>
     </row>
     <row r="701" spans="1:1">
-      <c r="A701" s="12"/>
+      <c r="A701" s="65"/>
     </row>
     <row r="702" spans="1:1">
-      <c r="A702" s="70"/>
+      <c r="A702" s="12"/>
     </row>
     <row r="703" spans="1:1">
-      <c r="A703" s="12"/>
+      <c r="A703" s="65"/>
     </row>
     <row r="704" spans="1:1">
-      <c r="A704" s="70"/>
+      <c r="A704" s="12"/>
     </row>
     <row r="705" spans="1:1">
-      <c r="A705" s="12"/>
+      <c r="A705" s="65"/>
     </row>
     <row r="706" spans="1:1">
-      <c r="A706" s="70"/>
+      <c r="A706" s="12"/>
     </row>
     <row r="707" spans="1:1">
-      <c r="A707" s="12"/>
+      <c r="A707" s="65"/>
     </row>
     <row r="708" spans="1:1">
-      <c r="A708" s="70"/>
+      <c r="A708" s="12"/>
     </row>
     <row r="709" spans="1:1">
-      <c r="A709" s="12"/>
+      <c r="A709" s="65"/>
     </row>
     <row r="710" spans="1:1">
-      <c r="A710" s="70"/>
+      <c r="A710" s="12"/>
     </row>
     <row r="711" spans="1:1">
-      <c r="A711" s="12"/>
+      <c r="A711" s="65"/>
     </row>
     <row r="712" spans="1:1">
-      <c r="A712" s="70"/>
+      <c r="A712" s="12"/>
     </row>
     <row r="713" spans="1:1">
-      <c r="A713" s="12"/>
+      <c r="A713" s="65"/>
     </row>
     <row r="714" spans="1:1">
-      <c r="A714" s="70"/>
+      <c r="A714" s="12"/>
     </row>
     <row r="715" spans="1:1">
-      <c r="A715" s="12"/>
+      <c r="A715" s="65"/>
     </row>
     <row r="716" spans="1:1">
-      <c r="A716" s="70"/>
+      <c r="A716" s="12"/>
     </row>
     <row r="717" spans="1:1">
-      <c r="A717" s="12"/>
+      <c r="A717" s="65"/>
     </row>
     <row r="718" spans="1:1">
-      <c r="A718" s="70"/>
+      <c r="A718" s="12"/>
     </row>
     <row r="719" spans="1:1">
-      <c r="A719" s="12"/>
+      <c r="A719" s="65"/>
     </row>
     <row r="720" spans="1:1">
-      <c r="A720" s="70"/>
+      <c r="A720" s="12"/>
     </row>
     <row r="721" spans="1:1">
-      <c r="A721" s="12"/>
+      <c r="A721" s="65"/>
     </row>
     <row r="722" spans="1:1">
-      <c r="A722" s="70"/>
+      <c r="A722" s="12"/>
     </row>
     <row r="723" spans="1:1">
-      <c r="A723" s="12"/>
+      <c r="A723" s="65"/>
     </row>
     <row r="724" spans="1:1">
-      <c r="A724" s="70"/>
+      <c r="A724" s="12"/>
     </row>
     <row r="725" spans="1:1">
-      <c r="A725" s="12"/>
+      <c r="A725" s="65"/>
     </row>
     <row r="726" spans="1:1">
-      <c r="A726" s="70"/>
+      <c r="A726" s="12"/>
     </row>
     <row r="727" spans="1:1">
-      <c r="A727" s="12"/>
+      <c r="A727" s="65"/>
     </row>
     <row r="728" spans="1:1">
-      <c r="A728" s="70"/>
+      <c r="A728" s="12"/>
     </row>
     <row r="729" spans="1:1">
-      <c r="A729" s="12"/>
+      <c r="A729" s="65"/>
     </row>
     <row r="730" spans="1:1">
-      <c r="A730" s="70"/>
+      <c r="A730" s="12"/>
     </row>
     <row r="731" spans="1:1">
-      <c r="A731" s="12"/>
+      <c r="A731" s="65"/>
     </row>
     <row r="732" spans="1:1">
-      <c r="A732" s="70"/>
+      <c r="A732" s="12"/>
     </row>
     <row r="733" spans="1:1">
-      <c r="A733" s="12"/>
+      <c r="A733" s="65"/>
     </row>
     <row r="734" spans="1:1">
-      <c r="A734" s="70"/>
+      <c r="A734" s="12"/>
     </row>
     <row r="735" spans="1:1">
-      <c r="A735" s="12"/>
+      <c r="A735" s="65"/>
     </row>
     <row r="736" spans="1:1">
-      <c r="A736" s="70"/>
+      <c r="A736" s="12"/>
     </row>
     <row r="737" spans="1:1">
-      <c r="A737" s="12"/>
+      <c r="A737" s="65"/>
     </row>
     <row r="738" spans="1:1">
-      <c r="A738" s="70"/>
+      <c r="A738" s="12"/>
     </row>
     <row r="739" spans="1:1">
-      <c r="A739" s="12"/>
+      <c r="A739" s="65"/>
     </row>
     <row r="740" spans="1:1">
-      <c r="A740" s="70"/>
+      <c r="A740" s="12"/>
     </row>
     <row r="741" spans="1:1">
-      <c r="A741" s="12"/>
+      <c r="A741" s="65"/>
     </row>
     <row r="742" spans="1:1">
-      <c r="A742" s="70"/>
+      <c r="A742" s="12"/>
     </row>
     <row r="743" spans="1:1">
-      <c r="A743" s="12"/>
+      <c r="A743" s="65"/>
     </row>
     <row r="744" spans="1:1">
-      <c r="A744" s="70"/>
+      <c r="A744" s="12"/>
     </row>
     <row r="745" spans="1:1">
-      <c r="A745" s="12"/>
+      <c r="A745" s="65"/>
     </row>
     <row r="746" spans="1:1">
-      <c r="A746" s="70"/>
+      <c r="A746" s="12"/>
     </row>
     <row r="747" spans="1:1">
-      <c r="A747" s="12"/>
+      <c r="A747" s="65"/>
     </row>
     <row r="748" spans="1:1">
-      <c r="A748" s="70"/>
+      <c r="A748" s="12"/>
     </row>
     <row r="749" spans="1:1">
-      <c r="A749" s="12"/>
+      <c r="A749" s="65"/>
     </row>
     <row r="750" spans="1:1">
-      <c r="A750" s="70"/>
+      <c r="A750" s="12"/>
     </row>
     <row r="751" spans="1:1">
-      <c r="A751" s="12"/>
+      <c r="A751" s="65"/>
     </row>
     <row r="752" spans="1:1">
-      <c r="A752" s="70"/>
+      <c r="A752" s="12"/>
     </row>
     <row r="753" spans="1:1">
-      <c r="A753" s="12"/>
+      <c r="A753" s="65"/>
     </row>
     <row r="754" spans="1:1">
-      <c r="A754" s="70"/>
+      <c r="A754" s="12"/>
     </row>
     <row r="755" spans="1:1">
-      <c r="A755" s="12"/>
+      <c r="A755" s="65"/>
     </row>
     <row r="756" spans="1:1">
-      <c r="A756" s="70"/>
-    </row>
-    <row r="757" spans="1:1">
-      <c r="A757" s="12"/>
+      <c r="A756" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C163 C179 C198 C199 C200 C216 C227 C228 C229 C230 C231 C232 C233 C234 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C257 C258 C265 C266 C267 C268 C269 C270 C271 C272 C273 C274 C275 C276 C277 C278 C279 C280 C281 C282 C283 C284 C285 C286 C287 C288 C289 C290 C291 C292 C293 C294 C295 C296 C297 C298 C299 C300 C301 C302 C320 C321 C322 C323 C324 C337 C338 C339 C340 C341 C342 C343 C344 C345 C346 C347 C348 C349 C350 C351 C352 C353 C354 C355 C356 C357 C358 C359 C360 C361 C362 C363 C364 C365 C366 C367 C368 C369 C370 C371 C372 C373 C374 C375 C376 C377 C378 C379 C380 C381 C382 C383 C384 C385 C386 C387 C388 C389 C390 C391 C392 C4:C17 C18:C23 C24:C34 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C146 C147:C162 C164:C178 C180:C197 C201:C215 C217:C226 C259:C261 C262:C264 C303:C313 C314:C319 C325:C330 C331:C336 C393:C1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C163 C179 C198 C199 C200 C216 C227 C228 C229 C230 C231 C232 C233 C234 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C257 C258 C265 C266 C267 C268 C269 C270 C271 C272 C273 C274 C275 C276 C277 C278 C279 C280 C281 C282 C283 C284 C285 C286 C287 C288 C289 C290 C291 C292 C293 C294 C295 C296 C297 C298 C299 C300 C301 C302 C320 C321 C322 C323 C324 C337 C338 C339 C340 C341 C342 C343 C344 C345 C346 C347 C348 C349 C350 C351 C352 C353 C354 C355 C356 C357 C358 C359 C360 C361 C362 C363 C364 C365 C366 C367 C368 C369 C370 C371 C372 C373 C374 C375 C376 C377 C378 C379 C380 C381 C382 C383 C384 C385 C386 C387 C388 C389 C390 C391 C4:C17 C18:C23 C24:C34 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C146 C147:C162 C164:C178 C180:C197 C201:C215 C217:C226 C259:C261 C262:C264 C303:C313 C314:C319 C325:C330 C331:C336 C392:C1048576">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D18 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D60 D71 D84 D85 D86 D106 D146 D163 D179 D198 D199 D200 D216 D227 D228 D229 D235 D236 D237 D238 D239 D240 D241 D242 D243 D244 D245 D246 D247 D248 D249 D250 D251 D252 D253 D254 D255 D256 D257 D258 D259 D265 D266 D267 D268 D269 D270 D271 D272 D273 D274 D275 D276 D277 D278 D279 D280 D281 D282 D283 D284 D285 D286 D287 D288 D289 D290 D291 D292 D293 D294 D295 D296 D297 D298 D299 D300 D301 D302 D320 D321 D322 D323 D324 D337 D338 D339 D340 D341 D342 D343 D344 D345 D346 D347 D348 D349 D350 D351 D352 D353 D354 D355 D356 D357 D358 D369 D370 D371 D372 D373 D374 D375 D376 D4:D17 D19:D22 D23:D35 D49:D59 D61:D70 D72:D81 D82:D83 D87:D105 D107:D117 D118:D137 D138:D145 D147:D162 D164:D178 D180:D197 D201:D215 D217:D226 D230:D234 D260:D264 D303:D313 D314:D319 D325:D331 D332:D336 D359:D368 D377:D392 D393:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D18 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D60 D71 D84 D85 D86 D106 D146 D163 D179 D198 D199 D200 D216 D227 D228 D229 D235 D236 D237 D238 D239 D240 D241 D242 D243 D244 D245 D246 D247 D248 D249 D250 D251 D252 D253 D254 D255 D256 D257 D258 D259 D265 D266 D267 D268 D269 D270 D271 D272 D273 D274 D275 D276 D277 D278 D279 D280 D281 D282 D283 D284 D285 D286 D287 D288 D289 D290 D291 D292 D293 D294 D295 D296 D297 D298 D299 D300 D301 D302 D320 D321 D322 D323 D324 D337 D338 D339 D340 D341 D342 D343 D344 D345 D346 D347 D348 D349 D350 D351 D352 D353 D354 D355 D356 D357 D358 D369 D370 D371 D372 D373 D374 D375 D4:D17 D19:D22 D23:D35 D49:D59 D61:D70 D72:D81 D82:D83 D87:D105 D107:D117 D118:D137 D138:D145 D147:D162 D164:D178 D180:D197 D201:D215 D217:D226 D230:D234 D260:D264 D303:D313 D314:D319 D325:D331 D332:D336 D359:D368 D376:D391 D392:D1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>

--- a/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="19770" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -2661,6 +2661,42 @@
   </si>
   <si>
     <t>罗永波</t>
+  </si>
+  <si>
+    <t>新余</t>
+  </si>
+  <si>
+    <t>悸动(江西工程学院店)</t>
+  </si>
+  <si>
+    <t>高勤伟</t>
+  </si>
+  <si>
+    <t>IT经理</t>
+  </si>
+  <si>
+    <t>悸动(诸暨苎萝路店)</t>
+  </si>
+  <si>
+    <t>悸动(亳州亳职店)</t>
+  </si>
+  <si>
+    <t>悸动(咸丰解放路店)</t>
+  </si>
+  <si>
+    <t>悸动(浦电路店)</t>
+  </si>
+  <si>
+    <t>悸动(翠屏水晶广场店)</t>
+  </si>
+  <si>
+    <t>悸动(苏州大运城店)</t>
+  </si>
+  <si>
+    <t>悸动(溧水中大街店)</t>
+  </si>
+  <si>
+    <t>悸动(桐乡洲泉镇店)</t>
   </si>
   <si>
     <t>姓名</t>
@@ -2707,11 +2743,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2797,36 +2833,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2848,36 +2886,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -2892,9 +2900,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2908,14 +2915,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -2923,15 +2922,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2946,17 +2977,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="38">
@@ -3016,31 +3052,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3052,67 +3094,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3130,25 +3118,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3166,19 +3148,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3549,45 +3585,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3605,20 +3602,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3641,8 +3627,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3652,10 +3688,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3664,149 +3700,149 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3991,6 +4027,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4500,440 +4539,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="74" t="s">
+      <c r="H2" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="98" t="s">
+      <c r="I2" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="99" t="s">
+      <c r="J2" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="100" t="s">
+      <c r="K2" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="101" t="s">
+      <c r="L2" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="102" t="s">
+      <c r="M2" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="103" t="s">
+      <c r="N2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="68"/>
-      <c r="B3" s="75" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78">
+      <c r="D3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79">
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="105"/>
-      <c r="K3" s="106" t="e">
+      <c r="J3" s="106"/>
+      <c r="K3" s="107" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="107">
+      <c r="L3" s="108">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="108">
+      <c r="M3" s="109">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="109" t="e">
+      <c r="N3" s="110" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="104"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="82" t="s">
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84">
+      <c r="D4" s="84"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="85"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="85">
+      <c r="G4" s="86"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="86">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="110"/>
-      <c r="K4" s="106" t="e">
+      <c r="J4" s="111"/>
+      <c r="K4" s="107" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="107">
+      <c r="L4" s="108">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="108">
+      <c r="M4" s="109">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="109" t="e">
+      <c r="N4" s="110" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="104"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="80"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="82" t="s">
+      <c r="A5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="83"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84">
+      <c r="D5" s="84"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="85"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="85">
+      <c r="G5" s="86"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="86">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="110"/>
-      <c r="K5" s="106" t="e">
+      <c r="J5" s="111"/>
+      <c r="K5" s="107" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="107">
+      <c r="L5" s="108">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="108">
+      <c r="M5" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="109" t="e">
+      <c r="N5" s="110" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="105"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="80"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="82" t="s">
+      <c r="A6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="83"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84">
+      <c r="D6" s="84"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="85"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="85">
+      <c r="G6" s="86"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="86">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="110"/>
-      <c r="K6" s="106" t="e">
+      <c r="J6" s="111"/>
+      <c r="K6" s="107" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="107">
+      <c r="L6" s="108">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="108">
+      <c r="M6" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="109" t="e">
+      <c r="N6" s="110" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="105"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="80"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84">
+      <c r="A7" s="81"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="84"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="85"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="85">
+      <c r="G7" s="86"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="86">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="110"/>
-      <c r="K7" s="106" t="e">
+      <c r="J7" s="111"/>
+      <c r="K7" s="107" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="107">
+      <c r="L7" s="108">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="108">
+      <c r="M7" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="109" t="e">
+      <c r="N7" s="110" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="105"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="80"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="82" t="s">
+      <c r="A8" s="81"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84">
+      <c r="D8" s="84"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="85"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="85">
+      <c r="G8" s="86"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="86">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="110"/>
-      <c r="K8" s="106" t="e">
+      <c r="J8" s="111"/>
+      <c r="K8" s="107" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="107">
+      <c r="L8" s="108">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="108">
+      <c r="M8" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="109" t="e">
+      <c r="N8" s="110" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="80"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="82" t="s">
+      <c r="A9" s="81"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84">
+      <c r="D9" s="84"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="85"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="85">
+      <c r="G9" s="86"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="86">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="110"/>
-      <c r="K9" s="106" t="e">
+      <c r="J9" s="111"/>
+      <c r="K9" s="107" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="107">
+      <c r="L9" s="108">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="108">
+      <c r="M9" s="109">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="109" t="e">
+      <c r="N9" s="110" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="105"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="80"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="86" t="s">
+      <c r="A10" s="81"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="87"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="89">
+      <c r="D10" s="88"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="90"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="90">
+      <c r="G10" s="91"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="111"/>
-      <c r="K10" s="112" t="e">
+      <c r="J10" s="112"/>
+      <c r="K10" s="113" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="113">
+      <c r="L10" s="114">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="114">
+      <c r="M10" s="115">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="115" t="e">
+      <c r="N10" s="116" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="105"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="92"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="94" t="s">
+      <c r="A11" s="93"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="95">
+      <c r="D11" s="96">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="95">
+      <c r="E11" s="96">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="96">
+      <c r="F11" s="97">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="95">
+      <c r="G11" s="96">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="95">
+      <c r="H11" s="96">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="96">
+      <c r="I11" s="97">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="95">
+      <c r="J11" s="96">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="116" t="e">
+      <c r="K11" s="117" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="96">
+      <c r="L11" s="97">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="96">
+      <c r="M11" s="97">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="117" t="e">
+      <c r="N11" s="118" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="104"/>
-      <c r="P11" s="104"/>
-      <c r="Q11" s="104"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4951,10 +4990,10 @@
   <sheetPr/>
   <dimension ref="A1:P756"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A363" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A378" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A369" sqref="$A369:$XFD369"/>
+      <selection pane="bottomLeft" activeCell="N389" sqref="N389:N397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9228,7 +9267,7 @@
       <c r="N95" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O95" s="118" t="s">
+      <c r="O95" s="119" t="s">
         <v>270</v>
       </c>
       <c r="P95" s="15" t="s">
@@ -23103,55 +23142,454 @@
       <c r="P388" s="8"/>
     </row>
     <row r="389" spans="1:16">
-      <c r="A389" s="22"/>
-      <c r="B389" s="21"/>
-      <c r="C389" s="18"/>
-      <c r="D389" s="45"/>
-      <c r="P389" s="8"/>
+      <c r="A389" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B389" s="19">
+        <v>13</v>
+      </c>
+      <c r="C389" s="18">
+        <v>43187</v>
+      </c>
+      <c r="D389" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E389" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F389" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G389" s="64" t="s">
+        <v>866</v>
+      </c>
+      <c r="H389" s="64">
+        <v>76137571</v>
+      </c>
+      <c r="I389" s="64" t="s">
+        <v>867</v>
+      </c>
+      <c r="J389" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K389" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L389" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M389" s="8" t="s">
+        <v>868</v>
+      </c>
+      <c r="N389" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="O389" s="8">
+        <v>18895602870</v>
+      </c>
+      <c r="P389" s="15" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="390" spans="1:16">
-      <c r="A390" s="22"/>
-      <c r="B390" s="21"/>
-      <c r="C390" s="18"/>
-      <c r="D390" s="45"/>
-      <c r="P390" s="8"/>
+      <c r="A390" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B390" s="19">
+        <v>13</v>
+      </c>
+      <c r="C390" s="18">
+        <v>43187</v>
+      </c>
+      <c r="D390" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E390" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F390" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G390" s="64" t="s">
+        <v>223</v>
+      </c>
+      <c r="H390" s="64">
+        <v>76137781</v>
+      </c>
+      <c r="I390" s="64" t="s">
+        <v>870</v>
+      </c>
+      <c r="J390" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K390" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L390" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M390" s="8" t="s">
+        <v>868</v>
+      </c>
+      <c r="N390" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="O390" s="8">
+        <v>18895602870</v>
+      </c>
+      <c r="P390" s="15" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="391" spans="1:16">
-      <c r="A391" s="22"/>
-      <c r="B391" s="21"/>
-      <c r="C391" s="18"/>
-      <c r="D391" s="45"/>
-      <c r="P391" s="8"/>
+      <c r="A391" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B391" s="19">
+        <v>13</v>
+      </c>
+      <c r="C391" s="18">
+        <v>43187</v>
+      </c>
+      <c r="D391" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E391" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F391" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G391" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="H391" s="64">
+        <v>76137851</v>
+      </c>
+      <c r="I391" s="64" t="s">
+        <v>871</v>
+      </c>
+      <c r="J391" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K391" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L391" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M391" s="8" t="s">
+        <v>868</v>
+      </c>
+      <c r="N391" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="O391" s="8">
+        <v>18895602870</v>
+      </c>
+      <c r="P391" s="15" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="392" spans="1:16">
-      <c r="A392" s="22"/>
-      <c r="B392" s="21"/>
-      <c r="P392" s="8"/>
+      <c r="A392" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B392" s="19">
+        <v>13</v>
+      </c>
+      <c r="C392" s="18">
+        <v>43187</v>
+      </c>
+      <c r="D392" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E392" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F392" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G392" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="H392" s="64">
+        <v>76138133</v>
+      </c>
+      <c r="I392" s="64" t="s">
+        <v>872</v>
+      </c>
+      <c r="J392" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K392" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L392" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M392" s="8" t="s">
+        <v>868</v>
+      </c>
+      <c r="N392" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="O392" s="8">
+        <v>18895602870</v>
+      </c>
+      <c r="P392" s="15" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="393" spans="1:16">
-      <c r="A393" s="22"/>
-      <c r="B393" s="21"/>
-      <c r="P393" s="8"/>
+      <c r="A393" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B393" s="19">
+        <v>13</v>
+      </c>
+      <c r="C393" s="18">
+        <v>43187</v>
+      </c>
+      <c r="D393" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E393" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F393" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G393" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="H393" s="64">
+        <v>76138137</v>
+      </c>
+      <c r="I393" s="64" t="s">
+        <v>873</v>
+      </c>
+      <c r="J393" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K393" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L393" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M393" s="8" t="s">
+        <v>868</v>
+      </c>
+      <c r="N393" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="O393" s="8">
+        <v>18895602870</v>
+      </c>
+      <c r="P393" s="15" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="394" spans="1:16">
-      <c r="A394" s="22"/>
-      <c r="B394" s="21"/>
-      <c r="P394" s="8"/>
+      <c r="A394" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B394" s="19">
+        <v>13</v>
+      </c>
+      <c r="C394" s="18">
+        <v>43187</v>
+      </c>
+      <c r="D394" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E394" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F394" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G394" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="H394" s="64">
+        <v>76138209</v>
+      </c>
+      <c r="I394" s="64" t="s">
+        <v>874</v>
+      </c>
+      <c r="J394" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K394" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L394" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M394" s="8" t="s">
+        <v>868</v>
+      </c>
+      <c r="N394" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="O394" s="8">
+        <v>18895602870</v>
+      </c>
+      <c r="P394" s="15" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="395" spans="1:16">
-      <c r="A395" s="22"/>
-      <c r="B395" s="21"/>
-      <c r="P395" s="8"/>
+      <c r="A395" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B395" s="19">
+        <v>13</v>
+      </c>
+      <c r="C395" s="18">
+        <v>43187</v>
+      </c>
+      <c r="D395" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E395" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F395" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G395" s="64" t="s">
+        <v>292</v>
+      </c>
+      <c r="H395" s="64">
+        <v>76138275</v>
+      </c>
+      <c r="I395" s="64" t="s">
+        <v>875</v>
+      </c>
+      <c r="J395" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K395" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L395" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M395" s="8" t="s">
+        <v>868</v>
+      </c>
+      <c r="N395" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="O395" s="8">
+        <v>18895602870</v>
+      </c>
+      <c r="P395" s="15" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="396" spans="1:16">
-      <c r="A396" s="22"/>
-      <c r="B396" s="21"/>
-      <c r="P396" s="8"/>
+      <c r="A396" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B396" s="19">
+        <v>13</v>
+      </c>
+      <c r="C396" s="18">
+        <v>43187</v>
+      </c>
+      <c r="D396" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E396" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F396" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G396" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="H396" s="64">
+        <v>76138619</v>
+      </c>
+      <c r="I396" s="64" t="s">
+        <v>876</v>
+      </c>
+      <c r="J396" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K396" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L396" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M396" s="8" t="s">
+        <v>868</v>
+      </c>
+      <c r="N396" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="O396" s="8">
+        <v>18895602870</v>
+      </c>
+      <c r="P396" s="15" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="397" spans="1:16">
-      <c r="A397" s="22"/>
-      <c r="B397" s="21"/>
-      <c r="P397" s="8"/>
+      <c r="A397" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B397" s="19">
+        <v>13</v>
+      </c>
+      <c r="C397" s="18">
+        <v>43187</v>
+      </c>
+      <c r="D397" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E397" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F397" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G397" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="H397" s="64">
+        <v>76138638</v>
+      </c>
+      <c r="I397" s="64" t="s">
+        <v>877</v>
+      </c>
+      <c r="J397" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K397" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L397" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M397" s="8" t="s">
+        <v>868</v>
+      </c>
+      <c r="N397" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="O397" s="8">
+        <v>18895602870</v>
+      </c>
+      <c r="P397" s="15" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="398" spans="1:16">
       <c r="A398" s="22"/>
@@ -23229,7 +23667,7 @@
       <c r="P412" s="8"/>
     </row>
     <row r="413" spans="1:16">
-      <c r="A413" s="64"/>
+      <c r="A413" s="65"/>
       <c r="B413" s="21"/>
       <c r="P413" s="8"/>
     </row>
@@ -23319,7 +23757,7 @@
       <c r="P430" s="8"/>
     </row>
     <row r="431" spans="1:16">
-      <c r="A431" s="64"/>
+      <c r="A431" s="65"/>
       <c r="B431" s="21"/>
       <c r="P431" s="8"/>
     </row>
@@ -23329,7 +23767,7 @@
       <c r="P432" s="8"/>
     </row>
     <row r="433" spans="1:16">
-      <c r="A433" s="64"/>
+      <c r="A433" s="65"/>
       <c r="B433" s="21"/>
       <c r="P433" s="8"/>
     </row>
@@ -23339,7 +23777,7 @@
       <c r="P434" s="8"/>
     </row>
     <row r="435" spans="1:16">
-      <c r="A435" s="64"/>
+      <c r="A435" s="65"/>
       <c r="B435" s="21"/>
       <c r="P435" s="8"/>
     </row>
@@ -23349,7 +23787,7 @@
       <c r="P436" s="8"/>
     </row>
     <row r="437" spans="1:16">
-      <c r="A437" s="64"/>
+      <c r="A437" s="65"/>
       <c r="B437" s="21"/>
       <c r="P437" s="8"/>
     </row>
@@ -23359,7 +23797,7 @@
       <c r="P438" s="8"/>
     </row>
     <row r="439" spans="1:16">
-      <c r="A439" s="64"/>
+      <c r="A439" s="65"/>
       <c r="B439" s="21"/>
       <c r="P439" s="8"/>
     </row>
@@ -23369,7 +23807,7 @@
       <c r="P440" s="8"/>
     </row>
     <row r="441" spans="1:16">
-      <c r="A441" s="64"/>
+      <c r="A441" s="65"/>
       <c r="B441" s="21"/>
       <c r="P441" s="8"/>
     </row>
@@ -23379,7 +23817,7 @@
       <c r="P442" s="8"/>
     </row>
     <row r="443" spans="1:16">
-      <c r="A443" s="64"/>
+      <c r="A443" s="65"/>
       <c r="B443" s="21"/>
       <c r="P443" s="8"/>
     </row>
@@ -23389,7 +23827,7 @@
       <c r="P444" s="8"/>
     </row>
     <row r="445" spans="1:16">
-      <c r="A445" s="64"/>
+      <c r="A445" s="65"/>
       <c r="B445" s="21"/>
       <c r="P445" s="8"/>
     </row>
@@ -23399,7 +23837,7 @@
       <c r="P446" s="8"/>
     </row>
     <row r="447" spans="1:16">
-      <c r="A447" s="64"/>
+      <c r="A447" s="65"/>
       <c r="B447" s="21"/>
       <c r="P447" s="8"/>
     </row>
@@ -23409,7 +23847,7 @@
       <c r="P448" s="8"/>
     </row>
     <row r="449" spans="1:16">
-      <c r="A449" s="64"/>
+      <c r="A449" s="65"/>
       <c r="B449" s="21"/>
       <c r="P449" s="8"/>
     </row>
@@ -23419,7 +23857,7 @@
       <c r="P450" s="8"/>
     </row>
     <row r="451" spans="1:16">
-      <c r="A451" s="64"/>
+      <c r="A451" s="65"/>
       <c r="B451" s="21"/>
       <c r="P451" s="8"/>
     </row>
@@ -23429,7 +23867,7 @@
       <c r="P452" s="8"/>
     </row>
     <row r="453" spans="1:16">
-      <c r="A453" s="64"/>
+      <c r="A453" s="65"/>
       <c r="B453" s="21"/>
       <c r="P453" s="8"/>
     </row>
@@ -23439,7 +23877,7 @@
       <c r="P454" s="8"/>
     </row>
     <row r="455" spans="1:16">
-      <c r="A455" s="64"/>
+      <c r="A455" s="65"/>
       <c r="B455" s="21"/>
       <c r="P455" s="8"/>
     </row>
@@ -23449,7 +23887,7 @@
       <c r="P456" s="8"/>
     </row>
     <row r="457" spans="1:16">
-      <c r="A457" s="64"/>
+      <c r="A457" s="65"/>
       <c r="B457" s="21"/>
       <c r="P457" s="8"/>
     </row>
@@ -23459,7 +23897,7 @@
       <c r="P458" s="8"/>
     </row>
     <row r="459" spans="1:16">
-      <c r="A459" s="64"/>
+      <c r="A459" s="65"/>
       <c r="B459" s="21"/>
       <c r="P459" s="8"/>
     </row>
@@ -23469,7 +23907,7 @@
       <c r="P460" s="8"/>
     </row>
     <row r="461" spans="1:16">
-      <c r="A461" s="64"/>
+      <c r="A461" s="65"/>
       <c r="B461" s="21"/>
       <c r="P461" s="8"/>
     </row>
@@ -23479,7 +23917,7 @@
       <c r="P462" s="8"/>
     </row>
     <row r="463" spans="1:16">
-      <c r="A463" s="64"/>
+      <c r="A463" s="65"/>
       <c r="B463" s="21"/>
       <c r="P463" s="8"/>
     </row>
@@ -23489,7 +23927,7 @@
       <c r="P464" s="8"/>
     </row>
     <row r="465" spans="1:16">
-      <c r="A465" s="64"/>
+      <c r="A465" s="65"/>
       <c r="B465" s="21"/>
       <c r="P465" s="8"/>
     </row>
@@ -23499,7 +23937,7 @@
       <c r="P466" s="8"/>
     </row>
     <row r="467" spans="1:16">
-      <c r="A467" s="64"/>
+      <c r="A467" s="65"/>
       <c r="B467" s="21"/>
       <c r="P467" s="8"/>
     </row>
@@ -23509,7 +23947,7 @@
       <c r="P468" s="8"/>
     </row>
     <row r="469" spans="1:16">
-      <c r="A469" s="64"/>
+      <c r="A469" s="65"/>
       <c r="B469" s="21"/>
       <c r="P469" s="8"/>
     </row>
@@ -23519,7 +23957,7 @@
       <c r="P470" s="8"/>
     </row>
     <row r="471" spans="1:16">
-      <c r="A471" s="64"/>
+      <c r="A471" s="65"/>
       <c r="B471" s="21"/>
       <c r="P471" s="8"/>
     </row>
@@ -23529,7 +23967,7 @@
       <c r="P472" s="8"/>
     </row>
     <row r="473" spans="1:16">
-      <c r="A473" s="64"/>
+      <c r="A473" s="65"/>
       <c r="B473" s="21"/>
       <c r="P473" s="8"/>
     </row>
@@ -23539,7 +23977,7 @@
       <c r="P474" s="8"/>
     </row>
     <row r="475" spans="1:16">
-      <c r="A475" s="64"/>
+      <c r="A475" s="65"/>
       <c r="B475" s="21"/>
       <c r="P475" s="8"/>
     </row>
@@ -23549,7 +23987,7 @@
       <c r="P476" s="8"/>
     </row>
     <row r="477" spans="1:2">
-      <c r="A477" s="64"/>
+      <c r="A477" s="65"/>
       <c r="B477" s="21"/>
     </row>
     <row r="478" spans="1:2">
@@ -23557,7 +23995,7 @@
       <c r="B478" s="21"/>
     </row>
     <row r="479" spans="1:2">
-      <c r="A479" s="64"/>
+      <c r="A479" s="65"/>
       <c r="B479" s="21"/>
     </row>
     <row r="480" spans="1:2">
@@ -23565,7 +24003,7 @@
       <c r="B480" s="21"/>
     </row>
     <row r="481" spans="1:2">
-      <c r="A481" s="64"/>
+      <c r="A481" s="65"/>
       <c r="B481" s="21"/>
     </row>
     <row r="482" spans="1:2">
@@ -23573,7 +24011,7 @@
       <c r="B482" s="21"/>
     </row>
     <row r="483" spans="1:2">
-      <c r="A483" s="64"/>
+      <c r="A483" s="65"/>
       <c r="B483" s="21"/>
     </row>
     <row r="484" spans="1:2">
@@ -23581,7 +24019,7 @@
       <c r="B484" s="21"/>
     </row>
     <row r="485" spans="1:2">
-      <c r="A485" s="64"/>
+      <c r="A485" s="65"/>
       <c r="B485" s="21"/>
     </row>
     <row r="486" spans="1:2">
@@ -23589,7 +24027,7 @@
       <c r="B486" s="21"/>
     </row>
     <row r="487" spans="1:2">
-      <c r="A487" s="64"/>
+      <c r="A487" s="65"/>
       <c r="B487" s="21"/>
     </row>
     <row r="488" spans="1:2">
@@ -23597,7 +24035,7 @@
       <c r="B488" s="21"/>
     </row>
     <row r="489" spans="1:2">
-      <c r="A489" s="64"/>
+      <c r="A489" s="65"/>
       <c r="B489" s="21"/>
     </row>
     <row r="490" spans="1:2">
@@ -23605,7 +24043,7 @@
       <c r="B490" s="21"/>
     </row>
     <row r="491" spans="1:2">
-      <c r="A491" s="64"/>
+      <c r="A491" s="65"/>
       <c r="B491" s="21"/>
     </row>
     <row r="492" spans="1:2">
@@ -23613,7 +24051,7 @@
       <c r="B492" s="21"/>
     </row>
     <row r="493" spans="1:2">
-      <c r="A493" s="64"/>
+      <c r="A493" s="65"/>
       <c r="B493" s="21"/>
     </row>
     <row r="494" spans="1:2">
@@ -23621,7 +24059,7 @@
       <c r="B494" s="21"/>
     </row>
     <row r="495" spans="1:2">
-      <c r="A495" s="64"/>
+      <c r="A495" s="65"/>
       <c r="B495" s="21"/>
     </row>
     <row r="496" spans="1:2">
@@ -23629,7 +24067,7 @@
       <c r="B496" s="21"/>
     </row>
     <row r="497" spans="1:2">
-      <c r="A497" s="64"/>
+      <c r="A497" s="65"/>
       <c r="B497" s="21"/>
     </row>
     <row r="498" spans="1:2">
@@ -23637,7 +24075,7 @@
       <c r="B498" s="21"/>
     </row>
     <row r="499" spans="1:2">
-      <c r="A499" s="64"/>
+      <c r="A499" s="65"/>
       <c r="B499" s="21"/>
     </row>
     <row r="500" spans="1:2">
@@ -23645,7 +24083,7 @@
       <c r="B500" s="21"/>
     </row>
     <row r="501" spans="1:2">
-      <c r="A501" s="64"/>
+      <c r="A501" s="65"/>
       <c r="B501" s="21"/>
     </row>
     <row r="502" spans="1:2">
@@ -23653,7 +24091,7 @@
       <c r="B502" s="21"/>
     </row>
     <row r="503" spans="1:2">
-      <c r="A503" s="64"/>
+      <c r="A503" s="65"/>
       <c r="B503" s="21"/>
     </row>
     <row r="504" spans="1:2">
@@ -23661,7 +24099,7 @@
       <c r="B504" s="21"/>
     </row>
     <row r="505" spans="1:2">
-      <c r="A505" s="64"/>
+      <c r="A505" s="65"/>
       <c r="B505" s="21"/>
     </row>
     <row r="506" spans="1:2">
@@ -23669,7 +24107,7 @@
       <c r="B506" s="21"/>
     </row>
     <row r="507" spans="1:2">
-      <c r="A507" s="64"/>
+      <c r="A507" s="65"/>
       <c r="B507" s="21"/>
     </row>
     <row r="508" spans="1:2">
@@ -23677,7 +24115,7 @@
       <c r="B508" s="21"/>
     </row>
     <row r="509" spans="1:2">
-      <c r="A509" s="64"/>
+      <c r="A509" s="65"/>
       <c r="B509" s="21"/>
     </row>
     <row r="510" spans="1:2">
@@ -23685,7 +24123,7 @@
       <c r="B510" s="21"/>
     </row>
     <row r="511" spans="1:2">
-      <c r="A511" s="64"/>
+      <c r="A511" s="65"/>
       <c r="B511" s="21"/>
     </row>
     <row r="512" spans="1:2">
@@ -23693,7 +24131,7 @@
       <c r="B512" s="21"/>
     </row>
     <row r="513" spans="1:2">
-      <c r="A513" s="64"/>
+      <c r="A513" s="65"/>
       <c r="B513" s="21"/>
     </row>
     <row r="514" spans="1:2">
@@ -23701,7 +24139,7 @@
       <c r="B514" s="21"/>
     </row>
     <row r="515" spans="1:2">
-      <c r="A515" s="64"/>
+      <c r="A515" s="65"/>
       <c r="B515" s="21"/>
     </row>
     <row r="516" spans="1:2">
@@ -23709,7 +24147,7 @@
       <c r="B516" s="21"/>
     </row>
     <row r="517" spans="1:2">
-      <c r="A517" s="64"/>
+      <c r="A517" s="65"/>
       <c r="B517" s="21"/>
     </row>
     <row r="518" spans="1:2">
@@ -23717,7 +24155,7 @@
       <c r="B518" s="21"/>
     </row>
     <row r="519" spans="1:2">
-      <c r="A519" s="64"/>
+      <c r="A519" s="65"/>
       <c r="B519" s="21"/>
     </row>
     <row r="520" spans="1:2">
@@ -23725,7 +24163,7 @@
       <c r="B520" s="21"/>
     </row>
     <row r="521" spans="1:2">
-      <c r="A521" s="64"/>
+      <c r="A521" s="65"/>
       <c r="B521" s="21"/>
     </row>
     <row r="522" spans="1:2">
@@ -23733,7 +24171,7 @@
       <c r="B522" s="21"/>
     </row>
     <row r="523" spans="1:2">
-      <c r="A523" s="64"/>
+      <c r="A523" s="65"/>
       <c r="B523" s="21"/>
     </row>
     <row r="524" spans="1:2">
@@ -23741,7 +24179,7 @@
       <c r="B524" s="21"/>
     </row>
     <row r="525" spans="1:2">
-      <c r="A525" s="64"/>
+      <c r="A525" s="65"/>
       <c r="B525" s="21"/>
     </row>
     <row r="526" spans="1:2">
@@ -23749,7 +24187,7 @@
       <c r="B526" s="21"/>
     </row>
     <row r="527" spans="1:2">
-      <c r="A527" s="64"/>
+      <c r="A527" s="65"/>
       <c r="B527" s="21"/>
     </row>
     <row r="528" spans="1:2">
@@ -23757,7 +24195,7 @@
       <c r="B528" s="21"/>
     </row>
     <row r="529" spans="1:2">
-      <c r="A529" s="64"/>
+      <c r="A529" s="65"/>
       <c r="B529" s="21"/>
     </row>
     <row r="530" spans="1:2">
@@ -23765,7 +24203,7 @@
       <c r="B530" s="21"/>
     </row>
     <row r="531" spans="1:2">
-      <c r="A531" s="64"/>
+      <c r="A531" s="65"/>
       <c r="B531" s="21"/>
     </row>
     <row r="532" spans="1:2">
@@ -23773,7 +24211,7 @@
       <c r="B532" s="21"/>
     </row>
     <row r="533" spans="1:2">
-      <c r="A533" s="64"/>
+      <c r="A533" s="65"/>
       <c r="B533" s="21"/>
     </row>
     <row r="534" spans="1:2">
@@ -23781,7 +24219,7 @@
       <c r="B534" s="21"/>
     </row>
     <row r="535" spans="1:2">
-      <c r="A535" s="64"/>
+      <c r="A535" s="65"/>
       <c r="B535" s="21"/>
     </row>
     <row r="536" spans="1:2">
@@ -23789,7 +24227,7 @@
       <c r="B536" s="21"/>
     </row>
     <row r="537" spans="1:2">
-      <c r="A537" s="64"/>
+      <c r="A537" s="65"/>
       <c r="B537" s="21"/>
     </row>
     <row r="538" spans="1:2">
@@ -23797,7 +24235,7 @@
       <c r="B538" s="21"/>
     </row>
     <row r="539" spans="1:2">
-      <c r="A539" s="64"/>
+      <c r="A539" s="65"/>
       <c r="B539" s="21"/>
     </row>
     <row r="540" spans="1:2">
@@ -23805,7 +24243,7 @@
       <c r="B540" s="21"/>
     </row>
     <row r="541" spans="1:2">
-      <c r="A541" s="64"/>
+      <c r="A541" s="65"/>
       <c r="B541" s="21"/>
     </row>
     <row r="542" spans="1:2">
@@ -23813,7 +24251,7 @@
       <c r="B542" s="21"/>
     </row>
     <row r="543" spans="1:2">
-      <c r="A543" s="64"/>
+      <c r="A543" s="65"/>
       <c r="B543" s="21"/>
     </row>
     <row r="544" spans="1:2">
@@ -23821,7 +24259,7 @@
       <c r="B544" s="21"/>
     </row>
     <row r="545" spans="1:2">
-      <c r="A545" s="64"/>
+      <c r="A545" s="65"/>
       <c r="B545" s="21"/>
     </row>
     <row r="546" spans="1:2">
@@ -23829,7 +24267,7 @@
       <c r="B546" s="21"/>
     </row>
     <row r="547" spans="1:2">
-      <c r="A547" s="64"/>
+      <c r="A547" s="65"/>
       <c r="B547" s="21"/>
     </row>
     <row r="548" spans="1:2">
@@ -23837,7 +24275,7 @@
       <c r="B548" s="21"/>
     </row>
     <row r="549" spans="1:2">
-      <c r="A549" s="64"/>
+      <c r="A549" s="65"/>
       <c r="B549" s="21"/>
     </row>
     <row r="550" spans="1:2">
@@ -23845,7 +24283,7 @@
       <c r="B550" s="21"/>
     </row>
     <row r="551" spans="1:2">
-      <c r="A551" s="64"/>
+      <c r="A551" s="65"/>
       <c r="B551" s="21"/>
     </row>
     <row r="552" spans="1:2">
@@ -23853,7 +24291,7 @@
       <c r="B552" s="21"/>
     </row>
     <row r="553" spans="1:2">
-      <c r="A553" s="64"/>
+      <c r="A553" s="65"/>
       <c r="B553" s="21"/>
     </row>
     <row r="554" spans="1:2">
@@ -23861,7 +24299,7 @@
       <c r="B554" s="21"/>
     </row>
     <row r="555" spans="1:2">
-      <c r="A555" s="64"/>
+      <c r="A555" s="65"/>
       <c r="B555" s="21"/>
     </row>
     <row r="556" spans="1:2">
@@ -23869,7 +24307,7 @@
       <c r="B556" s="21"/>
     </row>
     <row r="557" spans="1:2">
-      <c r="A557" s="64"/>
+      <c r="A557" s="65"/>
       <c r="B557" s="21"/>
     </row>
     <row r="558" spans="1:2">
@@ -23877,7 +24315,7 @@
       <c r="B558" s="21"/>
     </row>
     <row r="559" spans="1:2">
-      <c r="A559" s="64"/>
+      <c r="A559" s="65"/>
       <c r="B559" s="21"/>
     </row>
     <row r="560" spans="1:2">
@@ -23885,7 +24323,7 @@
       <c r="B560" s="21"/>
     </row>
     <row r="561" spans="1:2">
-      <c r="A561" s="64"/>
+      <c r="A561" s="65"/>
       <c r="B561" s="21"/>
     </row>
     <row r="562" spans="1:2">
@@ -23893,7 +24331,7 @@
       <c r="B562" s="21"/>
     </row>
     <row r="563" spans="1:2">
-      <c r="A563" s="64"/>
+      <c r="A563" s="65"/>
       <c r="B563" s="21"/>
     </row>
     <row r="564" spans="1:2">
@@ -23901,7 +24339,7 @@
       <c r="B564" s="21"/>
     </row>
     <row r="565" spans="1:2">
-      <c r="A565" s="64"/>
+      <c r="A565" s="65"/>
       <c r="B565" s="21"/>
     </row>
     <row r="566" spans="1:2">
@@ -23909,7 +24347,7 @@
       <c r="B566" s="21"/>
     </row>
     <row r="567" spans="1:2">
-      <c r="A567" s="64"/>
+      <c r="A567" s="65"/>
       <c r="B567" s="21"/>
     </row>
     <row r="568" spans="1:2">
@@ -23917,7 +24355,7 @@
       <c r="B568" s="21"/>
     </row>
     <row r="569" spans="1:2">
-      <c r="A569" s="64"/>
+      <c r="A569" s="65"/>
       <c r="B569" s="21"/>
     </row>
     <row r="570" spans="1:2">
@@ -23925,7 +24363,7 @@
       <c r="B570" s="21"/>
     </row>
     <row r="571" spans="1:2">
-      <c r="A571" s="64"/>
+      <c r="A571" s="65"/>
       <c r="B571" s="21"/>
     </row>
     <row r="572" spans="1:2">
@@ -23933,7 +24371,7 @@
       <c r="B572" s="21"/>
     </row>
     <row r="573" spans="1:2">
-      <c r="A573" s="64"/>
+      <c r="A573" s="65"/>
       <c r="B573" s="21"/>
     </row>
     <row r="574" spans="1:2">
@@ -23941,7 +24379,7 @@
       <c r="B574" s="21"/>
     </row>
     <row r="575" spans="1:2">
-      <c r="A575" s="64"/>
+      <c r="A575" s="65"/>
       <c r="B575" s="21"/>
     </row>
     <row r="576" spans="1:2">
@@ -23949,7 +24387,7 @@
       <c r="B576" s="21"/>
     </row>
     <row r="577" spans="1:2">
-      <c r="A577" s="64"/>
+      <c r="A577" s="65"/>
       <c r="B577" s="21"/>
     </row>
     <row r="578" spans="1:2">
@@ -23957,7 +24395,7 @@
       <c r="B578" s="21"/>
     </row>
     <row r="579" spans="1:2">
-      <c r="A579" s="64"/>
+      <c r="A579" s="65"/>
       <c r="B579" s="21"/>
     </row>
     <row r="580" spans="1:2">
@@ -23965,7 +24403,7 @@
       <c r="B580" s="21"/>
     </row>
     <row r="581" spans="1:2">
-      <c r="A581" s="64"/>
+      <c r="A581" s="65"/>
       <c r="B581" s="21"/>
     </row>
     <row r="582" spans="1:2">
@@ -23973,7 +24411,7 @@
       <c r="B582" s="21"/>
     </row>
     <row r="583" spans="1:2">
-      <c r="A583" s="64"/>
+      <c r="A583" s="65"/>
       <c r="B583" s="21"/>
     </row>
     <row r="584" spans="1:2">
@@ -23981,7 +24419,7 @@
       <c r="B584" s="21"/>
     </row>
     <row r="585" spans="1:2">
-      <c r="A585" s="64"/>
+      <c r="A585" s="65"/>
       <c r="B585" s="21"/>
     </row>
     <row r="586" spans="1:2">
@@ -23989,7 +24427,7 @@
       <c r="B586" s="21"/>
     </row>
     <row r="587" spans="1:2">
-      <c r="A587" s="64"/>
+      <c r="A587" s="65"/>
       <c r="B587" s="21"/>
     </row>
     <row r="588" spans="1:2">
@@ -23997,7 +24435,7 @@
       <c r="B588" s="21"/>
     </row>
     <row r="589" spans="1:2">
-      <c r="A589" s="64"/>
+      <c r="A589" s="65"/>
       <c r="B589" s="21"/>
     </row>
     <row r="590" spans="1:2">
@@ -24005,7 +24443,7 @@
       <c r="B590" s="21"/>
     </row>
     <row r="591" spans="1:2">
-      <c r="A591" s="64"/>
+      <c r="A591" s="65"/>
       <c r="B591" s="21"/>
     </row>
     <row r="592" spans="1:2">
@@ -24013,7 +24451,7 @@
       <c r="B592" s="15"/>
     </row>
     <row r="593" spans="1:2">
-      <c r="A593" s="64"/>
+      <c r="A593" s="65"/>
       <c r="B593" s="15"/>
     </row>
     <row r="594" spans="1:2">
@@ -24021,7 +24459,7 @@
       <c r="B594" s="15"/>
     </row>
     <row r="595" spans="1:2">
-      <c r="A595" s="64"/>
+      <c r="A595" s="65"/>
       <c r="B595" s="15"/>
     </row>
     <row r="596" spans="1:2">
@@ -24029,7 +24467,7 @@
       <c r="B596" s="15"/>
     </row>
     <row r="597" spans="1:2">
-      <c r="A597" s="64"/>
+      <c r="A597" s="65"/>
       <c r="B597" s="15"/>
     </row>
     <row r="598" spans="1:2">
@@ -24037,7 +24475,7 @@
       <c r="B598" s="15"/>
     </row>
     <row r="599" spans="1:2">
-      <c r="A599" s="64"/>
+      <c r="A599" s="65"/>
       <c r="B599" s="15"/>
     </row>
     <row r="600" spans="1:2">
@@ -24045,7 +24483,7 @@
       <c r="B600" s="15"/>
     </row>
     <row r="601" spans="1:2">
-      <c r="A601" s="64"/>
+      <c r="A601" s="65"/>
       <c r="B601" s="15"/>
     </row>
     <row r="602" spans="1:2">
@@ -24053,7 +24491,7 @@
       <c r="B602" s="15"/>
     </row>
     <row r="603" spans="1:2">
-      <c r="A603" s="64"/>
+      <c r="A603" s="65"/>
       <c r="B603" s="15"/>
     </row>
     <row r="604" spans="1:2">
@@ -24061,7 +24499,7 @@
       <c r="B604" s="15"/>
     </row>
     <row r="605" spans="1:2">
-      <c r="A605" s="64"/>
+      <c r="A605" s="65"/>
       <c r="B605" s="15"/>
     </row>
     <row r="606" spans="1:2">
@@ -24069,7 +24507,7 @@
       <c r="B606" s="15"/>
     </row>
     <row r="607" spans="1:2">
-      <c r="A607" s="64"/>
+      <c r="A607" s="65"/>
       <c r="B607" s="15"/>
     </row>
     <row r="608" spans="1:2">
@@ -24077,7 +24515,7 @@
       <c r="B608" s="15"/>
     </row>
     <row r="609" spans="1:2">
-      <c r="A609" s="64"/>
+      <c r="A609" s="65"/>
       <c r="B609" s="15"/>
     </row>
     <row r="610" spans="1:2">
@@ -24085,7 +24523,7 @@
       <c r="B610" s="15"/>
     </row>
     <row r="611" spans="1:2">
-      <c r="A611" s="64"/>
+      <c r="A611" s="65"/>
       <c r="B611" s="15"/>
     </row>
     <row r="612" spans="1:2">
@@ -24093,7 +24531,7 @@
       <c r="B612" s="15"/>
     </row>
     <row r="613" spans="1:2">
-      <c r="A613" s="64"/>
+      <c r="A613" s="65"/>
       <c r="B613" s="15"/>
     </row>
     <row r="614" spans="1:2">
@@ -24101,7 +24539,7 @@
       <c r="B614" s="15"/>
     </row>
     <row r="615" spans="1:2">
-      <c r="A615" s="64"/>
+      <c r="A615" s="65"/>
       <c r="B615" s="15"/>
     </row>
     <row r="616" spans="1:2">
@@ -24109,431 +24547,431 @@
       <c r="B616" s="15"/>
     </row>
     <row r="617" spans="1:1">
-      <c r="A617" s="65"/>
+      <c r="A617" s="66"/>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" s="12"/>
     </row>
     <row r="619" spans="1:1">
-      <c r="A619" s="65"/>
+      <c r="A619" s="66"/>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" s="12"/>
     </row>
     <row r="621" spans="1:1">
-      <c r="A621" s="65"/>
+      <c r="A621" s="66"/>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" s="12"/>
     </row>
     <row r="623" spans="1:1">
-      <c r="A623" s="65"/>
+      <c r="A623" s="66"/>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" s="12"/>
     </row>
     <row r="625" spans="1:1">
-      <c r="A625" s="65"/>
+      <c r="A625" s="66"/>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" s="12"/>
     </row>
     <row r="627" spans="1:1">
-      <c r="A627" s="65"/>
+      <c r="A627" s="66"/>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" s="12"/>
     </row>
     <row r="629" spans="1:1">
-      <c r="A629" s="65"/>
+      <c r="A629" s="66"/>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" s="12"/>
     </row>
     <row r="631" spans="1:1">
-      <c r="A631" s="65"/>
+      <c r="A631" s="66"/>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" s="12"/>
     </row>
     <row r="633" spans="1:1">
-      <c r="A633" s="65"/>
+      <c r="A633" s="66"/>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" s="12"/>
     </row>
     <row r="635" spans="1:1">
-      <c r="A635" s="65"/>
+      <c r="A635" s="66"/>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" s="12"/>
     </row>
     <row r="637" spans="1:1">
-      <c r="A637" s="65"/>
+      <c r="A637" s="66"/>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" s="12"/>
     </row>
     <row r="639" spans="1:1">
-      <c r="A639" s="65"/>
+      <c r="A639" s="66"/>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" s="12"/>
     </row>
     <row r="641" spans="1:1">
-      <c r="A641" s="65"/>
+      <c r="A641" s="66"/>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" s="12"/>
     </row>
     <row r="643" spans="1:1">
-      <c r="A643" s="65"/>
+      <c r="A643" s="66"/>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" s="12"/>
     </row>
     <row r="645" spans="1:1">
-      <c r="A645" s="65"/>
+      <c r="A645" s="66"/>
     </row>
     <row r="646" spans="1:1">
       <c r="A646" s="12"/>
     </row>
     <row r="647" spans="1:1">
-      <c r="A647" s="65"/>
+      <c r="A647" s="66"/>
     </row>
     <row r="648" spans="1:1">
       <c r="A648" s="12"/>
     </row>
     <row r="649" spans="1:1">
-      <c r="A649" s="65"/>
+      <c r="A649" s="66"/>
     </row>
     <row r="650" spans="1:1">
       <c r="A650" s="12"/>
     </row>
     <row r="651" spans="1:1">
-      <c r="A651" s="65"/>
+      <c r="A651" s="66"/>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" s="12"/>
     </row>
     <row r="653" spans="1:1">
-      <c r="A653" s="65"/>
+      <c r="A653" s="66"/>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" s="12"/>
     </row>
     <row r="655" spans="1:1">
-      <c r="A655" s="65"/>
+      <c r="A655" s="66"/>
     </row>
     <row r="656" spans="1:1">
       <c r="A656" s="12"/>
     </row>
     <row r="657" spans="1:1">
-      <c r="A657" s="65"/>
+      <c r="A657" s="66"/>
     </row>
     <row r="658" spans="1:1">
       <c r="A658" s="12"/>
     </row>
     <row r="659" spans="1:1">
-      <c r="A659" s="65"/>
+      <c r="A659" s="66"/>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" s="12"/>
     </row>
     <row r="661" spans="1:1">
-      <c r="A661" s="65"/>
+      <c r="A661" s="66"/>
     </row>
     <row r="662" spans="1:1">
       <c r="A662" s="12"/>
     </row>
     <row r="663" spans="1:1">
-      <c r="A663" s="65"/>
+      <c r="A663" s="66"/>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" s="12"/>
     </row>
     <row r="665" spans="1:1">
-      <c r="A665" s="65"/>
+      <c r="A665" s="66"/>
     </row>
     <row r="666" spans="1:1">
       <c r="A666" s="12"/>
     </row>
     <row r="667" spans="1:1">
-      <c r="A667" s="65"/>
+      <c r="A667" s="66"/>
     </row>
     <row r="668" spans="1:1">
       <c r="A668" s="12"/>
     </row>
     <row r="669" spans="1:1">
-      <c r="A669" s="65"/>
+      <c r="A669" s="66"/>
     </row>
     <row r="670" spans="1:1">
       <c r="A670" s="12"/>
     </row>
     <row r="671" spans="1:1">
-      <c r="A671" s="65"/>
+      <c r="A671" s="66"/>
     </row>
     <row r="672" spans="1:1">
       <c r="A672" s="12"/>
     </row>
     <row r="673" spans="1:1">
-      <c r="A673" s="65"/>
+      <c r="A673" s="66"/>
     </row>
     <row r="674" spans="1:1">
       <c r="A674" s="12"/>
     </row>
     <row r="675" spans="1:1">
-      <c r="A675" s="65"/>
+      <c r="A675" s="66"/>
     </row>
     <row r="676" spans="1:1">
       <c r="A676" s="12"/>
     </row>
     <row r="677" spans="1:1">
-      <c r="A677" s="65"/>
+      <c r="A677" s="66"/>
     </row>
     <row r="678" spans="1:1">
       <c r="A678" s="12"/>
     </row>
     <row r="679" spans="1:1">
-      <c r="A679" s="65"/>
+      <c r="A679" s="66"/>
     </row>
     <row r="680" spans="1:1">
       <c r="A680" s="12"/>
     </row>
     <row r="681" spans="1:1">
-      <c r="A681" s="65"/>
+      <c r="A681" s="66"/>
     </row>
     <row r="682" spans="1:1">
       <c r="A682" s="12"/>
     </row>
     <row r="683" spans="1:1">
-      <c r="A683" s="65"/>
+      <c r="A683" s="66"/>
     </row>
     <row r="684" spans="1:1">
       <c r="A684" s="12"/>
     </row>
     <row r="685" spans="1:1">
-      <c r="A685" s="65"/>
+      <c r="A685" s="66"/>
     </row>
     <row r="686" spans="1:1">
       <c r="A686" s="12"/>
     </row>
     <row r="687" spans="1:1">
-      <c r="A687" s="65"/>
+      <c r="A687" s="66"/>
     </row>
     <row r="688" spans="1:1">
       <c r="A688" s="12"/>
     </row>
     <row r="689" spans="1:1">
-      <c r="A689" s="65"/>
+      <c r="A689" s="66"/>
     </row>
     <row r="690" spans="1:1">
       <c r="A690" s="12"/>
     </row>
     <row r="691" spans="1:1">
-      <c r="A691" s="65"/>
+      <c r="A691" s="66"/>
     </row>
     <row r="692" spans="1:1">
       <c r="A692" s="12"/>
     </row>
     <row r="693" spans="1:1">
-      <c r="A693" s="65"/>
+      <c r="A693" s="66"/>
     </row>
     <row r="694" spans="1:1">
       <c r="A694" s="12"/>
     </row>
     <row r="695" spans="1:1">
-      <c r="A695" s="65"/>
+      <c r="A695" s="66"/>
     </row>
     <row r="696" spans="1:1">
       <c r="A696" s="12"/>
     </row>
     <row r="697" spans="1:1">
-      <c r="A697" s="65"/>
+      <c r="A697" s="66"/>
     </row>
     <row r="698" spans="1:1">
       <c r="A698" s="12"/>
     </row>
     <row r="699" spans="1:1">
-      <c r="A699" s="65"/>
+      <c r="A699" s="66"/>
     </row>
     <row r="700" spans="1:1">
       <c r="A700" s="12"/>
     </row>
     <row r="701" spans="1:1">
-      <c r="A701" s="65"/>
+      <c r="A701" s="66"/>
     </row>
     <row r="702" spans="1:1">
       <c r="A702" s="12"/>
     </row>
     <row r="703" spans="1:1">
-      <c r="A703" s="65"/>
+      <c r="A703" s="66"/>
     </row>
     <row r="704" spans="1:1">
       <c r="A704" s="12"/>
     </row>
     <row r="705" spans="1:1">
-      <c r="A705" s="65"/>
+      <c r="A705" s="66"/>
     </row>
     <row r="706" spans="1:1">
       <c r="A706" s="12"/>
     </row>
     <row r="707" spans="1:1">
-      <c r="A707" s="65"/>
+      <c r="A707" s="66"/>
     </row>
     <row r="708" spans="1:1">
       <c r="A708" s="12"/>
     </row>
     <row r="709" spans="1:1">
-      <c r="A709" s="65"/>
+      <c r="A709" s="66"/>
     </row>
     <row r="710" spans="1:1">
       <c r="A710" s="12"/>
     </row>
     <row r="711" spans="1:1">
-      <c r="A711" s="65"/>
+      <c r="A711" s="66"/>
     </row>
     <row r="712" spans="1:1">
       <c r="A712" s="12"/>
     </row>
     <row r="713" spans="1:1">
-      <c r="A713" s="65"/>
+      <c r="A713" s="66"/>
     </row>
     <row r="714" spans="1:1">
       <c r="A714" s="12"/>
     </row>
     <row r="715" spans="1:1">
-      <c r="A715" s="65"/>
+      <c r="A715" s="66"/>
     </row>
     <row r="716" spans="1:1">
       <c r="A716" s="12"/>
     </row>
     <row r="717" spans="1:1">
-      <c r="A717" s="65"/>
+      <c r="A717" s="66"/>
     </row>
     <row r="718" spans="1:1">
       <c r="A718" s="12"/>
     </row>
     <row r="719" spans="1:1">
-      <c r="A719" s="65"/>
+      <c r="A719" s="66"/>
     </row>
     <row r="720" spans="1:1">
       <c r="A720" s="12"/>
     </row>
     <row r="721" spans="1:1">
-      <c r="A721" s="65"/>
+      <c r="A721" s="66"/>
     </row>
     <row r="722" spans="1:1">
       <c r="A722" s="12"/>
     </row>
     <row r="723" spans="1:1">
-      <c r="A723" s="65"/>
+      <c r="A723" s="66"/>
     </row>
     <row r="724" spans="1:1">
       <c r="A724" s="12"/>
     </row>
     <row r="725" spans="1:1">
-      <c r="A725" s="65"/>
+      <c r="A725" s="66"/>
     </row>
     <row r="726" spans="1:1">
       <c r="A726" s="12"/>
     </row>
     <row r="727" spans="1:1">
-      <c r="A727" s="65"/>
+      <c r="A727" s="66"/>
     </row>
     <row r="728" spans="1:1">
       <c r="A728" s="12"/>
     </row>
     <row r="729" spans="1:1">
-      <c r="A729" s="65"/>
+      <c r="A729" s="66"/>
     </row>
     <row r="730" spans="1:1">
       <c r="A730" s="12"/>
     </row>
     <row r="731" spans="1:1">
-      <c r="A731" s="65"/>
+      <c r="A731" s="66"/>
     </row>
     <row r="732" spans="1:1">
       <c r="A732" s="12"/>
     </row>
     <row r="733" spans="1:1">
-      <c r="A733" s="65"/>
+      <c r="A733" s="66"/>
     </row>
     <row r="734" spans="1:1">
       <c r="A734" s="12"/>
     </row>
     <row r="735" spans="1:1">
-      <c r="A735" s="65"/>
+      <c r="A735" s="66"/>
     </row>
     <row r="736" spans="1:1">
       <c r="A736" s="12"/>
     </row>
     <row r="737" spans="1:1">
-      <c r="A737" s="65"/>
+      <c r="A737" s="66"/>
     </row>
     <row r="738" spans="1:1">
       <c r="A738" s="12"/>
     </row>
     <row r="739" spans="1:1">
-      <c r="A739" s="65"/>
+      <c r="A739" s="66"/>
     </row>
     <row r="740" spans="1:1">
       <c r="A740" s="12"/>
     </row>
     <row r="741" spans="1:1">
-      <c r="A741" s="65"/>
+      <c r="A741" s="66"/>
     </row>
     <row r="742" spans="1:1">
       <c r="A742" s="12"/>
     </row>
     <row r="743" spans="1:1">
-      <c r="A743" s="65"/>
+      <c r="A743" s="66"/>
     </row>
     <row r="744" spans="1:1">
       <c r="A744" s="12"/>
     </row>
     <row r="745" spans="1:1">
-      <c r="A745" s="65"/>
+      <c r="A745" s="66"/>
     </row>
     <row r="746" spans="1:1">
       <c r="A746" s="12"/>
     </row>
     <row r="747" spans="1:1">
-      <c r="A747" s="65"/>
+      <c r="A747" s="66"/>
     </row>
     <row r="748" spans="1:1">
       <c r="A748" s="12"/>
     </row>
     <row r="749" spans="1:1">
-      <c r="A749" s="65"/>
+      <c r="A749" s="66"/>
     </row>
     <row r="750" spans="1:1">
       <c r="A750" s="12"/>
     </row>
     <row r="751" spans="1:1">
-      <c r="A751" s="65"/>
+      <c r="A751" s="66"/>
     </row>
     <row r="752" spans="1:1">
       <c r="A752" s="12"/>
     </row>
     <row r="753" spans="1:1">
-      <c r="A753" s="65"/>
+      <c r="A753" s="66"/>
     </row>
     <row r="754" spans="1:1">
       <c r="A754" s="12"/>
     </row>
     <row r="755" spans="1:1">
-      <c r="A755" s="65"/>
+      <c r="A755" s="66"/>
     </row>
     <row r="756" spans="1:1">
       <c r="A756" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C163 C179 C198 C199 C200 C216 C227 C228 C229 C230 C231 C232 C233 C234 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C257 C258 C265 C266 C267 C268 C269 C270 C271 C272 C273 C274 C275 C276 C277 C278 C279 C280 C281 C282 C283 C284 C285 C286 C287 C288 C289 C290 C291 C292 C293 C294 C295 C296 C297 C298 C299 C300 C301 C302 C320 C321 C322 C323 C324 C337 C338 C339 C340 C341 C342 C343 C344 C345 C346 C347 C348 C349 C350 C351 C352 C353 C354 C355 C356 C357 C358 C359 C360 C361 C362 C363 C364 C365 C366 C367 C368 C369 C370 C371 C372 C373 C374 C375 C376 C377 C378 C379 C380 C381 C382 C383 C384 C385 C386 C387 C388 C389 C390 C391 C4:C17 C18:C23 C24:C34 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C146 C147:C162 C164:C178 C180:C197 C201:C215 C217:C226 C259:C261 C262:C264 C303:C313 C314:C319 C325:C330 C331:C336 C392:C1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C163 C179 C198 C199 C200 C216 C227 C228 C229 C230 C231 C232 C233 C234 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C257 C258 C265 C266 C267 C268 C269 C270 C271 C272 C273 C274 C275 C276 C277 C278 C279 C280 C281 C282 C283 C284 C285 C286 C287 C288 C289 C290 C291 C292 C293 C294 C295 C296 C297 C298 C299 C300 C301 C302 C320 C321 C322 C323 C324 C337 C338 C339 C340 C341 C342 C343 C344 C345 C346 C347 C348 C349 C350 C351 C352 C353 C354 C355 C356 C357 C358 C359 C360 C361 C362 C363 C364 C365 C366 C367 C368 C369 C370 C371 C372 C373 C374 C375 C376 C377 C378 C379 C380 C381 C382 C383 C384 C385 C386 C387 C388 C4:C17 C18:C23 C24:C34 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C146 C147:C162 C164:C178 C180:C197 C201:C215 C217:C226 C259:C261 C262:C264 C303:C313 C314:C319 C325:C330 C331:C336 C389:C397 C398:C1048576">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D18 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D60 D71 D84 D85 D86 D106 D146 D163 D179 D198 D199 D200 D216 D227 D228 D229 D235 D236 D237 D238 D239 D240 D241 D242 D243 D244 D245 D246 D247 D248 D249 D250 D251 D252 D253 D254 D255 D256 D257 D258 D259 D265 D266 D267 D268 D269 D270 D271 D272 D273 D274 D275 D276 D277 D278 D279 D280 D281 D282 D283 D284 D285 D286 D287 D288 D289 D290 D291 D292 D293 D294 D295 D296 D297 D298 D299 D300 D301 D302 D320 D321 D322 D323 D324 D337 D338 D339 D340 D341 D342 D343 D344 D345 D346 D347 D348 D349 D350 D351 D352 D353 D354 D355 D356 D357 D358 D369 D370 D371 D372 D373 D374 D375 D4:D17 D19:D22 D23:D35 D49:D59 D61:D70 D72:D81 D82:D83 D87:D105 D107:D117 D118:D137 D138:D145 D147:D162 D164:D178 D180:D197 D201:D215 D217:D226 D230:D234 D260:D264 D303:D313 D314:D319 D325:D331 D332:D336 D359:D368 D376:D391 D392:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D18 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D60 D71 D84 D85 D86 D106 D146 D163 D179 D198 D199 D200 D216 D227 D228 D229 D235 D236 D237 D238 D239 D240 D241 D242 D243 D244 D245 D246 D247 D248 D249 D250 D251 D252 D253 D254 D255 D256 D257 D258 D259 D265 D266 D267 D268 D269 D270 D271 D272 D273 D274 D275 D276 D277 D278 D279 D280 D281 D282 D283 D284 D285 D286 D287 D288 D289 D290 D291 D292 D293 D294 D295 D296 D297 D298 D299 D300 D301 D302 D320 D321 D322 D323 D324 D337 D338 D339 D340 D341 D342 D343 D344 D345 D346 D347 D348 D349 D350 D351 D352 D353 D354 D355 D356 D357 D358 D369 D370 D371 D372 D373 D374 D375 D4:D17 D19:D22 D23:D35 D49:D59 D61:D70 D72:D81 D82:D83 D87:D105 D107:D117 D118:D137 D138:D145 D147:D162 D164:D178 D180:D197 D201:D215 D217:D226 D230:D234 D260:D264 D303:D313 D314:D319 D325:D331 D332:D336 D359:D368 D376:D388 D389:D397 D398:D1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>
@@ -24562,13 +25000,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>867</v>
+        <v>879</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -24579,7 +25017,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>869</v>
+        <v>881</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -24590,7 +25028,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>870</v>
+        <v>882</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -24601,7 +25039,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>871</v>
+        <v>883</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -24617,7 +25055,7 @@
         <v>43050</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -24628,7 +25066,7 @@
         <v>43064</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>870</v>
+        <v>882</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -24644,7 +25082,7 @@
         <v>43079</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>873</v>
+        <v>885</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -24655,7 +25093,7 @@
         <v>43085</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>874</v>
+        <v>886</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -24666,7 +25104,7 @@
         <v>43092</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>875</v>
+        <v>887</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -24677,7 +25115,7 @@
         <v>43099</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>876</v>
+        <v>888</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -24688,7 +25126,7 @@
         <v>43100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>877</v>
+        <v>889</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -24704,7 +25142,7 @@
         <v>43107</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>870</v>
+        <v>882</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -24715,7 +25153,7 @@
         <v>43113</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>878</v>
+        <v>890</v>
       </c>
     </row>
     <row r="17" spans="1:3">

--- a/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -2874,6 +2874,36 @@
   </si>
   <si>
     <t>田恩亦</t>
+  </si>
+  <si>
+    <t>彦悦山苏州中心店</t>
+  </si>
+  <si>
+    <t>昇鳗鱼</t>
+  </si>
+  <si>
+    <t>昇鳗鱼(金虹桥店)</t>
+  </si>
+  <si>
+    <t>李自豪</t>
+  </si>
+  <si>
+    <t>上海臻唯餐饮管理有限公司</t>
+  </si>
+  <si>
+    <t>喔茶</t>
+  </si>
+  <si>
+    <t>南宁</t>
+  </si>
+  <si>
+    <t>喔茶(虎邱店)</t>
+  </si>
+  <si>
+    <t>李翔</t>
+  </si>
+  <si>
+    <t>喔茶(苏卢店)</t>
   </si>
   <si>
     <t>姓名</t>
@@ -2920,10 +2950,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="35">
@@ -3015,15 +3045,31 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3045,79 +3091,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -3127,7 +3100,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3142,23 +3130,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3169,6 +3192,13 @@
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3229,13 +3259,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3247,13 +3367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3265,37 +3379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3307,43 +3391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3367,31 +3415,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3762,6 +3792,71 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3788,74 +3883,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3865,10 +3895,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3877,149 +3907,149 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4204,18 +4234,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4734,440 +4752,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="77" t="s">
+      <c r="G2" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="102" t="s">
+      <c r="I2" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="103" t="s">
+      <c r="J2" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="104" t="s">
+      <c r="K2" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="105" t="s">
+      <c r="L2" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="106" t="s">
+      <c r="M2" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="107" t="s">
+      <c r="N2" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="72"/>
-      <c r="B3" s="79" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="81"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82">
+      <c r="D3" s="77"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83">
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="109"/>
-      <c r="K3" s="110" t="e">
+      <c r="J3" s="105"/>
+      <c r="K3" s="106" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="111">
+      <c r="L3" s="107">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="112">
+      <c r="M3" s="108">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="113" t="e">
+      <c r="N3" s="109" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="84"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="86" t="s">
+      <c r="A4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="87"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88">
+      <c r="D4" s="83"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="89"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="89">
+      <c r="G4" s="85"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="114"/>
-      <c r="K4" s="110" t="e">
+      <c r="J4" s="110"/>
+      <c r="K4" s="106" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="111">
+      <c r="L4" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="112">
+      <c r="M4" s="108">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="113" t="e">
+      <c r="N4" s="109" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="108"/>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="108"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="84"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="86" t="s">
+      <c r="A5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="87"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88">
+      <c r="D5" s="83"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="89"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="89">
+      <c r="G5" s="85"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="114"/>
-      <c r="K5" s="110" t="e">
+      <c r="J5" s="110"/>
+      <c r="K5" s="106" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="111">
+      <c r="L5" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="112">
+      <c r="M5" s="108">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="113" t="e">
+      <c r="N5" s="109" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="108"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="84"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="86" t="s">
+      <c r="A6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88">
+      <c r="D6" s="83"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="89"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="89">
+      <c r="G6" s="85"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="114"/>
-      <c r="K6" s="110" t="e">
+      <c r="J6" s="110"/>
+      <c r="K6" s="106" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="111">
+      <c r="L6" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="112">
+      <c r="M6" s="108">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="113" t="e">
+      <c r="N6" s="109" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="108"/>
-      <c r="P6" s="108"/>
-      <c r="Q6" s="108"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="84"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88">
+      <c r="A7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="83"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="89"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="89">
+      <c r="G7" s="85"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="114"/>
-      <c r="K7" s="110" t="e">
+      <c r="J7" s="110"/>
+      <c r="K7" s="106" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="111">
+      <c r="L7" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="112">
+      <c r="M7" s="108">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="113" t="e">
+      <c r="N7" s="109" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="104"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="84"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="86" t="s">
+      <c r="A8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="87"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88">
+      <c r="D8" s="83"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="89"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="89">
+      <c r="G8" s="85"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="114"/>
-      <c r="K8" s="110" t="e">
+      <c r="J8" s="110"/>
+      <c r="K8" s="106" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="111">
+      <c r="L8" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="112">
+      <c r="M8" s="108">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="113" t="e">
+      <c r="N8" s="109" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="108"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="108"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="84"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="86" t="s">
+      <c r="A9" s="80"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="87"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88">
+      <c r="D9" s="83"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="89"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="89">
+      <c r="G9" s="85"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="114"/>
-      <c r="K9" s="110" t="e">
+      <c r="J9" s="110"/>
+      <c r="K9" s="106" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="111">
+      <c r="L9" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="112">
+      <c r="M9" s="108">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="113" t="e">
+      <c r="N9" s="109" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="108"/>
-      <c r="P9" s="108"/>
-      <c r="Q9" s="108"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="84"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="90" t="s">
+      <c r="A10" s="80"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="91"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="93">
+      <c r="D10" s="87"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="94"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="94">
+      <c r="G10" s="90"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="90">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="115"/>
-      <c r="K10" s="116" t="e">
+      <c r="J10" s="111"/>
+      <c r="K10" s="112" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="117">
+      <c r="L10" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="118">
+      <c r="M10" s="114">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="119" t="e">
+      <c r="N10" s="115" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="108"/>
-      <c r="P10" s="108"/>
-      <c r="Q10" s="108"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="96"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="98" t="s">
+      <c r="A11" s="92"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="99">
+      <c r="D11" s="95">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="99">
+      <c r="E11" s="95">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="100">
+      <c r="F11" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="99">
+      <c r="G11" s="95">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="99">
+      <c r="H11" s="95">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="100">
+      <c r="I11" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="99">
+      <c r="J11" s="95">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="120" t="e">
+      <c r="K11" s="116" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="100">
+      <c r="L11" s="96">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="100">
+      <c r="M11" s="96">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="121" t="e">
+      <c r="N11" s="117" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="108"/>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="108"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5183,12 +5201,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q756"/>
+  <dimension ref="A1:Q755"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A422" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P429" sqref="P429:Q433"/>
+      <selection pane="bottomLeft" activeCell="O437" sqref="O437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9462,7 +9480,7 @@
       <c r="N95" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O95" s="122" t="s">
+      <c r="O95" s="118" t="s">
         <v>270</v>
       </c>
       <c r="P95" s="15" t="s">
@@ -23837,13 +23855,13 @@
       <c r="F399" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G399" s="64" t="s">
+      <c r="G399" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="H399" s="64">
+      <c r="H399" s="42">
         <v>76138797</v>
       </c>
-      <c r="I399" s="64" t="s">
+      <c r="I399" s="42" t="s">
         <v>879</v>
       </c>
       <c r="J399" s="15" t="s">
@@ -23890,13 +23908,13 @@
       <c r="F400" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G400" s="64" t="s">
+      <c r="G400" s="42" t="s">
         <v>880</v>
       </c>
-      <c r="H400" s="64">
+      <c r="H400" s="42">
         <v>76139330</v>
       </c>
-      <c r="I400" s="64" t="s">
+      <c r="I400" s="42" t="s">
         <v>881</v>
       </c>
       <c r="J400" s="15" t="s">
@@ -23943,13 +23961,13 @@
       <c r="F401" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G401" s="64" t="s">
+      <c r="G401" s="42" t="s">
         <v>882</v>
       </c>
-      <c r="H401" s="64">
+      <c r="H401" s="42">
         <v>76150601</v>
       </c>
-      <c r="I401" s="64" t="s">
+      <c r="I401" s="42" t="s">
         <v>883</v>
       </c>
       <c r="J401" s="15" t="s">
@@ -23996,13 +24014,13 @@
       <c r="F402" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G402" s="64" t="s">
+      <c r="G402" s="42" t="s">
         <v>300</v>
       </c>
-      <c r="H402" s="65">
+      <c r="H402" s="16">
         <v>76150792</v>
       </c>
-      <c r="I402" s="64" t="s">
+      <c r="I402" s="42" t="s">
         <v>884</v>
       </c>
       <c r="J402" s="15" t="s">
@@ -24049,13 +24067,13 @@
       <c r="F403" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G403" s="64" t="s">
+      <c r="G403" s="42" t="s">
         <v>885</v>
       </c>
-      <c r="H403" s="65">
+      <c r="H403" s="16">
         <v>76150808</v>
       </c>
-      <c r="I403" s="64" t="s">
+      <c r="I403" s="42" t="s">
         <v>886</v>
       </c>
       <c r="J403" s="15" t="s">
@@ -24102,13 +24120,13 @@
       <c r="F404" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G404" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="H404" s="65">
+      <c r="G404" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H404" s="16">
         <v>76152076</v>
       </c>
-      <c r="I404" s="64" t="s">
+      <c r="I404" s="42" t="s">
         <v>887</v>
       </c>
       <c r="J404" s="15" t="s">
@@ -24155,13 +24173,13 @@
       <c r="F405" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G405" s="66" t="s">
+      <c r="G405" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="H405" s="66">
+      <c r="H405" s="16">
         <v>76152685</v>
       </c>
-      <c r="I405" s="64" t="s">
+      <c r="I405" s="42" t="s">
         <v>888</v>
       </c>
       <c r="J405" s="15" t="s">
@@ -24208,13 +24226,13 @@
       <c r="F406" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G406" s="64" t="s">
+      <c r="G406" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="H406" s="65">
+      <c r="H406" s="16">
         <v>76152955</v>
       </c>
-      <c r="I406" s="64" t="s">
+      <c r="I406" s="42" t="s">
         <v>889</v>
       </c>
       <c r="J406" s="15" t="s">
@@ -24261,13 +24279,13 @@
       <c r="F407" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G407" s="64" t="s">
+      <c r="G407" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="H407" s="65">
+      <c r="H407" s="16">
         <v>76153352</v>
       </c>
-      <c r="I407" s="64" t="s">
+      <c r="I407" s="42" t="s">
         <v>890</v>
       </c>
       <c r="J407" s="15" t="s">
@@ -24314,13 +24332,13 @@
       <c r="F408" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G408" s="64" t="s">
+      <c r="G408" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="H408" s="65">
+      <c r="H408" s="16">
         <v>76153370</v>
       </c>
-      <c r="I408" s="64" t="s">
+      <c r="I408" s="42" t="s">
         <v>891</v>
       </c>
       <c r="J408" s="15" t="s">
@@ -24367,13 +24385,13 @@
       <c r="F409" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G409" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="H409" s="65">
+      <c r="G409" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H409" s="16">
         <v>76153392</v>
       </c>
-      <c r="I409" s="64" t="s">
+      <c r="I409" s="42" t="s">
         <v>892</v>
       </c>
       <c r="J409" s="15" t="s">
@@ -24420,13 +24438,13 @@
       <c r="F410" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G410" s="64" t="s">
+      <c r="G410" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="H410" s="65">
+      <c r="H410" s="16">
         <v>76153556</v>
       </c>
-      <c r="I410" s="64" t="s">
+      <c r="I410" s="42" t="s">
         <v>893</v>
       </c>
       <c r="J410" s="15" t="s">
@@ -24473,13 +24491,13 @@
       <c r="F411" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G411" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="H411" s="65">
+      <c r="G411" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H411" s="16">
         <v>76153669</v>
       </c>
-      <c r="I411" s="64" t="s">
+      <c r="I411" s="42" t="s">
         <v>894</v>
       </c>
       <c r="J411" s="15" t="s">
@@ -24526,13 +24544,13 @@
       <c r="F412" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G412" s="64" t="s">
+      <c r="G412" s="42" t="s">
         <v>895</v>
       </c>
-      <c r="H412" s="66">
+      <c r="H412" s="16">
         <v>76153935</v>
       </c>
-      <c r="I412" s="64" t="s">
+      <c r="I412" s="42" t="s">
         <v>896</v>
       </c>
       <c r="J412" s="15" t="s">
@@ -24579,13 +24597,13 @@
       <c r="F413" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G413" s="64" t="s">
+      <c r="G413" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="H413" s="66">
+      <c r="H413" s="16">
         <v>76153993</v>
       </c>
-      <c r="I413" s="64" t="s">
+      <c r="I413" s="42" t="s">
         <v>897</v>
       </c>
       <c r="J413" s="15" t="s">
@@ -24632,13 +24650,13 @@
       <c r="F414" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G414" s="64" t="s">
+      <c r="G414" s="42" t="s">
         <v>898</v>
       </c>
-      <c r="H414" s="66">
+      <c r="H414" s="16">
         <v>76153995</v>
       </c>
-      <c r="I414" s="64" t="s">
+      <c r="I414" s="42" t="s">
         <v>899</v>
       </c>
       <c r="J414" s="15" t="s">
@@ -24685,13 +24703,13 @@
       <c r="F415" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G415" s="64" t="s">
+      <c r="G415" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="H415" s="67">
+      <c r="H415" s="16">
         <v>76155655</v>
       </c>
-      <c r="I415" s="64" t="s">
+      <c r="I415" s="42" t="s">
         <v>900</v>
       </c>
       <c r="J415" s="15" t="s">
@@ -24738,13 +24756,13 @@
       <c r="F416" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G416" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="H416" s="67">
+      <c r="G416" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H416" s="16">
         <v>76155658</v>
       </c>
-      <c r="I416" s="64" t="s">
+      <c r="I416" s="42" t="s">
         <v>901</v>
       </c>
       <c r="J416" s="15" t="s">
@@ -24791,13 +24809,13 @@
       <c r="F417" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G417" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="H417" s="67">
+      <c r="G417" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H417" s="16">
         <v>76155817</v>
       </c>
-      <c r="I417" s="64" t="s">
+      <c r="I417" s="42" t="s">
         <v>902</v>
       </c>
       <c r="J417" s="15" t="s">
@@ -24844,13 +24862,13 @@
       <c r="F418" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G418" s="64" t="s">
+      <c r="G418" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="H418" s="67">
+      <c r="H418" s="16">
         <v>76155987</v>
       </c>
-      <c r="I418" s="64" t="s">
+      <c r="I418" s="42" t="s">
         <v>903</v>
       </c>
       <c r="J418" s="15" t="s">
@@ -24897,13 +24915,13 @@
       <c r="F419" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G419" s="64" t="s">
+      <c r="G419" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="H419" s="67">
+      <c r="H419" s="16">
         <v>76156005</v>
       </c>
-      <c r="I419" s="64" t="s">
+      <c r="I419" s="42" t="s">
         <v>904</v>
       </c>
       <c r="J419" s="15" t="s">
@@ -24950,13 +24968,13 @@
       <c r="F420" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G420" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="H420" s="67">
+      <c r="G420" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H420" s="16">
         <v>76156666</v>
       </c>
-      <c r="I420" s="67" t="s">
+      <c r="I420" s="16" t="s">
         <v>905</v>
       </c>
       <c r="J420" s="15" t="s">
@@ -25003,13 +25021,13 @@
       <c r="F421" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G421" s="67" t="s">
+      <c r="G421" s="16" t="s">
         <v>885</v>
       </c>
-      <c r="H421" s="67">
+      <c r="H421" s="16">
         <v>76156772</v>
       </c>
-      <c r="I421" s="67" t="s">
+      <c r="I421" s="16" t="s">
         <v>906</v>
       </c>
       <c r="J421" s="15" t="s">
@@ -25056,13 +25074,13 @@
       <c r="F422" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G422" s="66" t="s">
+      <c r="G422" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="H422" s="64">
+      <c r="H422" s="42">
         <v>76150682</v>
       </c>
-      <c r="I422" s="65" t="s">
+      <c r="I422" s="16" t="s">
         <v>907</v>
       </c>
       <c r="J422" s="15" t="s">
@@ -25074,13 +25092,13 @@
       <c r="L422" s="15">
         <v>17721436606</v>
       </c>
-      <c r="M422" s="66" t="s">
+      <c r="M422" s="16" t="s">
         <v>908</v>
       </c>
       <c r="N422" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O422" s="66" t="s">
+      <c r="O422" s="16" t="s">
         <v>909</v>
       </c>
       <c r="P422" s="15" t="s">
@@ -25109,13 +25127,13 @@
       <c r="F423" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G423" s="66" t="s">
+      <c r="G423" s="16" t="s">
         <v>565</v>
       </c>
-      <c r="H423" s="64">
+      <c r="H423" s="42">
         <v>76150685</v>
       </c>
-      <c r="I423" s="65" t="s">
+      <c r="I423" s="16" t="s">
         <v>910</v>
       </c>
       <c r="J423" s="15" t="s">
@@ -25127,13 +25145,13 @@
       <c r="L423" s="15">
         <v>17721436606</v>
       </c>
-      <c r="M423" s="66" t="s">
+      <c r="M423" s="16" t="s">
         <v>911</v>
       </c>
       <c r="N423" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O423" s="66">
+      <c r="O423" s="16">
         <v>18805505885</v>
       </c>
       <c r="P423" s="15" t="s">
@@ -25162,13 +25180,13 @@
       <c r="F424" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G424" s="66" t="s">
+      <c r="G424" s="16" t="s">
         <v>444</v>
       </c>
-      <c r="H424" s="64">
+      <c r="H424" s="42">
         <v>76152397</v>
       </c>
-      <c r="I424" s="65" t="s">
+      <c r="I424" s="16" t="s">
         <v>912</v>
       </c>
       <c r="J424" s="15" t="s">
@@ -25180,13 +25198,13 @@
       <c r="L424" s="15">
         <v>17721436606</v>
       </c>
-      <c r="M424" s="66" t="s">
+      <c r="M424" s="16" t="s">
         <v>446</v>
       </c>
       <c r="N424" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O424" s="66">
+      <c r="O424" s="16">
         <v>18685008922</v>
       </c>
       <c r="P424" s="15" t="s">
@@ -25215,13 +25233,13 @@
       <c r="F425" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G425" s="66" t="s">
+      <c r="G425" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="H425" s="64">
+      <c r="H425" s="42">
         <v>76152500</v>
       </c>
-      <c r="I425" s="65" t="s">
+      <c r="I425" s="16" t="s">
         <v>913</v>
       </c>
       <c r="J425" s="15" t="s">
@@ -25233,13 +25251,13 @@
       <c r="L425" s="15">
         <v>17721436606</v>
       </c>
-      <c r="M425" s="66" t="s">
+      <c r="M425" s="16" t="s">
         <v>914</v>
       </c>
       <c r="N425" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O425" s="66">
+      <c r="O425" s="16">
         <v>17717871992</v>
       </c>
       <c r="P425" s="15" t="s">
@@ -25268,13 +25286,13 @@
       <c r="F426" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G426" s="66" t="s">
+      <c r="G426" s="16" t="s">
         <v>688</v>
       </c>
-      <c r="H426" s="64">
+      <c r="H426" s="42">
         <v>76152806</v>
       </c>
-      <c r="I426" s="65" t="s">
+      <c r="I426" s="16" t="s">
         <v>915</v>
       </c>
       <c r="J426" s="15" t="s">
@@ -25286,13 +25304,13 @@
       <c r="L426" s="15">
         <v>17721436606</v>
       </c>
-      <c r="M426" s="66" t="s">
+      <c r="M426" s="16" t="s">
         <v>916</v>
       </c>
       <c r="N426" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O426" s="66">
+      <c r="O426" s="16">
         <v>13692153958</v>
       </c>
       <c r="P426" s="15" t="s">
@@ -25321,13 +25339,13 @@
       <c r="F427" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G427" s="66" t="s">
+      <c r="G427" s="16" t="s">
         <v>917</v>
       </c>
-      <c r="H427" s="64">
+      <c r="H427" s="42">
         <v>76153059</v>
       </c>
-      <c r="I427" s="65" t="s">
+      <c r="I427" s="16" t="s">
         <v>918</v>
       </c>
       <c r="J427" s="15" t="s">
@@ -25339,13 +25357,13 @@
       <c r="L427" s="15">
         <v>17721436606</v>
       </c>
-      <c r="M427" s="66" t="s">
+      <c r="M427" s="16" t="s">
         <v>919</v>
       </c>
       <c r="N427" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O427" s="66">
+      <c r="O427" s="16">
         <v>18633985618</v>
       </c>
       <c r="P427" s="15" t="s">
@@ -25374,13 +25392,13 @@
       <c r="F428" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G428" s="66" t="s">
+      <c r="G428" s="16" t="s">
         <v>920</v>
       </c>
-      <c r="H428" s="64">
+      <c r="H428" s="42">
         <v>76153060</v>
       </c>
-      <c r="I428" s="65" t="s">
+      <c r="I428" s="16" t="s">
         <v>921</v>
       </c>
       <c r="J428" s="15" t="s">
@@ -25392,13 +25410,13 @@
       <c r="L428" s="15">
         <v>17721436606</v>
       </c>
-      <c r="M428" s="66" t="s">
+      <c r="M428" s="16" t="s">
         <v>922</v>
       </c>
       <c r="N428" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O428" s="66">
+      <c r="O428" s="16">
         <v>15606953370</v>
       </c>
       <c r="P428" s="15" t="s">
@@ -25427,13 +25445,13 @@
       <c r="F429" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G429" s="66" t="s">
+      <c r="G429" s="16" t="s">
         <v>923</v>
       </c>
-      <c r="H429" s="64">
+      <c r="H429" s="42">
         <v>76155092</v>
       </c>
-      <c r="I429" s="65" t="s">
+      <c r="I429" s="16" t="s">
         <v>924</v>
       </c>
       <c r="J429" s="15" t="s">
@@ -25445,13 +25463,13 @@
       <c r="L429" s="15">
         <v>17721436606</v>
       </c>
-      <c r="M429" s="66" t="s">
+      <c r="M429" s="16" t="s">
         <v>925</v>
       </c>
       <c r="N429" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O429" s="66">
+      <c r="O429" s="16">
         <v>18063682056</v>
       </c>
       <c r="P429" s="15" t="s">
@@ -25480,13 +25498,13 @@
       <c r="F430" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G430" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="H430" s="64">
+      <c r="G430" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H430" s="42">
         <v>76155715</v>
       </c>
-      <c r="I430" s="65" t="s">
+      <c r="I430" s="16" t="s">
         <v>926</v>
       </c>
       <c r="J430" s="15" t="s">
@@ -25498,13 +25516,13 @@
       <c r="L430" s="15">
         <v>17721436606</v>
       </c>
-      <c r="M430" s="66" t="s">
+      <c r="M430" s="16" t="s">
         <v>927</v>
       </c>
       <c r="N430" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O430" s="66">
+      <c r="O430" s="16">
         <v>13818578522</v>
       </c>
       <c r="P430" s="15" t="s">
@@ -25533,13 +25551,13 @@
       <c r="F431" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G431" s="66" t="s">
+      <c r="G431" s="16" t="s">
         <v>928</v>
       </c>
-      <c r="H431" s="64">
+      <c r="H431" s="42">
         <v>76155717</v>
       </c>
-      <c r="I431" s="65" t="s">
+      <c r="I431" s="16" t="s">
         <v>929</v>
       </c>
       <c r="J431" s="15" t="s">
@@ -25551,13 +25569,13 @@
       <c r="L431" s="15">
         <v>17721436606</v>
       </c>
-      <c r="M431" s="66" t="s">
+      <c r="M431" s="16" t="s">
         <v>930</v>
       </c>
       <c r="N431" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O431" s="66">
+      <c r="O431" s="16">
         <v>13542721881</v>
       </c>
       <c r="P431" s="15" t="s">
@@ -25586,13 +25604,13 @@
       <c r="F432" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G432" s="66" t="s">
+      <c r="G432" s="16" t="s">
         <v>931</v>
       </c>
-      <c r="H432" s="64">
+      <c r="H432" s="42">
         <v>76156660</v>
       </c>
-      <c r="I432" s="65" t="s">
+      <c r="I432" s="16" t="s">
         <v>932</v>
       </c>
       <c r="J432" s="15" t="s">
@@ -25604,13 +25622,13 @@
       <c r="L432" s="15">
         <v>17721436606</v>
       </c>
-      <c r="M432" s="66" t="s">
+      <c r="M432" s="16" t="s">
         <v>933</v>
       </c>
       <c r="N432" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O432" s="66">
+      <c r="O432" s="16">
         <v>18608530101</v>
       </c>
       <c r="P432" s="15" t="s">
@@ -25639,13 +25657,13 @@
       <c r="F433" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G433" s="66" t="s">
+      <c r="G433" s="16" t="s">
         <v>934</v>
       </c>
-      <c r="H433" s="64">
+      <c r="H433" s="42">
         <v>76156662</v>
       </c>
-      <c r="I433" s="65" t="s">
+      <c r="I433" s="16" t="s">
         <v>935</v>
       </c>
       <c r="J433" s="15" t="s">
@@ -25657,13 +25675,13 @@
       <c r="L433" s="15">
         <v>17721436606</v>
       </c>
-      <c r="M433" s="66" t="s">
+      <c r="M433" s="16" t="s">
         <v>936</v>
       </c>
       <c r="N433" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O433" s="66">
+      <c r="O433" s="16">
         <v>13373465132</v>
       </c>
       <c r="P433" s="15" t="s">
@@ -25674,1209 +25692,1384 @@
       </c>
     </row>
     <row r="434" spans="1:16">
-      <c r="A434" s="22"/>
-      <c r="B434" s="21"/>
-      <c r="P434" s="8"/>
+      <c r="A434" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B434" s="19">
+        <v>15</v>
+      </c>
+      <c r="C434" s="18">
+        <v>43200</v>
+      </c>
+      <c r="D434" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E434" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="F434" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="G434" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="H434" s="8">
+        <v>76138139</v>
+      </c>
+      <c r="I434" s="8" t="s">
+        <v>937</v>
+      </c>
+      <c r="J434" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K434" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L434" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M434" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="N434" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O434" s="8">
+        <v>13701844181</v>
+      </c>
+      <c r="P434" s="15" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="435" spans="1:16">
-      <c r="A435" s="68"/>
-      <c r="B435" s="21"/>
-      <c r="P435" s="8"/>
+      <c r="A435" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B435" s="19">
+        <v>15</v>
+      </c>
+      <c r="C435" s="18">
+        <v>43200</v>
+      </c>
+      <c r="D435" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E435" s="8" t="s">
+        <v>938</v>
+      </c>
+      <c r="F435" s="8" t="s">
+        <v>938</v>
+      </c>
+      <c r="G435" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H435" s="8">
+        <v>76135027</v>
+      </c>
+      <c r="I435" s="8" t="s">
+        <v>939</v>
+      </c>
+      <c r="J435" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K435" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L435" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M435" s="8" t="s">
+        <v>940</v>
+      </c>
+      <c r="N435" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O435" s="8">
+        <v>18621366172</v>
+      </c>
+      <c r="P435" s="15" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="436" spans="1:16">
-      <c r="A436" s="22"/>
-      <c r="B436" s="21"/>
-      <c r="P436" s="8"/>
+      <c r="A436" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B436" s="19">
+        <v>15</v>
+      </c>
+      <c r="C436" s="18">
+        <v>43200</v>
+      </c>
+      <c r="D436" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E436" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="F436" s="8" t="s">
+        <v>942</v>
+      </c>
+      <c r="G436" s="8" t="s">
+        <v>943</v>
+      </c>
+      <c r="H436" s="8">
+        <v>76028101</v>
+      </c>
+      <c r="I436" s="8" t="s">
+        <v>944</v>
+      </c>
+      <c r="J436" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K436" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L436" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M436" s="8" t="s">
+        <v>945</v>
+      </c>
+      <c r="N436" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O436" s="8">
+        <v>13671742325</v>
+      </c>
+      <c r="P436" s="15" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="437" spans="1:16">
-      <c r="A437" s="68"/>
-      <c r="B437" s="21"/>
-      <c r="P437" s="8"/>
+      <c r="A437" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B437" s="19">
+        <v>15</v>
+      </c>
+      <c r="C437" s="18">
+        <v>43200</v>
+      </c>
+      <c r="D437" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E437" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="F437" s="8" t="s">
+        <v>942</v>
+      </c>
+      <c r="G437" s="8" t="s">
+        <v>943</v>
+      </c>
+      <c r="H437" s="8">
+        <v>76029338</v>
+      </c>
+      <c r="I437" s="8" t="s">
+        <v>946</v>
+      </c>
+      <c r="J437" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K437" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L437" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M437" s="8" t="s">
+        <v>945</v>
+      </c>
+      <c r="N437" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O437" s="8">
+        <v>13671742325</v>
+      </c>
+      <c r="P437" s="15" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="438" spans="1:16">
-      <c r="A438" s="22"/>
+      <c r="A438" s="64"/>
       <c r="B438" s="21"/>
       <c r="P438" s="8"/>
     </row>
     <row r="439" spans="1:16">
-      <c r="A439" s="68"/>
+      <c r="A439" s="22"/>
       <c r="B439" s="21"/>
       <c r="P439" s="8"/>
     </row>
     <row r="440" spans="1:16">
-      <c r="A440" s="22"/>
+      <c r="A440" s="64"/>
       <c r="B440" s="21"/>
       <c r="P440" s="8"/>
     </row>
     <row r="441" spans="1:16">
-      <c r="A441" s="68"/>
+      <c r="A441" s="22"/>
       <c r="B441" s="21"/>
       <c r="P441" s="8"/>
     </row>
     <row r="442" spans="1:16">
-      <c r="A442" s="22"/>
+      <c r="A442" s="64"/>
       <c r="B442" s="21"/>
       <c r="P442" s="8"/>
     </row>
     <row r="443" spans="1:16">
-      <c r="A443" s="68"/>
+      <c r="A443" s="22"/>
       <c r="B443" s="21"/>
       <c r="P443" s="8"/>
     </row>
     <row r="444" spans="1:16">
-      <c r="A444" s="22"/>
+      <c r="A444" s="64"/>
       <c r="B444" s="21"/>
       <c r="P444" s="8"/>
     </row>
     <row r="445" spans="1:16">
-      <c r="A445" s="68"/>
+      <c r="A445" s="22"/>
       <c r="B445" s="21"/>
       <c r="P445" s="8"/>
     </row>
     <row r="446" spans="1:16">
-      <c r="A446" s="22"/>
+      <c r="A446" s="64"/>
       <c r="B446" s="21"/>
       <c r="P446" s="8"/>
     </row>
     <row r="447" spans="1:16">
-      <c r="A447" s="68"/>
+      <c r="A447" s="22"/>
       <c r="B447" s="21"/>
       <c r="P447" s="8"/>
     </row>
     <row r="448" spans="1:16">
-      <c r="A448" s="22"/>
+      <c r="A448" s="64"/>
       <c r="B448" s="21"/>
       <c r="P448" s="8"/>
     </row>
     <row r="449" spans="1:16">
-      <c r="A449" s="68"/>
+      <c r="A449" s="22"/>
       <c r="B449" s="21"/>
       <c r="P449" s="8"/>
     </row>
     <row r="450" spans="1:16">
-      <c r="A450" s="22"/>
+      <c r="A450" s="64"/>
       <c r="B450" s="21"/>
       <c r="P450" s="8"/>
     </row>
     <row r="451" spans="1:16">
-      <c r="A451" s="68"/>
+      <c r="A451" s="22"/>
       <c r="B451" s="21"/>
       <c r="P451" s="8"/>
     </row>
     <row r="452" spans="1:16">
-      <c r="A452" s="22"/>
+      <c r="A452" s="64"/>
       <c r="B452" s="21"/>
       <c r="P452" s="8"/>
     </row>
     <row r="453" spans="1:16">
-      <c r="A453" s="68"/>
+      <c r="A453" s="22"/>
       <c r="B453" s="21"/>
       <c r="P453" s="8"/>
     </row>
     <row r="454" spans="1:16">
-      <c r="A454" s="22"/>
+      <c r="A454" s="64"/>
       <c r="B454" s="21"/>
       <c r="P454" s="8"/>
     </row>
     <row r="455" spans="1:16">
-      <c r="A455" s="68"/>
+      <c r="A455" s="22"/>
       <c r="B455" s="21"/>
       <c r="P455" s="8"/>
     </row>
     <row r="456" spans="1:16">
-      <c r="A456" s="22"/>
+      <c r="A456" s="64"/>
       <c r="B456" s="21"/>
       <c r="P456" s="8"/>
     </row>
     <row r="457" spans="1:16">
-      <c r="A457" s="68"/>
+      <c r="A457" s="22"/>
       <c r="B457" s="21"/>
       <c r="P457" s="8"/>
     </row>
     <row r="458" spans="1:16">
-      <c r="A458" s="22"/>
+      <c r="A458" s="64"/>
       <c r="B458" s="21"/>
       <c r="P458" s="8"/>
     </row>
     <row r="459" spans="1:16">
-      <c r="A459" s="68"/>
+      <c r="A459" s="22"/>
       <c r="B459" s="21"/>
       <c r="P459" s="8"/>
     </row>
     <row r="460" spans="1:16">
-      <c r="A460" s="22"/>
+      <c r="A460" s="64"/>
       <c r="B460" s="21"/>
       <c r="P460" s="8"/>
     </row>
     <row r="461" spans="1:16">
-      <c r="A461" s="68"/>
+      <c r="A461" s="22"/>
       <c r="B461" s="21"/>
       <c r="P461" s="8"/>
     </row>
     <row r="462" spans="1:16">
-      <c r="A462" s="22"/>
+      <c r="A462" s="64"/>
       <c r="B462" s="21"/>
       <c r="P462" s="8"/>
     </row>
     <row r="463" spans="1:16">
-      <c r="A463" s="68"/>
+      <c r="A463" s="22"/>
       <c r="B463" s="21"/>
       <c r="P463" s="8"/>
     </row>
     <row r="464" spans="1:16">
-      <c r="A464" s="22"/>
+      <c r="A464" s="64"/>
       <c r="B464" s="21"/>
       <c r="P464" s="8"/>
     </row>
     <row r="465" spans="1:16">
-      <c r="A465" s="68"/>
+      <c r="A465" s="22"/>
       <c r="B465" s="21"/>
       <c r="P465" s="8"/>
     </row>
     <row r="466" spans="1:16">
-      <c r="A466" s="22"/>
+      <c r="A466" s="64"/>
       <c r="B466" s="21"/>
       <c r="P466" s="8"/>
     </row>
     <row r="467" spans="1:16">
-      <c r="A467" s="68"/>
+      <c r="A467" s="22"/>
       <c r="B467" s="21"/>
       <c r="P467" s="8"/>
     </row>
     <row r="468" spans="1:16">
-      <c r="A468" s="22"/>
+      <c r="A468" s="64"/>
       <c r="B468" s="21"/>
       <c r="P468" s="8"/>
     </row>
     <row r="469" spans="1:16">
-      <c r="A469" s="68"/>
+      <c r="A469" s="22"/>
       <c r="B469" s="21"/>
       <c r="P469" s="8"/>
     </row>
     <row r="470" spans="1:16">
-      <c r="A470" s="22"/>
+      <c r="A470" s="64"/>
       <c r="B470" s="21"/>
       <c r="P470" s="8"/>
     </row>
     <row r="471" spans="1:16">
-      <c r="A471" s="68"/>
+      <c r="A471" s="22"/>
       <c r="B471" s="21"/>
       <c r="P471" s="8"/>
     </row>
     <row r="472" spans="1:16">
-      <c r="A472" s="22"/>
+      <c r="A472" s="64"/>
       <c r="B472" s="21"/>
       <c r="P472" s="8"/>
     </row>
     <row r="473" spans="1:16">
-      <c r="A473" s="68"/>
+      <c r="A473" s="22"/>
       <c r="B473" s="21"/>
       <c r="P473" s="8"/>
     </row>
     <row r="474" spans="1:16">
-      <c r="A474" s="22"/>
+      <c r="A474" s="64"/>
       <c r="B474" s="21"/>
       <c r="P474" s="8"/>
     </row>
     <row r="475" spans="1:16">
-      <c r="A475" s="68"/>
+      <c r="A475" s="22"/>
       <c r="B475" s="21"/>
       <c r="P475" s="8"/>
     </row>
-    <row r="476" spans="1:16">
-      <c r="A476" s="22"/>
+    <row r="476" spans="1:2">
+      <c r="A476" s="64"/>
       <c r="B476" s="21"/>
-      <c r="P476" s="8"/>
     </row>
     <row r="477" spans="1:2">
-      <c r="A477" s="68"/>
+      <c r="A477" s="22"/>
       <c r="B477" s="21"/>
     </row>
     <row r="478" spans="1:2">
-      <c r="A478" s="22"/>
+      <c r="A478" s="64"/>
       <c r="B478" s="21"/>
     </row>
     <row r="479" spans="1:2">
-      <c r="A479" s="68"/>
+      <c r="A479" s="22"/>
       <c r="B479" s="21"/>
     </row>
     <row r="480" spans="1:2">
-      <c r="A480" s="22"/>
+      <c r="A480" s="64"/>
       <c r="B480" s="21"/>
     </row>
     <row r="481" spans="1:2">
-      <c r="A481" s="68"/>
+      <c r="A481" s="22"/>
       <c r="B481" s="21"/>
     </row>
     <row r="482" spans="1:2">
-      <c r="A482" s="22"/>
+      <c r="A482" s="64"/>
       <c r="B482" s="21"/>
     </row>
     <row r="483" spans="1:2">
-      <c r="A483" s="68"/>
+      <c r="A483" s="22"/>
       <c r="B483" s="21"/>
     </row>
     <row r="484" spans="1:2">
-      <c r="A484" s="22"/>
+      <c r="A484" s="64"/>
       <c r="B484" s="21"/>
     </row>
     <row r="485" spans="1:2">
-      <c r="A485" s="68"/>
+      <c r="A485" s="22"/>
       <c r="B485" s="21"/>
     </row>
     <row r="486" spans="1:2">
-      <c r="A486" s="22"/>
+      <c r="A486" s="64"/>
       <c r="B486" s="21"/>
     </row>
     <row r="487" spans="1:2">
-      <c r="A487" s="68"/>
+      <c r="A487" s="22"/>
       <c r="B487" s="21"/>
     </row>
     <row r="488" spans="1:2">
-      <c r="A488" s="22"/>
+      <c r="A488" s="64"/>
       <c r="B488" s="21"/>
     </row>
     <row r="489" spans="1:2">
-      <c r="A489" s="68"/>
+      <c r="A489" s="22"/>
       <c r="B489" s="21"/>
     </row>
     <row r="490" spans="1:2">
-      <c r="A490" s="22"/>
+      <c r="A490" s="64"/>
       <c r="B490" s="21"/>
     </row>
     <row r="491" spans="1:2">
-      <c r="A491" s="68"/>
+      <c r="A491" s="22"/>
       <c r="B491" s="21"/>
     </row>
     <row r="492" spans="1:2">
-      <c r="A492" s="22"/>
+      <c r="A492" s="64"/>
       <c r="B492" s="21"/>
     </row>
     <row r="493" spans="1:2">
-      <c r="A493" s="68"/>
+      <c r="A493" s="22"/>
       <c r="B493" s="21"/>
     </row>
     <row r="494" spans="1:2">
-      <c r="A494" s="22"/>
+      <c r="A494" s="64"/>
       <c r="B494" s="21"/>
     </row>
     <row r="495" spans="1:2">
-      <c r="A495" s="68"/>
+      <c r="A495" s="22"/>
       <c r="B495" s="21"/>
     </row>
     <row r="496" spans="1:2">
-      <c r="A496" s="22"/>
+      <c r="A496" s="64"/>
       <c r="B496" s="21"/>
     </row>
     <row r="497" spans="1:2">
-      <c r="A497" s="68"/>
+      <c r="A497" s="22"/>
       <c r="B497" s="21"/>
     </row>
     <row r="498" spans="1:2">
-      <c r="A498" s="22"/>
+      <c r="A498" s="64"/>
       <c r="B498" s="21"/>
     </row>
     <row r="499" spans="1:2">
-      <c r="A499" s="68"/>
+      <c r="A499" s="22"/>
       <c r="B499" s="21"/>
     </row>
     <row r="500" spans="1:2">
-      <c r="A500" s="22"/>
+      <c r="A500" s="64"/>
       <c r="B500" s="21"/>
     </row>
     <row r="501" spans="1:2">
-      <c r="A501" s="68"/>
+      <c r="A501" s="22"/>
       <c r="B501" s="21"/>
     </row>
     <row r="502" spans="1:2">
-      <c r="A502" s="22"/>
+      <c r="A502" s="64"/>
       <c r="B502" s="21"/>
     </row>
     <row r="503" spans="1:2">
-      <c r="A503" s="68"/>
+      <c r="A503" s="22"/>
       <c r="B503" s="21"/>
     </row>
     <row r="504" spans="1:2">
-      <c r="A504" s="22"/>
+      <c r="A504" s="64"/>
       <c r="B504" s="21"/>
     </row>
     <row r="505" spans="1:2">
-      <c r="A505" s="68"/>
+      <c r="A505" s="22"/>
       <c r="B505" s="21"/>
     </row>
     <row r="506" spans="1:2">
-      <c r="A506" s="22"/>
+      <c r="A506" s="64"/>
       <c r="B506" s="21"/>
     </row>
     <row r="507" spans="1:2">
-      <c r="A507" s="68"/>
+      <c r="A507" s="22"/>
       <c r="B507" s="21"/>
     </row>
     <row r="508" spans="1:2">
-      <c r="A508" s="22"/>
+      <c r="A508" s="64"/>
       <c r="B508" s="21"/>
     </row>
     <row r="509" spans="1:2">
-      <c r="A509" s="68"/>
+      <c r="A509" s="22"/>
       <c r="B509" s="21"/>
     </row>
     <row r="510" spans="1:2">
-      <c r="A510" s="22"/>
+      <c r="A510" s="64"/>
       <c r="B510" s="21"/>
     </row>
     <row r="511" spans="1:2">
-      <c r="A511" s="68"/>
+      <c r="A511" s="22"/>
       <c r="B511" s="21"/>
     </row>
     <row r="512" spans="1:2">
-      <c r="A512" s="22"/>
+      <c r="A512" s="64"/>
       <c r="B512" s="21"/>
     </row>
     <row r="513" spans="1:2">
-      <c r="A513" s="68"/>
+      <c r="A513" s="22"/>
       <c r="B513" s="21"/>
     </row>
     <row r="514" spans="1:2">
-      <c r="A514" s="22"/>
+      <c r="A514" s="64"/>
       <c r="B514" s="21"/>
     </row>
     <row r="515" spans="1:2">
-      <c r="A515" s="68"/>
+      <c r="A515" s="22"/>
       <c r="B515" s="21"/>
     </row>
     <row r="516" spans="1:2">
-      <c r="A516" s="22"/>
+      <c r="A516" s="64"/>
       <c r="B516" s="21"/>
     </row>
     <row r="517" spans="1:2">
-      <c r="A517" s="68"/>
+      <c r="A517" s="22"/>
       <c r="B517" s="21"/>
     </row>
     <row r="518" spans="1:2">
-      <c r="A518" s="22"/>
+      <c r="A518" s="64"/>
       <c r="B518" s="21"/>
     </row>
     <row r="519" spans="1:2">
-      <c r="A519" s="68"/>
+      <c r="A519" s="22"/>
       <c r="B519" s="21"/>
     </row>
     <row r="520" spans="1:2">
-      <c r="A520" s="22"/>
+      <c r="A520" s="64"/>
       <c r="B520" s="21"/>
     </row>
     <row r="521" spans="1:2">
-      <c r="A521" s="68"/>
+      <c r="A521" s="22"/>
       <c r="B521" s="21"/>
     </row>
     <row r="522" spans="1:2">
-      <c r="A522" s="22"/>
+      <c r="A522" s="64"/>
       <c r="B522" s="21"/>
     </row>
     <row r="523" spans="1:2">
-      <c r="A523" s="68"/>
+      <c r="A523" s="22"/>
       <c r="B523" s="21"/>
     </row>
     <row r="524" spans="1:2">
-      <c r="A524" s="22"/>
+      <c r="A524" s="64"/>
       <c r="B524" s="21"/>
     </row>
     <row r="525" spans="1:2">
-      <c r="A525" s="68"/>
+      <c r="A525" s="22"/>
       <c r="B525" s="21"/>
     </row>
     <row r="526" spans="1:2">
-      <c r="A526" s="22"/>
+      <c r="A526" s="64"/>
       <c r="B526" s="21"/>
     </row>
     <row r="527" spans="1:2">
-      <c r="A527" s="68"/>
+      <c r="A527" s="22"/>
       <c r="B527" s="21"/>
     </row>
     <row r="528" spans="1:2">
-      <c r="A528" s="22"/>
+      <c r="A528" s="64"/>
       <c r="B528" s="21"/>
     </row>
     <row r="529" spans="1:2">
-      <c r="A529" s="68"/>
+      <c r="A529" s="22"/>
       <c r="B529" s="21"/>
     </row>
     <row r="530" spans="1:2">
-      <c r="A530" s="22"/>
+      <c r="A530" s="64"/>
       <c r="B530" s="21"/>
     </row>
     <row r="531" spans="1:2">
-      <c r="A531" s="68"/>
+      <c r="A531" s="22"/>
       <c r="B531" s="21"/>
     </row>
     <row r="532" spans="1:2">
-      <c r="A532" s="22"/>
+      <c r="A532" s="64"/>
       <c r="B532" s="21"/>
     </row>
     <row r="533" spans="1:2">
-      <c r="A533" s="68"/>
+      <c r="A533" s="22"/>
       <c r="B533" s="21"/>
     </row>
     <row r="534" spans="1:2">
-      <c r="A534" s="22"/>
+      <c r="A534" s="64"/>
       <c r="B534" s="21"/>
     </row>
     <row r="535" spans="1:2">
-      <c r="A535" s="68"/>
+      <c r="A535" s="22"/>
       <c r="B535" s="21"/>
     </row>
     <row r="536" spans="1:2">
-      <c r="A536" s="22"/>
+      <c r="A536" s="64"/>
       <c r="B536" s="21"/>
     </row>
     <row r="537" spans="1:2">
-      <c r="A537" s="68"/>
+      <c r="A537" s="22"/>
       <c r="B537" s="21"/>
     </row>
     <row r="538" spans="1:2">
-      <c r="A538" s="22"/>
+      <c r="A538" s="64"/>
       <c r="B538" s="21"/>
     </row>
     <row r="539" spans="1:2">
-      <c r="A539" s="68"/>
+      <c r="A539" s="22"/>
       <c r="B539" s="21"/>
     </row>
     <row r="540" spans="1:2">
-      <c r="A540" s="22"/>
+      <c r="A540" s="64"/>
       <c r="B540" s="21"/>
     </row>
     <row r="541" spans="1:2">
-      <c r="A541" s="68"/>
+      <c r="A541" s="22"/>
       <c r="B541" s="21"/>
     </row>
     <row r="542" spans="1:2">
-      <c r="A542" s="22"/>
+      <c r="A542" s="64"/>
       <c r="B542" s="21"/>
     </row>
     <row r="543" spans="1:2">
-      <c r="A543" s="68"/>
+      <c r="A543" s="22"/>
       <c r="B543" s="21"/>
     </row>
     <row r="544" spans="1:2">
-      <c r="A544" s="22"/>
+      <c r="A544" s="64"/>
       <c r="B544" s="21"/>
     </row>
     <row r="545" spans="1:2">
-      <c r="A545" s="68"/>
+      <c r="A545" s="22"/>
       <c r="B545" s="21"/>
     </row>
     <row r="546" spans="1:2">
-      <c r="A546" s="22"/>
+      <c r="A546" s="64"/>
       <c r="B546" s="21"/>
     </row>
     <row r="547" spans="1:2">
-      <c r="A547" s="68"/>
+      <c r="A547" s="22"/>
       <c r="B547" s="21"/>
     </row>
     <row r="548" spans="1:2">
-      <c r="A548" s="22"/>
+      <c r="A548" s="64"/>
       <c r="B548" s="21"/>
     </row>
     <row r="549" spans="1:2">
-      <c r="A549" s="68"/>
+      <c r="A549" s="22"/>
       <c r="B549" s="21"/>
     </row>
     <row r="550" spans="1:2">
-      <c r="A550" s="22"/>
+      <c r="A550" s="64"/>
       <c r="B550" s="21"/>
     </row>
     <row r="551" spans="1:2">
-      <c r="A551" s="68"/>
+      <c r="A551" s="22"/>
       <c r="B551" s="21"/>
     </row>
     <row r="552" spans="1:2">
-      <c r="A552" s="22"/>
+      <c r="A552" s="64"/>
       <c r="B552" s="21"/>
     </row>
     <row r="553" spans="1:2">
-      <c r="A553" s="68"/>
+      <c r="A553" s="22"/>
       <c r="B553" s="21"/>
     </row>
     <row r="554" spans="1:2">
-      <c r="A554" s="22"/>
+      <c r="A554" s="64"/>
       <c r="B554" s="21"/>
     </row>
     <row r="555" spans="1:2">
-      <c r="A555" s="68"/>
+      <c r="A555" s="22"/>
       <c r="B555" s="21"/>
     </row>
     <row r="556" spans="1:2">
-      <c r="A556" s="22"/>
+      <c r="A556" s="64"/>
       <c r="B556" s="21"/>
     </row>
     <row r="557" spans="1:2">
-      <c r="A557" s="68"/>
+      <c r="A557" s="22"/>
       <c r="B557" s="21"/>
     </row>
     <row r="558" spans="1:2">
-      <c r="A558" s="22"/>
+      <c r="A558" s="64"/>
       <c r="B558" s="21"/>
     </row>
     <row r="559" spans="1:2">
-      <c r="A559" s="68"/>
+      <c r="A559" s="22"/>
       <c r="B559" s="21"/>
     </row>
     <row r="560" spans="1:2">
-      <c r="A560" s="22"/>
+      <c r="A560" s="64"/>
       <c r="B560" s="21"/>
     </row>
     <row r="561" spans="1:2">
-      <c r="A561" s="68"/>
+      <c r="A561" s="22"/>
       <c r="B561" s="21"/>
     </row>
     <row r="562" spans="1:2">
-      <c r="A562" s="22"/>
+      <c r="A562" s="64"/>
       <c r="B562" s="21"/>
     </row>
     <row r="563" spans="1:2">
-      <c r="A563" s="68"/>
+      <c r="A563" s="22"/>
       <c r="B563" s="21"/>
     </row>
     <row r="564" spans="1:2">
-      <c r="A564" s="22"/>
+      <c r="A564" s="64"/>
       <c r="B564" s="21"/>
     </row>
     <row r="565" spans="1:2">
-      <c r="A565" s="68"/>
+      <c r="A565" s="22"/>
       <c r="B565" s="21"/>
     </row>
     <row r="566" spans="1:2">
-      <c r="A566" s="22"/>
+      <c r="A566" s="64"/>
       <c r="B566" s="21"/>
     </row>
     <row r="567" spans="1:2">
-      <c r="A567" s="68"/>
+      <c r="A567" s="22"/>
       <c r="B567" s="21"/>
     </row>
     <row r="568" spans="1:2">
-      <c r="A568" s="22"/>
+      <c r="A568" s="64"/>
       <c r="B568" s="21"/>
     </row>
     <row r="569" spans="1:2">
-      <c r="A569" s="68"/>
+      <c r="A569" s="22"/>
       <c r="B569" s="21"/>
     </row>
     <row r="570" spans="1:2">
-      <c r="A570" s="22"/>
+      <c r="A570" s="64"/>
       <c r="B570" s="21"/>
     </row>
     <row r="571" spans="1:2">
-      <c r="A571" s="68"/>
+      <c r="A571" s="22"/>
       <c r="B571" s="21"/>
     </row>
     <row r="572" spans="1:2">
-      <c r="A572" s="22"/>
+      <c r="A572" s="64"/>
       <c r="B572" s="21"/>
     </row>
     <row r="573" spans="1:2">
-      <c r="A573" s="68"/>
+      <c r="A573" s="22"/>
       <c r="B573" s="21"/>
     </row>
     <row r="574" spans="1:2">
-      <c r="A574" s="22"/>
+      <c r="A574" s="64"/>
       <c r="B574" s="21"/>
     </row>
     <row r="575" spans="1:2">
-      <c r="A575" s="68"/>
+      <c r="A575" s="22"/>
       <c r="B575" s="21"/>
     </row>
     <row r="576" spans="1:2">
-      <c r="A576" s="22"/>
+      <c r="A576" s="64"/>
       <c r="B576" s="21"/>
     </row>
     <row r="577" spans="1:2">
-      <c r="A577" s="68"/>
+      <c r="A577" s="22"/>
       <c r="B577" s="21"/>
     </row>
     <row r="578" spans="1:2">
-      <c r="A578" s="22"/>
+      <c r="A578" s="64"/>
       <c r="B578" s="21"/>
     </row>
     <row r="579" spans="1:2">
-      <c r="A579" s="68"/>
+      <c r="A579" s="22"/>
       <c r="B579" s="21"/>
     </row>
     <row r="580" spans="1:2">
-      <c r="A580" s="22"/>
+      <c r="A580" s="64"/>
       <c r="B580" s="21"/>
     </row>
     <row r="581" spans="1:2">
-      <c r="A581" s="68"/>
+      <c r="A581" s="22"/>
       <c r="B581" s="21"/>
     </row>
     <row r="582" spans="1:2">
-      <c r="A582" s="22"/>
+      <c r="A582" s="64"/>
       <c r="B582" s="21"/>
     </row>
     <row r="583" spans="1:2">
-      <c r="A583" s="68"/>
+      <c r="A583" s="22"/>
       <c r="B583" s="21"/>
     </row>
     <row r="584" spans="1:2">
-      <c r="A584" s="22"/>
+      <c r="A584" s="64"/>
       <c r="B584" s="21"/>
     </row>
     <row r="585" spans="1:2">
-      <c r="A585" s="68"/>
+      <c r="A585" s="22"/>
       <c r="B585" s="21"/>
     </row>
     <row r="586" spans="1:2">
-      <c r="A586" s="22"/>
+      <c r="A586" s="64"/>
       <c r="B586" s="21"/>
     </row>
     <row r="587" spans="1:2">
-      <c r="A587" s="68"/>
+      <c r="A587" s="22"/>
       <c r="B587" s="21"/>
     </row>
     <row r="588" spans="1:2">
-      <c r="A588" s="22"/>
+      <c r="A588" s="64"/>
       <c r="B588" s="21"/>
     </row>
     <row r="589" spans="1:2">
-      <c r="A589" s="68"/>
+      <c r="A589" s="22"/>
       <c r="B589" s="21"/>
     </row>
     <row r="590" spans="1:2">
-      <c r="A590" s="22"/>
+      <c r="A590" s="64"/>
       <c r="B590" s="21"/>
     </row>
     <row r="591" spans="1:2">
-      <c r="A591" s="68"/>
-      <c r="B591" s="21"/>
+      <c r="A591" s="22"/>
+      <c r="B591" s="15"/>
     </row>
     <row r="592" spans="1:2">
-      <c r="A592" s="22"/>
+      <c r="A592" s="64"/>
       <c r="B592" s="15"/>
     </row>
     <row r="593" spans="1:2">
-      <c r="A593" s="68"/>
+      <c r="A593" s="22"/>
       <c r="B593" s="15"/>
     </row>
     <row r="594" spans="1:2">
-      <c r="A594" s="22"/>
+      <c r="A594" s="64"/>
       <c r="B594" s="15"/>
     </row>
     <row r="595" spans="1:2">
-      <c r="A595" s="68"/>
+      <c r="A595" s="22"/>
       <c r="B595" s="15"/>
     </row>
     <row r="596" spans="1:2">
-      <c r="A596" s="22"/>
+      <c r="A596" s="64"/>
       <c r="B596" s="15"/>
     </row>
     <row r="597" spans="1:2">
-      <c r="A597" s="68"/>
+      <c r="A597" s="22"/>
       <c r="B597" s="15"/>
     </row>
     <row r="598" spans="1:2">
-      <c r="A598" s="22"/>
+      <c r="A598" s="64"/>
       <c r="B598" s="15"/>
     </row>
     <row r="599" spans="1:2">
-      <c r="A599" s="68"/>
+      <c r="A599" s="22"/>
       <c r="B599" s="15"/>
     </row>
     <row r="600" spans="1:2">
-      <c r="A600" s="22"/>
+      <c r="A600" s="64"/>
       <c r="B600" s="15"/>
     </row>
     <row r="601" spans="1:2">
-      <c r="A601" s="68"/>
+      <c r="A601" s="22"/>
       <c r="B601" s="15"/>
     </row>
     <row r="602" spans="1:2">
-      <c r="A602" s="22"/>
+      <c r="A602" s="64"/>
       <c r="B602" s="15"/>
     </row>
     <row r="603" spans="1:2">
-      <c r="A603" s="68"/>
+      <c r="A603" s="22"/>
       <c r="B603" s="15"/>
     </row>
     <row r="604" spans="1:2">
-      <c r="A604" s="22"/>
+      <c r="A604" s="64"/>
       <c r="B604" s="15"/>
     </row>
     <row r="605" spans="1:2">
-      <c r="A605" s="68"/>
+      <c r="A605" s="22"/>
       <c r="B605" s="15"/>
     </row>
     <row r="606" spans="1:2">
-      <c r="A606" s="22"/>
+      <c r="A606" s="64"/>
       <c r="B606" s="15"/>
     </row>
     <row r="607" spans="1:2">
-      <c r="A607" s="68"/>
+      <c r="A607" s="22"/>
       <c r="B607" s="15"/>
     </row>
     <row r="608" spans="1:2">
-      <c r="A608" s="22"/>
+      <c r="A608" s="64"/>
       <c r="B608" s="15"/>
     </row>
     <row r="609" spans="1:2">
-      <c r="A609" s="68"/>
+      <c r="A609" s="22"/>
       <c r="B609" s="15"/>
     </row>
     <row r="610" spans="1:2">
-      <c r="A610" s="22"/>
+      <c r="A610" s="64"/>
       <c r="B610" s="15"/>
     </row>
     <row r="611" spans="1:2">
-      <c r="A611" s="68"/>
+      <c r="A611" s="22"/>
       <c r="B611" s="15"/>
     </row>
     <row r="612" spans="1:2">
-      <c r="A612" s="22"/>
+      <c r="A612" s="64"/>
       <c r="B612" s="15"/>
     </row>
     <row r="613" spans="1:2">
-      <c r="A613" s="68"/>
+      <c r="A613" s="22"/>
       <c r="B613" s="15"/>
     </row>
     <row r="614" spans="1:2">
-      <c r="A614" s="22"/>
+      <c r="A614" s="64"/>
       <c r="B614" s="15"/>
     </row>
     <row r="615" spans="1:2">
-      <c r="A615" s="68"/>
+      <c r="A615" s="22"/>
       <c r="B615" s="15"/>
     </row>
-    <row r="616" spans="1:2">
-      <c r="A616" s="22"/>
-      <c r="B616" s="15"/>
+    <row r="616" spans="1:1">
+      <c r="A616" s="65"/>
     </row>
     <row r="617" spans="1:1">
-      <c r="A617" s="69"/>
+      <c r="A617" s="12"/>
     </row>
     <row r="618" spans="1:1">
-      <c r="A618" s="12"/>
+      <c r="A618" s="65"/>
     </row>
     <row r="619" spans="1:1">
-      <c r="A619" s="69"/>
+      <c r="A619" s="12"/>
     </row>
     <row r="620" spans="1:1">
-      <c r="A620" s="12"/>
+      <c r="A620" s="65"/>
     </row>
     <row r="621" spans="1:1">
-      <c r="A621" s="69"/>
+      <c r="A621" s="12"/>
     </row>
     <row r="622" spans="1:1">
-      <c r="A622" s="12"/>
+      <c r="A622" s="65"/>
     </row>
     <row r="623" spans="1:1">
-      <c r="A623" s="69"/>
+      <c r="A623" s="12"/>
     </row>
     <row r="624" spans="1:1">
-      <c r="A624" s="12"/>
+      <c r="A624" s="65"/>
     </row>
     <row r="625" spans="1:1">
-      <c r="A625" s="69"/>
+      <c r="A625" s="12"/>
     </row>
     <row r="626" spans="1:1">
-      <c r="A626" s="12"/>
+      <c r="A626" s="65"/>
     </row>
     <row r="627" spans="1:1">
-      <c r="A627" s="69"/>
+      <c r="A627" s="12"/>
     </row>
     <row r="628" spans="1:1">
-      <c r="A628" s="12"/>
+      <c r="A628" s="65"/>
     </row>
     <row r="629" spans="1:1">
-      <c r="A629" s="69"/>
+      <c r="A629" s="12"/>
     </row>
     <row r="630" spans="1:1">
-      <c r="A630" s="12"/>
+      <c r="A630" s="65"/>
     </row>
     <row r="631" spans="1:1">
-      <c r="A631" s="69"/>
+      <c r="A631" s="12"/>
     </row>
     <row r="632" spans="1:1">
-      <c r="A632" s="12"/>
+      <c r="A632" s="65"/>
     </row>
     <row r="633" spans="1:1">
-      <c r="A633" s="69"/>
+      <c r="A633" s="12"/>
     </row>
     <row r="634" spans="1:1">
-      <c r="A634" s="12"/>
+      <c r="A634" s="65"/>
     </row>
     <row r="635" spans="1:1">
-      <c r="A635" s="69"/>
+      <c r="A635" s="12"/>
     </row>
     <row r="636" spans="1:1">
-      <c r="A636" s="12"/>
+      <c r="A636" s="65"/>
     </row>
     <row r="637" spans="1:1">
-      <c r="A637" s="69"/>
+      <c r="A637" s="12"/>
     </row>
     <row r="638" spans="1:1">
-      <c r="A638" s="12"/>
+      <c r="A638" s="65"/>
     </row>
     <row r="639" spans="1:1">
-      <c r="A639" s="69"/>
+      <c r="A639" s="12"/>
     </row>
     <row r="640" spans="1:1">
-      <c r="A640" s="12"/>
+      <c r="A640" s="65"/>
     </row>
     <row r="641" spans="1:1">
-      <c r="A641" s="69"/>
+      <c r="A641" s="12"/>
     </row>
     <row r="642" spans="1:1">
-      <c r="A642" s="12"/>
+      <c r="A642" s="65"/>
     </row>
     <row r="643" spans="1:1">
-      <c r="A643" s="69"/>
+      <c r="A643" s="12"/>
     </row>
     <row r="644" spans="1:1">
-      <c r="A644" s="12"/>
+      <c r="A644" s="65"/>
     </row>
     <row r="645" spans="1:1">
-      <c r="A645" s="69"/>
+      <c r="A645" s="12"/>
     </row>
     <row r="646" spans="1:1">
-      <c r="A646" s="12"/>
+      <c r="A646" s="65"/>
     </row>
     <row r="647" spans="1:1">
-      <c r="A647" s="69"/>
+      <c r="A647" s="12"/>
     </row>
     <row r="648" spans="1:1">
-      <c r="A648" s="12"/>
+      <c r="A648" s="65"/>
     </row>
     <row r="649" spans="1:1">
-      <c r="A649" s="69"/>
+      <c r="A649" s="12"/>
     </row>
     <row r="650" spans="1:1">
-      <c r="A650" s="12"/>
+      <c r="A650" s="65"/>
     </row>
     <row r="651" spans="1:1">
-      <c r="A651" s="69"/>
+      <c r="A651" s="12"/>
     </row>
     <row r="652" spans="1:1">
-      <c r="A652" s="12"/>
+      <c r="A652" s="65"/>
     </row>
     <row r="653" spans="1:1">
-      <c r="A653" s="69"/>
+      <c r="A653" s="12"/>
     </row>
     <row r="654" spans="1:1">
-      <c r="A654" s="12"/>
+      <c r="A654" s="65"/>
     </row>
     <row r="655" spans="1:1">
-      <c r="A655" s="69"/>
+      <c r="A655" s="12"/>
     </row>
     <row r="656" spans="1:1">
-      <c r="A656" s="12"/>
+      <c r="A656" s="65"/>
     </row>
     <row r="657" spans="1:1">
-      <c r="A657" s="69"/>
+      <c r="A657" s="12"/>
     </row>
     <row r="658" spans="1:1">
-      <c r="A658" s="12"/>
+      <c r="A658" s="65"/>
     </row>
     <row r="659" spans="1:1">
-      <c r="A659" s="69"/>
+      <c r="A659" s="12"/>
     </row>
     <row r="660" spans="1:1">
-      <c r="A660" s="12"/>
+      <c r="A660" s="65"/>
     </row>
     <row r="661" spans="1:1">
-      <c r="A661" s="69"/>
+      <c r="A661" s="12"/>
     </row>
     <row r="662" spans="1:1">
-      <c r="A662" s="12"/>
+      <c r="A662" s="65"/>
     </row>
     <row r="663" spans="1:1">
-      <c r="A663" s="69"/>
+      <c r="A663" s="12"/>
     </row>
     <row r="664" spans="1:1">
-      <c r="A664" s="12"/>
+      <c r="A664" s="65"/>
     </row>
     <row r="665" spans="1:1">
-      <c r="A665" s="69"/>
+      <c r="A665" s="12"/>
     </row>
     <row r="666" spans="1:1">
-      <c r="A666" s="12"/>
+      <c r="A666" s="65"/>
     </row>
     <row r="667" spans="1:1">
-      <c r="A667" s="69"/>
+      <c r="A667" s="12"/>
     </row>
     <row r="668" spans="1:1">
-      <c r="A668" s="12"/>
+      <c r="A668" s="65"/>
     </row>
     <row r="669" spans="1:1">
-      <c r="A669" s="69"/>
+      <c r="A669" s="12"/>
     </row>
     <row r="670" spans="1:1">
-      <c r="A670" s="12"/>
+      <c r="A670" s="65"/>
     </row>
     <row r="671" spans="1:1">
-      <c r="A671" s="69"/>
+      <c r="A671" s="12"/>
     </row>
     <row r="672" spans="1:1">
-      <c r="A672" s="12"/>
+      <c r="A672" s="65"/>
     </row>
     <row r="673" spans="1:1">
-      <c r="A673" s="69"/>
+      <c r="A673" s="12"/>
     </row>
     <row r="674" spans="1:1">
-      <c r="A674" s="12"/>
+      <c r="A674" s="65"/>
     </row>
     <row r="675" spans="1:1">
-      <c r="A675" s="69"/>
+      <c r="A675" s="12"/>
     </row>
     <row r="676" spans="1:1">
-      <c r="A676" s="12"/>
+      <c r="A676" s="65"/>
     </row>
     <row r="677" spans="1:1">
-      <c r="A677" s="69"/>
+      <c r="A677" s="12"/>
     </row>
     <row r="678" spans="1:1">
-      <c r="A678" s="12"/>
+      <c r="A678" s="65"/>
     </row>
     <row r="679" spans="1:1">
-      <c r="A679" s="69"/>
+      <c r="A679" s="12"/>
     </row>
     <row r="680" spans="1:1">
-      <c r="A680" s="12"/>
+      <c r="A680" s="65"/>
     </row>
     <row r="681" spans="1:1">
-      <c r="A681" s="69"/>
+      <c r="A681" s="12"/>
     </row>
     <row r="682" spans="1:1">
-      <c r="A682" s="12"/>
+      <c r="A682" s="65"/>
     </row>
     <row r="683" spans="1:1">
-      <c r="A683" s="69"/>
+      <c r="A683" s="12"/>
     </row>
     <row r="684" spans="1:1">
-      <c r="A684" s="12"/>
+      <c r="A684" s="65"/>
     </row>
     <row r="685" spans="1:1">
-      <c r="A685" s="69"/>
+      <c r="A685" s="12"/>
     </row>
     <row r="686" spans="1:1">
-      <c r="A686" s="12"/>
+      <c r="A686" s="65"/>
     </row>
     <row r="687" spans="1:1">
-      <c r="A687" s="69"/>
+      <c r="A687" s="12"/>
     </row>
     <row r="688" spans="1:1">
-      <c r="A688" s="12"/>
+      <c r="A688" s="65"/>
     </row>
     <row r="689" spans="1:1">
-      <c r="A689" s="69"/>
+      <c r="A689" s="12"/>
     </row>
     <row r="690" spans="1:1">
-      <c r="A690" s="12"/>
+      <c r="A690" s="65"/>
     </row>
     <row r="691" spans="1:1">
-      <c r="A691" s="69"/>
+      <c r="A691" s="12"/>
     </row>
     <row r="692" spans="1:1">
-      <c r="A692" s="12"/>
+      <c r="A692" s="65"/>
     </row>
     <row r="693" spans="1:1">
-      <c r="A693" s="69"/>
+      <c r="A693" s="12"/>
     </row>
     <row r="694" spans="1:1">
-      <c r="A694" s="12"/>
+      <c r="A694" s="65"/>
     </row>
     <row r="695" spans="1:1">
-      <c r="A695" s="69"/>
+      <c r="A695" s="12"/>
     </row>
     <row r="696" spans="1:1">
-      <c r="A696" s="12"/>
+      <c r="A696" s="65"/>
     </row>
     <row r="697" spans="1:1">
-      <c r="A697" s="69"/>
+      <c r="A697" s="12"/>
     </row>
     <row r="698" spans="1:1">
-      <c r="A698" s="12"/>
+      <c r="A698" s="65"/>
     </row>
     <row r="699" spans="1:1">
-      <c r="A699" s="69"/>
+      <c r="A699" s="12"/>
     </row>
     <row r="700" spans="1:1">
-      <c r="A700" s="12"/>
+      <c r="A700" s="65"/>
     </row>
     <row r="701" spans="1:1">
-      <c r="A701" s="69"/>
+      <c r="A701" s="12"/>
     </row>
     <row r="702" spans="1:1">
-      <c r="A702" s="12"/>
+      <c r="A702" s="65"/>
     </row>
     <row r="703" spans="1:1">
-      <c r="A703" s="69"/>
+      <c r="A703" s="12"/>
     </row>
     <row r="704" spans="1:1">
-      <c r="A704" s="12"/>
+      <c r="A704" s="65"/>
     </row>
     <row r="705" spans="1:1">
-      <c r="A705" s="69"/>
+      <c r="A705" s="12"/>
     </row>
     <row r="706" spans="1:1">
-      <c r="A706" s="12"/>
+      <c r="A706" s="65"/>
     </row>
     <row r="707" spans="1:1">
-      <c r="A707" s="69"/>
+      <c r="A707" s="12"/>
     </row>
     <row r="708" spans="1:1">
-      <c r="A708" s="12"/>
+      <c r="A708" s="65"/>
     </row>
     <row r="709" spans="1:1">
-      <c r="A709" s="69"/>
+      <c r="A709" s="12"/>
     </row>
     <row r="710" spans="1:1">
-      <c r="A710" s="12"/>
+      <c r="A710" s="65"/>
     </row>
     <row r="711" spans="1:1">
-      <c r="A711" s="69"/>
+      <c r="A711" s="12"/>
     </row>
     <row r="712" spans="1:1">
-      <c r="A712" s="12"/>
+      <c r="A712" s="65"/>
     </row>
     <row r="713" spans="1:1">
-      <c r="A713" s="69"/>
+      <c r="A713" s="12"/>
     </row>
     <row r="714" spans="1:1">
-      <c r="A714" s="12"/>
+      <c r="A714" s="65"/>
     </row>
     <row r="715" spans="1:1">
-      <c r="A715" s="69"/>
+      <c r="A715" s="12"/>
     </row>
     <row r="716" spans="1:1">
-      <c r="A716" s="12"/>
+      <c r="A716" s="65"/>
     </row>
     <row r="717" spans="1:1">
-      <c r="A717" s="69"/>
+      <c r="A717" s="12"/>
     </row>
     <row r="718" spans="1:1">
-      <c r="A718" s="12"/>
+      <c r="A718" s="65"/>
     </row>
     <row r="719" spans="1:1">
-      <c r="A719" s="69"/>
+      <c r="A719" s="12"/>
     </row>
     <row r="720" spans="1:1">
-      <c r="A720" s="12"/>
+      <c r="A720" s="65"/>
     </row>
     <row r="721" spans="1:1">
-      <c r="A721" s="69"/>
+      <c r="A721" s="12"/>
     </row>
     <row r="722" spans="1:1">
-      <c r="A722" s="12"/>
+      <c r="A722" s="65"/>
     </row>
     <row r="723" spans="1:1">
-      <c r="A723" s="69"/>
+      <c r="A723" s="12"/>
     </row>
     <row r="724" spans="1:1">
-      <c r="A724" s="12"/>
+      <c r="A724" s="65"/>
     </row>
     <row r="725" spans="1:1">
-      <c r="A725" s="69"/>
+      <c r="A725" s="12"/>
     </row>
     <row r="726" spans="1:1">
-      <c r="A726" s="12"/>
+      <c r="A726" s="65"/>
     </row>
     <row r="727" spans="1:1">
-      <c r="A727" s="69"/>
+      <c r="A727" s="12"/>
     </row>
     <row r="728" spans="1:1">
-      <c r="A728" s="12"/>
+      <c r="A728" s="65"/>
     </row>
     <row r="729" spans="1:1">
-      <c r="A729" s="69"/>
+      <c r="A729" s="12"/>
     </row>
     <row r="730" spans="1:1">
-      <c r="A730" s="12"/>
+      <c r="A730" s="65"/>
     </row>
     <row r="731" spans="1:1">
-      <c r="A731" s="69"/>
+      <c r="A731" s="12"/>
     </row>
     <row r="732" spans="1:1">
-      <c r="A732" s="12"/>
+      <c r="A732" s="65"/>
     </row>
     <row r="733" spans="1:1">
-      <c r="A733" s="69"/>
+      <c r="A733" s="12"/>
     </row>
     <row r="734" spans="1:1">
-      <c r="A734" s="12"/>
+      <c r="A734" s="65"/>
     </row>
     <row r="735" spans="1:1">
-      <c r="A735" s="69"/>
+      <c r="A735" s="12"/>
     </row>
     <row r="736" spans="1:1">
-      <c r="A736" s="12"/>
+      <c r="A736" s="65"/>
     </row>
     <row r="737" spans="1:1">
-      <c r="A737" s="69"/>
+      <c r="A737" s="12"/>
     </row>
     <row r="738" spans="1:1">
-      <c r="A738" s="12"/>
+      <c r="A738" s="65"/>
     </row>
     <row r="739" spans="1:1">
-      <c r="A739" s="69"/>
+      <c r="A739" s="12"/>
     </row>
     <row r="740" spans="1:1">
-      <c r="A740" s="12"/>
+      <c r="A740" s="65"/>
     </row>
     <row r="741" spans="1:1">
-      <c r="A741" s="69"/>
+      <c r="A741" s="12"/>
     </row>
     <row r="742" spans="1:1">
-      <c r="A742" s="12"/>
+      <c r="A742" s="65"/>
     </row>
     <row r="743" spans="1:1">
-      <c r="A743" s="69"/>
+      <c r="A743" s="12"/>
     </row>
     <row r="744" spans="1:1">
-      <c r="A744" s="12"/>
+      <c r="A744" s="65"/>
     </row>
     <row r="745" spans="1:1">
-      <c r="A745" s="69"/>
+      <c r="A745" s="12"/>
     </row>
     <row r="746" spans="1:1">
-      <c r="A746" s="12"/>
+      <c r="A746" s="65"/>
     </row>
     <row r="747" spans="1:1">
-      <c r="A747" s="69"/>
+      <c r="A747" s="12"/>
     </row>
     <row r="748" spans="1:1">
-      <c r="A748" s="12"/>
+      <c r="A748" s="65"/>
     </row>
     <row r="749" spans="1:1">
-      <c r="A749" s="69"/>
+      <c r="A749" s="12"/>
     </row>
     <row r="750" spans="1:1">
-      <c r="A750" s="12"/>
+      <c r="A750" s="65"/>
     </row>
     <row r="751" spans="1:1">
-      <c r="A751" s="69"/>
+      <c r="A751" s="12"/>
     </row>
     <row r="752" spans="1:1">
-      <c r="A752" s="12"/>
+      <c r="A752" s="65"/>
     </row>
     <row r="753" spans="1:1">
-      <c r="A753" s="69"/>
+      <c r="A753" s="12"/>
     </row>
     <row r="754" spans="1:1">
-      <c r="A754" s="12"/>
+      <c r="A754" s="65"/>
     </row>
     <row r="755" spans="1:1">
-      <c r="A755" s="69"/>
-    </row>
-    <row r="756" spans="1:1">
-      <c r="A756" s="12"/>
+      <c r="A755" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H422:H433">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C163 C179 C198 C199 C200 C216 C227 C228 C229 C230 C231 C232 C233 C234 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C257 C258 C265 C266 C267 C268 C269 C270 C271 C272 C273 C274 C275 C276 C277 C278 C279 C280 C281 C282 C283 C284 C285 C286 C287 C288 C289 C290 C291 C292 C293 C294 C295 C296 C297 C298 C299 C300 C301 C302 C320 C321 C322 C323 C324 C337 C338 C339 C340 C341 C342 C343 C344 C345 C346 C347 C348 C349 C350 C351 C352 C353 C354 C355 C356 C357 C358 C359 C360 C361 C362 C363 C364 C365 C366 C367 C368 C369 C370 C371 C372 C373 C374 C375 C376 C377 C378 C379 C380 C381 C382 C383 C384 C385 C386 C387 C388 C398 C399 C400 C401 C402 C403 C404 C405 C406 C407 C408 C409 C410 C411 C412 C413 C414 C415 C416 C417 C418 C419 C420 C421 C422 C423 C424 C425 C426 C427 C428 C429 C4:C17 C18:C23 C24:C34 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C146 C147:C162 C164:C178 C180:C197 C201:C215 C217:C226 C259:C261 C262:C264 C303:C313 C314:C319 C325:C330 C331:C336 C389:C397 C430:C433 C434:C1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C163 C179 C198 C199 C200 C216 C227 C228 C229 C230 C231 C232 C233 C234 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C257 C258 C265 C266 C267 C268 C269 C270 C271 C272 C273 C274 C275 C276 C277 C278 C279 C280 C281 C282 C283 C284 C285 C286 C287 C288 C289 C290 C291 C292 C293 C294 C295 C296 C297 C298 C299 C300 C301 C302 C320 C321 C322 C323 C324 C337 C338 C339 C340 C341 C342 C343 C344 C345 C346 C347 C348 C349 C350 C351 C352 C353 C354 C355 C356 C357 C358 C359 C360 C361 C362 C363 C364 C365 C366 C367 C368 C369 C370 C371 C372 C373 C374 C375 C376 C377 C378 C379 C380 C381 C382 C383 C384 C385 C386 C387 C388 C398 C399 C400 C401 C402 C403 C404 C405 C406 C407 C408 C409 C410 C411 C412 C413 C414 C415 C416 C417 C418 C419 C420 C421 C422 C423 C424 C425 C426 C427 C428 C429 C434 C435 C436 C437 C4:C17 C18:C23 C24:C34 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C146 C147:C162 C164:C178 C180:C197 C201:C215 C217:C226 C259:C261 C262:C264 C303:C313 C314:C319 C325:C330 C331:C336 C389:C397 C430:C433 C438:C1048576">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D18 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D60 D71 D84 D85 D86 D106 D146 D163 D179 D198 D199 D200 D216 D227 D228 D229 D235 D236 D237 D238 D239 D240 D241 D242 D243 D244 D245 D246 D247 D248 D249 D250 D251 D252 D253 D254 D255 D256 D257 D258 D259 D265 D266 D267 D268 D269 D270 D271 D272 D273 D274 D275 D276 D277 D278 D279 D280 D281 D282 D283 D284 D285 D286 D287 D288 D289 D290 D291 D292 D293 D294 D295 D296 D297 D298 D299 D300 D301 D302 D320 D321 D322 D323 D324 D337 D338 D339 D340 D341 D342 D343 D344 D345 D346 D347 D348 D349 D350 D351 D352 D353 D354 D355 D356 D357 D358 D369 D370 D371 D372 D373 D374 D375 D398 D399 D400 D401 D402 D403 D404 D405 D406 D407 D408 D409 D410 D411 D412 D413 D414 D415 D416 D417 D418 D419 D420 D421 D422 D423 D424 D425 D426 D427 D428 D429 D430 D431 D432 D433 D4:D17 D19:D22 D23:D35 D49:D59 D61:D70 D72:D81 D82:D83 D87:D105 D107:D117 D118:D137 D138:D145 D147:D162 D164:D178 D180:D197 D201:D215 D217:D226 D230:D234 D260:D264 D303:D313 D314:D319 D325:D331 D332:D336 D359:D368 D376:D388 D389:D397 D434:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D18 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D60 D71 D84 D85 D86 D106 D146 D163 D179 D198 D199 D200 D216 D227 D228 D229 D235 D236 D237 D238 D239 D240 D241 D242 D243 D244 D245 D246 D247 D248 D249 D250 D251 D252 D253 D254 D255 D256 D257 D258 D259 D265 D266 D267 D268 D269 D270 D271 D272 D273 D274 D275 D276 D277 D278 D279 D280 D281 D282 D283 D284 D285 D286 D287 D288 D289 D290 D291 D292 D293 D294 D295 D296 D297 D298 D299 D300 D301 D302 D320 D321 D322 D323 D324 D337 D338 D339 D340 D341 D342 D343 D344 D345 D346 D347 D348 D349 D350 D351 D352 D353 D354 D355 D356 D357 D358 D369 D370 D371 D372 D373 D374 D375 D398 D399 D400 D401 D402 D403 D404 D405 D406 D407 D408 D409 D410 D411 D412 D413 D414 D415 D416 D417 D418 D419 D420 D421 D422 D423 D424 D425 D426 D427 D428 D429 D430 D431 D432 D433 D4:D17 D19:D22 D23:D35 D49:D59 D61:D70 D72:D81 D82:D83 D87:D105 D107:D117 D118:D137 D138:D145 D147:D162 D164:D178 D180:D197 D201:D215 D217:D226 D230:D234 D260:D264 D303:D313 D314:D319 D325:D331 D332:D336 D359:D368 D376:D388 D389:D397 D434:D437 D438:D1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>
@@ -26905,13 +27098,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>938</v>
+        <v>948</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>939</v>
+        <v>949</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -26922,7 +27115,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>940</v>
+        <v>950</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -26933,7 +27126,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>941</v>
+        <v>951</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -26944,7 +27137,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>942</v>
+        <v>952</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -26960,7 +27153,7 @@
         <v>43050</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>943</v>
+        <v>953</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -26971,7 +27164,7 @@
         <v>43064</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>941</v>
+        <v>951</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -26987,7 +27180,7 @@
         <v>43079</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>944</v>
+        <v>954</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -26998,7 +27191,7 @@
         <v>43085</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>945</v>
+        <v>955</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -27009,7 +27202,7 @@
         <v>43092</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>946</v>
+        <v>956</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -27020,7 +27213,7 @@
         <v>43099</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>947</v>
+        <v>957</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -27031,7 +27224,7 @@
         <v>43100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>948</v>
+        <v>958</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -27047,7 +27240,7 @@
         <v>43107</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>941</v>
+        <v>951</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -27058,7 +27251,7 @@
         <v>43113</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>949</v>
+        <v>959</v>
       </c>
     </row>
     <row r="17" spans="1:3">

--- a/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -3039,6 +3039,42 @@
   </si>
   <si>
     <t>陈少龙</t>
+  </si>
+  <si>
+    <t>彦悦山百联又一城店</t>
+  </si>
+  <si>
+    <t>捞王锅物料理(昆山昆城店)</t>
+  </si>
+  <si>
+    <t>悸动(淮安翰林广场店)</t>
+  </si>
+  <si>
+    <t>悸动(南汇东门汽车站店)</t>
+  </si>
+  <si>
+    <t>悸动(南昌现代店)</t>
+  </si>
+  <si>
+    <t>悸动(大润发店)</t>
+  </si>
+  <si>
+    <t>悸动(龙颜店)</t>
+  </si>
+  <si>
+    <t>巢湖</t>
+  </si>
+  <si>
+    <t>悸动(巢湖安德利北城店)</t>
+  </si>
+  <si>
+    <t>悸动(合肥华府骏苑店)</t>
+  </si>
+  <si>
+    <t>荆州</t>
+  </si>
+  <si>
+    <t>悸动(荆州职业技术学院店)</t>
   </si>
   <si>
     <t>姓名</t>
@@ -3085,11 +3121,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -3175,9 +3211,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3188,38 +3233,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3234,30 +3256,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3265,30 +3265,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3308,8 +3285,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3322,12 +3361,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3394,97 +3430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3502,13 +3448,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3538,7 +3532,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3550,13 +3574,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3927,17 +3963,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3952,31 +3988,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4002,16 +4023,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4030,10 +4066,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4042,141 +4078,141 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
@@ -4184,7 +4220,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4375,21 +4411,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4908,440 +4929,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="105" t="s">
+      <c r="I2" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="106" t="s">
+      <c r="J2" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="107" t="s">
+      <c r="K2" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="108" t="s">
+      <c r="L2" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="109" t="s">
+      <c r="M2" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="110" t="s">
+      <c r="N2" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="75"/>
-      <c r="B3" s="82" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85">
+      <c r="D3" s="79"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86">
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="112"/>
-      <c r="K3" s="113" t="e">
+      <c r="J3" s="107"/>
+      <c r="K3" s="108" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="114">
+      <c r="L3" s="109">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="115">
+      <c r="M3" s="110">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="116" t="e">
+      <c r="N3" s="111" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="89" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91">
+      <c r="D4" s="85"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="92"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="92">
+      <c r="G4" s="87"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="117"/>
-      <c r="K4" s="113" t="e">
+      <c r="J4" s="112"/>
+      <c r="K4" s="108" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="114">
+      <c r="L4" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="115">
+      <c r="M4" s="110">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="116" t="e">
+      <c r="N4" s="111" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="111"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="87"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="89" t="s">
+      <c r="A5" s="82"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91">
+      <c r="D5" s="85"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="92"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="92">
+      <c r="G5" s="87"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="117"/>
-      <c r="K5" s="113" t="e">
+      <c r="J5" s="112"/>
+      <c r="K5" s="108" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="114">
+      <c r="L5" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="115">
+      <c r="M5" s="110">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="116" t="e">
+      <c r="N5" s="111" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="111"/>
+      <c r="O5" s="106"/>
+      <c r="P5" s="106"/>
+      <c r="Q5" s="106"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="87"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="89" t="s">
+      <c r="A6" s="82"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="90"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91">
+      <c r="D6" s="85"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="92"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="92">
+      <c r="G6" s="87"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="117"/>
-      <c r="K6" s="113" t="e">
+      <c r="J6" s="112"/>
+      <c r="K6" s="108" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="114">
+      <c r="L6" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="115">
+      <c r="M6" s="110">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="116" t="e">
+      <c r="N6" s="111" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="106"/>
+      <c r="Q6" s="106"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="87"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="89" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="90"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91">
+      <c r="A7" s="82"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="85"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="92">
+      <c r="G7" s="87"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="117"/>
-      <c r="K7" s="113" t="e">
+      <c r="J7" s="112"/>
+      <c r="K7" s="108" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="114">
+      <c r="L7" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="115">
+      <c r="M7" s="110">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="116" t="e">
+      <c r="N7" s="111" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="87"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="89" t="s">
+      <c r="A8" s="82"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="90"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91">
+      <c r="D8" s="85"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="92"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="92">
+      <c r="G8" s="87"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="117"/>
-      <c r="K8" s="113" t="e">
+      <c r="J8" s="112"/>
+      <c r="K8" s="108" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="114">
+      <c r="L8" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="115">
+      <c r="M8" s="110">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="116" t="e">
+      <c r="N8" s="111" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="106"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="87"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="89" t="s">
+      <c r="A9" s="82"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="90"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91">
+      <c r="D9" s="85"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="92"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="92">
+      <c r="G9" s="87"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="117"/>
-      <c r="K9" s="113" t="e">
+      <c r="J9" s="112"/>
+      <c r="K9" s="108" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="114">
+      <c r="L9" s="109">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="115">
+      <c r="M9" s="110">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="116" t="e">
+      <c r="N9" s="111" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="106"/>
+      <c r="Q9" s="106"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="87"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="93" t="s">
+      <c r="A10" s="82"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="94"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="96">
+      <c r="D10" s="89"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="97"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="97">
+      <c r="G10" s="92"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="118"/>
-      <c r="K10" s="119" t="e">
+      <c r="J10" s="113"/>
+      <c r="K10" s="114" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="120">
+      <c r="L10" s="115">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="121">
+      <c r="M10" s="116">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="122" t="e">
+      <c r="N10" s="117" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="111"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="106"/>
+      <c r="Q10" s="106"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="99"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="101" t="s">
+      <c r="A11" s="94"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="102">
+      <c r="D11" s="97">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="102">
+      <c r="E11" s="97">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="103">
+      <c r="F11" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="102">
+      <c r="G11" s="97">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="102">
+      <c r="H11" s="97">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="103">
+      <c r="I11" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="102">
+      <c r="J11" s="97">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="123" t="e">
+      <c r="K11" s="118" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="103">
+      <c r="L11" s="98">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="103">
+      <c r="M11" s="98">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="124" t="e">
+      <c r="N11" s="119" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5360,9 +5381,9 @@
   <dimension ref="A1:Q755"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A440" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A455" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E465" sqref="E465"/>
+      <selection pane="bottomLeft" activeCell="D477" sqref="D477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9636,7 +9657,7 @@
       <c r="N95" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O95" s="125" t="s">
+      <c r="O95" s="120" t="s">
         <v>270</v>
       </c>
       <c r="P95" s="15" t="s">
@@ -26071,25 +26092,25 @@
       <c r="F439" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G439" s="65" t="s">
+      <c r="G439" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="H439" s="65">
+      <c r="H439" s="16">
         <v>76156956</v>
       </c>
-      <c r="I439" s="65" t="s">
+      <c r="I439" s="16" t="s">
         <v>947</v>
       </c>
-      <c r="J439" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K439" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L439" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M439" s="68" t="s">
+      <c r="J439" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K439" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L439" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M439" s="42" t="s">
         <v>868</v>
       </c>
       <c r="N439" s="15" t="s">
@@ -26124,25 +26145,25 @@
       <c r="F440" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G440" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="H440" s="65">
+      <c r="G440" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H440" s="16">
         <v>76157016</v>
       </c>
-      <c r="I440" s="65" t="s">
+      <c r="I440" s="16" t="s">
         <v>948</v>
       </c>
-      <c r="J440" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K440" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L440" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M440" s="68" t="s">
+      <c r="J440" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K440" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L440" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M440" s="42" t="s">
         <v>868</v>
       </c>
       <c r="N440" s="15" t="s">
@@ -26177,25 +26198,25 @@
       <c r="F441" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G441" s="65" t="s">
+      <c r="G441" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="H441" s="65">
+      <c r="H441" s="16">
         <v>76158207</v>
       </c>
-      <c r="I441" s="65" t="s">
+      <c r="I441" s="16" t="s">
         <v>949</v>
       </c>
-      <c r="J441" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K441" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L441" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M441" s="68" t="s">
+      <c r="J441" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K441" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L441" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M441" s="42" t="s">
         <v>868</v>
       </c>
       <c r="N441" s="15" t="s">
@@ -26230,25 +26251,25 @@
       <c r="F442" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G442" s="65" t="s">
+      <c r="G442" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="H442" s="65">
+      <c r="H442" s="16">
         <v>76158337</v>
       </c>
-      <c r="I442" s="65" t="s">
+      <c r="I442" s="16" t="s">
         <v>950</v>
       </c>
-      <c r="J442" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K442" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L442" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M442" s="68" t="s">
+      <c r="J442" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K442" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L442" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M442" s="42" t="s">
         <v>868</v>
       </c>
       <c r="N442" s="15" t="s">
@@ -26283,25 +26304,25 @@
       <c r="F443" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G443" s="65" t="s">
+      <c r="G443" s="16" t="s">
         <v>668</v>
       </c>
-      <c r="H443" s="65">
+      <c r="H443" s="16">
         <v>76158510</v>
       </c>
-      <c r="I443" s="65" t="s">
+      <c r="I443" s="16" t="s">
         <v>951</v>
       </c>
-      <c r="J443" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K443" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L443" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M443" s="68" t="s">
+      <c r="J443" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K443" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L443" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M443" s="42" t="s">
         <v>868</v>
       </c>
       <c r="N443" s="15" t="s">
@@ -26336,25 +26357,25 @@
       <c r="F444" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G444" s="65" t="s">
+      <c r="G444" s="16" t="s">
         <v>952</v>
       </c>
-      <c r="H444" s="65">
+      <c r="H444" s="16">
         <v>76158790</v>
       </c>
-      <c r="I444" s="65" t="s">
+      <c r="I444" s="16" t="s">
         <v>953</v>
       </c>
-      <c r="J444" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K444" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L444" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M444" s="68" t="s">
+      <c r="J444" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K444" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L444" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M444" s="42" t="s">
         <v>868</v>
       </c>
       <c r="N444" s="15" t="s">
@@ -26389,25 +26410,25 @@
       <c r="F445" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G445" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="H445" s="65">
+      <c r="G445" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H445" s="16">
         <v>76159000</v>
       </c>
-      <c r="I445" s="65" t="s">
+      <c r="I445" s="16" t="s">
         <v>954</v>
       </c>
-      <c r="J445" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K445" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L445" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M445" s="68" t="s">
+      <c r="J445" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K445" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L445" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M445" s="42" t="s">
         <v>868</v>
       </c>
       <c r="N445" s="15" t="s">
@@ -26442,25 +26463,25 @@
       <c r="F446" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G446" s="65" t="s">
+      <c r="G446" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="H446" s="65">
+      <c r="H446" s="16">
         <v>76159105</v>
       </c>
-      <c r="I446" s="65" t="s">
+      <c r="I446" s="16" t="s">
         <v>955</v>
       </c>
-      <c r="J446" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K446" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L446" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M446" s="68" t="s">
+      <c r="J446" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K446" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L446" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M446" s="42" t="s">
         <v>868</v>
       </c>
       <c r="N446" s="15" t="s">
@@ -26495,25 +26516,25 @@
       <c r="F447" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G447" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="H447" s="65">
+      <c r="G447" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H447" s="16">
         <v>76159160</v>
       </c>
-      <c r="I447" s="65" t="s">
+      <c r="I447" s="16" t="s">
         <v>956</v>
       </c>
-      <c r="J447" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K447" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L447" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M447" s="68" t="s">
+      <c r="J447" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K447" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L447" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M447" s="42" t="s">
         <v>868</v>
       </c>
       <c r="N447" s="15" t="s">
@@ -26548,25 +26569,25 @@
       <c r="F448" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G448" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="H448" s="65">
+      <c r="G448" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H448" s="16">
         <v>76159283</v>
       </c>
-      <c r="I448" s="65" t="s">
+      <c r="I448" s="16" t="s">
         <v>957</v>
       </c>
-      <c r="J448" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K448" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L448" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M448" s="68" t="s">
+      <c r="J448" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K448" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L448" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M448" s="42" t="s">
         <v>868</v>
       </c>
       <c r="N448" s="15" t="s">
@@ -26601,31 +26622,31 @@
       <c r="F449" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G449" s="69" t="s">
+      <c r="G449" s="16" t="s">
         <v>958</v>
       </c>
-      <c r="H449" s="70">
+      <c r="H449" s="42">
         <v>76157209</v>
       </c>
-      <c r="I449" s="71" t="s">
+      <c r="I449" s="16" t="s">
         <v>959</v>
       </c>
-      <c r="J449" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K449" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L449" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M449" s="69" t="s">
+      <c r="J449" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K449" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L449" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M449" s="16" t="s">
         <v>960</v>
       </c>
       <c r="N449" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O449" s="69">
+      <c r="O449" s="16">
         <v>18188970508</v>
       </c>
       <c r="P449" s="15" t="s">
@@ -26654,31 +26675,31 @@
       <c r="F450" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G450" s="69" t="s">
+      <c r="G450" s="16" t="s">
         <v>920</v>
       </c>
-      <c r="H450" s="70">
+      <c r="H450" s="42">
         <v>76157779</v>
       </c>
-      <c r="I450" s="71" t="s">
+      <c r="I450" s="16" t="s">
         <v>961</v>
       </c>
-      <c r="J450" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K450" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L450" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M450" s="69" t="s">
+      <c r="J450" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K450" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L450" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M450" s="16" t="s">
         <v>962</v>
       </c>
       <c r="N450" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O450" s="69">
+      <c r="O450" s="16">
         <v>15959208328</v>
       </c>
       <c r="P450" s="15" t="s">
@@ -26707,31 +26728,31 @@
       <c r="F451" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G451" s="69" t="s">
+      <c r="G451" s="16" t="s">
         <v>920</v>
       </c>
-      <c r="H451" s="70">
+      <c r="H451" s="42">
         <v>76157782</v>
       </c>
-      <c r="I451" s="71" t="s">
+      <c r="I451" s="16" t="s">
         <v>963</v>
       </c>
-      <c r="J451" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K451" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L451" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M451" s="69" t="s">
+      <c r="J451" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K451" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L451" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M451" s="16" t="s">
         <v>964</v>
       </c>
       <c r="N451" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O451" s="69">
+      <c r="O451" s="16">
         <v>15160003550</v>
       </c>
       <c r="P451" s="15" t="s">
@@ -26760,31 +26781,31 @@
       <c r="F452" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G452" s="69" t="s">
+      <c r="G452" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="H452" s="70">
+      <c r="H452" s="42">
         <v>76157786</v>
       </c>
-      <c r="I452" s="71" t="s">
+      <c r="I452" s="16" t="s">
         <v>965</v>
       </c>
-      <c r="J452" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K452" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L452" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M452" s="69" t="s">
+      <c r="J452" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K452" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L452" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M452" s="16" t="s">
         <v>966</v>
       </c>
       <c r="N452" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O452" s="69">
+      <c r="O452" s="16">
         <v>15052566292</v>
       </c>
       <c r="P452" s="15" t="s">
@@ -26813,31 +26834,31 @@
       <c r="F453" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G453" s="69" t="s">
+      <c r="G453" s="16" t="s">
         <v>688</v>
       </c>
-      <c r="H453" s="70">
+      <c r="H453" s="42">
         <v>76158012</v>
       </c>
-      <c r="I453" s="71" t="s">
+      <c r="I453" s="16" t="s">
         <v>967</v>
       </c>
-      <c r="J453" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K453" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L453" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M453" s="69" t="s">
+      <c r="J453" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K453" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L453" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M453" s="16" t="s">
         <v>968</v>
       </c>
       <c r="N453" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O453" s="69">
+      <c r="O453" s="16">
         <v>13049483287</v>
       </c>
       <c r="P453" s="15" t="s">
@@ -26866,31 +26887,31 @@
       <c r="F454" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G454" s="69" t="s">
+      <c r="G454" s="16" t="s">
         <v>688</v>
       </c>
-      <c r="H454" s="70">
+      <c r="H454" s="42">
         <v>76158013</v>
       </c>
-      <c r="I454" s="71" t="s">
+      <c r="I454" s="16" t="s">
         <v>969</v>
       </c>
-      <c r="J454" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K454" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L454" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M454" s="69" t="s">
+      <c r="J454" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K454" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L454" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M454" s="16" t="s">
         <v>970</v>
       </c>
       <c r="N454" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O454" s="69">
+      <c r="O454" s="16">
         <v>13510008106</v>
       </c>
       <c r="P454" s="15" t="s">
@@ -26919,31 +26940,31 @@
       <c r="F455" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G455" s="69" t="s">
+      <c r="G455" s="16" t="s">
         <v>928</v>
       </c>
-      <c r="H455" s="70">
+      <c r="H455" s="42">
         <v>76158015</v>
       </c>
-      <c r="I455" s="71" t="s">
+      <c r="I455" s="16" t="s">
         <v>971</v>
       </c>
-      <c r="J455" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K455" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L455" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M455" s="69" t="s">
+      <c r="J455" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K455" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L455" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M455" s="16" t="s">
         <v>972</v>
       </c>
       <c r="N455" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O455" s="69">
+      <c r="O455" s="16">
         <v>13433505111</v>
       </c>
       <c r="P455" s="15" t="s">
@@ -26972,31 +26993,31 @@
       <c r="F456" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G456" s="69" t="s">
+      <c r="G456" s="16" t="s">
         <v>928</v>
       </c>
-      <c r="H456" s="70">
+      <c r="H456" s="42">
         <v>76158017</v>
       </c>
-      <c r="I456" s="71" t="s">
+      <c r="I456" s="16" t="s">
         <v>973</v>
       </c>
-      <c r="J456" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K456" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L456" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M456" s="69" t="s">
+      <c r="J456" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K456" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L456" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M456" s="16" t="s">
         <v>974</v>
       </c>
       <c r="N456" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O456" s="69">
+      <c r="O456" s="16">
         <v>15917775393</v>
       </c>
       <c r="P456" s="15" t="s">
@@ -27025,31 +27046,31 @@
       <c r="F457" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G457" s="69" t="s">
+      <c r="G457" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="H457" s="70">
+      <c r="H457" s="42">
         <v>76158233</v>
       </c>
-      <c r="I457" s="71" t="s">
+      <c r="I457" s="16" t="s">
         <v>975</v>
       </c>
-      <c r="J457" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K457" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L457" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M457" s="69" t="s">
+      <c r="J457" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K457" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L457" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M457" s="16" t="s">
         <v>976</v>
       </c>
       <c r="N457" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O457" s="69">
+      <c r="O457" s="16">
         <v>13886138448</v>
       </c>
       <c r="P457" s="15" t="s">
@@ -27078,31 +27099,31 @@
       <c r="F458" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G458" s="69" t="s">
+      <c r="G458" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="H458" s="70">
+      <c r="H458" s="42">
         <v>76158283</v>
       </c>
-      <c r="I458" s="69" t="s">
+      <c r="I458" s="16" t="s">
         <v>977</v>
       </c>
-      <c r="J458" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K458" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L458" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M458" s="69" t="s">
+      <c r="J458" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K458" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L458" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M458" s="16" t="s">
         <v>978</v>
       </c>
       <c r="N458" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O458" s="69">
+      <c r="O458" s="16">
         <v>17821727478</v>
       </c>
       <c r="P458" s="15" t="s">
@@ -27131,31 +27152,31 @@
       <c r="F459" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G459" s="69" t="s">
+      <c r="G459" s="16" t="s">
         <v>979</v>
       </c>
-      <c r="H459" s="70">
+      <c r="H459" s="42">
         <v>76158285</v>
       </c>
-      <c r="I459" s="69" t="s">
+      <c r="I459" s="16" t="s">
         <v>980</v>
       </c>
-      <c r="J459" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K459" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L459" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M459" s="69" t="s">
+      <c r="J459" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K459" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L459" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M459" s="16" t="s">
         <v>981</v>
       </c>
       <c r="N459" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O459" s="69">
+      <c r="O459" s="16">
         <v>15899659611</v>
       </c>
       <c r="P459" s="15" t="s">
@@ -27184,31 +27205,31 @@
       <c r="F460" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G460" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="H460" s="70">
+      <c r="G460" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H460" s="42">
         <v>76158616</v>
       </c>
-      <c r="I460" s="69" t="s">
+      <c r="I460" s="16" t="s">
         <v>982</v>
       </c>
-      <c r="J460" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K460" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L460" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M460" s="69" t="s">
+      <c r="J460" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K460" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L460" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M460" s="16" t="s">
         <v>983</v>
       </c>
       <c r="N460" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O460" s="69">
+      <c r="O460" s="16">
         <v>15055366393</v>
       </c>
       <c r="P460" s="15" t="s">
@@ -27237,31 +27258,31 @@
       <c r="F461" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G461" s="69" t="s">
+      <c r="G461" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="H461" s="70">
+      <c r="H461" s="42">
         <v>76159016</v>
       </c>
-      <c r="I461" s="69" t="s">
+      <c r="I461" s="16" t="s">
         <v>984</v>
       </c>
-      <c r="J461" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K461" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L461" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M461" s="69" t="s">
+      <c r="J461" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K461" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L461" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M461" s="16" t="s">
         <v>985</v>
       </c>
       <c r="N461" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O461" s="69">
+      <c r="O461" s="16">
         <v>18051321020</v>
       </c>
       <c r="P461" s="15" t="s">
@@ -27290,31 +27311,31 @@
       <c r="F462" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G462" s="69" t="s">
+      <c r="G462" s="16" t="s">
         <v>920</v>
       </c>
-      <c r="H462" s="70">
+      <c r="H462" s="42">
         <v>76159017</v>
       </c>
-      <c r="I462" s="69" t="s">
+      <c r="I462" s="16" t="s">
         <v>986</v>
       </c>
-      <c r="J462" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K462" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L462" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M462" s="69" t="s">
+      <c r="J462" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K462" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L462" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M462" s="16" t="s">
         <v>987</v>
       </c>
       <c r="N462" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O462" s="69">
+      <c r="O462" s="16">
         <v>15606099904</v>
       </c>
       <c r="P462" s="15" t="s">
@@ -27343,31 +27364,31 @@
       <c r="F463" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G463" s="69" t="s">
+      <c r="G463" s="16" t="s">
         <v>668</v>
       </c>
-      <c r="H463" s="70">
+      <c r="H463" s="42">
         <v>76159023</v>
       </c>
-      <c r="I463" s="69" t="s">
+      <c r="I463" s="16" t="s">
         <v>988</v>
       </c>
-      <c r="J463" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K463" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L463" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M463" s="69" t="s">
+      <c r="J463" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K463" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L463" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M463" s="16" t="s">
         <v>989</v>
       </c>
       <c r="N463" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O463" s="69">
+      <c r="O463" s="16">
         <v>18612501899</v>
       </c>
       <c r="P463" s="15" t="s">
@@ -27396,31 +27417,31 @@
       <c r="F464" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G464" s="69" t="s">
+      <c r="G464" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="H464" s="70">
+      <c r="H464" s="42">
         <v>76159030</v>
       </c>
-      <c r="I464" s="69" t="s">
+      <c r="I464" s="16" t="s">
         <v>990</v>
       </c>
-      <c r="J464" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K464" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L464" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M464" s="69" t="s">
+      <c r="J464" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K464" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L464" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M464" s="16" t="s">
         <v>991</v>
       </c>
       <c r="N464" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O464" s="69">
+      <c r="O464" s="16">
         <v>15959572727</v>
       </c>
       <c r="P464" s="15" t="s">
@@ -27435,59 +27456,540 @@
       <c r="B465" s="21"/>
       <c r="P465" s="8"/>
     </row>
-    <row r="466" spans="1:16">
-      <c r="A466" s="64"/>
-      <c r="B466" s="21"/>
-      <c r="P466" s="8"/>
-    </row>
-    <row r="467" spans="1:16">
-      <c r="A467" s="22"/>
-      <c r="B467" s="21"/>
-      <c r="P467" s="8"/>
+    <row r="466" spans="1:17">
+      <c r="A466" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B466" s="19">
+        <v>17</v>
+      </c>
+      <c r="C466" s="18">
+        <v>43206</v>
+      </c>
+      <c r="D466" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E466" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="F466" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="G466" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H466" s="8">
+        <v>76159319</v>
+      </c>
+      <c r="I466" s="8" t="s">
+        <v>992</v>
+      </c>
+      <c r="J466" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K466" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L466" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M466" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="N466" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O466" s="8">
+        <v>13701844181</v>
+      </c>
+      <c r="P466" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q466" s="5" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="467" s="5" customFormat="1" spans="1:17">
+      <c r="A467" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B467" s="19">
+        <v>17</v>
+      </c>
+      <c r="C467" s="18">
+        <v>43206</v>
+      </c>
+      <c r="D467" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E467" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F467" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G467" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H467" s="8">
+        <v>76159201</v>
+      </c>
+      <c r="I467" s="8" t="s">
+        <v>993</v>
+      </c>
+      <c r="J467" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K467" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L467" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M467" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="N467" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O467" s="8">
+        <v>15921046369</v>
+      </c>
+      <c r="P467" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q467" s="5" t="s">
+        <v>870</v>
+      </c>
     </row>
     <row r="468" spans="1:16">
       <c r="A468" s="64"/>
       <c r="B468" s="21"/>
       <c r="P468" s="8"/>
     </row>
-    <row r="469" spans="1:16">
-      <c r="A469" s="22"/>
-      <c r="B469" s="21"/>
-      <c r="P469" s="8"/>
-    </row>
-    <row r="470" spans="1:16">
-      <c r="A470" s="64"/>
-      <c r="B470" s="21"/>
-      <c r="P470" s="8"/>
-    </row>
-    <row r="471" spans="1:16">
-      <c r="A471" s="22"/>
-      <c r="B471" s="21"/>
-      <c r="P471" s="8"/>
-    </row>
-    <row r="472" spans="1:16">
-      <c r="A472" s="64"/>
-      <c r="B472" s="21"/>
-      <c r="P472" s="8"/>
-    </row>
-    <row r="473" spans="1:16">
-      <c r="A473" s="22"/>
-      <c r="B473" s="21"/>
-      <c r="P473" s="8"/>
-    </row>
-    <row r="474" spans="1:16">
-      <c r="A474" s="64"/>
-      <c r="B474" s="21"/>
-      <c r="P474" s="8"/>
-    </row>
-    <row r="475" spans="1:16">
-      <c r="A475" s="22"/>
-      <c r="B475" s="21"/>
-      <c r="P475" s="8"/>
-    </row>
-    <row r="476" spans="1:2">
-      <c r="A476" s="64"/>
-      <c r="B476" s="21"/>
+    <row r="469" spans="1:17">
+      <c r="A469" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B469" s="19">
+        <v>18</v>
+      </c>
+      <c r="C469" s="18">
+        <v>43217</v>
+      </c>
+      <c r="D469" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E469" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F469" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G469" s="65" t="s">
+        <v>882</v>
+      </c>
+      <c r="H469" s="66">
+        <v>76159660</v>
+      </c>
+      <c r="I469" s="65" t="s">
+        <v>994</v>
+      </c>
+      <c r="J469" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K469" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L469" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M469" s="42" t="s">
+        <v>868</v>
+      </c>
+      <c r="N469" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="O469" s="8">
+        <v>18895602870</v>
+      </c>
+      <c r="P469" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q469" s="5" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="470" spans="1:17">
+      <c r="A470" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B470" s="19">
+        <v>18</v>
+      </c>
+      <c r="C470" s="18">
+        <v>43217</v>
+      </c>
+      <c r="D470" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E470" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F470" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G470" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="H470" s="66">
+        <v>76159815</v>
+      </c>
+      <c r="I470" s="65" t="s">
+        <v>995</v>
+      </c>
+      <c r="J470" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K470" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L470" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M470" s="42" t="s">
+        <v>868</v>
+      </c>
+      <c r="N470" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="O470" s="8">
+        <v>18895602870</v>
+      </c>
+      <c r="P470" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q470" s="5" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="471" spans="1:17">
+      <c r="A471" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B471" s="19">
+        <v>18</v>
+      </c>
+      <c r="C471" s="18">
+        <v>43217</v>
+      </c>
+      <c r="D471" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E471" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F471" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G471" s="65" t="s">
+        <v>325</v>
+      </c>
+      <c r="H471" s="66">
+        <v>76160062</v>
+      </c>
+      <c r="I471" s="65" t="s">
+        <v>996</v>
+      </c>
+      <c r="J471" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K471" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L471" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M471" s="42" t="s">
+        <v>868</v>
+      </c>
+      <c r="N471" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="O471" s="8">
+        <v>18895602870</v>
+      </c>
+      <c r="P471" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q471" s="5" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="472" spans="1:17">
+      <c r="A472" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B472" s="19">
+        <v>18</v>
+      </c>
+      <c r="C472" s="18">
+        <v>43217</v>
+      </c>
+      <c r="D472" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E472" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F472" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G472" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="H472" s="66">
+        <v>76160521</v>
+      </c>
+      <c r="I472" s="65" t="s">
+        <v>997</v>
+      </c>
+      <c r="J472" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K472" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L472" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M472" s="42" t="s">
+        <v>868</v>
+      </c>
+      <c r="N472" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="O472" s="8">
+        <v>18895602870</v>
+      </c>
+      <c r="P472" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q472" s="5" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="473" spans="1:17">
+      <c r="A473" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B473" s="19">
+        <v>18</v>
+      </c>
+      <c r="C473" s="18">
+        <v>43217</v>
+      </c>
+      <c r="D473" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E473" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F473" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G473" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="H473" s="66">
+        <v>76161689</v>
+      </c>
+      <c r="I473" s="65" t="s">
+        <v>998</v>
+      </c>
+      <c r="J473" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K473" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L473" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M473" s="42" t="s">
+        <v>868</v>
+      </c>
+      <c r="N473" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="O473" s="8">
+        <v>18895602870</v>
+      </c>
+      <c r="P473" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q473" s="5" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="474" spans="1:17">
+      <c r="A474" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B474" s="19">
+        <v>18</v>
+      </c>
+      <c r="C474" s="18">
+        <v>43217</v>
+      </c>
+      <c r="D474" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E474" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F474" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G474" s="65" t="s">
+        <v>999</v>
+      </c>
+      <c r="H474" s="66">
+        <v>76161753</v>
+      </c>
+      <c r="I474" s="65" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J474" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K474" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L474" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M474" s="42" t="s">
+        <v>868</v>
+      </c>
+      <c r="N474" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="O474" s="8">
+        <v>18895602870</v>
+      </c>
+      <c r="P474" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q474" s="5" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="475" spans="1:17">
+      <c r="A475" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B475" s="19">
+        <v>18</v>
+      </c>
+      <c r="C475" s="18">
+        <v>43217</v>
+      </c>
+      <c r="D475" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E475" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F475" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G475" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="H475" s="66">
+        <v>76161881</v>
+      </c>
+      <c r="I475" s="65" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J475" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K475" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L475" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M475" s="42" t="s">
+        <v>868</v>
+      </c>
+      <c r="N475" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="O475" s="8">
+        <v>18895602870</v>
+      </c>
+      <c r="P475" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q475" s="5" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="476" spans="1:17">
+      <c r="A476" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B476" s="19">
+        <v>18</v>
+      </c>
+      <c r="C476" s="18">
+        <v>43217</v>
+      </c>
+      <c r="D476" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E476" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F476" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G476" s="65" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H476" s="66">
+        <v>76162059</v>
+      </c>
+      <c r="I476" s="65" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J476" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K476" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L476" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M476" s="42" t="s">
+        <v>868</v>
+      </c>
+      <c r="N476" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="O476" s="8">
+        <v>18895602870</v>
+      </c>
+      <c r="P476" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q476" s="5" t="s">
+        <v>870</v>
+      </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="22"/>
@@ -28046,421 +28548,421 @@
       <c r="B615" s="15"/>
     </row>
     <row r="616" spans="1:1">
-      <c r="A616" s="72"/>
+      <c r="A616" s="67"/>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" s="12"/>
     </row>
     <row r="618" spans="1:1">
-      <c r="A618" s="72"/>
+      <c r="A618" s="67"/>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" s="12"/>
     </row>
     <row r="620" spans="1:1">
-      <c r="A620" s="72"/>
+      <c r="A620" s="67"/>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" s="12"/>
     </row>
     <row r="622" spans="1:1">
-      <c r="A622" s="72"/>
+      <c r="A622" s="67"/>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" s="12"/>
     </row>
     <row r="624" spans="1:1">
-      <c r="A624" s="72"/>
+      <c r="A624" s="67"/>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" s="12"/>
     </row>
     <row r="626" spans="1:1">
-      <c r="A626" s="72"/>
+      <c r="A626" s="67"/>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" s="12"/>
     </row>
     <row r="628" spans="1:1">
-      <c r="A628" s="72"/>
+      <c r="A628" s="67"/>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" s="12"/>
     </row>
     <row r="630" spans="1:1">
-      <c r="A630" s="72"/>
+      <c r="A630" s="67"/>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" s="12"/>
     </row>
     <row r="632" spans="1:1">
-      <c r="A632" s="72"/>
+      <c r="A632" s="67"/>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" s="12"/>
     </row>
     <row r="634" spans="1:1">
-      <c r="A634" s="72"/>
+      <c r="A634" s="67"/>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" s="12"/>
     </row>
     <row r="636" spans="1:1">
-      <c r="A636" s="72"/>
+      <c r="A636" s="67"/>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" s="12"/>
     </row>
     <row r="638" spans="1:1">
-      <c r="A638" s="72"/>
+      <c r="A638" s="67"/>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" s="12"/>
     </row>
     <row r="640" spans="1:1">
-      <c r="A640" s="72"/>
+      <c r="A640" s="67"/>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" s="12"/>
     </row>
     <row r="642" spans="1:1">
-      <c r="A642" s="72"/>
+      <c r="A642" s="67"/>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" s="12"/>
     </row>
     <row r="644" spans="1:1">
-      <c r="A644" s="72"/>
+      <c r="A644" s="67"/>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" s="12"/>
     </row>
     <row r="646" spans="1:1">
-      <c r="A646" s="72"/>
+      <c r="A646" s="67"/>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" s="12"/>
     </row>
     <row r="648" spans="1:1">
-      <c r="A648" s="72"/>
+      <c r="A648" s="67"/>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" s="12"/>
     </row>
     <row r="650" spans="1:1">
-      <c r="A650" s="72"/>
+      <c r="A650" s="67"/>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" s="12"/>
     </row>
     <row r="652" spans="1:1">
-      <c r="A652" s="72"/>
+      <c r="A652" s="67"/>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" s="12"/>
     </row>
     <row r="654" spans="1:1">
-      <c r="A654" s="72"/>
+      <c r="A654" s="67"/>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" s="12"/>
     </row>
     <row r="656" spans="1:1">
-      <c r="A656" s="72"/>
+      <c r="A656" s="67"/>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" s="12"/>
     </row>
     <row r="658" spans="1:1">
-      <c r="A658" s="72"/>
+      <c r="A658" s="67"/>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" s="12"/>
     </row>
     <row r="660" spans="1:1">
-      <c r="A660" s="72"/>
+      <c r="A660" s="67"/>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" s="12"/>
     </row>
     <row r="662" spans="1:1">
-      <c r="A662" s="72"/>
+      <c r="A662" s="67"/>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" s="12"/>
     </row>
     <row r="664" spans="1:1">
-      <c r="A664" s="72"/>
+      <c r="A664" s="67"/>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" s="12"/>
     </row>
     <row r="666" spans="1:1">
-      <c r="A666" s="72"/>
+      <c r="A666" s="67"/>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" s="12"/>
     </row>
     <row r="668" spans="1:1">
-      <c r="A668" s="72"/>
+      <c r="A668" s="67"/>
     </row>
     <row r="669" spans="1:1">
       <c r="A669" s="12"/>
     </row>
     <row r="670" spans="1:1">
-      <c r="A670" s="72"/>
+      <c r="A670" s="67"/>
     </row>
     <row r="671" spans="1:1">
       <c r="A671" s="12"/>
     </row>
     <row r="672" spans="1:1">
-      <c r="A672" s="72"/>
+      <c r="A672" s="67"/>
     </row>
     <row r="673" spans="1:1">
       <c r="A673" s="12"/>
     </row>
     <row r="674" spans="1:1">
-      <c r="A674" s="72"/>
+      <c r="A674" s="67"/>
     </row>
     <row r="675" spans="1:1">
       <c r="A675" s="12"/>
     </row>
     <row r="676" spans="1:1">
-      <c r="A676" s="72"/>
+      <c r="A676" s="67"/>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" s="12"/>
     </row>
     <row r="678" spans="1:1">
-      <c r="A678" s="72"/>
+      <c r="A678" s="67"/>
     </row>
     <row r="679" spans="1:1">
       <c r="A679" s="12"/>
     </row>
     <row r="680" spans="1:1">
-      <c r="A680" s="72"/>
+      <c r="A680" s="67"/>
     </row>
     <row r="681" spans="1:1">
       <c r="A681" s="12"/>
     </row>
     <row r="682" spans="1:1">
-      <c r="A682" s="72"/>
+      <c r="A682" s="67"/>
     </row>
     <row r="683" spans="1:1">
       <c r="A683" s="12"/>
     </row>
     <row r="684" spans="1:1">
-      <c r="A684" s="72"/>
+      <c r="A684" s="67"/>
     </row>
     <row r="685" spans="1:1">
       <c r="A685" s="12"/>
     </row>
     <row r="686" spans="1:1">
-      <c r="A686" s="72"/>
+      <c r="A686" s="67"/>
     </row>
     <row r="687" spans="1:1">
       <c r="A687" s="12"/>
     </row>
     <row r="688" spans="1:1">
-      <c r="A688" s="72"/>
+      <c r="A688" s="67"/>
     </row>
     <row r="689" spans="1:1">
       <c r="A689" s="12"/>
     </row>
     <row r="690" spans="1:1">
-      <c r="A690" s="72"/>
+      <c r="A690" s="67"/>
     </row>
     <row r="691" spans="1:1">
       <c r="A691" s="12"/>
     </row>
     <row r="692" spans="1:1">
-      <c r="A692" s="72"/>
+      <c r="A692" s="67"/>
     </row>
     <row r="693" spans="1:1">
       <c r="A693" s="12"/>
     </row>
     <row r="694" spans="1:1">
-      <c r="A694" s="72"/>
+      <c r="A694" s="67"/>
     </row>
     <row r="695" spans="1:1">
       <c r="A695" s="12"/>
     </row>
     <row r="696" spans="1:1">
-      <c r="A696" s="72"/>
+      <c r="A696" s="67"/>
     </row>
     <row r="697" spans="1:1">
       <c r="A697" s="12"/>
     </row>
     <row r="698" spans="1:1">
-      <c r="A698" s="72"/>
+      <c r="A698" s="67"/>
     </row>
     <row r="699" spans="1:1">
       <c r="A699" s="12"/>
     </row>
     <row r="700" spans="1:1">
-      <c r="A700" s="72"/>
+      <c r="A700" s="67"/>
     </row>
     <row r="701" spans="1:1">
       <c r="A701" s="12"/>
     </row>
     <row r="702" spans="1:1">
-      <c r="A702" s="72"/>
+      <c r="A702" s="67"/>
     </row>
     <row r="703" spans="1:1">
       <c r="A703" s="12"/>
     </row>
     <row r="704" spans="1:1">
-      <c r="A704" s="72"/>
+      <c r="A704" s="67"/>
     </row>
     <row r="705" spans="1:1">
       <c r="A705" s="12"/>
     </row>
     <row r="706" spans="1:1">
-      <c r="A706" s="72"/>
+      <c r="A706" s="67"/>
     </row>
     <row r="707" spans="1:1">
       <c r="A707" s="12"/>
     </row>
     <row r="708" spans="1:1">
-      <c r="A708" s="72"/>
+      <c r="A708" s="67"/>
     </row>
     <row r="709" spans="1:1">
       <c r="A709" s="12"/>
     </row>
     <row r="710" spans="1:1">
-      <c r="A710" s="72"/>
+      <c r="A710" s="67"/>
     </row>
     <row r="711" spans="1:1">
       <c r="A711" s="12"/>
     </row>
     <row r="712" spans="1:1">
-      <c r="A712" s="72"/>
+      <c r="A712" s="67"/>
     </row>
     <row r="713" spans="1:1">
       <c r="A713" s="12"/>
     </row>
     <row r="714" spans="1:1">
-      <c r="A714" s="72"/>
+      <c r="A714" s="67"/>
     </row>
     <row r="715" spans="1:1">
       <c r="A715" s="12"/>
     </row>
     <row r="716" spans="1:1">
-      <c r="A716" s="72"/>
+      <c r="A716" s="67"/>
     </row>
     <row r="717" spans="1:1">
       <c r="A717" s="12"/>
     </row>
     <row r="718" spans="1:1">
-      <c r="A718" s="72"/>
+      <c r="A718" s="67"/>
     </row>
     <row r="719" spans="1:1">
       <c r="A719" s="12"/>
     </row>
     <row r="720" spans="1:1">
-      <c r="A720" s="72"/>
+      <c r="A720" s="67"/>
     </row>
     <row r="721" spans="1:1">
       <c r="A721" s="12"/>
     </row>
     <row r="722" spans="1:1">
-      <c r="A722" s="72"/>
+      <c r="A722" s="67"/>
     </row>
     <row r="723" spans="1:1">
       <c r="A723" s="12"/>
     </row>
     <row r="724" spans="1:1">
-      <c r="A724" s="72"/>
+      <c r="A724" s="67"/>
     </row>
     <row r="725" spans="1:1">
       <c r="A725" s="12"/>
     </row>
     <row r="726" spans="1:1">
-      <c r="A726" s="72"/>
+      <c r="A726" s="67"/>
     </row>
     <row r="727" spans="1:1">
       <c r="A727" s="12"/>
     </row>
     <row r="728" spans="1:1">
-      <c r="A728" s="72"/>
+      <c r="A728" s="67"/>
     </row>
     <row r="729" spans="1:1">
       <c r="A729" s="12"/>
     </row>
     <row r="730" spans="1:1">
-      <c r="A730" s="72"/>
+      <c r="A730" s="67"/>
     </row>
     <row r="731" spans="1:1">
       <c r="A731" s="12"/>
     </row>
     <row r="732" spans="1:1">
-      <c r="A732" s="72"/>
+      <c r="A732" s="67"/>
     </row>
     <row r="733" spans="1:1">
       <c r="A733" s="12"/>
     </row>
     <row r="734" spans="1:1">
-      <c r="A734" s="72"/>
+      <c r="A734" s="67"/>
     </row>
     <row r="735" spans="1:1">
       <c r="A735" s="12"/>
     </row>
     <row r="736" spans="1:1">
-      <c r="A736" s="72"/>
+      <c r="A736" s="67"/>
     </row>
     <row r="737" spans="1:1">
       <c r="A737" s="12"/>
     </row>
     <row r="738" spans="1:1">
-      <c r="A738" s="72"/>
+      <c r="A738" s="67"/>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" s="12"/>
     </row>
     <row r="740" spans="1:1">
-      <c r="A740" s="72"/>
+      <c r="A740" s="67"/>
     </row>
     <row r="741" spans="1:1">
       <c r="A741" s="12"/>
     </row>
     <row r="742" spans="1:1">
-      <c r="A742" s="72"/>
+      <c r="A742" s="67"/>
     </row>
     <row r="743" spans="1:1">
       <c r="A743" s="12"/>
     </row>
     <row r="744" spans="1:1">
-      <c r="A744" s="72"/>
+      <c r="A744" s="67"/>
     </row>
     <row r="745" spans="1:1">
       <c r="A745" s="12"/>
     </row>
     <row r="746" spans="1:1">
-      <c r="A746" s="72"/>
+      <c r="A746" s="67"/>
     </row>
     <row r="747" spans="1:1">
       <c r="A747" s="12"/>
     </row>
     <row r="748" spans="1:1">
-      <c r="A748" s="72"/>
+      <c r="A748" s="67"/>
     </row>
     <row r="749" spans="1:1">
       <c r="A749" s="12"/>
     </row>
     <row r="750" spans="1:1">
-      <c r="A750" s="72"/>
+      <c r="A750" s="67"/>
     </row>
     <row r="751" spans="1:1">
       <c r="A751" s="12"/>
     </row>
     <row r="752" spans="1:1">
-      <c r="A752" s="72"/>
+      <c r="A752" s="67"/>
     </row>
     <row r="753" spans="1:1">
       <c r="A753" s="12"/>
     </row>
     <row r="754" spans="1:1">
-      <c r="A754" s="72"/>
+      <c r="A754" s="67"/>
     </row>
     <row r="755" spans="1:1">
       <c r="A755" s="12"/>
@@ -28473,10 +28975,10 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C163 C179 C198 C199 C200 C216 C227 C228 C229 C230 C231 C232 C233 C234 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C257 C258 C265 C266 C267 C268 C269 C270 C271 C272 C273 C274 C275 C276 C277 C278 C279 C280 C281 C282 C283 C284 C285 C286 C287 C288 C289 C290 C291 C292 C293 C294 C295 C296 C297 C298 C299 C300 C301 C302 C320 C321 C322 C323 C324 C337 C338 C339 C340 C341 C342 C343 C344 C345 C346 C347 C348 C349 C350 C351 C352 C353 C354 C355 C356 C357 C358 C359 C360 C361 C362 C363 C364 C365 C366 C367 C368 C369 C370 C371 C372 C373 C374 C375 C376 C377 C378 C379 C380 C381 C382 C383 C384 C385 C386 C387 C388 C398 C399 C400 C401 C402 C403 C404 C405 C406 C407 C408 C409 C410 C411 C412 C413 C414 C415 C416 C417 C418 C419 C420 C421 C422 C423 C424 C425 C426 C427 C428 C429 C434 C435 C436 C437 C438 C4:C17 C18:C23 C24:C34 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C146 C147:C162 C164:C178 C180:C197 C201:C215 C217:C226 C259:C261 C262:C264 C303:C313 C314:C319 C325:C330 C331:C336 C389:C397 C430:C433 C439:C448 C449:C462 C463:C464 C465:C1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C163 C179 C198 C199 C200 C216 C227 C228 C229 C230 C231 C232 C233 C234 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C257 C258 C265 C266 C267 C268 C269 C270 C271 C272 C273 C274 C275 C276 C277 C278 C279 C280 C281 C282 C283 C284 C285 C286 C287 C288 C289 C290 C291 C292 C293 C294 C295 C296 C297 C298 C299 C300 C301 C302 C320 C321 C322 C323 C324 C337 C338 C339 C340 C341 C342 C343 C344 C345 C346 C347 C348 C349 C350 C351 C352 C353 C354 C355 C356 C357 C358 C359 C360 C361 C362 C363 C364 C365 C366 C367 C368 C369 C370 C371 C372 C373 C374 C375 C376 C377 C378 C379 C380 C381 C382 C383 C384 C385 C386 C387 C388 C398 C399 C400 C401 C402 C403 C404 C405 C406 C407 C408 C409 C410 C411 C412 C413 C414 C415 C416 C417 C418 C419 C420 C421 C422 C423 C424 C425 C426 C427 C428 C429 C434 C435 C436 C437 C438 C465 C466 C467 C468 C4:C17 C18:C23 C24:C34 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C146 C147:C162 C164:C178 C180:C197 C201:C215 C217:C226 C259:C261 C262:C264 C303:C313 C314:C319 C325:C330 C331:C336 C389:C397 C430:C433 C439:C448 C449:C462 C463:C464 C469:C476 C477:C1048576">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D18 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D60 D71 D84 D85 D86 D106 D146 D163 D179 D198 D199 D200 D216 D227 D228 D229 D235 D236 D237 D238 D239 D240 D241 D242 D243 D244 D245 D246 D247 D248 D249 D250 D251 D252 D253 D254 D255 D256 D257 D258 D259 D265 D266 D267 D268 D269 D270 D271 D272 D273 D274 D275 D276 D277 D278 D279 D280 D281 D282 D283 D284 D285 D286 D287 D288 D289 D290 D291 D292 D293 D294 D295 D296 D297 D298 D299 D300 D301 D302 D320 D321 D322 D323 D324 D337 D338 D339 D340 D341 D342 D343 D344 D345 D346 D347 D348 D349 D350 D351 D352 D353 D354 D355 D356 D357 D358 D369 D370 D371 D372 D373 D374 D375 D398 D399 D400 D401 D402 D403 D404 D405 D406 D407 D408 D409 D410 D411 D412 D413 D414 D415 D416 D417 D418 D419 D420 D421 D422 D423 D424 D425 D426 D427 D428 D429 D430 D431 D432 D433 D438 D4:D17 D19:D22 D23:D35 D49:D59 D61:D70 D72:D81 D82:D83 D87:D105 D107:D117 D118:D137 D138:D145 D147:D162 D164:D178 D180:D197 D201:D215 D217:D226 D230:D234 D260:D264 D303:D313 D314:D319 D325:D331 D332:D336 D359:D368 D376:D388 D389:D397 D434:D437 D439:D448 D449:D462 D463:D464 D465:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D18 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D60 D71 D84 D85 D86 D106 D146 D163 D179 D198 D199 D200 D216 D227 D228 D229 D235 D236 D237 D238 D239 D240 D241 D242 D243 D244 D245 D246 D247 D248 D249 D250 D251 D252 D253 D254 D255 D256 D257 D258 D259 D265 D266 D267 D268 D269 D270 D271 D272 D273 D274 D275 D276 D277 D278 D279 D280 D281 D282 D283 D284 D285 D286 D287 D288 D289 D290 D291 D292 D293 D294 D295 D296 D297 D298 D299 D300 D301 D302 D320 D321 D322 D323 D324 D337 D338 D339 D340 D341 D342 D343 D344 D345 D346 D347 D348 D349 D350 D351 D352 D353 D354 D355 D356 D357 D358 D369 D370 D371 D372 D373 D374 D375 D398 D399 D400 D401 D402 D403 D404 D405 D406 D407 D408 D409 D410 D411 D412 D413 D414 D415 D416 D417 D418 D419 D420 D421 D422 D423 D424 D425 D426 D427 D428 D429 D430 D431 D432 D433 D438 D465 D466 D467 D468 D4:D17 D19:D22 D23:D35 D49:D59 D61:D70 D72:D81 D82:D83 D87:D105 D107:D117 D118:D137 D138:D145 D147:D162 D164:D178 D180:D197 D201:D215 D217:D226 D230:D234 D260:D264 D303:D313 D314:D319 D325:D331 D332:D336 D359:D368 D376:D388 D389:D397 D434:D437 D439:D448 D449:D462 D463:D464 D469:D476 D477:D1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>
@@ -28505,13 +29007,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>992</v>
+        <v>1004</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>993</v>
+        <v>1005</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>994</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -28522,7 +29024,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>995</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -28533,7 +29035,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>996</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -28544,7 +29046,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>997</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -28560,7 +29062,7 @@
         <v>43050</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>998</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -28571,7 +29073,7 @@
         <v>43064</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>996</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -28587,7 +29089,7 @@
         <v>43079</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>999</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -28598,7 +29100,7 @@
         <v>43085</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1000</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -28609,7 +29111,7 @@
         <v>43092</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1001</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -28620,7 +29122,7 @@
         <v>43099</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1002</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -28631,7 +29133,7 @@
         <v>43100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1003</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -28647,7 +29149,7 @@
         <v>43107</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>996</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -28658,7 +29160,7 @@
         <v>43113</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>1004</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="17" spans="1:3">

--- a/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
@@ -3005,7 +3005,7 @@
     <t>东莞</t>
   </si>
   <si>
-    <t>一芳(东莞雍雅山庄店)</t>
+    <t>一芳(东莞黄江店)</t>
   </si>
   <si>
     <t>陈智超</t>
@@ -3122,9 +3122,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="35">
@@ -3211,18 +3211,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3232,19 +3223,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3265,31 +3283,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3308,10 +3312,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3320,13 +3324,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3361,9 +3358,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3430,7 +3430,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3442,13 +3526,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3460,19 +3568,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3484,115 +3580,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3964,6 +3964,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -3982,32 +3997,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -4060,16 +4049,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4078,141 +4078,141 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="37" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
@@ -4220,7 +4220,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4409,12 +4409,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4929,440 +4923,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="74" t="s">
+      <c r="F2" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="75" t="s">
+      <c r="G2" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="100" t="s">
+      <c r="I2" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="101" t="s">
+      <c r="J2" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="102" t="s">
+      <c r="K2" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="103" t="s">
+      <c r="L2" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="104" t="s">
+      <c r="M2" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="105" t="s">
+      <c r="N2" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="70"/>
-      <c r="B3" s="77" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80">
+      <c r="D3" s="77"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81">
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="107"/>
-      <c r="K3" s="108" t="e">
+      <c r="J3" s="105"/>
+      <c r="K3" s="106" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="109">
+      <c r="L3" s="107">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="110">
+      <c r="M3" s="108">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="111" t="e">
+      <c r="N3" s="109" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="84" t="s">
+      <c r="A4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86">
+      <c r="D4" s="83"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="87">
+      <c r="G4" s="85"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="112"/>
-      <c r="K4" s="108" t="e">
+      <c r="J4" s="110"/>
+      <c r="K4" s="106" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="109">
+      <c r="L4" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="110">
+      <c r="M4" s="108">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="111" t="e">
+      <c r="N4" s="109" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="106"/>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="106"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="82"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="84" t="s">
+      <c r="A5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86">
+      <c r="D5" s="83"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="87"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="87">
+      <c r="G5" s="85"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="112"/>
-      <c r="K5" s="108" t="e">
+      <c r="J5" s="110"/>
+      <c r="K5" s="106" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="109">
+      <c r="L5" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="110">
+      <c r="M5" s="108">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="111" t="e">
+      <c r="N5" s="109" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="106"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="82"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="A6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="85"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86">
+      <c r="D6" s="83"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="87"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="87">
+      <c r="G6" s="85"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="112"/>
-      <c r="K6" s="108" t="e">
+      <c r="J6" s="110"/>
+      <c r="K6" s="106" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="109">
+      <c r="L6" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="110">
+      <c r="M6" s="108">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="111" t="e">
+      <c r="N6" s="109" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="106"/>
-      <c r="P6" s="106"/>
-      <c r="Q6" s="106"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="82"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86">
+      <c r="A7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="83"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="87"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="87">
+      <c r="G7" s="85"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="112"/>
-      <c r="K7" s="108" t="e">
+      <c r="J7" s="110"/>
+      <c r="K7" s="106" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="109">
+      <c r="L7" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="110">
+      <c r="M7" s="108">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="111" t="e">
+      <c r="N7" s="109" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="106"/>
-      <c r="P7" s="106"/>
-      <c r="Q7" s="106"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="104"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="82"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="84" t="s">
+      <c r="A8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="85"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86">
+      <c r="D8" s="83"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="87"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="87">
+      <c r="G8" s="85"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="112"/>
-      <c r="K8" s="108" t="e">
+      <c r="J8" s="110"/>
+      <c r="K8" s="106" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="109">
+      <c r="L8" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="110">
+      <c r="M8" s="108">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="111" t="e">
+      <c r="N8" s="109" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="106"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="82"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="84" t="s">
+      <c r="A9" s="80"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86">
+      <c r="D9" s="83"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="87"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="87">
+      <c r="G9" s="85"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="112"/>
-      <c r="K9" s="108" t="e">
+      <c r="J9" s="110"/>
+      <c r="K9" s="106" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="109">
+      <c r="L9" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="110">
+      <c r="M9" s="108">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="111" t="e">
+      <c r="N9" s="109" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="82"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="88" t="s">
+      <c r="A10" s="80"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="89"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="91">
+      <c r="D10" s="87"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="92"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="92">
+      <c r="G10" s="90"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="90">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="113"/>
-      <c r="K10" s="114" t="e">
+      <c r="J10" s="111"/>
+      <c r="K10" s="112" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="115">
+      <c r="L10" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="116">
+      <c r="M10" s="114">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="117" t="e">
+      <c r="N10" s="115" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="94"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="96" t="s">
+      <c r="A11" s="92"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="97">
+      <c r="D11" s="95">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="97">
+      <c r="E11" s="95">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="98">
+      <c r="F11" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="97">
+      <c r="G11" s="95">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="97">
+      <c r="H11" s="95">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="98">
+      <c r="I11" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="97">
+      <c r="J11" s="95">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="118" t="e">
+      <c r="K11" s="116" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="98">
+      <c r="L11" s="96">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="98">
+      <c r="M11" s="96">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="119" t="e">
+      <c r="N11" s="117" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="106"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="106"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5381,9 +5375,9 @@
   <dimension ref="A1:Q755"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A455" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A449" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D477" sqref="D477"/>
+      <selection pane="bottomLeft" activeCell="I459" sqref="I459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9657,7 +9651,7 @@
       <c r="N95" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O95" s="120" t="s">
+      <c r="O95" s="118" t="s">
         <v>270</v>
       </c>
       <c r="P95" s="15" t="s">
@@ -27586,13 +27580,13 @@
       <c r="F469" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G469" s="65" t="s">
+      <c r="G469" s="16" t="s">
         <v>882</v>
       </c>
-      <c r="H469" s="66">
+      <c r="H469" s="16">
         <v>76159660</v>
       </c>
-      <c r="I469" s="65" t="s">
+      <c r="I469" s="16" t="s">
         <v>994</v>
       </c>
       <c r="J469" s="15" t="s">
@@ -27639,13 +27633,13 @@
       <c r="F470" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G470" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="H470" s="66">
+      <c r="G470" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H470" s="16">
         <v>76159815</v>
       </c>
-      <c r="I470" s="65" t="s">
+      <c r="I470" s="16" t="s">
         <v>995</v>
       </c>
       <c r="J470" s="15" t="s">
@@ -27692,13 +27686,13 @@
       <c r="F471" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G471" s="65" t="s">
+      <c r="G471" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="H471" s="66">
+      <c r="H471" s="16">
         <v>76160062</v>
       </c>
-      <c r="I471" s="65" t="s">
+      <c r="I471" s="16" t="s">
         <v>996</v>
       </c>
       <c r="J471" s="15" t="s">
@@ -27745,13 +27739,13 @@
       <c r="F472" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G472" s="65" t="s">
+      <c r="G472" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="H472" s="66">
+      <c r="H472" s="16">
         <v>76160521</v>
       </c>
-      <c r="I472" s="65" t="s">
+      <c r="I472" s="16" t="s">
         <v>997</v>
       </c>
       <c r="J472" s="15" t="s">
@@ -27798,13 +27792,13 @@
       <c r="F473" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G473" s="65" t="s">
+      <c r="G473" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="H473" s="66">
+      <c r="H473" s="16">
         <v>76161689</v>
       </c>
-      <c r="I473" s="65" t="s">
+      <c r="I473" s="16" t="s">
         <v>998</v>
       </c>
       <c r="J473" s="15" t="s">
@@ -27851,13 +27845,13 @@
       <c r="F474" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G474" s="65" t="s">
+      <c r="G474" s="16" t="s">
         <v>999</v>
       </c>
-      <c r="H474" s="66">
+      <c r="H474" s="16">
         <v>76161753</v>
       </c>
-      <c r="I474" s="65" t="s">
+      <c r="I474" s="16" t="s">
         <v>1000</v>
       </c>
       <c r="J474" s="15" t="s">
@@ -27904,13 +27898,13 @@
       <c r="F475" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G475" s="65" t="s">
+      <c r="G475" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="H475" s="66">
+      <c r="H475" s="16">
         <v>76161881</v>
       </c>
-      <c r="I475" s="65" t="s">
+      <c r="I475" s="16" t="s">
         <v>1001</v>
       </c>
       <c r="J475" s="15" t="s">
@@ -27957,13 +27951,13 @@
       <c r="F476" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G476" s="65" t="s">
+      <c r="G476" s="16" t="s">
         <v>1002</v>
       </c>
-      <c r="H476" s="66">
+      <c r="H476" s="16">
         <v>76162059</v>
       </c>
-      <c r="I476" s="65" t="s">
+      <c r="I476" s="16" t="s">
         <v>1003</v>
       </c>
       <c r="J476" s="15" t="s">
@@ -28548,421 +28542,421 @@
       <c r="B615" s="15"/>
     </row>
     <row r="616" spans="1:1">
-      <c r="A616" s="67"/>
+      <c r="A616" s="65"/>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" s="12"/>
     </row>
     <row r="618" spans="1:1">
-      <c r="A618" s="67"/>
+      <c r="A618" s="65"/>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" s="12"/>
     </row>
     <row r="620" spans="1:1">
-      <c r="A620" s="67"/>
+      <c r="A620" s="65"/>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" s="12"/>
     </row>
     <row r="622" spans="1:1">
-      <c r="A622" s="67"/>
+      <c r="A622" s="65"/>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" s="12"/>
     </row>
     <row r="624" spans="1:1">
-      <c r="A624" s="67"/>
+      <c r="A624" s="65"/>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" s="12"/>
     </row>
     <row r="626" spans="1:1">
-      <c r="A626" s="67"/>
+      <c r="A626" s="65"/>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" s="12"/>
     </row>
     <row r="628" spans="1:1">
-      <c r="A628" s="67"/>
+      <c r="A628" s="65"/>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" s="12"/>
     </row>
     <row r="630" spans="1:1">
-      <c r="A630" s="67"/>
+      <c r="A630" s="65"/>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" s="12"/>
     </row>
     <row r="632" spans="1:1">
-      <c r="A632" s="67"/>
+      <c r="A632" s="65"/>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" s="12"/>
     </row>
     <row r="634" spans="1:1">
-      <c r="A634" s="67"/>
+      <c r="A634" s="65"/>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" s="12"/>
     </row>
     <row r="636" spans="1:1">
-      <c r="A636" s="67"/>
+      <c r="A636" s="65"/>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" s="12"/>
     </row>
     <row r="638" spans="1:1">
-      <c r="A638" s="67"/>
+      <c r="A638" s="65"/>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" s="12"/>
     </row>
     <row r="640" spans="1:1">
-      <c r="A640" s="67"/>
+      <c r="A640" s="65"/>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" s="12"/>
     </row>
     <row r="642" spans="1:1">
-      <c r="A642" s="67"/>
+      <c r="A642" s="65"/>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" s="12"/>
     </row>
     <row r="644" spans="1:1">
-      <c r="A644" s="67"/>
+      <c r="A644" s="65"/>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" s="12"/>
     </row>
     <row r="646" spans="1:1">
-      <c r="A646" s="67"/>
+      <c r="A646" s="65"/>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" s="12"/>
     </row>
     <row r="648" spans="1:1">
-      <c r="A648" s="67"/>
+      <c r="A648" s="65"/>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" s="12"/>
     </row>
     <row r="650" spans="1:1">
-      <c r="A650" s="67"/>
+      <c r="A650" s="65"/>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" s="12"/>
     </row>
     <row r="652" spans="1:1">
-      <c r="A652" s="67"/>
+      <c r="A652" s="65"/>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" s="12"/>
     </row>
     <row r="654" spans="1:1">
-      <c r="A654" s="67"/>
+      <c r="A654" s="65"/>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" s="12"/>
     </row>
     <row r="656" spans="1:1">
-      <c r="A656" s="67"/>
+      <c r="A656" s="65"/>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" s="12"/>
     </row>
     <row r="658" spans="1:1">
-      <c r="A658" s="67"/>
+      <c r="A658" s="65"/>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" s="12"/>
     </row>
     <row r="660" spans="1:1">
-      <c r="A660" s="67"/>
+      <c r="A660" s="65"/>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" s="12"/>
     </row>
     <row r="662" spans="1:1">
-      <c r="A662" s="67"/>
+      <c r="A662" s="65"/>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" s="12"/>
     </row>
     <row r="664" spans="1:1">
-      <c r="A664" s="67"/>
+      <c r="A664" s="65"/>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" s="12"/>
     </row>
     <row r="666" spans="1:1">
-      <c r="A666" s="67"/>
+      <c r="A666" s="65"/>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" s="12"/>
     </row>
     <row r="668" spans="1:1">
-      <c r="A668" s="67"/>
+      <c r="A668" s="65"/>
     </row>
     <row r="669" spans="1:1">
       <c r="A669" s="12"/>
     </row>
     <row r="670" spans="1:1">
-      <c r="A670" s="67"/>
+      <c r="A670" s="65"/>
     </row>
     <row r="671" spans="1:1">
       <c r="A671" s="12"/>
     </row>
     <row r="672" spans="1:1">
-      <c r="A672" s="67"/>
+      <c r="A672" s="65"/>
     </row>
     <row r="673" spans="1:1">
       <c r="A673" s="12"/>
     </row>
     <row r="674" spans="1:1">
-      <c r="A674" s="67"/>
+      <c r="A674" s="65"/>
     </row>
     <row r="675" spans="1:1">
       <c r="A675" s="12"/>
     </row>
     <row r="676" spans="1:1">
-      <c r="A676" s="67"/>
+      <c r="A676" s="65"/>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" s="12"/>
     </row>
     <row r="678" spans="1:1">
-      <c r="A678" s="67"/>
+      <c r="A678" s="65"/>
     </row>
     <row r="679" spans="1:1">
       <c r="A679" s="12"/>
     </row>
     <row r="680" spans="1:1">
-      <c r="A680" s="67"/>
+      <c r="A680" s="65"/>
     </row>
     <row r="681" spans="1:1">
       <c r="A681" s="12"/>
     </row>
     <row r="682" spans="1:1">
-      <c r="A682" s="67"/>
+      <c r="A682" s="65"/>
     </row>
     <row r="683" spans="1:1">
       <c r="A683" s="12"/>
     </row>
     <row r="684" spans="1:1">
-      <c r="A684" s="67"/>
+      <c r="A684" s="65"/>
     </row>
     <row r="685" spans="1:1">
       <c r="A685" s="12"/>
     </row>
     <row r="686" spans="1:1">
-      <c r="A686" s="67"/>
+      <c r="A686" s="65"/>
     </row>
     <row r="687" spans="1:1">
       <c r="A687" s="12"/>
     </row>
     <row r="688" spans="1:1">
-      <c r="A688" s="67"/>
+      <c r="A688" s="65"/>
     </row>
     <row r="689" spans="1:1">
       <c r="A689" s="12"/>
     </row>
     <row r="690" spans="1:1">
-      <c r="A690" s="67"/>
+      <c r="A690" s="65"/>
     </row>
     <row r="691" spans="1:1">
       <c r="A691" s="12"/>
     </row>
     <row r="692" spans="1:1">
-      <c r="A692" s="67"/>
+      <c r="A692" s="65"/>
     </row>
     <row r="693" spans="1:1">
       <c r="A693" s="12"/>
     </row>
     <row r="694" spans="1:1">
-      <c r="A694" s="67"/>
+      <c r="A694" s="65"/>
     </row>
     <row r="695" spans="1:1">
       <c r="A695" s="12"/>
     </row>
     <row r="696" spans="1:1">
-      <c r="A696" s="67"/>
+      <c r="A696" s="65"/>
     </row>
     <row r="697" spans="1:1">
       <c r="A697" s="12"/>
     </row>
     <row r="698" spans="1:1">
-      <c r="A698" s="67"/>
+      <c r="A698" s="65"/>
     </row>
     <row r="699" spans="1:1">
       <c r="A699" s="12"/>
     </row>
     <row r="700" spans="1:1">
-      <c r="A700" s="67"/>
+      <c r="A700" s="65"/>
     </row>
     <row r="701" spans="1:1">
       <c r="A701" s="12"/>
     </row>
     <row r="702" spans="1:1">
-      <c r="A702" s="67"/>
+      <c r="A702" s="65"/>
     </row>
     <row r="703" spans="1:1">
       <c r="A703" s="12"/>
     </row>
     <row r="704" spans="1:1">
-      <c r="A704" s="67"/>
+      <c r="A704" s="65"/>
     </row>
     <row r="705" spans="1:1">
       <c r="A705" s="12"/>
     </row>
     <row r="706" spans="1:1">
-      <c r="A706" s="67"/>
+      <c r="A706" s="65"/>
     </row>
     <row r="707" spans="1:1">
       <c r="A707" s="12"/>
     </row>
     <row r="708" spans="1:1">
-      <c r="A708" s="67"/>
+      <c r="A708" s="65"/>
     </row>
     <row r="709" spans="1:1">
       <c r="A709" s="12"/>
     </row>
     <row r="710" spans="1:1">
-      <c r="A710" s="67"/>
+      <c r="A710" s="65"/>
     </row>
     <row r="711" spans="1:1">
       <c r="A711" s="12"/>
     </row>
     <row r="712" spans="1:1">
-      <c r="A712" s="67"/>
+      <c r="A712" s="65"/>
     </row>
     <row r="713" spans="1:1">
       <c r="A713" s="12"/>
     </row>
     <row r="714" spans="1:1">
-      <c r="A714" s="67"/>
+      <c r="A714" s="65"/>
     </row>
     <row r="715" spans="1:1">
       <c r="A715" s="12"/>
     </row>
     <row r="716" spans="1:1">
-      <c r="A716" s="67"/>
+      <c r="A716" s="65"/>
     </row>
     <row r="717" spans="1:1">
       <c r="A717" s="12"/>
     </row>
     <row r="718" spans="1:1">
-      <c r="A718" s="67"/>
+      <c r="A718" s="65"/>
     </row>
     <row r="719" spans="1:1">
       <c r="A719" s="12"/>
     </row>
     <row r="720" spans="1:1">
-      <c r="A720" s="67"/>
+      <c r="A720" s="65"/>
     </row>
     <row r="721" spans="1:1">
       <c r="A721" s="12"/>
     </row>
     <row r="722" spans="1:1">
-      <c r="A722" s="67"/>
+      <c r="A722" s="65"/>
     </row>
     <row r="723" spans="1:1">
       <c r="A723" s="12"/>
     </row>
     <row r="724" spans="1:1">
-      <c r="A724" s="67"/>
+      <c r="A724" s="65"/>
     </row>
     <row r="725" spans="1:1">
       <c r="A725" s="12"/>
     </row>
     <row r="726" spans="1:1">
-      <c r="A726" s="67"/>
+      <c r="A726" s="65"/>
     </row>
     <row r="727" spans="1:1">
       <c r="A727" s="12"/>
     </row>
     <row r="728" spans="1:1">
-      <c r="A728" s="67"/>
+      <c r="A728" s="65"/>
     </row>
     <row r="729" spans="1:1">
       <c r="A729" s="12"/>
     </row>
     <row r="730" spans="1:1">
-      <c r="A730" s="67"/>
+      <c r="A730" s="65"/>
     </row>
     <row r="731" spans="1:1">
       <c r="A731" s="12"/>
     </row>
     <row r="732" spans="1:1">
-      <c r="A732" s="67"/>
+      <c r="A732" s="65"/>
     </row>
     <row r="733" spans="1:1">
       <c r="A733" s="12"/>
     </row>
     <row r="734" spans="1:1">
-      <c r="A734" s="67"/>
+      <c r="A734" s="65"/>
     </row>
     <row r="735" spans="1:1">
       <c r="A735" s="12"/>
     </row>
     <row r="736" spans="1:1">
-      <c r="A736" s="67"/>
+      <c r="A736" s="65"/>
     </row>
     <row r="737" spans="1:1">
       <c r="A737" s="12"/>
     </row>
     <row r="738" spans="1:1">
-      <c r="A738" s="67"/>
+      <c r="A738" s="65"/>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" s="12"/>
     </row>
     <row r="740" spans="1:1">
-      <c r="A740" s="67"/>
+      <c r="A740" s="65"/>
     </row>
     <row r="741" spans="1:1">
       <c r="A741" s="12"/>
     </row>
     <row r="742" spans="1:1">
-      <c r="A742" s="67"/>
+      <c r="A742" s="65"/>
     </row>
     <row r="743" spans="1:1">
       <c r="A743" s="12"/>
     </row>
     <row r="744" spans="1:1">
-      <c r="A744" s="67"/>
+      <c r="A744" s="65"/>
     </row>
     <row r="745" spans="1:1">
       <c r="A745" s="12"/>
     </row>
     <row r="746" spans="1:1">
-      <c r="A746" s="67"/>
+      <c r="A746" s="65"/>
     </row>
     <row r="747" spans="1:1">
       <c r="A747" s="12"/>
     </row>
     <row r="748" spans="1:1">
-      <c r="A748" s="67"/>
+      <c r="A748" s="65"/>
     </row>
     <row r="749" spans="1:1">
       <c r="A749" s="12"/>
     </row>
     <row r="750" spans="1:1">
-      <c r="A750" s="67"/>
+      <c r="A750" s="65"/>
     </row>
     <row r="751" spans="1:1">
       <c r="A751" s="12"/>
     </row>
     <row r="752" spans="1:1">
-      <c r="A752" s="67"/>
+      <c r="A752" s="65"/>
     </row>
     <row r="753" spans="1:1">
       <c r="A753" s="12"/>
     </row>
     <row r="754" spans="1:1">
-      <c r="A754" s="67"/>
+      <c r="A754" s="65"/>
     </row>
     <row r="755" spans="1:1">
       <c r="A755" s="12"/>

--- a/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
+++ b/个人/别伟超/实施周数据-李登林组-别伟超.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="19770" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -3075,6 +3075,81 @@
   </si>
   <si>
     <t>悸动(荆州职业技术学院店)</t>
+  </si>
+  <si>
+    <t>悸动(苏州新乐广场店)</t>
+  </si>
+  <si>
+    <t>一芳(武汉金银潭永旺店)</t>
+  </si>
+  <si>
+    <t>李文</t>
+  </si>
+  <si>
+    <t>一芳(厦门泉水湾店)</t>
+  </si>
+  <si>
+    <t>李恒奕</t>
+  </si>
+  <si>
+    <t>汕头</t>
+  </si>
+  <si>
+    <t>一芳(汕头碧霞庄店)</t>
+  </si>
+  <si>
+    <t>陈生</t>
+  </si>
+  <si>
+    <t>一芳(泉州世纪巨星店)</t>
+  </si>
+  <si>
+    <t>胡潘泷</t>
+  </si>
+  <si>
+    <t>一芳(武汉南湖店)</t>
+  </si>
+  <si>
+    <t>袁橙</t>
+  </si>
+  <si>
+    <t>佛山</t>
+  </si>
+  <si>
+    <t>一芳(佛山顺德大良店)</t>
+  </si>
+  <si>
+    <t>佘先生</t>
+  </si>
+  <si>
+    <t>一芳(杭州余之城店)</t>
+  </si>
+  <si>
+    <t>王燕</t>
+  </si>
+  <si>
+    <t>一芳(南京河西万达店)</t>
+  </si>
+  <si>
+    <t>叶胜</t>
+  </si>
+  <si>
+    <t>一芳(深圳格林小镇店)</t>
+  </si>
+  <si>
+    <t>陈海波</t>
+  </si>
+  <si>
+    <t>一芳(深圳形色城店)</t>
+  </si>
+  <si>
+    <t>潘梓健</t>
+  </si>
+  <si>
+    <t>一芳(深圳甲岸村店)</t>
+  </si>
+  <si>
+    <t>李萧阳</t>
   </si>
   <si>
     <t>姓名</t>
@@ -3121,10 +3196,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="35">
@@ -3211,11 +3286,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -3223,9 +3293,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3239,14 +3332,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3260,15 +3346,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3276,6 +3354,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3290,6 +3376,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -3297,18 +3391,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -3319,17 +3415,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3343,27 +3436,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3436,12 +3511,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3454,7 +3523,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3466,25 +3571,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3496,13 +3637,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3520,79 +3667,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3978,17 +4053,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3997,6 +4072,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -4026,17 +4112,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4049,27 +4135,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4078,141 +4153,141 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
@@ -5375,9 +5450,9 @@
   <dimension ref="A1:Q755"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A449" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A476" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I459" sqref="I459"/>
+      <selection pane="bottomLeft" activeCell="E489" sqref="E489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -27569,7 +27644,7 @@
         <v>18</v>
       </c>
       <c r="C469" s="18">
-        <v>43217</v>
+        <v>43214</v>
       </c>
       <c r="D469" s="45" t="s">
         <v>42</v>
@@ -27622,7 +27697,7 @@
         <v>18</v>
       </c>
       <c r="C470" s="18">
-        <v>43217</v>
+        <v>43214</v>
       </c>
       <c r="D470" s="45" t="s">
         <v>42</v>
@@ -27675,7 +27750,7 @@
         <v>18</v>
       </c>
       <c r="C471" s="18">
-        <v>43217</v>
+        <v>43214</v>
       </c>
       <c r="D471" s="45" t="s">
         <v>42</v>
@@ -27728,7 +27803,7 @@
         <v>18</v>
       </c>
       <c r="C472" s="18">
-        <v>43217</v>
+        <v>43214</v>
       </c>
       <c r="D472" s="45" t="s">
         <v>42</v>
@@ -27781,7 +27856,7 @@
         <v>18</v>
       </c>
       <c r="C473" s="18">
-        <v>43217</v>
+        <v>43214</v>
       </c>
       <c r="D473" s="45" t="s">
         <v>42</v>
@@ -27834,7 +27909,7 @@
         <v>18</v>
       </c>
       <c r="C474" s="18">
-        <v>43217</v>
+        <v>43214</v>
       </c>
       <c r="D474" s="45" t="s">
         <v>42</v>
@@ -27887,7 +27962,7 @@
         <v>18</v>
       </c>
       <c r="C475" s="18">
-        <v>43217</v>
+        <v>43214</v>
       </c>
       <c r="D475" s="45" t="s">
         <v>42</v>
@@ -27940,7 +28015,7 @@
         <v>18</v>
       </c>
       <c r="C476" s="18">
-        <v>43217</v>
+        <v>43214</v>
       </c>
       <c r="D476" s="45" t="s">
         <v>42</v>
@@ -27985,53 +28060,641 @@
         <v>870</v>
       </c>
     </row>
-    <row r="477" spans="1:2">
-      <c r="A477" s="22"/>
-      <c r="B477" s="21"/>
-    </row>
-    <row r="478" spans="1:2">
-      <c r="A478" s="64"/>
-      <c r="B478" s="21"/>
-    </row>
-    <row r="479" spans="1:2">
-      <c r="A479" s="22"/>
-      <c r="B479" s="21"/>
-    </row>
-    <row r="480" spans="1:2">
-      <c r="A480" s="64"/>
-      <c r="B480" s="21"/>
-    </row>
-    <row r="481" spans="1:2">
-      <c r="A481" s="22"/>
-      <c r="B481" s="21"/>
-    </row>
-    <row r="482" spans="1:2">
-      <c r="A482" s="64"/>
-      <c r="B482" s="21"/>
-    </row>
-    <row r="483" spans="1:2">
-      <c r="A483" s="22"/>
-      <c r="B483" s="21"/>
-    </row>
-    <row r="484" spans="1:2">
-      <c r="A484" s="64"/>
-      <c r="B484" s="21"/>
-    </row>
-    <row r="485" spans="1:2">
-      <c r="A485" s="22"/>
-      <c r="B485" s="21"/>
-    </row>
-    <row r="486" spans="1:2">
-      <c r="A486" s="64"/>
-      <c r="B486" s="21"/>
-    </row>
-    <row r="487" spans="1:2">
-      <c r="A487" s="22"/>
-      <c r="B487" s="21"/>
-    </row>
-    <row r="488" spans="1:2">
-      <c r="A488" s="64"/>
-      <c r="B488" s="21"/>
+    <row r="477" s="5" customFormat="1" spans="1:17">
+      <c r="A477" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B477" s="19">
+        <v>18</v>
+      </c>
+      <c r="C477" s="18">
+        <v>43214</v>
+      </c>
+      <c r="D477" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E477" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F477" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G477" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="H477" s="16">
+        <v>76162255</v>
+      </c>
+      <c r="I477" s="16" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J477" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K477" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L477" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M477" s="42" t="s">
+        <v>868</v>
+      </c>
+      <c r="N477" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="O477" s="8">
+        <v>18895602870</v>
+      </c>
+      <c r="P477" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q477" s="5" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="478" s="6" customFormat="1" spans="1:17">
+      <c r="A478" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B478" s="19">
+        <v>18</v>
+      </c>
+      <c r="C478" s="18">
+        <v>43214</v>
+      </c>
+      <c r="D478" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E478" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="F478" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G478" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H478" s="42">
+        <v>76161115</v>
+      </c>
+      <c r="I478" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="J478" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K478" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L478" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M478" s="16" t="s">
+        <v>1006</v>
+      </c>
+      <c r="N478" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="O478" s="16">
+        <v>13554237224</v>
+      </c>
+      <c r="P478" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q478" s="6" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="479" s="6" customFormat="1" spans="1:17">
+      <c r="A479" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B479" s="19">
+        <v>18</v>
+      </c>
+      <c r="C479" s="18">
+        <v>43214</v>
+      </c>
+      <c r="D479" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E479" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="F479" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G479" s="16" t="s">
+        <v>920</v>
+      </c>
+      <c r="H479" s="42">
+        <v>76161107</v>
+      </c>
+      <c r="I479" s="16" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J479" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K479" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L479" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M479" s="16" t="s">
+        <v>1008</v>
+      </c>
+      <c r="N479" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="O479" s="16">
+        <v>13779949215</v>
+      </c>
+      <c r="P479" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q479" s="6" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="480" s="6" customFormat="1" spans="1:17">
+      <c r="A480" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B480" s="19">
+        <v>18</v>
+      </c>
+      <c r="C480" s="18">
+        <v>43214</v>
+      </c>
+      <c r="D480" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E480" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="F480" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G480" s="16" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H480" s="42">
+        <v>76158211</v>
+      </c>
+      <c r="I480" s="42" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J480" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K480" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L480" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M480" s="16" t="s">
+        <v>1011</v>
+      </c>
+      <c r="N480" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="O480" s="16">
+        <v>13794133500</v>
+      </c>
+      <c r="P480" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q480" s="6" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="481" s="6" customFormat="1" spans="1:17">
+      <c r="A481" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B481" s="19">
+        <v>18</v>
+      </c>
+      <c r="C481" s="18">
+        <v>43214</v>
+      </c>
+      <c r="D481" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E481" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="F481" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G481" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="H481" s="42">
+        <v>76161922</v>
+      </c>
+      <c r="I481" s="16" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J481" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K481" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L481" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M481" s="16" t="s">
+        <v>1013</v>
+      </c>
+      <c r="N481" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="O481" s="16">
+        <v>18106999908</v>
+      </c>
+      <c r="P481" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q481" s="6" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="482" s="6" customFormat="1" spans="1:17">
+      <c r="A482" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B482" s="19">
+        <v>18</v>
+      </c>
+      <c r="C482" s="18">
+        <v>43214</v>
+      </c>
+      <c r="D482" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E482" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="F482" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G482" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H482" s="42">
+        <v>76161923</v>
+      </c>
+      <c r="I482" s="16" t="s">
+        <v>1014</v>
+      </c>
+      <c r="J482" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K482" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L482" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M482" s="16" t="s">
+        <v>1015</v>
+      </c>
+      <c r="N482" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="O482" s="16">
+        <v>15827727666</v>
+      </c>
+      <c r="P482" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q482" s="6" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="483" s="6" customFormat="1" spans="1:17">
+      <c r="A483" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B483" s="19">
+        <v>18</v>
+      </c>
+      <c r="C483" s="18">
+        <v>43214</v>
+      </c>
+      <c r="D483" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E483" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="F483" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G483" s="16" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H483" s="42">
+        <v>76161927</v>
+      </c>
+      <c r="I483" s="16" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J483" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K483" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L483" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M483" s="16" t="s">
+        <v>1018</v>
+      </c>
+      <c r="N483" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="O483" s="16">
+        <v>13825565198</v>
+      </c>
+      <c r="P483" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q483" s="6" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="484" s="6" customFormat="1" spans="1:17">
+      <c r="A484" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B484" s="19">
+        <v>18</v>
+      </c>
+      <c r="C484" s="18">
+        <v>43214</v>
+      </c>
+      <c r="D484" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E484" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="F484" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G484" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H484" s="42">
+        <v>76162285</v>
+      </c>
+      <c r="I484" s="16" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J484" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K484" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L484" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M484" s="16" t="s">
+        <v>1020</v>
+      </c>
+      <c r="N484" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="O484" s="16">
+        <v>13250832740</v>
+      </c>
+      <c r="P484" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q484" s="6" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="485" s="6" customFormat="1" spans="1:17">
+      <c r="A485" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B485" s="19">
+        <v>18</v>
+      </c>
+      <c r="C485" s="18">
+        <v>43214</v>
+      </c>
+      <c r="D485" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E485" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="F485" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G485" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="H485" s="42">
+        <v>76162287</v>
+      </c>
+      <c r="I485" s="16" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J485" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K485" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L485" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M485" s="16" t="s">
+        <v>1022</v>
+      </c>
+      <c r="N485" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="O485" s="16">
+        <v>18602500064</v>
+      </c>
+      <c r="P485" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q485" s="6" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="486" s="6" customFormat="1" spans="1:17">
+      <c r="A486" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B486" s="19">
+        <v>18</v>
+      </c>
+      <c r="C486" s="18">
+        <v>43214</v>
+      </c>
+      <c r="D486" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E486" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="F486" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G486" s="16" t="s">
+        <v>688</v>
+      </c>
+      <c r="H486" s="42">
+        <v>76162289</v>
+      </c>
+      <c r="I486" s="16" t="s">
+        <v>1023</v>
+      </c>
+      <c r="J486" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K486" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L486" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M486" s="16" t="s">
+        <v>1024</v>
+      </c>
+      <c r="N486" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="O486" s="16">
+        <v>13828887803</v>
+      </c>
+      <c r="P486" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q486" s="6" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="487" s="6" customFormat="1" spans="1:17">
+      <c r="A487" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B487" s="19">
+        <v>18</v>
+      </c>
+      <c r="C487" s="18">
+        <v>43214</v>
+      </c>
+      <c r="D487" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E487" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="F487" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G487" s="16" t="s">
+        <v>688</v>
+      </c>
+      <c r="H487" s="60">
+        <v>76162290</v>
+      </c>
+      <c r="I487" s="16" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J487" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K487" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L487" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M487" s="16" t="s">
+        <v>1026</v>
+      </c>
+      <c r="N487" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="O487" s="16">
+        <v>13662211011</v>
+      </c>
+      <c r="P487" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q487" s="6" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="488" s="6" customFormat="1" spans="1:17">
+      <c r="A488" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B488" s="19">
+        <v>18</v>
+      </c>
+      <c r="C488" s="18">
+        <v>43214</v>
+      </c>
+      <c r="D488" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E488" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="F488" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="G488" s="16" t="s">
+        <v>688</v>
+      </c>
+      <c r="H488" s="60">
+        <v>76162390</v>
+      </c>
+      <c r="I488" s="16" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J488" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K488" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L488" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M488" s="16" t="s">
+        <v>1028</v>
+      </c>
+      <c r="N488" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="O488" s="16">
+        <v>15920088352</v>
+      </c>
+      <c r="P488" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q488" s="6" t="s">
+        <v>870</v>
+      </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" s="22"/>
@@ -28963,16 +29626,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H422:H433">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H449:H464">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H449:H464">
+  <conditionalFormatting sqref="H478:H488">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C163 C179 C198 C199 C200 C216 C227 C228 C229 C230 C231 C232 C233 C234 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C257 C258 C265 C266 C267 C268 C269 C270 C271 C272 C273 C274 C275 C276 C277 C278 C279 C280 C281 C282 C283 C284 C285 C286 C287 C288 C289 C290 C291 C292 C293 C294 C295 C296 C297 C298 C299 C300 C301 C302 C320 C321 C322 C323 C324 C337 C338 C339 C340 C341 C342 C343 C344 C345 C346 C347 C348 C349 C350 C351 C352 C353 C354 C355 C356 C357 C358 C359 C360 C361 C362 C363 C364 C365 C366 C367 C368 C369 C370 C371 C372 C373 C374 C375 C376 C377 C378 C379 C380 C381 C382 C383 C384 C385 C386 C387 C388 C398 C399 C400 C401 C402 C403 C404 C405 C406 C407 C408 C409 C410 C411 C412 C413 C414 C415 C416 C417 C418 C419 C420 C421 C422 C423 C424 C425 C426 C427 C428 C429 C434 C435 C436 C437 C438 C465 C466 C467 C468 C4:C17 C18:C23 C24:C34 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C146 C147:C162 C164:C178 C180:C197 C201:C215 C217:C226 C259:C261 C262:C264 C303:C313 C314:C319 C325:C330 C331:C336 C389:C397 C430:C433 C439:C448 C449:C462 C463:C464 C469:C476 C477:C1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C163 C179 C198 C199 C200 C216 C227 C228 C229 C230 C231 C232 C233 C234 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C257 C258 C265 C266 C267 C268 C269 C270 C271 C272 C273 C274 C275 C276 C277 C278 C279 C280 C281 C282 C283 C284 C285 C286 C287 C288 C289 C290 C291 C292 C293 C294 C295 C296 C297 C298 C299 C300 C301 C302 C320 C321 C322 C323 C324 C337 C338 C339 C340 C341 C342 C343 C344 C345 C346 C347 C348 C349 C350 C351 C352 C353 C354 C355 C356 C357 C358 C359 C360 C361 C362 C363 C364 C365 C366 C367 C368 C369 C370 C371 C372 C373 C374 C375 C376 C377 C378 C379 C380 C381 C382 C383 C384 C385 C386 C387 C388 C398 C399 C400 C401 C402 C403 C404 C405 C406 C407 C408 C409 C410 C411 C412 C413 C414 C415 C416 C417 C418 C419 C420 C421 C422 C423 C424 C425 C426 C427 C428 C429 C434 C435 C436 C437 C438 C465 C466 C467 C468 C4:C17 C18:C23 C24:C34 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C146 C147:C162 C164:C178 C180:C197 C201:C215 C217:C226 C259:C261 C262:C264 C303:C313 C314:C319 C325:C330 C331:C336 C389:C397 C430:C433 C439:C448 C449:C462 C463:C464 C469:C488 C489:C1048576">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D18 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D60 D71 D84 D85 D86 D106 D146 D163 D179 D198 D199 D200 D216 D227 D228 D229 D235 D236 D237 D238 D239 D240 D241 D242 D243 D244 D245 D246 D247 D248 D249 D250 D251 D252 D253 D254 D255 D256 D257 D258 D259 D265 D266 D267 D268 D269 D270 D271 D272 D273 D274 D275 D276 D277 D278 D279 D280 D281 D282 D283 D284 D285 D286 D287 D288 D289 D290 D291 D292 D293 D294 D295 D296 D297 D298 D299 D300 D301 D302 D320 D321 D322 D323 D324 D337 D338 D339 D340 D341 D342 D343 D344 D345 D346 D347 D348 D349 D350 D351 D352 D353 D354 D355 D356 D357 D358 D369 D370 D371 D372 D373 D374 D375 D398 D399 D400 D401 D402 D403 D404 D405 D406 D407 D408 D409 D410 D411 D412 D413 D414 D415 D416 D417 D418 D419 D420 D421 D422 D423 D424 D425 D426 D427 D428 D429 D430 D431 D432 D433 D438 D465 D466 D467 D468 D4:D17 D19:D22 D23:D35 D49:D59 D61:D70 D72:D81 D82:D83 D87:D105 D107:D117 D118:D137 D138:D145 D147:D162 D164:D178 D180:D197 D201:D215 D217:D226 D230:D234 D260:D264 D303:D313 D314:D319 D325:D331 D332:D336 D359:D368 D376:D388 D389:D397 D434:D437 D439:D448 D449:D462 D463:D464 D469:D476 D477:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D18 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D60 D71 D84 D85 D86 D106 D146 D163 D179 D198 D199 D200 D216 D227 D228 D229 D235 D236 D237 D238 D239 D240 D241 D242 D243 D244 D245 D246 D247 D248 D249 D250 D251 D252 D253 D254 D255 D256 D257 D258 D259 D265 D266 D267 D268 D269 D270 D271 D272 D273 D274 D275 D276 D277 D278 D279 D280 D281 D282 D283 D284 D285 D286 D287 D288 D289 D290 D291 D292 D293 D294 D295 D296 D297 D298 D299 D300 D301 D302 D320 D321 D322 D323 D324 D337 D338 D339 D340 D341 D342 D343 D344 D345 D346 D347 D348 D349 D350 D351 D352 D353 D354 D355 D356 D357 D358 D369 D370 D371 D372 D373 D374 D375 D398 D399 D400 D401 D402 D403 D404 D405 D406 D407 D408 D409 D410 D411 D412 D413 D414 D415 D416 D417 D418 D419 D420 D421 D422 D423 D424 D425 D426 D427 D428 D429 D430 D431 D432 D433 D438 D465 D466 D467 D468 D477 D4:D17 D19:D22 D23:D35 D49:D59 D61:D70 D72:D81 D82:D83 D87:D105 D107:D117 D118:D137 D138:D145 D147:D162 D164:D178 D180:D197 D201:D215 D217:D226 D230:D234 D260:D264 D303:D313 D314:D319 D325:D331 D332:D336 D359:D368 D376:D388 D389:D397 D434:D437 D439:D448 D449:D462 D463:D464 D469:D476 D478:D488 D489:D1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>
@@ -29001,13 +29667,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>1004</v>
+        <v>1029</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1005</v>
+        <v>1030</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1006</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -29018,7 +29684,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1007</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -29029,7 +29695,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1008</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -29040,7 +29706,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1009</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -29056,7 +29722,7 @@
         <v>43050</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1010</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -29067,7 +29733,7 @@
         <v>43064</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1008</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -29083,7 +29749,7 @@
         <v>43079</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1011</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -29094,7 +29760,7 @@
         <v>43085</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1012</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -29105,7 +29771,7 @@
         <v>43092</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1013</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -29116,7 +29782,7 @@
         <v>43099</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1014</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -29127,7 +29793,7 @@
         <v>43100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1015</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -29143,7 +29809,7 @@
         <v>43107</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>1008</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -29154,7 +29820,7 @@
         <v>43113</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>1016</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="17" spans="1:3">
